--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886EA8A1-D22E-401B-BF8E-FAE155FC2D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E45A2E-0FFE-4556-A50F-0FCCE3C27768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1651,19 +1651,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムのユーザがログイン時に使用するパスワードであり、障害解析に使用しないため。</t>
-    <rPh sb="29" eb="31">
-      <t>ショウガイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>出力例）　password = [********],</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
@@ -1873,6 +1860,22 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報漏洩のリスクを低減させるため、ログインパスワードは必ずマスキングを行う。</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウロウエイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイゲン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2852,7 +2855,7 @@
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2908,13 +2911,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2946,7 +2949,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -2992,7 +2995,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3028,7 +3031,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3070,7 +3073,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3108,7 +3111,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3150,7 +3153,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3188,7 +3191,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3230,7 +3233,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3308,7 +3311,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3386,7 +3389,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3461,7 +3464,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3487,7 +3490,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3530,7 +3533,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3573,7 +3576,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3616,7 +3619,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3659,7 +3662,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3692,7 +3695,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3702,7 +3705,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3730,7 +3733,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3740,7 +3743,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3773,7 +3776,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3783,7 +3786,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3811,7 +3814,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3821,7 +3824,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -4012,7 +4015,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4048,7 +4051,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4122,7 +4125,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4158,7 +4161,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4382,7 +4385,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4454,7 +4457,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4488,7 +4491,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4560,7 +4563,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4596,7 +4599,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4629,7 +4632,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4656,7 +4659,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4700,7 +4703,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4742,7 +4745,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4783,7 +4786,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4824,7 +4827,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4865,7 +4868,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -4988,7 +4991,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5015,7 +5018,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5104,7 +5107,7 @@
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5141,7 +5144,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5707,7 +5710,7 @@
         <v>62</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF101" s="49"/>
       <c r="AG101" s="49"/>
@@ -5717,7 +5720,7 @@
       <c r="B102" s="49"/>
       <c r="F102" s="17"/>
       <c r="G102" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E45A2E-0FFE-4556-A50F-0FCCE3C27768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF9C45B-54B7-47FA-8F58-11FC1585B413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="363">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -697,18 +697,12 @@
     <t>出力内容</t>
   </si>
   <si>
-    <t>ログカテゴリ名</t>
-  </si>
-  <si>
     <t>ロガー名称</t>
   </si>
   <si>
     <t>ユーザからのアクセスを記録するためのログ。</t>
   </si>
   <si>
-    <t>^HTTP_ACCESS$</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
@@ -789,14 +783,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>^.*FailureLogUtil.*$</t>
-  </si>
-  <si>
     <t>SQL</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>^.*$</t>
   </si>
   <si>
     <t>発行されたSQLに関する情報を出力するログ。</t>
@@ -1877,6 +1865,32 @@
     <rPh sb="35" eb="36">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロガー設定名</t>
+    <rPh sb="3" eb="6">
+      <t>セッテイメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロガー名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MONITOR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTTP_ACCESS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2704,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2725,7 +2739,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2766,11 +2780,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2836,10 +2850,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2849,13 +2863,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2911,13 +2925,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2949,7 +2963,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -2995,7 +3009,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3031,7 +3045,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3073,7 +3087,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3111,7 +3125,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3153,7 +3167,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3191,7 +3205,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3233,7 +3247,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3311,7 +3325,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3389,7 +3403,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3464,7 +3478,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3490,7 +3504,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3533,7 +3547,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3576,7 +3590,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3619,7 +3633,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3662,7 +3676,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3695,7 +3709,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3705,7 +3719,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3733,7 +3747,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3743,7 +3757,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3776,7 +3790,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3786,7 +3800,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3814,7 +3828,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3824,7 +3838,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -4015,7 +4029,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4051,7 +4065,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4125,7 +4139,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4161,7 +4175,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4385,7 +4399,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4457,7 +4471,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4491,7 +4505,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4563,7 +4577,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4599,7 +4613,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4632,7 +4646,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4659,7 +4673,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4703,7 +4717,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4745,7 +4759,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4786,7 +4800,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4827,7 +4841,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4868,7 +4882,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -4991,7 +5005,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5000,7 +5014,7 @@
       <c r="B76" s="49"/>
       <c r="E76" s="30"/>
       <c r="F76" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
@@ -5018,7 +5032,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5052,14 +5066,14 @@
       <c r="B79" s="49"/>
       <c r="E79" s="30"/>
       <c r="F79" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -5095,19 +5109,19 @@
       <c r="B80" s="49"/>
       <c r="E80" s="30"/>
       <c r="F80" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5144,7 +5158,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5283,7 +5297,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5322,7 +5336,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5710,7 +5724,7 @@
         <v>62</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AF101" s="49"/>
       <c r="AG101" s="49"/>
@@ -5720,7 +5734,7 @@
       <c r="B102" s="49"/>
       <c r="F102" s="17"/>
       <c r="G102" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5733,34 +5747,34 @@
     </row>
     <row r="104" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="G104" s="49" t="s">
         <v>320</v>
-      </c>
-      <c r="G104" s="49" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="49" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="49" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5819,12 +5833,12 @@
       <c r="H113" s="28"/>
       <c r="I113" s="29"/>
       <c r="J113" s="28" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="29"/>
       <c r="M113" s="28" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
@@ -5857,24 +5871,24 @@
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
       <c r="G114" s="23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
       <c r="J114" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="25"/>
       <c r="M114" s="24" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="25"/>
       <c r="R114" s="24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="S114" s="24"/>
       <c r="T114" s="24"/>
@@ -5909,7 +5923,7 @@
       <c r="P115" s="45"/>
       <c r="Q115" s="46"/>
       <c r="R115" s="45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -5969,7 +5983,7 @@
       <c r="B117" s="49"/>
       <c r="E117" s="30"/>
       <c r="F117" s="17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>121</v>
@@ -5999,7 +6013,7 @@
       <c r="F119" s="30"/>
       <c r="G119" s="17"/>
       <c r="H119" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
@@ -6036,7 +6050,7 @@
       <c r="F120" s="30"/>
       <c r="G120" s="17"/>
       <c r="H120" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
@@ -6073,7 +6087,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="17"/>
       <c r="H121" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF121" s="49"/>
       <c r="AG121" s="49"/>
@@ -6255,7 +6269,7 @@
       <c r="N128" s="19"/>
       <c r="O128" s="20"/>
       <c r="P128" s="19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
@@ -6525,7 +6539,7 @@
       <c r="O135" s="20"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="32" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
@@ -6563,14 +6577,14 @@
       <c r="O136" s="20"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
       <c r="U136" s="26"/>
       <c r="V136" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W136" s="22"/>
       <c r="X136" s="26"/>
@@ -6678,7 +6692,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="26"/>
       <c r="P139" s="22" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
@@ -6705,7 +6719,7 @@
       <c r="B140" s="49"/>
       <c r="E140" s="30"/>
       <c r="H140" s="23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
@@ -6795,7 +6809,7 @@
       <c r="B143" s="49"/>
       <c r="E143" s="30"/>
       <c r="F143" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>124</v>
@@ -6821,7 +6835,7 @@
       <c r="B145" s="49"/>
       <c r="E145" s="30"/>
       <c r="H145" s="23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
@@ -7268,7 +7282,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="21" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
@@ -7303,7 +7317,7 @@
       <c r="B159" s="49"/>
       <c r="E159" s="30"/>
       <c r="F159" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>18</v>
@@ -7316,7 +7330,7 @@
       <c r="E160" s="30"/>
       <c r="F160" s="17"/>
       <c r="G160" s="51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
@@ -7353,7 +7367,7 @@
       <c r="E161" s="30"/>
       <c r="F161" s="17"/>
       <c r="G161" s="52" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -7427,7 +7441,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="17"/>
       <c r="G163" s="52" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -7464,7 +7478,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
       <c r="G164" s="53" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
@@ -7544,12 +7558,12 @@
       <c r="H169" s="28"/>
       <c r="I169" s="29"/>
       <c r="J169" s="28" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="29"/>
       <c r="M169" s="28" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="N169" s="28"/>
       <c r="O169" s="28"/>
@@ -7587,19 +7601,19 @@
       <c r="H170" s="47"/>
       <c r="I170" s="48"/>
       <c r="J170" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K170" s="47"/>
       <c r="L170" s="48"/>
       <c r="M170" s="47" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="N170" s="47"/>
       <c r="O170" s="47"/>
       <c r="P170" s="47"/>
       <c r="Q170" s="48"/>
       <c r="R170" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
@@ -7662,7 +7676,7 @@
       <c r="F174" s="30"/>
       <c r="G174" s="17"/>
       <c r="H174" s="32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="33"/>
@@ -7699,7 +7713,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="17"/>
       <c r="H175" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF175" s="49"/>
       <c r="AG175" s="49"/>
@@ -7871,7 +7885,7 @@
       <c r="O181" s="19"/>
       <c r="P181" s="20"/>
       <c r="Q181" s="19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
@@ -7971,7 +7985,7 @@
       <c r="B184" s="49"/>
       <c r="E184" s="30"/>
       <c r="H184" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I184" s="24"/>
       <c r="J184" s="24"/>
@@ -8055,10 +8069,10 @@
       <c r="B187" s="49"/>
       <c r="E187" s="30"/>
       <c r="F187" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF187" s="49"/>
       <c r="AG187" s="49"/>
@@ -8073,7 +8087,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
@@ -8085,7 +8099,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="30"/>
       <c r="H189" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF189" s="49"/>
       <c r="AG189" s="49"/>
@@ -8097,7 +8111,7 @@
       <c r="F190" s="30"/>
       <c r="G190" s="17"/>
       <c r="H190" s="39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I190" s="24"/>
       <c r="J190" s="24"/>
@@ -8134,7 +8148,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
@@ -8171,7 +8185,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8208,7 +8222,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8245,7 +8259,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8282,7 +8296,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8317,7 +8331,7 @@
       <c r="F196" s="37"/>
       <c r="G196" s="38"/>
       <c r="H196" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I196" s="22"/>
       <c r="J196" s="22"/>
@@ -8354,7 +8368,7 @@
       <c r="F197" s="30"/>
       <c r="G197" s="17"/>
       <c r="H197" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF197" s="49"/>
     </row>
@@ -8375,7 +8389,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AF199" s="49"/>
     </row>
@@ -8425,7 +8439,7 @@
       <c r="B201" s="49"/>
       <c r="E201" s="30"/>
       <c r="H201" s="21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I201" s="22"/>
       <c r="J201" s="22"/>
@@ -8433,13 +8447,13 @@
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O201" s="22"/>
       <c r="P201" s="22"/>
       <c r="Q201" s="26"/>
       <c r="R201" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S201" s="22"/>
       <c r="T201" s="22"/>
@@ -8464,7 +8478,7 @@
       <c r="B202" s="49"/>
       <c r="E202" s="30"/>
       <c r="H202" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" s="22"/>
@@ -8472,13 +8486,13 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
       <c r="Q202" s="26"/>
       <c r="R202" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S202" s="22"/>
       <c r="T202" s="22"/>
@@ -8503,7 +8517,7 @@
       <c r="B203" s="49"/>
       <c r="E203" s="30"/>
       <c r="H203" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I203" s="22"/>
       <c r="J203" s="22"/>
@@ -8511,13 +8525,13 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
@@ -8542,7 +8556,7 @@
       <c r="B204" s="49"/>
       <c r="E204" s="30"/>
       <c r="H204" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I204" s="22"/>
       <c r="J204" s="22"/>
@@ -8550,13 +8564,13 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
@@ -8581,7 +8595,7 @@
       <c r="B205" s="49"/>
       <c r="E205" s="30"/>
       <c r="H205" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I205" s="22"/>
       <c r="J205" s="22"/>
@@ -8589,13 +8603,13 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="26"/>
       <c r="R205" s="22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
@@ -8620,7 +8634,7 @@
       <c r="B206" s="49"/>
       <c r="E206" s="30"/>
       <c r="H206" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I206" s="22"/>
       <c r="J206" s="22"/>
@@ -8628,13 +8642,13 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
@@ -8659,7 +8673,7 @@
       <c r="B207" s="49"/>
       <c r="E207" s="30"/>
       <c r="H207" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
@@ -8667,13 +8681,13 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
@@ -8698,7 +8712,7 @@
       <c r="B208" s="49"/>
       <c r="E208" s="30"/>
       <c r="H208" s="21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I208" s="22"/>
       <c r="J208" s="22"/>
@@ -8706,13 +8720,13 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
@@ -8737,7 +8751,7 @@
       <c r="B209" s="49"/>
       <c r="E209" s="30"/>
       <c r="H209" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
@@ -8745,13 +8759,13 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
@@ -8796,7 +8810,7 @@
         <v>(3)-3</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AF211" s="49"/>
     </row>
@@ -8807,7 +8821,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="30"/>
       <c r="H212" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AF212" s="49"/>
     </row>
@@ -8818,7 +8832,7 @@
       <c r="F213" s="30"/>
       <c r="G213" s="17"/>
       <c r="H213" s="39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I213" s="24"/>
       <c r="J213" s="24"/>
@@ -8853,7 +8867,7 @@
       <c r="F214" s="37"/>
       <c r="G214" s="38"/>
       <c r="H214" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I214" s="22"/>
       <c r="J214" s="22"/>
@@ -8890,7 +8904,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="17"/>
       <c r="H215" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF215" s="49"/>
       <c r="AG215" s="49"/>
@@ -8913,7 +8927,7 @@
         <v>(3)-4</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AF217" s="49"/>
       <c r="AG217" s="49"/>
@@ -8964,7 +8978,7 @@
       <c r="B219" s="49"/>
       <c r="E219" s="30"/>
       <c r="H219" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
@@ -8972,13 +8986,13 @@
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O219" s="22"/>
       <c r="P219" s="22"/>
       <c r="Q219" s="26"/>
       <c r="R219" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="S219" s="22"/>
       <c r="T219" s="22"/>
@@ -9024,7 +9038,7 @@
         <v>(3)-5</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AF221" s="49"/>
       <c r="AG221" s="49"/>
@@ -9036,7 +9050,7 @@
       <c r="F222" s="17"/>
       <c r="G222" s="30"/>
       <c r="H222" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AF222" s="49"/>
       <c r="AG222" s="49"/>
@@ -9048,7 +9062,7 @@
       <c r="F223" s="30"/>
       <c r="G223" s="17"/>
       <c r="H223" s="43" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
@@ -9085,7 +9099,7 @@
       <c r="F224" s="30"/>
       <c r="G224" s="17"/>
       <c r="H224" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF224" s="49"/>
       <c r="AG224" s="49"/>
@@ -9108,7 +9122,7 @@
         <v>(3)-6</v>
       </c>
       <c r="H226" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF226" s="49"/>
       <c r="AG226" s="49"/>
@@ -9159,7 +9173,7 @@
       <c r="B228" s="49"/>
       <c r="E228" s="30"/>
       <c r="H228" s="21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I228" s="22"/>
       <c r="J228" s="22"/>
@@ -9167,13 +9181,13 @@
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O228" s="22"/>
       <c r="P228" s="22"/>
       <c r="Q228" s="26"/>
       <c r="R228" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S228" s="22"/>
       <c r="T228" s="22"/>
@@ -9212,7 +9226,7 @@
         <v>(3)-7</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AF230" s="49"/>
       <c r="AG230" s="49"/>
@@ -9224,7 +9238,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="30"/>
       <c r="H231" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AF231" s="49"/>
       <c r="AG231" s="49"/>
@@ -9236,7 +9250,7 @@
       <c r="F232" s="30"/>
       <c r="G232" s="17"/>
       <c r="H232" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I232" s="24"/>
       <c r="J232" s="24"/>
@@ -9273,7 +9287,7 @@
       <c r="F233" s="30"/>
       <c r="G233" s="17"/>
       <c r="H233" s="42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
@@ -9310,7 +9324,7 @@
       <c r="F234" s="30"/>
       <c r="G234" s="17"/>
       <c r="H234" s="42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
@@ -9347,7 +9361,7 @@
       <c r="F235" s="30"/>
       <c r="G235" s="17"/>
       <c r="H235" s="42" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -9384,7 +9398,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9421,7 +9435,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9456,7 +9470,7 @@
       <c r="F238" s="37"/>
       <c r="G238" s="38"/>
       <c r="H238" s="21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I238" s="22"/>
       <c r="J238" s="22"/>
@@ -9493,7 +9507,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF239" s="49"/>
       <c r="AG239" s="49"/>
@@ -9505,7 +9519,7 @@
       <c r="F240" s="30"/>
       <c r="G240" s="17"/>
       <c r="H240" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF240" s="49"/>
       <c r="AG240" s="49"/>
@@ -9528,7 +9542,7 @@
         <v>(3)-8</v>
       </c>
       <c r="H242" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
@@ -9579,7 +9593,7 @@
       <c r="B244" s="49"/>
       <c r="E244" s="30"/>
       <c r="H244" s="21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I244" s="22"/>
       <c r="J244" s="22"/>
@@ -9587,13 +9601,13 @@
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O244" s="22"/>
       <c r="P244" s="22"/>
       <c r="Q244" s="26"/>
       <c r="R244" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S244" s="22"/>
       <c r="T244" s="22"/>
@@ -9618,7 +9632,7 @@
       <c r="B245" s="49"/>
       <c r="E245" s="30"/>
       <c r="H245" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I245" s="22"/>
       <c r="J245" s="22"/>
@@ -9626,13 +9640,13 @@
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O245" s="22"/>
       <c r="P245" s="22"/>
       <c r="Q245" s="26"/>
       <c r="R245" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S245" s="22"/>
       <c r="T245" s="22"/>
@@ -9657,7 +9671,7 @@
       <c r="B246" s="49"/>
       <c r="E246" s="30"/>
       <c r="H246" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -9665,13 +9679,13 @@
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O246" s="22"/>
       <c r="P246" s="22"/>
       <c r="Q246" s="26"/>
       <c r="R246" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S246" s="22"/>
       <c r="T246" s="22"/>
@@ -9696,7 +9710,7 @@
       <c r="B247" s="49"/>
       <c r="E247" s="30"/>
       <c r="H247" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I247" s="22"/>
       <c r="J247" s="22"/>
@@ -9704,13 +9718,13 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O247" s="22"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="26"/>
       <c r="R247" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="S247" s="22"/>
       <c r="T247" s="22"/>
@@ -9735,7 +9749,7 @@
       <c r="B248" s="49"/>
       <c r="E248" s="30"/>
       <c r="H248" s="21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I248" s="22"/>
       <c r="J248" s="22"/>
@@ -9743,13 +9757,13 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O248" s="22"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
@@ -9774,7 +9788,7 @@
       <c r="B249" s="49"/>
       <c r="E249" s="30"/>
       <c r="H249" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="22"/>
@@ -9782,13 +9796,13 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O249" s="22"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
@@ -9813,7 +9827,7 @@
       <c r="B250" s="49"/>
       <c r="E250" s="30"/>
       <c r="H250" s="21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I250" s="22"/>
       <c r="J250" s="22"/>
@@ -9821,13 +9835,13 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O250" s="22"/>
       <c r="P250" s="22"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
@@ -9852,7 +9866,7 @@
       <c r="B251" s="49"/>
       <c r="E251" s="30"/>
       <c r="H251" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I251" s="22"/>
       <c r="J251" s="22"/>
@@ -9860,13 +9874,13 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O251" s="22"/>
       <c r="P251" s="22"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
@@ -9891,7 +9905,7 @@
       <c r="B252" s="49"/>
       <c r="E252" s="30"/>
       <c r="H252" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
@@ -9899,13 +9913,13 @@
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O252" s="22"/>
       <c r="P252" s="22"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
@@ -9930,7 +9944,7 @@
       <c r="B253" s="49"/>
       <c r="E253" s="30"/>
       <c r="H253" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I253" s="22"/>
       <c r="J253" s="22"/>
@@ -9938,13 +9952,13 @@
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="41" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O253" s="22"/>
       <c r="P253" s="22"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
@@ -9969,7 +9983,7 @@
       <c r="B254" s="49"/>
       <c r="E254" s="30"/>
       <c r="H254" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I254" s="22"/>
       <c r="J254" s="22"/>
@@ -9977,13 +9991,13 @@
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="41" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O254" s="22"/>
       <c r="P254" s="22"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
@@ -10024,7 +10038,7 @@
       <c r="B256" s="49"/>
       <c r="E256" s="30"/>
       <c r="F256" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>18</v>
@@ -10041,7 +10055,7 @@
         <v>(3)-1 →</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H257" s="54"/>
       <c r="I257" s="24"/>
@@ -10078,7 +10092,7 @@
       <c r="E258" s="30"/>
       <c r="F258" s="17"/>
       <c r="G258" s="52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H258" s="55"/>
       <c r="I258" s="19"/>
@@ -10116,7 +10130,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="52"/>
       <c r="H259" s="55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -10153,7 +10167,7 @@
       <c r="F260" s="17"/>
       <c r="G260" s="52"/>
       <c r="H260" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
@@ -10190,7 +10204,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="52"/>
       <c r="H261" s="55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
@@ -10227,7 +10241,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="52"/>
       <c r="H262" s="55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
@@ -10264,7 +10278,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="52"/>
       <c r="H263" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
@@ -10302,7 +10316,7 @@
       <c r="G264" s="52"/>
       <c r="H264" s="55"/>
       <c r="I264" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
@@ -10339,7 +10353,7 @@
       <c r="G265" s="52"/>
       <c r="H265" s="55"/>
       <c r="I265" s="19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
@@ -10375,7 +10389,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="52"/>
       <c r="H266" s="55" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10411,7 +10425,7 @@
       <c r="E267" s="30"/>
       <c r="F267" s="17"/>
       <c r="G267" s="52" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H267" s="55"/>
       <c r="I267" s="19"/>
@@ -10451,7 +10465,7 @@
         <v>(3)-3 →</v>
       </c>
       <c r="G268" s="52" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H268" s="55"/>
       <c r="I268" s="19"/>
@@ -10489,7 +10503,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="52"/>
       <c r="H269" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
@@ -10527,7 +10541,7 @@
       <c r="G270" s="52"/>
       <c r="H270" s="55"/>
       <c r="I270" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
@@ -10564,7 +10578,7 @@
       <c r="G271" s="52"/>
       <c r="H271" s="55"/>
       <c r="I271" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
@@ -10602,7 +10616,7 @@
         <v>(3)-5 →</v>
       </c>
       <c r="G272" s="52" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H272" s="55"/>
       <c r="I272" s="19"/>
@@ -10642,7 +10656,7 @@
         <v>(3)-7 →</v>
       </c>
       <c r="G273" s="52" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H273" s="55"/>
       <c r="I273" s="19"/>
@@ -10679,7 +10693,7 @@
       <c r="E274" s="30"/>
       <c r="F274" s="17"/>
       <c r="G274" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H274" s="55"/>
       <c r="I274" s="19"/>
@@ -10716,7 +10730,7 @@
       <c r="E275" s="30"/>
       <c r="F275" s="17"/>
       <c r="G275" s="52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H275" s="55"/>
       <c r="I275" s="19"/>
@@ -10754,7 +10768,7 @@
       <c r="F276" s="17"/>
       <c r="G276" s="52"/>
       <c r="H276" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
@@ -10791,7 +10805,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="52"/>
       <c r="H277" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
@@ -10828,7 +10842,7 @@
       <c r="F278" s="17"/>
       <c r="G278" s="52"/>
       <c r="H278" s="55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I278" s="19"/>
       <c r="J278" s="19"/>
@@ -10865,7 +10879,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="52"/>
       <c r="H279" s="55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
@@ -10902,7 +10916,7 @@
       <c r="F280" s="17"/>
       <c r="G280" s="53"/>
       <c r="H280" s="56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I280" s="22"/>
       <c r="J280" s="22"/>
@@ -11013,12 +11027,12 @@
       <c r="I285" s="28"/>
       <c r="J285" s="29"/>
       <c r="K285" s="28" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
       <c r="L285" s="28"/>
       <c r="M285" s="29"/>
       <c r="N285" s="28" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="O285" s="28"/>
       <c r="P285" s="28"/>
@@ -11056,19 +11070,19 @@
       <c r="I286" s="47"/>
       <c r="J286" s="48"/>
       <c r="K286" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L286" s="47"/>
       <c r="M286" s="48"/>
       <c r="N286" s="47" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="O286" s="47"/>
       <c r="P286" s="47"/>
       <c r="Q286" s="47"/>
       <c r="R286" s="48"/>
       <c r="S286" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T286" s="47"/>
       <c r="U286" s="47"/>
@@ -11099,19 +11113,19 @@
       <c r="I287" s="19"/>
       <c r="J287" s="20"/>
       <c r="K287" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L287" s="19"/>
       <c r="M287" s="20"/>
       <c r="N287" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O287" s="19"/>
       <c r="P287" s="19"/>
       <c r="Q287" s="19"/>
       <c r="R287" s="20"/>
       <c r="S287" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T287" s="19"/>
       <c r="U287" s="19"/>
@@ -11148,7 +11162,7 @@
       <c r="Q288" s="22"/>
       <c r="R288" s="26"/>
       <c r="S288" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T288" s="22"/>
       <c r="U288" s="22"/>
@@ -11179,19 +11193,19 @@
       <c r="I289" s="33"/>
       <c r="J289" s="34"/>
       <c r="K289" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L289" s="33"/>
       <c r="M289" s="34"/>
       <c r="N289" s="33" t="s">
-        <v>171</v>
+        <v>362</v>
       </c>
       <c r="O289" s="33"/>
       <c r="P289" s="33"/>
       <c r="Q289" s="33"/>
       <c r="R289" s="34"/>
       <c r="S289" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T289" s="33"/>
       <c r="U289" s="33"/>
@@ -11254,7 +11268,7 @@
       <c r="F293" s="37"/>
       <c r="G293" s="38"/>
       <c r="H293" s="23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I293" s="24"/>
       <c r="J293" s="24"/>
@@ -11291,7 +11305,7 @@
       <c r="F294" s="30"/>
       <c r="G294" s="17"/>
       <c r="H294" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I294" s="22"/>
       <c r="J294" s="22"/>
@@ -11328,7 +11342,7 @@
       <c r="F295" s="30"/>
       <c r="G295" s="17"/>
       <c r="H295" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF295" s="49"/>
       <c r="AG295" s="49"/>
@@ -11340,7 +11354,7 @@
       <c r="F296" s="30"/>
       <c r="G296" s="17"/>
       <c r="H296" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AF296" s="49"/>
       <c r="AG296" s="49"/>
@@ -11466,7 +11480,7 @@
       <c r="O301" s="19"/>
       <c r="P301" s="20"/>
       <c r="Q301" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R301" s="19"/>
       <c r="S301" s="19"/>
@@ -11501,7 +11515,7 @@
       <c r="O302" s="22"/>
       <c r="P302" s="26"/>
       <c r="Q302" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R302" s="22"/>
       <c r="S302" s="22"/>
@@ -11527,20 +11541,20 @@
       <c r="B303" s="49"/>
       <c r="E303" s="30"/>
       <c r="H303" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I303" s="22"/>
       <c r="J303" s="22"/>
       <c r="K303" s="22"/>
       <c r="L303" s="22"/>
       <c r="M303" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N303" s="22"/>
       <c r="O303" s="22"/>
       <c r="P303" s="26"/>
       <c r="Q303" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
@@ -11605,7 +11619,7 @@
       <c r="B305" s="49"/>
       <c r="E305" s="30"/>
       <c r="H305" s="32" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I305" s="33"/>
       <c r="J305" s="33"/>
@@ -11618,7 +11632,7 @@
       <c r="O305" s="33"/>
       <c r="P305" s="34"/>
       <c r="Q305" s="33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R305" s="33"/>
       <c r="S305" s="33"/>
@@ -11657,7 +11671,7 @@
       <c r="O306" s="22"/>
       <c r="P306" s="26"/>
       <c r="Q306" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
@@ -11735,7 +11749,7 @@
       <c r="O308" s="22"/>
       <c r="P308" s="26"/>
       <c r="Q308" s="22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
@@ -11774,7 +11788,7 @@
       <c r="O309" s="33"/>
       <c r="P309" s="34"/>
       <c r="Q309" s="33" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="R309" s="33"/>
       <c r="S309" s="33"/>
@@ -11800,20 +11814,20 @@
       <c r="B310" s="49"/>
       <c r="E310" s="30"/>
       <c r="H310" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I310" s="22"/>
       <c r="J310" s="22"/>
       <c r="K310" s="22"/>
       <c r="L310" s="22"/>
       <c r="M310" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N310" s="22"/>
       <c r="O310" s="22"/>
       <c r="P310" s="26"/>
       <c r="Q310" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
@@ -11839,20 +11853,20 @@
       <c r="B311" s="49"/>
       <c r="E311" s="30"/>
       <c r="H311" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I311" s="19"/>
       <c r="J311" s="19"/>
       <c r="K311" s="19"/>
       <c r="L311" s="19"/>
       <c r="M311" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N311" s="19"/>
       <c r="O311" s="19"/>
       <c r="P311" s="20"/>
       <c r="Q311" s="19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R311" s="19"/>
       <c r="S311" s="19"/>
@@ -11887,7 +11901,7 @@
       <c r="O312" s="22"/>
       <c r="P312" s="26"/>
       <c r="Q312" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
@@ -11960,7 +11974,7 @@
       <c r="E315" s="30"/>
       <c r="F315" s="17"/>
       <c r="G315" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AF315" s="49"/>
       <c r="AG315" s="49"/>
@@ -11971,7 +11985,7 @@
       <c r="E316" s="30"/>
       <c r="F316" s="17"/>
       <c r="G316" s="51" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H316" s="24"/>
       <c r="I316" s="24"/>
@@ -12008,7 +12022,7 @@
       <c r="E317" s="30"/>
       <c r="F317" s="17"/>
       <c r="G317" s="53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H317" s="22"/>
       <c r="I317" s="22"/>
@@ -12073,7 +12087,7 @@
       <c r="B321" s="49"/>
       <c r="E321" s="30"/>
       <c r="F321" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AF321" s="49"/>
       <c r="AG321" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF9C45B-54B7-47FA-8F58-11FC1585B413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C549F5D8-0A4D-4DBC-949E-4D3950E12650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="362">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -667,13 +667,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>上記レイアウトの網掛け部分は、レイアウトが固定化される。これは、運用監視ツールなどで特定箇所の情報を抽出する事を目的に</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行っている。なお、&lt;障害メッセージ&gt;以降は、障害コードに応じたメッセージが出力されるため桁位置は可変となる。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Input Data : </t>
   </si>
   <si>
@@ -1891,6 +1884,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;障害メッセージ&gt;以降は、障害コードに応じたメッセージが出力されるため桁位置は可変となる。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2718,7 +2715,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2739,7 +2736,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2780,11 +2777,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2850,10 +2847,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2863,13 +2860,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,13 +2922,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2963,7 +2960,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -3009,7 +3006,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3045,7 +3042,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3087,7 +3084,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3125,7 +3122,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3167,7 +3164,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3205,7 +3202,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3247,7 +3244,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3325,7 +3322,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3403,7 +3400,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3478,7 +3475,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3504,7 +3501,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3547,7 +3544,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3590,7 +3587,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3633,7 +3630,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3676,7 +3673,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3709,7 +3706,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3719,7 +3716,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3747,7 +3744,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3757,7 +3754,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3790,7 +3787,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3800,7 +3797,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3828,7 +3825,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3838,7 +3835,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -4029,7 +4026,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4065,7 +4062,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4139,7 +4136,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4175,7 +4172,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4399,7 +4396,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4471,7 +4468,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4505,7 +4502,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4577,7 +4574,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4613,7 +4610,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4646,7 +4643,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4673,7 +4670,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4717,7 +4714,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4759,7 +4756,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4800,7 +4797,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4841,7 +4838,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4882,7 +4879,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -5005,7 +5002,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5014,7 +5011,7 @@
       <c r="B76" s="49"/>
       <c r="E76" s="30"/>
       <c r="F76" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
@@ -5032,7 +5029,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5066,14 +5063,14 @@
       <c r="B79" s="49"/>
       <c r="E79" s="30"/>
       <c r="F79" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -5109,19 +5106,19 @@
       <c r="B80" s="49"/>
       <c r="E80" s="30"/>
       <c r="F80" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5158,7 +5155,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5297,7 +5294,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5336,7 +5333,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5724,7 +5721,7 @@
         <v>62</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF101" s="49"/>
       <c r="AG101" s="49"/>
@@ -5734,7 +5731,7 @@
       <c r="B102" s="49"/>
       <c r="F102" s="17"/>
       <c r="G102" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5747,34 +5744,34 @@
     </row>
     <row r="104" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="50" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="49" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5817,7 +5814,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF112" s="49"/>
       <c r="AG112" s="49"/>
@@ -5828,24 +5825,24 @@
       <c r="E113" s="30"/>
       <c r="F113" s="31"/>
       <c r="G113" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="29"/>
       <c r="J113" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="29"/>
       <c r="M113" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
       <c r="Q113" s="29"/>
       <c r="R113" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S113" s="28"/>
       <c r="T113" s="28"/>
@@ -5871,24 +5868,24 @@
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
       <c r="G114" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
       <c r="J114" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="25"/>
       <c r="M114" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="25"/>
       <c r="R114" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S114" s="24"/>
       <c r="T114" s="24"/>
@@ -5923,7 +5920,7 @@
       <c r="P115" s="45"/>
       <c r="Q115" s="46"/>
       <c r="R115" s="45" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -5983,7 +5980,7 @@
       <c r="B117" s="49"/>
       <c r="E117" s="30"/>
       <c r="F117" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>121</v>
@@ -6013,7 +6010,7 @@
       <c r="F119" s="30"/>
       <c r="G119" s="17"/>
       <c r="H119" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
@@ -6050,7 +6047,7 @@
       <c r="F120" s="30"/>
       <c r="G120" s="17"/>
       <c r="H120" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
@@ -6087,7 +6084,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="17"/>
       <c r="H121" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF121" s="49"/>
       <c r="AG121" s="49"/>
@@ -6269,7 +6266,7 @@
       <c r="N128" s="19"/>
       <c r="O128" s="20"/>
       <c r="P128" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
@@ -6539,7 +6536,7 @@
       <c r="O135" s="20"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
@@ -6577,14 +6574,14 @@
       <c r="O136" s="20"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
       <c r="U136" s="26"/>
       <c r="V136" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W136" s="22"/>
       <c r="X136" s="26"/>
@@ -6692,7 +6689,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="26"/>
       <c r="P139" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
@@ -6719,7 +6716,7 @@
       <c r="B140" s="49"/>
       <c r="E140" s="30"/>
       <c r="H140" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
@@ -6809,7 +6806,7 @@
       <c r="B143" s="49"/>
       <c r="E143" s="30"/>
       <c r="F143" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>124</v>
@@ -6835,7 +6832,7 @@
       <c r="B145" s="49"/>
       <c r="E145" s="30"/>
       <c r="H145" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
@@ -6985,7 +6982,7 @@
         <v>120</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
@@ -7021,9 +7018,7 @@
       <c r="B150" s="49"/>
       <c r="E150" s="30"/>
       <c r="H150" s="19"/>
-      <c r="I150" s="19" t="s">
-        <v>134</v>
-      </c>
+      <c r="I150" s="19"/>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
@@ -7282,7 +7277,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
@@ -7317,7 +7312,7 @@
       <c r="B159" s="49"/>
       <c r="E159" s="30"/>
       <c r="F159" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>18</v>
@@ -7330,7 +7325,7 @@
       <c r="E160" s="30"/>
       <c r="F160" s="17"/>
       <c r="G160" s="51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
@@ -7367,7 +7362,7 @@
       <c r="E161" s="30"/>
       <c r="F161" s="17"/>
       <c r="G161" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -7404,7 +7399,7 @@
       <c r="E162" s="30"/>
       <c r="F162" s="17"/>
       <c r="G162" s="52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -7441,7 +7436,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="17"/>
       <c r="G163" s="52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -7478,7 +7473,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
       <c r="G164" s="53" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
@@ -7529,7 +7524,7 @@
         <v>7.13.3.2.</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AF167" s="49"/>
       <c r="AG167" s="49"/>
@@ -7542,7 +7537,7 @@
         <v>12</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF168" s="49"/>
       <c r="AG168" s="49"/>
@@ -7553,24 +7548,24 @@
       <c r="E169" s="30"/>
       <c r="F169" s="31"/>
       <c r="G169" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H169" s="28"/>
       <c r="I169" s="29"/>
       <c r="J169" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="29"/>
       <c r="M169" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N169" s="28"/>
       <c r="O169" s="28"/>
       <c r="P169" s="28"/>
       <c r="Q169" s="29"/>
       <c r="R169" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S169" s="28"/>
       <c r="T169" s="28"/>
@@ -7601,19 +7596,19 @@
       <c r="H170" s="47"/>
       <c r="I170" s="48"/>
       <c r="J170" s="47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K170" s="47"/>
       <c r="L170" s="48"/>
       <c r="M170" s="47" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N170" s="47"/>
       <c r="O170" s="47"/>
       <c r="P170" s="47"/>
       <c r="Q170" s="48"/>
       <c r="R170" s="47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
@@ -7676,7 +7671,7 @@
       <c r="F174" s="30"/>
       <c r="G174" s="17"/>
       <c r="H174" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="33"/>
@@ -7713,7 +7708,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="17"/>
       <c r="H175" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF175" s="49"/>
       <c r="AG175" s="49"/>
@@ -7885,7 +7880,7 @@
       <c r="O181" s="19"/>
       <c r="P181" s="20"/>
       <c r="Q181" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
@@ -7985,7 +7980,7 @@
       <c r="B184" s="49"/>
       <c r="E184" s="30"/>
       <c r="H184" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I184" s="24"/>
       <c r="J184" s="24"/>
@@ -8069,10 +8064,10 @@
       <c r="B187" s="49"/>
       <c r="E187" s="30"/>
       <c r="F187" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF187" s="49"/>
       <c r="AG187" s="49"/>
@@ -8087,7 +8082,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
@@ -8099,7 +8094,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="30"/>
       <c r="H189" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF189" s="49"/>
       <c r="AG189" s="49"/>
@@ -8111,7 +8106,7 @@
       <c r="F190" s="30"/>
       <c r="G190" s="17"/>
       <c r="H190" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I190" s="24"/>
       <c r="J190" s="24"/>
@@ -8148,7 +8143,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
@@ -8185,7 +8180,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8222,7 +8217,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8259,7 +8254,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8296,7 +8291,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8331,7 +8326,7 @@
       <c r="F196" s="37"/>
       <c r="G196" s="38"/>
       <c r="H196" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I196" s="22"/>
       <c r="J196" s="22"/>
@@ -8368,7 +8363,7 @@
       <c r="F197" s="30"/>
       <c r="G197" s="17"/>
       <c r="H197" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF197" s="49"/>
     </row>
@@ -8389,7 +8384,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF199" s="49"/>
     </row>
@@ -8439,7 +8434,7 @@
       <c r="B201" s="49"/>
       <c r="E201" s="30"/>
       <c r="H201" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I201" s="22"/>
       <c r="J201" s="22"/>
@@ -8447,13 +8442,13 @@
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O201" s="22"/>
       <c r="P201" s="22"/>
       <c r="Q201" s="26"/>
       <c r="R201" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S201" s="22"/>
       <c r="T201" s="22"/>
@@ -8478,7 +8473,7 @@
       <c r="B202" s="49"/>
       <c r="E202" s="30"/>
       <c r="H202" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" s="22"/>
@@ -8486,13 +8481,13 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
       <c r="Q202" s="26"/>
       <c r="R202" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S202" s="22"/>
       <c r="T202" s="22"/>
@@ -8517,7 +8512,7 @@
       <c r="B203" s="49"/>
       <c r="E203" s="30"/>
       <c r="H203" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I203" s="22"/>
       <c r="J203" s="22"/>
@@ -8525,13 +8520,13 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
@@ -8556,7 +8551,7 @@
       <c r="B204" s="49"/>
       <c r="E204" s="30"/>
       <c r="H204" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I204" s="22"/>
       <c r="J204" s="22"/>
@@ -8564,13 +8559,13 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
@@ -8595,7 +8590,7 @@
       <c r="B205" s="49"/>
       <c r="E205" s="30"/>
       <c r="H205" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I205" s="22"/>
       <c r="J205" s="22"/>
@@ -8603,13 +8598,13 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="26"/>
       <c r="R205" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
@@ -8634,7 +8629,7 @@
       <c r="B206" s="49"/>
       <c r="E206" s="30"/>
       <c r="H206" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I206" s="22"/>
       <c r="J206" s="22"/>
@@ -8642,13 +8637,13 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
@@ -8673,7 +8668,7 @@
       <c r="B207" s="49"/>
       <c r="E207" s="30"/>
       <c r="H207" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
@@ -8681,13 +8676,13 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
@@ -8712,7 +8707,7 @@
       <c r="B208" s="49"/>
       <c r="E208" s="30"/>
       <c r="H208" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I208" s="22"/>
       <c r="J208" s="22"/>
@@ -8720,13 +8715,13 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
@@ -8751,7 +8746,7 @@
       <c r="B209" s="49"/>
       <c r="E209" s="30"/>
       <c r="H209" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
@@ -8759,13 +8754,13 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
@@ -8810,7 +8805,7 @@
         <v>(3)-3</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF211" s="49"/>
     </row>
@@ -8821,7 +8816,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="30"/>
       <c r="H212" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF212" s="49"/>
     </row>
@@ -8832,7 +8827,7 @@
       <c r="F213" s="30"/>
       <c r="G213" s="17"/>
       <c r="H213" s="39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I213" s="24"/>
       <c r="J213" s="24"/>
@@ -8867,7 +8862,7 @@
       <c r="F214" s="37"/>
       <c r="G214" s="38"/>
       <c r="H214" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I214" s="22"/>
       <c r="J214" s="22"/>
@@ -8904,7 +8899,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="17"/>
       <c r="H215" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF215" s="49"/>
       <c r="AG215" s="49"/>
@@ -8927,7 +8922,7 @@
         <v>(3)-4</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AF217" s="49"/>
       <c r="AG217" s="49"/>
@@ -8978,7 +8973,7 @@
       <c r="B219" s="49"/>
       <c r="E219" s="30"/>
       <c r="H219" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
@@ -8986,13 +8981,13 @@
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O219" s="22"/>
       <c r="P219" s="22"/>
       <c r="Q219" s="26"/>
       <c r="R219" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S219" s="22"/>
       <c r="T219" s="22"/>
@@ -9038,7 +9033,7 @@
         <v>(3)-5</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF221" s="49"/>
       <c r="AG221" s="49"/>
@@ -9050,7 +9045,7 @@
       <c r="F222" s="17"/>
       <c r="G222" s="30"/>
       <c r="H222" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF222" s="49"/>
       <c r="AG222" s="49"/>
@@ -9062,7 +9057,7 @@
       <c r="F223" s="30"/>
       <c r="G223" s="17"/>
       <c r="H223" s="43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
@@ -9099,7 +9094,7 @@
       <c r="F224" s="30"/>
       <c r="G224" s="17"/>
       <c r="H224" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF224" s="49"/>
       <c r="AG224" s="49"/>
@@ -9122,7 +9117,7 @@
         <v>(3)-6</v>
       </c>
       <c r="H226" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF226" s="49"/>
       <c r="AG226" s="49"/>
@@ -9173,7 +9168,7 @@
       <c r="B228" s="49"/>
       <c r="E228" s="30"/>
       <c r="H228" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I228" s="22"/>
       <c r="J228" s="22"/>
@@ -9181,13 +9176,13 @@
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O228" s="22"/>
       <c r="P228" s="22"/>
       <c r="Q228" s="26"/>
       <c r="R228" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S228" s="22"/>
       <c r="T228" s="22"/>
@@ -9226,7 +9221,7 @@
         <v>(3)-7</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF230" s="49"/>
       <c r="AG230" s="49"/>
@@ -9238,7 +9233,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="30"/>
       <c r="H231" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF231" s="49"/>
       <c r="AG231" s="49"/>
@@ -9250,7 +9245,7 @@
       <c r="F232" s="30"/>
       <c r="G232" s="17"/>
       <c r="H232" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I232" s="24"/>
       <c r="J232" s="24"/>
@@ -9287,7 +9282,7 @@
       <c r="F233" s="30"/>
       <c r="G233" s="17"/>
       <c r="H233" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
@@ -9324,7 +9319,7 @@
       <c r="F234" s="30"/>
       <c r="G234" s="17"/>
       <c r="H234" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
@@ -9361,7 +9356,7 @@
       <c r="F235" s="30"/>
       <c r="G235" s="17"/>
       <c r="H235" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -9398,7 +9393,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9435,7 +9430,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9470,7 +9465,7 @@
       <c r="F238" s="37"/>
       <c r="G238" s="38"/>
       <c r="H238" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I238" s="22"/>
       <c r="J238" s="22"/>
@@ -9507,7 +9502,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF239" s="49"/>
       <c r="AG239" s="49"/>
@@ -9519,7 +9514,7 @@
       <c r="F240" s="30"/>
       <c r="G240" s="17"/>
       <c r="H240" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF240" s="49"/>
       <c r="AG240" s="49"/>
@@ -9542,7 +9537,7 @@
         <v>(3)-8</v>
       </c>
       <c r="H242" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
@@ -9593,7 +9588,7 @@
       <c r="B244" s="49"/>
       <c r="E244" s="30"/>
       <c r="H244" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I244" s="22"/>
       <c r="J244" s="22"/>
@@ -9601,13 +9596,13 @@
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O244" s="22"/>
       <c r="P244" s="22"/>
       <c r="Q244" s="26"/>
       <c r="R244" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S244" s="22"/>
       <c r="T244" s="22"/>
@@ -9632,7 +9627,7 @@
       <c r="B245" s="49"/>
       <c r="E245" s="30"/>
       <c r="H245" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I245" s="22"/>
       <c r="J245" s="22"/>
@@ -9640,13 +9635,13 @@
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O245" s="22"/>
       <c r="P245" s="22"/>
       <c r="Q245" s="26"/>
       <c r="R245" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S245" s="22"/>
       <c r="T245" s="22"/>
@@ -9671,7 +9666,7 @@
       <c r="B246" s="49"/>
       <c r="E246" s="30"/>
       <c r="H246" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -9679,13 +9674,13 @@
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O246" s="22"/>
       <c r="P246" s="22"/>
       <c r="Q246" s="26"/>
       <c r="R246" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S246" s="22"/>
       <c r="T246" s="22"/>
@@ -9710,7 +9705,7 @@
       <c r="B247" s="49"/>
       <c r="E247" s="30"/>
       <c r="H247" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I247" s="22"/>
       <c r="J247" s="22"/>
@@ -9718,13 +9713,13 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O247" s="22"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="26"/>
       <c r="R247" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S247" s="22"/>
       <c r="T247" s="22"/>
@@ -9749,7 +9744,7 @@
       <c r="B248" s="49"/>
       <c r="E248" s="30"/>
       <c r="H248" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I248" s="22"/>
       <c r="J248" s="22"/>
@@ -9757,13 +9752,13 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O248" s="22"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
@@ -9788,7 +9783,7 @@
       <c r="B249" s="49"/>
       <c r="E249" s="30"/>
       <c r="H249" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="22"/>
@@ -9796,13 +9791,13 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O249" s="22"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
@@ -9827,7 +9822,7 @@
       <c r="B250" s="49"/>
       <c r="E250" s="30"/>
       <c r="H250" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I250" s="22"/>
       <c r="J250" s="22"/>
@@ -9835,13 +9830,13 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O250" s="22"/>
       <c r="P250" s="22"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
@@ -9866,7 +9861,7 @@
       <c r="B251" s="49"/>
       <c r="E251" s="30"/>
       <c r="H251" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I251" s="22"/>
       <c r="J251" s="22"/>
@@ -9874,13 +9869,13 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O251" s="22"/>
       <c r="P251" s="22"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
@@ -9905,7 +9900,7 @@
       <c r="B252" s="49"/>
       <c r="E252" s="30"/>
       <c r="H252" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
@@ -9913,13 +9908,13 @@
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O252" s="22"/>
       <c r="P252" s="22"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
@@ -9944,7 +9939,7 @@
       <c r="B253" s="49"/>
       <c r="E253" s="30"/>
       <c r="H253" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I253" s="22"/>
       <c r="J253" s="22"/>
@@ -9952,13 +9947,13 @@
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O253" s="22"/>
       <c r="P253" s="22"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
@@ -9983,7 +9978,7 @@
       <c r="B254" s="49"/>
       <c r="E254" s="30"/>
       <c r="H254" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I254" s="22"/>
       <c r="J254" s="22"/>
@@ -9991,13 +9986,13 @@
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O254" s="22"/>
       <c r="P254" s="22"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
@@ -10038,7 +10033,7 @@
       <c r="B256" s="49"/>
       <c r="E256" s="30"/>
       <c r="F256" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>18</v>
@@ -10055,7 +10050,7 @@
         <v>(3)-1 →</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H257" s="54"/>
       <c r="I257" s="24"/>
@@ -10092,7 +10087,7 @@
       <c r="E258" s="30"/>
       <c r="F258" s="17"/>
       <c r="G258" s="52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H258" s="55"/>
       <c r="I258" s="19"/>
@@ -10130,7 +10125,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="52"/>
       <c r="H259" s="55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -10167,7 +10162,7 @@
       <c r="F260" s="17"/>
       <c r="G260" s="52"/>
       <c r="H260" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
@@ -10204,7 +10199,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="52"/>
       <c r="H261" s="55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
@@ -10241,7 +10236,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="52"/>
       <c r="H262" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
@@ -10278,7 +10273,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="52"/>
       <c r="H263" s="55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
@@ -10316,7 +10311,7 @@
       <c r="G264" s="52"/>
       <c r="H264" s="55"/>
       <c r="I264" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
@@ -10353,7 +10348,7 @@
       <c r="G265" s="52"/>
       <c r="H265" s="55"/>
       <c r="I265" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
@@ -10389,7 +10384,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="52"/>
       <c r="H266" s="55" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10425,7 +10420,7 @@
       <c r="E267" s="30"/>
       <c r="F267" s="17"/>
       <c r="G267" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H267" s="55"/>
       <c r="I267" s="19"/>
@@ -10465,7 +10460,7 @@
         <v>(3)-3 →</v>
       </c>
       <c r="G268" s="52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H268" s="55"/>
       <c r="I268" s="19"/>
@@ -10503,7 +10498,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="52"/>
       <c r="H269" s="55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
@@ -10541,7 +10536,7 @@
       <c r="G270" s="52"/>
       <c r="H270" s="55"/>
       <c r="I270" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
@@ -10578,7 +10573,7 @@
       <c r="G271" s="52"/>
       <c r="H271" s="55"/>
       <c r="I271" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
@@ -10616,7 +10611,7 @@
         <v>(3)-5 →</v>
       </c>
       <c r="G272" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H272" s="55"/>
       <c r="I272" s="19"/>
@@ -10656,7 +10651,7 @@
         <v>(3)-7 →</v>
       </c>
       <c r="G273" s="52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H273" s="55"/>
       <c r="I273" s="19"/>
@@ -10693,7 +10688,7 @@
       <c r="E274" s="30"/>
       <c r="F274" s="17"/>
       <c r="G274" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H274" s="55"/>
       <c r="I274" s="19"/>
@@ -10730,7 +10725,7 @@
       <c r="E275" s="30"/>
       <c r="F275" s="17"/>
       <c r="G275" s="52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H275" s="55"/>
       <c r="I275" s="19"/>
@@ -10768,7 +10763,7 @@
       <c r="F276" s="17"/>
       <c r="G276" s="52"/>
       <c r="H276" s="55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
@@ -10805,7 +10800,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="52"/>
       <c r="H277" s="55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
@@ -10842,7 +10837,7 @@
       <c r="F278" s="17"/>
       <c r="G278" s="52"/>
       <c r="H278" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I278" s="19"/>
       <c r="J278" s="19"/>
@@ -10879,7 +10874,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="52"/>
       <c r="H279" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
@@ -10916,7 +10911,7 @@
       <c r="F280" s="17"/>
       <c r="G280" s="53"/>
       <c r="H280" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I280" s="22"/>
       <c r="J280" s="22"/>
@@ -11010,7 +11005,7 @@
         <v>12</v>
       </c>
       <c r="G284" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF284" s="49"/>
       <c r="AG284" s="49"/>
@@ -11021,25 +11016,25 @@
       <c r="E285" s="30"/>
       <c r="F285" s="31"/>
       <c r="G285" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H285" s="28"/>
       <c r="I285" s="28"/>
       <c r="J285" s="29"/>
       <c r="K285" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L285" s="28"/>
       <c r="M285" s="29"/>
       <c r="N285" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O285" s="28"/>
       <c r="P285" s="28"/>
       <c r="Q285" s="28"/>
       <c r="R285" s="29"/>
       <c r="S285" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T285" s="28"/>
       <c r="U285" s="28"/>
@@ -11070,19 +11065,19 @@
       <c r="I286" s="47"/>
       <c r="J286" s="48"/>
       <c r="K286" s="47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L286" s="47"/>
       <c r="M286" s="48"/>
       <c r="N286" s="47" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O286" s="47"/>
       <c r="P286" s="47"/>
       <c r="Q286" s="47"/>
       <c r="R286" s="48"/>
       <c r="S286" s="47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T286" s="47"/>
       <c r="U286" s="47"/>
@@ -11113,19 +11108,19 @@
       <c r="I287" s="19"/>
       <c r="J287" s="20"/>
       <c r="K287" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L287" s="19"/>
       <c r="M287" s="20"/>
       <c r="N287" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O287" s="19"/>
       <c r="P287" s="19"/>
       <c r="Q287" s="19"/>
       <c r="R287" s="20"/>
       <c r="S287" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T287" s="19"/>
       <c r="U287" s="19"/>
@@ -11162,7 +11157,7 @@
       <c r="Q288" s="22"/>
       <c r="R288" s="26"/>
       <c r="S288" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T288" s="22"/>
       <c r="U288" s="22"/>
@@ -11193,19 +11188,19 @@
       <c r="I289" s="33"/>
       <c r="J289" s="34"/>
       <c r="K289" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L289" s="33"/>
       <c r="M289" s="34"/>
       <c r="N289" s="33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O289" s="33"/>
       <c r="P289" s="33"/>
       <c r="Q289" s="33"/>
       <c r="R289" s="34"/>
       <c r="S289" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T289" s="33"/>
       <c r="U289" s="33"/>
@@ -11268,7 +11263,7 @@
       <c r="F293" s="37"/>
       <c r="G293" s="38"/>
       <c r="H293" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I293" s="24"/>
       <c r="J293" s="24"/>
@@ -11305,7 +11300,7 @@
       <c r="F294" s="30"/>
       <c r="G294" s="17"/>
       <c r="H294" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I294" s="22"/>
       <c r="J294" s="22"/>
@@ -11342,7 +11337,7 @@
       <c r="F295" s="30"/>
       <c r="G295" s="17"/>
       <c r="H295" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF295" s="49"/>
       <c r="AG295" s="49"/>
@@ -11354,7 +11349,7 @@
       <c r="F296" s="30"/>
       <c r="G296" s="17"/>
       <c r="H296" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF296" s="49"/>
       <c r="AG296" s="49"/>
@@ -11480,7 +11475,7 @@
       <c r="O301" s="19"/>
       <c r="P301" s="20"/>
       <c r="Q301" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R301" s="19"/>
       <c r="S301" s="19"/>
@@ -11515,7 +11510,7 @@
       <c r="O302" s="22"/>
       <c r="P302" s="26"/>
       <c r="Q302" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R302" s="22"/>
       <c r="S302" s="22"/>
@@ -11541,20 +11536,20 @@
       <c r="B303" s="49"/>
       <c r="E303" s="30"/>
       <c r="H303" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I303" s="22"/>
       <c r="J303" s="22"/>
       <c r="K303" s="22"/>
       <c r="L303" s="22"/>
       <c r="M303" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N303" s="22"/>
       <c r="O303" s="22"/>
       <c r="P303" s="26"/>
       <c r="Q303" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
@@ -11619,7 +11614,7 @@
       <c r="B305" s="49"/>
       <c r="E305" s="30"/>
       <c r="H305" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I305" s="33"/>
       <c r="J305" s="33"/>
@@ -11632,7 +11627,7 @@
       <c r="O305" s="33"/>
       <c r="P305" s="34"/>
       <c r="Q305" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R305" s="33"/>
       <c r="S305" s="33"/>
@@ -11671,7 +11666,7 @@
       <c r="O306" s="22"/>
       <c r="P306" s="26"/>
       <c r="Q306" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
@@ -11749,7 +11744,7 @@
       <c r="O308" s="22"/>
       <c r="P308" s="26"/>
       <c r="Q308" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
@@ -11788,7 +11783,7 @@
       <c r="O309" s="33"/>
       <c r="P309" s="34"/>
       <c r="Q309" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R309" s="33"/>
       <c r="S309" s="33"/>
@@ -11814,20 +11809,20 @@
       <c r="B310" s="49"/>
       <c r="E310" s="30"/>
       <c r="H310" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I310" s="22"/>
       <c r="J310" s="22"/>
       <c r="K310" s="22"/>
       <c r="L310" s="22"/>
       <c r="M310" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N310" s="22"/>
       <c r="O310" s="22"/>
       <c r="P310" s="26"/>
       <c r="Q310" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
@@ -11853,20 +11848,20 @@
       <c r="B311" s="49"/>
       <c r="E311" s="30"/>
       <c r="H311" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I311" s="19"/>
       <c r="J311" s="19"/>
       <c r="K311" s="19"/>
       <c r="L311" s="19"/>
       <c r="M311" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N311" s="19"/>
       <c r="O311" s="19"/>
       <c r="P311" s="20"/>
       <c r="Q311" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R311" s="19"/>
       <c r="S311" s="19"/>
@@ -11901,7 +11896,7 @@
       <c r="O312" s="22"/>
       <c r="P312" s="26"/>
       <c r="Q312" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
@@ -11974,7 +11969,7 @@
       <c r="E315" s="30"/>
       <c r="F315" s="17"/>
       <c r="G315" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF315" s="49"/>
       <c r="AG315" s="49"/>
@@ -11985,7 +11980,7 @@
       <c r="E316" s="30"/>
       <c r="F316" s="17"/>
       <c r="G316" s="51" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H316" s="24"/>
       <c r="I316" s="24"/>
@@ -12022,7 +12017,7 @@
       <c r="E317" s="30"/>
       <c r="F317" s="17"/>
       <c r="G317" s="53" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H317" s="22"/>
       <c r="I317" s="22"/>
@@ -12087,7 +12082,7 @@
       <c r="B321" s="49"/>
       <c r="E321" s="30"/>
       <c r="F321" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF321" s="49"/>
       <c r="AG321" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C549F5D8-0A4D-4DBC-949E-4D3950E12650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E1C5B-DD1B-46A3-9336-A24E82B278D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t>FATAL、ERROR</t>
   </si>
   <si>
-    <t>障害発生時に運用監視ツールに障害が発生したことを通知したログ。</t>
-  </si>
-  <si>
     <t>アクセスログ</t>
   </si>
   <si>
@@ -1888,6 +1885,10 @@
   </si>
   <si>
     <t>&lt;障害メッセージ&gt;以降は、障害コードに応じたメッセージが出力されるため桁位置は可変となる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害発生時に運用監視ツールに障害が発生したことを通知するためのログ。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2715,7 +2716,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2777,11 +2778,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2847,10 +2848,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>307</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2860,13 +2861,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2922,13 +2923,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2960,7 +2961,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -3006,7 +3007,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3042,7 +3043,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3084,7 +3085,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3122,7 +3123,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3164,7 +3165,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3202,7 +3203,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3244,7 +3245,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3322,7 +3323,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3400,7 +3401,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3475,7 +3476,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3491,7 +3492,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -3501,7 +3502,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3544,7 +3545,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3587,7 +3588,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3630,7 +3631,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3673,7 +3674,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3706,7 +3707,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3716,7 +3717,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3744,7 +3745,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3754,7 +3755,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3787,7 +3788,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3797,7 +3798,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3825,7 +3826,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3835,7 +3836,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -3890,7 +3891,7 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF41" s="49"/>
       <c r="AG41" s="49"/>
@@ -3952,7 +3953,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="48"/>
       <c r="O43" s="47" t="s">
-        <v>43</v>
+        <v>361</v>
       </c>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -3979,7 +3980,7 @@
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="F44" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
@@ -3992,7 +3993,7 @@
       <c r="M44" s="19"/>
       <c r="N44" s="20"/>
       <c r="O44" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -4026,7 +4027,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4062,7 +4063,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4089,20 +4090,20 @@
       <c r="A47" s="49"/>
       <c r="B47" s="49"/>
       <c r="F47" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="20"/>
       <c r="O47" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -4136,7 +4137,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4172,7 +4173,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4199,7 +4200,7 @@
       <c r="A50" s="49"/>
       <c r="B50" s="49"/>
       <c r="F50" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
@@ -4212,7 +4213,7 @@
       <c r="M50" s="19"/>
       <c r="N50" s="20"/>
       <c r="O50" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -4248,7 +4249,7 @@
       <c r="M51" s="45"/>
       <c r="N51" s="46"/>
       <c r="O51" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P51" s="45"/>
       <c r="Q51" s="45"/>
@@ -4275,20 +4276,20 @@
       <c r="A52" s="49"/>
       <c r="B52" s="49"/>
       <c r="F52" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
       <c r="N52" s="20"/>
       <c r="O52" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -4324,7 +4325,7 @@
       <c r="M53" s="19"/>
       <c r="N53" s="20"/>
       <c r="O53" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -4360,7 +4361,7 @@
       <c r="M54" s="19"/>
       <c r="N54" s="20"/>
       <c r="O54" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -4396,7 +4397,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4432,7 +4433,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4468,7 +4469,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4502,7 +4503,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4538,7 +4539,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="20"/>
       <c r="O59" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -4574,7 +4575,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4610,7 +4611,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4643,7 +4644,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4658,7 +4659,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="29"/>
       <c r="J64" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K64" s="28"/>
       <c r="L64" s="28"/>
@@ -4670,7 +4671,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4714,7 +4715,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4756,7 +4757,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4797,7 +4798,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4838,7 +4839,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4879,7 +4880,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -4985,7 +4986,7 @@
       <c r="A73" s="49"/>
       <c r="B73" s="49"/>
       <c r="F73" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF73" s="49"/>
       <c r="AG73" s="49"/>
@@ -5002,7 +5003,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5011,7 +5012,7 @@
       <c r="B76" s="49"/>
       <c r="E76" s="30"/>
       <c r="F76" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
@@ -5029,7 +5030,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5063,19 +5064,19 @@
       <c r="B79" s="49"/>
       <c r="E79" s="30"/>
       <c r="F79" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
       <c r="N79" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
@@ -5106,19 +5107,19 @@
       <c r="B80" s="49"/>
       <c r="E80" s="30"/>
       <c r="F80" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5155,7 +5156,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5202,7 +5203,7 @@
         <v>7.13.2.</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF84" s="49"/>
       <c r="AG84" s="49"/>
@@ -5215,7 +5216,7 @@
         <v>7.13.2.1.</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF85" s="49"/>
       <c r="AG85" s="49"/>
@@ -5227,7 +5228,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF86" s="49"/>
       <c r="AG86" s="49"/>
@@ -5237,7 +5238,7 @@
       <c r="B87" s="49"/>
       <c r="F87" s="17"/>
       <c r="G87" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF87" s="49"/>
       <c r="AG87" s="49"/>
@@ -5248,7 +5249,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="G88" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
@@ -5294,7 +5295,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5333,7 +5334,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5372,7 +5373,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
       <c r="L91" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -5420,40 +5421,40 @@
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="G94" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
       <c r="K94" s="29"/>
       <c r="L94" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M94" s="28"/>
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
       <c r="P94" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q94" s="28"/>
       <c r="R94" s="28"/>
       <c r="S94" s="28"/>
       <c r="T94" s="28"/>
       <c r="U94" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V94" s="28"/>
       <c r="W94" s="28"/>
       <c r="X94" s="28"/>
       <c r="Y94" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z94" s="28"/>
       <c r="AA94" s="28"/>
       <c r="AB94" s="28"/>
       <c r="AC94" s="28"/>
       <c r="AD94" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE94" s="28"/>
       <c r="AF94" s="28"/>
@@ -5475,33 +5476,33 @@
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
       <c r="L95" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
       <c r="P95" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q95" s="24"/>
       <c r="R95" s="24"/>
       <c r="S95" s="24"/>
       <c r="T95" s="24"/>
       <c r="U95" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V95" s="24"/>
       <c r="W95" s="24"/>
       <c r="X95" s="24"/>
       <c r="Y95" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z95" s="24"/>
       <c r="AA95" s="24"/>
       <c r="AB95" s="24"/>
       <c r="AC95" s="24"/>
       <c r="AD95" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE95" s="24"/>
       <c r="AF95" s="24"/>
@@ -5523,33 +5524,33 @@
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
       <c r="L96" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M96" s="24"/>
       <c r="N96" s="24"/>
       <c r="O96" s="24"/>
       <c r="P96" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q96" s="24"/>
       <c r="R96" s="24"/>
       <c r="S96" s="24"/>
       <c r="T96" s="24"/>
       <c r="U96" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V96" s="24"/>
       <c r="W96" s="24"/>
       <c r="X96" s="24"/>
       <c r="Y96" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z96" s="24"/>
       <c r="AA96" s="24"/>
       <c r="AB96" s="24"/>
       <c r="AC96" s="24"/>
       <c r="AD96" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE96" s="24"/>
       <c r="AF96" s="24"/>
@@ -5577,7 +5578,7 @@
       <c r="S97" s="19"/>
       <c r="T97" s="19"/>
       <c r="U97" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V97" s="19"/>
       <c r="W97" s="19"/>
@@ -5614,7 +5615,7 @@
       <c r="S98" s="19"/>
       <c r="T98" s="19"/>
       <c r="U98" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V98" s="19"/>
       <c r="W98" s="19"/>
@@ -5645,33 +5646,33 @@
       <c r="J99" s="33"/>
       <c r="K99" s="33"/>
       <c r="L99" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
       <c r="O99" s="33"/>
       <c r="P99" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q99" s="33"/>
       <c r="R99" s="33"/>
       <c r="S99" s="33"/>
       <c r="T99" s="33"/>
       <c r="U99" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V99" s="33"/>
       <c r="W99" s="33"/>
       <c r="X99" s="33"/>
       <c r="Y99" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z99" s="33"/>
       <c r="AA99" s="33"/>
       <c r="AB99" s="33"/>
       <c r="AC99" s="33"/>
       <c r="AD99" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE99" s="33"/>
       <c r="AF99" s="47"/>
@@ -5718,10 +5719,10 @@
       <c r="A101" s="49"/>
       <c r="B101" s="49"/>
       <c r="F101" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF101" s="49"/>
       <c r="AG101" s="49"/>
@@ -5731,7 +5732,7 @@
       <c r="B102" s="49"/>
       <c r="F102" s="17"/>
       <c r="G102" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5744,34 +5745,34 @@
     </row>
     <row r="104" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5814,7 +5815,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF112" s="49"/>
       <c r="AG112" s="49"/>
@@ -5825,24 +5826,24 @@
       <c r="E113" s="30"/>
       <c r="F113" s="31"/>
       <c r="G113" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="29"/>
       <c r="J113" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="29"/>
       <c r="M113" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
       <c r="Q113" s="29"/>
       <c r="R113" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S113" s="28"/>
       <c r="T113" s="28"/>
@@ -5868,24 +5869,24 @@
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
       <c r="G114" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
       <c r="J114" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="25"/>
       <c r="M114" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="25"/>
       <c r="R114" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S114" s="24"/>
       <c r="T114" s="24"/>
@@ -5920,7 +5921,7 @@
       <c r="P115" s="45"/>
       <c r="Q115" s="46"/>
       <c r="R115" s="45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -5980,10 +5981,10 @@
       <c r="B117" s="49"/>
       <c r="E117" s="30"/>
       <c r="F117" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF117" s="49"/>
       <c r="AG117" s="49"/>
@@ -5998,7 +5999,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF118" s="49"/>
       <c r="AG118" s="49"/>
@@ -6010,7 +6011,7 @@
       <c r="F119" s="30"/>
       <c r="G119" s="17"/>
       <c r="H119" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
@@ -6047,7 +6048,7 @@
       <c r="F120" s="30"/>
       <c r="G120" s="17"/>
       <c r="H120" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
@@ -6084,7 +6085,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="17"/>
       <c r="H121" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF121" s="49"/>
       <c r="AG121" s="49"/>
@@ -6096,7 +6097,7 @@
       <c r="F122" s="30"/>
       <c r="G122" s="17"/>
       <c r="H122" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF122" s="49"/>
       <c r="AG122" s="49"/>
@@ -6119,7 +6120,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF124" s="49"/>
       <c r="AG124" s="49"/>
@@ -6131,19 +6132,19 @@
       <c r="F125" s="17"/>
       <c r="G125" s="30"/>
       <c r="H125" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I125" s="28"/>
       <c r="J125" s="28"/>
       <c r="K125" s="28"/>
       <c r="L125" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M125" s="28"/>
       <c r="N125" s="28"/>
       <c r="O125" s="29"/>
       <c r="P125" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q125" s="28"/>
       <c r="R125" s="28"/>
@@ -6172,19 +6173,19 @@
       <c r="F126" s="17"/>
       <c r="G126" s="30"/>
       <c r="H126" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I126" s="19"/>
       <c r="J126" s="19"/>
       <c r="K126" s="19"/>
       <c r="L126" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="20"/>
       <c r="P126" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q126" s="19"/>
       <c r="R126" s="19"/>
@@ -6219,13 +6220,13 @@
       <c r="J127" s="33"/>
       <c r="K127" s="33"/>
       <c r="L127" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M127" s="33"/>
       <c r="N127" s="33"/>
       <c r="O127" s="34"/>
       <c r="P127" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q127" s="33"/>
       <c r="R127" s="33"/>
@@ -6254,19 +6255,19 @@
       <c r="F128" s="17"/>
       <c r="G128" s="30"/>
       <c r="H128" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I128" s="19"/>
       <c r="J128" s="19"/>
       <c r="K128" s="19"/>
       <c r="L128" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M128" s="19"/>
       <c r="N128" s="19"/>
       <c r="O128" s="20"/>
       <c r="P128" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
@@ -6303,7 +6304,7 @@
       <c r="N129" s="19"/>
       <c r="O129" s="20"/>
       <c r="P129" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q129" s="19"/>
       <c r="R129" s="19"/>
@@ -6340,7 +6341,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="26"/>
       <c r="P130" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
@@ -6369,19 +6370,19 @@
       <c r="F131" s="17"/>
       <c r="G131" s="30"/>
       <c r="H131" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
       <c r="L131" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
       <c r="O131" s="26"/>
       <c r="P131" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
@@ -6410,19 +6411,19 @@
       <c r="F132" s="17"/>
       <c r="G132" s="30"/>
       <c r="H132" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
       <c r="L132" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
       <c r="O132" s="20"/>
       <c r="P132" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q132" s="19"/>
       <c r="R132" s="19"/>
@@ -6459,7 +6460,7 @@
       <c r="N133" s="19"/>
       <c r="O133" s="20"/>
       <c r="P133" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
@@ -6497,14 +6498,14 @@
       <c r="O134" s="20"/>
       <c r="P134" s="19"/>
       <c r="Q134" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R134" s="28"/>
       <c r="S134" s="28"/>
       <c r="T134" s="28"/>
       <c r="U134" s="29"/>
       <c r="V134" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W134" s="28"/>
       <c r="X134" s="29"/>
@@ -6536,14 +6537,14 @@
       <c r="O135" s="20"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
       <c r="T135" s="33"/>
       <c r="U135" s="34"/>
       <c r="V135" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W135" s="33"/>
       <c r="X135" s="34"/>
@@ -6574,14 +6575,14 @@
       <c r="O136" s="20"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
       <c r="U136" s="26"/>
       <c r="V136" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W136" s="22"/>
       <c r="X136" s="26"/>
@@ -6637,19 +6638,19 @@
       <c r="E138" s="30"/>
       <c r="F138" s="17"/>
       <c r="H138" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I138" s="22"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
       <c r="L138" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
       <c r="O138" s="26"/>
       <c r="P138" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q138" s="22"/>
       <c r="R138" s="22"/>
@@ -6677,19 +6678,19 @@
       <c r="E139" s="30"/>
       <c r="F139" s="31"/>
       <c r="H139" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I139" s="22"/>
       <c r="J139" s="22"/>
       <c r="K139" s="22"/>
       <c r="L139" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
       <c r="O139" s="26"/>
       <c r="P139" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
@@ -6716,19 +6717,19 @@
       <c r="B140" s="49"/>
       <c r="E140" s="30"/>
       <c r="H140" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
       <c r="L140" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M140" s="24"/>
       <c r="N140" s="24"/>
       <c r="O140" s="24"/>
       <c r="P140" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q140" s="24"/>
       <c r="R140" s="24"/>
@@ -6806,10 +6807,10 @@
       <c r="B143" s="49"/>
       <c r="E143" s="30"/>
       <c r="F143" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF143" s="49"/>
     </row>
@@ -6823,7 +6824,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF144" s="49"/>
     </row>
@@ -6832,7 +6833,7 @@
       <c r="B145" s="49"/>
       <c r="E145" s="30"/>
       <c r="H145" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
@@ -6868,7 +6869,7 @@
       <c r="B146" s="49"/>
       <c r="E146" s="30"/>
       <c r="H146" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
@@ -6904,7 +6905,7 @@
       <c r="B147" s="49"/>
       <c r="E147" s="30"/>
       <c r="H147" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I147" s="22"/>
       <c r="J147" s="22"/>
@@ -6940,10 +6941,10 @@
       <c r="B148" s="49"/>
       <c r="E148" s="30"/>
       <c r="H148" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J148" s="19"/>
       <c r="K148" s="19"/>
@@ -6979,10 +6980,10 @@
       <c r="B149" s="49"/>
       <c r="E149" s="30"/>
       <c r="H149" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
@@ -7093,7 +7094,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF152" s="49"/>
       <c r="AG152" s="49"/>
@@ -7105,19 +7106,19 @@
       <c r="F153" s="17"/>
       <c r="G153" s="30"/>
       <c r="H153" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I153" s="28"/>
       <c r="J153" s="28"/>
       <c r="K153" s="28"/>
       <c r="L153" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M153" s="28"/>
       <c r="N153" s="28"/>
       <c r="O153" s="28"/>
       <c r="P153" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q153" s="28"/>
       <c r="R153" s="28"/>
@@ -7146,19 +7147,19 @@
       <c r="F154" s="17"/>
       <c r="G154" s="30"/>
       <c r="H154" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I154" s="19"/>
       <c r="J154" s="19"/>
       <c r="K154" s="19"/>
       <c r="L154" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M154" s="19"/>
       <c r="N154" s="19"/>
       <c r="O154" s="19"/>
       <c r="P154" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q154" s="19"/>
       <c r="R154" s="19"/>
@@ -7195,7 +7196,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
       <c r="P155" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q155" s="22"/>
       <c r="R155" s="22"/>
@@ -7224,19 +7225,19 @@
       <c r="F156" s="17"/>
       <c r="G156" s="30"/>
       <c r="H156" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I156" s="22"/>
       <c r="J156" s="22"/>
       <c r="K156" s="22"/>
       <c r="L156" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M156" s="22"/>
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
       <c r="P156" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q156" s="22"/>
       <c r="R156" s="22"/>
@@ -7265,19 +7266,19 @@
       <c r="F157" s="17"/>
       <c r="G157" s="30"/>
       <c r="H157" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I157" s="22"/>
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
       <c r="L157" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M157" s="22"/>
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
@@ -7312,7 +7313,7 @@
       <c r="B159" s="49"/>
       <c r="E159" s="30"/>
       <c r="F159" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>18</v>
@@ -7325,7 +7326,7 @@
       <c r="E160" s="30"/>
       <c r="F160" s="17"/>
       <c r="G160" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
@@ -7362,7 +7363,7 @@
       <c r="E161" s="30"/>
       <c r="F161" s="17"/>
       <c r="G161" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -7399,7 +7400,7 @@
       <c r="E162" s="30"/>
       <c r="F162" s="17"/>
       <c r="G162" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -7436,7 +7437,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="17"/>
       <c r="G163" s="52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -7473,7 +7474,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
       <c r="G164" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
@@ -7524,7 +7525,7 @@
         <v>7.13.3.2.</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF167" s="49"/>
       <c r="AG167" s="49"/>
@@ -7537,7 +7538,7 @@
         <v>12</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF168" s="49"/>
       <c r="AG168" s="49"/>
@@ -7548,24 +7549,24 @@
       <c r="E169" s="30"/>
       <c r="F169" s="31"/>
       <c r="G169" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H169" s="28"/>
       <c r="I169" s="29"/>
       <c r="J169" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="29"/>
       <c r="M169" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N169" s="28"/>
       <c r="O169" s="28"/>
       <c r="P169" s="28"/>
       <c r="Q169" s="29"/>
       <c r="R169" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S169" s="28"/>
       <c r="T169" s="28"/>
@@ -7591,24 +7592,24 @@
       <c r="E170" s="30"/>
       <c r="F170" s="31"/>
       <c r="G170" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H170" s="47"/>
       <c r="I170" s="48"/>
       <c r="J170" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K170" s="47"/>
       <c r="L170" s="48"/>
       <c r="M170" s="47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N170" s="47"/>
       <c r="O170" s="47"/>
       <c r="P170" s="47"/>
       <c r="Q170" s="48"/>
       <c r="R170" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
@@ -7641,10 +7642,10 @@
       <c r="B172" s="49"/>
       <c r="E172" s="30"/>
       <c r="F172" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF172" s="49"/>
       <c r="AG172" s="49"/>
@@ -7659,7 +7660,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF173" s="49"/>
       <c r="AG173" s="49"/>
@@ -7671,7 +7672,7 @@
       <c r="F174" s="30"/>
       <c r="G174" s="17"/>
       <c r="H174" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="33"/>
@@ -7708,7 +7709,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="17"/>
       <c r="H175" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF175" s="49"/>
       <c r="AG175" s="49"/>
@@ -7732,7 +7733,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF177" s="49"/>
       <c r="AG177" s="49"/>
@@ -7744,20 +7745,20 @@
       <c r="F178" s="17"/>
       <c r="G178" s="30"/>
       <c r="H178" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I178" s="28"/>
       <c r="J178" s="28"/>
       <c r="K178" s="28"/>
       <c r="L178" s="28"/>
       <c r="M178" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N178" s="28"/>
       <c r="O178" s="28"/>
       <c r="P178" s="29"/>
       <c r="Q178" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R178" s="28"/>
       <c r="S178" s="28"/>
@@ -7785,20 +7786,20 @@
       <c r="F179" s="17"/>
       <c r="G179" s="30"/>
       <c r="H179" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
       <c r="M179" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N179" s="19"/>
       <c r="O179" s="19"/>
       <c r="P179" s="20"/>
       <c r="Q179" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R179" s="19"/>
       <c r="S179" s="19"/>
@@ -7833,13 +7834,13 @@
       <c r="K180" s="33"/>
       <c r="L180" s="33"/>
       <c r="M180" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N180" s="33"/>
       <c r="O180" s="33"/>
       <c r="P180" s="34"/>
       <c r="Q180" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R180" s="33"/>
       <c r="S180" s="33"/>
@@ -7867,20 +7868,20 @@
       <c r="F181" s="17"/>
       <c r="G181" s="30"/>
       <c r="H181" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I181" s="19"/>
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
       <c r="M181" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N181" s="19"/>
       <c r="O181" s="19"/>
       <c r="P181" s="20"/>
       <c r="Q181" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
@@ -7917,7 +7918,7 @@
       <c r="O182" s="19"/>
       <c r="P182" s="20"/>
       <c r="Q182" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R182" s="19"/>
       <c r="S182" s="19"/>
@@ -7954,7 +7955,7 @@
       <c r="O183" s="22"/>
       <c r="P183" s="26"/>
       <c r="Q183" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R183" s="22"/>
       <c r="S183" s="22"/>
@@ -7980,20 +7981,20 @@
       <c r="B184" s="49"/>
       <c r="E184" s="30"/>
       <c r="H184" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I184" s="24"/>
       <c r="J184" s="24"/>
       <c r="K184" s="24"/>
       <c r="L184" s="24"/>
       <c r="M184" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N184" s="24"/>
       <c r="O184" s="24"/>
       <c r="P184" s="24"/>
       <c r="Q184" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R184" s="24"/>
       <c r="S184" s="24"/>
@@ -8064,10 +8065,10 @@
       <c r="B187" s="49"/>
       <c r="E187" s="30"/>
       <c r="F187" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF187" s="49"/>
       <c r="AG187" s="49"/>
@@ -8082,7 +8083,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
@@ -8094,7 +8095,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="30"/>
       <c r="H189" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF189" s="49"/>
       <c r="AG189" s="49"/>
@@ -8106,7 +8107,7 @@
       <c r="F190" s="30"/>
       <c r="G190" s="17"/>
       <c r="H190" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I190" s="24"/>
       <c r="J190" s="24"/>
@@ -8143,7 +8144,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
@@ -8180,7 +8181,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8217,7 +8218,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8254,7 +8255,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8291,7 +8292,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8326,7 +8327,7 @@
       <c r="F196" s="37"/>
       <c r="G196" s="38"/>
       <c r="H196" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I196" s="22"/>
       <c r="J196" s="22"/>
@@ -8363,7 +8364,7 @@
       <c r="F197" s="30"/>
       <c r="G197" s="17"/>
       <c r="H197" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF197" s="49"/>
     </row>
@@ -8384,7 +8385,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF199" s="49"/>
     </row>
@@ -8395,7 +8396,7 @@
       <c r="F200" s="17"/>
       <c r="G200" s="30"/>
       <c r="H200" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I200" s="28"/>
       <c r="J200" s="28"/>
@@ -8403,13 +8404,13 @@
       <c r="L200" s="28"/>
       <c r="M200" s="28"/>
       <c r="N200" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O200" s="28"/>
       <c r="P200" s="28"/>
       <c r="Q200" s="29"/>
       <c r="R200" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S200" s="28"/>
       <c r="T200" s="28"/>
@@ -8434,7 +8435,7 @@
       <c r="B201" s="49"/>
       <c r="E201" s="30"/>
       <c r="H201" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I201" s="22"/>
       <c r="J201" s="22"/>
@@ -8442,13 +8443,13 @@
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O201" s="22"/>
       <c r="P201" s="22"/>
       <c r="Q201" s="26"/>
       <c r="R201" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S201" s="22"/>
       <c r="T201" s="22"/>
@@ -8473,7 +8474,7 @@
       <c r="B202" s="49"/>
       <c r="E202" s="30"/>
       <c r="H202" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" s="22"/>
@@ -8481,13 +8482,13 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
       <c r="Q202" s="26"/>
       <c r="R202" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S202" s="22"/>
       <c r="T202" s="22"/>
@@ -8512,7 +8513,7 @@
       <c r="B203" s="49"/>
       <c r="E203" s="30"/>
       <c r="H203" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I203" s="22"/>
       <c r="J203" s="22"/>
@@ -8520,13 +8521,13 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
@@ -8551,7 +8552,7 @@
       <c r="B204" s="49"/>
       <c r="E204" s="30"/>
       <c r="H204" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I204" s="22"/>
       <c r="J204" s="22"/>
@@ -8559,13 +8560,13 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
@@ -8590,7 +8591,7 @@
       <c r="B205" s="49"/>
       <c r="E205" s="30"/>
       <c r="H205" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I205" s="22"/>
       <c r="J205" s="22"/>
@@ -8598,13 +8599,13 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="26"/>
       <c r="R205" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
@@ -8629,7 +8630,7 @@
       <c r="B206" s="49"/>
       <c r="E206" s="30"/>
       <c r="H206" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I206" s="22"/>
       <c r="J206" s="22"/>
@@ -8637,13 +8638,13 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
@@ -8668,7 +8669,7 @@
       <c r="B207" s="49"/>
       <c r="E207" s="30"/>
       <c r="H207" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
@@ -8676,13 +8677,13 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
@@ -8707,7 +8708,7 @@
       <c r="B208" s="49"/>
       <c r="E208" s="30"/>
       <c r="H208" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I208" s="22"/>
       <c r="J208" s="22"/>
@@ -8715,13 +8716,13 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
@@ -8746,7 +8747,7 @@
       <c r="B209" s="49"/>
       <c r="E209" s="30"/>
       <c r="H209" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
@@ -8754,13 +8755,13 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
@@ -8805,7 +8806,7 @@
         <v>(3)-3</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF211" s="49"/>
     </row>
@@ -8816,7 +8817,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="30"/>
       <c r="H212" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF212" s="49"/>
     </row>
@@ -8827,7 +8828,7 @@
       <c r="F213" s="30"/>
       <c r="G213" s="17"/>
       <c r="H213" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I213" s="24"/>
       <c r="J213" s="24"/>
@@ -8862,7 +8863,7 @@
       <c r="F214" s="37"/>
       <c r="G214" s="38"/>
       <c r="H214" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I214" s="22"/>
       <c r="J214" s="22"/>
@@ -8899,7 +8900,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="17"/>
       <c r="H215" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF215" s="49"/>
       <c r="AG215" s="49"/>
@@ -8922,7 +8923,7 @@
         <v>(3)-4</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF217" s="49"/>
       <c r="AG217" s="49"/>
@@ -8934,7 +8935,7 @@
       <c r="F218" s="17"/>
       <c r="G218" s="30"/>
       <c r="H218" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I218" s="28"/>
       <c r="J218" s="28"/>
@@ -8942,13 +8943,13 @@
       <c r="L218" s="28"/>
       <c r="M218" s="28"/>
       <c r="N218" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O218" s="28"/>
       <c r="P218" s="28"/>
       <c r="Q218" s="29"/>
       <c r="R218" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S218" s="28"/>
       <c r="T218" s="28"/>
@@ -8973,7 +8974,7 @@
       <c r="B219" s="49"/>
       <c r="E219" s="30"/>
       <c r="H219" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
@@ -8981,13 +8982,13 @@
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O219" s="22"/>
       <c r="P219" s="22"/>
       <c r="Q219" s="26"/>
       <c r="R219" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S219" s="22"/>
       <c r="T219" s="22"/>
@@ -9033,7 +9034,7 @@
         <v>(3)-5</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF221" s="49"/>
       <c r="AG221" s="49"/>
@@ -9045,7 +9046,7 @@
       <c r="F222" s="17"/>
       <c r="G222" s="30"/>
       <c r="H222" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF222" s="49"/>
       <c r="AG222" s="49"/>
@@ -9057,7 +9058,7 @@
       <c r="F223" s="30"/>
       <c r="G223" s="17"/>
       <c r="H223" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
@@ -9094,7 +9095,7 @@
       <c r="F224" s="30"/>
       <c r="G224" s="17"/>
       <c r="H224" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF224" s="49"/>
       <c r="AG224" s="49"/>
@@ -9117,7 +9118,7 @@
         <v>(3)-6</v>
       </c>
       <c r="H226" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF226" s="49"/>
       <c r="AG226" s="49"/>
@@ -9129,7 +9130,7 @@
       <c r="F227" s="17"/>
       <c r="G227" s="30"/>
       <c r="H227" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I227" s="28"/>
       <c r="J227" s="28"/>
@@ -9137,13 +9138,13 @@
       <c r="L227" s="28"/>
       <c r="M227" s="28"/>
       <c r="N227" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O227" s="28"/>
       <c r="P227" s="28"/>
       <c r="Q227" s="29"/>
       <c r="R227" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S227" s="28"/>
       <c r="T227" s="28"/>
@@ -9168,7 +9169,7 @@
       <c r="B228" s="49"/>
       <c r="E228" s="30"/>
       <c r="H228" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I228" s="22"/>
       <c r="J228" s="22"/>
@@ -9176,13 +9177,13 @@
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O228" s="22"/>
       <c r="P228" s="22"/>
       <c r="Q228" s="26"/>
       <c r="R228" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S228" s="22"/>
       <c r="T228" s="22"/>
@@ -9221,7 +9222,7 @@
         <v>(3)-7</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF230" s="49"/>
       <c r="AG230" s="49"/>
@@ -9233,7 +9234,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="30"/>
       <c r="H231" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF231" s="49"/>
       <c r="AG231" s="49"/>
@@ -9245,7 +9246,7 @@
       <c r="F232" s="30"/>
       <c r="G232" s="17"/>
       <c r="H232" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I232" s="24"/>
       <c r="J232" s="24"/>
@@ -9282,7 +9283,7 @@
       <c r="F233" s="30"/>
       <c r="G233" s="17"/>
       <c r="H233" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
@@ -9319,7 +9320,7 @@
       <c r="F234" s="30"/>
       <c r="G234" s="17"/>
       <c r="H234" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
@@ -9356,7 +9357,7 @@
       <c r="F235" s="30"/>
       <c r="G235" s="17"/>
       <c r="H235" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -9393,7 +9394,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9430,7 +9431,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9465,7 +9466,7 @@
       <c r="F238" s="37"/>
       <c r="G238" s="38"/>
       <c r="H238" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I238" s="22"/>
       <c r="J238" s="22"/>
@@ -9502,7 +9503,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF239" s="49"/>
       <c r="AG239" s="49"/>
@@ -9514,7 +9515,7 @@
       <c r="F240" s="30"/>
       <c r="G240" s="17"/>
       <c r="H240" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF240" s="49"/>
       <c r="AG240" s="49"/>
@@ -9537,7 +9538,7 @@
         <v>(3)-8</v>
       </c>
       <c r="H242" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
@@ -9549,7 +9550,7 @@
       <c r="F243" s="17"/>
       <c r="G243" s="30"/>
       <c r="H243" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I243" s="28"/>
       <c r="J243" s="28"/>
@@ -9557,13 +9558,13 @@
       <c r="L243" s="28"/>
       <c r="M243" s="28"/>
       <c r="N243" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O243" s="28"/>
       <c r="P243" s="28"/>
       <c r="Q243" s="29"/>
       <c r="R243" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S243" s="28"/>
       <c r="T243" s="28"/>
@@ -9588,7 +9589,7 @@
       <c r="B244" s="49"/>
       <c r="E244" s="30"/>
       <c r="H244" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I244" s="22"/>
       <c r="J244" s="22"/>
@@ -9596,13 +9597,13 @@
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O244" s="22"/>
       <c r="P244" s="22"/>
       <c r="Q244" s="26"/>
       <c r="R244" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S244" s="22"/>
       <c r="T244" s="22"/>
@@ -9627,7 +9628,7 @@
       <c r="B245" s="49"/>
       <c r="E245" s="30"/>
       <c r="H245" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I245" s="22"/>
       <c r="J245" s="22"/>
@@ -9635,13 +9636,13 @@
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O245" s="22"/>
       <c r="P245" s="22"/>
       <c r="Q245" s="26"/>
       <c r="R245" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S245" s="22"/>
       <c r="T245" s="22"/>
@@ -9666,7 +9667,7 @@
       <c r="B246" s="49"/>
       <c r="E246" s="30"/>
       <c r="H246" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -9674,13 +9675,13 @@
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O246" s="22"/>
       <c r="P246" s="22"/>
       <c r="Q246" s="26"/>
       <c r="R246" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S246" s="22"/>
       <c r="T246" s="22"/>
@@ -9705,7 +9706,7 @@
       <c r="B247" s="49"/>
       <c r="E247" s="30"/>
       <c r="H247" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I247" s="22"/>
       <c r="J247" s="22"/>
@@ -9713,13 +9714,13 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O247" s="22"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="26"/>
       <c r="R247" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S247" s="22"/>
       <c r="T247" s="22"/>
@@ -9744,7 +9745,7 @@
       <c r="B248" s="49"/>
       <c r="E248" s="30"/>
       <c r="H248" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I248" s="22"/>
       <c r="J248" s="22"/>
@@ -9752,13 +9753,13 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O248" s="22"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
@@ -9783,7 +9784,7 @@
       <c r="B249" s="49"/>
       <c r="E249" s="30"/>
       <c r="H249" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="22"/>
@@ -9791,13 +9792,13 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O249" s="22"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
@@ -9822,7 +9823,7 @@
       <c r="B250" s="49"/>
       <c r="E250" s="30"/>
       <c r="H250" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I250" s="22"/>
       <c r="J250" s="22"/>
@@ -9830,13 +9831,13 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O250" s="22"/>
       <c r="P250" s="22"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
@@ -9861,7 +9862,7 @@
       <c r="B251" s="49"/>
       <c r="E251" s="30"/>
       <c r="H251" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I251" s="22"/>
       <c r="J251" s="22"/>
@@ -9869,13 +9870,13 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O251" s="22"/>
       <c r="P251" s="22"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
@@ -9900,7 +9901,7 @@
       <c r="B252" s="49"/>
       <c r="E252" s="30"/>
       <c r="H252" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
@@ -9908,13 +9909,13 @@
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O252" s="22"/>
       <c r="P252" s="22"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
@@ -9939,7 +9940,7 @@
       <c r="B253" s="49"/>
       <c r="E253" s="30"/>
       <c r="H253" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I253" s="22"/>
       <c r="J253" s="22"/>
@@ -9947,13 +9948,13 @@
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O253" s="22"/>
       <c r="P253" s="22"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
@@ -9978,7 +9979,7 @@
       <c r="B254" s="49"/>
       <c r="E254" s="30"/>
       <c r="H254" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I254" s="22"/>
       <c r="J254" s="22"/>
@@ -9986,13 +9987,13 @@
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O254" s="22"/>
       <c r="P254" s="22"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
@@ -10033,7 +10034,7 @@
       <c r="B256" s="49"/>
       <c r="E256" s="30"/>
       <c r="F256" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>18</v>
@@ -10050,7 +10051,7 @@
         <v>(3)-1 →</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H257" s="54"/>
       <c r="I257" s="24"/>
@@ -10087,7 +10088,7 @@
       <c r="E258" s="30"/>
       <c r="F258" s="17"/>
       <c r="G258" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H258" s="55"/>
       <c r="I258" s="19"/>
@@ -10125,7 +10126,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="52"/>
       <c r="H259" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -10162,7 +10163,7 @@
       <c r="F260" s="17"/>
       <c r="G260" s="52"/>
       <c r="H260" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
@@ -10199,7 +10200,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="52"/>
       <c r="H261" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
@@ -10236,7 +10237,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="52"/>
       <c r="H262" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
@@ -10273,7 +10274,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="52"/>
       <c r="H263" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
@@ -10311,7 +10312,7 @@
       <c r="G264" s="52"/>
       <c r="H264" s="55"/>
       <c r="I264" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
@@ -10348,7 +10349,7 @@
       <c r="G265" s="52"/>
       <c r="H265" s="55"/>
       <c r="I265" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
@@ -10384,7 +10385,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="52"/>
       <c r="H266" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10420,7 +10421,7 @@
       <c r="E267" s="30"/>
       <c r="F267" s="17"/>
       <c r="G267" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H267" s="55"/>
       <c r="I267" s="19"/>
@@ -10460,7 +10461,7 @@
         <v>(3)-3 →</v>
       </c>
       <c r="G268" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H268" s="55"/>
       <c r="I268" s="19"/>
@@ -10498,7 +10499,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="52"/>
       <c r="H269" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
@@ -10536,7 +10537,7 @@
       <c r="G270" s="52"/>
       <c r="H270" s="55"/>
       <c r="I270" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
@@ -10573,7 +10574,7 @@
       <c r="G271" s="52"/>
       <c r="H271" s="55"/>
       <c r="I271" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
@@ -10611,7 +10612,7 @@
         <v>(3)-5 →</v>
       </c>
       <c r="G272" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H272" s="55"/>
       <c r="I272" s="19"/>
@@ -10651,7 +10652,7 @@
         <v>(3)-7 →</v>
       </c>
       <c r="G273" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H273" s="55"/>
       <c r="I273" s="19"/>
@@ -10688,7 +10689,7 @@
       <c r="E274" s="30"/>
       <c r="F274" s="17"/>
       <c r="G274" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H274" s="55"/>
       <c r="I274" s="19"/>
@@ -10725,7 +10726,7 @@
       <c r="E275" s="30"/>
       <c r="F275" s="17"/>
       <c r="G275" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H275" s="55"/>
       <c r="I275" s="19"/>
@@ -10763,7 +10764,7 @@
       <c r="F276" s="17"/>
       <c r="G276" s="52"/>
       <c r="H276" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
@@ -10800,7 +10801,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="52"/>
       <c r="H277" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
@@ -10837,7 +10838,7 @@
       <c r="F278" s="17"/>
       <c r="G278" s="52"/>
       <c r="H278" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I278" s="19"/>
       <c r="J278" s="19"/>
@@ -10874,7 +10875,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="52"/>
       <c r="H279" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
@@ -10911,7 +10912,7 @@
       <c r="F280" s="17"/>
       <c r="G280" s="53"/>
       <c r="H280" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I280" s="22"/>
       <c r="J280" s="22"/>
@@ -11005,7 +11006,7 @@
         <v>12</v>
       </c>
       <c r="G284" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF284" s="49"/>
       <c r="AG284" s="49"/>
@@ -11016,25 +11017,25 @@
       <c r="E285" s="30"/>
       <c r="F285" s="31"/>
       <c r="G285" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H285" s="28"/>
       <c r="I285" s="28"/>
       <c r="J285" s="29"/>
       <c r="K285" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L285" s="28"/>
       <c r="M285" s="29"/>
       <c r="N285" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O285" s="28"/>
       <c r="P285" s="28"/>
       <c r="Q285" s="28"/>
       <c r="R285" s="29"/>
       <c r="S285" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T285" s="28"/>
       <c r="U285" s="28"/>
@@ -11059,25 +11060,25 @@
       <c r="E286" s="30"/>
       <c r="F286" s="31"/>
       <c r="G286" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H286" s="47"/>
       <c r="I286" s="47"/>
       <c r="J286" s="48"/>
       <c r="K286" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L286" s="47"/>
       <c r="M286" s="48"/>
       <c r="N286" s="47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O286" s="47"/>
       <c r="P286" s="47"/>
       <c r="Q286" s="47"/>
       <c r="R286" s="48"/>
       <c r="S286" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T286" s="47"/>
       <c r="U286" s="47"/>
@@ -11102,25 +11103,25 @@
       <c r="E287" s="30"/>
       <c r="F287" s="31"/>
       <c r="G287" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
       <c r="J287" s="20"/>
       <c r="K287" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L287" s="19"/>
       <c r="M287" s="20"/>
       <c r="N287" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O287" s="19"/>
       <c r="P287" s="19"/>
       <c r="Q287" s="19"/>
       <c r="R287" s="20"/>
       <c r="S287" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T287" s="19"/>
       <c r="U287" s="19"/>
@@ -11157,7 +11158,7 @@
       <c r="Q288" s="22"/>
       <c r="R288" s="26"/>
       <c r="S288" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T288" s="22"/>
       <c r="U288" s="22"/>
@@ -11182,25 +11183,25 @@
       <c r="E289" s="30"/>
       <c r="F289" s="31"/>
       <c r="G289" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H289" s="33"/>
       <c r="I289" s="33"/>
       <c r="J289" s="34"/>
       <c r="K289" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L289" s="33"/>
       <c r="M289" s="34"/>
       <c r="N289" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O289" s="33"/>
       <c r="P289" s="33"/>
       <c r="Q289" s="33"/>
       <c r="R289" s="34"/>
       <c r="S289" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T289" s="33"/>
       <c r="U289" s="33"/>
@@ -11232,10 +11233,10 @@
       <c r="B291" s="49"/>
       <c r="E291" s="30"/>
       <c r="F291" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G291" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF291" s="49"/>
       <c r="AG291" s="49"/>
@@ -11250,7 +11251,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H292" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF292" s="49"/>
       <c r="AG292" s="49"/>
@@ -11263,7 +11264,7 @@
       <c r="F293" s="37"/>
       <c r="G293" s="38"/>
       <c r="H293" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I293" s="24"/>
       <c r="J293" s="24"/>
@@ -11300,7 +11301,7 @@
       <c r="F294" s="30"/>
       <c r="G294" s="17"/>
       <c r="H294" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I294" s="22"/>
       <c r="J294" s="22"/>
@@ -11337,7 +11338,7 @@
       <c r="F295" s="30"/>
       <c r="G295" s="17"/>
       <c r="H295" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF295" s="49"/>
       <c r="AG295" s="49"/>
@@ -11349,7 +11350,7 @@
       <c r="F296" s="30"/>
       <c r="G296" s="17"/>
       <c r="H296" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF296" s="49"/>
       <c r="AG296" s="49"/>
@@ -11372,7 +11373,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H298" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF298" s="49"/>
       <c r="AG298" s="49"/>
@@ -11384,20 +11385,20 @@
       <c r="F299" s="17"/>
       <c r="G299" s="30"/>
       <c r="H299" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I299" s="28"/>
       <c r="J299" s="28"/>
       <c r="K299" s="28"/>
       <c r="L299" s="28"/>
       <c r="M299" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N299" s="28"/>
       <c r="O299" s="28"/>
       <c r="P299" s="29"/>
       <c r="Q299" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R299" s="28"/>
       <c r="S299" s="28"/>
@@ -11423,20 +11424,20 @@
       <c r="B300" s="49"/>
       <c r="E300" s="30"/>
       <c r="H300" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I300" s="33"/>
       <c r="J300" s="33"/>
       <c r="K300" s="33"/>
       <c r="L300" s="33"/>
       <c r="M300" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N300" s="33"/>
       <c r="O300" s="33"/>
       <c r="P300" s="34"/>
       <c r="Q300" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R300" s="33"/>
       <c r="S300" s="33"/>
@@ -11469,13 +11470,13 @@
       <c r="K301" s="19"/>
       <c r="L301" s="19"/>
       <c r="M301" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N301" s="19"/>
       <c r="O301" s="19"/>
       <c r="P301" s="20"/>
       <c r="Q301" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R301" s="19"/>
       <c r="S301" s="19"/>
@@ -11510,7 +11511,7 @@
       <c r="O302" s="22"/>
       <c r="P302" s="26"/>
       <c r="Q302" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R302" s="22"/>
       <c r="S302" s="22"/>
@@ -11536,20 +11537,20 @@
       <c r="B303" s="49"/>
       <c r="E303" s="30"/>
       <c r="H303" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I303" s="22"/>
       <c r="J303" s="22"/>
       <c r="K303" s="22"/>
       <c r="L303" s="22"/>
       <c r="M303" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N303" s="22"/>
       <c r="O303" s="22"/>
       <c r="P303" s="26"/>
       <c r="Q303" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
@@ -11575,20 +11576,20 @@
       <c r="B304" s="49"/>
       <c r="E304" s="30"/>
       <c r="H304" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I304" s="22"/>
       <c r="J304" s="22"/>
       <c r="K304" s="22"/>
       <c r="L304" s="22"/>
       <c r="M304" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N304" s="22"/>
       <c r="O304" s="22"/>
       <c r="P304" s="26"/>
       <c r="Q304" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
@@ -11614,20 +11615,20 @@
       <c r="B305" s="49"/>
       <c r="E305" s="30"/>
       <c r="H305" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I305" s="33"/>
       <c r="J305" s="33"/>
       <c r="K305" s="33"/>
       <c r="L305" s="33"/>
       <c r="M305" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N305" s="33"/>
       <c r="O305" s="33"/>
       <c r="P305" s="34"/>
       <c r="Q305" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R305" s="33"/>
       <c r="S305" s="33"/>
@@ -11653,20 +11654,20 @@
       <c r="B306" s="49"/>
       <c r="E306" s="30"/>
       <c r="H306" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I306" s="22"/>
       <c r="J306" s="22"/>
       <c r="K306" s="22"/>
       <c r="L306" s="22"/>
       <c r="M306" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N306" s="22"/>
       <c r="O306" s="22"/>
       <c r="P306" s="26"/>
       <c r="Q306" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
@@ -11692,20 +11693,20 @@
       <c r="B307" s="49"/>
       <c r="E307" s="30"/>
       <c r="H307" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I307" s="22"/>
       <c r="J307" s="22"/>
       <c r="K307" s="22"/>
       <c r="L307" s="22"/>
       <c r="M307" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N307" s="22"/>
       <c r="O307" s="22"/>
       <c r="P307" s="26"/>
       <c r="Q307" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R307" s="22"/>
       <c r="S307" s="22"/>
@@ -11731,20 +11732,20 @@
       <c r="B308" s="49"/>
       <c r="E308" s="30"/>
       <c r="H308" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I308" s="22"/>
       <c r="J308" s="22"/>
       <c r="K308" s="22"/>
       <c r="L308" s="22"/>
       <c r="M308" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N308" s="22"/>
       <c r="O308" s="22"/>
       <c r="P308" s="26"/>
       <c r="Q308" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
@@ -11770,20 +11771,20 @@
       <c r="B309" s="49"/>
       <c r="E309" s="30"/>
       <c r="H309" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I309" s="33"/>
       <c r="J309" s="33"/>
       <c r="K309" s="33"/>
       <c r="L309" s="33"/>
       <c r="M309" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N309" s="33"/>
       <c r="O309" s="33"/>
       <c r="P309" s="34"/>
       <c r="Q309" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R309" s="33"/>
       <c r="S309" s="33"/>
@@ -11809,20 +11810,20 @@
       <c r="B310" s="49"/>
       <c r="E310" s="30"/>
       <c r="H310" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I310" s="22"/>
       <c r="J310" s="22"/>
       <c r="K310" s="22"/>
       <c r="L310" s="22"/>
       <c r="M310" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N310" s="22"/>
       <c r="O310" s="22"/>
       <c r="P310" s="26"/>
       <c r="Q310" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
@@ -11848,20 +11849,20 @@
       <c r="B311" s="49"/>
       <c r="E311" s="30"/>
       <c r="H311" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I311" s="19"/>
       <c r="J311" s="19"/>
       <c r="K311" s="19"/>
       <c r="L311" s="19"/>
       <c r="M311" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N311" s="19"/>
       <c r="O311" s="19"/>
       <c r="P311" s="20"/>
       <c r="Q311" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R311" s="19"/>
       <c r="S311" s="19"/>
@@ -11896,7 +11897,7 @@
       <c r="O312" s="22"/>
       <c r="P312" s="26"/>
       <c r="Q312" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
@@ -11969,7 +11970,7 @@
       <c r="E315" s="30"/>
       <c r="F315" s="17"/>
       <c r="G315" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF315" s="49"/>
       <c r="AG315" s="49"/>
@@ -11980,7 +11981,7 @@
       <c r="E316" s="30"/>
       <c r="F316" s="17"/>
       <c r="G316" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H316" s="24"/>
       <c r="I316" s="24"/>
@@ -12017,7 +12018,7 @@
       <c r="E317" s="30"/>
       <c r="F317" s="17"/>
       <c r="G317" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H317" s="22"/>
       <c r="I317" s="22"/>
@@ -12072,7 +12073,7 @@
         <v>7.13.3.4.</v>
       </c>
       <c r="F320" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF320" s="49"/>
       <c r="AG320" s="49"/>
@@ -12082,7 +12083,7 @@
       <c r="B321" s="49"/>
       <c r="E321" s="30"/>
       <c r="F321" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF321" s="49"/>
       <c r="AG321" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E1C5B-DD1B-46A3-9336-A24E82B278D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432B6CE-FA55-4FA7-89F9-F0A4723736F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・エラーログ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・Nablarchが出力するログ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1889,6 +1885,13 @@
   </si>
   <si>
     <t>障害発生時に運用監視ツールに障害が発生したことを通知するためのログ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・例外ログ</t>
+    <rPh sb="1" eb="3">
+      <t>レイガイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2716,7 +2719,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2737,7 +2740,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2778,11 +2781,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2848,10 +2851,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>306</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2861,13 +2864,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2923,13 +2926,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2961,7 +2964,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -3007,7 +3010,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3043,7 +3046,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3085,7 +3088,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3123,7 +3126,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3165,7 +3168,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3203,7 +3206,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3245,7 +3248,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3323,7 +3326,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3401,7 +3404,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3476,7 +3479,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3492,7 +3495,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -3502,7 +3505,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3545,7 +3548,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3588,7 +3591,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3631,7 +3634,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3674,7 +3677,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3707,7 +3710,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3717,7 +3720,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3745,7 +3748,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3755,7 +3758,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3788,7 +3791,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3798,7 +3801,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3826,7 +3829,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3836,7 +3839,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -3891,7 +3894,7 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF41" s="49"/>
       <c r="AG41" s="49"/>
@@ -3953,7 +3956,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="48"/>
       <c r="O43" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -4027,7 +4030,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4063,7 +4066,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4137,7 +4140,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4173,7 +4176,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4249,7 +4252,7 @@
       <c r="M51" s="45"/>
       <c r="N51" s="46"/>
       <c r="O51" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="45"/>
       <c r="Q51" s="45"/>
@@ -4397,7 +4400,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4433,7 +4436,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>55</v>
+        <v>361</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4469,7 +4472,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4503,7 +4506,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4539,7 +4542,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="20"/>
       <c r="O59" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -4575,7 +4578,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4611,7 +4614,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4644,7 +4647,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4659,7 +4662,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="29"/>
       <c r="J64" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K64" s="28"/>
       <c r="L64" s="28"/>
@@ -4671,7 +4674,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4715,7 +4718,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4757,7 +4760,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4798,7 +4801,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4839,7 +4842,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4880,7 +4883,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -4986,7 +4989,7 @@
       <c r="A73" s="49"/>
       <c r="B73" s="49"/>
       <c r="F73" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF73" s="49"/>
       <c r="AG73" s="49"/>
@@ -5003,7 +5006,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5012,7 +5015,7 @@
       <c r="B76" s="49"/>
       <c r="E76" s="30"/>
       <c r="F76" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
@@ -5030,7 +5033,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5064,19 +5067,19 @@
       <c r="B79" s="49"/>
       <c r="E79" s="30"/>
       <c r="F79" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
       <c r="N79" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
@@ -5107,19 +5110,19 @@
       <c r="B80" s="49"/>
       <c r="E80" s="30"/>
       <c r="F80" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5156,7 +5159,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5203,7 +5206,7 @@
         <v>7.13.2.</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF84" s="49"/>
       <c r="AG84" s="49"/>
@@ -5216,7 +5219,7 @@
         <v>7.13.2.1.</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF85" s="49"/>
       <c r="AG85" s="49"/>
@@ -5228,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF86" s="49"/>
       <c r="AG86" s="49"/>
@@ -5238,7 +5241,7 @@
       <c r="B87" s="49"/>
       <c r="F87" s="17"/>
       <c r="G87" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF87" s="49"/>
       <c r="AG87" s="49"/>
@@ -5249,7 +5252,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="G88" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
@@ -5295,7 +5298,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5334,7 +5337,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5373,7 +5376,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
       <c r="L91" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -5421,40 +5424,40 @@
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="G94" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
       <c r="K94" s="29"/>
       <c r="L94" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M94" s="28"/>
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
       <c r="P94" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q94" s="28"/>
       <c r="R94" s="28"/>
       <c r="S94" s="28"/>
       <c r="T94" s="28"/>
       <c r="U94" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V94" s="28"/>
       <c r="W94" s="28"/>
       <c r="X94" s="28"/>
       <c r="Y94" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z94" s="28"/>
       <c r="AA94" s="28"/>
       <c r="AB94" s="28"/>
       <c r="AC94" s="28"/>
       <c r="AD94" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE94" s="28"/>
       <c r="AF94" s="28"/>
@@ -5476,33 +5479,33 @@
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
       <c r="L95" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
       <c r="P95" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q95" s="24"/>
       <c r="R95" s="24"/>
       <c r="S95" s="24"/>
       <c r="T95" s="24"/>
       <c r="U95" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V95" s="24"/>
       <c r="W95" s="24"/>
       <c r="X95" s="24"/>
       <c r="Y95" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z95" s="24"/>
       <c r="AA95" s="24"/>
       <c r="AB95" s="24"/>
       <c r="AC95" s="24"/>
       <c r="AD95" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE95" s="24"/>
       <c r="AF95" s="24"/>
@@ -5524,13 +5527,13 @@
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
       <c r="L96" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M96" s="24"/>
       <c r="N96" s="24"/>
       <c r="O96" s="24"/>
       <c r="P96" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q96" s="24"/>
       <c r="R96" s="24"/>
@@ -5543,14 +5546,14 @@
       <c r="W96" s="24"/>
       <c r="X96" s="24"/>
       <c r="Y96" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z96" s="24"/>
       <c r="AA96" s="24"/>
       <c r="AB96" s="24"/>
       <c r="AC96" s="24"/>
       <c r="AD96" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE96" s="24"/>
       <c r="AF96" s="24"/>
@@ -5578,7 +5581,7 @@
       <c r="S97" s="19"/>
       <c r="T97" s="19"/>
       <c r="U97" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V97" s="19"/>
       <c r="W97" s="19"/>
@@ -5615,7 +5618,7 @@
       <c r="S98" s="19"/>
       <c r="T98" s="19"/>
       <c r="U98" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V98" s="19"/>
       <c r="W98" s="19"/>
@@ -5646,33 +5649,33 @@
       <c r="J99" s="33"/>
       <c r="K99" s="33"/>
       <c r="L99" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
       <c r="O99" s="33"/>
       <c r="P99" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q99" s="33"/>
       <c r="R99" s="33"/>
       <c r="S99" s="33"/>
       <c r="T99" s="33"/>
       <c r="U99" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V99" s="33"/>
       <c r="W99" s="33"/>
       <c r="X99" s="33"/>
       <c r="Y99" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z99" s="33"/>
       <c r="AA99" s="33"/>
       <c r="AB99" s="33"/>
       <c r="AC99" s="33"/>
       <c r="AD99" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE99" s="33"/>
       <c r="AF99" s="47"/>
@@ -5719,10 +5722,10 @@
       <c r="A101" s="49"/>
       <c r="B101" s="49"/>
       <c r="F101" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF101" s="49"/>
       <c r="AG101" s="49"/>
@@ -5732,7 +5735,7 @@
       <c r="B102" s="49"/>
       <c r="F102" s="17"/>
       <c r="G102" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5745,34 +5748,34 @@
     </row>
     <row r="104" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5815,7 +5818,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF112" s="49"/>
       <c r="AG112" s="49"/>
@@ -5826,24 +5829,24 @@
       <c r="E113" s="30"/>
       <c r="F113" s="31"/>
       <c r="G113" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="29"/>
       <c r="J113" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="29"/>
       <c r="M113" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
       <c r="Q113" s="29"/>
       <c r="R113" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S113" s="28"/>
       <c r="T113" s="28"/>
@@ -5869,24 +5872,24 @@
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
       <c r="G114" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
       <c r="J114" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="25"/>
       <c r="M114" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="25"/>
       <c r="R114" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S114" s="24"/>
       <c r="T114" s="24"/>
@@ -5921,7 +5924,7 @@
       <c r="P115" s="45"/>
       <c r="Q115" s="46"/>
       <c r="R115" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -5981,10 +5984,10 @@
       <c r="B117" s="49"/>
       <c r="E117" s="30"/>
       <c r="F117" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF117" s="49"/>
       <c r="AG117" s="49"/>
@@ -5999,7 +6002,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF118" s="49"/>
       <c r="AG118" s="49"/>
@@ -6011,7 +6014,7 @@
       <c r="F119" s="30"/>
       <c r="G119" s="17"/>
       <c r="H119" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
@@ -6048,7 +6051,7 @@
       <c r="F120" s="30"/>
       <c r="G120" s="17"/>
       <c r="H120" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
@@ -6085,7 +6088,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="17"/>
       <c r="H121" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF121" s="49"/>
       <c r="AG121" s="49"/>
@@ -6097,7 +6100,7 @@
       <c r="F122" s="30"/>
       <c r="G122" s="17"/>
       <c r="H122" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF122" s="49"/>
       <c r="AG122" s="49"/>
@@ -6120,7 +6123,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF124" s="49"/>
       <c r="AG124" s="49"/>
@@ -6132,19 +6135,19 @@
       <c r="F125" s="17"/>
       <c r="G125" s="30"/>
       <c r="H125" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I125" s="28"/>
       <c r="J125" s="28"/>
       <c r="K125" s="28"/>
       <c r="L125" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M125" s="28"/>
       <c r="N125" s="28"/>
       <c r="O125" s="29"/>
       <c r="P125" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q125" s="28"/>
       <c r="R125" s="28"/>
@@ -6173,19 +6176,19 @@
       <c r="F126" s="17"/>
       <c r="G126" s="30"/>
       <c r="H126" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I126" s="19"/>
       <c r="J126" s="19"/>
       <c r="K126" s="19"/>
       <c r="L126" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="20"/>
       <c r="P126" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q126" s="19"/>
       <c r="R126" s="19"/>
@@ -6220,13 +6223,13 @@
       <c r="J127" s="33"/>
       <c r="K127" s="33"/>
       <c r="L127" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M127" s="33"/>
       <c r="N127" s="33"/>
       <c r="O127" s="34"/>
       <c r="P127" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q127" s="33"/>
       <c r="R127" s="33"/>
@@ -6255,19 +6258,19 @@
       <c r="F128" s="17"/>
       <c r="G128" s="30"/>
       <c r="H128" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I128" s="19"/>
       <c r="J128" s="19"/>
       <c r="K128" s="19"/>
       <c r="L128" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M128" s="19"/>
       <c r="N128" s="19"/>
       <c r="O128" s="20"/>
       <c r="P128" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
@@ -6304,7 +6307,7 @@
       <c r="N129" s="19"/>
       <c r="O129" s="20"/>
       <c r="P129" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q129" s="19"/>
       <c r="R129" s="19"/>
@@ -6341,7 +6344,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="26"/>
       <c r="P130" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
@@ -6370,19 +6373,19 @@
       <c r="F131" s="17"/>
       <c r="G131" s="30"/>
       <c r="H131" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
       <c r="L131" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
       <c r="O131" s="26"/>
       <c r="P131" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
@@ -6411,19 +6414,19 @@
       <c r="F132" s="17"/>
       <c r="G132" s="30"/>
       <c r="H132" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
       <c r="L132" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
       <c r="O132" s="20"/>
       <c r="P132" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q132" s="19"/>
       <c r="R132" s="19"/>
@@ -6460,7 +6463,7 @@
       <c r="N133" s="19"/>
       <c r="O133" s="20"/>
       <c r="P133" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
@@ -6498,14 +6501,14 @@
       <c r="O134" s="20"/>
       <c r="P134" s="19"/>
       <c r="Q134" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R134" s="28"/>
       <c r="S134" s="28"/>
       <c r="T134" s="28"/>
       <c r="U134" s="29"/>
       <c r="V134" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W134" s="28"/>
       <c r="X134" s="29"/>
@@ -6537,14 +6540,14 @@
       <c r="O135" s="20"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
       <c r="T135" s="33"/>
       <c r="U135" s="34"/>
       <c r="V135" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W135" s="33"/>
       <c r="X135" s="34"/>
@@ -6575,14 +6578,14 @@
       <c r="O136" s="20"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
       <c r="U136" s="26"/>
       <c r="V136" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W136" s="22"/>
       <c r="X136" s="26"/>
@@ -6638,19 +6641,19 @@
       <c r="E138" s="30"/>
       <c r="F138" s="17"/>
       <c r="H138" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I138" s="22"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
       <c r="L138" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
       <c r="O138" s="26"/>
       <c r="P138" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q138" s="22"/>
       <c r="R138" s="22"/>
@@ -6678,19 +6681,19 @@
       <c r="E139" s="30"/>
       <c r="F139" s="31"/>
       <c r="H139" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I139" s="22"/>
       <c r="J139" s="22"/>
       <c r="K139" s="22"/>
       <c r="L139" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
       <c r="O139" s="26"/>
       <c r="P139" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
@@ -6717,19 +6720,19 @@
       <c r="B140" s="49"/>
       <c r="E140" s="30"/>
       <c r="H140" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
       <c r="L140" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M140" s="24"/>
       <c r="N140" s="24"/>
       <c r="O140" s="24"/>
       <c r="P140" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q140" s="24"/>
       <c r="R140" s="24"/>
@@ -6807,10 +6810,10 @@
       <c r="B143" s="49"/>
       <c r="E143" s="30"/>
       <c r="F143" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF143" s="49"/>
     </row>
@@ -6824,7 +6827,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF144" s="49"/>
     </row>
@@ -6833,7 +6836,7 @@
       <c r="B145" s="49"/>
       <c r="E145" s="30"/>
       <c r="H145" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
@@ -6869,7 +6872,7 @@
       <c r="B146" s="49"/>
       <c r="E146" s="30"/>
       <c r="H146" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
@@ -6905,7 +6908,7 @@
       <c r="B147" s="49"/>
       <c r="E147" s="30"/>
       <c r="H147" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I147" s="22"/>
       <c r="J147" s="22"/>
@@ -6941,10 +6944,10 @@
       <c r="B148" s="49"/>
       <c r="E148" s="30"/>
       <c r="H148" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J148" s="19"/>
       <c r="K148" s="19"/>
@@ -6980,10 +6983,10 @@
       <c r="B149" s="49"/>
       <c r="E149" s="30"/>
       <c r="H149" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
@@ -7094,7 +7097,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF152" s="49"/>
       <c r="AG152" s="49"/>
@@ -7106,19 +7109,19 @@
       <c r="F153" s="17"/>
       <c r="G153" s="30"/>
       <c r="H153" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I153" s="28"/>
       <c r="J153" s="28"/>
       <c r="K153" s="28"/>
       <c r="L153" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M153" s="28"/>
       <c r="N153" s="28"/>
       <c r="O153" s="28"/>
       <c r="P153" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q153" s="28"/>
       <c r="R153" s="28"/>
@@ -7147,19 +7150,19 @@
       <c r="F154" s="17"/>
       <c r="G154" s="30"/>
       <c r="H154" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I154" s="19"/>
       <c r="J154" s="19"/>
       <c r="K154" s="19"/>
       <c r="L154" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M154" s="19"/>
       <c r="N154" s="19"/>
       <c r="O154" s="19"/>
       <c r="P154" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q154" s="19"/>
       <c r="R154" s="19"/>
@@ -7196,7 +7199,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
       <c r="P155" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q155" s="22"/>
       <c r="R155" s="22"/>
@@ -7225,19 +7228,19 @@
       <c r="F156" s="17"/>
       <c r="G156" s="30"/>
       <c r="H156" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I156" s="22"/>
       <c r="J156" s="22"/>
       <c r="K156" s="22"/>
       <c r="L156" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M156" s="22"/>
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
       <c r="P156" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q156" s="22"/>
       <c r="R156" s="22"/>
@@ -7266,19 +7269,19 @@
       <c r="F157" s="17"/>
       <c r="G157" s="30"/>
       <c r="H157" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I157" s="22"/>
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
       <c r="L157" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M157" s="22"/>
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
@@ -7313,7 +7316,7 @@
       <c r="B159" s="49"/>
       <c r="E159" s="30"/>
       <c r="F159" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>18</v>
@@ -7326,7 +7329,7 @@
       <c r="E160" s="30"/>
       <c r="F160" s="17"/>
       <c r="G160" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
@@ -7363,7 +7366,7 @@
       <c r="E161" s="30"/>
       <c r="F161" s="17"/>
       <c r="G161" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -7400,7 +7403,7 @@
       <c r="E162" s="30"/>
       <c r="F162" s="17"/>
       <c r="G162" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -7437,7 +7440,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="17"/>
       <c r="G163" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -7474,7 +7477,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
       <c r="G164" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
@@ -7525,7 +7528,7 @@
         <v>7.13.3.2.</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF167" s="49"/>
       <c r="AG167" s="49"/>
@@ -7538,7 +7541,7 @@
         <v>12</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF168" s="49"/>
       <c r="AG168" s="49"/>
@@ -7549,24 +7552,24 @@
       <c r="E169" s="30"/>
       <c r="F169" s="31"/>
       <c r="G169" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H169" s="28"/>
       <c r="I169" s="29"/>
       <c r="J169" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="29"/>
       <c r="M169" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N169" s="28"/>
       <c r="O169" s="28"/>
       <c r="P169" s="28"/>
       <c r="Q169" s="29"/>
       <c r="R169" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S169" s="28"/>
       <c r="T169" s="28"/>
@@ -7597,19 +7600,19 @@
       <c r="H170" s="47"/>
       <c r="I170" s="48"/>
       <c r="J170" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K170" s="47"/>
       <c r="L170" s="48"/>
       <c r="M170" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N170" s="47"/>
       <c r="O170" s="47"/>
       <c r="P170" s="47"/>
       <c r="Q170" s="48"/>
       <c r="R170" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
@@ -7642,10 +7645,10 @@
       <c r="B172" s="49"/>
       <c r="E172" s="30"/>
       <c r="F172" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF172" s="49"/>
       <c r="AG172" s="49"/>
@@ -7660,7 +7663,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF173" s="49"/>
       <c r="AG173" s="49"/>
@@ -7672,7 +7675,7 @@
       <c r="F174" s="30"/>
       <c r="G174" s="17"/>
       <c r="H174" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="33"/>
@@ -7709,7 +7712,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="17"/>
       <c r="H175" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF175" s="49"/>
       <c r="AG175" s="49"/>
@@ -7733,7 +7736,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF177" s="49"/>
       <c r="AG177" s="49"/>
@@ -7745,20 +7748,20 @@
       <c r="F178" s="17"/>
       <c r="G178" s="30"/>
       <c r="H178" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I178" s="28"/>
       <c r="J178" s="28"/>
       <c r="K178" s="28"/>
       <c r="L178" s="28"/>
       <c r="M178" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N178" s="28"/>
       <c r="O178" s="28"/>
       <c r="P178" s="29"/>
       <c r="Q178" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R178" s="28"/>
       <c r="S178" s="28"/>
@@ -7786,20 +7789,20 @@
       <c r="F179" s="17"/>
       <c r="G179" s="30"/>
       <c r="H179" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
       <c r="M179" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N179" s="19"/>
       <c r="O179" s="19"/>
       <c r="P179" s="20"/>
       <c r="Q179" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R179" s="19"/>
       <c r="S179" s="19"/>
@@ -7834,13 +7837,13 @@
       <c r="K180" s="33"/>
       <c r="L180" s="33"/>
       <c r="M180" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N180" s="33"/>
       <c r="O180" s="33"/>
       <c r="P180" s="34"/>
       <c r="Q180" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R180" s="33"/>
       <c r="S180" s="33"/>
@@ -7868,20 +7871,20 @@
       <c r="F181" s="17"/>
       <c r="G181" s="30"/>
       <c r="H181" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I181" s="19"/>
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
       <c r="M181" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N181" s="19"/>
       <c r="O181" s="19"/>
       <c r="P181" s="20"/>
       <c r="Q181" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
@@ -7918,7 +7921,7 @@
       <c r="O182" s="19"/>
       <c r="P182" s="20"/>
       <c r="Q182" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R182" s="19"/>
       <c r="S182" s="19"/>
@@ -7955,7 +7958,7 @@
       <c r="O183" s="22"/>
       <c r="P183" s="26"/>
       <c r="Q183" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R183" s="22"/>
       <c r="S183" s="22"/>
@@ -7981,20 +7984,20 @@
       <c r="B184" s="49"/>
       <c r="E184" s="30"/>
       <c r="H184" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I184" s="24"/>
       <c r="J184" s="24"/>
       <c r="K184" s="24"/>
       <c r="L184" s="24"/>
       <c r="M184" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N184" s="24"/>
       <c r="O184" s="24"/>
       <c r="P184" s="24"/>
       <c r="Q184" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R184" s="24"/>
       <c r="S184" s="24"/>
@@ -8065,10 +8068,10 @@
       <c r="B187" s="49"/>
       <c r="E187" s="30"/>
       <c r="F187" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF187" s="49"/>
       <c r="AG187" s="49"/>
@@ -8083,7 +8086,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
@@ -8095,7 +8098,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="30"/>
       <c r="H189" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF189" s="49"/>
       <c r="AG189" s="49"/>
@@ -8107,7 +8110,7 @@
       <c r="F190" s="30"/>
       <c r="G190" s="17"/>
       <c r="H190" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I190" s="24"/>
       <c r="J190" s="24"/>
@@ -8144,7 +8147,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
@@ -8181,7 +8184,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8218,7 +8221,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8255,7 +8258,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8292,7 +8295,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8327,7 +8330,7 @@
       <c r="F196" s="37"/>
       <c r="G196" s="38"/>
       <c r="H196" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I196" s="22"/>
       <c r="J196" s="22"/>
@@ -8364,7 +8367,7 @@
       <c r="F197" s="30"/>
       <c r="G197" s="17"/>
       <c r="H197" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF197" s="49"/>
     </row>
@@ -8385,7 +8388,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF199" s="49"/>
     </row>
@@ -8396,7 +8399,7 @@
       <c r="F200" s="17"/>
       <c r="G200" s="30"/>
       <c r="H200" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I200" s="28"/>
       <c r="J200" s="28"/>
@@ -8404,13 +8407,13 @@
       <c r="L200" s="28"/>
       <c r="M200" s="28"/>
       <c r="N200" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O200" s="28"/>
       <c r="P200" s="28"/>
       <c r="Q200" s="29"/>
       <c r="R200" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S200" s="28"/>
       <c r="T200" s="28"/>
@@ -8435,7 +8438,7 @@
       <c r="B201" s="49"/>
       <c r="E201" s="30"/>
       <c r="H201" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I201" s="22"/>
       <c r="J201" s="22"/>
@@ -8443,13 +8446,13 @@
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O201" s="22"/>
       <c r="P201" s="22"/>
       <c r="Q201" s="26"/>
       <c r="R201" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S201" s="22"/>
       <c r="T201" s="22"/>
@@ -8474,7 +8477,7 @@
       <c r="B202" s="49"/>
       <c r="E202" s="30"/>
       <c r="H202" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" s="22"/>
@@ -8482,13 +8485,13 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
       <c r="Q202" s="26"/>
       <c r="R202" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S202" s="22"/>
       <c r="T202" s="22"/>
@@ -8513,7 +8516,7 @@
       <c r="B203" s="49"/>
       <c r="E203" s="30"/>
       <c r="H203" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I203" s="22"/>
       <c r="J203" s="22"/>
@@ -8521,13 +8524,13 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
@@ -8552,7 +8555,7 @@
       <c r="B204" s="49"/>
       <c r="E204" s="30"/>
       <c r="H204" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I204" s="22"/>
       <c r="J204" s="22"/>
@@ -8560,13 +8563,13 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
@@ -8591,7 +8594,7 @@
       <c r="B205" s="49"/>
       <c r="E205" s="30"/>
       <c r="H205" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I205" s="22"/>
       <c r="J205" s="22"/>
@@ -8599,13 +8602,13 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="26"/>
       <c r="R205" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
@@ -8630,7 +8633,7 @@
       <c r="B206" s="49"/>
       <c r="E206" s="30"/>
       <c r="H206" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I206" s="22"/>
       <c r="J206" s="22"/>
@@ -8638,13 +8641,13 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
@@ -8669,7 +8672,7 @@
       <c r="B207" s="49"/>
       <c r="E207" s="30"/>
       <c r="H207" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
@@ -8677,13 +8680,13 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
@@ -8708,7 +8711,7 @@
       <c r="B208" s="49"/>
       <c r="E208" s="30"/>
       <c r="H208" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I208" s="22"/>
       <c r="J208" s="22"/>
@@ -8716,13 +8719,13 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
@@ -8747,7 +8750,7 @@
       <c r="B209" s="49"/>
       <c r="E209" s="30"/>
       <c r="H209" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
@@ -8755,13 +8758,13 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
@@ -8806,7 +8809,7 @@
         <v>(3)-3</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF211" s="49"/>
     </row>
@@ -8817,7 +8820,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="30"/>
       <c r="H212" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF212" s="49"/>
     </row>
@@ -8828,7 +8831,7 @@
       <c r="F213" s="30"/>
       <c r="G213" s="17"/>
       <c r="H213" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I213" s="24"/>
       <c r="J213" s="24"/>
@@ -8863,7 +8866,7 @@
       <c r="F214" s="37"/>
       <c r="G214" s="38"/>
       <c r="H214" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I214" s="22"/>
       <c r="J214" s="22"/>
@@ -8900,7 +8903,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="17"/>
       <c r="H215" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF215" s="49"/>
       <c r="AG215" s="49"/>
@@ -8923,7 +8926,7 @@
         <v>(3)-4</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF217" s="49"/>
       <c r="AG217" s="49"/>
@@ -8935,7 +8938,7 @@
       <c r="F218" s="17"/>
       <c r="G218" s="30"/>
       <c r="H218" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I218" s="28"/>
       <c r="J218" s="28"/>
@@ -8943,13 +8946,13 @@
       <c r="L218" s="28"/>
       <c r="M218" s="28"/>
       <c r="N218" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O218" s="28"/>
       <c r="P218" s="28"/>
       <c r="Q218" s="29"/>
       <c r="R218" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S218" s="28"/>
       <c r="T218" s="28"/>
@@ -8974,7 +8977,7 @@
       <c r="B219" s="49"/>
       <c r="E219" s="30"/>
       <c r="H219" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
@@ -8982,13 +8985,13 @@
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O219" s="22"/>
       <c r="P219" s="22"/>
       <c r="Q219" s="26"/>
       <c r="R219" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S219" s="22"/>
       <c r="T219" s="22"/>
@@ -9034,7 +9037,7 @@
         <v>(3)-5</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF221" s="49"/>
       <c r="AG221" s="49"/>
@@ -9046,7 +9049,7 @@
       <c r="F222" s="17"/>
       <c r="G222" s="30"/>
       <c r="H222" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF222" s="49"/>
       <c r="AG222" s="49"/>
@@ -9058,7 +9061,7 @@
       <c r="F223" s="30"/>
       <c r="G223" s="17"/>
       <c r="H223" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
@@ -9095,7 +9098,7 @@
       <c r="F224" s="30"/>
       <c r="G224" s="17"/>
       <c r="H224" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF224" s="49"/>
       <c r="AG224" s="49"/>
@@ -9118,7 +9121,7 @@
         <v>(3)-6</v>
       </c>
       <c r="H226" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF226" s="49"/>
       <c r="AG226" s="49"/>
@@ -9130,7 +9133,7 @@
       <c r="F227" s="17"/>
       <c r="G227" s="30"/>
       <c r="H227" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I227" s="28"/>
       <c r="J227" s="28"/>
@@ -9138,13 +9141,13 @@
       <c r="L227" s="28"/>
       <c r="M227" s="28"/>
       <c r="N227" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O227" s="28"/>
       <c r="P227" s="28"/>
       <c r="Q227" s="29"/>
       <c r="R227" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S227" s="28"/>
       <c r="T227" s="28"/>
@@ -9169,7 +9172,7 @@
       <c r="B228" s="49"/>
       <c r="E228" s="30"/>
       <c r="H228" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I228" s="22"/>
       <c r="J228" s="22"/>
@@ -9177,13 +9180,13 @@
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O228" s="22"/>
       <c r="P228" s="22"/>
       <c r="Q228" s="26"/>
       <c r="R228" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S228" s="22"/>
       <c r="T228" s="22"/>
@@ -9222,7 +9225,7 @@
         <v>(3)-7</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF230" s="49"/>
       <c r="AG230" s="49"/>
@@ -9234,7 +9237,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="30"/>
       <c r="H231" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF231" s="49"/>
       <c r="AG231" s="49"/>
@@ -9246,7 +9249,7 @@
       <c r="F232" s="30"/>
       <c r="G232" s="17"/>
       <c r="H232" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I232" s="24"/>
       <c r="J232" s="24"/>
@@ -9283,7 +9286,7 @@
       <c r="F233" s="30"/>
       <c r="G233" s="17"/>
       <c r="H233" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
@@ -9320,7 +9323,7 @@
       <c r="F234" s="30"/>
       <c r="G234" s="17"/>
       <c r="H234" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
@@ -9357,7 +9360,7 @@
       <c r="F235" s="30"/>
       <c r="G235" s="17"/>
       <c r="H235" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -9394,7 +9397,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9431,7 +9434,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9466,7 +9469,7 @@
       <c r="F238" s="37"/>
       <c r="G238" s="38"/>
       <c r="H238" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I238" s="22"/>
       <c r="J238" s="22"/>
@@ -9503,7 +9506,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF239" s="49"/>
       <c r="AG239" s="49"/>
@@ -9515,7 +9518,7 @@
       <c r="F240" s="30"/>
       <c r="G240" s="17"/>
       <c r="H240" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF240" s="49"/>
       <c r="AG240" s="49"/>
@@ -9538,7 +9541,7 @@
         <v>(3)-8</v>
       </c>
       <c r="H242" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
@@ -9550,7 +9553,7 @@
       <c r="F243" s="17"/>
       <c r="G243" s="30"/>
       <c r="H243" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I243" s="28"/>
       <c r="J243" s="28"/>
@@ -9558,13 +9561,13 @@
       <c r="L243" s="28"/>
       <c r="M243" s="28"/>
       <c r="N243" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O243" s="28"/>
       <c r="P243" s="28"/>
       <c r="Q243" s="29"/>
       <c r="R243" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S243" s="28"/>
       <c r="T243" s="28"/>
@@ -9589,7 +9592,7 @@
       <c r="B244" s="49"/>
       <c r="E244" s="30"/>
       <c r="H244" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I244" s="22"/>
       <c r="J244" s="22"/>
@@ -9597,13 +9600,13 @@
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O244" s="22"/>
       <c r="P244" s="22"/>
       <c r="Q244" s="26"/>
       <c r="R244" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S244" s="22"/>
       <c r="T244" s="22"/>
@@ -9628,7 +9631,7 @@
       <c r="B245" s="49"/>
       <c r="E245" s="30"/>
       <c r="H245" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I245" s="22"/>
       <c r="J245" s="22"/>
@@ -9636,13 +9639,13 @@
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O245" s="22"/>
       <c r="P245" s="22"/>
       <c r="Q245" s="26"/>
       <c r="R245" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S245" s="22"/>
       <c r="T245" s="22"/>
@@ -9667,7 +9670,7 @@
       <c r="B246" s="49"/>
       <c r="E246" s="30"/>
       <c r="H246" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -9675,13 +9678,13 @@
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O246" s="22"/>
       <c r="P246" s="22"/>
       <c r="Q246" s="26"/>
       <c r="R246" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S246" s="22"/>
       <c r="T246" s="22"/>
@@ -9706,7 +9709,7 @@
       <c r="B247" s="49"/>
       <c r="E247" s="30"/>
       <c r="H247" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I247" s="22"/>
       <c r="J247" s="22"/>
@@ -9714,13 +9717,13 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O247" s="22"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="26"/>
       <c r="R247" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S247" s="22"/>
       <c r="T247" s="22"/>
@@ -9745,7 +9748,7 @@
       <c r="B248" s="49"/>
       <c r="E248" s="30"/>
       <c r="H248" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I248" s="22"/>
       <c r="J248" s="22"/>
@@ -9753,13 +9756,13 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O248" s="22"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
@@ -9784,7 +9787,7 @@
       <c r="B249" s="49"/>
       <c r="E249" s="30"/>
       <c r="H249" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="22"/>
@@ -9792,13 +9795,13 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O249" s="22"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
@@ -9823,7 +9826,7 @@
       <c r="B250" s="49"/>
       <c r="E250" s="30"/>
       <c r="H250" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I250" s="22"/>
       <c r="J250" s="22"/>
@@ -9831,13 +9834,13 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O250" s="22"/>
       <c r="P250" s="22"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
@@ -9862,7 +9865,7 @@
       <c r="B251" s="49"/>
       <c r="E251" s="30"/>
       <c r="H251" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I251" s="22"/>
       <c r="J251" s="22"/>
@@ -9870,13 +9873,13 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O251" s="22"/>
       <c r="P251" s="22"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
@@ -9901,7 +9904,7 @@
       <c r="B252" s="49"/>
       <c r="E252" s="30"/>
       <c r="H252" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
@@ -9909,13 +9912,13 @@
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O252" s="22"/>
       <c r="P252" s="22"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
@@ -9940,7 +9943,7 @@
       <c r="B253" s="49"/>
       <c r="E253" s="30"/>
       <c r="H253" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I253" s="22"/>
       <c r="J253" s="22"/>
@@ -9948,13 +9951,13 @@
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O253" s="22"/>
       <c r="P253" s="22"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
@@ -9979,7 +9982,7 @@
       <c r="B254" s="49"/>
       <c r="E254" s="30"/>
       <c r="H254" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I254" s="22"/>
       <c r="J254" s="22"/>
@@ -9987,13 +9990,13 @@
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O254" s="22"/>
       <c r="P254" s="22"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
@@ -10034,7 +10037,7 @@
       <c r="B256" s="49"/>
       <c r="E256" s="30"/>
       <c r="F256" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>18</v>
@@ -10051,7 +10054,7 @@
         <v>(3)-1 →</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H257" s="54"/>
       <c r="I257" s="24"/>
@@ -10088,7 +10091,7 @@
       <c r="E258" s="30"/>
       <c r="F258" s="17"/>
       <c r="G258" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H258" s="55"/>
       <c r="I258" s="19"/>
@@ -10126,7 +10129,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="52"/>
       <c r="H259" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -10163,7 +10166,7 @@
       <c r="F260" s="17"/>
       <c r="G260" s="52"/>
       <c r="H260" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
@@ -10200,7 +10203,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="52"/>
       <c r="H261" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
@@ -10237,7 +10240,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="52"/>
       <c r="H262" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
@@ -10274,7 +10277,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="52"/>
       <c r="H263" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
@@ -10312,7 +10315,7 @@
       <c r="G264" s="52"/>
       <c r="H264" s="55"/>
       <c r="I264" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
@@ -10349,7 +10352,7 @@
       <c r="G265" s="52"/>
       <c r="H265" s="55"/>
       <c r="I265" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
@@ -10385,7 +10388,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="52"/>
       <c r="H266" s="55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10421,7 +10424,7 @@
       <c r="E267" s="30"/>
       <c r="F267" s="17"/>
       <c r="G267" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H267" s="55"/>
       <c r="I267" s="19"/>
@@ -10461,7 +10464,7 @@
         <v>(3)-3 →</v>
       </c>
       <c r="G268" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H268" s="55"/>
       <c r="I268" s="19"/>
@@ -10499,7 +10502,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="52"/>
       <c r="H269" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
@@ -10537,7 +10540,7 @@
       <c r="G270" s="52"/>
       <c r="H270" s="55"/>
       <c r="I270" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
@@ -10574,7 +10577,7 @@
       <c r="G271" s="52"/>
       <c r="H271" s="55"/>
       <c r="I271" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
@@ -10612,7 +10615,7 @@
         <v>(3)-5 →</v>
       </c>
       <c r="G272" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H272" s="55"/>
       <c r="I272" s="19"/>
@@ -10652,7 +10655,7 @@
         <v>(3)-7 →</v>
       </c>
       <c r="G273" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H273" s="55"/>
       <c r="I273" s="19"/>
@@ -10689,7 +10692,7 @@
       <c r="E274" s="30"/>
       <c r="F274" s="17"/>
       <c r="G274" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H274" s="55"/>
       <c r="I274" s="19"/>
@@ -10726,7 +10729,7 @@
       <c r="E275" s="30"/>
       <c r="F275" s="17"/>
       <c r="G275" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H275" s="55"/>
       <c r="I275" s="19"/>
@@ -10764,7 +10767,7 @@
       <c r="F276" s="17"/>
       <c r="G276" s="52"/>
       <c r="H276" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
@@ -10801,7 +10804,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="52"/>
       <c r="H277" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
@@ -10838,7 +10841,7 @@
       <c r="F278" s="17"/>
       <c r="G278" s="52"/>
       <c r="H278" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I278" s="19"/>
       <c r="J278" s="19"/>
@@ -10875,7 +10878,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="52"/>
       <c r="H279" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
@@ -10912,7 +10915,7 @@
       <c r="F280" s="17"/>
       <c r="G280" s="53"/>
       <c r="H280" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I280" s="22"/>
       <c r="J280" s="22"/>
@@ -11006,7 +11009,7 @@
         <v>12</v>
       </c>
       <c r="G284" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF284" s="49"/>
       <c r="AG284" s="49"/>
@@ -11017,25 +11020,25 @@
       <c r="E285" s="30"/>
       <c r="F285" s="31"/>
       <c r="G285" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H285" s="28"/>
       <c r="I285" s="28"/>
       <c r="J285" s="29"/>
       <c r="K285" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L285" s="28"/>
       <c r="M285" s="29"/>
       <c r="N285" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O285" s="28"/>
       <c r="P285" s="28"/>
       <c r="Q285" s="28"/>
       <c r="R285" s="29"/>
       <c r="S285" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T285" s="28"/>
       <c r="U285" s="28"/>
@@ -11066,19 +11069,19 @@
       <c r="I286" s="47"/>
       <c r="J286" s="48"/>
       <c r="K286" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L286" s="47"/>
       <c r="M286" s="48"/>
       <c r="N286" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O286" s="47"/>
       <c r="P286" s="47"/>
       <c r="Q286" s="47"/>
       <c r="R286" s="48"/>
       <c r="S286" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T286" s="47"/>
       <c r="U286" s="47"/>
@@ -11109,19 +11112,19 @@
       <c r="I287" s="19"/>
       <c r="J287" s="20"/>
       <c r="K287" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L287" s="19"/>
       <c r="M287" s="20"/>
       <c r="N287" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O287" s="19"/>
       <c r="P287" s="19"/>
       <c r="Q287" s="19"/>
       <c r="R287" s="20"/>
       <c r="S287" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T287" s="19"/>
       <c r="U287" s="19"/>
@@ -11158,7 +11161,7 @@
       <c r="Q288" s="22"/>
       <c r="R288" s="26"/>
       <c r="S288" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T288" s="22"/>
       <c r="U288" s="22"/>
@@ -11189,19 +11192,19 @@
       <c r="I289" s="33"/>
       <c r="J289" s="34"/>
       <c r="K289" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L289" s="33"/>
       <c r="M289" s="34"/>
       <c r="N289" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O289" s="33"/>
       <c r="P289" s="33"/>
       <c r="Q289" s="33"/>
       <c r="R289" s="34"/>
       <c r="S289" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T289" s="33"/>
       <c r="U289" s="33"/>
@@ -11233,10 +11236,10 @@
       <c r="B291" s="49"/>
       <c r="E291" s="30"/>
       <c r="F291" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G291" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF291" s="49"/>
       <c r="AG291" s="49"/>
@@ -11251,7 +11254,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H292" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF292" s="49"/>
       <c r="AG292" s="49"/>
@@ -11264,7 +11267,7 @@
       <c r="F293" s="37"/>
       <c r="G293" s="38"/>
       <c r="H293" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I293" s="24"/>
       <c r="J293" s="24"/>
@@ -11301,7 +11304,7 @@
       <c r="F294" s="30"/>
       <c r="G294" s="17"/>
       <c r="H294" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I294" s="22"/>
       <c r="J294" s="22"/>
@@ -11338,7 +11341,7 @@
       <c r="F295" s="30"/>
       <c r="G295" s="17"/>
       <c r="H295" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF295" s="49"/>
       <c r="AG295" s="49"/>
@@ -11350,7 +11353,7 @@
       <c r="F296" s="30"/>
       <c r="G296" s="17"/>
       <c r="H296" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF296" s="49"/>
       <c r="AG296" s="49"/>
@@ -11373,7 +11376,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H298" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF298" s="49"/>
       <c r="AG298" s="49"/>
@@ -11385,20 +11388,20 @@
       <c r="F299" s="17"/>
       <c r="G299" s="30"/>
       <c r="H299" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I299" s="28"/>
       <c r="J299" s="28"/>
       <c r="K299" s="28"/>
       <c r="L299" s="28"/>
       <c r="M299" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N299" s="28"/>
       <c r="O299" s="28"/>
       <c r="P299" s="29"/>
       <c r="Q299" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R299" s="28"/>
       <c r="S299" s="28"/>
@@ -11424,20 +11427,20 @@
       <c r="B300" s="49"/>
       <c r="E300" s="30"/>
       <c r="H300" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I300" s="33"/>
       <c r="J300" s="33"/>
       <c r="K300" s="33"/>
       <c r="L300" s="33"/>
       <c r="M300" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N300" s="33"/>
       <c r="O300" s="33"/>
       <c r="P300" s="34"/>
       <c r="Q300" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R300" s="33"/>
       <c r="S300" s="33"/>
@@ -11470,13 +11473,13 @@
       <c r="K301" s="19"/>
       <c r="L301" s="19"/>
       <c r="M301" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N301" s="19"/>
       <c r="O301" s="19"/>
       <c r="P301" s="20"/>
       <c r="Q301" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R301" s="19"/>
       <c r="S301" s="19"/>
@@ -11511,7 +11514,7 @@
       <c r="O302" s="22"/>
       <c r="P302" s="26"/>
       <c r="Q302" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R302" s="22"/>
       <c r="S302" s="22"/>
@@ -11537,20 +11540,20 @@
       <c r="B303" s="49"/>
       <c r="E303" s="30"/>
       <c r="H303" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I303" s="22"/>
       <c r="J303" s="22"/>
       <c r="K303" s="22"/>
       <c r="L303" s="22"/>
       <c r="M303" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N303" s="22"/>
       <c r="O303" s="22"/>
       <c r="P303" s="26"/>
       <c r="Q303" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
@@ -11576,20 +11579,20 @@
       <c r="B304" s="49"/>
       <c r="E304" s="30"/>
       <c r="H304" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I304" s="22"/>
       <c r="J304" s="22"/>
       <c r="K304" s="22"/>
       <c r="L304" s="22"/>
       <c r="M304" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N304" s="22"/>
       <c r="O304" s="22"/>
       <c r="P304" s="26"/>
       <c r="Q304" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
@@ -11615,20 +11618,20 @@
       <c r="B305" s="49"/>
       <c r="E305" s="30"/>
       <c r="H305" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I305" s="33"/>
       <c r="J305" s="33"/>
       <c r="K305" s="33"/>
       <c r="L305" s="33"/>
       <c r="M305" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N305" s="33"/>
       <c r="O305" s="33"/>
       <c r="P305" s="34"/>
       <c r="Q305" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R305" s="33"/>
       <c r="S305" s="33"/>
@@ -11654,20 +11657,20 @@
       <c r="B306" s="49"/>
       <c r="E306" s="30"/>
       <c r="H306" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I306" s="22"/>
       <c r="J306" s="22"/>
       <c r="K306" s="22"/>
       <c r="L306" s="22"/>
       <c r="M306" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N306" s="22"/>
       <c r="O306" s="22"/>
       <c r="P306" s="26"/>
       <c r="Q306" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
@@ -11693,20 +11696,20 @@
       <c r="B307" s="49"/>
       <c r="E307" s="30"/>
       <c r="H307" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I307" s="22"/>
       <c r="J307" s="22"/>
       <c r="K307" s="22"/>
       <c r="L307" s="22"/>
       <c r="M307" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N307" s="22"/>
       <c r="O307" s="22"/>
       <c r="P307" s="26"/>
       <c r="Q307" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R307" s="22"/>
       <c r="S307" s="22"/>
@@ -11732,20 +11735,20 @@
       <c r="B308" s="49"/>
       <c r="E308" s="30"/>
       <c r="H308" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I308" s="22"/>
       <c r="J308" s="22"/>
       <c r="K308" s="22"/>
       <c r="L308" s="22"/>
       <c r="M308" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N308" s="22"/>
       <c r="O308" s="22"/>
       <c r="P308" s="26"/>
       <c r="Q308" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
@@ -11771,20 +11774,20 @@
       <c r="B309" s="49"/>
       <c r="E309" s="30"/>
       <c r="H309" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I309" s="33"/>
       <c r="J309" s="33"/>
       <c r="K309" s="33"/>
       <c r="L309" s="33"/>
       <c r="M309" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N309" s="33"/>
       <c r="O309" s="33"/>
       <c r="P309" s="34"/>
       <c r="Q309" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R309" s="33"/>
       <c r="S309" s="33"/>
@@ -11810,20 +11813,20 @@
       <c r="B310" s="49"/>
       <c r="E310" s="30"/>
       <c r="H310" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I310" s="22"/>
       <c r="J310" s="22"/>
       <c r="K310" s="22"/>
       <c r="L310" s="22"/>
       <c r="M310" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N310" s="22"/>
       <c r="O310" s="22"/>
       <c r="P310" s="26"/>
       <c r="Q310" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
@@ -11849,20 +11852,20 @@
       <c r="B311" s="49"/>
       <c r="E311" s="30"/>
       <c r="H311" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I311" s="19"/>
       <c r="J311" s="19"/>
       <c r="K311" s="19"/>
       <c r="L311" s="19"/>
       <c r="M311" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N311" s="19"/>
       <c r="O311" s="19"/>
       <c r="P311" s="20"/>
       <c r="Q311" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R311" s="19"/>
       <c r="S311" s="19"/>
@@ -11897,7 +11900,7 @@
       <c r="O312" s="22"/>
       <c r="P312" s="26"/>
       <c r="Q312" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
@@ -11970,7 +11973,7 @@
       <c r="E315" s="30"/>
       <c r="F315" s="17"/>
       <c r="G315" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF315" s="49"/>
       <c r="AG315" s="49"/>
@@ -11981,7 +11984,7 @@
       <c r="E316" s="30"/>
       <c r="F316" s="17"/>
       <c r="G316" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H316" s="24"/>
       <c r="I316" s="24"/>
@@ -12018,7 +12021,7 @@
       <c r="E317" s="30"/>
       <c r="F317" s="17"/>
       <c r="G317" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H317" s="22"/>
       <c r="I317" s="22"/>
@@ -12073,7 +12076,7 @@
         <v>7.13.3.4.</v>
       </c>
       <c r="F320" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF320" s="49"/>
       <c r="AG320" s="49"/>
@@ -12083,7 +12086,7 @@
       <c r="B321" s="49"/>
       <c r="E321" s="30"/>
       <c r="F321" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF321" s="49"/>
       <c r="AG321" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432B6CE-FA55-4FA7-89F9-F0A4723736F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6C170F-4603-4703-A4FF-B8E19824DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,9 +319,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アクセスログ(画面オンライン処理からのアクセスを記録するログ等)を出力するログファイル。</t>
-  </si>
-  <si>
     <t>ログファイルの種類</t>
     <rPh sb="7" eb="9">
       <t>シュルイ</t>
@@ -1892,6 +1889,10 @@
     <rPh sb="1" eb="3">
       <t>レイガイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスログを出力するログファイル。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2719,7 +2720,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2740,7 +2741,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2781,11 +2782,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2851,10 +2852,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>305</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2864,13 +2865,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2926,13 +2927,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2964,7 +2965,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -3010,7 +3011,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3046,7 +3047,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3088,7 +3089,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3126,7 +3127,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3168,7 +3169,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3206,7 +3207,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3248,7 +3249,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3326,7 +3327,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3404,7 +3405,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3479,7 +3480,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3495,7 +3496,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="29"/>
       <c r="I29" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -3505,7 +3506,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3548,7 +3549,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3591,7 +3592,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3634,7 +3635,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3677,7 +3678,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3710,7 +3711,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3720,7 +3721,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3748,7 +3749,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3758,7 +3759,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3791,7 +3792,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3801,7 +3802,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3829,7 +3830,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3839,7 +3840,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -3894,7 +3895,7 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF41" s="49"/>
       <c r="AG41" s="49"/>
@@ -3956,7 +3957,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="48"/>
       <c r="O43" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -4030,7 +4031,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4066,7 +4067,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4140,7 +4141,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4176,7 +4177,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4400,7 +4401,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4436,7 +4437,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4472,7 +4473,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4506,7 +4507,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4578,7 +4579,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4614,7 +4615,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4647,7 +4648,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4662,7 +4663,7 @@
       <c r="H64" s="28"/>
       <c r="I64" s="29"/>
       <c r="J64" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K64" s="28"/>
       <c r="L64" s="28"/>
@@ -4674,7 +4675,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4718,7 +4719,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4760,7 +4761,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4801,7 +4802,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4842,7 +4843,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4883,7 +4884,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -5006,7 +5007,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5015,7 +5016,7 @@
       <c r="B76" s="49"/>
       <c r="E76" s="30"/>
       <c r="F76" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
@@ -5033,7 +5034,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5067,19 +5068,19 @@
       <c r="B79" s="49"/>
       <c r="E79" s="30"/>
       <c r="F79" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
       <c r="N79" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
@@ -5110,19 +5111,19 @@
       <c r="B80" s="49"/>
       <c r="E80" s="30"/>
       <c r="F80" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5159,7 +5160,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5231,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF86" s="49"/>
       <c r="AG86" s="49"/>
@@ -5241,7 +5242,7 @@
       <c r="B87" s="49"/>
       <c r="F87" s="17"/>
       <c r="G87" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF87" s="49"/>
       <c r="AG87" s="49"/>
@@ -5252,7 +5253,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="G88" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
@@ -5298,7 +5299,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5337,7 +5338,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5376,7 +5377,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
       <c r="L91" s="32" t="s">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -5424,40 +5425,40 @@
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="G94" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
       <c r="K94" s="29"/>
       <c r="L94" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M94" s="28"/>
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
       <c r="P94" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q94" s="28"/>
       <c r="R94" s="28"/>
       <c r="S94" s="28"/>
       <c r="T94" s="28"/>
       <c r="U94" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V94" s="28"/>
       <c r="W94" s="28"/>
       <c r="X94" s="28"/>
       <c r="Y94" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z94" s="28"/>
       <c r="AA94" s="28"/>
       <c r="AB94" s="28"/>
       <c r="AC94" s="28"/>
       <c r="AD94" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE94" s="28"/>
       <c r="AF94" s="28"/>
@@ -5479,33 +5480,33 @@
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
       <c r="L95" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
       <c r="P95" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q95" s="24"/>
       <c r="R95" s="24"/>
       <c r="S95" s="24"/>
       <c r="T95" s="24"/>
       <c r="U95" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V95" s="24"/>
       <c r="W95" s="24"/>
       <c r="X95" s="24"/>
       <c r="Y95" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z95" s="24"/>
       <c r="AA95" s="24"/>
       <c r="AB95" s="24"/>
       <c r="AC95" s="24"/>
       <c r="AD95" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE95" s="24"/>
       <c r="AF95" s="24"/>
@@ -5527,13 +5528,13 @@
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
       <c r="L96" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M96" s="24"/>
       <c r="N96" s="24"/>
       <c r="O96" s="24"/>
       <c r="P96" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q96" s="24"/>
       <c r="R96" s="24"/>
@@ -5546,14 +5547,14 @@
       <c r="W96" s="24"/>
       <c r="X96" s="24"/>
       <c r="Y96" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z96" s="24"/>
       <c r="AA96" s="24"/>
       <c r="AB96" s="24"/>
       <c r="AC96" s="24"/>
       <c r="AD96" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE96" s="24"/>
       <c r="AF96" s="24"/>
@@ -5581,7 +5582,7 @@
       <c r="S97" s="19"/>
       <c r="T97" s="19"/>
       <c r="U97" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V97" s="19"/>
       <c r="W97" s="19"/>
@@ -5618,7 +5619,7 @@
       <c r="S98" s="19"/>
       <c r="T98" s="19"/>
       <c r="U98" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V98" s="19"/>
       <c r="W98" s="19"/>
@@ -5649,33 +5650,33 @@
       <c r="J99" s="33"/>
       <c r="K99" s="33"/>
       <c r="L99" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
       <c r="O99" s="33"/>
       <c r="P99" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q99" s="33"/>
       <c r="R99" s="33"/>
       <c r="S99" s="33"/>
       <c r="T99" s="33"/>
       <c r="U99" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V99" s="33"/>
       <c r="W99" s="33"/>
       <c r="X99" s="33"/>
       <c r="Y99" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z99" s="33"/>
       <c r="AA99" s="33"/>
       <c r="AB99" s="33"/>
       <c r="AC99" s="33"/>
       <c r="AD99" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE99" s="33"/>
       <c r="AF99" s="47"/>
@@ -5725,7 +5726,7 @@
         <v>60</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF101" s="49"/>
       <c r="AG101" s="49"/>
@@ -5735,7 +5736,7 @@
       <c r="B102" s="49"/>
       <c r="F102" s="17"/>
       <c r="G102" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5748,34 +5749,34 @@
     </row>
     <row r="104" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5818,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF112" s="49"/>
       <c r="AG112" s="49"/>
@@ -5829,24 +5830,24 @@
       <c r="E113" s="30"/>
       <c r="F113" s="31"/>
       <c r="G113" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H113" s="28"/>
       <c r="I113" s="29"/>
       <c r="J113" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="29"/>
       <c r="M113" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
       <c r="Q113" s="29"/>
       <c r="R113" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S113" s="28"/>
       <c r="T113" s="28"/>
@@ -5872,24 +5873,24 @@
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
       <c r="G114" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
       <c r="J114" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K114" s="24"/>
       <c r="L114" s="25"/>
       <c r="M114" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="25"/>
       <c r="R114" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S114" s="24"/>
       <c r="T114" s="24"/>
@@ -5924,7 +5925,7 @@
       <c r="P115" s="45"/>
       <c r="Q115" s="46"/>
       <c r="R115" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -5984,10 +5985,10 @@
       <c r="B117" s="49"/>
       <c r="E117" s="30"/>
       <c r="F117" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF117" s="49"/>
       <c r="AG117" s="49"/>
@@ -6002,7 +6003,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF118" s="49"/>
       <c r="AG118" s="49"/>
@@ -6014,7 +6015,7 @@
       <c r="F119" s="30"/>
       <c r="G119" s="17"/>
       <c r="H119" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
@@ -6051,7 +6052,7 @@
       <c r="F120" s="30"/>
       <c r="G120" s="17"/>
       <c r="H120" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
@@ -6088,7 +6089,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="17"/>
       <c r="H121" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF121" s="49"/>
       <c r="AG121" s="49"/>
@@ -6100,7 +6101,7 @@
       <c r="F122" s="30"/>
       <c r="G122" s="17"/>
       <c r="H122" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF122" s="49"/>
       <c r="AG122" s="49"/>
@@ -6123,7 +6124,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF124" s="49"/>
       <c r="AG124" s="49"/>
@@ -6135,19 +6136,19 @@
       <c r="F125" s="17"/>
       <c r="G125" s="30"/>
       <c r="H125" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I125" s="28"/>
       <c r="J125" s="28"/>
       <c r="K125" s="28"/>
       <c r="L125" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M125" s="28"/>
       <c r="N125" s="28"/>
       <c r="O125" s="29"/>
       <c r="P125" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q125" s="28"/>
       <c r="R125" s="28"/>
@@ -6176,19 +6177,19 @@
       <c r="F126" s="17"/>
       <c r="G126" s="30"/>
       <c r="H126" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I126" s="19"/>
       <c r="J126" s="19"/>
       <c r="K126" s="19"/>
       <c r="L126" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="20"/>
       <c r="P126" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q126" s="19"/>
       <c r="R126" s="19"/>
@@ -6223,13 +6224,13 @@
       <c r="J127" s="33"/>
       <c r="K127" s="33"/>
       <c r="L127" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M127" s="33"/>
       <c r="N127" s="33"/>
       <c r="O127" s="34"/>
       <c r="P127" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q127" s="33"/>
       <c r="R127" s="33"/>
@@ -6258,19 +6259,19 @@
       <c r="F128" s="17"/>
       <c r="G128" s="30"/>
       <c r="H128" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I128" s="19"/>
       <c r="J128" s="19"/>
       <c r="K128" s="19"/>
       <c r="L128" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M128" s="19"/>
       <c r="N128" s="19"/>
       <c r="O128" s="20"/>
       <c r="P128" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
@@ -6307,7 +6308,7 @@
       <c r="N129" s="19"/>
       <c r="O129" s="20"/>
       <c r="P129" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q129" s="19"/>
       <c r="R129" s="19"/>
@@ -6344,7 +6345,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="26"/>
       <c r="P130" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
@@ -6373,19 +6374,19 @@
       <c r="F131" s="17"/>
       <c r="G131" s="30"/>
       <c r="H131" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
       <c r="L131" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
       <c r="O131" s="26"/>
       <c r="P131" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
@@ -6414,19 +6415,19 @@
       <c r="F132" s="17"/>
       <c r="G132" s="30"/>
       <c r="H132" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
       <c r="L132" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
       <c r="O132" s="20"/>
       <c r="P132" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q132" s="19"/>
       <c r="R132" s="19"/>
@@ -6463,7 +6464,7 @@
       <c r="N133" s="19"/>
       <c r="O133" s="20"/>
       <c r="P133" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
@@ -6501,14 +6502,14 @@
       <c r="O134" s="20"/>
       <c r="P134" s="19"/>
       <c r="Q134" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R134" s="28"/>
       <c r="S134" s="28"/>
       <c r="T134" s="28"/>
       <c r="U134" s="29"/>
       <c r="V134" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W134" s="28"/>
       <c r="X134" s="29"/>
@@ -6540,14 +6541,14 @@
       <c r="O135" s="20"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
       <c r="T135" s="33"/>
       <c r="U135" s="34"/>
       <c r="V135" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W135" s="33"/>
       <c r="X135" s="34"/>
@@ -6578,14 +6579,14 @@
       <c r="O136" s="20"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
       <c r="U136" s="26"/>
       <c r="V136" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W136" s="22"/>
       <c r="X136" s="26"/>
@@ -6641,19 +6642,19 @@
       <c r="E138" s="30"/>
       <c r="F138" s="17"/>
       <c r="H138" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I138" s="22"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
       <c r="L138" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
       <c r="O138" s="26"/>
       <c r="P138" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q138" s="22"/>
       <c r="R138" s="22"/>
@@ -6681,19 +6682,19 @@
       <c r="E139" s="30"/>
       <c r="F139" s="31"/>
       <c r="H139" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I139" s="22"/>
       <c r="J139" s="22"/>
       <c r="K139" s="22"/>
       <c r="L139" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
       <c r="O139" s="26"/>
       <c r="P139" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
@@ -6720,19 +6721,19 @@
       <c r="B140" s="49"/>
       <c r="E140" s="30"/>
       <c r="H140" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
       <c r="L140" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M140" s="24"/>
       <c r="N140" s="24"/>
       <c r="O140" s="24"/>
       <c r="P140" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q140" s="24"/>
       <c r="R140" s="24"/>
@@ -6810,10 +6811,10 @@
       <c r="B143" s="49"/>
       <c r="E143" s="30"/>
       <c r="F143" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF143" s="49"/>
     </row>
@@ -6827,7 +6828,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF144" s="49"/>
     </row>
@@ -6836,7 +6837,7 @@
       <c r="B145" s="49"/>
       <c r="E145" s="30"/>
       <c r="H145" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
@@ -6872,7 +6873,7 @@
       <c r="B146" s="49"/>
       <c r="E146" s="30"/>
       <c r="H146" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
@@ -6908,7 +6909,7 @@
       <c r="B147" s="49"/>
       <c r="E147" s="30"/>
       <c r="H147" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I147" s="22"/>
       <c r="J147" s="22"/>
@@ -6944,10 +6945,10 @@
       <c r="B148" s="49"/>
       <c r="E148" s="30"/>
       <c r="H148" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J148" s="19"/>
       <c r="K148" s="19"/>
@@ -6983,10 +6984,10 @@
       <c r="B149" s="49"/>
       <c r="E149" s="30"/>
       <c r="H149" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
@@ -7097,7 +7098,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF152" s="49"/>
       <c r="AG152" s="49"/>
@@ -7109,19 +7110,19 @@
       <c r="F153" s="17"/>
       <c r="G153" s="30"/>
       <c r="H153" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I153" s="28"/>
       <c r="J153" s="28"/>
       <c r="K153" s="28"/>
       <c r="L153" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M153" s="28"/>
       <c r="N153" s="28"/>
       <c r="O153" s="28"/>
       <c r="P153" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q153" s="28"/>
       <c r="R153" s="28"/>
@@ -7150,19 +7151,19 @@
       <c r="F154" s="17"/>
       <c r="G154" s="30"/>
       <c r="H154" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I154" s="19"/>
       <c r="J154" s="19"/>
       <c r="K154" s="19"/>
       <c r="L154" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M154" s="19"/>
       <c r="N154" s="19"/>
       <c r="O154" s="19"/>
       <c r="P154" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q154" s="19"/>
       <c r="R154" s="19"/>
@@ -7199,7 +7200,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
       <c r="P155" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q155" s="22"/>
       <c r="R155" s="22"/>
@@ -7228,19 +7229,19 @@
       <c r="F156" s="17"/>
       <c r="G156" s="30"/>
       <c r="H156" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I156" s="22"/>
       <c r="J156" s="22"/>
       <c r="K156" s="22"/>
       <c r="L156" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M156" s="22"/>
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
       <c r="P156" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q156" s="22"/>
       <c r="R156" s="22"/>
@@ -7269,19 +7270,19 @@
       <c r="F157" s="17"/>
       <c r="G157" s="30"/>
       <c r="H157" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I157" s="22"/>
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
       <c r="L157" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M157" s="22"/>
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
@@ -7316,7 +7317,7 @@
       <c r="B159" s="49"/>
       <c r="E159" s="30"/>
       <c r="F159" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>18</v>
@@ -7329,7 +7330,7 @@
       <c r="E160" s="30"/>
       <c r="F160" s="17"/>
       <c r="G160" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
@@ -7366,7 +7367,7 @@
       <c r="E161" s="30"/>
       <c r="F161" s="17"/>
       <c r="G161" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -7403,7 +7404,7 @@
       <c r="E162" s="30"/>
       <c r="F162" s="17"/>
       <c r="G162" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -7440,7 +7441,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="17"/>
       <c r="G163" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -7477,7 +7478,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
       <c r="G164" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
@@ -7528,7 +7529,7 @@
         <v>7.13.3.2.</v>
       </c>
       <c r="F167" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF167" s="49"/>
       <c r="AG167" s="49"/>
@@ -7541,7 +7542,7 @@
         <v>12</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF168" s="49"/>
       <c r="AG168" s="49"/>
@@ -7552,24 +7553,24 @@
       <c r="E169" s="30"/>
       <c r="F169" s="31"/>
       <c r="G169" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H169" s="28"/>
       <c r="I169" s="29"/>
       <c r="J169" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="29"/>
       <c r="M169" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N169" s="28"/>
       <c r="O169" s="28"/>
       <c r="P169" s="28"/>
       <c r="Q169" s="29"/>
       <c r="R169" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S169" s="28"/>
       <c r="T169" s="28"/>
@@ -7600,19 +7601,19 @@
       <c r="H170" s="47"/>
       <c r="I170" s="48"/>
       <c r="J170" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K170" s="47"/>
       <c r="L170" s="48"/>
       <c r="M170" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N170" s="47"/>
       <c r="O170" s="47"/>
       <c r="P170" s="47"/>
       <c r="Q170" s="48"/>
       <c r="R170" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
@@ -7648,7 +7649,7 @@
         <v>60</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF172" s="49"/>
       <c r="AG172" s="49"/>
@@ -7663,7 +7664,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF173" s="49"/>
       <c r="AG173" s="49"/>
@@ -7675,7 +7676,7 @@
       <c r="F174" s="30"/>
       <c r="G174" s="17"/>
       <c r="H174" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="33"/>
@@ -7712,7 +7713,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="17"/>
       <c r="H175" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF175" s="49"/>
       <c r="AG175" s="49"/>
@@ -7736,7 +7737,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF177" s="49"/>
       <c r="AG177" s="49"/>
@@ -7748,20 +7749,20 @@
       <c r="F178" s="17"/>
       <c r="G178" s="30"/>
       <c r="H178" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I178" s="28"/>
       <c r="J178" s="28"/>
       <c r="K178" s="28"/>
       <c r="L178" s="28"/>
       <c r="M178" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N178" s="28"/>
       <c r="O178" s="28"/>
       <c r="P178" s="29"/>
       <c r="Q178" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R178" s="28"/>
       <c r="S178" s="28"/>
@@ -7789,20 +7790,20 @@
       <c r="F179" s="17"/>
       <c r="G179" s="30"/>
       <c r="H179" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
       <c r="M179" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N179" s="19"/>
       <c r="O179" s="19"/>
       <c r="P179" s="20"/>
       <c r="Q179" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R179" s="19"/>
       <c r="S179" s="19"/>
@@ -7837,13 +7838,13 @@
       <c r="K180" s="33"/>
       <c r="L180" s="33"/>
       <c r="M180" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N180" s="33"/>
       <c r="O180" s="33"/>
       <c r="P180" s="34"/>
       <c r="Q180" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R180" s="33"/>
       <c r="S180" s="33"/>
@@ -7871,20 +7872,20 @@
       <c r="F181" s="17"/>
       <c r="G181" s="30"/>
       <c r="H181" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I181" s="19"/>
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
       <c r="M181" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N181" s="19"/>
       <c r="O181" s="19"/>
       <c r="P181" s="20"/>
       <c r="Q181" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
@@ -7921,7 +7922,7 @@
       <c r="O182" s="19"/>
       <c r="P182" s="20"/>
       <c r="Q182" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R182" s="19"/>
       <c r="S182" s="19"/>
@@ -7958,7 +7959,7 @@
       <c r="O183" s="22"/>
       <c r="P183" s="26"/>
       <c r="Q183" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R183" s="22"/>
       <c r="S183" s="22"/>
@@ -7984,20 +7985,20 @@
       <c r="B184" s="49"/>
       <c r="E184" s="30"/>
       <c r="H184" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I184" s="24"/>
       <c r="J184" s="24"/>
       <c r="K184" s="24"/>
       <c r="L184" s="24"/>
       <c r="M184" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N184" s="24"/>
       <c r="O184" s="24"/>
       <c r="P184" s="24"/>
       <c r="Q184" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R184" s="24"/>
       <c r="S184" s="24"/>
@@ -8068,10 +8069,10 @@
       <c r="B187" s="49"/>
       <c r="E187" s="30"/>
       <c r="F187" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF187" s="49"/>
       <c r="AG187" s="49"/>
@@ -8086,7 +8087,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
@@ -8098,7 +8099,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="30"/>
       <c r="H189" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF189" s="49"/>
       <c r="AG189" s="49"/>
@@ -8110,7 +8111,7 @@
       <c r="F190" s="30"/>
       <c r="G190" s="17"/>
       <c r="H190" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I190" s="24"/>
       <c r="J190" s="24"/>
@@ -8147,7 +8148,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
@@ -8184,7 +8185,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8221,7 +8222,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8258,7 +8259,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8295,7 +8296,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8330,7 +8331,7 @@
       <c r="F196" s="37"/>
       <c r="G196" s="38"/>
       <c r="H196" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I196" s="22"/>
       <c r="J196" s="22"/>
@@ -8367,7 +8368,7 @@
       <c r="F197" s="30"/>
       <c r="G197" s="17"/>
       <c r="H197" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF197" s="49"/>
     </row>
@@ -8388,7 +8389,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF199" s="49"/>
     </row>
@@ -8399,7 +8400,7 @@
       <c r="F200" s="17"/>
       <c r="G200" s="30"/>
       <c r="H200" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I200" s="28"/>
       <c r="J200" s="28"/>
@@ -8407,13 +8408,13 @@
       <c r="L200" s="28"/>
       <c r="M200" s="28"/>
       <c r="N200" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O200" s="28"/>
       <c r="P200" s="28"/>
       <c r="Q200" s="29"/>
       <c r="R200" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S200" s="28"/>
       <c r="T200" s="28"/>
@@ -8438,7 +8439,7 @@
       <c r="B201" s="49"/>
       <c r="E201" s="30"/>
       <c r="H201" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I201" s="22"/>
       <c r="J201" s="22"/>
@@ -8446,13 +8447,13 @@
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O201" s="22"/>
       <c r="P201" s="22"/>
       <c r="Q201" s="26"/>
       <c r="R201" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S201" s="22"/>
       <c r="T201" s="22"/>
@@ -8477,7 +8478,7 @@
       <c r="B202" s="49"/>
       <c r="E202" s="30"/>
       <c r="H202" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" s="22"/>
@@ -8485,13 +8486,13 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
       <c r="Q202" s="26"/>
       <c r="R202" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S202" s="22"/>
       <c r="T202" s="22"/>
@@ -8516,7 +8517,7 @@
       <c r="B203" s="49"/>
       <c r="E203" s="30"/>
       <c r="H203" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I203" s="22"/>
       <c r="J203" s="22"/>
@@ -8524,13 +8525,13 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
@@ -8555,7 +8556,7 @@
       <c r="B204" s="49"/>
       <c r="E204" s="30"/>
       <c r="H204" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I204" s="22"/>
       <c r="J204" s="22"/>
@@ -8563,13 +8564,13 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
@@ -8594,7 +8595,7 @@
       <c r="B205" s="49"/>
       <c r="E205" s="30"/>
       <c r="H205" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I205" s="22"/>
       <c r="J205" s="22"/>
@@ -8602,13 +8603,13 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="26"/>
       <c r="R205" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
@@ -8633,7 +8634,7 @@
       <c r="B206" s="49"/>
       <c r="E206" s="30"/>
       <c r="H206" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I206" s="22"/>
       <c r="J206" s="22"/>
@@ -8641,13 +8642,13 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
@@ -8672,7 +8673,7 @@
       <c r="B207" s="49"/>
       <c r="E207" s="30"/>
       <c r="H207" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
@@ -8680,13 +8681,13 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
@@ -8711,7 +8712,7 @@
       <c r="B208" s="49"/>
       <c r="E208" s="30"/>
       <c r="H208" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I208" s="22"/>
       <c r="J208" s="22"/>
@@ -8719,13 +8720,13 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
@@ -8750,7 +8751,7 @@
       <c r="B209" s="49"/>
       <c r="E209" s="30"/>
       <c r="H209" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
@@ -8758,13 +8759,13 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
@@ -8809,7 +8810,7 @@
         <v>(3)-3</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF211" s="49"/>
     </row>
@@ -8820,7 +8821,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="30"/>
       <c r="H212" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF212" s="49"/>
     </row>
@@ -8831,7 +8832,7 @@
       <c r="F213" s="30"/>
       <c r="G213" s="17"/>
       <c r="H213" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I213" s="24"/>
       <c r="J213" s="24"/>
@@ -8866,7 +8867,7 @@
       <c r="F214" s="37"/>
       <c r="G214" s="38"/>
       <c r="H214" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I214" s="22"/>
       <c r="J214" s="22"/>
@@ -8903,7 +8904,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="17"/>
       <c r="H215" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF215" s="49"/>
       <c r="AG215" s="49"/>
@@ -8926,7 +8927,7 @@
         <v>(3)-4</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF217" s="49"/>
       <c r="AG217" s="49"/>
@@ -8938,7 +8939,7 @@
       <c r="F218" s="17"/>
       <c r="G218" s="30"/>
       <c r="H218" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I218" s="28"/>
       <c r="J218" s="28"/>
@@ -8946,13 +8947,13 @@
       <c r="L218" s="28"/>
       <c r="M218" s="28"/>
       <c r="N218" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O218" s="28"/>
       <c r="P218" s="28"/>
       <c r="Q218" s="29"/>
       <c r="R218" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S218" s="28"/>
       <c r="T218" s="28"/>
@@ -8977,7 +8978,7 @@
       <c r="B219" s="49"/>
       <c r="E219" s="30"/>
       <c r="H219" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
@@ -8985,13 +8986,13 @@
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O219" s="22"/>
       <c r="P219" s="22"/>
       <c r="Q219" s="26"/>
       <c r="R219" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S219" s="22"/>
       <c r="T219" s="22"/>
@@ -9037,7 +9038,7 @@
         <v>(3)-5</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF221" s="49"/>
       <c r="AG221" s="49"/>
@@ -9049,7 +9050,7 @@
       <c r="F222" s="17"/>
       <c r="G222" s="30"/>
       <c r="H222" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF222" s="49"/>
       <c r="AG222" s="49"/>
@@ -9061,7 +9062,7 @@
       <c r="F223" s="30"/>
       <c r="G223" s="17"/>
       <c r="H223" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
@@ -9098,7 +9099,7 @@
       <c r="F224" s="30"/>
       <c r="G224" s="17"/>
       <c r="H224" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF224" s="49"/>
       <c r="AG224" s="49"/>
@@ -9121,7 +9122,7 @@
         <v>(3)-6</v>
       </c>
       <c r="H226" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF226" s="49"/>
       <c r="AG226" s="49"/>
@@ -9133,7 +9134,7 @@
       <c r="F227" s="17"/>
       <c r="G227" s="30"/>
       <c r="H227" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I227" s="28"/>
       <c r="J227" s="28"/>
@@ -9141,13 +9142,13 @@
       <c r="L227" s="28"/>
       <c r="M227" s="28"/>
       <c r="N227" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O227" s="28"/>
       <c r="P227" s="28"/>
       <c r="Q227" s="29"/>
       <c r="R227" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S227" s="28"/>
       <c r="T227" s="28"/>
@@ -9172,7 +9173,7 @@
       <c r="B228" s="49"/>
       <c r="E228" s="30"/>
       <c r="H228" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I228" s="22"/>
       <c r="J228" s="22"/>
@@ -9180,13 +9181,13 @@
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O228" s="22"/>
       <c r="P228" s="22"/>
       <c r="Q228" s="26"/>
       <c r="R228" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S228" s="22"/>
       <c r="T228" s="22"/>
@@ -9225,7 +9226,7 @@
         <v>(3)-7</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF230" s="49"/>
       <c r="AG230" s="49"/>
@@ -9237,7 +9238,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="30"/>
       <c r="H231" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF231" s="49"/>
       <c r="AG231" s="49"/>
@@ -9249,7 +9250,7 @@
       <c r="F232" s="30"/>
       <c r="G232" s="17"/>
       <c r="H232" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I232" s="24"/>
       <c r="J232" s="24"/>
@@ -9286,7 +9287,7 @@
       <c r="F233" s="30"/>
       <c r="G233" s="17"/>
       <c r="H233" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
@@ -9323,7 +9324,7 @@
       <c r="F234" s="30"/>
       <c r="G234" s="17"/>
       <c r="H234" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
@@ -9360,7 +9361,7 @@
       <c r="F235" s="30"/>
       <c r="G235" s="17"/>
       <c r="H235" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -9397,7 +9398,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9434,7 +9435,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9469,7 +9470,7 @@
       <c r="F238" s="37"/>
       <c r="G238" s="38"/>
       <c r="H238" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I238" s="22"/>
       <c r="J238" s="22"/>
@@ -9506,7 +9507,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF239" s="49"/>
       <c r="AG239" s="49"/>
@@ -9518,7 +9519,7 @@
       <c r="F240" s="30"/>
       <c r="G240" s="17"/>
       <c r="H240" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF240" s="49"/>
       <c r="AG240" s="49"/>
@@ -9541,7 +9542,7 @@
         <v>(3)-8</v>
       </c>
       <c r="H242" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
@@ -9553,7 +9554,7 @@
       <c r="F243" s="17"/>
       <c r="G243" s="30"/>
       <c r="H243" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I243" s="28"/>
       <c r="J243" s="28"/>
@@ -9561,13 +9562,13 @@
       <c r="L243" s="28"/>
       <c r="M243" s="28"/>
       <c r="N243" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O243" s="28"/>
       <c r="P243" s="28"/>
       <c r="Q243" s="29"/>
       <c r="R243" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S243" s="28"/>
       <c r="T243" s="28"/>
@@ -9592,7 +9593,7 @@
       <c r="B244" s="49"/>
       <c r="E244" s="30"/>
       <c r="H244" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I244" s="22"/>
       <c r="J244" s="22"/>
@@ -9600,13 +9601,13 @@
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O244" s="22"/>
       <c r="P244" s="22"/>
       <c r="Q244" s="26"/>
       <c r="R244" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S244" s="22"/>
       <c r="T244" s="22"/>
@@ -9631,7 +9632,7 @@
       <c r="B245" s="49"/>
       <c r="E245" s="30"/>
       <c r="H245" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I245" s="22"/>
       <c r="J245" s="22"/>
@@ -9639,13 +9640,13 @@
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O245" s="22"/>
       <c r="P245" s="22"/>
       <c r="Q245" s="26"/>
       <c r="R245" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S245" s="22"/>
       <c r="T245" s="22"/>
@@ -9670,7 +9671,7 @@
       <c r="B246" s="49"/>
       <c r="E246" s="30"/>
       <c r="H246" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -9678,13 +9679,13 @@
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O246" s="22"/>
       <c r="P246" s="22"/>
       <c r="Q246" s="26"/>
       <c r="R246" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S246" s="22"/>
       <c r="T246" s="22"/>
@@ -9709,7 +9710,7 @@
       <c r="B247" s="49"/>
       <c r="E247" s="30"/>
       <c r="H247" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I247" s="22"/>
       <c r="J247" s="22"/>
@@ -9717,13 +9718,13 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O247" s="22"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="26"/>
       <c r="R247" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S247" s="22"/>
       <c r="T247" s="22"/>
@@ -9748,7 +9749,7 @@
       <c r="B248" s="49"/>
       <c r="E248" s="30"/>
       <c r="H248" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I248" s="22"/>
       <c r="J248" s="22"/>
@@ -9756,13 +9757,13 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O248" s="22"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
@@ -9787,7 +9788,7 @@
       <c r="B249" s="49"/>
       <c r="E249" s="30"/>
       <c r="H249" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="22"/>
@@ -9795,13 +9796,13 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O249" s="22"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
@@ -9826,7 +9827,7 @@
       <c r="B250" s="49"/>
       <c r="E250" s="30"/>
       <c r="H250" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I250" s="22"/>
       <c r="J250" s="22"/>
@@ -9834,13 +9835,13 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O250" s="22"/>
       <c r="P250" s="22"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
@@ -9865,7 +9866,7 @@
       <c r="B251" s="49"/>
       <c r="E251" s="30"/>
       <c r="H251" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I251" s="22"/>
       <c r="J251" s="22"/>
@@ -9873,13 +9874,13 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O251" s="22"/>
       <c r="P251" s="22"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
@@ -9904,7 +9905,7 @@
       <c r="B252" s="49"/>
       <c r="E252" s="30"/>
       <c r="H252" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
@@ -9912,13 +9913,13 @@
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O252" s="22"/>
       <c r="P252" s="22"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
@@ -9943,7 +9944,7 @@
       <c r="B253" s="49"/>
       <c r="E253" s="30"/>
       <c r="H253" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I253" s="22"/>
       <c r="J253" s="22"/>
@@ -9951,13 +9952,13 @@
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O253" s="22"/>
       <c r="P253" s="22"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
@@ -9982,7 +9983,7 @@
       <c r="B254" s="49"/>
       <c r="E254" s="30"/>
       <c r="H254" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I254" s="22"/>
       <c r="J254" s="22"/>
@@ -9990,13 +9991,13 @@
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O254" s="22"/>
       <c r="P254" s="22"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
@@ -10037,7 +10038,7 @@
       <c r="B256" s="49"/>
       <c r="E256" s="30"/>
       <c r="F256" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>18</v>
@@ -10054,7 +10055,7 @@
         <v>(3)-1 →</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H257" s="54"/>
       <c r="I257" s="24"/>
@@ -10091,7 +10092,7 @@
       <c r="E258" s="30"/>
       <c r="F258" s="17"/>
       <c r="G258" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H258" s="55"/>
       <c r="I258" s="19"/>
@@ -10129,7 +10130,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="52"/>
       <c r="H259" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -10166,7 +10167,7 @@
       <c r="F260" s="17"/>
       <c r="G260" s="52"/>
       <c r="H260" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
@@ -10203,7 +10204,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="52"/>
       <c r="H261" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
@@ -10240,7 +10241,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="52"/>
       <c r="H262" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
@@ -10277,7 +10278,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="52"/>
       <c r="H263" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
@@ -10315,7 +10316,7 @@
       <c r="G264" s="52"/>
       <c r="H264" s="55"/>
       <c r="I264" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
@@ -10352,7 +10353,7 @@
       <c r="G265" s="52"/>
       <c r="H265" s="55"/>
       <c r="I265" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
@@ -10388,7 +10389,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="52"/>
       <c r="H266" s="55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10424,7 +10425,7 @@
       <c r="E267" s="30"/>
       <c r="F267" s="17"/>
       <c r="G267" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H267" s="55"/>
       <c r="I267" s="19"/>
@@ -10464,7 +10465,7 @@
         <v>(3)-3 →</v>
       </c>
       <c r="G268" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H268" s="55"/>
       <c r="I268" s="19"/>
@@ -10502,7 +10503,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="52"/>
       <c r="H269" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
@@ -10540,7 +10541,7 @@
       <c r="G270" s="52"/>
       <c r="H270" s="55"/>
       <c r="I270" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
@@ -10577,7 +10578,7 @@
       <c r="G271" s="52"/>
       <c r="H271" s="55"/>
       <c r="I271" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
@@ -10615,7 +10616,7 @@
         <v>(3)-5 →</v>
       </c>
       <c r="G272" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H272" s="55"/>
       <c r="I272" s="19"/>
@@ -10655,7 +10656,7 @@
         <v>(3)-7 →</v>
       </c>
       <c r="G273" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H273" s="55"/>
       <c r="I273" s="19"/>
@@ -10692,7 +10693,7 @@
       <c r="E274" s="30"/>
       <c r="F274" s="17"/>
       <c r="G274" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H274" s="55"/>
       <c r="I274" s="19"/>
@@ -10729,7 +10730,7 @@
       <c r="E275" s="30"/>
       <c r="F275" s="17"/>
       <c r="G275" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H275" s="55"/>
       <c r="I275" s="19"/>
@@ -10767,7 +10768,7 @@
       <c r="F276" s="17"/>
       <c r="G276" s="52"/>
       <c r="H276" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
@@ -10804,7 +10805,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="52"/>
       <c r="H277" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
@@ -10841,7 +10842,7 @@
       <c r="F278" s="17"/>
       <c r="G278" s="52"/>
       <c r="H278" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I278" s="19"/>
       <c r="J278" s="19"/>
@@ -10878,7 +10879,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="52"/>
       <c r="H279" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
@@ -10915,7 +10916,7 @@
       <c r="F280" s="17"/>
       <c r="G280" s="53"/>
       <c r="H280" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I280" s="22"/>
       <c r="J280" s="22"/>
@@ -11009,7 +11010,7 @@
         <v>12</v>
       </c>
       <c r="G284" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF284" s="49"/>
       <c r="AG284" s="49"/>
@@ -11020,25 +11021,25 @@
       <c r="E285" s="30"/>
       <c r="F285" s="31"/>
       <c r="G285" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H285" s="28"/>
       <c r="I285" s="28"/>
       <c r="J285" s="29"/>
       <c r="K285" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L285" s="28"/>
       <c r="M285" s="29"/>
       <c r="N285" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O285" s="28"/>
       <c r="P285" s="28"/>
       <c r="Q285" s="28"/>
       <c r="R285" s="29"/>
       <c r="S285" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T285" s="28"/>
       <c r="U285" s="28"/>
@@ -11069,19 +11070,19 @@
       <c r="I286" s="47"/>
       <c r="J286" s="48"/>
       <c r="K286" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L286" s="47"/>
       <c r="M286" s="48"/>
       <c r="N286" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O286" s="47"/>
       <c r="P286" s="47"/>
       <c r="Q286" s="47"/>
       <c r="R286" s="48"/>
       <c r="S286" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T286" s="47"/>
       <c r="U286" s="47"/>
@@ -11112,19 +11113,19 @@
       <c r="I287" s="19"/>
       <c r="J287" s="20"/>
       <c r="K287" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L287" s="19"/>
       <c r="M287" s="20"/>
       <c r="N287" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O287" s="19"/>
       <c r="P287" s="19"/>
       <c r="Q287" s="19"/>
       <c r="R287" s="20"/>
       <c r="S287" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T287" s="19"/>
       <c r="U287" s="19"/>
@@ -11161,7 +11162,7 @@
       <c r="Q288" s="22"/>
       <c r="R288" s="26"/>
       <c r="S288" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T288" s="22"/>
       <c r="U288" s="22"/>
@@ -11192,19 +11193,19 @@
       <c r="I289" s="33"/>
       <c r="J289" s="34"/>
       <c r="K289" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L289" s="33"/>
       <c r="M289" s="34"/>
       <c r="N289" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O289" s="33"/>
       <c r="P289" s="33"/>
       <c r="Q289" s="33"/>
       <c r="R289" s="34"/>
       <c r="S289" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T289" s="33"/>
       <c r="U289" s="33"/>
@@ -11239,7 +11240,7 @@
         <v>60</v>
       </c>
       <c r="G291" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF291" s="49"/>
       <c r="AG291" s="49"/>
@@ -11254,7 +11255,7 @@
         <v>(2)-1</v>
       </c>
       <c r="H292" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF292" s="49"/>
       <c r="AG292" s="49"/>
@@ -11267,7 +11268,7 @@
       <c r="F293" s="37"/>
       <c r="G293" s="38"/>
       <c r="H293" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I293" s="24"/>
       <c r="J293" s="24"/>
@@ -11304,7 +11305,7 @@
       <c r="F294" s="30"/>
       <c r="G294" s="17"/>
       <c r="H294" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I294" s="22"/>
       <c r="J294" s="22"/>
@@ -11341,7 +11342,7 @@
       <c r="F295" s="30"/>
       <c r="G295" s="17"/>
       <c r="H295" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF295" s="49"/>
       <c r="AG295" s="49"/>
@@ -11353,7 +11354,7 @@
       <c r="F296" s="30"/>
       <c r="G296" s="17"/>
       <c r="H296" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF296" s="49"/>
       <c r="AG296" s="49"/>
@@ -11376,7 +11377,7 @@
         <v>(2)-2</v>
       </c>
       <c r="H298" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF298" s="49"/>
       <c r="AG298" s="49"/>
@@ -11388,20 +11389,20 @@
       <c r="F299" s="17"/>
       <c r="G299" s="30"/>
       <c r="H299" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I299" s="28"/>
       <c r="J299" s="28"/>
       <c r="K299" s="28"/>
       <c r="L299" s="28"/>
       <c r="M299" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N299" s="28"/>
       <c r="O299" s="28"/>
       <c r="P299" s="29"/>
       <c r="Q299" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R299" s="28"/>
       <c r="S299" s="28"/>
@@ -11427,20 +11428,20 @@
       <c r="B300" s="49"/>
       <c r="E300" s="30"/>
       <c r="H300" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I300" s="33"/>
       <c r="J300" s="33"/>
       <c r="K300" s="33"/>
       <c r="L300" s="33"/>
       <c r="M300" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N300" s="33"/>
       <c r="O300" s="33"/>
       <c r="P300" s="34"/>
       <c r="Q300" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R300" s="33"/>
       <c r="S300" s="33"/>
@@ -11473,13 +11474,13 @@
       <c r="K301" s="19"/>
       <c r="L301" s="19"/>
       <c r="M301" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N301" s="19"/>
       <c r="O301" s="19"/>
       <c r="P301" s="20"/>
       <c r="Q301" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R301" s="19"/>
       <c r="S301" s="19"/>
@@ -11514,7 +11515,7 @@
       <c r="O302" s="22"/>
       <c r="P302" s="26"/>
       <c r="Q302" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R302" s="22"/>
       <c r="S302" s="22"/>
@@ -11540,20 +11541,20 @@
       <c r="B303" s="49"/>
       <c r="E303" s="30"/>
       <c r="H303" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I303" s="22"/>
       <c r="J303" s="22"/>
       <c r="K303" s="22"/>
       <c r="L303" s="22"/>
       <c r="M303" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N303" s="22"/>
       <c r="O303" s="22"/>
       <c r="P303" s="26"/>
       <c r="Q303" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R303" s="22"/>
       <c r="S303" s="22"/>
@@ -11579,20 +11580,20 @@
       <c r="B304" s="49"/>
       <c r="E304" s="30"/>
       <c r="H304" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I304" s="22"/>
       <c r="J304" s="22"/>
       <c r="K304" s="22"/>
       <c r="L304" s="22"/>
       <c r="M304" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N304" s="22"/>
       <c r="O304" s="22"/>
       <c r="P304" s="26"/>
       <c r="Q304" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R304" s="22"/>
       <c r="S304" s="22"/>
@@ -11618,20 +11619,20 @@
       <c r="B305" s="49"/>
       <c r="E305" s="30"/>
       <c r="H305" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I305" s="33"/>
       <c r="J305" s="33"/>
       <c r="K305" s="33"/>
       <c r="L305" s="33"/>
       <c r="M305" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N305" s="33"/>
       <c r="O305" s="33"/>
       <c r="P305" s="34"/>
       <c r="Q305" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R305" s="33"/>
       <c r="S305" s="33"/>
@@ -11657,20 +11658,20 @@
       <c r="B306" s="49"/>
       <c r="E306" s="30"/>
       <c r="H306" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I306" s="22"/>
       <c r="J306" s="22"/>
       <c r="K306" s="22"/>
       <c r="L306" s="22"/>
       <c r="M306" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N306" s="22"/>
       <c r="O306" s="22"/>
       <c r="P306" s="26"/>
       <c r="Q306" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
@@ -11696,20 +11697,20 @@
       <c r="B307" s="49"/>
       <c r="E307" s="30"/>
       <c r="H307" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I307" s="22"/>
       <c r="J307" s="22"/>
       <c r="K307" s="22"/>
       <c r="L307" s="22"/>
       <c r="M307" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N307" s="22"/>
       <c r="O307" s="22"/>
       <c r="P307" s="26"/>
       <c r="Q307" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R307" s="22"/>
       <c r="S307" s="22"/>
@@ -11735,20 +11736,20 @@
       <c r="B308" s="49"/>
       <c r="E308" s="30"/>
       <c r="H308" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I308" s="22"/>
       <c r="J308" s="22"/>
       <c r="K308" s="22"/>
       <c r="L308" s="22"/>
       <c r="M308" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N308" s="22"/>
       <c r="O308" s="22"/>
       <c r="P308" s="26"/>
       <c r="Q308" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
@@ -11774,20 +11775,20 @@
       <c r="B309" s="49"/>
       <c r="E309" s="30"/>
       <c r="H309" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I309" s="33"/>
       <c r="J309" s="33"/>
       <c r="K309" s="33"/>
       <c r="L309" s="33"/>
       <c r="M309" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N309" s="33"/>
       <c r="O309" s="33"/>
       <c r="P309" s="34"/>
       <c r="Q309" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R309" s="33"/>
       <c r="S309" s="33"/>
@@ -11813,20 +11814,20 @@
       <c r="B310" s="49"/>
       <c r="E310" s="30"/>
       <c r="H310" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I310" s="22"/>
       <c r="J310" s="22"/>
       <c r="K310" s="22"/>
       <c r="L310" s="22"/>
       <c r="M310" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N310" s="22"/>
       <c r="O310" s="22"/>
       <c r="P310" s="26"/>
       <c r="Q310" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
@@ -11852,20 +11853,20 @@
       <c r="B311" s="49"/>
       <c r="E311" s="30"/>
       <c r="H311" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I311" s="19"/>
       <c r="J311" s="19"/>
       <c r="K311" s="19"/>
       <c r="L311" s="19"/>
       <c r="M311" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N311" s="19"/>
       <c r="O311" s="19"/>
       <c r="P311" s="20"/>
       <c r="Q311" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R311" s="19"/>
       <c r="S311" s="19"/>
@@ -11900,7 +11901,7 @@
       <c r="O312" s="22"/>
       <c r="P312" s="26"/>
       <c r="Q312" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R312" s="22"/>
       <c r="S312" s="22"/>
@@ -11973,7 +11974,7 @@
       <c r="E315" s="30"/>
       <c r="F315" s="17"/>
       <c r="G315" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF315" s="49"/>
       <c r="AG315" s="49"/>
@@ -11984,7 +11985,7 @@
       <c r="E316" s="30"/>
       <c r="F316" s="17"/>
       <c r="G316" s="51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H316" s="24"/>
       <c r="I316" s="24"/>
@@ -12021,7 +12022,7 @@
       <c r="E317" s="30"/>
       <c r="F317" s="17"/>
       <c r="G317" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H317" s="22"/>
       <c r="I317" s="22"/>
@@ -12076,7 +12077,7 @@
         <v>7.13.3.4.</v>
       </c>
       <c r="F320" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF320" s="49"/>
       <c r="AG320" s="49"/>
@@ -12086,7 +12087,7 @@
       <c r="B321" s="49"/>
       <c r="E321" s="30"/>
       <c r="F321" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF321" s="49"/>
       <c r="AG321" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6C170F-4603-4703-A4FF-B8E19824DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24401E-03A7-4DB4-BEED-843DBF63B201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,13 +819,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>都度バッチ</t>
-    <rPh sb="0" eb="2">
-      <t>ツド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BATCH</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1893,6 +1886,10 @@
   </si>
   <si>
     <t>アクセスログを出力するログファイル。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2720,7 +2717,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2741,7 +2738,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2782,11 +2779,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2852,10 +2849,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>304</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2865,13 +2862,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2927,13 +2924,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2965,7 +2962,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -3011,7 +3008,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3047,7 +3044,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3089,7 +3086,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3127,7 +3124,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3169,7 +3166,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3207,7 +3204,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3249,7 +3246,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3327,7 +3324,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3405,7 +3402,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3480,7 +3477,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3506,7 +3503,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3549,7 +3546,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3592,7 +3589,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3635,7 +3632,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3678,7 +3675,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3711,7 +3708,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3721,7 +3718,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3749,7 +3746,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3759,7 +3756,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3792,7 +3789,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3802,7 +3799,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3830,7 +3827,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3840,7 +3837,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -3957,7 +3954,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="48"/>
       <c r="O43" s="47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -4031,7 +4028,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4067,7 +4064,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4141,7 +4138,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4177,7 +4174,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4401,7 +4398,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4437,7 +4434,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4473,7 +4470,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4507,7 +4504,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4579,7 +4576,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4615,7 +4612,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4648,7 +4645,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4675,7 +4672,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4719,7 +4716,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4761,7 +4758,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4802,7 +4799,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4843,7 +4840,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4884,7 +4881,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -5007,7 +5004,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5034,7 +5031,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5075,7 +5072,7 @@
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -5118,12 +5115,12 @@
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5160,7 +5157,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5299,7 +5296,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5338,7 +5335,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5377,7 +5374,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
       <c r="L91" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -5726,7 +5723,7 @@
         <v>60</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF101" s="49"/>
       <c r="AG101" s="49"/>
@@ -5736,7 +5733,7 @@
       <c r="B102" s="49"/>
       <c r="F102" s="17"/>
       <c r="G102" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5749,34 +5746,34 @@
     </row>
     <row r="104" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5835,12 +5832,12 @@
       <c r="H113" s="28"/>
       <c r="I113" s="29"/>
       <c r="J113" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="29"/>
       <c r="M113" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
@@ -5873,7 +5870,7 @@
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
       <c r="G114" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
@@ -5883,14 +5880,14 @@
       <c r="K114" s="24"/>
       <c r="L114" s="25"/>
       <c r="M114" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="25"/>
       <c r="R114" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S114" s="24"/>
       <c r="T114" s="24"/>
@@ -5925,7 +5922,7 @@
       <c r="P115" s="45"/>
       <c r="Q115" s="46"/>
       <c r="R115" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -5985,7 +5982,7 @@
       <c r="B117" s="49"/>
       <c r="E117" s="30"/>
       <c r="F117" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>118</v>
@@ -6052,7 +6049,7 @@
       <c r="F120" s="30"/>
       <c r="G120" s="17"/>
       <c r="H120" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
@@ -6089,7 +6086,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="17"/>
       <c r="H121" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF121" s="49"/>
       <c r="AG121" s="49"/>
@@ -6271,7 +6268,7 @@
       <c r="N128" s="19"/>
       <c r="O128" s="20"/>
       <c r="P128" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
@@ -6541,7 +6538,7 @@
       <c r="O135" s="20"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
@@ -6579,14 +6576,14 @@
       <c r="O136" s="20"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="21" t="s">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
       <c r="U136" s="26"/>
       <c r="V136" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W136" s="22"/>
       <c r="X136" s="26"/>
@@ -6694,7 +6691,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="26"/>
       <c r="P139" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
@@ -6721,7 +6718,7 @@
       <c r="B140" s="49"/>
       <c r="E140" s="30"/>
       <c r="H140" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
@@ -6811,7 +6808,7 @@
       <c r="B143" s="49"/>
       <c r="E143" s="30"/>
       <c r="F143" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>121</v>
@@ -6987,7 +6984,7 @@
         <v>117</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
@@ -7282,7 +7279,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
@@ -7317,7 +7314,7 @@
       <c r="B159" s="49"/>
       <c r="E159" s="30"/>
       <c r="F159" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>18</v>
@@ -7330,7 +7327,7 @@
       <c r="E160" s="30"/>
       <c r="F160" s="17"/>
       <c r="G160" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
@@ -7367,7 +7364,7 @@
       <c r="E161" s="30"/>
       <c r="F161" s="17"/>
       <c r="G161" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -7441,7 +7438,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="17"/>
       <c r="G163" s="52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -7478,7 +7475,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
       <c r="G164" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
@@ -7558,12 +7555,12 @@
       <c r="H169" s="28"/>
       <c r="I169" s="29"/>
       <c r="J169" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="29"/>
       <c r="M169" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N169" s="28"/>
       <c r="O169" s="28"/>
@@ -7606,7 +7603,7 @@
       <c r="K170" s="47"/>
       <c r="L170" s="48"/>
       <c r="M170" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N170" s="47"/>
       <c r="O170" s="47"/>
@@ -7676,7 +7673,7 @@
       <c r="F174" s="30"/>
       <c r="G174" s="17"/>
       <c r="H174" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="33"/>
@@ -7713,7 +7710,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="17"/>
       <c r="H175" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF175" s="49"/>
       <c r="AG175" s="49"/>
@@ -7885,7 +7882,7 @@
       <c r="O181" s="19"/>
       <c r="P181" s="20"/>
       <c r="Q181" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
@@ -7985,7 +7982,7 @@
       <c r="B184" s="49"/>
       <c r="E184" s="30"/>
       <c r="H184" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I184" s="24"/>
       <c r="J184" s="24"/>
@@ -8069,10 +8066,10 @@
       <c r="B187" s="49"/>
       <c r="E187" s="30"/>
       <c r="F187" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF187" s="49"/>
       <c r="AG187" s="49"/>
@@ -8087,7 +8084,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
@@ -8099,7 +8096,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="30"/>
       <c r="H189" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF189" s="49"/>
       <c r="AG189" s="49"/>
@@ -8111,7 +8108,7 @@
       <c r="F190" s="30"/>
       <c r="G190" s="17"/>
       <c r="H190" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I190" s="24"/>
       <c r="J190" s="24"/>
@@ -8148,7 +8145,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
@@ -8185,7 +8182,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8222,7 +8219,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8259,7 +8256,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8296,7 +8293,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8331,7 +8328,7 @@
       <c r="F196" s="37"/>
       <c r="G196" s="38"/>
       <c r="H196" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I196" s="22"/>
       <c r="J196" s="22"/>
@@ -8368,7 +8365,7 @@
       <c r="F197" s="30"/>
       <c r="G197" s="17"/>
       <c r="H197" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF197" s="49"/>
     </row>
@@ -8389,7 +8386,7 @@
         <v>(3)-2</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF199" s="49"/>
     </row>
@@ -8439,7 +8436,7 @@
       <c r="B201" s="49"/>
       <c r="E201" s="30"/>
       <c r="H201" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I201" s="22"/>
       <c r="J201" s="22"/>
@@ -8447,13 +8444,13 @@
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O201" s="22"/>
       <c r="P201" s="22"/>
       <c r="Q201" s="26"/>
       <c r="R201" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S201" s="22"/>
       <c r="T201" s="22"/>
@@ -8478,7 +8475,7 @@
       <c r="B202" s="49"/>
       <c r="E202" s="30"/>
       <c r="H202" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" s="22"/>
@@ -8486,13 +8483,13 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
       <c r="Q202" s="26"/>
       <c r="R202" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S202" s="22"/>
       <c r="T202" s="22"/>
@@ -8517,7 +8514,7 @@
       <c r="B203" s="49"/>
       <c r="E203" s="30"/>
       <c r="H203" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I203" s="22"/>
       <c r="J203" s="22"/>
@@ -8525,13 +8522,13 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
@@ -8556,7 +8553,7 @@
       <c r="B204" s="49"/>
       <c r="E204" s="30"/>
       <c r="H204" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I204" s="22"/>
       <c r="J204" s="22"/>
@@ -8564,13 +8561,13 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
@@ -8595,7 +8592,7 @@
       <c r="B205" s="49"/>
       <c r="E205" s="30"/>
       <c r="H205" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I205" s="22"/>
       <c r="J205" s="22"/>
@@ -8603,13 +8600,13 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="26"/>
       <c r="R205" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
@@ -8634,7 +8631,7 @@
       <c r="B206" s="49"/>
       <c r="E206" s="30"/>
       <c r="H206" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I206" s="22"/>
       <c r="J206" s="22"/>
@@ -8642,13 +8639,13 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
@@ -8673,7 +8670,7 @@
       <c r="B207" s="49"/>
       <c r="E207" s="30"/>
       <c r="H207" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
@@ -8681,13 +8678,13 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
@@ -8712,7 +8709,7 @@
       <c r="B208" s="49"/>
       <c r="E208" s="30"/>
       <c r="H208" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I208" s="22"/>
       <c r="J208" s="22"/>
@@ -8720,13 +8717,13 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
@@ -8751,7 +8748,7 @@
       <c r="B209" s="49"/>
       <c r="E209" s="30"/>
       <c r="H209" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
@@ -8759,13 +8756,13 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
@@ -8810,7 +8807,7 @@
         <v>(3)-3</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF211" s="49"/>
     </row>
@@ -8821,7 +8818,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="30"/>
       <c r="H212" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF212" s="49"/>
     </row>
@@ -8832,7 +8829,7 @@
       <c r="F213" s="30"/>
       <c r="G213" s="17"/>
       <c r="H213" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I213" s="24"/>
       <c r="J213" s="24"/>
@@ -8867,7 +8864,7 @@
       <c r="F214" s="37"/>
       <c r="G214" s="38"/>
       <c r="H214" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I214" s="22"/>
       <c r="J214" s="22"/>
@@ -8904,7 +8901,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="17"/>
       <c r="H215" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF215" s="49"/>
       <c r="AG215" s="49"/>
@@ -8927,7 +8924,7 @@
         <v>(3)-4</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF217" s="49"/>
       <c r="AG217" s="49"/>
@@ -8978,7 +8975,7 @@
       <c r="B219" s="49"/>
       <c r="E219" s="30"/>
       <c r="H219" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
@@ -8986,13 +8983,13 @@
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O219" s="22"/>
       <c r="P219" s="22"/>
       <c r="Q219" s="26"/>
       <c r="R219" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S219" s="22"/>
       <c r="T219" s="22"/>
@@ -9038,7 +9035,7 @@
         <v>(3)-5</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF221" s="49"/>
       <c r="AG221" s="49"/>
@@ -9050,7 +9047,7 @@
       <c r="F222" s="17"/>
       <c r="G222" s="30"/>
       <c r="H222" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF222" s="49"/>
       <c r="AG222" s="49"/>
@@ -9062,7 +9059,7 @@
       <c r="F223" s="30"/>
       <c r="G223" s="17"/>
       <c r="H223" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I223" s="33"/>
       <c r="J223" s="33"/>
@@ -9099,7 +9096,7 @@
       <c r="F224" s="30"/>
       <c r="G224" s="17"/>
       <c r="H224" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF224" s="49"/>
       <c r="AG224" s="49"/>
@@ -9122,7 +9119,7 @@
         <v>(3)-6</v>
       </c>
       <c r="H226" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF226" s="49"/>
       <c r="AG226" s="49"/>
@@ -9173,7 +9170,7 @@
       <c r="B228" s="49"/>
       <c r="E228" s="30"/>
       <c r="H228" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I228" s="22"/>
       <c r="J228" s="22"/>
@@ -9181,13 +9178,13 @@
       <c r="L228" s="22"/>
       <c r="M228" s="22"/>
       <c r="N228" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O228" s="22"/>
       <c r="P228" s="22"/>
       <c r="Q228" s="26"/>
       <c r="R228" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S228" s="22"/>
       <c r="T228" s="22"/>
@@ -9226,7 +9223,7 @@
         <v>(3)-7</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF230" s="49"/>
       <c r="AG230" s="49"/>
@@ -9238,7 +9235,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="30"/>
       <c r="H231" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF231" s="49"/>
       <c r="AG231" s="49"/>
@@ -9250,7 +9247,7 @@
       <c r="F232" s="30"/>
       <c r="G232" s="17"/>
       <c r="H232" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I232" s="24"/>
       <c r="J232" s="24"/>
@@ -9287,7 +9284,7 @@
       <c r="F233" s="30"/>
       <c r="G233" s="17"/>
       <c r="H233" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
@@ -9324,7 +9321,7 @@
       <c r="F234" s="30"/>
       <c r="G234" s="17"/>
       <c r="H234" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
@@ -9361,7 +9358,7 @@
       <c r="F235" s="30"/>
       <c r="G235" s="17"/>
       <c r="H235" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -9398,7 +9395,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9435,7 +9432,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9470,7 +9467,7 @@
       <c r="F238" s="37"/>
       <c r="G238" s="38"/>
       <c r="H238" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I238" s="22"/>
       <c r="J238" s="22"/>
@@ -9507,7 +9504,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF239" s="49"/>
       <c r="AG239" s="49"/>
@@ -9519,7 +9516,7 @@
       <c r="F240" s="30"/>
       <c r="G240" s="17"/>
       <c r="H240" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF240" s="49"/>
       <c r="AG240" s="49"/>
@@ -9542,7 +9539,7 @@
         <v>(3)-8</v>
       </c>
       <c r="H242" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
@@ -9593,7 +9590,7 @@
       <c r="B244" s="49"/>
       <c r="E244" s="30"/>
       <c r="H244" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I244" s="22"/>
       <c r="J244" s="22"/>
@@ -9601,13 +9598,13 @@
       <c r="L244" s="22"/>
       <c r="M244" s="22"/>
       <c r="N244" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O244" s="22"/>
       <c r="P244" s="22"/>
       <c r="Q244" s="26"/>
       <c r="R244" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S244" s="22"/>
       <c r="T244" s="22"/>
@@ -9632,7 +9629,7 @@
       <c r="B245" s="49"/>
       <c r="E245" s="30"/>
       <c r="H245" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I245" s="22"/>
       <c r="J245" s="22"/>
@@ -9640,13 +9637,13 @@
       <c r="L245" s="22"/>
       <c r="M245" s="22"/>
       <c r="N245" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O245" s="22"/>
       <c r="P245" s="22"/>
       <c r="Q245" s="26"/>
       <c r="R245" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S245" s="22"/>
       <c r="T245" s="22"/>
@@ -9671,7 +9668,7 @@
       <c r="B246" s="49"/>
       <c r="E246" s="30"/>
       <c r="H246" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -9679,13 +9676,13 @@
       <c r="L246" s="22"/>
       <c r="M246" s="22"/>
       <c r="N246" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O246" s="22"/>
       <c r="P246" s="22"/>
       <c r="Q246" s="26"/>
       <c r="R246" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S246" s="22"/>
       <c r="T246" s="22"/>
@@ -9710,7 +9707,7 @@
       <c r="B247" s="49"/>
       <c r="E247" s="30"/>
       <c r="H247" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I247" s="22"/>
       <c r="J247" s="22"/>
@@ -9718,13 +9715,13 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O247" s="22"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="26"/>
       <c r="R247" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S247" s="22"/>
       <c r="T247" s="22"/>
@@ -9749,7 +9746,7 @@
       <c r="B248" s="49"/>
       <c r="E248" s="30"/>
       <c r="H248" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I248" s="22"/>
       <c r="J248" s="22"/>
@@ -9757,13 +9754,13 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O248" s="22"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
@@ -9788,7 +9785,7 @@
       <c r="B249" s="49"/>
       <c r="E249" s="30"/>
       <c r="H249" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="22"/>
@@ -9796,13 +9793,13 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O249" s="22"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
@@ -9827,7 +9824,7 @@
       <c r="B250" s="49"/>
       <c r="E250" s="30"/>
       <c r="H250" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I250" s="22"/>
       <c r="J250" s="22"/>
@@ -9835,13 +9832,13 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O250" s="22"/>
       <c r="P250" s="22"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
@@ -9866,7 +9863,7 @@
       <c r="B251" s="49"/>
       <c r="E251" s="30"/>
       <c r="H251" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I251" s="22"/>
       <c r="J251" s="22"/>
@@ -9874,13 +9871,13 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O251" s="22"/>
       <c r="P251" s="22"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
@@ -9905,7 +9902,7 @@
       <c r="B252" s="49"/>
       <c r="E252" s="30"/>
       <c r="H252" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
@@ -9913,13 +9910,13 @@
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O252" s="22"/>
       <c r="P252" s="22"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
@@ -9944,7 +9941,7 @@
       <c r="B253" s="49"/>
       <c r="E253" s="30"/>
       <c r="H253" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I253" s="22"/>
       <c r="J253" s="22"/>
@@ -9952,13 +9949,13 @@
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O253" s="22"/>
       <c r="P253" s="22"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
@@ -9983,7 +9980,7 @@
       <c r="B254" s="49"/>
       <c r="E254" s="30"/>
       <c r="H254" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I254" s="22"/>
       <c r="J254" s="22"/>
@@ -9991,13 +9988,13 @@
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O254" s="22"/>
       <c r="P254" s="22"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
@@ -10038,7 +10035,7 @@
       <c r="B256" s="49"/>
       <c r="E256" s="30"/>
       <c r="F256" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>18</v>
@@ -10055,7 +10052,7 @@
         <v>(3)-1 →</v>
       </c>
       <c r="G257" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H257" s="54"/>
       <c r="I257" s="24"/>
@@ -10353,7 +10350,7 @@
       <c r="G265" s="52"/>
       <c r="H265" s="55"/>
       <c r="I265" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
@@ -10389,7 +10386,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="52"/>
       <c r="H266" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10425,7 +10422,7 @@
       <c r="E267" s="30"/>
       <c r="F267" s="17"/>
       <c r="G267" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H267" s="55"/>
       <c r="I267" s="19"/>
@@ -10465,7 +10462,7 @@
         <v>(3)-3 →</v>
       </c>
       <c r="G268" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H268" s="55"/>
       <c r="I268" s="19"/>
@@ -10616,7 +10613,7 @@
         <v>(3)-5 →</v>
       </c>
       <c r="G272" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H272" s="55"/>
       <c r="I272" s="19"/>
@@ -10656,7 +10653,7 @@
         <v>(3)-7 →</v>
       </c>
       <c r="G273" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H273" s="55"/>
       <c r="I273" s="19"/>
@@ -11027,12 +11024,12 @@
       <c r="I285" s="28"/>
       <c r="J285" s="29"/>
       <c r="K285" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L285" s="28"/>
       <c r="M285" s="29"/>
       <c r="N285" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O285" s="28"/>
       <c r="P285" s="28"/>
@@ -11075,7 +11072,7 @@
       <c r="L286" s="47"/>
       <c r="M286" s="48"/>
       <c r="N286" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O286" s="47"/>
       <c r="P286" s="47"/>
@@ -11198,7 +11195,7 @@
       <c r="L289" s="33"/>
       <c r="M289" s="34"/>
       <c r="N289" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O289" s="33"/>
       <c r="P289" s="33"/>
@@ -11305,7 +11302,7 @@
       <c r="F294" s="30"/>
       <c r="G294" s="17"/>
       <c r="H294" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I294" s="22"/>
       <c r="J294" s="22"/>
@@ -11342,7 +11339,7 @@
       <c r="F295" s="30"/>
       <c r="G295" s="17"/>
       <c r="H295" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF295" s="49"/>
       <c r="AG295" s="49"/>
@@ -11749,7 +11746,7 @@
       <c r="O308" s="22"/>
       <c r="P308" s="26"/>
       <c r="Q308" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R308" s="22"/>
       <c r="S308" s="22"/>
@@ -11788,7 +11785,7 @@
       <c r="O309" s="33"/>
       <c r="P309" s="34"/>
       <c r="Q309" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R309" s="33"/>
       <c r="S309" s="33"/>
@@ -11827,7 +11824,7 @@
       <c r="O310" s="22"/>
       <c r="P310" s="26"/>
       <c r="Q310" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
@@ -11866,7 +11863,7 @@
       <c r="O311" s="19"/>
       <c r="P311" s="20"/>
       <c r="Q311" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R311" s="19"/>
       <c r="S311" s="19"/>
@@ -11974,7 +11971,7 @@
       <c r="E315" s="30"/>
       <c r="F315" s="17"/>
       <c r="G315" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF315" s="49"/>
       <c r="AG315" s="49"/>
@@ -11985,7 +11982,7 @@
       <c r="E316" s="30"/>
       <c r="F316" s="17"/>
       <c r="G316" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H316" s="24"/>
       <c r="I316" s="24"/>
@@ -12022,7 +12019,7 @@
       <c r="E317" s="30"/>
       <c r="F317" s="17"/>
       <c r="G317" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H317" s="22"/>
       <c r="I317" s="22"/>
@@ -12087,7 +12084,7 @@
       <c r="B321" s="49"/>
       <c r="E321" s="30"/>
       <c r="F321" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF321" s="49"/>
       <c r="AG321" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24401E-03A7-4DB4-BEED-843DBF63B201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76545A54-4B9F-40AF-905F-603114462DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$322</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$325</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$103</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$103</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="363">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -969,32 +969,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">    url         = [$url$]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    method      = [$method$]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    port        = [$port$]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    client_ip   = [$clientIpAddress$]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    parameters  = [$parameters$]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    user_agent  = [$clientUserAgent$]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@@@@ BEGIN @@@@ req_id = [&lt;取引リクエストID&gt;] user_id = [&lt;ユーザID&gt;] session_id = [&lt;セッションID&gt;]</t>
-    <rPh sb="27" eb="28">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1051,9 +1026,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>@@@@ PARAMETERS @@@@</t>
-  </si>
-  <si>
     <t>hiddenパラメータ復号後のログ出力フォーマット</t>
     <rPh sb="11" eb="13">
       <t>フクゴウ</t>
@@ -1100,50 +1072,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>status_code = [&lt;HTTPステータスコード&gt;] content_path = [&lt;コンテンツパス&gt;]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    start_time     = [&lt;開始日時&gt;]</t>
-    <rPh sb="23" eb="25">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    end_time       = [&lt;終了日時&gt;]</t>
-    <rPh sb="23" eb="25">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    execution_time = [&lt;実行時間&gt;]</t>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    max_memory     = [&lt;最大メモリ量&gt;]</t>
-    <rPh sb="23" eb="25">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">    free_memory    = [&lt;空きメモリ量(開始時)&gt;]</t>
     <rPh sb="23" eb="24">
       <t>ア</t>
@@ -1890,6 +1818,88 @@
   </si>
   <si>
     <t>バッチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ \n：改行を表す。実際の出力では、このマークの個所のみが改行される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@@@@ BEGIN @@@@ req_id = [&lt;取引リクエストID&gt;] user_id = [&lt;ユーザID&gt;] session_id = [&lt;セッションID&gt;]\n</t>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    url         = [$url$]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    method      = [$method$]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    port        = [$port$]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    client_ip   = [$clientIpAddress$]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    parameters  = [$parameters$]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@@@@ PARAMETERS @@@@\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>status_code = [&lt;HTTPステータスコード&gt;] content_path = [&lt;コンテンツパス&gt;]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    start_time     = [&lt;開始日時&gt;]\n</t>
+    <rPh sb="23" eb="25">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    end_time       = [&lt;終了日時&gt;]\n</t>
+    <rPh sb="23" eb="25">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    execution_time = [&lt;実行時間&gt;]\n</t>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    max_memory     = [&lt;最大メモリ量&gt;]\n</t>
+    <rPh sb="23" eb="25">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>リョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2705,7 +2715,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS322"/>
+  <dimension ref="A1:AS325"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2717,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2738,7 +2748,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2779,11 +2789,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2849,10 +2859,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2862,13 +2872,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2924,13 +2934,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2962,7 +2972,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -3008,7 +3018,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3044,7 +3054,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3086,7 +3096,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3124,7 +3134,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3166,7 +3176,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3204,7 +3214,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3246,7 +3256,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3324,7 +3334,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3402,7 +3412,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3477,7 +3487,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3503,7 +3513,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3546,7 +3556,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3589,7 +3599,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3632,7 +3642,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3675,7 +3685,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3708,7 +3718,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3718,7 +3728,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3746,7 +3756,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3756,7 +3766,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3789,7 +3799,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3799,7 +3809,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3827,7 +3837,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3837,7 +3847,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -3954,7 +3964,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="48"/>
       <c r="O43" s="47" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -4028,7 +4038,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4064,7 +4074,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4138,7 +4148,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4174,7 +4184,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4398,7 +4408,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4434,7 +4444,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4470,7 +4480,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4504,7 +4514,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4576,7 +4586,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4612,7 +4622,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4645,7 +4655,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4672,7 +4682,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4716,7 +4726,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4758,7 +4768,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4799,7 +4809,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4840,7 +4850,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4881,7 +4891,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -5004,7 +5014,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5031,7 +5041,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5072,7 +5082,7 @@
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -5115,12 +5125,12 @@
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5157,7 +5167,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5296,7 +5306,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5335,7 +5345,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5374,7 +5384,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
       <c r="L91" s="32" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -5723,7 +5733,7 @@
         <v>60</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AF101" s="49"/>
       <c r="AG101" s="49"/>
@@ -5733,7 +5743,7 @@
       <c r="B102" s="49"/>
       <c r="F102" s="17"/>
       <c r="G102" s="16" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5746,34 +5756,34 @@
     </row>
     <row r="104" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="50" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="49" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="49" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5832,12 +5842,12 @@
       <c r="H113" s="28"/>
       <c r="I113" s="29"/>
       <c r="J113" s="28" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="29"/>
       <c r="M113" s="28" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N113" s="28"/>
       <c r="O113" s="28"/>
@@ -5870,7 +5880,7 @@
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
       <c r="G114" s="23" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="25"/>
@@ -5880,14 +5890,14 @@
       <c r="K114" s="24"/>
       <c r="L114" s="25"/>
       <c r="M114" s="24" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
       <c r="Q114" s="25"/>
       <c r="R114" s="24" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="S114" s="24"/>
       <c r="T114" s="24"/>
@@ -5922,7 +5932,7 @@
       <c r="P115" s="45"/>
       <c r="Q115" s="46"/>
       <c r="R115" s="45" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -6086,7 +6096,7 @@
       <c r="F121" s="30"/>
       <c r="G121" s="17"/>
       <c r="H121" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AF121" s="49"/>
       <c r="AG121" s="49"/>
@@ -6268,7 +6278,7 @@
       <c r="N128" s="19"/>
       <c r="O128" s="20"/>
       <c r="P128" s="19" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
@@ -6538,7 +6548,7 @@
       <c r="O135" s="20"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="32" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
@@ -6576,7 +6586,7 @@
       <c r="O136" s="20"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="21" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
@@ -6691,7 +6701,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="26"/>
       <c r="P139" s="22" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
@@ -6984,7 +6994,7 @@
         <v>117</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
@@ -7279,7 +7289,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="21" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
@@ -7364,7 +7374,7 @@
       <c r="E161" s="30"/>
       <c r="F161" s="17"/>
       <c r="G161" s="52" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -7438,7 +7448,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="17"/>
       <c r="G163" s="52" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -7475,7 +7485,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
       <c r="G164" s="53" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="H164" s="22"/>
       <c r="I164" s="22"/>
@@ -7555,12 +7565,12 @@
       <c r="H169" s="28"/>
       <c r="I169" s="29"/>
       <c r="J169" s="28" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K169" s="28"/>
       <c r="L169" s="29"/>
       <c r="M169" s="28" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="N169" s="28"/>
       <c r="O169" s="28"/>
@@ -7603,7 +7613,7 @@
       <c r="K170" s="47"/>
       <c r="L170" s="48"/>
       <c r="M170" s="47" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="N170" s="47"/>
       <c r="O170" s="47"/>
@@ -7710,7 +7720,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="17"/>
       <c r="H175" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AF175" s="49"/>
       <c r="AG175" s="49"/>
@@ -7882,7 +7892,7 @@
       <c r="O181" s="19"/>
       <c r="P181" s="20"/>
       <c r="Q181" s="19" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="R181" s="19"/>
       <c r="S181" s="19"/>
@@ -8084,7 +8094,7 @@
         <v>(3)-1</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
@@ -8108,7 +8118,7 @@
       <c r="F190" s="30"/>
       <c r="G190" s="17"/>
       <c r="H190" s="39" t="s">
-        <v>212</v>
+        <v>351</v>
       </c>
       <c r="I190" s="24"/>
       <c r="J190" s="24"/>
@@ -8145,7 +8155,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="18" t="s">
-        <v>206</v>
+        <v>352</v>
       </c>
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
@@ -8182,7 +8192,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8212,14 +8222,14 @@
       <c r="AH192" s="19"/>
       <c r="AI192" s="20"/>
     </row>
-    <row r="193" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="49"/>
       <c r="B193" s="49"/>
       <c r="E193" s="30"/>
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8249,14 +8259,14 @@
       <c r="AH193" s="19"/>
       <c r="AI193" s="20"/>
     </row>
-    <row r="194" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="49"/>
       <c r="B194" s="49"/>
       <c r="E194" s="30"/>
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8286,14 +8296,14 @@
       <c r="AH194" s="19"/>
       <c r="AI194" s="20"/>
     </row>
-    <row r="195" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="49"/>
       <c r="B195" s="49"/>
       <c r="E195" s="30"/>
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>210</v>
+        <v>356</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8323,12 +8333,12 @@
       <c r="AH195" s="19"/>
       <c r="AI195" s="20"/>
     </row>
-    <row r="196" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:37" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E196" s="37"/>
       <c r="F196" s="37"/>
       <c r="G196" s="38"/>
       <c r="H196" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I196" s="22"/>
       <c r="J196" s="22"/>
@@ -8358,124 +8368,120 @@
       <c r="AH196" s="22"/>
       <c r="AI196" s="26"/>
     </row>
-    <row r="197" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="49"/>
-      <c r="B197" s="49"/>
+    <row r="197" spans="1:37" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E197" s="30"/>
-      <c r="F197" s="30"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF197" s="49"/>
-    </row>
-    <row r="198" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H197" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="I197" s="19"/>
+      <c r="J197" s="19"/>
+      <c r="K197" s="19"/>
+      <c r="L197" s="19"/>
+      <c r="M197" s="19"/>
+      <c r="N197" s="19"/>
+      <c r="O197" s="19"/>
+      <c r="P197" s="19"/>
+      <c r="Q197" s="19"/>
+      <c r="R197" s="19"/>
+      <c r="S197" s="19"/>
+      <c r="T197" s="19"/>
+      <c r="U197" s="19"/>
+      <c r="V197" s="19"/>
+      <c r="W197" s="19"/>
+      <c r="X197" s="19"/>
+      <c r="Y197" s="19"/>
+      <c r="Z197" s="19"/>
+      <c r="AA197" s="19"/>
+      <c r="AB197" s="19"/>
+      <c r="AC197" s="19"/>
+      <c r="AD197" s="19"/>
+      <c r="AE197" s="19"/>
+      <c r="AF197" s="19"/>
+      <c r="AG197" s="19"/>
+      <c r="AH197" s="19"/>
+      <c r="AI197" s="19"/>
+      <c r="AJ197" s="19"/>
+      <c r="AK197" s="19"/>
+    </row>
+    <row r="198" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="49"/>
       <c r="B198" s="49"/>
       <c r="E198" s="30"/>
-      <c r="F198" s="17"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="AF198" s="49"/>
     </row>
-    <row r="199" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="49"/>
       <c r="B199" s="49"/>
       <c r="E199" s="30"/>
       <c r="F199" s="17"/>
-      <c r="G199" s="30" t="str">
-        <f>$F$187&amp;"-2"</f>
-        <v>(3)-2</v>
-      </c>
-      <c r="H199" s="16" t="s">
-        <v>224</v>
-      </c>
       <c r="AF199" s="49"/>
     </row>
-    <row r="200" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="49"/>
       <c r="B200" s="49"/>
       <c r="E200" s="30"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="30"/>
-      <c r="H200" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I200" s="28"/>
-      <c r="J200" s="28"/>
-      <c r="K200" s="28"/>
-      <c r="L200" s="28"/>
-      <c r="M200" s="28"/>
-      <c r="N200" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="O200" s="28"/>
-      <c r="P200" s="28"/>
-      <c r="Q200" s="29"/>
-      <c r="R200" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S200" s="28"/>
-      <c r="T200" s="28"/>
-      <c r="U200" s="28"/>
-      <c r="V200" s="28"/>
-      <c r="W200" s="28"/>
-      <c r="X200" s="28"/>
-      <c r="Y200" s="28"/>
-      <c r="Z200" s="28"/>
-      <c r="AA200" s="28"/>
-      <c r="AB200" s="28"/>
-      <c r="AC200" s="28"/>
-      <c r="AD200" s="28"/>
-      <c r="AE200" s="28"/>
-      <c r="AF200" s="28"/>
-      <c r="AG200" s="28"/>
-      <c r="AH200" s="28"/>
-      <c r="AI200" s="29"/>
-    </row>
-    <row r="201" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G200" s="30" t="str">
+        <f>$F$187&amp;"-2"</f>
+        <v>(3)-2</v>
+      </c>
+      <c r="H200" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF200" s="49"/>
+    </row>
+    <row r="201" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="49"/>
       <c r="B201" s="49"/>
       <c r="E201" s="30"/>
-      <c r="H201" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I201" s="22"/>
-      <c r="J201" s="22"/>
-      <c r="K201" s="22"/>
-      <c r="L201" s="22"/>
-      <c r="M201" s="22"/>
-      <c r="N201" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="O201" s="22"/>
-      <c r="P201" s="22"/>
-      <c r="Q201" s="26"/>
-      <c r="R201" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="S201" s="22"/>
-      <c r="T201" s="22"/>
-      <c r="U201" s="22"/>
-      <c r="V201" s="22"/>
-      <c r="W201" s="22"/>
-      <c r="X201" s="22"/>
-      <c r="Y201" s="22"/>
-      <c r="Z201" s="22"/>
-      <c r="AA201" s="22"/>
-      <c r="AB201" s="22"/>
-      <c r="AC201" s="22"/>
-      <c r="AD201" s="22"/>
-      <c r="AE201" s="22"/>
-      <c r="AF201" s="45"/>
-      <c r="AG201" s="22"/>
-      <c r="AH201" s="22"/>
-      <c r="AI201" s="26"/>
-    </row>
-    <row r="202" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F201" s="17"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I201" s="28"/>
+      <c r="J201" s="28"/>
+      <c r="K201" s="28"/>
+      <c r="L201" s="28"/>
+      <c r="M201" s="28"/>
+      <c r="N201" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O201" s="28"/>
+      <c r="P201" s="28"/>
+      <c r="Q201" s="29"/>
+      <c r="R201" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="S201" s="28"/>
+      <c r="T201" s="28"/>
+      <c r="U201" s="28"/>
+      <c r="V201" s="28"/>
+      <c r="W201" s="28"/>
+      <c r="X201" s="28"/>
+      <c r="Y201" s="28"/>
+      <c r="Z201" s="28"/>
+      <c r="AA201" s="28"/>
+      <c r="AB201" s="28"/>
+      <c r="AC201" s="28"/>
+      <c r="AD201" s="28"/>
+      <c r="AE201" s="28"/>
+      <c r="AF201" s="28"/>
+      <c r="AG201" s="28"/>
+      <c r="AH201" s="28"/>
+      <c r="AI201" s="29"/>
+    </row>
+    <row r="202" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="49"/>
       <c r="B202" s="49"/>
       <c r="E202" s="30"/>
       <c r="H202" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I202" s="22"/>
       <c r="J202" s="22"/>
@@ -8483,13 +8489,13 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O202" s="22"/>
       <c r="P202" s="22"/>
       <c r="Q202" s="26"/>
       <c r="R202" s="22" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="S202" s="22"/>
       <c r="T202" s="22"/>
@@ -8509,12 +8515,12 @@
       <c r="AH202" s="22"/>
       <c r="AI202" s="26"/>
     </row>
-    <row r="203" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="49"/>
       <c r="B203" s="49"/>
       <c r="E203" s="30"/>
       <c r="H203" s="21" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="I203" s="22"/>
       <c r="J203" s="22"/>
@@ -8522,13 +8528,13 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="21" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="O203" s="22"/>
       <c r="P203" s="22"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="22" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
@@ -8548,12 +8554,12 @@
       <c r="AH203" s="22"/>
       <c r="AI203" s="26"/>
     </row>
-    <row r="204" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="49"/>
       <c r="B204" s="49"/>
       <c r="E204" s="30"/>
       <c r="H204" s="21" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="I204" s="22"/>
       <c r="J204" s="22"/>
@@ -8561,13 +8567,13 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="21" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
@@ -8587,12 +8593,12 @@
       <c r="AH204" s="22"/>
       <c r="AI204" s="26"/>
     </row>
-    <row r="205" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="49"/>
       <c r="B205" s="49"/>
       <c r="E205" s="30"/>
       <c r="H205" s="21" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="I205" s="22"/>
       <c r="J205" s="22"/>
@@ -8600,13 +8606,13 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="21" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="26"/>
       <c r="R205" s="22" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
@@ -8626,12 +8632,12 @@
       <c r="AH205" s="22"/>
       <c r="AI205" s="26"/>
     </row>
-    <row r="206" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="49"/>
       <c r="B206" s="49"/>
       <c r="E206" s="30"/>
       <c r="H206" s="21" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="I206" s="22"/>
       <c r="J206" s="22"/>
@@ -8639,13 +8645,13 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="21" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
@@ -8665,12 +8671,12 @@
       <c r="AH206" s="22"/>
       <c r="AI206" s="26"/>
     </row>
-    <row r="207" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="49"/>
       <c r="B207" s="49"/>
       <c r="E207" s="30"/>
       <c r="H207" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
@@ -8678,13 +8684,13 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
@@ -8704,12 +8710,12 @@
       <c r="AH207" s="22"/>
       <c r="AI207" s="26"/>
     </row>
-    <row r="208" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="49"/>
       <c r="B208" s="49"/>
       <c r="E208" s="30"/>
       <c r="H208" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I208" s="22"/>
       <c r="J208" s="22"/>
@@ -8717,13 +8723,13 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="22" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
@@ -8748,7 +8754,7 @@
       <c r="B209" s="49"/>
       <c r="E209" s="30"/>
       <c r="H209" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
@@ -8756,13 +8762,13 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="22" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
@@ -8786,29 +8792,54 @@
       <c r="A210" s="49"/>
       <c r="B210" s="49"/>
       <c r="E210" s="30"/>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19"/>
-      <c r="K210" s="19"/>
-      <c r="L210" s="19"/>
-      <c r="M210" s="19"/>
-      <c r="N210" s="19"/>
-      <c r="O210" s="19"/>
-      <c r="P210" s="19"/>
-      <c r="AF210" s="49"/>
+      <c r="H210" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="I210" s="22"/>
+      <c r="J210" s="22"/>
+      <c r="K210" s="22"/>
+      <c r="L210" s="22"/>
+      <c r="M210" s="22"/>
+      <c r="N210" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O210" s="22"/>
+      <c r="P210" s="22"/>
+      <c r="Q210" s="26"/>
+      <c r="R210" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="S210" s="22"/>
+      <c r="T210" s="22"/>
+      <c r="U210" s="22"/>
+      <c r="V210" s="22"/>
+      <c r="W210" s="22"/>
+      <c r="X210" s="22"/>
+      <c r="Y210" s="22"/>
+      <c r="Z210" s="22"/>
+      <c r="AA210" s="22"/>
+      <c r="AB210" s="22"/>
+      <c r="AC210" s="22"/>
+      <c r="AD210" s="22"/>
+      <c r="AE210" s="22"/>
+      <c r="AF210" s="45"/>
+      <c r="AG210" s="22"/>
+      <c r="AH210" s="22"/>
+      <c r="AI210" s="26"/>
     </row>
     <row r="211" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="49"/>
       <c r="B211" s="49"/>
       <c r="E211" s="30"/>
-      <c r="F211" s="17"/>
-      <c r="G211" s="30" t="str">
-        <f>$F$187&amp;"-3"</f>
-        <v>(3)-3</v>
-      </c>
-      <c r="H211" s="16" t="s">
-        <v>263</v>
-      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="19"/>
+      <c r="N211" s="19"/>
+      <c r="O211" s="19"/>
+      <c r="P211" s="19"/>
       <c r="AF211" s="49"/>
     </row>
     <row r="212" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8816,9 +8847,12 @@
       <c r="B212" s="49"/>
       <c r="E212" s="30"/>
       <c r="F212" s="17"/>
-      <c r="G212" s="30"/>
+      <c r="G212" s="30" t="str">
+        <f>$F$187&amp;"-3"</f>
+        <v>(3)-3</v>
+      </c>
       <c r="H212" s="16" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="AF212" s="49"/>
     </row>
@@ -8826,105 +8860,101 @@
       <c r="A213" s="49"/>
       <c r="B213" s="49"/>
       <c r="E213" s="30"/>
-      <c r="F213" s="30"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="I213" s="24"/>
-      <c r="J213" s="24"/>
-      <c r="K213" s="24"/>
-      <c r="L213" s="24"/>
-      <c r="M213" s="24"/>
-      <c r="N213" s="24"/>
-      <c r="O213" s="24"/>
-      <c r="P213" s="24"/>
-      <c r="Q213" s="24"/>
-      <c r="R213" s="24"/>
-      <c r="S213" s="24"/>
-      <c r="T213" s="24"/>
-      <c r="U213" s="24"/>
-      <c r="V213" s="24"/>
-      <c r="W213" s="24"/>
-      <c r="X213" s="24"/>
-      <c r="Y213" s="24"/>
-      <c r="Z213" s="24"/>
-      <c r="AA213" s="24"/>
-      <c r="AB213" s="24"/>
-      <c r="AC213" s="24"/>
-      <c r="AD213" s="24"/>
-      <c r="AE213" s="24"/>
-      <c r="AF213" s="24"/>
-      <c r="AG213" s="24"/>
-      <c r="AH213" s="24"/>
-      <c r="AI213" s="25"/>
-    </row>
-    <row r="214" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E214" s="37"/>
-      <c r="F214" s="37"/>
-      <c r="G214" s="38"/>
-      <c r="H214" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="I214" s="22"/>
-      <c r="J214" s="22"/>
-      <c r="K214" s="22"/>
-      <c r="L214" s="22"/>
-      <c r="M214" s="22"/>
-      <c r="N214" s="22"/>
-      <c r="O214" s="22"/>
-      <c r="P214" s="22"/>
-      <c r="Q214" s="22"/>
-      <c r="R214" s="22"/>
-      <c r="S214" s="22"/>
-      <c r="T214" s="22"/>
-      <c r="U214" s="22"/>
-      <c r="V214" s="22"/>
-      <c r="W214" s="22"/>
-      <c r="X214" s="22"/>
-      <c r="Y214" s="22"/>
-      <c r="Z214" s="22"/>
-      <c r="AA214" s="22"/>
-      <c r="AB214" s="22"/>
-      <c r="AC214" s="22"/>
-      <c r="AD214" s="22"/>
-      <c r="AE214" s="22"/>
-      <c r="AF214" s="45"/>
-      <c r="AG214" s="22"/>
-      <c r="AH214" s="22"/>
-      <c r="AI214" s="26"/>
-    </row>
-    <row r="215" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="49"/>
-      <c r="B215" s="49"/>
-      <c r="E215" s="30"/>
-      <c r="F215" s="30"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF215" s="49"/>
-      <c r="AG215" s="49"/>
-    </row>
-    <row r="216" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="49"/>
-      <c r="B216" s="49"/>
-      <c r="E216" s="30"/>
-      <c r="F216" s="17"/>
-      <c r="AF216" s="49"/>
-      <c r="AG216" s="49"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="30"/>
+      <c r="H213" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF213" s="49"/>
+    </row>
+    <row r="214" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="49"/>
+      <c r="B214" s="49"/>
+      <c r="E214" s="30"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="I214" s="24"/>
+      <c r="J214" s="24"/>
+      <c r="K214" s="24"/>
+      <c r="L214" s="24"/>
+      <c r="M214" s="24"/>
+      <c r="N214" s="24"/>
+      <c r="O214" s="24"/>
+      <c r="P214" s="24"/>
+      <c r="Q214" s="24"/>
+      <c r="R214" s="24"/>
+      <c r="S214" s="24"/>
+      <c r="T214" s="24"/>
+      <c r="U214" s="24"/>
+      <c r="V214" s="24"/>
+      <c r="W214" s="24"/>
+      <c r="X214" s="24"/>
+      <c r="Y214" s="24"/>
+      <c r="Z214" s="24"/>
+      <c r="AA214" s="24"/>
+      <c r="AB214" s="24"/>
+      <c r="AC214" s="24"/>
+      <c r="AD214" s="24"/>
+      <c r="AE214" s="24"/>
+      <c r="AF214" s="24"/>
+      <c r="AG214" s="24"/>
+      <c r="AH214" s="24"/>
+      <c r="AI214" s="25"/>
+    </row>
+    <row r="215" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E215" s="37"/>
+      <c r="F215" s="37"/>
+      <c r="G215" s="38"/>
+      <c r="H215" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I215" s="22"/>
+      <c r="J215" s="22"/>
+      <c r="K215" s="22"/>
+      <c r="L215" s="22"/>
+      <c r="M215" s="22"/>
+      <c r="N215" s="22"/>
+      <c r="O215" s="22"/>
+      <c r="P215" s="22"/>
+      <c r="Q215" s="22"/>
+      <c r="R215" s="22"/>
+      <c r="S215" s="22"/>
+      <c r="T215" s="22"/>
+      <c r="U215" s="22"/>
+      <c r="V215" s="22"/>
+      <c r="W215" s="22"/>
+      <c r="X215" s="22"/>
+      <c r="Y215" s="22"/>
+      <c r="Z215" s="22"/>
+      <c r="AA215" s="22"/>
+      <c r="AB215" s="22"/>
+      <c r="AC215" s="22"/>
+      <c r="AD215" s="22"/>
+      <c r="AE215" s="22"/>
+      <c r="AF215" s="45"/>
+      <c r="AG215" s="22"/>
+      <c r="AH215" s="22"/>
+      <c r="AI215" s="26"/>
+    </row>
+    <row r="216" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E216" s="37"/>
+      <c r="F216" s="37"/>
+      <c r="G216" s="38"/>
+      <c r="H216" s="36" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="217" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="49"/>
       <c r="B217" s="49"/>
       <c r="E217" s="30"/>
-      <c r="F217" s="17"/>
-      <c r="G217" s="30" t="str">
-        <f>$F$187&amp;"-4"</f>
-        <v>(3)-4</v>
-      </c>
+      <c r="F217" s="30"/>
+      <c r="G217" s="17"/>
       <c r="H217" s="16" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="AF217" s="49"/>
       <c r="AG217" s="49"/>
@@ -8934,121 +8964,117 @@
       <c r="B218" s="49"/>
       <c r="E218" s="30"/>
       <c r="F218" s="17"/>
-      <c r="G218" s="30"/>
-      <c r="H218" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I218" s="28"/>
-      <c r="J218" s="28"/>
-      <c r="K218" s="28"/>
-      <c r="L218" s="28"/>
-      <c r="M218" s="28"/>
-      <c r="N218" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="O218" s="28"/>
-      <c r="P218" s="28"/>
-      <c r="Q218" s="29"/>
-      <c r="R218" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S218" s="28"/>
-      <c r="T218" s="28"/>
-      <c r="U218" s="28"/>
-      <c r="V218" s="28"/>
-      <c r="W218" s="28"/>
-      <c r="X218" s="28"/>
-      <c r="Y218" s="28"/>
-      <c r="Z218" s="28"/>
-      <c r="AA218" s="28"/>
-      <c r="AB218" s="28"/>
-      <c r="AC218" s="28"/>
-      <c r="AD218" s="28"/>
-      <c r="AE218" s="28"/>
-      <c r="AF218" s="28"/>
-      <c r="AG218" s="28"/>
-      <c r="AH218" s="28"/>
-      <c r="AI218" s="29"/>
+      <c r="AF218" s="49"/>
+      <c r="AG218" s="49"/>
     </row>
     <row r="219" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="49"/>
       <c r="B219" s="49"/>
       <c r="E219" s="30"/>
-      <c r="H219" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="I219" s="22"/>
-      <c r="J219" s="22"/>
-      <c r="K219" s="22"/>
-      <c r="L219" s="22"/>
-      <c r="M219" s="22"/>
-      <c r="N219" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="O219" s="22"/>
-      <c r="P219" s="22"/>
-      <c r="Q219" s="26"/>
-      <c r="R219" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="S219" s="22"/>
-      <c r="T219" s="22"/>
-      <c r="U219" s="22"/>
-      <c r="V219" s="22"/>
-      <c r="W219" s="22"/>
-      <c r="X219" s="22"/>
-      <c r="Y219" s="22"/>
-      <c r="Z219" s="22"/>
-      <c r="AA219" s="22"/>
-      <c r="AB219" s="22"/>
-      <c r="AC219" s="22"/>
-      <c r="AD219" s="22"/>
-      <c r="AE219" s="22"/>
-      <c r="AF219" s="45"/>
-      <c r="AG219" s="45"/>
-      <c r="AH219" s="22"/>
-      <c r="AI219" s="26"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="30" t="str">
+        <f>$F$187&amp;"-4"</f>
+        <v>(3)-4</v>
+      </c>
+      <c r="H219" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF219" s="49"/>
+      <c r="AG219" s="49"/>
     </row>
     <row r="220" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="49"/>
       <c r="B220" s="49"/>
       <c r="E220" s="30"/>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="19"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
-      <c r="N220" s="19"/>
-      <c r="O220" s="19"/>
-      <c r="P220" s="19"/>
-      <c r="AF220" s="49"/>
-      <c r="AG220" s="49"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I220" s="28"/>
+      <c r="J220" s="28"/>
+      <c r="K220" s="28"/>
+      <c r="L220" s="28"/>
+      <c r="M220" s="28"/>
+      <c r="N220" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O220" s="28"/>
+      <c r="P220" s="28"/>
+      <c r="Q220" s="29"/>
+      <c r="R220" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="S220" s="28"/>
+      <c r="T220" s="28"/>
+      <c r="U220" s="28"/>
+      <c r="V220" s="28"/>
+      <c r="W220" s="28"/>
+      <c r="X220" s="28"/>
+      <c r="Y220" s="28"/>
+      <c r="Z220" s="28"/>
+      <c r="AA220" s="28"/>
+      <c r="AB220" s="28"/>
+      <c r="AC220" s="28"/>
+      <c r="AD220" s="28"/>
+      <c r="AE220" s="28"/>
+      <c r="AF220" s="28"/>
+      <c r="AG220" s="28"/>
+      <c r="AH220" s="28"/>
+      <c r="AI220" s="29"/>
     </row>
     <row r="221" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="49"/>
       <c r="B221" s="49"/>
       <c r="E221" s="30"/>
-      <c r="F221" s="17"/>
-      <c r="G221" s="30" t="str">
-        <f>$F$187&amp;"-5"</f>
-        <v>(3)-5</v>
-      </c>
-      <c r="H221" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF221" s="49"/>
-      <c r="AG221" s="49"/>
+      <c r="H221" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="I221" s="22"/>
+      <c r="J221" s="22"/>
+      <c r="K221" s="22"/>
+      <c r="L221" s="22"/>
+      <c r="M221" s="22"/>
+      <c r="N221" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="O221" s="22"/>
+      <c r="P221" s="22"/>
+      <c r="Q221" s="26"/>
+      <c r="R221" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="S221" s="22"/>
+      <c r="T221" s="22"/>
+      <c r="U221" s="22"/>
+      <c r="V221" s="22"/>
+      <c r="W221" s="22"/>
+      <c r="X221" s="22"/>
+      <c r="Y221" s="22"/>
+      <c r="Z221" s="22"/>
+      <c r="AA221" s="22"/>
+      <c r="AB221" s="22"/>
+      <c r="AC221" s="22"/>
+      <c r="AD221" s="22"/>
+      <c r="AE221" s="22"/>
+      <c r="AF221" s="45"/>
+      <c r="AG221" s="45"/>
+      <c r="AH221" s="22"/>
+      <c r="AI221" s="26"/>
     </row>
     <row r="222" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="49"/>
       <c r="B222" s="49"/>
       <c r="E222" s="30"/>
-      <c r="F222" s="17"/>
-      <c r="G222" s="30"/>
-      <c r="H222" s="16" t="s">
-        <v>260</v>
-      </c>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="19"/>
+      <c r="K222" s="19"/>
+      <c r="L222" s="19"/>
+      <c r="M222" s="19"/>
+      <c r="N222" s="19"/>
+      <c r="O222" s="19"/>
+      <c r="P222" s="19"/>
       <c r="AF222" s="49"/>
       <c r="AG222" s="49"/>
     </row>
@@ -9056,47 +9082,25 @@
       <c r="A223" s="49"/>
       <c r="B223" s="49"/>
       <c r="E223" s="30"/>
-      <c r="F223" s="30"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="I223" s="33"/>
-      <c r="J223" s="33"/>
-      <c r="K223" s="33"/>
-      <c r="L223" s="33"/>
-      <c r="M223" s="33"/>
-      <c r="N223" s="33"/>
-      <c r="O223" s="33"/>
-      <c r="P223" s="33"/>
-      <c r="Q223" s="33"/>
-      <c r="R223" s="33"/>
-      <c r="S223" s="33"/>
-      <c r="T223" s="33"/>
-      <c r="U223" s="33"/>
-      <c r="V223" s="33"/>
-      <c r="W223" s="33"/>
-      <c r="X223" s="33"/>
-      <c r="Y223" s="33"/>
-      <c r="Z223" s="33"/>
-      <c r="AA223" s="33"/>
-      <c r="AB223" s="33"/>
-      <c r="AC223" s="33"/>
-      <c r="AD223" s="33"/>
-      <c r="AE223" s="33"/>
-      <c r="AF223" s="47"/>
-      <c r="AG223" s="47"/>
-      <c r="AH223" s="33"/>
-      <c r="AI223" s="34"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="30" t="str">
+        <f>$F$187&amp;"-5"</f>
+        <v>(3)-5</v>
+      </c>
+      <c r="H223" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF223" s="49"/>
+      <c r="AG223" s="49"/>
     </row>
     <row r="224" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="49"/>
       <c r="B224" s="49"/>
       <c r="E224" s="30"/>
-      <c r="F224" s="30"/>
-      <c r="G224" s="17"/>
+      <c r="F224" s="17"/>
+      <c r="G224" s="30"/>
       <c r="H224" s="16" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="AF224" s="49"/>
       <c r="AG224" s="49"/>
@@ -9105,21 +9109,47 @@
       <c r="A225" s="49"/>
       <c r="B225" s="49"/>
       <c r="E225" s="30"/>
-      <c r="F225" s="17"/>
-      <c r="AF225" s="49"/>
-      <c r="AG225" s="49"/>
+      <c r="F225" s="30"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="I225" s="33"/>
+      <c r="J225" s="33"/>
+      <c r="K225" s="33"/>
+      <c r="L225" s="33"/>
+      <c r="M225" s="33"/>
+      <c r="N225" s="33"/>
+      <c r="O225" s="33"/>
+      <c r="P225" s="33"/>
+      <c r="Q225" s="33"/>
+      <c r="R225" s="33"/>
+      <c r="S225" s="33"/>
+      <c r="T225" s="33"/>
+      <c r="U225" s="33"/>
+      <c r="V225" s="33"/>
+      <c r="W225" s="33"/>
+      <c r="X225" s="33"/>
+      <c r="Y225" s="33"/>
+      <c r="Z225" s="33"/>
+      <c r="AA225" s="33"/>
+      <c r="AB225" s="33"/>
+      <c r="AC225" s="33"/>
+      <c r="AD225" s="33"/>
+      <c r="AE225" s="33"/>
+      <c r="AF225" s="47"/>
+      <c r="AG225" s="47"/>
+      <c r="AH225" s="33"/>
+      <c r="AI225" s="34"/>
     </row>
     <row r="226" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="49"/>
       <c r="B226" s="49"/>
       <c r="E226" s="30"/>
-      <c r="F226" s="17"/>
-      <c r="G226" s="30" t="str">
-        <f>$F$187&amp;"-6"</f>
-        <v>(3)-6</v>
-      </c>
+      <c r="F226" s="30"/>
+      <c r="G226" s="17"/>
       <c r="H226" s="16" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AF226" s="49"/>
       <c r="AG226" s="49"/>
@@ -9129,80 +9159,23 @@
       <c r="B227" s="49"/>
       <c r="E227" s="30"/>
       <c r="F227" s="17"/>
-      <c r="G227" s="30"/>
-      <c r="H227" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I227" s="28"/>
-      <c r="J227" s="28"/>
-      <c r="K227" s="28"/>
-      <c r="L227" s="28"/>
-      <c r="M227" s="28"/>
-      <c r="N227" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="O227" s="28"/>
-      <c r="P227" s="28"/>
-      <c r="Q227" s="29"/>
-      <c r="R227" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S227" s="28"/>
-      <c r="T227" s="28"/>
-      <c r="U227" s="28"/>
-      <c r="V227" s="28"/>
-      <c r="W227" s="28"/>
-      <c r="X227" s="28"/>
-      <c r="Y227" s="28"/>
-      <c r="Z227" s="28"/>
-      <c r="AA227" s="28"/>
-      <c r="AB227" s="28"/>
-      <c r="AC227" s="28"/>
-      <c r="AD227" s="28"/>
-      <c r="AE227" s="28"/>
-      <c r="AF227" s="28"/>
-      <c r="AG227" s="28"/>
-      <c r="AH227" s="28"/>
-      <c r="AI227" s="29"/>
+      <c r="AF227" s="49"/>
+      <c r="AG227" s="49"/>
     </row>
     <row r="228" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="49"/>
       <c r="B228" s="49"/>
       <c r="E228" s="30"/>
-      <c r="H228" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="I228" s="22"/>
-      <c r="J228" s="22"/>
-      <c r="K228" s="22"/>
-      <c r="L228" s="22"/>
-      <c r="M228" s="22"/>
-      <c r="N228" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="O228" s="22"/>
-      <c r="P228" s="22"/>
-      <c r="Q228" s="26"/>
-      <c r="R228" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="S228" s="22"/>
-      <c r="T228" s="22"/>
-      <c r="U228" s="22"/>
-      <c r="V228" s="22"/>
-      <c r="W228" s="22"/>
-      <c r="X228" s="22"/>
-      <c r="Y228" s="22"/>
-      <c r="Z228" s="22"/>
-      <c r="AA228" s="22"/>
-      <c r="AB228" s="22"/>
-      <c r="AC228" s="22"/>
-      <c r="AD228" s="22"/>
-      <c r="AE228" s="22"/>
-      <c r="AF228" s="45"/>
-      <c r="AG228" s="45"/>
-      <c r="AH228" s="22"/>
-      <c r="AI228" s="26"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="30" t="str">
+        <f>$F$187&amp;"-6"</f>
+        <v>(3)-6</v>
+      </c>
+      <c r="H228" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF228" s="49"/>
+      <c r="AG228" s="49"/>
     </row>
     <row r="229" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="49"/>
@@ -9210,23 +9183,79 @@
       <c r="E229" s="30"/>
       <c r="F229" s="17"/>
       <c r="G229" s="30"/>
-      <c r="AF229" s="49"/>
-      <c r="AG229" s="49"/>
+      <c r="H229" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I229" s="28"/>
+      <c r="J229" s="28"/>
+      <c r="K229" s="28"/>
+      <c r="L229" s="28"/>
+      <c r="M229" s="28"/>
+      <c r="N229" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O229" s="28"/>
+      <c r="P229" s="28"/>
+      <c r="Q229" s="29"/>
+      <c r="R229" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="S229" s="28"/>
+      <c r="T229" s="28"/>
+      <c r="U229" s="28"/>
+      <c r="V229" s="28"/>
+      <c r="W229" s="28"/>
+      <c r="X229" s="28"/>
+      <c r="Y229" s="28"/>
+      <c r="Z229" s="28"/>
+      <c r="AA229" s="28"/>
+      <c r="AB229" s="28"/>
+      <c r="AC229" s="28"/>
+      <c r="AD229" s="28"/>
+      <c r="AE229" s="28"/>
+      <c r="AF229" s="28"/>
+      <c r="AG229" s="28"/>
+      <c r="AH229" s="28"/>
+      <c r="AI229" s="29"/>
     </row>
     <row r="230" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="49"/>
       <c r="B230" s="49"/>
       <c r="E230" s="30"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="30" t="str">
-        <f>$F$187&amp;"-7"</f>
-        <v>(3)-7</v>
-      </c>
-      <c r="H230" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF230" s="49"/>
-      <c r="AG230" s="49"/>
+      <c r="H230" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="I230" s="22"/>
+      <c r="J230" s="22"/>
+      <c r="K230" s="22"/>
+      <c r="L230" s="22"/>
+      <c r="M230" s="22"/>
+      <c r="N230" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O230" s="22"/>
+      <c r="P230" s="22"/>
+      <c r="Q230" s="26"/>
+      <c r="R230" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="S230" s="22"/>
+      <c r="T230" s="22"/>
+      <c r="U230" s="22"/>
+      <c r="V230" s="22"/>
+      <c r="W230" s="22"/>
+      <c r="X230" s="22"/>
+      <c r="Y230" s="22"/>
+      <c r="Z230" s="22"/>
+      <c r="AA230" s="22"/>
+      <c r="AB230" s="22"/>
+      <c r="AC230" s="22"/>
+      <c r="AD230" s="22"/>
+      <c r="AE230" s="22"/>
+      <c r="AF230" s="45"/>
+      <c r="AG230" s="45"/>
+      <c r="AH230" s="22"/>
+      <c r="AI230" s="26"/>
     </row>
     <row r="231" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="49"/>
@@ -9234,9 +9263,6 @@
       <c r="E231" s="30"/>
       <c r="F231" s="17"/>
       <c r="G231" s="30"/>
-      <c r="H231" s="16" t="s">
-        <v>265</v>
-      </c>
       <c r="AF231" s="49"/>
       <c r="AG231" s="49"/>
     </row>
@@ -9244,75 +9270,28 @@
       <c r="A232" s="49"/>
       <c r="B232" s="49"/>
       <c r="E232" s="30"/>
-      <c r="F232" s="30"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="I232" s="24"/>
-      <c r="J232" s="24"/>
-      <c r="K232" s="24"/>
-      <c r="L232" s="24"/>
-      <c r="M232" s="24"/>
-      <c r="N232" s="24"/>
-      <c r="O232" s="24"/>
-      <c r="P232" s="24"/>
-      <c r="Q232" s="24"/>
-      <c r="R232" s="24"/>
-      <c r="S232" s="24"/>
-      <c r="T232" s="24"/>
-      <c r="U232" s="24"/>
-      <c r="V232" s="24"/>
-      <c r="W232" s="24"/>
-      <c r="X232" s="24"/>
-      <c r="Y232" s="24"/>
-      <c r="Z232" s="24"/>
-      <c r="AA232" s="24"/>
-      <c r="AB232" s="24"/>
-      <c r="AC232" s="24"/>
-      <c r="AD232" s="24"/>
-      <c r="AE232" s="24"/>
-      <c r="AF232" s="24"/>
-      <c r="AG232" s="24"/>
-      <c r="AH232" s="24"/>
-      <c r="AI232" s="25"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="30" t="str">
+        <f>$F$187&amp;"-7"</f>
+        <v>(3)-7</v>
+      </c>
+      <c r="H232" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF232" s="49"/>
+      <c r="AG232" s="49"/>
     </row>
     <row r="233" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="49"/>
       <c r="B233" s="49"/>
       <c r="E233" s="30"/>
-      <c r="F233" s="30"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="I233" s="19"/>
-      <c r="J233" s="19"/>
-      <c r="K233" s="19"/>
-      <c r="L233" s="19"/>
-      <c r="M233" s="19"/>
-      <c r="N233" s="19"/>
-      <c r="O233" s="19"/>
-      <c r="P233" s="19"/>
-      <c r="Q233" s="19"/>
-      <c r="R233" s="19"/>
-      <c r="S233" s="19"/>
-      <c r="T233" s="19"/>
-      <c r="U233" s="19"/>
-      <c r="V233" s="19"/>
-      <c r="W233" s="19"/>
-      <c r="X233" s="19"/>
-      <c r="Y233" s="19"/>
-      <c r="Z233" s="19"/>
-      <c r="AA233" s="19"/>
-      <c r="AB233" s="19"/>
-      <c r="AC233" s="19"/>
-      <c r="AD233" s="19"/>
-      <c r="AE233" s="19"/>
-      <c r="AF233" s="19"/>
-      <c r="AG233" s="19"/>
-      <c r="AH233" s="19"/>
-      <c r="AI233" s="20"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="30"/>
+      <c r="H233" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF233" s="49"/>
+      <c r="AG233" s="49"/>
     </row>
     <row r="234" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="49"/>
@@ -9320,36 +9299,36 @@
       <c r="E234" s="30"/>
       <c r="F234" s="30"/>
       <c r="G234" s="17"/>
-      <c r="H234" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="I234" s="19"/>
-      <c r="J234" s="19"/>
-      <c r="K234" s="19"/>
-      <c r="L234" s="19"/>
-      <c r="M234" s="19"/>
-      <c r="N234" s="19"/>
-      <c r="O234" s="19"/>
-      <c r="P234" s="19"/>
-      <c r="Q234" s="19"/>
-      <c r="R234" s="19"/>
-      <c r="S234" s="19"/>
-      <c r="T234" s="19"/>
-      <c r="U234" s="19"/>
-      <c r="V234" s="19"/>
-      <c r="W234" s="19"/>
-      <c r="X234" s="19"/>
-      <c r="Y234" s="19"/>
-      <c r="Z234" s="19"/>
-      <c r="AA234" s="19"/>
-      <c r="AB234" s="19"/>
-      <c r="AC234" s="19"/>
-      <c r="AD234" s="19"/>
-      <c r="AE234" s="19"/>
-      <c r="AF234" s="19"/>
-      <c r="AG234" s="19"/>
-      <c r="AH234" s="19"/>
-      <c r="AI234" s="20"/>
+      <c r="H234" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="I234" s="24"/>
+      <c r="J234" s="24"/>
+      <c r="K234" s="24"/>
+      <c r="L234" s="24"/>
+      <c r="M234" s="24"/>
+      <c r="N234" s="24"/>
+      <c r="O234" s="24"/>
+      <c r="P234" s="24"/>
+      <c r="Q234" s="24"/>
+      <c r="R234" s="24"/>
+      <c r="S234" s="24"/>
+      <c r="T234" s="24"/>
+      <c r="U234" s="24"/>
+      <c r="V234" s="24"/>
+      <c r="W234" s="24"/>
+      <c r="X234" s="24"/>
+      <c r="Y234" s="24"/>
+      <c r="Z234" s="24"/>
+      <c r="AA234" s="24"/>
+      <c r="AB234" s="24"/>
+      <c r="AC234" s="24"/>
+      <c r="AD234" s="24"/>
+      <c r="AE234" s="24"/>
+      <c r="AF234" s="24"/>
+      <c r="AG234" s="24"/>
+      <c r="AH234" s="24"/>
+      <c r="AI234" s="25"/>
     </row>
     <row r="235" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="49"/>
@@ -9358,7 +9337,7 @@
       <c r="F235" s="30"/>
       <c r="G235" s="17"/>
       <c r="H235" s="42" t="s">
-        <v>235</v>
+        <v>358</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -9395,7 +9374,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>236</v>
+        <v>359</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9432,7 +9411,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9462,40 +9441,42 @@
       <c r="AH237" s="19"/>
       <c r="AI237" s="20"/>
     </row>
-    <row r="238" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E238" s="37"/>
-      <c r="F238" s="37"/>
-      <c r="G238" s="38"/>
-      <c r="H238" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="I238" s="22"/>
-      <c r="J238" s="22"/>
-      <c r="K238" s="22"/>
-      <c r="L238" s="22"/>
-      <c r="M238" s="22"/>
-      <c r="N238" s="22"/>
-      <c r="O238" s="22"/>
-      <c r="P238" s="22"/>
-      <c r="Q238" s="22"/>
-      <c r="R238" s="22"/>
-      <c r="S238" s="22"/>
-      <c r="T238" s="22"/>
-      <c r="U238" s="22"/>
-      <c r="V238" s="22"/>
-      <c r="W238" s="22"/>
-      <c r="X238" s="22"/>
-      <c r="Y238" s="22"/>
-      <c r="Z238" s="22"/>
-      <c r="AA238" s="22"/>
-      <c r="AB238" s="22"/>
-      <c r="AC238" s="22"/>
-      <c r="AD238" s="22"/>
-      <c r="AE238" s="22"/>
-      <c r="AF238" s="45"/>
-      <c r="AG238" s="45"/>
-      <c r="AH238" s="22"/>
-      <c r="AI238" s="26"/>
+    <row r="238" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="49"/>
+      <c r="B238" s="49"/>
+      <c r="E238" s="30"/>
+      <c r="F238" s="30"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="I238" s="19"/>
+      <c r="J238" s="19"/>
+      <c r="K238" s="19"/>
+      <c r="L238" s="19"/>
+      <c r="M238" s="19"/>
+      <c r="N238" s="19"/>
+      <c r="O238" s="19"/>
+      <c r="P238" s="19"/>
+      <c r="Q238" s="19"/>
+      <c r="R238" s="19"/>
+      <c r="S238" s="19"/>
+      <c r="T238" s="19"/>
+      <c r="U238" s="19"/>
+      <c r="V238" s="19"/>
+      <c r="W238" s="19"/>
+      <c r="X238" s="19"/>
+      <c r="Y238" s="19"/>
+      <c r="Z238" s="19"/>
+      <c r="AA238" s="19"/>
+      <c r="AB238" s="19"/>
+      <c r="AC238" s="19"/>
+      <c r="AD238" s="19"/>
+      <c r="AE238" s="19"/>
+      <c r="AF238" s="19"/>
+      <c r="AG238" s="19"/>
+      <c r="AH238" s="19"/>
+      <c r="AI238" s="20"/>
     </row>
     <row r="239" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="49"/>
@@ -9503,29 +9484,81 @@
       <c r="E239" s="30"/>
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
-      <c r="H239" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF239" s="49"/>
-      <c r="AG239" s="49"/>
-    </row>
-    <row r="240" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="49"/>
-      <c r="B240" s="49"/>
-      <c r="E240" s="30"/>
-      <c r="F240" s="30"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF240" s="49"/>
-      <c r="AG240" s="49"/>
+      <c r="H239" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="I239" s="19"/>
+      <c r="J239" s="19"/>
+      <c r="K239" s="19"/>
+      <c r="L239" s="19"/>
+      <c r="M239" s="19"/>
+      <c r="N239" s="19"/>
+      <c r="O239" s="19"/>
+      <c r="P239" s="19"/>
+      <c r="Q239" s="19"/>
+      <c r="R239" s="19"/>
+      <c r="S239" s="19"/>
+      <c r="T239" s="19"/>
+      <c r="U239" s="19"/>
+      <c r="V239" s="19"/>
+      <c r="W239" s="19"/>
+      <c r="X239" s="19"/>
+      <c r="Y239" s="19"/>
+      <c r="Z239" s="19"/>
+      <c r="AA239" s="19"/>
+      <c r="AB239" s="19"/>
+      <c r="AC239" s="19"/>
+      <c r="AD239" s="19"/>
+      <c r="AE239" s="19"/>
+      <c r="AF239" s="19"/>
+      <c r="AG239" s="19"/>
+      <c r="AH239" s="19"/>
+      <c r="AI239" s="20"/>
+    </row>
+    <row r="240" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E240" s="37"/>
+      <c r="F240" s="37"/>
+      <c r="G240" s="38"/>
+      <c r="H240" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I240" s="22"/>
+      <c r="J240" s="22"/>
+      <c r="K240" s="22"/>
+      <c r="L240" s="22"/>
+      <c r="M240" s="22"/>
+      <c r="N240" s="22"/>
+      <c r="O240" s="22"/>
+      <c r="P240" s="22"/>
+      <c r="Q240" s="22"/>
+      <c r="R240" s="22"/>
+      <c r="S240" s="22"/>
+      <c r="T240" s="22"/>
+      <c r="U240" s="22"/>
+      <c r="V240" s="22"/>
+      <c r="W240" s="22"/>
+      <c r="X240" s="22"/>
+      <c r="Y240" s="22"/>
+      <c r="Z240" s="22"/>
+      <c r="AA240" s="22"/>
+      <c r="AB240" s="22"/>
+      <c r="AC240" s="22"/>
+      <c r="AD240" s="22"/>
+      <c r="AE240" s="22"/>
+      <c r="AF240" s="45"/>
+      <c r="AG240" s="45"/>
+      <c r="AH240" s="22"/>
+      <c r="AI240" s="26"/>
     </row>
     <row r="241" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="49"/>
       <c r="B241" s="49"/>
       <c r="E241" s="30"/>
-      <c r="F241" s="17"/>
+      <c r="F241" s="30"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="AF241" s="49"/>
       <c r="AG241" s="49"/>
     </row>
@@ -9533,181 +9566,92 @@
       <c r="A242" s="49"/>
       <c r="B242" s="49"/>
       <c r="E242" s="30"/>
-      <c r="F242" s="17"/>
-      <c r="G242" s="30" t="str">
-        <f>$F$187&amp;"-8"</f>
-        <v>(3)-8</v>
-      </c>
+      <c r="F242" s="30"/>
+      <c r="G242" s="17"/>
       <c r="H242" s="16" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
     </row>
-    <row r="243" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="49"/>
-      <c r="B243" s="49"/>
+    <row r="243" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E243" s="30"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="30"/>
-      <c r="H243" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I243" s="28"/>
-      <c r="J243" s="28"/>
-      <c r="K243" s="28"/>
-      <c r="L243" s="28"/>
-      <c r="M243" s="28"/>
-      <c r="N243" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="O243" s="28"/>
-      <c r="P243" s="28"/>
-      <c r="Q243" s="29"/>
-      <c r="R243" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S243" s="28"/>
-      <c r="T243" s="28"/>
-      <c r="U243" s="28"/>
-      <c r="V243" s="28"/>
-      <c r="W243" s="28"/>
-      <c r="X243" s="28"/>
-      <c r="Y243" s="28"/>
-      <c r="Z243" s="28"/>
-      <c r="AA243" s="28"/>
-      <c r="AB243" s="28"/>
-      <c r="AC243" s="28"/>
-      <c r="AD243" s="28"/>
-      <c r="AE243" s="28"/>
-      <c r="AF243" s="28"/>
-      <c r="AG243" s="28"/>
-      <c r="AH243" s="28"/>
-      <c r="AI243" s="29"/>
+      <c r="F243" s="30"/>
+      <c r="G243" s="50"/>
+      <c r="H243" s="36" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="244" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="49"/>
       <c r="B244" s="49"/>
       <c r="E244" s="30"/>
-      <c r="H244" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I244" s="22"/>
-      <c r="J244" s="22"/>
-      <c r="K244" s="22"/>
-      <c r="L244" s="22"/>
-      <c r="M244" s="22"/>
-      <c r="N244" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="O244" s="22"/>
-      <c r="P244" s="22"/>
-      <c r="Q244" s="26"/>
-      <c r="R244" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="S244" s="22"/>
-      <c r="T244" s="22"/>
-      <c r="U244" s="22"/>
-      <c r="V244" s="22"/>
-      <c r="W244" s="22"/>
-      <c r="X244" s="22"/>
-      <c r="Y244" s="22"/>
-      <c r="Z244" s="22"/>
-      <c r="AA244" s="22"/>
-      <c r="AB244" s="22"/>
-      <c r="AC244" s="22"/>
-      <c r="AD244" s="22"/>
-      <c r="AE244" s="22"/>
-      <c r="AF244" s="45"/>
-      <c r="AG244" s="45"/>
-      <c r="AH244" s="22"/>
-      <c r="AI244" s="26"/>
+      <c r="F244" s="17"/>
+      <c r="AF244" s="49"/>
+      <c r="AG244" s="49"/>
     </row>
     <row r="245" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="49"/>
       <c r="B245" s="49"/>
       <c r="E245" s="30"/>
-      <c r="H245" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="I245" s="22"/>
-      <c r="J245" s="22"/>
-      <c r="K245" s="22"/>
-      <c r="L245" s="22"/>
-      <c r="M245" s="22"/>
-      <c r="N245" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="O245" s="22"/>
-      <c r="P245" s="22"/>
-      <c r="Q245" s="26"/>
-      <c r="R245" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="S245" s="22"/>
-      <c r="T245" s="22"/>
-      <c r="U245" s="22"/>
-      <c r="V245" s="22"/>
-      <c r="W245" s="22"/>
-      <c r="X245" s="22"/>
-      <c r="Y245" s="22"/>
-      <c r="Z245" s="22"/>
-      <c r="AA245" s="22"/>
-      <c r="AB245" s="22"/>
-      <c r="AC245" s="22"/>
-      <c r="AD245" s="22"/>
-      <c r="AE245" s="22"/>
-      <c r="AF245" s="45"/>
-      <c r="AG245" s="45"/>
-      <c r="AH245" s="22"/>
-      <c r="AI245" s="26"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="30" t="str">
+        <f>$F$187&amp;"-8"</f>
+        <v>(3)-8</v>
+      </c>
+      <c r="H245" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF245" s="49"/>
+      <c r="AG245" s="49"/>
     </row>
     <row r="246" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="49"/>
       <c r="B246" s="49"/>
       <c r="E246" s="30"/>
-      <c r="H246" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="I246" s="22"/>
-      <c r="J246" s="22"/>
-      <c r="K246" s="22"/>
-      <c r="L246" s="22"/>
-      <c r="M246" s="22"/>
-      <c r="N246" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="O246" s="22"/>
-      <c r="P246" s="22"/>
-      <c r="Q246" s="26"/>
-      <c r="R246" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="S246" s="22"/>
-      <c r="T246" s="22"/>
-      <c r="U246" s="22"/>
-      <c r="V246" s="22"/>
-      <c r="W246" s="22"/>
-      <c r="X246" s="22"/>
-      <c r="Y246" s="22"/>
-      <c r="Z246" s="22"/>
-      <c r="AA246" s="22"/>
-      <c r="AB246" s="22"/>
-      <c r="AC246" s="22"/>
-      <c r="AD246" s="22"/>
-      <c r="AE246" s="22"/>
-      <c r="AF246" s="45"/>
-      <c r="AG246" s="45"/>
-      <c r="AH246" s="22"/>
-      <c r="AI246" s="26"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="30"/>
+      <c r="H246" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I246" s="28"/>
+      <c r="J246" s="28"/>
+      <c r="K246" s="28"/>
+      <c r="L246" s="28"/>
+      <c r="M246" s="28"/>
+      <c r="N246" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O246" s="28"/>
+      <c r="P246" s="28"/>
+      <c r="Q246" s="29"/>
+      <c r="R246" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="S246" s="28"/>
+      <c r="T246" s="28"/>
+      <c r="U246" s="28"/>
+      <c r="V246" s="28"/>
+      <c r="W246" s="28"/>
+      <c r="X246" s="28"/>
+      <c r="Y246" s="28"/>
+      <c r="Z246" s="28"/>
+      <c r="AA246" s="28"/>
+      <c r="AB246" s="28"/>
+      <c r="AC246" s="28"/>
+      <c r="AD246" s="28"/>
+      <c r="AE246" s="28"/>
+      <c r="AF246" s="28"/>
+      <c r="AG246" s="28"/>
+      <c r="AH246" s="28"/>
+      <c r="AI246" s="29"/>
     </row>
     <row r="247" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="49"/>
       <c r="B247" s="49"/>
       <c r="E247" s="30"/>
       <c r="H247" s="21" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="I247" s="22"/>
       <c r="J247" s="22"/>
@@ -9715,13 +9659,13 @@
       <c r="L247" s="22"/>
       <c r="M247" s="22"/>
       <c r="N247" s="21" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="O247" s="22"/>
       <c r="P247" s="22"/>
       <c r="Q247" s="26"/>
       <c r="R247" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="S247" s="22"/>
       <c r="T247" s="22"/>
@@ -9746,7 +9690,7 @@
       <c r="B248" s="49"/>
       <c r="E248" s="30"/>
       <c r="H248" s="21" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="I248" s="22"/>
       <c r="J248" s="22"/>
@@ -9754,13 +9698,13 @@
       <c r="L248" s="22"/>
       <c r="M248" s="22"/>
       <c r="N248" s="21" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="O248" s="22"/>
       <c r="P248" s="22"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="22" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
@@ -9785,7 +9729,7 @@
       <c r="B249" s="49"/>
       <c r="E249" s="30"/>
       <c r="H249" s="21" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="22"/>
@@ -9793,13 +9737,13 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="21" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="O249" s="22"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="22" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
@@ -9824,7 +9768,7 @@
       <c r="B250" s="49"/>
       <c r="E250" s="30"/>
       <c r="H250" s="21" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="I250" s="22"/>
       <c r="J250" s="22"/>
@@ -9832,13 +9776,13 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="21" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="O250" s="22"/>
       <c r="P250" s="22"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="22" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
@@ -9863,7 +9807,7 @@
       <c r="B251" s="49"/>
       <c r="E251" s="30"/>
       <c r="H251" s="21" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I251" s="22"/>
       <c r="J251" s="22"/>
@@ -9871,13 +9815,13 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="21" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="O251" s="22"/>
       <c r="P251" s="22"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="22" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
@@ -9902,21 +9846,21 @@
       <c r="B252" s="49"/>
       <c r="E252" s="30"/>
       <c r="H252" s="21" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
       <c r="K252" s="22"/>
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
-      <c r="N252" s="41" t="s">
-        <v>249</v>
+      <c r="N252" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="O252" s="22"/>
       <c r="P252" s="22"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="22" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
@@ -9941,21 +9885,21 @@
       <c r="B253" s="49"/>
       <c r="E253" s="30"/>
       <c r="H253" s="21" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I253" s="22"/>
       <c r="J253" s="22"/>
       <c r="K253" s="22"/>
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
-      <c r="N253" s="41" t="s">
-        <v>250</v>
+      <c r="N253" s="21" t="s">
+        <v>235</v>
       </c>
       <c r="O253" s="22"/>
       <c r="P253" s="22"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="22" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
@@ -9980,21 +9924,21 @@
       <c r="B254" s="49"/>
       <c r="E254" s="30"/>
       <c r="H254" s="21" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="I254" s="22"/>
       <c r="J254" s="22"/>
       <c r="K254" s="22"/>
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
-      <c r="N254" s="41" t="s">
-        <v>251</v>
+      <c r="N254" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="O254" s="22"/>
       <c r="P254" s="22"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="22" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
@@ -10018,80 +9962,124 @@
       <c r="A255" s="49"/>
       <c r="B255" s="49"/>
       <c r="E255" s="30"/>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="19"/>
-      <c r="K255" s="19"/>
-      <c r="L255" s="19"/>
-      <c r="M255" s="19"/>
-      <c r="N255" s="19"/>
-      <c r="O255" s="19"/>
-      <c r="P255" s="19"/>
-      <c r="AF255" s="49"/>
-      <c r="AG255" s="49"/>
+      <c r="H255" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="I255" s="22"/>
+      <c r="J255" s="22"/>
+      <c r="K255" s="22"/>
+      <c r="L255" s="22"/>
+      <c r="M255" s="22"/>
+      <c r="N255" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="O255" s="22"/>
+      <c r="P255" s="22"/>
+      <c r="Q255" s="26"/>
+      <c r="R255" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="S255" s="22"/>
+      <c r="T255" s="22"/>
+      <c r="U255" s="22"/>
+      <c r="V255" s="22"/>
+      <c r="W255" s="22"/>
+      <c r="X255" s="22"/>
+      <c r="Y255" s="22"/>
+      <c r="Z255" s="22"/>
+      <c r="AA255" s="22"/>
+      <c r="AB255" s="22"/>
+      <c r="AC255" s="22"/>
+      <c r="AD255" s="22"/>
+      <c r="AE255" s="22"/>
+      <c r="AF255" s="45"/>
+      <c r="AG255" s="45"/>
+      <c r="AH255" s="22"/>
+      <c r="AI255" s="26"/>
     </row>
     <row r="256" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="49"/>
       <c r="B256" s="49"/>
       <c r="E256" s="30"/>
-      <c r="F256" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G256" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF256" s="49"/>
-      <c r="AG256" s="49"/>
+      <c r="H256" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I256" s="22"/>
+      <c r="J256" s="22"/>
+      <c r="K256" s="22"/>
+      <c r="L256" s="22"/>
+      <c r="M256" s="22"/>
+      <c r="N256" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="O256" s="22"/>
+      <c r="P256" s="22"/>
+      <c r="Q256" s="26"/>
+      <c r="R256" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="S256" s="22"/>
+      <c r="T256" s="22"/>
+      <c r="U256" s="22"/>
+      <c r="V256" s="22"/>
+      <c r="W256" s="22"/>
+      <c r="X256" s="22"/>
+      <c r="Y256" s="22"/>
+      <c r="Z256" s="22"/>
+      <c r="AA256" s="22"/>
+      <c r="AB256" s="22"/>
+      <c r="AC256" s="22"/>
+      <c r="AD256" s="22"/>
+      <c r="AE256" s="22"/>
+      <c r="AF256" s="45"/>
+      <c r="AG256" s="45"/>
+      <c r="AH256" s="22"/>
+      <c r="AI256" s="26"/>
     </row>
     <row r="257" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="49"/>
       <c r="B257" s="49"/>
       <c r="E257" s="30"/>
-      <c r="F257" s="17" t="str">
-        <f>$G$188&amp;" →"</f>
-        <v>(3)-1 →</v>
-      </c>
-      <c r="G257" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="H257" s="54"/>
-      <c r="I257" s="24"/>
-      <c r="J257" s="24"/>
-      <c r="K257" s="24"/>
-      <c r="L257" s="24"/>
-      <c r="M257" s="24"/>
-      <c r="N257" s="24"/>
-      <c r="O257" s="24"/>
-      <c r="P257" s="24"/>
-      <c r="Q257" s="24"/>
-      <c r="R257" s="24"/>
-      <c r="S257" s="24"/>
-      <c r="T257" s="24"/>
-      <c r="U257" s="24"/>
-      <c r="V257" s="24"/>
-      <c r="W257" s="24"/>
-      <c r="X257" s="24"/>
-      <c r="Y257" s="24"/>
-      <c r="Z257" s="24"/>
-      <c r="AA257" s="24"/>
-      <c r="AB257" s="24"/>
-      <c r="AC257" s="24"/>
-      <c r="AD257" s="24"/>
-      <c r="AE257" s="24"/>
-      <c r="AF257" s="24"/>
-      <c r="AG257" s="24"/>
-      <c r="AH257" s="24"/>
-      <c r="AI257" s="25"/>
+      <c r="H257" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="I257" s="22"/>
+      <c r="J257" s="22"/>
+      <c r="K257" s="22"/>
+      <c r="L257" s="22"/>
+      <c r="M257" s="22"/>
+      <c r="N257" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="O257" s="22"/>
+      <c r="P257" s="22"/>
+      <c r="Q257" s="26"/>
+      <c r="R257" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="S257" s="22"/>
+      <c r="T257" s="22"/>
+      <c r="U257" s="22"/>
+      <c r="V257" s="22"/>
+      <c r="W257" s="22"/>
+      <c r="X257" s="22"/>
+      <c r="Y257" s="22"/>
+      <c r="Z257" s="22"/>
+      <c r="AA257" s="22"/>
+      <c r="AB257" s="22"/>
+      <c r="AC257" s="22"/>
+      <c r="AD257" s="22"/>
+      <c r="AE257" s="22"/>
+      <c r="AF257" s="45"/>
+      <c r="AG257" s="45"/>
+      <c r="AH257" s="22"/>
+      <c r="AI257" s="26"/>
     </row>
     <row r="258" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="49"/>
       <c r="B258" s="49"/>
       <c r="E258" s="30"/>
-      <c r="F258" s="17"/>
-      <c r="G258" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="H258" s="55"/>
+      <c r="H258" s="19"/>
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
       <c r="K258" s="19"/>
@@ -10100,109 +10088,71 @@
       <c r="N258" s="19"/>
       <c r="O258" s="19"/>
       <c r="P258" s="19"/>
-      <c r="Q258" s="19"/>
-      <c r="R258" s="19"/>
-      <c r="S258" s="19"/>
-      <c r="T258" s="19"/>
-      <c r="U258" s="19"/>
-      <c r="V258" s="19"/>
-      <c r="W258" s="19"/>
-      <c r="X258" s="19"/>
-      <c r="Y258" s="19"/>
-      <c r="Z258" s="19"/>
-      <c r="AA258" s="19"/>
-      <c r="AB258" s="19"/>
-      <c r="AC258" s="19"/>
-      <c r="AD258" s="19"/>
-      <c r="AE258" s="19"/>
-      <c r="AF258" s="19"/>
-      <c r="AG258" s="19"/>
-      <c r="AH258" s="19"/>
-      <c r="AI258" s="20"/>
+      <c r="AF258" s="49"/>
+      <c r="AG258" s="49"/>
     </row>
     <row r="259" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="49"/>
       <c r="B259" s="49"/>
       <c r="E259" s="30"/>
-      <c r="F259" s="17"/>
-      <c r="G259" s="52"/>
-      <c r="H259" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="I259" s="19"/>
-      <c r="J259" s="19"/>
-      <c r="K259" s="19"/>
-      <c r="L259" s="19"/>
-      <c r="M259" s="19"/>
-      <c r="N259" s="19"/>
-      <c r="O259" s="19"/>
-      <c r="P259" s="19"/>
-      <c r="Q259" s="19"/>
-      <c r="R259" s="19"/>
-      <c r="S259" s="19"/>
-      <c r="T259" s="19"/>
-      <c r="U259" s="19"/>
-      <c r="V259" s="19"/>
-      <c r="W259" s="19"/>
-      <c r="X259" s="19"/>
-      <c r="Y259" s="19"/>
-      <c r="Z259" s="19"/>
-      <c r="AA259" s="19"/>
-      <c r="AB259" s="19"/>
-      <c r="AC259" s="19"/>
-      <c r="AD259" s="19"/>
-      <c r="AE259" s="19"/>
-      <c r="AF259" s="19"/>
-      <c r="AG259" s="19"/>
-      <c r="AH259" s="19"/>
-      <c r="AI259" s="20"/>
+      <c r="F259" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G259" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF259" s="49"/>
+      <c r="AG259" s="49"/>
     </row>
     <row r="260" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="49"/>
       <c r="B260" s="49"/>
       <c r="E260" s="30"/>
-      <c r="F260" s="17"/>
-      <c r="G260" s="52"/>
-      <c r="H260" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="I260" s="19"/>
-      <c r="J260" s="19"/>
-      <c r="K260" s="19"/>
-      <c r="L260" s="19"/>
-      <c r="M260" s="19"/>
-      <c r="N260" s="19"/>
-      <c r="O260" s="19"/>
-      <c r="P260" s="19"/>
-      <c r="Q260" s="19"/>
-      <c r="R260" s="19"/>
-      <c r="S260" s="19"/>
-      <c r="T260" s="19"/>
-      <c r="U260" s="19"/>
-      <c r="V260" s="19"/>
-      <c r="W260" s="19"/>
-      <c r="X260" s="19"/>
-      <c r="Y260" s="19"/>
-      <c r="Z260" s="19"/>
-      <c r="AA260" s="19"/>
-      <c r="AB260" s="19"/>
-      <c r="AC260" s="19"/>
-      <c r="AD260" s="19"/>
-      <c r="AE260" s="19"/>
-      <c r="AF260" s="19"/>
-      <c r="AG260" s="19"/>
-      <c r="AH260" s="19"/>
-      <c r="AI260" s="20"/>
+      <c r="F260" s="17" t="str">
+        <f>$G$188&amp;" →"</f>
+        <v>(3)-1 →</v>
+      </c>
+      <c r="G260" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="H260" s="54"/>
+      <c r="I260" s="24"/>
+      <c r="J260" s="24"/>
+      <c r="K260" s="24"/>
+      <c r="L260" s="24"/>
+      <c r="M260" s="24"/>
+      <c r="N260" s="24"/>
+      <c r="O260" s="24"/>
+      <c r="P260" s="24"/>
+      <c r="Q260" s="24"/>
+      <c r="R260" s="24"/>
+      <c r="S260" s="24"/>
+      <c r="T260" s="24"/>
+      <c r="U260" s="24"/>
+      <c r="V260" s="24"/>
+      <c r="W260" s="24"/>
+      <c r="X260" s="24"/>
+      <c r="Y260" s="24"/>
+      <c r="Z260" s="24"/>
+      <c r="AA260" s="24"/>
+      <c r="AB260" s="24"/>
+      <c r="AC260" s="24"/>
+      <c r="AD260" s="24"/>
+      <c r="AE260" s="24"/>
+      <c r="AF260" s="24"/>
+      <c r="AG260" s="24"/>
+      <c r="AH260" s="24"/>
+      <c r="AI260" s="25"/>
     </row>
     <row r="261" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="49"/>
       <c r="B261" s="49"/>
       <c r="E261" s="30"/>
       <c r="F261" s="17"/>
-      <c r="G261" s="52"/>
-      <c r="H261" s="55" t="s">
-        <v>146</v>
-      </c>
+      <c r="G261" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="H261" s="55"/>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
       <c r="K261" s="19"/>
@@ -10238,7 +10188,7 @@
       <c r="F262" s="17"/>
       <c r="G262" s="52"/>
       <c r="H262" s="55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
@@ -10275,7 +10225,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="52"/>
       <c r="H263" s="55" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
@@ -10311,10 +10261,10 @@
       <c r="E264" s="30"/>
       <c r="F264" s="17"/>
       <c r="G264" s="52"/>
-      <c r="H264" s="55"/>
-      <c r="I264" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="H264" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="I264" s="19"/>
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
       <c r="L264" s="19"/>
@@ -10348,10 +10298,10 @@
       <c r="E265" s="30"/>
       <c r="F265" s="17"/>
       <c r="G265" s="52"/>
-      <c r="H265" s="55"/>
-      <c r="I265" s="19" t="s">
-        <v>278</v>
-      </c>
+      <c r="H265" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I265" s="19"/>
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
       <c r="L265" s="19"/>
@@ -10386,7 +10336,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="52"/>
       <c r="H266" s="55" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10421,11 +10371,11 @@
       <c r="B267" s="49"/>
       <c r="E267" s="30"/>
       <c r="F267" s="17"/>
-      <c r="G267" s="52" t="s">
-        <v>280</v>
-      </c>
+      <c r="G267" s="52"/>
       <c r="H267" s="55"/>
-      <c r="I267" s="19"/>
+      <c r="I267" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
       <c r="L267" s="19"/>
@@ -10457,15 +10407,12 @@
       <c r="A268" s="49"/>
       <c r="B268" s="49"/>
       <c r="E268" s="30"/>
-      <c r="F268" s="17" t="str">
-        <f>$G$211&amp;" →"</f>
-        <v>(3)-3 →</v>
-      </c>
-      <c r="G268" s="52" t="s">
-        <v>274</v>
-      </c>
+      <c r="F268" s="17"/>
+      <c r="G268" s="52"/>
       <c r="H268" s="55"/>
-      <c r="I268" s="19"/>
+      <c r="I268" s="19" t="s">
+        <v>266</v>
+      </c>
       <c r="J268" s="19"/>
       <c r="K268" s="19"/>
       <c r="L268" s="19"/>
@@ -10500,7 +10447,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="52"/>
       <c r="H269" s="55" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
@@ -10535,11 +10482,11 @@
       <c r="B270" s="49"/>
       <c r="E270" s="30"/>
       <c r="F270" s="17"/>
-      <c r="G270" s="52"/>
+      <c r="G270" s="52" t="s">
+        <v>268</v>
+      </c>
       <c r="H270" s="55"/>
-      <c r="I270" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="I270" s="19"/>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
       <c r="L270" s="19"/>
@@ -10571,12 +10518,15 @@
       <c r="A271" s="49"/>
       <c r="B271" s="49"/>
       <c r="E271" s="30"/>
-      <c r="F271" s="17"/>
-      <c r="G271" s="52"/>
+      <c r="F271" s="17" t="str">
+        <f>$G$212&amp;" →"</f>
+        <v>(3)-3 →</v>
+      </c>
+      <c r="G271" s="52" t="s">
+        <v>262</v>
+      </c>
       <c r="H271" s="55"/>
-      <c r="I271" s="19" t="s">
-        <v>150</v>
-      </c>
+      <c r="I271" s="19"/>
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
       <c r="L271" s="19"/>
@@ -10608,14 +10558,11 @@
       <c r="A272" s="49"/>
       <c r="B272" s="49"/>
       <c r="E272" s="30"/>
-      <c r="F272" s="17" t="str">
-        <f>$G$221&amp;" →"</f>
-        <v>(3)-5 →</v>
-      </c>
-      <c r="G272" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="H272" s="55"/>
+      <c r="F272" s="17"/>
+      <c r="G272" s="52"/>
+      <c r="H272" s="55" t="s">
+        <v>148</v>
+      </c>
       <c r="I272" s="19"/>
       <c r="J272" s="19"/>
       <c r="K272" s="19"/>
@@ -10648,15 +10595,12 @@
       <c r="A273" s="49"/>
       <c r="B273" s="49"/>
       <c r="E273" s="30"/>
-      <c r="F273" s="17" t="str">
-        <f>$G$230&amp;" →"</f>
-        <v>(3)-7 →</v>
-      </c>
-      <c r="G273" s="52" t="s">
-        <v>276</v>
-      </c>
+      <c r="F273" s="17"/>
+      <c r="G273" s="52"/>
       <c r="H273" s="55"/>
-      <c r="I273" s="19"/>
+      <c r="I273" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="J273" s="19"/>
       <c r="K273" s="19"/>
       <c r="L273" s="19"/>
@@ -10689,11 +10633,11 @@
       <c r="B274" s="49"/>
       <c r="E274" s="30"/>
       <c r="F274" s="17"/>
-      <c r="G274" s="52" t="s">
-        <v>157</v>
-      </c>
+      <c r="G274" s="52"/>
       <c r="H274" s="55"/>
-      <c r="I274" s="19"/>
+      <c r="I274" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="J274" s="19"/>
       <c r="K274" s="19"/>
       <c r="L274" s="19"/>
@@ -10725,9 +10669,12 @@
       <c r="A275" s="49"/>
       <c r="B275" s="49"/>
       <c r="E275" s="30"/>
-      <c r="F275" s="17"/>
+      <c r="F275" s="17" t="str">
+        <f>$G$223&amp;" →"</f>
+        <v>(3)-5 →</v>
+      </c>
       <c r="G275" s="52" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="H275" s="55"/>
       <c r="I275" s="19"/>
@@ -10762,11 +10709,14 @@
       <c r="A276" s="49"/>
       <c r="B276" s="49"/>
       <c r="E276" s="30"/>
-      <c r="F276" s="17"/>
-      <c r="G276" s="52"/>
-      <c r="H276" s="55" t="s">
-        <v>151</v>
-      </c>
+      <c r="F276" s="17" t="str">
+        <f>$G$232&amp;" →"</f>
+        <v>(3)-7 →</v>
+      </c>
+      <c r="G276" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="H276" s="55"/>
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
       <c r="K276" s="19"/>
@@ -10800,10 +10750,10 @@
       <c r="B277" s="49"/>
       <c r="E277" s="30"/>
       <c r="F277" s="17"/>
-      <c r="G277" s="52"/>
-      <c r="H277" s="55" t="s">
-        <v>152</v>
-      </c>
+      <c r="G277" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H277" s="55"/>
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
       <c r="K277" s="19"/>
@@ -10837,10 +10787,10 @@
       <c r="B278" s="49"/>
       <c r="E278" s="30"/>
       <c r="F278" s="17"/>
-      <c r="G278" s="52"/>
-      <c r="H278" s="55" t="s">
-        <v>153</v>
-      </c>
+      <c r="G278" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="H278" s="55"/>
       <c r="I278" s="19"/>
       <c r="J278" s="19"/>
       <c r="K278" s="19"/>
@@ -10876,7 +10826,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="52"/>
       <c r="H279" s="55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
@@ -10911,53 +10861,84 @@
       <c r="B280" s="49"/>
       <c r="E280" s="30"/>
       <c r="F280" s="17"/>
-      <c r="G280" s="53"/>
-      <c r="H280" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="I280" s="22"/>
-      <c r="J280" s="22"/>
-      <c r="K280" s="22"/>
-      <c r="L280" s="22"/>
-      <c r="M280" s="22"/>
-      <c r="N280" s="22"/>
-      <c r="O280" s="22"/>
-      <c r="P280" s="22"/>
-      <c r="Q280" s="22"/>
-      <c r="R280" s="22"/>
-      <c r="S280" s="22"/>
-      <c r="T280" s="22"/>
-      <c r="U280" s="22"/>
-      <c r="V280" s="22"/>
-      <c r="W280" s="22"/>
-      <c r="X280" s="22"/>
-      <c r="Y280" s="22"/>
-      <c r="Z280" s="22"/>
-      <c r="AA280" s="22"/>
-      <c r="AB280" s="22"/>
-      <c r="AC280" s="22"/>
-      <c r="AD280" s="22"/>
-      <c r="AE280" s="22"/>
-      <c r="AF280" s="45"/>
-      <c r="AG280" s="45"/>
-      <c r="AH280" s="22"/>
-      <c r="AI280" s="26"/>
+      <c r="G280" s="52"/>
+      <c r="H280" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I280" s="19"/>
+      <c r="J280" s="19"/>
+      <c r="K280" s="19"/>
+      <c r="L280" s="19"/>
+      <c r="M280" s="19"/>
+      <c r="N280" s="19"/>
+      <c r="O280" s="19"/>
+      <c r="P280" s="19"/>
+      <c r="Q280" s="19"/>
+      <c r="R280" s="19"/>
+      <c r="S280" s="19"/>
+      <c r="T280" s="19"/>
+      <c r="U280" s="19"/>
+      <c r="V280" s="19"/>
+      <c r="W280" s="19"/>
+      <c r="X280" s="19"/>
+      <c r="Y280" s="19"/>
+      <c r="Z280" s="19"/>
+      <c r="AA280" s="19"/>
+      <c r="AB280" s="19"/>
+      <c r="AC280" s="19"/>
+      <c r="AD280" s="19"/>
+      <c r="AE280" s="19"/>
+      <c r="AF280" s="19"/>
+      <c r="AG280" s="19"/>
+      <c r="AH280" s="19"/>
+      <c r="AI280" s="20"/>
     </row>
     <row r="281" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="49"/>
       <c r="B281" s="49"/>
       <c r="E281" s="30"/>
       <c r="F281" s="17"/>
-      <c r="AF281" s="49"/>
-      <c r="AG281" s="49"/>
+      <c r="G281" s="52"/>
+      <c r="H281" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I281" s="19"/>
+      <c r="J281" s="19"/>
+      <c r="K281" s="19"/>
+      <c r="L281" s="19"/>
+      <c r="M281" s="19"/>
+      <c r="N281" s="19"/>
+      <c r="O281" s="19"/>
+      <c r="P281" s="19"/>
+      <c r="Q281" s="19"/>
+      <c r="R281" s="19"/>
+      <c r="S281" s="19"/>
+      <c r="T281" s="19"/>
+      <c r="U281" s="19"/>
+      <c r="V281" s="19"/>
+      <c r="W281" s="19"/>
+      <c r="X281" s="19"/>
+      <c r="Y281" s="19"/>
+      <c r="Z281" s="19"/>
+      <c r="AA281" s="19"/>
+      <c r="AB281" s="19"/>
+      <c r="AC281" s="19"/>
+      <c r="AD281" s="19"/>
+      <c r="AE281" s="19"/>
+      <c r="AF281" s="19"/>
+      <c r="AG281" s="19"/>
+      <c r="AH281" s="19"/>
+      <c r="AI281" s="20"/>
     </row>
     <row r="282" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="49"/>
       <c r="B282" s="49"/>
       <c r="E282" s="30"/>
       <c r="F282" s="17"/>
-      <c r="G282" s="19"/>
-      <c r="H282" s="19"/>
+      <c r="G282" s="52"/>
+      <c r="H282" s="55" t="s">
+        <v>154</v>
+      </c>
       <c r="I282" s="19"/>
       <c r="J282" s="19"/>
       <c r="K282" s="19"/>
@@ -10984,31 +10965,50 @@
       <c r="AF282" s="19"/>
       <c r="AG282" s="19"/>
       <c r="AH282" s="19"/>
-      <c r="AI282" s="19"/>
+      <c r="AI282" s="20"/>
     </row>
     <row r="283" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="49"/>
       <c r="B283" s="49"/>
-      <c r="E283" s="30" t="str">
-        <f>$D$110&amp;"3."</f>
-        <v>7.13.3.3.</v>
-      </c>
-      <c r="F283" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF283" s="49"/>
-      <c r="AG283" s="49"/>
+      <c r="E283" s="30"/>
+      <c r="F283" s="17"/>
+      <c r="G283" s="53"/>
+      <c r="H283" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="I283" s="22"/>
+      <c r="J283" s="22"/>
+      <c r="K283" s="22"/>
+      <c r="L283" s="22"/>
+      <c r="M283" s="22"/>
+      <c r="N283" s="22"/>
+      <c r="O283" s="22"/>
+      <c r="P283" s="22"/>
+      <c r="Q283" s="22"/>
+      <c r="R283" s="22"/>
+      <c r="S283" s="22"/>
+      <c r="T283" s="22"/>
+      <c r="U283" s="22"/>
+      <c r="V283" s="22"/>
+      <c r="W283" s="22"/>
+      <c r="X283" s="22"/>
+      <c r="Y283" s="22"/>
+      <c r="Z283" s="22"/>
+      <c r="AA283" s="22"/>
+      <c r="AB283" s="22"/>
+      <c r="AC283" s="22"/>
+      <c r="AD283" s="22"/>
+      <c r="AE283" s="22"/>
+      <c r="AF283" s="45"/>
+      <c r="AG283" s="45"/>
+      <c r="AH283" s="22"/>
+      <c r="AI283" s="26"/>
     </row>
     <row r="284" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="49"/>
       <c r="B284" s="49"/>
       <c r="E284" s="30"/>
-      <c r="F284" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G284" s="16" t="s">
-        <v>131</v>
-      </c>
+      <c r="F284" s="17"/>
       <c r="AF284" s="49"/>
       <c r="AG284" s="49"/>
     </row>
@@ -11016,167 +11016,105 @@
       <c r="A285" s="49"/>
       <c r="B285" s="49"/>
       <c r="E285" s="30"/>
-      <c r="F285" s="31"/>
-      <c r="G285" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H285" s="28"/>
-      <c r="I285" s="28"/>
-      <c r="J285" s="29"/>
-      <c r="K285" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="L285" s="28"/>
-      <c r="M285" s="29"/>
-      <c r="N285" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="O285" s="28"/>
-      <c r="P285" s="28"/>
-      <c r="Q285" s="28"/>
-      <c r="R285" s="29"/>
-      <c r="S285" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="T285" s="28"/>
-      <c r="U285" s="28"/>
-      <c r="V285" s="28"/>
-      <c r="W285" s="28"/>
-      <c r="X285" s="28"/>
-      <c r="Y285" s="28"/>
-      <c r="Z285" s="28"/>
-      <c r="AA285" s="28"/>
-      <c r="AB285" s="28"/>
-      <c r="AC285" s="28"/>
-      <c r="AD285" s="28"/>
-      <c r="AE285" s="28"/>
-      <c r="AF285" s="28"/>
-      <c r="AG285" s="28"/>
-      <c r="AH285" s="28"/>
-      <c r="AI285" s="29"/>
+      <c r="F285" s="17"/>
+      <c r="G285" s="19"/>
+      <c r="H285" s="19"/>
+      <c r="I285" s="19"/>
+      <c r="J285" s="19"/>
+      <c r="K285" s="19"/>
+      <c r="L285" s="19"/>
+      <c r="M285" s="19"/>
+      <c r="N285" s="19"/>
+      <c r="O285" s="19"/>
+      <c r="P285" s="19"/>
+      <c r="Q285" s="19"/>
+      <c r="R285" s="19"/>
+      <c r="S285" s="19"/>
+      <c r="T285" s="19"/>
+      <c r="U285" s="19"/>
+      <c r="V285" s="19"/>
+      <c r="W285" s="19"/>
+      <c r="X285" s="19"/>
+      <c r="Y285" s="19"/>
+      <c r="Z285" s="19"/>
+      <c r="AA285" s="19"/>
+      <c r="AB285" s="19"/>
+      <c r="AC285" s="19"/>
+      <c r="AD285" s="19"/>
+      <c r="AE285" s="19"/>
+      <c r="AF285" s="19"/>
+      <c r="AG285" s="19"/>
+      <c r="AH285" s="19"/>
+      <c r="AI285" s="19"/>
     </row>
     <row r="286" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="49"/>
       <c r="B286" s="49"/>
-      <c r="E286" s="30"/>
-      <c r="F286" s="31"/>
-      <c r="G286" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H286" s="47"/>
-      <c r="I286" s="47"/>
-      <c r="J286" s="48"/>
-      <c r="K286" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="L286" s="47"/>
-      <c r="M286" s="48"/>
-      <c r="N286" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="O286" s="47"/>
-      <c r="P286" s="47"/>
-      <c r="Q286" s="47"/>
-      <c r="R286" s="48"/>
-      <c r="S286" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="T286" s="47"/>
-      <c r="U286" s="47"/>
-      <c r="V286" s="47"/>
-      <c r="W286" s="47"/>
-      <c r="X286" s="47"/>
-      <c r="Y286" s="47"/>
-      <c r="Z286" s="47"/>
-      <c r="AA286" s="47"/>
-      <c r="AB286" s="47"/>
-      <c r="AC286" s="47"/>
-      <c r="AD286" s="47"/>
-      <c r="AE286" s="47"/>
-      <c r="AF286" s="47"/>
-      <c r="AG286" s="47"/>
-      <c r="AH286" s="47"/>
-      <c r="AI286" s="48"/>
+      <c r="E286" s="30" t="str">
+        <f>$D$110&amp;"3."</f>
+        <v>7.13.3.3.</v>
+      </c>
+      <c r="F286" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF286" s="49"/>
+      <c r="AG286" s="49"/>
     </row>
     <row r="287" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="49"/>
       <c r="B287" s="49"/>
       <c r="E287" s="30"/>
-      <c r="F287" s="31"/>
-      <c r="G287" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H287" s="19"/>
-      <c r="I287" s="19"/>
-      <c r="J287" s="20"/>
-      <c r="K287" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L287" s="19"/>
-      <c r="M287" s="20"/>
-      <c r="N287" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="O287" s="19"/>
-      <c r="P287" s="19"/>
-      <c r="Q287" s="19"/>
-      <c r="R287" s="20"/>
-      <c r="S287" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="T287" s="19"/>
-      <c r="U287" s="19"/>
-      <c r="V287" s="19"/>
-      <c r="W287" s="19"/>
-      <c r="X287" s="19"/>
-      <c r="Y287" s="19"/>
-      <c r="Z287" s="19"/>
-      <c r="AA287" s="19"/>
-      <c r="AB287" s="19"/>
-      <c r="AC287" s="19"/>
-      <c r="AD287" s="19"/>
-      <c r="AE287" s="19"/>
-      <c r="AF287" s="19"/>
-      <c r="AG287" s="19"/>
-      <c r="AH287" s="19"/>
-      <c r="AI287" s="20"/>
+      <c r="F287" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G287" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF287" s="49"/>
+      <c r="AG287" s="49"/>
     </row>
     <row r="288" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="49"/>
       <c r="B288" s="49"/>
       <c r="E288" s="30"/>
       <c r="F288" s="31"/>
-      <c r="G288" s="21"/>
-      <c r="H288" s="22"/>
-      <c r="I288" s="22"/>
-      <c r="J288" s="26"/>
-      <c r="K288" s="22"/>
-      <c r="L288" s="22"/>
-      <c r="M288" s="26"/>
-      <c r="N288" s="22"/>
-      <c r="O288" s="22"/>
-      <c r="P288" s="22"/>
-      <c r="Q288" s="22"/>
-      <c r="R288" s="26"/>
-      <c r="S288" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="T288" s="22"/>
-      <c r="U288" s="22"/>
-      <c r="V288" s="22"/>
-      <c r="W288" s="22"/>
-      <c r="X288" s="22"/>
-      <c r="Y288" s="22"/>
-      <c r="Z288" s="22"/>
-      <c r="AA288" s="22"/>
-      <c r="AB288" s="22"/>
-      <c r="AC288" s="22"/>
-      <c r="AD288" s="22"/>
-      <c r="AE288" s="22"/>
-      <c r="AF288" s="45"/>
-      <c r="AG288" s="45"/>
-      <c r="AH288" s="22"/>
-      <c r="AI288" s="26"/>
+      <c r="G288" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H288" s="28"/>
+      <c r="I288" s="28"/>
+      <c r="J288" s="29"/>
+      <c r="K288" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="L288" s="28"/>
+      <c r="M288" s="29"/>
+      <c r="N288" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="O288" s="28"/>
+      <c r="P288" s="28"/>
+      <c r="Q288" s="28"/>
+      <c r="R288" s="29"/>
+      <c r="S288" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="T288" s="28"/>
+      <c r="U288" s="28"/>
+      <c r="V288" s="28"/>
+      <c r="W288" s="28"/>
+      <c r="X288" s="28"/>
+      <c r="Y288" s="28"/>
+      <c r="Z288" s="28"/>
+      <c r="AA288" s="28"/>
+      <c r="AB288" s="28"/>
+      <c r="AC288" s="28"/>
+      <c r="AD288" s="28"/>
+      <c r="AE288" s="28"/>
+      <c r="AF288" s="28"/>
+      <c r="AG288" s="28"/>
+      <c r="AH288" s="28"/>
+      <c r="AI288" s="29"/>
     </row>
     <row r="289" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="49"/>
@@ -11184,162 +11122,198 @@
       <c r="E289" s="30"/>
       <c r="F289" s="31"/>
       <c r="G289" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H289" s="33"/>
-      <c r="I289" s="33"/>
-      <c r="J289" s="34"/>
-      <c r="K289" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="L289" s="33"/>
-      <c r="M289" s="34"/>
-      <c r="N289" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="O289" s="33"/>
-      <c r="P289" s="33"/>
-      <c r="Q289" s="33"/>
-      <c r="R289" s="34"/>
-      <c r="S289" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="T289" s="33"/>
-      <c r="U289" s="33"/>
-      <c r="V289" s="33"/>
-      <c r="W289" s="33"/>
-      <c r="X289" s="33"/>
-      <c r="Y289" s="33"/>
-      <c r="Z289" s="33"/>
-      <c r="AA289" s="33"/>
-      <c r="AB289" s="33"/>
-      <c r="AC289" s="33"/>
-      <c r="AD289" s="33"/>
-      <c r="AE289" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="H289" s="47"/>
+      <c r="I289" s="47"/>
+      <c r="J289" s="48"/>
+      <c r="K289" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="L289" s="47"/>
+      <c r="M289" s="48"/>
+      <c r="N289" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O289" s="47"/>
+      <c r="P289" s="47"/>
+      <c r="Q289" s="47"/>
+      <c r="R289" s="48"/>
+      <c r="S289" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="T289" s="47"/>
+      <c r="U289" s="47"/>
+      <c r="V289" s="47"/>
+      <c r="W289" s="47"/>
+      <c r="X289" s="47"/>
+      <c r="Y289" s="47"/>
+      <c r="Z289" s="47"/>
+      <c r="AA289" s="47"/>
+      <c r="AB289" s="47"/>
+      <c r="AC289" s="47"/>
+      <c r="AD289" s="47"/>
+      <c r="AE289" s="47"/>
       <c r="AF289" s="47"/>
       <c r="AG289" s="47"/>
-      <c r="AH289" s="33"/>
-      <c r="AI289" s="34"/>
+      <c r="AH289" s="47"/>
+      <c r="AI289" s="48"/>
     </row>
     <row r="290" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="49"/>
       <c r="B290" s="49"/>
       <c r="E290" s="30"/>
       <c r="F290" s="31"/>
-      <c r="AF290" s="49"/>
-      <c r="AG290" s="49"/>
+      <c r="G290" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H290" s="19"/>
+      <c r="I290" s="19"/>
+      <c r="J290" s="20"/>
+      <c r="K290" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L290" s="19"/>
+      <c r="M290" s="20"/>
+      <c r="N290" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O290" s="19"/>
+      <c r="P290" s="19"/>
+      <c r="Q290" s="19"/>
+      <c r="R290" s="20"/>
+      <c r="S290" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="T290" s="19"/>
+      <c r="U290" s="19"/>
+      <c r="V290" s="19"/>
+      <c r="W290" s="19"/>
+      <c r="X290" s="19"/>
+      <c r="Y290" s="19"/>
+      <c r="Z290" s="19"/>
+      <c r="AA290" s="19"/>
+      <c r="AB290" s="19"/>
+      <c r="AC290" s="19"/>
+      <c r="AD290" s="19"/>
+      <c r="AE290" s="19"/>
+      <c r="AF290" s="19"/>
+      <c r="AG290" s="19"/>
+      <c r="AH290" s="19"/>
+      <c r="AI290" s="20"/>
     </row>
     <row r="291" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="49"/>
       <c r="B291" s="49"/>
       <c r="E291" s="30"/>
-      <c r="F291" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G291" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF291" s="49"/>
-      <c r="AG291" s="49"/>
+      <c r="F291" s="31"/>
+      <c r="G291" s="21"/>
+      <c r="H291" s="22"/>
+      <c r="I291" s="22"/>
+      <c r="J291" s="26"/>
+      <c r="K291" s="22"/>
+      <c r="L291" s="22"/>
+      <c r="M291" s="26"/>
+      <c r="N291" s="22"/>
+      <c r="O291" s="22"/>
+      <c r="P291" s="22"/>
+      <c r="Q291" s="22"/>
+      <c r="R291" s="26"/>
+      <c r="S291" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="T291" s="22"/>
+      <c r="U291" s="22"/>
+      <c r="V291" s="22"/>
+      <c r="W291" s="22"/>
+      <c r="X291" s="22"/>
+      <c r="Y291" s="22"/>
+      <c r="Z291" s="22"/>
+      <c r="AA291" s="22"/>
+      <c r="AB291" s="22"/>
+      <c r="AC291" s="22"/>
+      <c r="AD291" s="22"/>
+      <c r="AE291" s="22"/>
+      <c r="AF291" s="45"/>
+      <c r="AG291" s="45"/>
+      <c r="AH291" s="22"/>
+      <c r="AI291" s="26"/>
     </row>
     <row r="292" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="49"/>
       <c r="B292" s="49"/>
       <c r="E292" s="30"/>
-      <c r="F292" s="17"/>
-      <c r="G292" s="30" t="str">
-        <f>F291&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H292" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF292" s="49"/>
-      <c r="AG292" s="49"/>
+      <c r="F292" s="31"/>
+      <c r="G292" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H292" s="33"/>
+      <c r="I292" s="33"/>
+      <c r="J292" s="34"/>
+      <c r="K292" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="L292" s="33"/>
+      <c r="M292" s="34"/>
+      <c r="N292" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="O292" s="33"/>
+      <c r="P292" s="33"/>
+      <c r="Q292" s="33"/>
+      <c r="R292" s="34"/>
+      <c r="S292" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="T292" s="33"/>
+      <c r="U292" s="33"/>
+      <c r="V292" s="33"/>
+      <c r="W292" s="33"/>
+      <c r="X292" s="33"/>
+      <c r="Y292" s="33"/>
+      <c r="Z292" s="33"/>
+      <c r="AA292" s="33"/>
+      <c r="AB292" s="33"/>
+      <c r="AC292" s="33"/>
+      <c r="AD292" s="33"/>
+      <c r="AE292" s="33"/>
+      <c r="AF292" s="47"/>
+      <c r="AG292" s="47"/>
+      <c r="AH292" s="33"/>
+      <c r="AI292" s="34"/>
     </row>
     <row r="293" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="49"/>
       <c r="B293" s="49"/>
-      <c r="D293" s="19"/>
-      <c r="E293" s="37"/>
-      <c r="F293" s="37"/>
-      <c r="G293" s="38"/>
-      <c r="H293" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I293" s="24"/>
-      <c r="J293" s="24"/>
-      <c r="K293" s="24"/>
-      <c r="L293" s="24"/>
-      <c r="M293" s="24"/>
-      <c r="N293" s="24"/>
-      <c r="O293" s="24"/>
-      <c r="P293" s="24"/>
-      <c r="Q293" s="24"/>
-      <c r="R293" s="24"/>
-      <c r="S293" s="24"/>
-      <c r="T293" s="24"/>
-      <c r="U293" s="24"/>
-      <c r="V293" s="24"/>
-      <c r="W293" s="24"/>
-      <c r="X293" s="24"/>
-      <c r="Y293" s="24"/>
-      <c r="Z293" s="24"/>
-      <c r="AA293" s="24"/>
-      <c r="AB293" s="24"/>
-      <c r="AC293" s="24"/>
-      <c r="AD293" s="24"/>
-      <c r="AE293" s="24"/>
-      <c r="AF293" s="24"/>
-      <c r="AG293" s="24"/>
-      <c r="AH293" s="24"/>
-      <c r="AI293" s="25"/>
+      <c r="E293" s="30"/>
+      <c r="F293" s="31"/>
+      <c r="AF293" s="49"/>
+      <c r="AG293" s="49"/>
     </row>
     <row r="294" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="49"/>
       <c r="B294" s="49"/>
       <c r="E294" s="30"/>
-      <c r="F294" s="30"/>
-      <c r="G294" s="17"/>
-      <c r="H294" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="I294" s="22"/>
-      <c r="J294" s="22"/>
-      <c r="K294" s="22"/>
-      <c r="L294" s="22"/>
-      <c r="M294" s="22"/>
-      <c r="N294" s="22"/>
-      <c r="O294" s="22"/>
-      <c r="P294" s="22"/>
-      <c r="Q294" s="22"/>
-      <c r="R294" s="22"/>
-      <c r="S294" s="22"/>
-      <c r="T294" s="22"/>
-      <c r="U294" s="22"/>
-      <c r="V294" s="22"/>
-      <c r="W294" s="22"/>
-      <c r="X294" s="22"/>
-      <c r="Y294" s="22"/>
-      <c r="Z294" s="22"/>
-      <c r="AA294" s="22"/>
-      <c r="AB294" s="22"/>
-      <c r="AC294" s="22"/>
-      <c r="AD294" s="22"/>
-      <c r="AE294" s="22"/>
-      <c r="AF294" s="45"/>
-      <c r="AG294" s="45"/>
-      <c r="AH294" s="22"/>
-      <c r="AI294" s="26"/>
+      <c r="F294" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G294" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF294" s="49"/>
+      <c r="AG294" s="49"/>
     </row>
     <row r="295" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="49"/>
       <c r="B295" s="49"/>
       <c r="E295" s="30"/>
-      <c r="F295" s="30"/>
-      <c r="G295" s="17"/>
+      <c r="F295" s="17"/>
+      <c r="G295" s="30" t="str">
+        <f>F294&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
       <c r="H295" s="16" t="s">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="AF295" s="49"/>
       <c r="AG295" s="49"/>
@@ -11347,34 +11321,86 @@
     <row r="296" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="49"/>
       <c r="B296" s="49"/>
-      <c r="E296" s="30"/>
-      <c r="F296" s="30"/>
-      <c r="G296" s="17"/>
-      <c r="H296" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF296" s="49"/>
-      <c r="AG296" s="49"/>
+      <c r="D296" s="19"/>
+      <c r="E296" s="37"/>
+      <c r="F296" s="37"/>
+      <c r="G296" s="38"/>
+      <c r="H296" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I296" s="24"/>
+      <c r="J296" s="24"/>
+      <c r="K296" s="24"/>
+      <c r="L296" s="24"/>
+      <c r="M296" s="24"/>
+      <c r="N296" s="24"/>
+      <c r="O296" s="24"/>
+      <c r="P296" s="24"/>
+      <c r="Q296" s="24"/>
+      <c r="R296" s="24"/>
+      <c r="S296" s="24"/>
+      <c r="T296" s="24"/>
+      <c r="U296" s="24"/>
+      <c r="V296" s="24"/>
+      <c r="W296" s="24"/>
+      <c r="X296" s="24"/>
+      <c r="Y296" s="24"/>
+      <c r="Z296" s="24"/>
+      <c r="AA296" s="24"/>
+      <c r="AB296" s="24"/>
+      <c r="AC296" s="24"/>
+      <c r="AD296" s="24"/>
+      <c r="AE296" s="24"/>
+      <c r="AF296" s="24"/>
+      <c r="AG296" s="24"/>
+      <c r="AH296" s="24"/>
+      <c r="AI296" s="25"/>
     </row>
     <row r="297" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="49"/>
       <c r="B297" s="49"/>
       <c r="E297" s="30"/>
-      <c r="F297" s="17"/>
-      <c r="AF297" s="49"/>
-      <c r="AG297" s="49"/>
+      <c r="F297" s="30"/>
+      <c r="G297" s="17"/>
+      <c r="H297" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="I297" s="22"/>
+      <c r="J297" s="22"/>
+      <c r="K297" s="22"/>
+      <c r="L297" s="22"/>
+      <c r="M297" s="22"/>
+      <c r="N297" s="22"/>
+      <c r="O297" s="22"/>
+      <c r="P297" s="22"/>
+      <c r="Q297" s="22"/>
+      <c r="R297" s="22"/>
+      <c r="S297" s="22"/>
+      <c r="T297" s="22"/>
+      <c r="U297" s="22"/>
+      <c r="V297" s="22"/>
+      <c r="W297" s="22"/>
+      <c r="X297" s="22"/>
+      <c r="Y297" s="22"/>
+      <c r="Z297" s="22"/>
+      <c r="AA297" s="22"/>
+      <c r="AB297" s="22"/>
+      <c r="AC297" s="22"/>
+      <c r="AD297" s="22"/>
+      <c r="AE297" s="22"/>
+      <c r="AF297" s="45"/>
+      <c r="AG297" s="45"/>
+      <c r="AH297" s="22"/>
+      <c r="AI297" s="26"/>
     </row>
     <row r="298" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="49"/>
       <c r="B298" s="49"/>
       <c r="E298" s="30"/>
-      <c r="F298" s="17"/>
-      <c r="G298" s="30" t="str">
-        <f>F291&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
+      <c r="F298" s="30"/>
+      <c r="G298" s="17"/>
       <c r="H298" s="16" t="s">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="AF298" s="49"/>
       <c r="AG298" s="49"/>
@@ -11383,292 +11409,210 @@
       <c r="A299" s="49"/>
       <c r="B299" s="49"/>
       <c r="E299" s="30"/>
-      <c r="F299" s="17"/>
-      <c r="G299" s="30"/>
-      <c r="H299" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I299" s="28"/>
-      <c r="J299" s="28"/>
-      <c r="K299" s="28"/>
-      <c r="L299" s="28"/>
-      <c r="M299" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="N299" s="28"/>
-      <c r="O299" s="28"/>
-      <c r="P299" s="29"/>
-      <c r="Q299" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="R299" s="28"/>
-      <c r="S299" s="28"/>
-      <c r="T299" s="28"/>
-      <c r="U299" s="28"/>
-      <c r="V299" s="28"/>
-      <c r="W299" s="28"/>
-      <c r="X299" s="28"/>
-      <c r="Y299" s="28"/>
-      <c r="Z299" s="28"/>
-      <c r="AA299" s="28"/>
-      <c r="AB299" s="28"/>
-      <c r="AC299" s="28"/>
-      <c r="AD299" s="28"/>
-      <c r="AE299" s="28"/>
-      <c r="AF299" s="28"/>
-      <c r="AG299" s="28"/>
-      <c r="AH299" s="28"/>
-      <c r="AI299" s="29"/>
+      <c r="F299" s="30"/>
+      <c r="G299" s="17"/>
+      <c r="H299" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF299" s="49"/>
+      <c r="AG299" s="49"/>
     </row>
     <row r="300" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="49"/>
       <c r="B300" s="49"/>
       <c r="E300" s="30"/>
-      <c r="H300" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I300" s="33"/>
-      <c r="J300" s="33"/>
-      <c r="K300" s="33"/>
-      <c r="L300" s="33"/>
-      <c r="M300" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="N300" s="33"/>
-      <c r="O300" s="33"/>
-      <c r="P300" s="34"/>
-      <c r="Q300" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="R300" s="33"/>
-      <c r="S300" s="33"/>
-      <c r="T300" s="33"/>
-      <c r="U300" s="33"/>
-      <c r="V300" s="33"/>
-      <c r="W300" s="33"/>
-      <c r="X300" s="33"/>
-      <c r="Y300" s="33"/>
-      <c r="Z300" s="33"/>
-      <c r="AA300" s="33"/>
-      <c r="AB300" s="33"/>
-      <c r="AC300" s="33"/>
-      <c r="AD300" s="33"/>
-      <c r="AE300" s="33"/>
-      <c r="AF300" s="47"/>
-      <c r="AG300" s="47"/>
-      <c r="AH300" s="33"/>
-      <c r="AI300" s="34"/>
+      <c r="F300" s="17"/>
+      <c r="AF300" s="49"/>
+      <c r="AG300" s="49"/>
     </row>
     <row r="301" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="49"/>
       <c r="B301" s="49"/>
       <c r="E301" s="30"/>
-      <c r="H301" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I301" s="19"/>
-      <c r="J301" s="19"/>
-      <c r="K301" s="19"/>
-      <c r="L301" s="19"/>
-      <c r="M301" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="N301" s="19"/>
-      <c r="O301" s="19"/>
-      <c r="P301" s="20"/>
-      <c r="Q301" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="R301" s="19"/>
-      <c r="S301" s="19"/>
-      <c r="T301" s="19"/>
-      <c r="U301" s="19"/>
-      <c r="V301" s="19"/>
-      <c r="W301" s="19"/>
-      <c r="X301" s="19"/>
-      <c r="Y301" s="19"/>
-      <c r="Z301" s="19"/>
-      <c r="AA301" s="19"/>
-      <c r="AB301" s="19"/>
-      <c r="AC301" s="19"/>
-      <c r="AD301" s="19"/>
-      <c r="AE301" s="19"/>
-      <c r="AF301" s="19"/>
-      <c r="AG301" s="19"/>
-      <c r="AH301" s="19"/>
-      <c r="AI301" s="20"/>
+      <c r="F301" s="17"/>
+      <c r="G301" s="30" t="str">
+        <f>F294&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H301" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF301" s="49"/>
+      <c r="AG301" s="49"/>
     </row>
     <row r="302" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="49"/>
       <c r="B302" s="49"/>
       <c r="E302" s="30"/>
-      <c r="H302" s="21"/>
-      <c r="I302" s="22"/>
-      <c r="J302" s="22"/>
-      <c r="K302" s="22"/>
-      <c r="L302" s="22"/>
-      <c r="M302" s="21"/>
-      <c r="N302" s="22"/>
-      <c r="O302" s="22"/>
-      <c r="P302" s="26"/>
-      <c r="Q302" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="R302" s="22"/>
-      <c r="S302" s="22"/>
-      <c r="T302" s="22"/>
-      <c r="U302" s="22"/>
-      <c r="V302" s="22"/>
-      <c r="W302" s="22"/>
-      <c r="X302" s="22"/>
-      <c r="Y302" s="22"/>
-      <c r="Z302" s="22"/>
-      <c r="AA302" s="22"/>
-      <c r="AB302" s="22"/>
-      <c r="AC302" s="22"/>
-      <c r="AD302" s="22"/>
-      <c r="AE302" s="22"/>
-      <c r="AF302" s="45"/>
-      <c r="AG302" s="45"/>
-      <c r="AH302" s="22"/>
-      <c r="AI302" s="26"/>
+      <c r="F302" s="17"/>
+      <c r="G302" s="30"/>
+      <c r="H302" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I302" s="28"/>
+      <c r="J302" s="28"/>
+      <c r="K302" s="28"/>
+      <c r="L302" s="28"/>
+      <c r="M302" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="N302" s="28"/>
+      <c r="O302" s="28"/>
+      <c r="P302" s="29"/>
+      <c r="Q302" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="R302" s="28"/>
+      <c r="S302" s="28"/>
+      <c r="T302" s="28"/>
+      <c r="U302" s="28"/>
+      <c r="V302" s="28"/>
+      <c r="W302" s="28"/>
+      <c r="X302" s="28"/>
+      <c r="Y302" s="28"/>
+      <c r="Z302" s="28"/>
+      <c r="AA302" s="28"/>
+      <c r="AB302" s="28"/>
+      <c r="AC302" s="28"/>
+      <c r="AD302" s="28"/>
+      <c r="AE302" s="28"/>
+      <c r="AF302" s="28"/>
+      <c r="AG302" s="28"/>
+      <c r="AH302" s="28"/>
+      <c r="AI302" s="29"/>
     </row>
     <row r="303" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="49"/>
       <c r="B303" s="49"/>
       <c r="E303" s="30"/>
-      <c r="H303" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="I303" s="22"/>
-      <c r="J303" s="22"/>
-      <c r="K303" s="22"/>
-      <c r="L303" s="22"/>
-      <c r="M303" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="N303" s="22"/>
-      <c r="O303" s="22"/>
-      <c r="P303" s="26"/>
-      <c r="Q303" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="R303" s="22"/>
-      <c r="S303" s="22"/>
-      <c r="T303" s="22"/>
-      <c r="U303" s="22"/>
-      <c r="V303" s="22"/>
-      <c r="W303" s="22"/>
-      <c r="X303" s="22"/>
-      <c r="Y303" s="22"/>
-      <c r="Z303" s="22"/>
-      <c r="AA303" s="22"/>
-      <c r="AB303" s="22"/>
-      <c r="AC303" s="22"/>
-      <c r="AD303" s="22"/>
-      <c r="AE303" s="22"/>
-      <c r="AF303" s="45"/>
-      <c r="AG303" s="45"/>
-      <c r="AH303" s="22"/>
-      <c r="AI303" s="26"/>
+      <c r="H303" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I303" s="33"/>
+      <c r="J303" s="33"/>
+      <c r="K303" s="33"/>
+      <c r="L303" s="33"/>
+      <c r="M303" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N303" s="33"/>
+      <c r="O303" s="33"/>
+      <c r="P303" s="34"/>
+      <c r="Q303" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R303" s="33"/>
+      <c r="S303" s="33"/>
+      <c r="T303" s="33"/>
+      <c r="U303" s="33"/>
+      <c r="V303" s="33"/>
+      <c r="W303" s="33"/>
+      <c r="X303" s="33"/>
+      <c r="Y303" s="33"/>
+      <c r="Z303" s="33"/>
+      <c r="AA303" s="33"/>
+      <c r="AB303" s="33"/>
+      <c r="AC303" s="33"/>
+      <c r="AD303" s="33"/>
+      <c r="AE303" s="33"/>
+      <c r="AF303" s="47"/>
+      <c r="AG303" s="47"/>
+      <c r="AH303" s="33"/>
+      <c r="AI303" s="34"/>
     </row>
     <row r="304" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="49"/>
       <c r="B304" s="49"/>
       <c r="E304" s="30"/>
-      <c r="H304" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I304" s="22"/>
-      <c r="J304" s="22"/>
-      <c r="K304" s="22"/>
-      <c r="L304" s="22"/>
-      <c r="M304" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="N304" s="22"/>
-      <c r="O304" s="22"/>
-      <c r="P304" s="26"/>
-      <c r="Q304" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="R304" s="22"/>
-      <c r="S304" s="22"/>
-      <c r="T304" s="22"/>
-      <c r="U304" s="22"/>
-      <c r="V304" s="22"/>
-      <c r="W304" s="22"/>
-      <c r="X304" s="22"/>
-      <c r="Y304" s="22"/>
-      <c r="Z304" s="22"/>
-      <c r="AA304" s="22"/>
-      <c r="AB304" s="22"/>
-      <c r="AC304" s="22"/>
-      <c r="AD304" s="22"/>
-      <c r="AE304" s="22"/>
-      <c r="AF304" s="45"/>
-      <c r="AG304" s="45"/>
-      <c r="AH304" s="22"/>
-      <c r="AI304" s="26"/>
+      <c r="H304" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I304" s="19"/>
+      <c r="J304" s="19"/>
+      <c r="K304" s="19"/>
+      <c r="L304" s="19"/>
+      <c r="M304" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N304" s="19"/>
+      <c r="O304" s="19"/>
+      <c r="P304" s="20"/>
+      <c r="Q304" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R304" s="19"/>
+      <c r="S304" s="19"/>
+      <c r="T304" s="19"/>
+      <c r="U304" s="19"/>
+      <c r="V304" s="19"/>
+      <c r="W304" s="19"/>
+      <c r="X304" s="19"/>
+      <c r="Y304" s="19"/>
+      <c r="Z304" s="19"/>
+      <c r="AA304" s="19"/>
+      <c r="AB304" s="19"/>
+      <c r="AC304" s="19"/>
+      <c r="AD304" s="19"/>
+      <c r="AE304" s="19"/>
+      <c r="AF304" s="19"/>
+      <c r="AG304" s="19"/>
+      <c r="AH304" s="19"/>
+      <c r="AI304" s="20"/>
     </row>
     <row r="305" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="49"/>
       <c r="B305" s="49"/>
       <c r="E305" s="30"/>
-      <c r="H305" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="I305" s="33"/>
-      <c r="J305" s="33"/>
-      <c r="K305" s="33"/>
-      <c r="L305" s="33"/>
-      <c r="M305" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="N305" s="33"/>
-      <c r="O305" s="33"/>
-      <c r="P305" s="34"/>
-      <c r="Q305" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="R305" s="33"/>
-      <c r="S305" s="33"/>
-      <c r="T305" s="33"/>
-      <c r="U305" s="33"/>
-      <c r="V305" s="33"/>
-      <c r="W305" s="33"/>
-      <c r="X305" s="33"/>
-      <c r="Y305" s="33"/>
-      <c r="Z305" s="33"/>
-      <c r="AA305" s="33"/>
-      <c r="AB305" s="33"/>
-      <c r="AC305" s="33"/>
-      <c r="AD305" s="33"/>
-      <c r="AE305" s="33"/>
-      <c r="AF305" s="47"/>
-      <c r="AG305" s="47"/>
-      <c r="AH305" s="33"/>
-      <c r="AI305" s="34"/>
+      <c r="H305" s="21"/>
+      <c r="I305" s="22"/>
+      <c r="J305" s="22"/>
+      <c r="K305" s="22"/>
+      <c r="L305" s="22"/>
+      <c r="M305" s="21"/>
+      <c r="N305" s="22"/>
+      <c r="O305" s="22"/>
+      <c r="P305" s="26"/>
+      <c r="Q305" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="R305" s="22"/>
+      <c r="S305" s="22"/>
+      <c r="T305" s="22"/>
+      <c r="U305" s="22"/>
+      <c r="V305" s="22"/>
+      <c r="W305" s="22"/>
+      <c r="X305" s="22"/>
+      <c r="Y305" s="22"/>
+      <c r="Z305" s="22"/>
+      <c r="AA305" s="22"/>
+      <c r="AB305" s="22"/>
+      <c r="AC305" s="22"/>
+      <c r="AD305" s="22"/>
+      <c r="AE305" s="22"/>
+      <c r="AF305" s="45"/>
+      <c r="AG305" s="45"/>
+      <c r="AH305" s="22"/>
+      <c r="AI305" s="26"/>
     </row>
     <row r="306" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="49"/>
       <c r="B306" s="49"/>
       <c r="E306" s="30"/>
       <c r="H306" s="21" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="I306" s="22"/>
       <c r="J306" s="22"/>
       <c r="K306" s="22"/>
       <c r="L306" s="22"/>
       <c r="M306" s="21" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="N306" s="22"/>
       <c r="O306" s="22"/>
       <c r="P306" s="26"/>
       <c r="Q306" s="22" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="R306" s="22"/>
       <c r="S306" s="22"/>
@@ -11694,20 +11638,20 @@
       <c r="B307" s="49"/>
       <c r="E307" s="30"/>
       <c r="H307" s="21" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I307" s="22"/>
       <c r="J307" s="22"/>
       <c r="K307" s="22"/>
       <c r="L307" s="22"/>
       <c r="M307" s="21" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="N307" s="22"/>
       <c r="O307" s="22"/>
       <c r="P307" s="26"/>
       <c r="Q307" s="22" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="R307" s="22"/>
       <c r="S307" s="22"/>
@@ -11732,99 +11676,99 @@
       <c r="A308" s="49"/>
       <c r="B308" s="49"/>
       <c r="E308" s="30"/>
-      <c r="H308" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I308" s="22"/>
-      <c r="J308" s="22"/>
-      <c r="K308" s="22"/>
-      <c r="L308" s="22"/>
-      <c r="M308" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N308" s="22"/>
-      <c r="O308" s="22"/>
-      <c r="P308" s="26"/>
-      <c r="Q308" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="R308" s="22"/>
-      <c r="S308" s="22"/>
-      <c r="T308" s="22"/>
-      <c r="U308" s="22"/>
-      <c r="V308" s="22"/>
-      <c r="W308" s="22"/>
-      <c r="X308" s="22"/>
-      <c r="Y308" s="22"/>
-      <c r="Z308" s="22"/>
-      <c r="AA308" s="22"/>
-      <c r="AB308" s="22"/>
-      <c r="AC308" s="22"/>
-      <c r="AD308" s="22"/>
-      <c r="AE308" s="22"/>
-      <c r="AF308" s="45"/>
-      <c r="AG308" s="45"/>
-      <c r="AH308" s="22"/>
-      <c r="AI308" s="26"/>
+      <c r="H308" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="I308" s="33"/>
+      <c r="J308" s="33"/>
+      <c r="K308" s="33"/>
+      <c r="L308" s="33"/>
+      <c r="M308" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N308" s="33"/>
+      <c r="O308" s="33"/>
+      <c r="P308" s="34"/>
+      <c r="Q308" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="R308" s="33"/>
+      <c r="S308" s="33"/>
+      <c r="T308" s="33"/>
+      <c r="U308" s="33"/>
+      <c r="V308" s="33"/>
+      <c r="W308" s="33"/>
+      <c r="X308" s="33"/>
+      <c r="Y308" s="33"/>
+      <c r="Z308" s="33"/>
+      <c r="AA308" s="33"/>
+      <c r="AB308" s="33"/>
+      <c r="AC308" s="33"/>
+      <c r="AD308" s="33"/>
+      <c r="AE308" s="33"/>
+      <c r="AF308" s="47"/>
+      <c r="AG308" s="47"/>
+      <c r="AH308" s="33"/>
+      <c r="AI308" s="34"/>
     </row>
     <row r="309" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="49"/>
       <c r="B309" s="49"/>
       <c r="E309" s="30"/>
-      <c r="H309" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I309" s="33"/>
-      <c r="J309" s="33"/>
-      <c r="K309" s="33"/>
-      <c r="L309" s="33"/>
-      <c r="M309" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N309" s="33"/>
-      <c r="O309" s="33"/>
-      <c r="P309" s="34"/>
-      <c r="Q309" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="R309" s="33"/>
-      <c r="S309" s="33"/>
-      <c r="T309" s="33"/>
-      <c r="U309" s="33"/>
-      <c r="V309" s="33"/>
-      <c r="W309" s="33"/>
-      <c r="X309" s="33"/>
-      <c r="Y309" s="33"/>
-      <c r="Z309" s="33"/>
-      <c r="AA309" s="33"/>
-      <c r="AB309" s="33"/>
-      <c r="AC309" s="33"/>
-      <c r="AD309" s="33"/>
-      <c r="AE309" s="33"/>
-      <c r="AF309" s="47"/>
-      <c r="AG309" s="47"/>
-      <c r="AH309" s="33"/>
-      <c r="AI309" s="34"/>
+      <c r="H309" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I309" s="22"/>
+      <c r="J309" s="22"/>
+      <c r="K309" s="22"/>
+      <c r="L309" s="22"/>
+      <c r="M309" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N309" s="22"/>
+      <c r="O309" s="22"/>
+      <c r="P309" s="26"/>
+      <c r="Q309" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="R309" s="22"/>
+      <c r="S309" s="22"/>
+      <c r="T309" s="22"/>
+      <c r="U309" s="22"/>
+      <c r="V309" s="22"/>
+      <c r="W309" s="22"/>
+      <c r="X309" s="22"/>
+      <c r="Y309" s="22"/>
+      <c r="Z309" s="22"/>
+      <c r="AA309" s="22"/>
+      <c r="AB309" s="22"/>
+      <c r="AC309" s="22"/>
+      <c r="AD309" s="22"/>
+      <c r="AE309" s="22"/>
+      <c r="AF309" s="45"/>
+      <c r="AG309" s="45"/>
+      <c r="AH309" s="22"/>
+      <c r="AI309" s="26"/>
     </row>
     <row r="310" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="49"/>
       <c r="B310" s="49"/>
       <c r="E310" s="30"/>
       <c r="H310" s="21" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="I310" s="22"/>
       <c r="J310" s="22"/>
       <c r="K310" s="22"/>
       <c r="L310" s="22"/>
       <c r="M310" s="21" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="N310" s="22"/>
       <c r="O310" s="22"/>
       <c r="P310" s="26"/>
       <c r="Q310" s="22" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="R310" s="22"/>
       <c r="S310" s="22"/>
@@ -11849,212 +11793,247 @@
       <c r="A311" s="49"/>
       <c r="B311" s="49"/>
       <c r="E311" s="30"/>
-      <c r="H311" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="I311" s="19"/>
-      <c r="J311" s="19"/>
-      <c r="K311" s="19"/>
-      <c r="L311" s="19"/>
-      <c r="M311" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="N311" s="19"/>
-      <c r="O311" s="19"/>
-      <c r="P311" s="20"/>
-      <c r="Q311" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="R311" s="19"/>
-      <c r="S311" s="19"/>
-      <c r="T311" s="19"/>
-      <c r="U311" s="19"/>
-      <c r="V311" s="19"/>
-      <c r="W311" s="19"/>
-      <c r="X311" s="19"/>
-      <c r="Y311" s="19"/>
-      <c r="Z311" s="19"/>
-      <c r="AA311" s="19"/>
-      <c r="AB311" s="19"/>
-      <c r="AC311" s="19"/>
-      <c r="AD311" s="19"/>
-      <c r="AE311" s="19"/>
-      <c r="AF311" s="19"/>
-      <c r="AG311" s="19"/>
-      <c r="AH311" s="19"/>
-      <c r="AI311" s="20"/>
+      <c r="H311" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I311" s="22"/>
+      <c r="J311" s="22"/>
+      <c r="K311" s="22"/>
+      <c r="L311" s="22"/>
+      <c r="M311" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N311" s="22"/>
+      <c r="O311" s="22"/>
+      <c r="P311" s="26"/>
+      <c r="Q311" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="R311" s="22"/>
+      <c r="S311" s="22"/>
+      <c r="T311" s="22"/>
+      <c r="U311" s="22"/>
+      <c r="V311" s="22"/>
+      <c r="W311" s="22"/>
+      <c r="X311" s="22"/>
+      <c r="Y311" s="22"/>
+      <c r="Z311" s="22"/>
+      <c r="AA311" s="22"/>
+      <c r="AB311" s="22"/>
+      <c r="AC311" s="22"/>
+      <c r="AD311" s="22"/>
+      <c r="AE311" s="22"/>
+      <c r="AF311" s="45"/>
+      <c r="AG311" s="45"/>
+      <c r="AH311" s="22"/>
+      <c r="AI311" s="26"/>
     </row>
     <row r="312" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="49"/>
       <c r="B312" s="49"/>
       <c r="E312" s="30"/>
-      <c r="H312" s="21"/>
-      <c r="I312" s="22"/>
-      <c r="J312" s="22"/>
-      <c r="K312" s="22"/>
-      <c r="L312" s="22"/>
-      <c r="M312" s="21"/>
-      <c r="N312" s="22"/>
-      <c r="O312" s="22"/>
-      <c r="P312" s="26"/>
-      <c r="Q312" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="R312" s="22"/>
-      <c r="S312" s="22"/>
-      <c r="T312" s="22"/>
-      <c r="U312" s="22"/>
-      <c r="V312" s="22"/>
-      <c r="W312" s="22"/>
-      <c r="X312" s="22"/>
-      <c r="Y312" s="22"/>
-      <c r="Z312" s="22"/>
-      <c r="AA312" s="22"/>
-      <c r="AB312" s="22"/>
-      <c r="AC312" s="22"/>
-      <c r="AD312" s="22"/>
-      <c r="AE312" s="22"/>
-      <c r="AF312" s="45"/>
-      <c r="AG312" s="45"/>
-      <c r="AH312" s="22"/>
-      <c r="AI312" s="26"/>
+      <c r="H312" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I312" s="33"/>
+      <c r="J312" s="33"/>
+      <c r="K312" s="33"/>
+      <c r="L312" s="33"/>
+      <c r="M312" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="N312" s="33"/>
+      <c r="O312" s="33"/>
+      <c r="P312" s="34"/>
+      <c r="Q312" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="R312" s="33"/>
+      <c r="S312" s="33"/>
+      <c r="T312" s="33"/>
+      <c r="U312" s="33"/>
+      <c r="V312" s="33"/>
+      <c r="W312" s="33"/>
+      <c r="X312" s="33"/>
+      <c r="Y312" s="33"/>
+      <c r="Z312" s="33"/>
+      <c r="AA312" s="33"/>
+      <c r="AB312" s="33"/>
+      <c r="AC312" s="33"/>
+      <c r="AD312" s="33"/>
+      <c r="AE312" s="33"/>
+      <c r="AF312" s="47"/>
+      <c r="AG312" s="47"/>
+      <c r="AH312" s="33"/>
+      <c r="AI312" s="34"/>
     </row>
     <row r="313" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="49"/>
       <c r="B313" s="49"/>
       <c r="E313" s="30"/>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="19"/>
-      <c r="K313" s="19"/>
-      <c r="L313" s="19"/>
-      <c r="M313" s="19"/>
-      <c r="N313" s="19"/>
-      <c r="O313" s="19"/>
-      <c r="P313" s="19"/>
-      <c r="Q313" s="19"/>
-      <c r="R313" s="19"/>
-      <c r="S313" s="19"/>
-      <c r="T313" s="19"/>
-      <c r="U313" s="19"/>
-      <c r="V313" s="19"/>
-      <c r="W313" s="19"/>
-      <c r="X313" s="19"/>
-      <c r="Y313" s="19"/>
-      <c r="Z313" s="19"/>
-      <c r="AA313" s="19"/>
-      <c r="AB313" s="19"/>
-      <c r="AC313" s="19"/>
-      <c r="AD313" s="19"/>
-      <c r="AE313" s="19"/>
-      <c r="AF313" s="19"/>
-      <c r="AG313" s="19"/>
-      <c r="AH313" s="19"/>
-      <c r="AI313" s="19"/>
+      <c r="H313" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I313" s="22"/>
+      <c r="J313" s="22"/>
+      <c r="K313" s="22"/>
+      <c r="L313" s="22"/>
+      <c r="M313" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="N313" s="22"/>
+      <c r="O313" s="22"/>
+      <c r="P313" s="26"/>
+      <c r="Q313" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="R313" s="22"/>
+      <c r="S313" s="22"/>
+      <c r="T313" s="22"/>
+      <c r="U313" s="22"/>
+      <c r="V313" s="22"/>
+      <c r="W313" s="22"/>
+      <c r="X313" s="22"/>
+      <c r="Y313" s="22"/>
+      <c r="Z313" s="22"/>
+      <c r="AA313" s="22"/>
+      <c r="AB313" s="22"/>
+      <c r="AC313" s="22"/>
+      <c r="AD313" s="22"/>
+      <c r="AE313" s="22"/>
+      <c r="AF313" s="45"/>
+      <c r="AG313" s="45"/>
+      <c r="AH313" s="22"/>
+      <c r="AI313" s="26"/>
     </row>
     <row r="314" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="49"/>
       <c r="B314" s="49"/>
       <c r="E314" s="30"/>
-      <c r="F314" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G314" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF314" s="49"/>
-      <c r="AG314" s="49"/>
+      <c r="H314" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I314" s="19"/>
+      <c r="J314" s="19"/>
+      <c r="K314" s="19"/>
+      <c r="L314" s="19"/>
+      <c r="M314" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="N314" s="19"/>
+      <c r="O314" s="19"/>
+      <c r="P314" s="20"/>
+      <c r="Q314" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="R314" s="19"/>
+      <c r="S314" s="19"/>
+      <c r="T314" s="19"/>
+      <c r="U314" s="19"/>
+      <c r="V314" s="19"/>
+      <c r="W314" s="19"/>
+      <c r="X314" s="19"/>
+      <c r="Y314" s="19"/>
+      <c r="Z314" s="19"/>
+      <c r="AA314" s="19"/>
+      <c r="AB314" s="19"/>
+      <c r="AC314" s="19"/>
+      <c r="AD314" s="19"/>
+      <c r="AE314" s="19"/>
+      <c r="AF314" s="19"/>
+      <c r="AG314" s="19"/>
+      <c r="AH314" s="19"/>
+      <c r="AI314" s="20"/>
     </row>
     <row r="315" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="49"/>
       <c r="B315" s="49"/>
       <c r="E315" s="30"/>
-      <c r="F315" s="17"/>
-      <c r="G315" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF315" s="49"/>
-      <c r="AG315" s="49"/>
+      <c r="H315" s="21"/>
+      <c r="I315" s="22"/>
+      <c r="J315" s="22"/>
+      <c r="K315" s="22"/>
+      <c r="L315" s="22"/>
+      <c r="M315" s="21"/>
+      <c r="N315" s="22"/>
+      <c r="O315" s="22"/>
+      <c r="P315" s="26"/>
+      <c r="Q315" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="R315" s="22"/>
+      <c r="S315" s="22"/>
+      <c r="T315" s="22"/>
+      <c r="U315" s="22"/>
+      <c r="V315" s="22"/>
+      <c r="W315" s="22"/>
+      <c r="X315" s="22"/>
+      <c r="Y315" s="22"/>
+      <c r="Z315" s="22"/>
+      <c r="AA315" s="22"/>
+      <c r="AB315" s="22"/>
+      <c r="AC315" s="22"/>
+      <c r="AD315" s="22"/>
+      <c r="AE315" s="22"/>
+      <c r="AF315" s="45"/>
+      <c r="AG315" s="45"/>
+      <c r="AH315" s="22"/>
+      <c r="AI315" s="26"/>
     </row>
     <row r="316" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="49"/>
       <c r="B316" s="49"/>
       <c r="E316" s="30"/>
-      <c r="F316" s="17"/>
-      <c r="G316" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="H316" s="24"/>
-      <c r="I316" s="24"/>
-      <c r="J316" s="24"/>
-      <c r="K316" s="24"/>
-      <c r="L316" s="24"/>
-      <c r="M316" s="24"/>
-      <c r="N316" s="24"/>
-      <c r="O316" s="24"/>
-      <c r="P316" s="24"/>
-      <c r="Q316" s="24"/>
-      <c r="R316" s="24"/>
-      <c r="S316" s="24"/>
-      <c r="T316" s="24"/>
-      <c r="U316" s="24"/>
-      <c r="V316" s="24"/>
-      <c r="W316" s="24"/>
-      <c r="X316" s="24"/>
-      <c r="Y316" s="24"/>
-      <c r="Z316" s="24"/>
-      <c r="AA316" s="24"/>
-      <c r="AB316" s="24"/>
-      <c r="AC316" s="24"/>
-      <c r="AD316" s="24"/>
-      <c r="AE316" s="24"/>
-      <c r="AF316" s="24"/>
-      <c r="AG316" s="24"/>
-      <c r="AH316" s="24"/>
-      <c r="AI316" s="25"/>
+      <c r="H316" s="19"/>
+      <c r="I316" s="19"/>
+      <c r="J316" s="19"/>
+      <c r="K316" s="19"/>
+      <c r="L316" s="19"/>
+      <c r="M316" s="19"/>
+      <c r="N316" s="19"/>
+      <c r="O316" s="19"/>
+      <c r="P316" s="19"/>
+      <c r="Q316" s="19"/>
+      <c r="R316" s="19"/>
+      <c r="S316" s="19"/>
+      <c r="T316" s="19"/>
+      <c r="U316" s="19"/>
+      <c r="V316" s="19"/>
+      <c r="W316" s="19"/>
+      <c r="X316" s="19"/>
+      <c r="Y316" s="19"/>
+      <c r="Z316" s="19"/>
+      <c r="AA316" s="19"/>
+      <c r="AB316" s="19"/>
+      <c r="AC316" s="19"/>
+      <c r="AD316" s="19"/>
+      <c r="AE316" s="19"/>
+      <c r="AF316" s="19"/>
+      <c r="AG316" s="19"/>
+      <c r="AH316" s="19"/>
+      <c r="AI316" s="19"/>
     </row>
     <row r="317" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="49"/>
       <c r="B317" s="49"/>
       <c r="E317" s="30"/>
-      <c r="F317" s="17"/>
-      <c r="G317" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="H317" s="22"/>
-      <c r="I317" s="22"/>
-      <c r="J317" s="22"/>
-      <c r="K317" s="22"/>
-      <c r="L317" s="22"/>
-      <c r="M317" s="22"/>
-      <c r="N317" s="22"/>
-      <c r="O317" s="22"/>
-      <c r="P317" s="22"/>
-      <c r="Q317" s="22"/>
-      <c r="R317" s="22"/>
-      <c r="S317" s="22"/>
-      <c r="T317" s="22"/>
-      <c r="U317" s="22"/>
-      <c r="V317" s="22"/>
-      <c r="W317" s="22"/>
-      <c r="X317" s="22"/>
-      <c r="Y317" s="22"/>
-      <c r="Z317" s="22"/>
-      <c r="AA317" s="22"/>
-      <c r="AB317" s="22"/>
-      <c r="AC317" s="22"/>
-      <c r="AD317" s="22"/>
-      <c r="AE317" s="22"/>
-      <c r="AF317" s="45"/>
-      <c r="AG317" s="45"/>
-      <c r="AH317" s="22"/>
-      <c r="AI317" s="26"/>
+      <c r="F317" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G317" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF317" s="49"/>
+      <c r="AG317" s="49"/>
     </row>
     <row r="318" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="49"/>
       <c r="B318" s="49"/>
       <c r="E318" s="30"/>
-      <c r="F318" s="31"/>
+      <c r="F318" s="17"/>
+      <c r="G318" s="16" t="s">
+        <v>260</v>
+      </c>
       <c r="AF318" s="49"/>
       <c r="AG318" s="49"/>
     </row>
@@ -12062,36 +12041,118 @@
       <c r="A319" s="49"/>
       <c r="B319" s="49"/>
       <c r="E319" s="30"/>
-      <c r="F319" s="31"/>
-      <c r="AF319" s="49"/>
-      <c r="AG319" s="49"/>
+      <c r="F319" s="17"/>
+      <c r="G319" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="H319" s="24"/>
+      <c r="I319" s="24"/>
+      <c r="J319" s="24"/>
+      <c r="K319" s="24"/>
+      <c r="L319" s="24"/>
+      <c r="M319" s="24"/>
+      <c r="N319" s="24"/>
+      <c r="O319" s="24"/>
+      <c r="P319" s="24"/>
+      <c r="Q319" s="24"/>
+      <c r="R319" s="24"/>
+      <c r="S319" s="24"/>
+      <c r="T319" s="24"/>
+      <c r="U319" s="24"/>
+      <c r="V319" s="24"/>
+      <c r="W319" s="24"/>
+      <c r="X319" s="24"/>
+      <c r="Y319" s="24"/>
+      <c r="Z319" s="24"/>
+      <c r="AA319" s="24"/>
+      <c r="AB319" s="24"/>
+      <c r="AC319" s="24"/>
+      <c r="AD319" s="24"/>
+      <c r="AE319" s="24"/>
+      <c r="AF319" s="24"/>
+      <c r="AG319" s="24"/>
+      <c r="AH319" s="24"/>
+      <c r="AI319" s="25"/>
     </row>
     <row r="320" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="49"/>
       <c r="B320" s="49"/>
-      <c r="E320" s="30" t="str">
-        <f>$D$110&amp;"4."</f>
-        <v>7.13.3.4.</v>
-      </c>
-      <c r="F320" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF320" s="49"/>
-      <c r="AG320" s="49"/>
+      <c r="E320" s="30"/>
+      <c r="F320" s="17"/>
+      <c r="G320" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="H320" s="22"/>
+      <c r="I320" s="22"/>
+      <c r="J320" s="22"/>
+      <c r="K320" s="22"/>
+      <c r="L320" s="22"/>
+      <c r="M320" s="22"/>
+      <c r="N320" s="22"/>
+      <c r="O320" s="22"/>
+      <c r="P320" s="22"/>
+      <c r="Q320" s="22"/>
+      <c r="R320" s="22"/>
+      <c r="S320" s="22"/>
+      <c r="T320" s="22"/>
+      <c r="U320" s="22"/>
+      <c r="V320" s="22"/>
+      <c r="W320" s="22"/>
+      <c r="X320" s="22"/>
+      <c r="Y320" s="22"/>
+      <c r="Z320" s="22"/>
+      <c r="AA320" s="22"/>
+      <c r="AB320" s="22"/>
+      <c r="AC320" s="22"/>
+      <c r="AD320" s="22"/>
+      <c r="AE320" s="22"/>
+      <c r="AF320" s="45"/>
+      <c r="AG320" s="45"/>
+      <c r="AH320" s="22"/>
+      <c r="AI320" s="26"/>
     </row>
     <row r="321" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="49"/>
       <c r="B321" s="49"/>
       <c r="E321" s="30"/>
-      <c r="F321" s="31" t="s">
-        <v>291</v>
-      </c>
+      <c r="F321" s="31"/>
       <c r="AF321" s="49"/>
       <c r="AG321" s="49"/>
     </row>
-    <row r="322" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="49"/>
+      <c r="B322" s="49"/>
+      <c r="E322" s="30"/>
+      <c r="F322" s="31"/>
       <c r="AF322" s="49"/>
       <c r="AG322" s="49"/>
+    </row>
+    <row r="323" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="49"/>
+      <c r="B323" s="49"/>
+      <c r="E323" s="30" t="str">
+        <f>$D$110&amp;"4."</f>
+        <v>7.13.3.4.</v>
+      </c>
+      <c r="F323" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF323" s="49"/>
+      <c r="AG323" s="49"/>
+    </row>
+    <row r="324" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="49"/>
+      <c r="B324" s="49"/>
+      <c r="E324" s="30"/>
+      <c r="F324" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF324" s="49"/>
+      <c r="AG324" s="49"/>
+    </row>
+    <row r="325" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF325" s="49"/>
+      <c r="AG325" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12115,10 +12176,10 @@
     <brk id="82" max="34" man="1"/>
     <brk id="122" max="34" man="1"/>
     <brk id="165" max="34" man="1"/>
-    <brk id="197" max="34" man="1"/>
-    <brk id="229" max="34" man="1"/>
-    <brk id="254" max="34" man="1"/>
-    <brk id="281" max="34" man="1"/>
+    <brk id="198" max="34" man="1"/>
+    <brk id="231" max="34" man="1"/>
+    <brk id="257" max="34" man="1"/>
+    <brk id="284" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76545A54-4B9F-40AF-905F-603114462DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3F78BB-9D13-4B66-B16C-76B69BAEEE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$325</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$103</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$327</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$104</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="365">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -449,10 +449,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ファイルサイズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログファイル出力単位</t>
     <rPh sb="6" eb="8">
       <t>シュツリョク</t>
@@ -766,10 +762,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SQL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>発行されたSQLに関する情報を出力するログ。</t>
   </si>
   <si>
@@ -1899,6 +1891,25 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パフォーマンスログ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PERFORMANCE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性能計測用のログ。</t>
+    <rPh sb="0" eb="5">
+      <t>セイノウケイソクヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2715,9 +2726,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS325"/>
+  <dimension ref="A1:AS327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2727,7 +2738,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2748,7 +2759,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2789,11 +2800,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2859,10 +2870,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2872,13 +2883,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2934,13 +2945,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2972,7 +2983,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -3018,7 +3029,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3054,7 +3065,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3096,7 +3107,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3134,7 +3145,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3176,7 +3187,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3214,7 +3225,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3256,7 +3267,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3334,7 +3345,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3412,7 +3423,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3487,7 +3498,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3513,7 +3524,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3556,7 +3567,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3599,7 +3610,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3642,7 +3653,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3685,7 +3696,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3718,7 +3729,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3728,7 +3739,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3756,7 +3767,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3766,7 +3777,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3799,7 +3810,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3809,7 +3820,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3837,7 +3848,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3847,7 +3858,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -3964,7 +3975,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="48"/>
       <c r="O43" s="47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -4038,7 +4049,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4074,7 +4085,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4148,7 +4159,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4184,7 +4195,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4408,7 +4419,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4444,7 +4455,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4480,7 +4491,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4514,7 +4525,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4586,7 +4597,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4622,7 +4633,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4655,7 +4666,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4682,7 +4693,7 @@
       <c r="R64" s="28"/>
       <c r="S64" s="29"/>
       <c r="T64" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
@@ -4726,7 +4737,7 @@
       <c r="R65" s="47"/>
       <c r="S65" s="48"/>
       <c r="T65" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45"/>
@@ -4768,7 +4779,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="26"/>
       <c r="T66" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
@@ -4809,7 +4820,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="26"/>
       <c r="T67" s="45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -4850,7 +4861,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="26"/>
       <c r="T68" s="45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
@@ -4891,7 +4902,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="26"/>
       <c r="T69" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
@@ -5014,7 +5025,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5023,7 +5034,7 @@
       <c r="B76" s="49"/>
       <c r="E76" s="30"/>
       <c r="F76" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
@@ -5041,7 +5052,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5075,19 +5086,19 @@
       <c r="B79" s="49"/>
       <c r="E79" s="30"/>
       <c r="F79" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
       <c r="N79" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
@@ -5118,19 +5129,19 @@
       <c r="B80" s="49"/>
       <c r="E80" s="30"/>
       <c r="F80" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5167,7 +5178,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5306,7 +5317,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5345,7 +5356,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5384,7 +5395,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
       <c r="L91" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -5457,17 +5468,17 @@
       <c r="V94" s="28"/>
       <c r="W94" s="28"/>
       <c r="X94" s="28"/>
-      <c r="Y94" s="27" t="s">
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="Z94" s="28"/>
       <c r="AA94" s="28"/>
       <c r="AB94" s="28"/>
       <c r="AC94" s="28"/>
-      <c r="AD94" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE94" s="28"/>
+      <c r="AD94" s="28"/>
+      <c r="AE94" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="AF94" s="28"/>
       <c r="AG94" s="28"/>
       <c r="AH94" s="28"/>
@@ -5505,17 +5516,17 @@
       <c r="V95" s="24"/>
       <c r="W95" s="24"/>
       <c r="X95" s="24"/>
-      <c r="Y95" s="23" t="s">
+      <c r="Y95" s="25"/>
+      <c r="Z95" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z95" s="24"/>
       <c r="AA95" s="24"/>
       <c r="AB95" s="24"/>
       <c r="AC95" s="24"/>
-      <c r="AD95" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE95" s="24"/>
+      <c r="AD95" s="24"/>
+      <c r="AE95" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="AF95" s="24"/>
       <c r="AG95" s="24"/>
       <c r="AH95" s="24"/>
@@ -5553,17 +5564,17 @@
       <c r="V96" s="24"/>
       <c r="W96" s="24"/>
       <c r="X96" s="24"/>
-      <c r="Y96" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z96" s="24"/>
+      <c r="Y96" s="25"/>
+      <c r="Z96" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="AA96" s="24"/>
       <c r="AB96" s="24"/>
       <c r="AC96" s="24"/>
-      <c r="AD96" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE96" s="24"/>
+      <c r="AD96" s="24"/>
+      <c r="AE96" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="AF96" s="24"/>
       <c r="AG96" s="24"/>
       <c r="AH96" s="24"/>
@@ -5589,18 +5600,18 @@
       <c r="S97" s="19"/>
       <c r="T97" s="19"/>
       <c r="U97" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V97" s="19"/>
       <c r="W97" s="19"/>
       <c r="X97" s="19"/>
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="19"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="18"/>
       <c r="AA97" s="19"/>
       <c r="AB97" s="19"/>
       <c r="AC97" s="19"/>
-      <c r="AD97" s="18"/>
-      <c r="AE97" s="19"/>
+      <c r="AD97" s="19"/>
+      <c r="AE97" s="18"/>
       <c r="AF97" s="19"/>
       <c r="AG97" s="19"/>
       <c r="AH97" s="19"/>
@@ -5626,124 +5637,149 @@
       <c r="S98" s="19"/>
       <c r="T98" s="19"/>
       <c r="U98" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V98" s="19"/>
       <c r="W98" s="19"/>
       <c r="X98" s="19"/>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="19"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="18"/>
       <c r="AA98" s="19"/>
       <c r="AB98" s="19"/>
       <c r="AC98" s="19"/>
-      <c r="AD98" s="18"/>
-      <c r="AE98" s="19"/>
+      <c r="AD98" s="19"/>
+      <c r="AE98" s="18"/>
       <c r="AF98" s="19"/>
       <c r="AG98" s="19"/>
       <c r="AH98" s="19"/>
       <c r="AI98" s="20"/>
     </row>
-    <row r="99" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49"/>
+    <row r="99" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
-      <c r="G99" s="32" t="str">
-        <f>G91</f>
-        <v>アクセスログ</v>
-      </c>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="M99" s="33"/>
-      <c r="N99" s="33"/>
-      <c r="O99" s="33"/>
-      <c r="P99" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q99" s="33"/>
-      <c r="R99" s="33"/>
-      <c r="S99" s="33"/>
-      <c r="T99" s="33"/>
-      <c r="U99" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V99" s="33"/>
-      <c r="W99" s="33"/>
-      <c r="X99" s="33"/>
-      <c r="Y99" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z99" s="33"/>
-      <c r="AA99" s="33"/>
-      <c r="AB99" s="33"/>
-      <c r="AC99" s="33"/>
-      <c r="AD99" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE99" s="33"/>
-      <c r="AF99" s="47"/>
-      <c r="AG99" s="47"/>
-      <c r="AH99" s="33"/>
-      <c r="AI99" s="34"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="18"/>
+      <c r="AA99" s="19"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19"/>
+      <c r="AE99" s="18"/>
+      <c r="AF99" s="19"/>
+      <c r="AG99" s="19"/>
+      <c r="AH99" s="19"/>
+      <c r="AI99" s="20"/>
     </row>
     <row r="100" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="49"/>
       <c r="B100" s="49"/>
       <c r="D100" s="15"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="19"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="19"/>
-      <c r="W100" s="19"/>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="19"/>
-      <c r="AA100" s="19"/>
-      <c r="AB100" s="19"/>
-      <c r="AC100" s="19"/>
-      <c r="AD100" s="19"/>
-      <c r="AE100" s="19"/>
-      <c r="AF100" s="19"/>
-      <c r="AG100" s="19"/>
-      <c r="AH100" s="19"/>
-      <c r="AI100" s="19"/>
+      <c r="E100" s="15"/>
+      <c r="G100" s="32" t="str">
+        <f>G91</f>
+        <v>アクセスログ</v>
+      </c>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="V100" s="33"/>
+      <c r="W100" s="33"/>
+      <c r="X100" s="47"/>
+      <c r="Y100" s="48"/>
+      <c r="Z100" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA100" s="47"/>
+      <c r="AB100" s="47"/>
+      <c r="AC100" s="47"/>
+      <c r="AD100" s="47"/>
+      <c r="AE100" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF100" s="47"/>
+      <c r="AG100" s="47"/>
+      <c r="AH100" s="33"/>
+      <c r="AI100" s="34"/>
     </row>
     <row r="101" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="49"/>
       <c r="B101" s="49"/>
-      <c r="F101" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF101" s="49"/>
-      <c r="AG101" s="49"/>
+      <c r="D101" s="15"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="19"/>
+      <c r="X101" s="19"/>
+      <c r="Y101" s="19"/>
+      <c r="Z101" s="19"/>
+      <c r="AA101" s="19"/>
+      <c r="AB101" s="19"/>
+      <c r="AC101" s="19"/>
+      <c r="AD101" s="19"/>
+      <c r="AE101" s="19"/>
+      <c r="AF101" s="19"/>
+      <c r="AG101" s="19"/>
+      <c r="AH101" s="19"/>
+      <c r="AI101" s="19"/>
     </row>
     <row r="102" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="49"/>
       <c r="B102" s="49"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="16" t="s">
-        <v>308</v>
+      <c r="F102" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5751,69 +5787,66 @@
     <row r="103" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="49"/>
       <c r="B103" s="49"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="16" t="s">
+        <v>306</v>
+      </c>
       <c r="AF103" s="49"/>
       <c r="AG103" s="49"/>
     </row>
-    <row r="104" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F104" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="G104" s="49" t="s">
-        <v>302</v>
-      </c>
+    <row r="104" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="49"/>
+      <c r="B104" s="49"/>
+      <c r="AF104" s="49"/>
+      <c r="AG104" s="49"/>
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="50" t="s">
+        <v>296</v>
+      </c>
       <c r="G105" s="49" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
       <c r="G107" s="49" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="49"/>
-      <c r="B109" s="49"/>
-      <c r="AF109" s="49"/>
-      <c r="AG109" s="49"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="G109" s="49" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="110" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="49"/>
       <c r="B110" s="49"/>
-      <c r="D110" s="50" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>7.13.3.</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>14</v>
-      </c>
       <c r="AF110" s="49"/>
       <c r="AG110" s="49"/>
     </row>
     <row r="111" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="49"/>
       <c r="B111" s="49"/>
-      <c r="E111" s="30" t="str">
-        <f>$D$110&amp;"1."</f>
-        <v>7.13.3.1.</v>
-      </c>
-      <c r="F111" s="31" t="s">
-        <v>15</v>
+      <c r="D111" s="50" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>7.13.3.</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="AF111" s="49"/>
       <c r="AG111" s="49"/>
@@ -5821,12 +5854,12 @@
     <row r="112" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="49"/>
       <c r="B112" s="49"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>131</v>
+      <c r="E112" s="30" t="str">
+        <f>$D$111&amp;"1."</f>
+        <v>7.13.3.1.</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="AF112" s="49"/>
       <c r="AG112" s="49"/>
@@ -5835,182 +5868,180 @@
       <c r="A113" s="49"/>
       <c r="B113" s="49"/>
       <c r="E113" s="30"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H113" s="28"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="K113" s="28"/>
-      <c r="L113" s="29"/>
-      <c r="M113" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="N113" s="28"/>
-      <c r="O113" s="28"/>
-      <c r="P113" s="28"/>
-      <c r="Q113" s="29"/>
-      <c r="R113" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="S113" s="28"/>
-      <c r="T113" s="28"/>
-      <c r="U113" s="28"/>
-      <c r="V113" s="28"/>
-      <c r="W113" s="28"/>
-      <c r="X113" s="28"/>
-      <c r="Y113" s="28"/>
-      <c r="Z113" s="28"/>
-      <c r="AA113" s="28"/>
-      <c r="AB113" s="28"/>
-      <c r="AC113" s="28"/>
-      <c r="AD113" s="28"/>
-      <c r="AE113" s="28"/>
-      <c r="AF113" s="28"/>
-      <c r="AG113" s="28"/>
-      <c r="AH113" s="28"/>
-      <c r="AI113" s="29"/>
+      <c r="F113" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF113" s="49"/>
+      <c r="AG113" s="49"/>
     </row>
     <row r="114" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="49"/>
       <c r="B114" s="49"/>
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
-      <c r="G114" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="H114" s="24"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K114" s="24"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="N114" s="24"/>
-      <c r="O114" s="24"/>
-      <c r="P114" s="24"/>
-      <c r="Q114" s="25"/>
-      <c r="R114" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="S114" s="24"/>
-      <c r="T114" s="24"/>
-      <c r="U114" s="24"/>
-      <c r="V114" s="24"/>
-      <c r="W114" s="24"/>
-      <c r="X114" s="24"/>
-      <c r="Y114" s="24"/>
-      <c r="Z114" s="24"/>
-      <c r="AA114" s="24"/>
-      <c r="AB114" s="24"/>
-      <c r="AC114" s="24"/>
-      <c r="AD114" s="24"/>
-      <c r="AE114" s="24"/>
-      <c r="AF114" s="24"/>
-      <c r="AG114" s="24"/>
-      <c r="AH114" s="24"/>
-      <c r="AI114" s="25"/>
-    </row>
-    <row r="115" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G114" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H114" s="28"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="K114" s="28"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="N114" s="28"/>
+      <c r="O114" s="28"/>
+      <c r="P114" s="28"/>
+      <c r="Q114" s="29"/>
+      <c r="R114" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="S114" s="28"/>
+      <c r="T114" s="28"/>
+      <c r="U114" s="28"/>
+      <c r="V114" s="28"/>
+      <c r="W114" s="28"/>
+      <c r="X114" s="28"/>
+      <c r="Y114" s="28"/>
+      <c r="Z114" s="28"/>
+      <c r="AA114" s="28"/>
+      <c r="AB114" s="28"/>
+      <c r="AC114" s="28"/>
+      <c r="AD114" s="28"/>
+      <c r="AE114" s="28"/>
+      <c r="AF114" s="28"/>
+      <c r="AG114" s="28"/>
+      <c r="AH114" s="28"/>
+      <c r="AI114" s="29"/>
+    </row>
+    <row r="115" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="49"/>
+      <c r="B115" s="49"/>
       <c r="E115" s="30"/>
       <c r="F115" s="31"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="46"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="45"/>
-      <c r="L115" s="46"/>
-      <c r="M115" s="45"/>
-      <c r="N115" s="45"/>
-      <c r="O115" s="45"/>
-      <c r="P115" s="45"/>
-      <c r="Q115" s="46"/>
-      <c r="R115" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="S115" s="45"/>
-      <c r="T115" s="45"/>
-      <c r="U115" s="45"/>
-      <c r="V115" s="45"/>
-      <c r="W115" s="45"/>
-      <c r="X115" s="45"/>
-      <c r="Y115" s="45"/>
-      <c r="Z115" s="45"/>
-      <c r="AA115" s="45"/>
-      <c r="AB115" s="45"/>
-      <c r="AC115" s="45"/>
-      <c r="AD115" s="45"/>
-      <c r="AE115" s="45"/>
-      <c r="AF115" s="45"/>
-      <c r="AG115" s="45"/>
-      <c r="AH115" s="45"/>
-      <c r="AI115" s="46"/>
-    </row>
-    <row r="116" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="49"/>
-      <c r="B116" s="49"/>
+      <c r="G115" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H115" s="24"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="K115" s="24"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="N115" s="24"/>
+      <c r="O115" s="24"/>
+      <c r="P115" s="24"/>
+      <c r="Q115" s="25"/>
+      <c r="R115" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="S115" s="24"/>
+      <c r="T115" s="24"/>
+      <c r="U115" s="24"/>
+      <c r="V115" s="24"/>
+      <c r="W115" s="24"/>
+      <c r="X115" s="24"/>
+      <c r="Y115" s="24"/>
+      <c r="Z115" s="24"/>
+      <c r="AA115" s="24"/>
+      <c r="AB115" s="24"/>
+      <c r="AC115" s="24"/>
+      <c r="AD115" s="24"/>
+      <c r="AE115" s="24"/>
+      <c r="AF115" s="24"/>
+      <c r="AG115" s="24"/>
+      <c r="AH115" s="24"/>
+      <c r="AI115" s="25"/>
+    </row>
+    <row r="116" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="30"/>
       <c r="F116" s="31"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="19"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="19"/>
-      <c r="R116" s="19"/>
-      <c r="S116" s="19"/>
-      <c r="T116" s="19"/>
-      <c r="U116" s="19"/>
-      <c r="V116" s="19"/>
-      <c r="W116" s="19"/>
-      <c r="X116" s="19"/>
-      <c r="Y116" s="19"/>
-      <c r="Z116" s="19"/>
-      <c r="AA116" s="19"/>
-      <c r="AB116" s="19"/>
-      <c r="AC116" s="19"/>
-      <c r="AD116" s="19"/>
-      <c r="AE116" s="19"/>
-      <c r="AF116" s="19"/>
-      <c r="AG116" s="19"/>
-      <c r="AH116" s="19"/>
-      <c r="AI116" s="19"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="45"/>
+      <c r="N116" s="45"/>
+      <c r="O116" s="45"/>
+      <c r="P116" s="45"/>
+      <c r="Q116" s="46"/>
+      <c r="R116" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="S116" s="45"/>
+      <c r="T116" s="45"/>
+      <c r="U116" s="45"/>
+      <c r="V116" s="45"/>
+      <c r="W116" s="45"/>
+      <c r="X116" s="45"/>
+      <c r="Y116" s="45"/>
+      <c r="Z116" s="45"/>
+      <c r="AA116" s="45"/>
+      <c r="AB116" s="45"/>
+      <c r="AC116" s="45"/>
+      <c r="AD116" s="45"/>
+      <c r="AE116" s="45"/>
+      <c r="AF116" s="45"/>
+      <c r="AG116" s="45"/>
+      <c r="AH116" s="45"/>
+      <c r="AI116" s="46"/>
     </row>
     <row r="117" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="49"/>
       <c r="B117" s="49"/>
       <c r="E117" s="30"/>
-      <c r="F117" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF117" s="49"/>
-      <c r="AG117" s="49"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="19"/>
+      <c r="X117" s="19"/>
+      <c r="Y117" s="19"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+      <c r="AB117" s="19"/>
+      <c r="AC117" s="19"/>
+      <c r="AD117" s="19"/>
+      <c r="AE117" s="19"/>
+      <c r="AF117" s="19"/>
+      <c r="AG117" s="19"/>
+      <c r="AH117" s="19"/>
+      <c r="AI117" s="19"/>
     </row>
     <row r="118" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="49"/>
       <c r="B118" s="49"/>
       <c r="E118" s="30"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="30" t="str">
-        <f>F117&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>119</v>
+      <c r="F118" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="AF118" s="49"/>
       <c r="AG118" s="49"/>
@@ -6019,38 +6050,16 @@
       <c r="A119" s="49"/>
       <c r="B119" s="49"/>
       <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="24"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="24"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
-      <c r="T119" s="24"/>
-      <c r="U119" s="24"/>
-      <c r="V119" s="24"/>
-      <c r="W119" s="24"/>
-      <c r="X119" s="24"/>
-      <c r="Y119" s="24"/>
-      <c r="Z119" s="24"/>
-      <c r="AA119" s="24"/>
-      <c r="AB119" s="24"/>
-      <c r="AC119" s="24"/>
-      <c r="AD119" s="24"/>
-      <c r="AE119" s="24"/>
-      <c r="AF119" s="24"/>
-      <c r="AG119" s="24"/>
-      <c r="AH119" s="24"/>
-      <c r="AI119" s="25"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="30" t="str">
+        <f>F118&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF119" s="49"/>
+      <c r="AG119" s="49"/>
     </row>
     <row r="120" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="49"/>
@@ -6058,36 +6067,36 @@
       <c r="E120" s="30"/>
       <c r="F120" s="30"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
-      <c r="Z120" s="22"/>
-      <c r="AA120" s="22"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="22"/>
-      <c r="AD120" s="22"/>
-      <c r="AE120" s="22"/>
-      <c r="AF120" s="45"/>
-      <c r="AG120" s="45"/>
-      <c r="AH120" s="22"/>
-      <c r="AI120" s="26"/>
+      <c r="H120" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="24"/>
+      <c r="Q120" s="24"/>
+      <c r="R120" s="24"/>
+      <c r="S120" s="24"/>
+      <c r="T120" s="24"/>
+      <c r="U120" s="24"/>
+      <c r="V120" s="24"/>
+      <c r="W120" s="24"/>
+      <c r="X120" s="24"/>
+      <c r="Y120" s="24"/>
+      <c r="Z120" s="24"/>
+      <c r="AA120" s="24"/>
+      <c r="AB120" s="24"/>
+      <c r="AC120" s="24"/>
+      <c r="AD120" s="24"/>
+      <c r="AE120" s="24"/>
+      <c r="AF120" s="24"/>
+      <c r="AG120" s="24"/>
+      <c r="AH120" s="24"/>
+      <c r="AI120" s="25"/>
     </row>
     <row r="121" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="49"/>
@@ -6095,11 +6104,36 @@
       <c r="E121" s="30"/>
       <c r="F121" s="30"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF121" s="49"/>
-      <c r="AG121" s="49"/>
+      <c r="H121" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="22"/>
+      <c r="U121" s="22"/>
+      <c r="V121" s="22"/>
+      <c r="W121" s="22"/>
+      <c r="X121" s="22"/>
+      <c r="Y121" s="22"/>
+      <c r="Z121" s="22"/>
+      <c r="AA121" s="22"/>
+      <c r="AB121" s="22"/>
+      <c r="AC121" s="22"/>
+      <c r="AD121" s="22"/>
+      <c r="AE121" s="22"/>
+      <c r="AF121" s="45"/>
+      <c r="AG121" s="45"/>
+      <c r="AH121" s="22"/>
+      <c r="AI121" s="26"/>
     </row>
     <row r="122" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="49"/>
@@ -6108,7 +6142,7 @@
       <c r="F122" s="30"/>
       <c r="G122" s="17"/>
       <c r="H122" s="16" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="AF122" s="49"/>
       <c r="AG122" s="49"/>
@@ -6117,7 +6151,11 @@
       <c r="A123" s="49"/>
       <c r="B123" s="49"/>
       <c r="E123" s="30"/>
-      <c r="F123" s="17"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="AF123" s="49"/>
       <c r="AG123" s="49"/>
     </row>
@@ -6126,13 +6164,6 @@
       <c r="B124" s="49"/>
       <c r="E124" s="30"/>
       <c r="F124" s="17"/>
-      <c r="G124" s="30" t="str">
-        <f>F117&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H124" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="AF124" s="49"/>
       <c r="AG124" s="49"/>
     </row>
@@ -6141,41 +6172,15 @@
       <c r="B125" s="49"/>
       <c r="E125" s="30"/>
       <c r="F125" s="17"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="M125" s="28"/>
-      <c r="N125" s="28"/>
-      <c r="O125" s="29"/>
-      <c r="P125" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q125" s="28"/>
-      <c r="R125" s="28"/>
-      <c r="S125" s="28"/>
-      <c r="T125" s="28"/>
-      <c r="U125" s="28"/>
-      <c r="V125" s="28"/>
-      <c r="W125" s="28"/>
-      <c r="X125" s="28"/>
-      <c r="Y125" s="28"/>
-      <c r="Z125" s="28"/>
-      <c r="AA125" s="28"/>
-      <c r="AB125" s="28"/>
-      <c r="AC125" s="28"/>
-      <c r="AD125" s="28"/>
-      <c r="AE125" s="28"/>
-      <c r="AF125" s="28"/>
-      <c r="AG125" s="28"/>
-      <c r="AH125" s="28"/>
-      <c r="AI125" s="29"/>
+      <c r="G125" s="30" t="str">
+        <f>F118&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF125" s="49"/>
+      <c r="AG125" s="49"/>
     </row>
     <row r="126" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="49"/>
@@ -6183,40 +6188,40 @@
       <c r="E126" s="30"/>
       <c r="F126" s="17"/>
       <c r="G126" s="30"/>
-      <c r="H126" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="20"/>
-      <c r="P126" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
-      <c r="S126" s="19"/>
-      <c r="T126" s="19"/>
-      <c r="U126" s="19"/>
-      <c r="V126" s="19"/>
-      <c r="W126" s="19"/>
-      <c r="X126" s="19"/>
-      <c r="Y126" s="19"/>
-      <c r="Z126" s="19"/>
-      <c r="AA126" s="19"/>
-      <c r="AB126" s="19"/>
-      <c r="AC126" s="19"/>
-      <c r="AD126" s="19"/>
-      <c r="AE126" s="19"/>
-      <c r="AF126" s="19"/>
-      <c r="AG126" s="19"/>
-      <c r="AH126" s="19"/>
-      <c r="AI126" s="20"/>
+      <c r="H126" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="M126" s="28"/>
+      <c r="N126" s="28"/>
+      <c r="O126" s="29"/>
+      <c r="P126" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q126" s="28"/>
+      <c r="R126" s="28"/>
+      <c r="S126" s="28"/>
+      <c r="T126" s="28"/>
+      <c r="U126" s="28"/>
+      <c r="V126" s="28"/>
+      <c r="W126" s="28"/>
+      <c r="X126" s="28"/>
+      <c r="Y126" s="28"/>
+      <c r="Z126" s="28"/>
+      <c r="AA126" s="28"/>
+      <c r="AB126" s="28"/>
+      <c r="AC126" s="28"/>
+      <c r="AD126" s="28"/>
+      <c r="AE126" s="28"/>
+      <c r="AF126" s="28"/>
+      <c r="AG126" s="28"/>
+      <c r="AH126" s="28"/>
+      <c r="AI126" s="29"/>
     </row>
     <row r="127" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="49"/>
@@ -6224,40 +6229,40 @@
       <c r="E127" s="30"/>
       <c r="F127" s="17"/>
       <c r="G127" s="30"/>
-      <c r="H127" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I127" s="33"/>
-      <c r="J127" s="33"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="M127" s="33"/>
-      <c r="N127" s="33"/>
-      <c r="O127" s="34"/>
-      <c r="P127" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q127" s="33"/>
-      <c r="R127" s="33"/>
-      <c r="S127" s="33"/>
-      <c r="T127" s="33"/>
-      <c r="U127" s="33"/>
-      <c r="V127" s="33"/>
-      <c r="W127" s="33"/>
-      <c r="X127" s="33"/>
-      <c r="Y127" s="33"/>
-      <c r="Z127" s="33"/>
-      <c r="AA127" s="33"/>
-      <c r="AB127" s="33"/>
-      <c r="AC127" s="33"/>
-      <c r="AD127" s="33"/>
-      <c r="AE127" s="33"/>
-      <c r="AF127" s="47"/>
-      <c r="AG127" s="33"/>
-      <c r="AH127" s="33"/>
-      <c r="AI127" s="34"/>
+      <c r="H127" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
+      <c r="S127" s="19"/>
+      <c r="T127" s="19"/>
+      <c r="U127" s="19"/>
+      <c r="V127" s="19"/>
+      <c r="W127" s="19"/>
+      <c r="X127" s="19"/>
+      <c r="Y127" s="19"/>
+      <c r="Z127" s="19"/>
+      <c r="AA127" s="19"/>
+      <c r="AB127" s="19"/>
+      <c r="AC127" s="19"/>
+      <c r="AD127" s="19"/>
+      <c r="AE127" s="19"/>
+      <c r="AF127" s="19"/>
+      <c r="AG127" s="19"/>
+      <c r="AH127" s="19"/>
+      <c r="AI127" s="20"/>
     </row>
     <row r="128" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="49"/>
@@ -6265,40 +6270,40 @@
       <c r="E128" s="30"/>
       <c r="F128" s="17"/>
       <c r="G128" s="30"/>
-      <c r="H128" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="M128" s="19"/>
-      <c r="N128" s="19"/>
-      <c r="O128" s="20"/>
-      <c r="P128" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q128" s="19"/>
-      <c r="R128" s="19"/>
-      <c r="S128" s="19"/>
-      <c r="T128" s="19"/>
-      <c r="U128" s="19"/>
-      <c r="V128" s="19"/>
-      <c r="W128" s="19"/>
-      <c r="X128" s="19"/>
-      <c r="Y128" s="19"/>
-      <c r="Z128" s="19"/>
-      <c r="AA128" s="19"/>
-      <c r="AB128" s="19"/>
-      <c r="AC128" s="19"/>
-      <c r="AD128" s="19"/>
-      <c r="AE128" s="19"/>
-      <c r="AF128" s="19"/>
-      <c r="AG128" s="19"/>
-      <c r="AH128" s="19"/>
-      <c r="AI128" s="20"/>
+      <c r="H128" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" s="33"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33"/>
+      <c r="O128" s="34"/>
+      <c r="P128" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q128" s="33"/>
+      <c r="R128" s="33"/>
+      <c r="S128" s="33"/>
+      <c r="T128" s="33"/>
+      <c r="U128" s="33"/>
+      <c r="V128" s="33"/>
+      <c r="W128" s="33"/>
+      <c r="X128" s="33"/>
+      <c r="Y128" s="33"/>
+      <c r="Z128" s="33"/>
+      <c r="AA128" s="33"/>
+      <c r="AB128" s="33"/>
+      <c r="AC128" s="33"/>
+      <c r="AD128" s="33"/>
+      <c r="AE128" s="33"/>
+      <c r="AF128" s="47"/>
+      <c r="AG128" s="33"/>
+      <c r="AH128" s="33"/>
+      <c r="AI128" s="34"/>
     </row>
     <row r="129" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="49"/>
@@ -6306,16 +6311,20 @@
       <c r="E129" s="30"/>
       <c r="F129" s="17"/>
       <c r="G129" s="30"/>
-      <c r="H129" s="18"/>
+      <c r="H129" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="I129" s="19"/>
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
-      <c r="L129" s="18"/>
+      <c r="L129" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="M129" s="19"/>
       <c r="N129" s="19"/>
       <c r="O129" s="20"/>
       <c r="P129" s="19" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="Q129" s="19"/>
       <c r="R129" s="19"/>
@@ -6343,36 +6352,36 @@
       <c r="E130" s="30"/>
       <c r="F130" s="17"/>
       <c r="G130" s="30"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="21"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="22"/>
-      <c r="O130" s="26"/>
-      <c r="P130" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q130" s="22"/>
-      <c r="R130" s="22"/>
-      <c r="S130" s="22"/>
-      <c r="T130" s="22"/>
-      <c r="U130" s="22"/>
-      <c r="V130" s="22"/>
-      <c r="W130" s="22"/>
-      <c r="X130" s="22"/>
-      <c r="Y130" s="22"/>
-      <c r="Z130" s="22"/>
-      <c r="AA130" s="22"/>
-      <c r="AB130" s="22"/>
-      <c r="AC130" s="22"/>
-      <c r="AD130" s="22"/>
-      <c r="AE130" s="22"/>
-      <c r="AF130" s="45"/>
-      <c r="AG130" s="22"/>
-      <c r="AH130" s="22"/>
-      <c r="AI130" s="26"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="20"/>
+      <c r="P130" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
+      <c r="V130" s="19"/>
+      <c r="W130" s="19"/>
+      <c r="X130" s="19"/>
+      <c r="Y130" s="19"/>
+      <c r="Z130" s="19"/>
+      <c r="AA130" s="19"/>
+      <c r="AB130" s="19"/>
+      <c r="AC130" s="19"/>
+      <c r="AD130" s="19"/>
+      <c r="AE130" s="19"/>
+      <c r="AF130" s="19"/>
+      <c r="AG130" s="19"/>
+      <c r="AH130" s="19"/>
+      <c r="AI130" s="20"/>
     </row>
     <row r="131" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="49"/>
@@ -6380,20 +6389,16 @@
       <c r="E131" s="30"/>
       <c r="F131" s="17"/>
       <c r="G131" s="30"/>
-      <c r="H131" s="21" t="s">
-        <v>98</v>
-      </c>
+      <c r="H131" s="21"/>
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
-      <c r="L131" s="21" t="s">
-        <v>99</v>
-      </c>
+      <c r="L131" s="21"/>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
       <c r="O131" s="26"/>
       <c r="P131" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
@@ -6421,40 +6426,40 @@
       <c r="E132" s="30"/>
       <c r="F132" s="17"/>
       <c r="G132" s="30"/>
-      <c r="H132" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="M132" s="19"/>
-      <c r="N132" s="19"/>
-      <c r="O132" s="20"/>
-      <c r="P132" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q132" s="19"/>
-      <c r="R132" s="19"/>
-      <c r="S132" s="19"/>
-      <c r="T132" s="19"/>
-      <c r="U132" s="19"/>
-      <c r="V132" s="19"/>
-      <c r="W132" s="19"/>
-      <c r="X132" s="19"/>
-      <c r="Y132" s="19"/>
-      <c r="Z132" s="19"/>
-      <c r="AA132" s="19"/>
-      <c r="AB132" s="19"/>
-      <c r="AC132" s="19"/>
-      <c r="AD132" s="19"/>
-      <c r="AE132" s="19"/>
-      <c r="AF132" s="19"/>
-      <c r="AG132" s="19"/>
-      <c r="AH132" s="19"/>
-      <c r="AI132" s="20"/>
+      <c r="H132" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I132" s="22"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M132" s="22"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="26"/>
+      <c r="P132" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="22"/>
+      <c r="S132" s="22"/>
+      <c r="T132" s="22"/>
+      <c r="U132" s="22"/>
+      <c r="V132" s="22"/>
+      <c r="W132" s="22"/>
+      <c r="X132" s="22"/>
+      <c r="Y132" s="22"/>
+      <c r="Z132" s="22"/>
+      <c r="AA132" s="22"/>
+      <c r="AB132" s="22"/>
+      <c r="AC132" s="22"/>
+      <c r="AD132" s="22"/>
+      <c r="AE132" s="22"/>
+      <c r="AF132" s="45"/>
+      <c r="AG132" s="22"/>
+      <c r="AH132" s="22"/>
+      <c r="AI132" s="26"/>
     </row>
     <row r="133" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="49"/>
@@ -6462,16 +6467,20 @@
       <c r="E133" s="30"/>
       <c r="F133" s="17"/>
       <c r="G133" s="30"/>
-      <c r="H133" s="18"/>
+      <c r="H133" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="I133" s="19"/>
       <c r="J133" s="19"/>
       <c r="K133" s="19"/>
-      <c r="L133" s="18"/>
+      <c r="L133" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="M133" s="19"/>
       <c r="N133" s="19"/>
       <c r="O133" s="20"/>
       <c r="P133" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q133" s="19"/>
       <c r="R133" s="19"/>
@@ -6507,19 +6516,17 @@
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="20"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="R134" s="28"/>
-      <c r="S134" s="28"/>
-      <c r="T134" s="28"/>
-      <c r="U134" s="29"/>
-      <c r="V134" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="W134" s="28"/>
-      <c r="X134" s="29"/>
+      <c r="P134" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
+      <c r="V134" s="19"/>
+      <c r="W134" s="19"/>
+      <c r="X134" s="19"/>
       <c r="Y134" s="19"/>
       <c r="Z134" s="19"/>
       <c r="AA134" s="19"/>
@@ -6547,18 +6554,18 @@
       <c r="N135" s="19"/>
       <c r="O135" s="20"/>
       <c r="P135" s="19"/>
-      <c r="Q135" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="R135" s="33"/>
-      <c r="S135" s="33"/>
-      <c r="T135" s="33"/>
-      <c r="U135" s="34"/>
-      <c r="V135" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="W135" s="33"/>
-      <c r="X135" s="34"/>
+      <c r="Q135" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="R135" s="28"/>
+      <c r="S135" s="28"/>
+      <c r="T135" s="28"/>
+      <c r="U135" s="29"/>
+      <c r="V135" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="W135" s="28"/>
+      <c r="X135" s="29"/>
       <c r="Y135" s="19"/>
       <c r="Z135" s="19"/>
       <c r="AA135" s="19"/>
@@ -6576,6 +6583,7 @@
       <c r="B136" s="49"/>
       <c r="E136" s="30"/>
       <c r="F136" s="17"/>
+      <c r="G136" s="30"/>
       <c r="H136" s="18"/>
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
@@ -6585,18 +6593,18 @@
       <c r="N136" s="19"/>
       <c r="O136" s="20"/>
       <c r="P136" s="19"/>
-      <c r="Q136" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="R136" s="22"/>
-      <c r="S136" s="22"/>
-      <c r="T136" s="22"/>
-      <c r="U136" s="26"/>
-      <c r="V136" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="W136" s="22"/>
-      <c r="X136" s="26"/>
+      <c r="Q136" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="R136" s="33"/>
+      <c r="S136" s="33"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="34"/>
+      <c r="V136" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="W136" s="33"/>
+      <c r="X136" s="34"/>
       <c r="Y136" s="19"/>
       <c r="Z136" s="19"/>
       <c r="AA136" s="19"/>
@@ -6614,55 +6622,53 @@
       <c r="B137" s="49"/>
       <c r="E137" s="30"/>
       <c r="F137" s="17"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="22"/>
-      <c r="J137" s="22"/>
-      <c r="K137" s="22"/>
-      <c r="L137" s="21"/>
-      <c r="M137" s="22"/>
-      <c r="N137" s="22"/>
-      <c r="O137" s="26"/>
-      <c r="P137" s="22"/>
-      <c r="Q137" s="22"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="20"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="21" t="s">
+        <v>347</v>
+      </c>
       <c r="R137" s="22"/>
       <c r="S137" s="22"/>
       <c r="T137" s="22"/>
-      <c r="U137" s="22"/>
-      <c r="V137" s="22"/>
+      <c r="U137" s="26"/>
+      <c r="V137" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="W137" s="22"/>
-      <c r="X137" s="22"/>
-      <c r="Y137" s="22"/>
-      <c r="Z137" s="22"/>
-      <c r="AA137" s="22"/>
-      <c r="AB137" s="22"/>
-      <c r="AC137" s="22"/>
-      <c r="AD137" s="22"/>
-      <c r="AE137" s="22"/>
-      <c r="AF137" s="45"/>
-      <c r="AG137" s="22"/>
-      <c r="AH137" s="22"/>
-      <c r="AI137" s="26"/>
+      <c r="X137" s="26"/>
+      <c r="Y137" s="19"/>
+      <c r="Z137" s="19"/>
+      <c r="AA137" s="19"/>
+      <c r="AB137" s="19"/>
+      <c r="AC137" s="19"/>
+      <c r="AD137" s="19"/>
+      <c r="AE137" s="19"/>
+      <c r="AF137" s="19"/>
+      <c r="AG137" s="19"/>
+      <c r="AH137" s="19"/>
+      <c r="AI137" s="20"/>
     </row>
     <row r="138" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="49"/>
       <c r="B138" s="49"/>
       <c r="E138" s="30"/>
       <c r="F138" s="17"/>
-      <c r="H138" s="21" t="s">
-        <v>106</v>
-      </c>
+      <c r="H138" s="21"/>
       <c r="I138" s="22"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
-      <c r="L138" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="L138" s="21"/>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
       <c r="O138" s="26"/>
-      <c r="P138" s="22" t="s">
-        <v>112</v>
-      </c>
+      <c r="P138" s="22"/>
       <c r="Q138" s="22"/>
       <c r="R138" s="22"/>
       <c r="S138" s="22"/>
@@ -6687,21 +6693,21 @@
       <c r="A139" s="49"/>
       <c r="B139" s="49"/>
       <c r="E139" s="30"/>
-      <c r="F139" s="31"/>
+      <c r="F139" s="17"/>
       <c r="H139" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I139" s="22"/>
       <c r="J139" s="22"/>
       <c r="K139" s="22"/>
       <c r="L139" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
       <c r="O139" s="26"/>
       <c r="P139" s="22" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
@@ -6727,114 +6733,140 @@
       <c r="A140" s="49"/>
       <c r="B140" s="49"/>
       <c r="E140" s="30"/>
-      <c r="H140" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="I140" s="24"/>
-      <c r="J140" s="24"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M140" s="24"/>
-      <c r="N140" s="24"/>
-      <c r="O140" s="24"/>
-      <c r="P140" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q140" s="24"/>
-      <c r="R140" s="24"/>
-      <c r="S140" s="24"/>
-      <c r="T140" s="24"/>
-      <c r="U140" s="24"/>
-      <c r="V140" s="24"/>
-      <c r="W140" s="24"/>
-      <c r="X140" s="24"/>
-      <c r="Y140" s="24"/>
-      <c r="Z140" s="24"/>
-      <c r="AA140" s="24"/>
-      <c r="AB140" s="24"/>
-      <c r="AC140" s="24"/>
-      <c r="AD140" s="24"/>
-      <c r="AE140" s="24"/>
-      <c r="AF140" s="24"/>
-      <c r="AG140" s="24"/>
-      <c r="AH140" s="24"/>
-      <c r="AI140" s="25"/>
+      <c r="F140" s="31"/>
+      <c r="H140" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I140" s="22"/>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="26"/>
+      <c r="P140" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
+      <c r="S140" s="22"/>
+      <c r="T140" s="22"/>
+      <c r="U140" s="22"/>
+      <c r="V140" s="22"/>
+      <c r="W140" s="22"/>
+      <c r="X140" s="22"/>
+      <c r="Y140" s="22"/>
+      <c r="Z140" s="22"/>
+      <c r="AA140" s="22"/>
+      <c r="AB140" s="22"/>
+      <c r="AC140" s="22"/>
+      <c r="AD140" s="22"/>
+      <c r="AE140" s="22"/>
+      <c r="AF140" s="45"/>
+      <c r="AG140" s="22"/>
+      <c r="AH140" s="22"/>
+      <c r="AI140" s="26"/>
     </row>
     <row r="141" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="49"/>
       <c r="B141" s="49"/>
       <c r="E141" s="30"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="22"/>
-      <c r="J141" s="22"/>
-      <c r="K141" s="22"/>
-      <c r="L141" s="21"/>
-      <c r="M141" s="22"/>
-      <c r="N141" s="22"/>
-      <c r="O141" s="22"/>
-      <c r="P141" s="21" t="str">
-        <f>$F$143&amp;$G$143&amp;"参照。"</f>
-        <v>(3)障害メッセージのフォーマット定義参照。</v>
-      </c>
-      <c r="Q141" s="22"/>
-      <c r="R141" s="22"/>
-      <c r="S141" s="22"/>
-      <c r="T141" s="22"/>
-      <c r="U141" s="22"/>
-      <c r="V141" s="22"/>
-      <c r="W141" s="22"/>
-      <c r="X141" s="22"/>
-      <c r="Y141" s="22"/>
-      <c r="Z141" s="22"/>
-      <c r="AA141" s="22"/>
-      <c r="AB141" s="22"/>
-      <c r="AC141" s="22"/>
-      <c r="AD141" s="22"/>
-      <c r="AE141" s="22"/>
-      <c r="AF141" s="45"/>
-      <c r="AG141" s="22"/>
-      <c r="AH141" s="22"/>
-      <c r="AI141" s="26"/>
+      <c r="H141" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M141" s="24"/>
+      <c r="N141" s="24"/>
+      <c r="O141" s="24"/>
+      <c r="P141" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q141" s="24"/>
+      <c r="R141" s="24"/>
+      <c r="S141" s="24"/>
+      <c r="T141" s="24"/>
+      <c r="U141" s="24"/>
+      <c r="V141" s="24"/>
+      <c r="W141" s="24"/>
+      <c r="X141" s="24"/>
+      <c r="Y141" s="24"/>
+      <c r="Z141" s="24"/>
+      <c r="AA141" s="24"/>
+      <c r="AB141" s="24"/>
+      <c r="AC141" s="24"/>
+      <c r="AD141" s="24"/>
+      <c r="AE141" s="24"/>
+      <c r="AF141" s="24"/>
+      <c r="AG141" s="24"/>
+      <c r="AH141" s="24"/>
+      <c r="AI141" s="25"/>
     </row>
     <row r="142" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="49"/>
       <c r="B142" s="49"/>
       <c r="E142" s="30"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="AF142" s="49"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="22"/>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="21"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="22"/>
+      <c r="P142" s="21" t="str">
+        <f>$F$144&amp;$G$144&amp;"参照。"</f>
+        <v>(3)障害メッセージのフォーマット定義参照。</v>
+      </c>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="22"/>
+      <c r="S142" s="22"/>
+      <c r="T142" s="22"/>
+      <c r="U142" s="22"/>
+      <c r="V142" s="22"/>
+      <c r="W142" s="22"/>
+      <c r="X142" s="22"/>
+      <c r="Y142" s="22"/>
+      <c r="Z142" s="22"/>
+      <c r="AA142" s="22"/>
+      <c r="AB142" s="22"/>
+      <c r="AC142" s="22"/>
+      <c r="AD142" s="22"/>
+      <c r="AE142" s="22"/>
+      <c r="AF142" s="45"/>
+      <c r="AG142" s="22"/>
+      <c r="AH142" s="22"/>
+      <c r="AI142" s="26"/>
     </row>
     <row r="143" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="49"/>
       <c r="B143" s="49"/>
       <c r="E143" s="30"/>
-      <c r="F143" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G143" s="16" t="s">
-        <v>121</v>
-      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+      <c r="N143" s="19"/>
+      <c r="O143" s="19"/>
+      <c r="P143" s="19"/>
       <c r="AF143" s="49"/>
     </row>
     <row r="144" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="49"/>
       <c r="B144" s="49"/>
       <c r="E144" s="30"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="30" t="str">
-        <f>F143&amp;"-1"</f>
-        <v>(3)-1</v>
-      </c>
-      <c r="H144" s="16" t="s">
+      <c r="F144" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G144" s="16" t="s">
         <v>120</v>
       </c>
       <c r="AF144" s="49"/>
@@ -6843,147 +6875,122 @@
       <c r="A145" s="49"/>
       <c r="B145" s="49"/>
       <c r="E145" s="30"/>
-      <c r="H145" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
-      <c r="K145" s="24"/>
-      <c r="L145" s="24"/>
-      <c r="M145" s="24"/>
-      <c r="N145" s="24"/>
-      <c r="O145" s="24"/>
-      <c r="P145" s="24"/>
-      <c r="Q145" s="24"/>
-      <c r="R145" s="24"/>
-      <c r="S145" s="24"/>
-      <c r="T145" s="24"/>
-      <c r="U145" s="24"/>
-      <c r="V145" s="24"/>
-      <c r="W145" s="24"/>
-      <c r="X145" s="24"/>
-      <c r="Y145" s="24"/>
-      <c r="Z145" s="24"/>
-      <c r="AA145" s="24"/>
-      <c r="AB145" s="24"/>
-      <c r="AC145" s="24"/>
-      <c r="AD145" s="24"/>
-      <c r="AE145" s="24"/>
-      <c r="AF145" s="24"/>
-      <c r="AG145" s="24"/>
-      <c r="AH145" s="24"/>
-      <c r="AI145" s="25"/>
-      <c r="AK145" s="19"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="30" t="str">
+        <f>F144&amp;"-1"</f>
+        <v>(3)-1</v>
+      </c>
+      <c r="H145" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF145" s="49"/>
     </row>
     <row r="146" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="49"/>
       <c r="B146" s="49"/>
       <c r="E146" s="30"/>
-      <c r="H146" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19"/>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
-      <c r="Z146" s="19"/>
-      <c r="AA146" s="19"/>
-      <c r="AB146" s="19"/>
-      <c r="AC146" s="19"/>
-      <c r="AD146" s="19"/>
-      <c r="AE146" s="19"/>
-      <c r="AF146" s="19"/>
-      <c r="AG146" s="19"/>
-      <c r="AH146" s="19"/>
-      <c r="AI146" s="20"/>
+      <c r="H146" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I146" s="24"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="24"/>
+      <c r="O146" s="24"/>
+      <c r="P146" s="24"/>
+      <c r="Q146" s="24"/>
+      <c r="R146" s="24"/>
+      <c r="S146" s="24"/>
+      <c r="T146" s="24"/>
+      <c r="U146" s="24"/>
+      <c r="V146" s="24"/>
+      <c r="W146" s="24"/>
+      <c r="X146" s="24"/>
+      <c r="Y146" s="24"/>
+      <c r="Z146" s="24"/>
+      <c r="AA146" s="24"/>
+      <c r="AB146" s="24"/>
+      <c r="AC146" s="24"/>
+      <c r="AD146" s="24"/>
+      <c r="AE146" s="24"/>
+      <c r="AF146" s="24"/>
+      <c r="AG146" s="24"/>
+      <c r="AH146" s="24"/>
+      <c r="AI146" s="25"/>
       <c r="AK146" s="19"/>
     </row>
     <row r="147" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="49"/>
       <c r="B147" s="49"/>
       <c r="E147" s="30"/>
-      <c r="H147" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I147" s="22"/>
-      <c r="J147" s="22"/>
-      <c r="K147" s="22"/>
-      <c r="L147" s="22"/>
-      <c r="M147" s="22"/>
-      <c r="N147" s="22"/>
-      <c r="O147" s="22"/>
-      <c r="P147" s="22"/>
-      <c r="Q147" s="22"/>
-      <c r="R147" s="22"/>
-      <c r="S147" s="22"/>
-      <c r="T147" s="22"/>
-      <c r="U147" s="22"/>
-      <c r="V147" s="22"/>
-      <c r="W147" s="22"/>
-      <c r="X147" s="22"/>
-      <c r="Y147" s="22"/>
-      <c r="Z147" s="22"/>
-      <c r="AA147" s="22"/>
-      <c r="AB147" s="22"/>
-      <c r="AC147" s="22"/>
-      <c r="AD147" s="22"/>
-      <c r="AE147" s="22"/>
-      <c r="AF147" s="45"/>
-      <c r="AG147" s="22"/>
-      <c r="AH147" s="22"/>
-      <c r="AI147" s="26"/>
+      <c r="H147" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="19"/>
+      <c r="AA147" s="19"/>
+      <c r="AB147" s="19"/>
+      <c r="AC147" s="19"/>
+      <c r="AD147" s="19"/>
+      <c r="AE147" s="19"/>
+      <c r="AF147" s="19"/>
+      <c r="AG147" s="19"/>
+      <c r="AH147" s="19"/>
+      <c r="AI147" s="20"/>
       <c r="AK147" s="19"/>
     </row>
     <row r="148" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="49"/>
       <c r="B148" s="49"/>
       <c r="E148" s="30"/>
-      <c r="H148" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I148" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="19"/>
-      <c r="Q148" s="19"/>
-      <c r="R148" s="19"/>
-      <c r="S148" s="19"/>
-      <c r="T148" s="19"/>
-      <c r="U148" s="19"/>
-      <c r="V148" s="19"/>
-      <c r="W148" s="19"/>
-      <c r="X148" s="19"/>
-      <c r="Y148" s="19"/>
-      <c r="Z148" s="19"/>
-      <c r="AA148" s="19"/>
-      <c r="AB148" s="19"/>
-      <c r="AC148" s="19"/>
-      <c r="AD148" s="19"/>
-      <c r="AE148" s="19"/>
-      <c r="AF148" s="19"/>
-      <c r="AG148" s="19"/>
-      <c r="AH148" s="19"/>
-      <c r="AI148" s="19"/>
-      <c r="AJ148" s="19"/>
+      <c r="H148" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I148" s="22"/>
+      <c r="J148" s="22"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="22"/>
+      <c r="N148" s="22"/>
+      <c r="O148" s="22"/>
+      <c r="P148" s="22"/>
+      <c r="Q148" s="22"/>
+      <c r="R148" s="22"/>
+      <c r="S148" s="22"/>
+      <c r="T148" s="22"/>
+      <c r="U148" s="22"/>
+      <c r="V148" s="22"/>
+      <c r="W148" s="22"/>
+      <c r="X148" s="22"/>
+      <c r="Y148" s="22"/>
+      <c r="Z148" s="22"/>
+      <c r="AA148" s="22"/>
+      <c r="AB148" s="22"/>
+      <c r="AC148" s="22"/>
+      <c r="AD148" s="22"/>
+      <c r="AE148" s="22"/>
+      <c r="AF148" s="45"/>
+      <c r="AG148" s="22"/>
+      <c r="AH148" s="22"/>
+      <c r="AI148" s="26"/>
       <c r="AK148" s="19"/>
     </row>
     <row r="149" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6991,10 +6998,10 @@
       <c r="B149" s="49"/>
       <c r="E149" s="30"/>
       <c r="H149" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
@@ -7029,8 +7036,12 @@
       <c r="A150" s="49"/>
       <c r="B150" s="49"/>
       <c r="E150" s="30"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
+      <c r="H150" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>343</v>
+      </c>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
@@ -7099,57 +7110,51 @@
       <c r="A152" s="49"/>
       <c r="B152" s="49"/>
       <c r="E152" s="30"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="30" t="str">
-        <f>F143&amp;"-2"</f>
-        <v>(3)-2</v>
-      </c>
-      <c r="H152" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF152" s="49"/>
-      <c r="AG152" s="49"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="19"/>
+      <c r="T152" s="19"/>
+      <c r="U152" s="19"/>
+      <c r="V152" s="19"/>
+      <c r="W152" s="19"/>
+      <c r="X152" s="19"/>
+      <c r="Y152" s="19"/>
+      <c r="Z152" s="19"/>
+      <c r="AA152" s="19"/>
+      <c r="AB152" s="19"/>
+      <c r="AC152" s="19"/>
+      <c r="AD152" s="19"/>
+      <c r="AE152" s="19"/>
+      <c r="AF152" s="19"/>
+      <c r="AG152" s="19"/>
+      <c r="AH152" s="19"/>
+      <c r="AI152" s="19"/>
+      <c r="AJ152" s="19"/>
+      <c r="AK152" s="19"/>
     </row>
     <row r="153" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="49"/>
       <c r="B153" s="49"/>
       <c r="E153" s="30"/>
       <c r="F153" s="17"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="28"/>
-      <c r="L153" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="M153" s="28"/>
-      <c r="N153" s="28"/>
-      <c r="O153" s="28"/>
-      <c r="P153" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q153" s="28"/>
-      <c r="R153" s="28"/>
-      <c r="S153" s="28"/>
-      <c r="T153" s="28"/>
-      <c r="U153" s="28"/>
-      <c r="V153" s="28"/>
-      <c r="W153" s="28"/>
-      <c r="X153" s="28"/>
-      <c r="Y153" s="28"/>
-      <c r="Z153" s="28"/>
-      <c r="AA153" s="28"/>
-      <c r="AB153" s="28"/>
-      <c r="AC153" s="28"/>
-      <c r="AD153" s="28"/>
-      <c r="AE153" s="28"/>
-      <c r="AF153" s="28"/>
-      <c r="AG153" s="28"/>
-      <c r="AH153" s="28"/>
-      <c r="AI153" s="29"/>
+      <c r="G153" s="30" t="str">
+        <f>F144&amp;"-2"</f>
+        <v>(3)-2</v>
+      </c>
+      <c r="H153" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF153" s="49"/>
+      <c r="AG153" s="49"/>
     </row>
     <row r="154" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="49"/>
@@ -7157,40 +7162,40 @@
       <c r="E154" s="30"/>
       <c r="F154" s="17"/>
       <c r="G154" s="30"/>
-      <c r="H154" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="19"/>
-      <c r="S154" s="19"/>
-      <c r="T154" s="19"/>
-      <c r="U154" s="19"/>
-      <c r="V154" s="19"/>
-      <c r="W154" s="19"/>
-      <c r="X154" s="19"/>
-      <c r="Y154" s="19"/>
-      <c r="Z154" s="19"/>
-      <c r="AA154" s="19"/>
-      <c r="AB154" s="19"/>
-      <c r="AC154" s="19"/>
-      <c r="AD154" s="19"/>
-      <c r="AE154" s="19"/>
-      <c r="AF154" s="19"/>
-      <c r="AG154" s="19"/>
-      <c r="AH154" s="19"/>
-      <c r="AI154" s="20"/>
+      <c r="H154" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="M154" s="28"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="28"/>
+      <c r="P154" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q154" s="28"/>
+      <c r="R154" s="28"/>
+      <c r="S154" s="28"/>
+      <c r="T154" s="28"/>
+      <c r="U154" s="28"/>
+      <c r="V154" s="28"/>
+      <c r="W154" s="28"/>
+      <c r="X154" s="28"/>
+      <c r="Y154" s="28"/>
+      <c r="Z154" s="28"/>
+      <c r="AA154" s="28"/>
+      <c r="AB154" s="28"/>
+      <c r="AC154" s="28"/>
+      <c r="AD154" s="28"/>
+      <c r="AE154" s="28"/>
+      <c r="AF154" s="28"/>
+      <c r="AG154" s="28"/>
+      <c r="AH154" s="28"/>
+      <c r="AI154" s="29"/>
     </row>
     <row r="155" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="49"/>
@@ -7198,36 +7203,40 @@
       <c r="E155" s="30"/>
       <c r="F155" s="17"/>
       <c r="G155" s="30"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="22"/>
-      <c r="J155" s="22"/>
-      <c r="K155" s="22"/>
-      <c r="L155" s="21"/>
-      <c r="M155" s="22"/>
-      <c r="N155" s="22"/>
-      <c r="O155" s="22"/>
-      <c r="P155" s="21" t="s">
+      <c r="H155" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="Q155" s="22"/>
-      <c r="R155" s="22"/>
-      <c r="S155" s="22"/>
-      <c r="T155" s="22"/>
-      <c r="U155" s="22"/>
-      <c r="V155" s="22"/>
-      <c r="W155" s="22"/>
-      <c r="X155" s="22"/>
-      <c r="Y155" s="22"/>
-      <c r="Z155" s="22"/>
-      <c r="AA155" s="22"/>
-      <c r="AB155" s="22"/>
-      <c r="AC155" s="22"/>
-      <c r="AD155" s="22"/>
-      <c r="AE155" s="22"/>
-      <c r="AF155" s="45"/>
-      <c r="AG155" s="22"/>
-      <c r="AH155" s="22"/>
-      <c r="AI155" s="26"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="19"/>
+      <c r="T155" s="19"/>
+      <c r="U155" s="19"/>
+      <c r="V155" s="19"/>
+      <c r="W155" s="19"/>
+      <c r="X155" s="19"/>
+      <c r="Y155" s="19"/>
+      <c r="Z155" s="19"/>
+      <c r="AA155" s="19"/>
+      <c r="AB155" s="19"/>
+      <c r="AC155" s="19"/>
+      <c r="AD155" s="19"/>
+      <c r="AE155" s="19"/>
+      <c r="AF155" s="19"/>
+      <c r="AG155" s="19"/>
+      <c r="AH155" s="19"/>
+      <c r="AI155" s="20"/>
     </row>
     <row r="156" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="49"/>
@@ -7235,20 +7244,16 @@
       <c r="E156" s="30"/>
       <c r="F156" s="17"/>
       <c r="G156" s="30"/>
-      <c r="H156" s="21" t="s">
-        <v>124</v>
-      </c>
+      <c r="H156" s="21"/>
       <c r="I156" s="22"/>
       <c r="J156" s="22"/>
       <c r="K156" s="22"/>
-      <c r="L156" s="21" t="s">
-        <v>111</v>
-      </c>
+      <c r="L156" s="21"/>
       <c r="M156" s="22"/>
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
       <c r="P156" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q156" s="22"/>
       <c r="R156" s="22"/>
@@ -7277,19 +7282,19 @@
       <c r="F157" s="17"/>
       <c r="G157" s="30"/>
       <c r="H157" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I157" s="22"/>
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
       <c r="L157" s="21" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="M157" s="22"/>
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
       <c r="P157" s="21" t="s">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
@@ -7317,93 +7322,97 @@
       <c r="E158" s="30"/>
       <c r="F158" s="17"/>
       <c r="G158" s="30"/>
-      <c r="AF158" s="49"/>
+      <c r="H158" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I158" s="22"/>
+      <c r="J158" s="22"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M158" s="22"/>
+      <c r="N158" s="22"/>
+      <c r="O158" s="22"/>
+      <c r="P158" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q158" s="22"/>
+      <c r="R158" s="22"/>
+      <c r="S158" s="22"/>
+      <c r="T158" s="22"/>
+      <c r="U158" s="22"/>
+      <c r="V158" s="22"/>
+      <c r="W158" s="22"/>
+      <c r="X158" s="22"/>
+      <c r="Y158" s="22"/>
+      <c r="Z158" s="22"/>
+      <c r="AA158" s="22"/>
+      <c r="AB158" s="22"/>
+      <c r="AC158" s="22"/>
+      <c r="AD158" s="22"/>
+      <c r="AE158" s="22"/>
+      <c r="AF158" s="45"/>
+      <c r="AG158" s="22"/>
+      <c r="AH158" s="22"/>
+      <c r="AI158" s="26"/>
     </row>
     <row r="159" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="49"/>
       <c r="B159" s="49"/>
       <c r="E159" s="30"/>
-      <c r="F159" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G159" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="F159" s="17"/>
+      <c r="G159" s="30"/>
       <c r="AF159" s="49"/>
     </row>
     <row r="160" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="49"/>
       <c r="B160" s="49"/>
       <c r="E160" s="30"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
-      <c r="K160" s="24"/>
-      <c r="L160" s="24"/>
-      <c r="M160" s="24"/>
-      <c r="N160" s="24"/>
-      <c r="O160" s="24"/>
-      <c r="P160" s="24"/>
-      <c r="Q160" s="24"/>
-      <c r="R160" s="24"/>
-      <c r="S160" s="24"/>
-      <c r="T160" s="24"/>
-      <c r="U160" s="24"/>
-      <c r="V160" s="24"/>
-      <c r="W160" s="24"/>
-      <c r="X160" s="24"/>
-      <c r="Y160" s="24"/>
-      <c r="Z160" s="24"/>
-      <c r="AA160" s="24"/>
-      <c r="AB160" s="24"/>
-      <c r="AC160" s="24"/>
-      <c r="AD160" s="24"/>
-      <c r="AE160" s="24"/>
-      <c r="AF160" s="24"/>
-      <c r="AG160" s="24"/>
-      <c r="AH160" s="24"/>
-      <c r="AI160" s="25"/>
+      <c r="F160" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF160" s="49"/>
     </row>
     <row r="161" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="49"/>
       <c r="B161" s="49"/>
       <c r="E161" s="30"/>
       <c r="F161" s="17"/>
-      <c r="G161" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="19"/>
-      <c r="Q161" s="19"/>
-      <c r="R161" s="19"/>
-      <c r="S161" s="19"/>
-      <c r="T161" s="19"/>
-      <c r="U161" s="19"/>
-      <c r="V161" s="19"/>
-      <c r="W161" s="19"/>
-      <c r="X161" s="19"/>
-      <c r="Y161" s="19"/>
-      <c r="Z161" s="19"/>
-      <c r="AA161" s="19"/>
-      <c r="AB161" s="19"/>
-      <c r="AC161" s="19"/>
-      <c r="AD161" s="19"/>
-      <c r="AE161" s="19"/>
-      <c r="AF161" s="19"/>
-      <c r="AG161" s="19"/>
-      <c r="AH161" s="19"/>
-      <c r="AI161" s="20"/>
+      <c r="G161" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="24"/>
+      <c r="O161" s="24"/>
+      <c r="P161" s="24"/>
+      <c r="Q161" s="24"/>
+      <c r="R161" s="24"/>
+      <c r="S161" s="24"/>
+      <c r="T161" s="24"/>
+      <c r="U161" s="24"/>
+      <c r="V161" s="24"/>
+      <c r="W161" s="24"/>
+      <c r="X161" s="24"/>
+      <c r="Y161" s="24"/>
+      <c r="Z161" s="24"/>
+      <c r="AA161" s="24"/>
+      <c r="AB161" s="24"/>
+      <c r="AC161" s="24"/>
+      <c r="AD161" s="24"/>
+      <c r="AE161" s="24"/>
+      <c r="AF161" s="24"/>
+      <c r="AG161" s="24"/>
+      <c r="AH161" s="24"/>
+      <c r="AI161" s="25"/>
     </row>
     <row r="162" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="49"/>
@@ -7411,7 +7420,7 @@
       <c r="E162" s="30"/>
       <c r="F162" s="17"/>
       <c r="G162" s="52" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -7448,7 +7457,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="17"/>
       <c r="G163" s="52" t="s">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -7484,71 +7493,95 @@
       <c r="B164" s="49"/>
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
-      <c r="G164" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="H164" s="22"/>
-      <c r="I164" s="22"/>
-      <c r="J164" s="22"/>
-      <c r="K164" s="22"/>
-      <c r="L164" s="22"/>
-      <c r="M164" s="22"/>
-      <c r="N164" s="22"/>
-      <c r="O164" s="22"/>
-      <c r="P164" s="22"/>
-      <c r="Q164" s="22"/>
-      <c r="R164" s="22"/>
-      <c r="S164" s="22"/>
-      <c r="T164" s="22"/>
-      <c r="U164" s="22"/>
-      <c r="V164" s="22"/>
-      <c r="W164" s="22"/>
-      <c r="X164" s="22"/>
-      <c r="Y164" s="22"/>
-      <c r="Z164" s="22"/>
-      <c r="AA164" s="22"/>
-      <c r="AB164" s="22"/>
-      <c r="AC164" s="22"/>
-      <c r="AD164" s="22"/>
-      <c r="AE164" s="22"/>
-      <c r="AF164" s="45"/>
-      <c r="AG164" s="22"/>
-      <c r="AH164" s="22"/>
-      <c r="AI164" s="26"/>
+      <c r="G164" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
+      <c r="S164" s="19"/>
+      <c r="T164" s="19"/>
+      <c r="U164" s="19"/>
+      <c r="V164" s="19"/>
+      <c r="W164" s="19"/>
+      <c r="X164" s="19"/>
+      <c r="Y164" s="19"/>
+      <c r="Z164" s="19"/>
+      <c r="AA164" s="19"/>
+      <c r="AB164" s="19"/>
+      <c r="AC164" s="19"/>
+      <c r="AD164" s="19"/>
+      <c r="AE164" s="19"/>
+      <c r="AF164" s="19"/>
+      <c r="AG164" s="19"/>
+      <c r="AH164" s="19"/>
+      <c r="AI164" s="20"/>
     </row>
     <row r="165" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="49"/>
       <c r="B165" s="49"/>
       <c r="E165" s="30"/>
       <c r="F165" s="17"/>
-      <c r="AF165" s="49"/>
-      <c r="AG165" s="49"/>
-    </row>
-    <row r="166" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G165" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="22"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="22"/>
+      <c r="P165" s="22"/>
+      <c r="Q165" s="22"/>
+      <c r="R165" s="22"/>
+      <c r="S165" s="22"/>
+      <c r="T165" s="22"/>
+      <c r="U165" s="22"/>
+      <c r="V165" s="22"/>
+      <c r="W165" s="22"/>
+      <c r="X165" s="22"/>
+      <c r="Y165" s="22"/>
+      <c r="Z165" s="22"/>
+      <c r="AA165" s="22"/>
+      <c r="AB165" s="22"/>
+      <c r="AC165" s="22"/>
+      <c r="AD165" s="22"/>
+      <c r="AE165" s="22"/>
+      <c r="AF165" s="45"/>
+      <c r="AG165" s="22"/>
+      <c r="AH165" s="22"/>
+      <c r="AI165" s="26"/>
+    </row>
+    <row r="166" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="49"/>
+      <c r="B166" s="49"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="17"/>
       <c r="AF166" s="49"/>
       <c r="AG166" s="49"/>
     </row>
-    <row r="167" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="49"/>
-      <c r="B167" s="49"/>
-      <c r="E167" s="30" t="str">
-        <f>$D$110&amp;"2."</f>
-        <v>7.13.3.2.</v>
-      </c>
-      <c r="F167" s="31" t="s">
-        <v>132</v>
-      </c>
+    <row r="167" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF167" s="49"/>
       <c r="AG167" s="49"/>
     </row>
     <row r="168" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="49"/>
       <c r="B168" s="49"/>
-      <c r="E168" s="30"/>
-      <c r="F168" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="16" t="s">
+      <c r="E168" s="30" t="str">
+        <f>$D$111&amp;"2."</f>
+        <v>7.13.3.2.</v>
+      </c>
+      <c r="F168" s="31" t="s">
         <v>131</v>
       </c>
       <c r="AF168" s="49"/>
@@ -7558,106 +7591,106 @@
       <c r="A169" s="49"/>
       <c r="B169" s="49"/>
       <c r="E169" s="30"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H169" s="28"/>
-      <c r="I169" s="29"/>
-      <c r="J169" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="K169" s="28"/>
-      <c r="L169" s="29"/>
-      <c r="M169" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="N169" s="28"/>
-      <c r="O169" s="28"/>
-      <c r="P169" s="28"/>
-      <c r="Q169" s="29"/>
-      <c r="R169" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="S169" s="28"/>
-      <c r="T169" s="28"/>
-      <c r="U169" s="28"/>
-      <c r="V169" s="28"/>
-      <c r="W169" s="28"/>
-      <c r="X169" s="28"/>
-      <c r="Y169" s="28"/>
-      <c r="Z169" s="28"/>
-      <c r="AA169" s="28"/>
-      <c r="AB169" s="28"/>
-      <c r="AC169" s="28"/>
-      <c r="AD169" s="28"/>
-      <c r="AE169" s="28"/>
-      <c r="AF169" s="28"/>
-      <c r="AG169" s="28"/>
-      <c r="AH169" s="28"/>
-      <c r="AI169" s="29"/>
+      <c r="F169" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF169" s="49"/>
+      <c r="AG169" s="49"/>
     </row>
     <row r="170" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="49"/>
       <c r="B170" s="49"/>
       <c r="E170" s="30"/>
       <c r="F170" s="31"/>
-      <c r="G170" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H170" s="47"/>
-      <c r="I170" s="48"/>
-      <c r="J170" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="K170" s="47"/>
-      <c r="L170" s="48"/>
-      <c r="M170" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="N170" s="47"/>
-      <c r="O170" s="47"/>
-      <c r="P170" s="47"/>
-      <c r="Q170" s="48"/>
-      <c r="R170" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="S170" s="47"/>
-      <c r="T170" s="47"/>
-      <c r="U170" s="47"/>
-      <c r="V170" s="47"/>
-      <c r="W170" s="47"/>
-      <c r="X170" s="47"/>
-      <c r="Y170" s="47"/>
-      <c r="Z170" s="47"/>
-      <c r="AA170" s="47"/>
-      <c r="AB170" s="47"/>
-      <c r="AC170" s="47"/>
-      <c r="AD170" s="47"/>
-      <c r="AE170" s="47"/>
-      <c r="AF170" s="47"/>
-      <c r="AG170" s="47"/>
-      <c r="AH170" s="47"/>
-      <c r="AI170" s="48"/>
+      <c r="G170" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H170" s="28"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="K170" s="28"/>
+      <c r="L170" s="29"/>
+      <c r="M170" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="N170" s="28"/>
+      <c r="O170" s="28"/>
+      <c r="P170" s="28"/>
+      <c r="Q170" s="29"/>
+      <c r="R170" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="S170" s="28"/>
+      <c r="T170" s="28"/>
+      <c r="U170" s="28"/>
+      <c r="V170" s="28"/>
+      <c r="W170" s="28"/>
+      <c r="X170" s="28"/>
+      <c r="Y170" s="28"/>
+      <c r="Z170" s="28"/>
+      <c r="AA170" s="28"/>
+      <c r="AB170" s="28"/>
+      <c r="AC170" s="28"/>
+      <c r="AD170" s="28"/>
+      <c r="AE170" s="28"/>
+      <c r="AF170" s="28"/>
+      <c r="AG170" s="28"/>
+      <c r="AH170" s="28"/>
+      <c r="AI170" s="29"/>
     </row>
     <row r="171" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="49"/>
       <c r="B171" s="49"/>
       <c r="E171" s="30"/>
       <c r="F171" s="31"/>
-      <c r="AF171" s="49"/>
-      <c r="AG171" s="49"/>
+      <c r="G171" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H171" s="47"/>
+      <c r="I171" s="48"/>
+      <c r="J171" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="K171" s="47"/>
+      <c r="L171" s="48"/>
+      <c r="M171" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="N171" s="47"/>
+      <c r="O171" s="47"/>
+      <c r="P171" s="47"/>
+      <c r="Q171" s="48"/>
+      <c r="R171" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="S171" s="47"/>
+      <c r="T171" s="47"/>
+      <c r="U171" s="47"/>
+      <c r="V171" s="47"/>
+      <c r="W171" s="47"/>
+      <c r="X171" s="47"/>
+      <c r="Y171" s="47"/>
+      <c r="Z171" s="47"/>
+      <c r="AA171" s="47"/>
+      <c r="AB171" s="47"/>
+      <c r="AC171" s="47"/>
+      <c r="AD171" s="47"/>
+      <c r="AE171" s="47"/>
+      <c r="AF171" s="47"/>
+      <c r="AG171" s="47"/>
+      <c r="AH171" s="47"/>
+      <c r="AI171" s="48"/>
     </row>
     <row r="172" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="49"/>
       <c r="B172" s="49"/>
       <c r="E172" s="30"/>
-      <c r="F172" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>118</v>
-      </c>
+      <c r="F172" s="31"/>
       <c r="AF172" s="49"/>
       <c r="AG172" s="49"/>
     </row>
@@ -7665,13 +7698,11 @@
       <c r="A173" s="49"/>
       <c r="B173" s="49"/>
       <c r="E173" s="30"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="30" t="str">
-        <f>F172&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H173" s="16" t="s">
-        <v>119</v>
+      <c r="F173" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="AF173" s="49"/>
       <c r="AG173" s="49"/>
@@ -7680,38 +7711,16 @@
       <c r="A174" s="49"/>
       <c r="B174" s="49"/>
       <c r="E174" s="30"/>
-      <c r="F174" s="30"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="I174" s="33"/>
-      <c r="J174" s="33"/>
-      <c r="K174" s="33"/>
-      <c r="L174" s="33"/>
-      <c r="M174" s="33"/>
-      <c r="N174" s="33"/>
-      <c r="O174" s="33"/>
-      <c r="P174" s="33"/>
-      <c r="Q174" s="33"/>
-      <c r="R174" s="33"/>
-      <c r="S174" s="33"/>
-      <c r="T174" s="33"/>
-      <c r="U174" s="33"/>
-      <c r="V174" s="33"/>
-      <c r="W174" s="33"/>
-      <c r="X174" s="33"/>
-      <c r="Y174" s="33"/>
-      <c r="Z174" s="33"/>
-      <c r="AA174" s="33"/>
-      <c r="AB174" s="33"/>
-      <c r="AC174" s="33"/>
-      <c r="AD174" s="33"/>
-      <c r="AE174" s="33"/>
-      <c r="AF174" s="47"/>
-      <c r="AG174" s="47"/>
-      <c r="AH174" s="33"/>
-      <c r="AI174" s="34"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="30" t="str">
+        <f>F173&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF174" s="49"/>
+      <c r="AG174" s="49"/>
     </row>
     <row r="175" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="49"/>
@@ -7719,11 +7728,36 @@
       <c r="E175" s="30"/>
       <c r="F175" s="30"/>
       <c r="G175" s="17"/>
-      <c r="H175" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF175" s="49"/>
-      <c r="AG175" s="49"/>
+      <c r="H175" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="I175" s="33"/>
+      <c r="J175" s="33"/>
+      <c r="K175" s="33"/>
+      <c r="L175" s="33"/>
+      <c r="M175" s="33"/>
+      <c r="N175" s="33"/>
+      <c r="O175" s="33"/>
+      <c r="P175" s="33"/>
+      <c r="Q175" s="33"/>
+      <c r="R175" s="33"/>
+      <c r="S175" s="33"/>
+      <c r="T175" s="33"/>
+      <c r="U175" s="33"/>
+      <c r="V175" s="33"/>
+      <c r="W175" s="33"/>
+      <c r="X175" s="33"/>
+      <c r="Y175" s="33"/>
+      <c r="Z175" s="33"/>
+      <c r="AA175" s="33"/>
+      <c r="AB175" s="33"/>
+      <c r="AC175" s="33"/>
+      <c r="AD175" s="33"/>
+      <c r="AE175" s="33"/>
+      <c r="AF175" s="47"/>
+      <c r="AG175" s="47"/>
+      <c r="AH175" s="33"/>
+      <c r="AI175" s="34"/>
     </row>
     <row r="176" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="49"/>
@@ -7731,6 +7765,9 @@
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
       <c r="G176" s="17"/>
+      <c r="H176" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="AF176" s="49"/>
       <c r="AG176" s="49"/>
     </row>
@@ -7738,14 +7775,8 @@
       <c r="A177" s="49"/>
       <c r="B177" s="49"/>
       <c r="E177" s="30"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="30" t="str">
-        <f>F172&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H177" s="16" t="s">
-        <v>86</v>
-      </c>
+      <c r="F177" s="30"/>
+      <c r="G177" s="17"/>
       <c r="AF177" s="49"/>
       <c r="AG177" s="49"/>
     </row>
@@ -7754,41 +7785,15 @@
       <c r="B178" s="49"/>
       <c r="E178" s="30"/>
       <c r="F178" s="17"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="28"/>
-      <c r="L178" s="28"/>
-      <c r="M178" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="N178" s="28"/>
-      <c r="O178" s="28"/>
-      <c r="P178" s="29"/>
-      <c r="Q178" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="R178" s="28"/>
-      <c r="S178" s="28"/>
-      <c r="T178" s="28"/>
-      <c r="U178" s="28"/>
-      <c r="V178" s="28"/>
-      <c r="W178" s="28"/>
-      <c r="X178" s="28"/>
-      <c r="Y178" s="28"/>
-      <c r="Z178" s="28"/>
-      <c r="AA178" s="28"/>
-      <c r="AB178" s="28"/>
-      <c r="AC178" s="28"/>
-      <c r="AD178" s="28"/>
-      <c r="AE178" s="28"/>
-      <c r="AF178" s="28"/>
-      <c r="AG178" s="28"/>
-      <c r="AH178" s="28"/>
-      <c r="AI178" s="29"/>
+      <c r="G178" s="30" t="str">
+        <f>F173&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H178" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF178" s="49"/>
+      <c r="AG178" s="49"/>
     </row>
     <row r="179" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="49"/>
@@ -7796,40 +7801,40 @@
       <c r="E179" s="30"/>
       <c r="F179" s="17"/>
       <c r="G179" s="30"/>
-      <c r="H179" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N179" s="19"/>
-      <c r="O179" s="19"/>
-      <c r="P179" s="20"/>
-      <c r="Q179" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="R179" s="19"/>
-      <c r="S179" s="19"/>
-      <c r="T179" s="19"/>
-      <c r="U179" s="19"/>
-      <c r="V179" s="19"/>
-      <c r="W179" s="19"/>
-      <c r="X179" s="19"/>
-      <c r="Y179" s="19"/>
-      <c r="Z179" s="19"/>
-      <c r="AA179" s="19"/>
-      <c r="AB179" s="19"/>
-      <c r="AC179" s="19"/>
-      <c r="AD179" s="19"/>
-      <c r="AE179" s="19"/>
-      <c r="AF179" s="19"/>
-      <c r="AG179" s="19"/>
-      <c r="AH179" s="19"/>
-      <c r="AI179" s="20"/>
+      <c r="H179" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I179" s="28"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="28"/>
+      <c r="M179" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="N179" s="28"/>
+      <c r="O179" s="28"/>
+      <c r="P179" s="29"/>
+      <c r="Q179" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="R179" s="28"/>
+      <c r="S179" s="28"/>
+      <c r="T179" s="28"/>
+      <c r="U179" s="28"/>
+      <c r="V179" s="28"/>
+      <c r="W179" s="28"/>
+      <c r="X179" s="28"/>
+      <c r="Y179" s="28"/>
+      <c r="Z179" s="28"/>
+      <c r="AA179" s="28"/>
+      <c r="AB179" s="28"/>
+      <c r="AC179" s="28"/>
+      <c r="AD179" s="28"/>
+      <c r="AE179" s="28"/>
+      <c r="AF179" s="28"/>
+      <c r="AG179" s="28"/>
+      <c r="AH179" s="28"/>
+      <c r="AI179" s="29"/>
     </row>
     <row r="180" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="49"/>
@@ -7837,40 +7842,40 @@
       <c r="E180" s="30"/>
       <c r="F180" s="17"/>
       <c r="G180" s="30"/>
-      <c r="H180" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I180" s="33"/>
-      <c r="J180" s="33"/>
-      <c r="K180" s="33"/>
-      <c r="L180" s="33"/>
-      <c r="M180" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N180" s="33"/>
-      <c r="O180" s="33"/>
-      <c r="P180" s="34"/>
-      <c r="Q180" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="R180" s="33"/>
-      <c r="S180" s="33"/>
-      <c r="T180" s="33"/>
-      <c r="U180" s="33"/>
-      <c r="V180" s="33"/>
-      <c r="W180" s="33"/>
-      <c r="X180" s="33"/>
-      <c r="Y180" s="33"/>
-      <c r="Z180" s="33"/>
-      <c r="AA180" s="33"/>
-      <c r="AB180" s="33"/>
-      <c r="AC180" s="33"/>
-      <c r="AD180" s="33"/>
-      <c r="AE180" s="33"/>
-      <c r="AF180" s="47"/>
-      <c r="AG180" s="47"/>
-      <c r="AH180" s="33"/>
-      <c r="AI180" s="34"/>
+      <c r="H180" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="20"/>
+      <c r="Q180" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="R180" s="19"/>
+      <c r="S180" s="19"/>
+      <c r="T180" s="19"/>
+      <c r="U180" s="19"/>
+      <c r="V180" s="19"/>
+      <c r="W180" s="19"/>
+      <c r="X180" s="19"/>
+      <c r="Y180" s="19"/>
+      <c r="Z180" s="19"/>
+      <c r="AA180" s="19"/>
+      <c r="AB180" s="19"/>
+      <c r="AC180" s="19"/>
+      <c r="AD180" s="19"/>
+      <c r="AE180" s="19"/>
+      <c r="AF180" s="19"/>
+      <c r="AG180" s="19"/>
+      <c r="AH180" s="19"/>
+      <c r="AI180" s="20"/>
     </row>
     <row r="181" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="49"/>
@@ -7878,40 +7883,40 @@
       <c r="E181" s="30"/>
       <c r="F181" s="17"/>
       <c r="G181" s="30"/>
-      <c r="H181" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N181" s="19"/>
-      <c r="O181" s="19"/>
-      <c r="P181" s="20"/>
-      <c r="Q181" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="R181" s="19"/>
-      <c r="S181" s="19"/>
-      <c r="T181" s="19"/>
-      <c r="U181" s="19"/>
-      <c r="V181" s="19"/>
-      <c r="W181" s="19"/>
-      <c r="X181" s="19"/>
-      <c r="Y181" s="19"/>
-      <c r="Z181" s="19"/>
-      <c r="AA181" s="19"/>
-      <c r="AB181" s="19"/>
-      <c r="AC181" s="19"/>
-      <c r="AD181" s="19"/>
-      <c r="AE181" s="19"/>
-      <c r="AF181" s="19"/>
-      <c r="AG181" s="19"/>
-      <c r="AH181" s="19"/>
-      <c r="AI181" s="20"/>
+      <c r="H181" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="33"/>
+      <c r="J181" s="33"/>
+      <c r="K181" s="33"/>
+      <c r="L181" s="33"/>
+      <c r="M181" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N181" s="33"/>
+      <c r="O181" s="33"/>
+      <c r="P181" s="34"/>
+      <c r="Q181" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="R181" s="33"/>
+      <c r="S181" s="33"/>
+      <c r="T181" s="33"/>
+      <c r="U181" s="33"/>
+      <c r="V181" s="33"/>
+      <c r="W181" s="33"/>
+      <c r="X181" s="33"/>
+      <c r="Y181" s="33"/>
+      <c r="Z181" s="33"/>
+      <c r="AA181" s="33"/>
+      <c r="AB181" s="33"/>
+      <c r="AC181" s="33"/>
+      <c r="AD181" s="33"/>
+      <c r="AE181" s="33"/>
+      <c r="AF181" s="47"/>
+      <c r="AG181" s="47"/>
+      <c r="AH181" s="33"/>
+      <c r="AI181" s="34"/>
     </row>
     <row r="182" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="49"/>
@@ -7919,17 +7924,21 @@
       <c r="E182" s="30"/>
       <c r="F182" s="17"/>
       <c r="G182" s="30"/>
-      <c r="H182" s="18"/>
+      <c r="H182" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="I182" s="19"/>
       <c r="J182" s="19"/>
       <c r="K182" s="19"/>
       <c r="L182" s="19"/>
-      <c r="M182" s="18"/>
+      <c r="M182" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="N182" s="19"/>
       <c r="O182" s="19"/>
       <c r="P182" s="20"/>
       <c r="Q182" s="19" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="R182" s="19"/>
       <c r="S182" s="19"/>
@@ -7956,131 +7965,155 @@
       <c r="E183" s="30"/>
       <c r="F183" s="17"/>
       <c r="G183" s="30"/>
-      <c r="H183" s="21"/>
-      <c r="I183" s="22"/>
-      <c r="J183" s="22"/>
-      <c r="K183" s="22"/>
-      <c r="L183" s="22"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="22"/>
-      <c r="O183" s="22"/>
-      <c r="P183" s="26"/>
-      <c r="Q183" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="R183" s="22"/>
-      <c r="S183" s="22"/>
-      <c r="T183" s="22"/>
-      <c r="U183" s="22"/>
-      <c r="V183" s="22"/>
-      <c r="W183" s="22"/>
-      <c r="X183" s="22"/>
-      <c r="Y183" s="22"/>
-      <c r="Z183" s="22"/>
-      <c r="AA183" s="22"/>
-      <c r="AB183" s="22"/>
-      <c r="AC183" s="22"/>
-      <c r="AD183" s="22"/>
-      <c r="AE183" s="22"/>
-      <c r="AF183" s="45"/>
-      <c r="AG183" s="45"/>
-      <c r="AH183" s="22"/>
-      <c r="AI183" s="26"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="19"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="20"/>
+      <c r="Q183" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R183" s="19"/>
+      <c r="S183" s="19"/>
+      <c r="T183" s="19"/>
+      <c r="U183" s="19"/>
+      <c r="V183" s="19"/>
+      <c r="W183" s="19"/>
+      <c r="X183" s="19"/>
+      <c r="Y183" s="19"/>
+      <c r="Z183" s="19"/>
+      <c r="AA183" s="19"/>
+      <c r="AB183" s="19"/>
+      <c r="AC183" s="19"/>
+      <c r="AD183" s="19"/>
+      <c r="AE183" s="19"/>
+      <c r="AF183" s="19"/>
+      <c r="AG183" s="19"/>
+      <c r="AH183" s="19"/>
+      <c r="AI183" s="20"/>
     </row>
     <row r="184" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="49"/>
       <c r="B184" s="49"/>
       <c r="E184" s="30"/>
-      <c r="H184" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="I184" s="24"/>
-      <c r="J184" s="24"/>
-      <c r="K184" s="24"/>
-      <c r="L184" s="24"/>
-      <c r="M184" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="N184" s="24"/>
-      <c r="O184" s="24"/>
-      <c r="P184" s="24"/>
-      <c r="Q184" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="R184" s="24"/>
-      <c r="S184" s="24"/>
-      <c r="T184" s="24"/>
-      <c r="U184" s="24"/>
-      <c r="V184" s="24"/>
-      <c r="W184" s="24"/>
-      <c r="X184" s="24"/>
-      <c r="Y184" s="24"/>
-      <c r="Z184" s="24"/>
-      <c r="AA184" s="24"/>
-      <c r="AB184" s="24"/>
-      <c r="AC184" s="24"/>
-      <c r="AD184" s="24"/>
-      <c r="AE184" s="24"/>
-      <c r="AF184" s="24"/>
-      <c r="AG184" s="24"/>
-      <c r="AH184" s="24"/>
-      <c r="AI184" s="25"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="22"/>
+      <c r="J184" s="22"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="22"/>
+      <c r="M184" s="21"/>
+      <c r="N184" s="22"/>
+      <c r="O184" s="22"/>
+      <c r="P184" s="26"/>
+      <c r="Q184" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R184" s="22"/>
+      <c r="S184" s="22"/>
+      <c r="T184" s="22"/>
+      <c r="U184" s="22"/>
+      <c r="V184" s="22"/>
+      <c r="W184" s="22"/>
+      <c r="X184" s="22"/>
+      <c r="Y184" s="22"/>
+      <c r="Z184" s="22"/>
+      <c r="AA184" s="22"/>
+      <c r="AB184" s="22"/>
+      <c r="AC184" s="22"/>
+      <c r="AD184" s="22"/>
+      <c r="AE184" s="22"/>
+      <c r="AF184" s="45"/>
+      <c r="AG184" s="45"/>
+      <c r="AH184" s="22"/>
+      <c r="AI184" s="26"/>
     </row>
     <row r="185" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="49"/>
       <c r="B185" s="49"/>
       <c r="E185" s="30"/>
-      <c r="H185" s="21"/>
-      <c r="I185" s="22"/>
-      <c r="J185" s="22"/>
-      <c r="K185" s="22"/>
-      <c r="L185" s="22"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="22"/>
-      <c r="O185" s="22"/>
-      <c r="P185" s="22"/>
-      <c r="Q185" s="21" t="str">
-        <f>$F$187&amp;$G$187&amp;"参照。"</f>
-        <v>(3)HTTPアクセスメッセージのフォーマット定義参照。</v>
-      </c>
-      <c r="R185" s="22"/>
-      <c r="S185" s="22"/>
-      <c r="T185" s="22"/>
-      <c r="U185" s="22"/>
-      <c r="V185" s="22"/>
-      <c r="W185" s="22"/>
-      <c r="X185" s="22"/>
-      <c r="Y185" s="22"/>
-      <c r="Z185" s="22"/>
-      <c r="AA185" s="22"/>
-      <c r="AB185" s="22"/>
-      <c r="AC185" s="22"/>
-      <c r="AD185" s="22"/>
-      <c r="AE185" s="22"/>
-      <c r="AF185" s="45"/>
-      <c r="AG185" s="45"/>
-      <c r="AH185" s="22"/>
-      <c r="AI185" s="26"/>
+      <c r="H185" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="N185" s="24"/>
+      <c r="O185" s="24"/>
+      <c r="P185" s="24"/>
+      <c r="Q185" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="R185" s="24"/>
+      <c r="S185" s="24"/>
+      <c r="T185" s="24"/>
+      <c r="U185" s="24"/>
+      <c r="V185" s="24"/>
+      <c r="W185" s="24"/>
+      <c r="X185" s="24"/>
+      <c r="Y185" s="24"/>
+      <c r="Z185" s="24"/>
+      <c r="AA185" s="24"/>
+      <c r="AB185" s="24"/>
+      <c r="AC185" s="24"/>
+      <c r="AD185" s="24"/>
+      <c r="AE185" s="24"/>
+      <c r="AF185" s="24"/>
+      <c r="AG185" s="24"/>
+      <c r="AH185" s="24"/>
+      <c r="AI185" s="25"/>
     </row>
     <row r="186" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="49"/>
       <c r="B186" s="49"/>
       <c r="E186" s="30"/>
-      <c r="F186" s="30"/>
-      <c r="G186" s="17"/>
-      <c r="AF186" s="49"/>
-      <c r="AG186" s="49"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="22"/>
+      <c r="J186" s="22"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="22"/>
+      <c r="M186" s="21"/>
+      <c r="N186" s="22"/>
+      <c r="O186" s="22"/>
+      <c r="P186" s="22"/>
+      <c r="Q186" s="21" t="str">
+        <f>$F$188&amp;$G$188&amp;"参照。"</f>
+        <v>(3)HTTPアクセスメッセージのフォーマット定義参照。</v>
+      </c>
+      <c r="R186" s="22"/>
+      <c r="S186" s="22"/>
+      <c r="T186" s="22"/>
+      <c r="U186" s="22"/>
+      <c r="V186" s="22"/>
+      <c r="W186" s="22"/>
+      <c r="X186" s="22"/>
+      <c r="Y186" s="22"/>
+      <c r="Z186" s="22"/>
+      <c r="AA186" s="22"/>
+      <c r="AB186" s="22"/>
+      <c r="AC186" s="22"/>
+      <c r="AD186" s="22"/>
+      <c r="AE186" s="22"/>
+      <c r="AF186" s="45"/>
+      <c r="AG186" s="45"/>
+      <c r="AH186" s="22"/>
+      <c r="AI186" s="26"/>
     </row>
     <row r="187" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="49"/>
       <c r="B187" s="49"/>
       <c r="E187" s="30"/>
-      <c r="F187" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G187" s="16" t="s">
-        <v>205</v>
-      </c>
+      <c r="F187" s="30"/>
+      <c r="G187" s="17"/>
       <c r="AF187" s="49"/>
       <c r="AG187" s="49"/>
     </row>
@@ -8088,13 +8121,11 @@
       <c r="A188" s="49"/>
       <c r="B188" s="49"/>
       <c r="E188" s="30"/>
-      <c r="F188" s="17"/>
-      <c r="G188" s="30" t="str">
-        <f>$F$187&amp;"-1"</f>
-        <v>(3)-1</v>
-      </c>
-      <c r="H188" s="16" t="s">
-        <v>217</v>
+      <c r="F188" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G188" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="AF188" s="49"/>
       <c r="AG188" s="49"/>
@@ -8104,9 +8135,12 @@
       <c r="B189" s="49"/>
       <c r="E189" s="30"/>
       <c r="F189" s="17"/>
-      <c r="G189" s="30"/>
+      <c r="G189" s="30" t="str">
+        <f>$F$188&amp;"-1"</f>
+        <v>(3)-1</v>
+      </c>
       <c r="H189" s="16" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AF189" s="49"/>
       <c r="AG189" s="49"/>
@@ -8115,38 +8149,13 @@
       <c r="A190" s="49"/>
       <c r="B190" s="49"/>
       <c r="E190" s="30"/>
-      <c r="F190" s="30"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="I190" s="24"/>
-      <c r="J190" s="24"/>
-      <c r="K190" s="24"/>
-      <c r="L190" s="24"/>
-      <c r="M190" s="24"/>
-      <c r="N190" s="24"/>
-      <c r="O190" s="24"/>
-      <c r="P190" s="24"/>
-      <c r="Q190" s="24"/>
-      <c r="R190" s="24"/>
-      <c r="S190" s="24"/>
-      <c r="T190" s="24"/>
-      <c r="U190" s="24"/>
-      <c r="V190" s="24"/>
-      <c r="W190" s="24"/>
-      <c r="X190" s="24"/>
-      <c r="Y190" s="24"/>
-      <c r="Z190" s="24"/>
-      <c r="AA190" s="24"/>
-      <c r="AB190" s="24"/>
-      <c r="AC190" s="24"/>
-      <c r="AD190" s="24"/>
-      <c r="AE190" s="24"/>
-      <c r="AF190" s="24"/>
-      <c r="AG190" s="24"/>
-      <c r="AH190" s="24"/>
-      <c r="AI190" s="25"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF190" s="49"/>
+      <c r="AG190" s="49"/>
     </row>
     <row r="191" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="49"/>
@@ -8154,36 +8163,36 @@
       <c r="E191" s="30"/>
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
-      <c r="H191" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
-      <c r="R191" s="19"/>
-      <c r="S191" s="19"/>
-      <c r="T191" s="19"/>
-      <c r="U191" s="19"/>
-      <c r="V191" s="19"/>
-      <c r="W191" s="19"/>
-      <c r="X191" s="19"/>
-      <c r="Y191" s="19"/>
-      <c r="Z191" s="19"/>
-      <c r="AA191" s="19"/>
-      <c r="AB191" s="19"/>
-      <c r="AC191" s="19"/>
-      <c r="AD191" s="19"/>
-      <c r="AE191" s="19"/>
-      <c r="AF191" s="19"/>
-      <c r="AG191" s="19"/>
-      <c r="AH191" s="19"/>
-      <c r="AI191" s="20"/>
+      <c r="H191" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
+      <c r="N191" s="24"/>
+      <c r="O191" s="24"/>
+      <c r="P191" s="24"/>
+      <c r="Q191" s="24"/>
+      <c r="R191" s="24"/>
+      <c r="S191" s="24"/>
+      <c r="T191" s="24"/>
+      <c r="U191" s="24"/>
+      <c r="V191" s="24"/>
+      <c r="W191" s="24"/>
+      <c r="X191" s="24"/>
+      <c r="Y191" s="24"/>
+      <c r="Z191" s="24"/>
+      <c r="AA191" s="24"/>
+      <c r="AB191" s="24"/>
+      <c r="AC191" s="24"/>
+      <c r="AD191" s="24"/>
+      <c r="AE191" s="24"/>
+      <c r="AF191" s="24"/>
+      <c r="AG191" s="24"/>
+      <c r="AH191" s="24"/>
+      <c r="AI191" s="25"/>
     </row>
     <row r="192" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="49"/>
@@ -8192,7 +8201,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8229,7 +8238,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8266,7 +8275,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8303,7 +8312,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8333,92 +8342,122 @@
       <c r="AH195" s="19"/>
       <c r="AI195" s="20"/>
     </row>
-    <row r="196" spans="1:37" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E196" s="37"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="38"/>
-      <c r="H196" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="I196" s="22"/>
-      <c r="J196" s="22"/>
-      <c r="K196" s="22"/>
-      <c r="L196" s="22"/>
-      <c r="M196" s="22"/>
-      <c r="N196" s="22"/>
-      <c r="O196" s="22"/>
-      <c r="P196" s="22"/>
-      <c r="Q196" s="22"/>
-      <c r="R196" s="22"/>
-      <c r="S196" s="22"/>
-      <c r="T196" s="22"/>
-      <c r="U196" s="22"/>
-      <c r="V196" s="22"/>
-      <c r="W196" s="22"/>
-      <c r="X196" s="22"/>
-      <c r="Y196" s="22"/>
-      <c r="Z196" s="22"/>
-      <c r="AA196" s="22"/>
-      <c r="AB196" s="22"/>
-      <c r="AC196" s="22"/>
-      <c r="AD196" s="22"/>
-      <c r="AE196" s="22"/>
-      <c r="AF196" s="45"/>
-      <c r="AG196" s="22"/>
-      <c r="AH196" s="22"/>
-      <c r="AI196" s="26"/>
-    </row>
-    <row r="197" spans="1:37" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E197" s="30"/>
-      <c r="H197" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="19"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
-      <c r="N197" s="19"/>
-      <c r="O197" s="19"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="19"/>
-      <c r="R197" s="19"/>
-      <c r="S197" s="19"/>
-      <c r="T197" s="19"/>
-      <c r="U197" s="19"/>
-      <c r="V197" s="19"/>
-      <c r="W197" s="19"/>
-      <c r="X197" s="19"/>
-      <c r="Y197" s="19"/>
-      <c r="Z197" s="19"/>
-      <c r="AA197" s="19"/>
-      <c r="AB197" s="19"/>
-      <c r="AC197" s="19"/>
-      <c r="AD197" s="19"/>
-      <c r="AE197" s="19"/>
-      <c r="AF197" s="19"/>
-      <c r="AG197" s="19"/>
-      <c r="AH197" s="19"/>
-      <c r="AI197" s="19"/>
-      <c r="AJ197" s="19"/>
-      <c r="AK197" s="19"/>
-    </row>
-    <row r="198" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="49"/>
-      <c r="B198" s="49"/>
+    <row r="196" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="49"/>
+      <c r="B196" s="49"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="I196" s="19"/>
+      <c r="J196" s="19"/>
+      <c r="K196" s="19"/>
+      <c r="L196" s="19"/>
+      <c r="M196" s="19"/>
+      <c r="N196" s="19"/>
+      <c r="O196" s="19"/>
+      <c r="P196" s="19"/>
+      <c r="Q196" s="19"/>
+      <c r="R196" s="19"/>
+      <c r="S196" s="19"/>
+      <c r="T196" s="19"/>
+      <c r="U196" s="19"/>
+      <c r="V196" s="19"/>
+      <c r="W196" s="19"/>
+      <c r="X196" s="19"/>
+      <c r="Y196" s="19"/>
+      <c r="Z196" s="19"/>
+      <c r="AA196" s="19"/>
+      <c r="AB196" s="19"/>
+      <c r="AC196" s="19"/>
+      <c r="AD196" s="19"/>
+      <c r="AE196" s="19"/>
+      <c r="AF196" s="19"/>
+      <c r="AG196" s="19"/>
+      <c r="AH196" s="19"/>
+      <c r="AI196" s="20"/>
+    </row>
+    <row r="197" spans="1:37" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E197" s="37"/>
+      <c r="F197" s="37"/>
+      <c r="G197" s="38"/>
+      <c r="H197" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="I197" s="22"/>
+      <c r="J197" s="22"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="22"/>
+      <c r="M197" s="22"/>
+      <c r="N197" s="22"/>
+      <c r="O197" s="22"/>
+      <c r="P197" s="22"/>
+      <c r="Q197" s="22"/>
+      <c r="R197" s="22"/>
+      <c r="S197" s="22"/>
+      <c r="T197" s="22"/>
+      <c r="U197" s="22"/>
+      <c r="V197" s="22"/>
+      <c r="W197" s="22"/>
+      <c r="X197" s="22"/>
+      <c r="Y197" s="22"/>
+      <c r="Z197" s="22"/>
+      <c r="AA197" s="22"/>
+      <c r="AB197" s="22"/>
+      <c r="AC197" s="22"/>
+      <c r="AD197" s="22"/>
+      <c r="AE197" s="22"/>
+      <c r="AF197" s="45"/>
+      <c r="AG197" s="22"/>
+      <c r="AH197" s="22"/>
+      <c r="AI197" s="26"/>
+    </row>
+    <row r="198" spans="1:37" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="30"/>
-      <c r="F198" s="30"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF198" s="49"/>
+      <c r="H198" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="I198" s="19"/>
+      <c r="J198" s="19"/>
+      <c r="K198" s="19"/>
+      <c r="L198" s="19"/>
+      <c r="M198" s="19"/>
+      <c r="N198" s="19"/>
+      <c r="O198" s="19"/>
+      <c r="P198" s="19"/>
+      <c r="Q198" s="19"/>
+      <c r="R198" s="19"/>
+      <c r="S198" s="19"/>
+      <c r="T198" s="19"/>
+      <c r="U198" s="19"/>
+      <c r="V198" s="19"/>
+      <c r="W198" s="19"/>
+      <c r="X198" s="19"/>
+      <c r="Y198" s="19"/>
+      <c r="Z198" s="19"/>
+      <c r="AA198" s="19"/>
+      <c r="AB198" s="19"/>
+      <c r="AC198" s="19"/>
+      <c r="AD198" s="19"/>
+      <c r="AE198" s="19"/>
+      <c r="AF198" s="19"/>
+      <c r="AG198" s="19"/>
+      <c r="AH198" s="19"/>
+      <c r="AI198" s="19"/>
+      <c r="AJ198" s="19"/>
+      <c r="AK198" s="19"/>
     </row>
     <row r="199" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="49"/>
       <c r="B199" s="49"/>
       <c r="E199" s="30"/>
-      <c r="F199" s="17"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="AF199" s="49"/>
     </row>
     <row r="200" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8426,13 +8465,6 @@
       <c r="B200" s="49"/>
       <c r="E200" s="30"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="30" t="str">
-        <f>$F$187&amp;"-2"</f>
-        <v>(3)-2</v>
-      </c>
-      <c r="H200" s="16" t="s">
-        <v>218</v>
-      </c>
       <c r="AF200" s="49"/>
     </row>
     <row r="201" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8440,87 +8472,62 @@
       <c r="B201" s="49"/>
       <c r="E201" s="30"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="30"/>
-      <c r="H201" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I201" s="28"/>
-      <c r="J201" s="28"/>
-      <c r="K201" s="28"/>
-      <c r="L201" s="28"/>
-      <c r="M201" s="28"/>
-      <c r="N201" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="O201" s="28"/>
-      <c r="P201" s="28"/>
-      <c r="Q201" s="29"/>
-      <c r="R201" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S201" s="28"/>
-      <c r="T201" s="28"/>
-      <c r="U201" s="28"/>
-      <c r="V201" s="28"/>
-      <c r="W201" s="28"/>
-      <c r="X201" s="28"/>
-      <c r="Y201" s="28"/>
-      <c r="Z201" s="28"/>
-      <c r="AA201" s="28"/>
-      <c r="AB201" s="28"/>
-      <c r="AC201" s="28"/>
-      <c r="AD201" s="28"/>
-      <c r="AE201" s="28"/>
-      <c r="AF201" s="28"/>
-      <c r="AG201" s="28"/>
-      <c r="AH201" s="28"/>
-      <c r="AI201" s="29"/>
+      <c r="G201" s="30" t="str">
+        <f>$F$188&amp;"-2"</f>
+        <v>(3)-2</v>
+      </c>
+      <c r="H201" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF201" s="49"/>
     </row>
     <row r="202" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="49"/>
       <c r="B202" s="49"/>
       <c r="E202" s="30"/>
-      <c r="H202" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I202" s="22"/>
-      <c r="J202" s="22"/>
-      <c r="K202" s="22"/>
-      <c r="L202" s="22"/>
-      <c r="M202" s="22"/>
-      <c r="N202" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="O202" s="22"/>
-      <c r="P202" s="22"/>
-      <c r="Q202" s="26"/>
-      <c r="R202" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="S202" s="22"/>
-      <c r="T202" s="22"/>
-      <c r="U202" s="22"/>
-      <c r="V202" s="22"/>
-      <c r="W202" s="22"/>
-      <c r="X202" s="22"/>
-      <c r="Y202" s="22"/>
-      <c r="Z202" s="22"/>
-      <c r="AA202" s="22"/>
-      <c r="AB202" s="22"/>
-      <c r="AC202" s="22"/>
-      <c r="AD202" s="22"/>
-      <c r="AE202" s="22"/>
-      <c r="AF202" s="45"/>
-      <c r="AG202" s="22"/>
-      <c r="AH202" s="22"/>
-      <c r="AI202" s="26"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="30"/>
+      <c r="H202" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I202" s="28"/>
+      <c r="J202" s="28"/>
+      <c r="K202" s="28"/>
+      <c r="L202" s="28"/>
+      <c r="M202" s="28"/>
+      <c r="N202" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="O202" s="28"/>
+      <c r="P202" s="28"/>
+      <c r="Q202" s="29"/>
+      <c r="R202" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S202" s="28"/>
+      <c r="T202" s="28"/>
+      <c r="U202" s="28"/>
+      <c r="V202" s="28"/>
+      <c r="W202" s="28"/>
+      <c r="X202" s="28"/>
+      <c r="Y202" s="28"/>
+      <c r="Z202" s="28"/>
+      <c r="AA202" s="28"/>
+      <c r="AB202" s="28"/>
+      <c r="AC202" s="28"/>
+      <c r="AD202" s="28"/>
+      <c r="AE202" s="28"/>
+      <c r="AF202" s="28"/>
+      <c r="AG202" s="28"/>
+      <c r="AH202" s="28"/>
+      <c r="AI202" s="29"/>
     </row>
     <row r="203" spans="1:37" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="49"/>
       <c r="B203" s="49"/>
       <c r="E203" s="30"/>
       <c r="H203" s="21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I203" s="22"/>
       <c r="J203" s="22"/>
@@ -8534,7 +8541,7 @@
       <c r="P203" s="22"/>
       <c r="Q203" s="26"/>
       <c r="R203" s="22" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
@@ -8559,7 +8566,7 @@
       <c r="B204" s="49"/>
       <c r="E204" s="30"/>
       <c r="H204" s="21" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="I204" s="22"/>
       <c r="J204" s="22"/>
@@ -8567,13 +8574,13 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="21" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="O204" s="22"/>
       <c r="P204" s="22"/>
       <c r="Q204" s="26"/>
       <c r="R204" s="22" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
@@ -8598,7 +8605,7 @@
       <c r="B205" s="49"/>
       <c r="E205" s="30"/>
       <c r="H205" s="21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I205" s="22"/>
       <c r="J205" s="22"/>
@@ -8606,13 +8613,13 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O205" s="22"/>
       <c r="P205" s="22"/>
       <c r="Q205" s="26"/>
       <c r="R205" s="22" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
@@ -8637,7 +8644,7 @@
       <c r="B206" s="49"/>
       <c r="E206" s="30"/>
       <c r="H206" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I206" s="22"/>
       <c r="J206" s="22"/>
@@ -8645,13 +8652,13 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O206" s="22"/>
       <c r="P206" s="22"/>
       <c r="Q206" s="26"/>
       <c r="R206" s="22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
@@ -8676,7 +8683,7 @@
       <c r="B207" s="49"/>
       <c r="E207" s="30"/>
       <c r="H207" s="21" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="I207" s="22"/>
       <c r="J207" s="22"/>
@@ -8684,13 +8691,13 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="O207" s="22"/>
       <c r="P207" s="22"/>
       <c r="Q207" s="26"/>
       <c r="R207" s="22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
@@ -8715,7 +8722,7 @@
       <c r="B208" s="49"/>
       <c r="E208" s="30"/>
       <c r="H208" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I208" s="22"/>
       <c r="J208" s="22"/>
@@ -8723,13 +8730,13 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O208" s="22"/>
       <c r="P208" s="22"/>
       <c r="Q208" s="26"/>
       <c r="R208" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
@@ -8754,7 +8761,7 @@
       <c r="B209" s="49"/>
       <c r="E209" s="30"/>
       <c r="H209" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I209" s="22"/>
       <c r="J209" s="22"/>
@@ -8762,13 +8769,13 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O209" s="22"/>
       <c r="P209" s="22"/>
       <c r="Q209" s="26"/>
       <c r="R209" s="22" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
@@ -8793,7 +8800,7 @@
       <c r="B210" s="49"/>
       <c r="E210" s="30"/>
       <c r="H210" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I210" s="22"/>
       <c r="J210" s="22"/>
@@ -8807,7 +8814,7 @@
       <c r="P210" s="22"/>
       <c r="Q210" s="26"/>
       <c r="R210" s="22" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="S210" s="22"/>
       <c r="T210" s="22"/>
@@ -8831,29 +8838,54 @@
       <c r="A211" s="49"/>
       <c r="B211" s="49"/>
       <c r="E211" s="30"/>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="19"/>
-      <c r="N211" s="19"/>
-      <c r="O211" s="19"/>
-      <c r="P211" s="19"/>
-      <c r="AF211" s="49"/>
+      <c r="H211" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="I211" s="22"/>
+      <c r="J211" s="22"/>
+      <c r="K211" s="22"/>
+      <c r="L211" s="22"/>
+      <c r="M211" s="22"/>
+      <c r="N211" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O211" s="22"/>
+      <c r="P211" s="22"/>
+      <c r="Q211" s="26"/>
+      <c r="R211" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="S211" s="22"/>
+      <c r="T211" s="22"/>
+      <c r="U211" s="22"/>
+      <c r="V211" s="22"/>
+      <c r="W211" s="22"/>
+      <c r="X211" s="22"/>
+      <c r="Y211" s="22"/>
+      <c r="Z211" s="22"/>
+      <c r="AA211" s="22"/>
+      <c r="AB211" s="22"/>
+      <c r="AC211" s="22"/>
+      <c r="AD211" s="22"/>
+      <c r="AE211" s="22"/>
+      <c r="AF211" s="45"/>
+      <c r="AG211" s="22"/>
+      <c r="AH211" s="22"/>
+      <c r="AI211" s="26"/>
     </row>
     <row r="212" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="49"/>
       <c r="B212" s="49"/>
       <c r="E212" s="30"/>
-      <c r="F212" s="17"/>
-      <c r="G212" s="30" t="str">
-        <f>$F$187&amp;"-3"</f>
-        <v>(3)-3</v>
-      </c>
-      <c r="H212" s="16" t="s">
-        <v>251</v>
-      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="19"/>
+      <c r="L212" s="19"/>
+      <c r="M212" s="19"/>
+      <c r="N212" s="19"/>
+      <c r="O212" s="19"/>
+      <c r="P212" s="19"/>
       <c r="AF212" s="49"/>
     </row>
     <row r="213" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8861,9 +8893,12 @@
       <c r="B213" s="49"/>
       <c r="E213" s="30"/>
       <c r="F213" s="17"/>
-      <c r="G213" s="30"/>
+      <c r="G213" s="30" t="str">
+        <f>$F$188&amp;"-3"</f>
+        <v>(3)-3</v>
+      </c>
       <c r="H213" s="16" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="AF213" s="49"/>
     </row>
@@ -8871,99 +8906,102 @@
       <c r="A214" s="49"/>
       <c r="B214" s="49"/>
       <c r="E214" s="30"/>
-      <c r="F214" s="30"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="I214" s="24"/>
-      <c r="J214" s="24"/>
-      <c r="K214" s="24"/>
-      <c r="L214" s="24"/>
-      <c r="M214" s="24"/>
-      <c r="N214" s="24"/>
-      <c r="O214" s="24"/>
-      <c r="P214" s="24"/>
-      <c r="Q214" s="24"/>
-      <c r="R214" s="24"/>
-      <c r="S214" s="24"/>
-      <c r="T214" s="24"/>
-      <c r="U214" s="24"/>
-      <c r="V214" s="24"/>
-      <c r="W214" s="24"/>
-      <c r="X214" s="24"/>
-      <c r="Y214" s="24"/>
-      <c r="Z214" s="24"/>
-      <c r="AA214" s="24"/>
-      <c r="AB214" s="24"/>
-      <c r="AC214" s="24"/>
-      <c r="AD214" s="24"/>
-      <c r="AE214" s="24"/>
-      <c r="AF214" s="24"/>
-      <c r="AG214" s="24"/>
-      <c r="AH214" s="24"/>
-      <c r="AI214" s="25"/>
-    </row>
-    <row r="215" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E215" s="37"/>
-      <c r="F215" s="37"/>
-      <c r="G215" s="38"/>
-      <c r="H215" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="I215" s="22"/>
-      <c r="J215" s="22"/>
-      <c r="K215" s="22"/>
-      <c r="L215" s="22"/>
-      <c r="M215" s="22"/>
-      <c r="N215" s="22"/>
-      <c r="O215" s="22"/>
-      <c r="P215" s="22"/>
-      <c r="Q215" s="22"/>
-      <c r="R215" s="22"/>
-      <c r="S215" s="22"/>
-      <c r="T215" s="22"/>
-      <c r="U215" s="22"/>
-      <c r="V215" s="22"/>
-      <c r="W215" s="22"/>
-      <c r="X215" s="22"/>
-      <c r="Y215" s="22"/>
-      <c r="Z215" s="22"/>
-      <c r="AA215" s="22"/>
-      <c r="AB215" s="22"/>
-      <c r="AC215" s="22"/>
-      <c r="AD215" s="22"/>
-      <c r="AE215" s="22"/>
-      <c r="AF215" s="45"/>
-      <c r="AG215" s="22"/>
-      <c r="AH215" s="22"/>
-      <c r="AI215" s="26"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF214" s="49"/>
+    </row>
+    <row r="215" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="49"/>
+      <c r="B215" s="49"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="I215" s="24"/>
+      <c r="J215" s="24"/>
+      <c r="K215" s="24"/>
+      <c r="L215" s="24"/>
+      <c r="M215" s="24"/>
+      <c r="N215" s="24"/>
+      <c r="O215" s="24"/>
+      <c r="P215" s="24"/>
+      <c r="Q215" s="24"/>
+      <c r="R215" s="24"/>
+      <c r="S215" s="24"/>
+      <c r="T215" s="24"/>
+      <c r="U215" s="24"/>
+      <c r="V215" s="24"/>
+      <c r="W215" s="24"/>
+      <c r="X215" s="24"/>
+      <c r="Y215" s="24"/>
+      <c r="Z215" s="24"/>
+      <c r="AA215" s="24"/>
+      <c r="AB215" s="24"/>
+      <c r="AC215" s="24"/>
+      <c r="AD215" s="24"/>
+      <c r="AE215" s="24"/>
+      <c r="AF215" s="24"/>
+      <c r="AG215" s="24"/>
+      <c r="AH215" s="24"/>
+      <c r="AI215" s="25"/>
     </row>
     <row r="216" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E216" s="37"/>
       <c r="F216" s="37"/>
       <c r="G216" s="38"/>
-      <c r="H216" s="36" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="217" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="49"/>
-      <c r="B217" s="49"/>
-      <c r="E217" s="30"/>
-      <c r="F217" s="30"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF217" s="49"/>
-      <c r="AG217" s="49"/>
+      <c r="H216" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I216" s="22"/>
+      <c r="J216" s="22"/>
+      <c r="K216" s="22"/>
+      <c r="L216" s="22"/>
+      <c r="M216" s="22"/>
+      <c r="N216" s="22"/>
+      <c r="O216" s="22"/>
+      <c r="P216" s="22"/>
+      <c r="Q216" s="22"/>
+      <c r="R216" s="22"/>
+      <c r="S216" s="22"/>
+      <c r="T216" s="22"/>
+      <c r="U216" s="22"/>
+      <c r="V216" s="22"/>
+      <c r="W216" s="22"/>
+      <c r="X216" s="22"/>
+      <c r="Y216" s="22"/>
+      <c r="Z216" s="22"/>
+      <c r="AA216" s="22"/>
+      <c r="AB216" s="22"/>
+      <c r="AC216" s="22"/>
+      <c r="AD216" s="22"/>
+      <c r="AE216" s="22"/>
+      <c r="AF216" s="45"/>
+      <c r="AG216" s="22"/>
+      <c r="AH216" s="22"/>
+      <c r="AI216" s="26"/>
+    </row>
+    <row r="217" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E217" s="37"/>
+      <c r="F217" s="37"/>
+      <c r="G217" s="38"/>
+      <c r="H217" s="36" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="218" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="49"/>
       <c r="B218" s="49"/>
       <c r="E218" s="30"/>
-      <c r="F218" s="17"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="AF218" s="49"/>
       <c r="AG218" s="49"/>
     </row>
@@ -8972,13 +9010,6 @@
       <c r="B219" s="49"/>
       <c r="E219" s="30"/>
       <c r="F219" s="17"/>
-      <c r="G219" s="30" t="str">
-        <f>$F$187&amp;"-4"</f>
-        <v>(3)-4</v>
-      </c>
-      <c r="H219" s="16" t="s">
-        <v>252</v>
-      </c>
       <c r="AF219" s="49"/>
       <c r="AG219" s="49"/>
     </row>
@@ -8987,109 +9018,109 @@
       <c r="B220" s="49"/>
       <c r="E220" s="30"/>
       <c r="F220" s="17"/>
-      <c r="G220" s="30"/>
-      <c r="H220" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I220" s="28"/>
-      <c r="J220" s="28"/>
-      <c r="K220" s="28"/>
-      <c r="L220" s="28"/>
-      <c r="M220" s="28"/>
-      <c r="N220" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="O220" s="28"/>
-      <c r="P220" s="28"/>
-      <c r="Q220" s="29"/>
-      <c r="R220" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S220" s="28"/>
-      <c r="T220" s="28"/>
-      <c r="U220" s="28"/>
-      <c r="V220" s="28"/>
-      <c r="W220" s="28"/>
-      <c r="X220" s="28"/>
-      <c r="Y220" s="28"/>
-      <c r="Z220" s="28"/>
-      <c r="AA220" s="28"/>
-      <c r="AB220" s="28"/>
-      <c r="AC220" s="28"/>
-      <c r="AD220" s="28"/>
-      <c r="AE220" s="28"/>
-      <c r="AF220" s="28"/>
-      <c r="AG220" s="28"/>
-      <c r="AH220" s="28"/>
-      <c r="AI220" s="29"/>
+      <c r="G220" s="30" t="str">
+        <f>$F$188&amp;"-4"</f>
+        <v>(3)-4</v>
+      </c>
+      <c r="H220" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF220" s="49"/>
+      <c r="AG220" s="49"/>
     </row>
     <row r="221" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="49"/>
       <c r="B221" s="49"/>
       <c r="E221" s="30"/>
-      <c r="H221" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="I221" s="22"/>
-      <c r="J221" s="22"/>
-      <c r="K221" s="22"/>
-      <c r="L221" s="22"/>
-      <c r="M221" s="22"/>
-      <c r="N221" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="O221" s="22"/>
-      <c r="P221" s="22"/>
-      <c r="Q221" s="26"/>
-      <c r="R221" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="S221" s="22"/>
-      <c r="T221" s="22"/>
-      <c r="U221" s="22"/>
-      <c r="V221" s="22"/>
-      <c r="W221" s="22"/>
-      <c r="X221" s="22"/>
-      <c r="Y221" s="22"/>
-      <c r="Z221" s="22"/>
-      <c r="AA221" s="22"/>
-      <c r="AB221" s="22"/>
-      <c r="AC221" s="22"/>
-      <c r="AD221" s="22"/>
-      <c r="AE221" s="22"/>
-      <c r="AF221" s="45"/>
-      <c r="AG221" s="45"/>
-      <c r="AH221" s="22"/>
-      <c r="AI221" s="26"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I221" s="28"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="28"/>
+      <c r="L221" s="28"/>
+      <c r="M221" s="28"/>
+      <c r="N221" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="O221" s="28"/>
+      <c r="P221" s="28"/>
+      <c r="Q221" s="29"/>
+      <c r="R221" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S221" s="28"/>
+      <c r="T221" s="28"/>
+      <c r="U221" s="28"/>
+      <c r="V221" s="28"/>
+      <c r="W221" s="28"/>
+      <c r="X221" s="28"/>
+      <c r="Y221" s="28"/>
+      <c r="Z221" s="28"/>
+      <c r="AA221" s="28"/>
+      <c r="AB221" s="28"/>
+      <c r="AC221" s="28"/>
+      <c r="AD221" s="28"/>
+      <c r="AE221" s="28"/>
+      <c r="AF221" s="28"/>
+      <c r="AG221" s="28"/>
+      <c r="AH221" s="28"/>
+      <c r="AI221" s="29"/>
     </row>
     <row r="222" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="49"/>
       <c r="B222" s="49"/>
       <c r="E222" s="30"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="19"/>
-      <c r="L222" s="19"/>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-      <c r="O222" s="19"/>
-      <c r="P222" s="19"/>
-      <c r="AF222" s="49"/>
-      <c r="AG222" s="49"/>
+      <c r="H222" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I222" s="22"/>
+      <c r="J222" s="22"/>
+      <c r="K222" s="22"/>
+      <c r="L222" s="22"/>
+      <c r="M222" s="22"/>
+      <c r="N222" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="O222" s="22"/>
+      <c r="P222" s="22"/>
+      <c r="Q222" s="26"/>
+      <c r="R222" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="S222" s="22"/>
+      <c r="T222" s="22"/>
+      <c r="U222" s="22"/>
+      <c r="V222" s="22"/>
+      <c r="W222" s="22"/>
+      <c r="X222" s="22"/>
+      <c r="Y222" s="22"/>
+      <c r="Z222" s="22"/>
+      <c r="AA222" s="22"/>
+      <c r="AB222" s="22"/>
+      <c r="AC222" s="22"/>
+      <c r="AD222" s="22"/>
+      <c r="AE222" s="22"/>
+      <c r="AF222" s="45"/>
+      <c r="AG222" s="45"/>
+      <c r="AH222" s="22"/>
+      <c r="AI222" s="26"/>
     </row>
     <row r="223" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="49"/>
       <c r="B223" s="49"/>
       <c r="E223" s="30"/>
-      <c r="F223" s="17"/>
-      <c r="G223" s="30" t="str">
-        <f>$F$187&amp;"-5"</f>
-        <v>(3)-5</v>
-      </c>
-      <c r="H223" s="16" t="s">
-        <v>247</v>
-      </c>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="19"/>
+      <c r="K223" s="19"/>
+      <c r="L223" s="19"/>
+      <c r="M223" s="19"/>
+      <c r="N223" s="19"/>
+      <c r="O223" s="19"/>
+      <c r="P223" s="19"/>
       <c r="AF223" s="49"/>
       <c r="AG223" s="49"/>
     </row>
@@ -9098,9 +9129,12 @@
       <c r="B224" s="49"/>
       <c r="E224" s="30"/>
       <c r="F224" s="17"/>
-      <c r="G224" s="30"/>
+      <c r="G224" s="30" t="str">
+        <f>$F$188&amp;"-5"</f>
+        <v>(3)-5</v>
+      </c>
       <c r="H224" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF224" s="49"/>
       <c r="AG224" s="49"/>
@@ -9109,38 +9143,13 @@
       <c r="A225" s="49"/>
       <c r="B225" s="49"/>
       <c r="E225" s="30"/>
-      <c r="F225" s="30"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="I225" s="33"/>
-      <c r="J225" s="33"/>
-      <c r="K225" s="33"/>
-      <c r="L225" s="33"/>
-      <c r="M225" s="33"/>
-      <c r="N225" s="33"/>
-      <c r="O225" s="33"/>
-      <c r="P225" s="33"/>
-      <c r="Q225" s="33"/>
-      <c r="R225" s="33"/>
-      <c r="S225" s="33"/>
-      <c r="T225" s="33"/>
-      <c r="U225" s="33"/>
-      <c r="V225" s="33"/>
-      <c r="W225" s="33"/>
-      <c r="X225" s="33"/>
-      <c r="Y225" s="33"/>
-      <c r="Z225" s="33"/>
-      <c r="AA225" s="33"/>
-      <c r="AB225" s="33"/>
-      <c r="AC225" s="33"/>
-      <c r="AD225" s="33"/>
-      <c r="AE225" s="33"/>
-      <c r="AF225" s="47"/>
-      <c r="AG225" s="47"/>
-      <c r="AH225" s="33"/>
-      <c r="AI225" s="34"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="30"/>
+      <c r="H225" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF225" s="49"/>
+      <c r="AG225" s="49"/>
     </row>
     <row r="226" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="49"/>
@@ -9148,17 +9157,46 @@
       <c r="E226" s="30"/>
       <c r="F226" s="30"/>
       <c r="G226" s="17"/>
-      <c r="H226" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF226" s="49"/>
-      <c r="AG226" s="49"/>
+      <c r="H226" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="I226" s="33"/>
+      <c r="J226" s="33"/>
+      <c r="K226" s="33"/>
+      <c r="L226" s="33"/>
+      <c r="M226" s="33"/>
+      <c r="N226" s="33"/>
+      <c r="O226" s="33"/>
+      <c r="P226" s="33"/>
+      <c r="Q226" s="33"/>
+      <c r="R226" s="33"/>
+      <c r="S226" s="33"/>
+      <c r="T226" s="33"/>
+      <c r="U226" s="33"/>
+      <c r="V226" s="33"/>
+      <c r="W226" s="33"/>
+      <c r="X226" s="33"/>
+      <c r="Y226" s="33"/>
+      <c r="Z226" s="33"/>
+      <c r="AA226" s="33"/>
+      <c r="AB226" s="33"/>
+      <c r="AC226" s="33"/>
+      <c r="AD226" s="33"/>
+      <c r="AE226" s="33"/>
+      <c r="AF226" s="47"/>
+      <c r="AG226" s="47"/>
+      <c r="AH226" s="33"/>
+      <c r="AI226" s="34"/>
     </row>
     <row r="227" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="49"/>
       <c r="B227" s="49"/>
       <c r="E227" s="30"/>
-      <c r="F227" s="17"/>
+      <c r="F227" s="30"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="AF227" s="49"/>
       <c r="AG227" s="49"/>
     </row>
@@ -9167,13 +9205,6 @@
       <c r="B228" s="49"/>
       <c r="E228" s="30"/>
       <c r="F228" s="17"/>
-      <c r="G228" s="30" t="str">
-        <f>$F$187&amp;"-6"</f>
-        <v>(3)-6</v>
-      </c>
-      <c r="H228" s="16" t="s">
-        <v>250</v>
-      </c>
       <c r="AF228" s="49"/>
       <c r="AG228" s="49"/>
     </row>
@@ -9182,102 +9213,102 @@
       <c r="B229" s="49"/>
       <c r="E229" s="30"/>
       <c r="F229" s="17"/>
-      <c r="G229" s="30"/>
-      <c r="H229" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I229" s="28"/>
-      <c r="J229" s="28"/>
-      <c r="K229" s="28"/>
-      <c r="L229" s="28"/>
-      <c r="M229" s="28"/>
-      <c r="N229" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="O229" s="28"/>
-      <c r="P229" s="28"/>
-      <c r="Q229" s="29"/>
-      <c r="R229" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S229" s="28"/>
-      <c r="T229" s="28"/>
-      <c r="U229" s="28"/>
-      <c r="V229" s="28"/>
-      <c r="W229" s="28"/>
-      <c r="X229" s="28"/>
-      <c r="Y229" s="28"/>
-      <c r="Z229" s="28"/>
-      <c r="AA229" s="28"/>
-      <c r="AB229" s="28"/>
-      <c r="AC229" s="28"/>
-      <c r="AD229" s="28"/>
-      <c r="AE229" s="28"/>
-      <c r="AF229" s="28"/>
-      <c r="AG229" s="28"/>
-      <c r="AH229" s="28"/>
-      <c r="AI229" s="29"/>
+      <c r="G229" s="30" t="str">
+        <f>$F$188&amp;"-6"</f>
+        <v>(3)-6</v>
+      </c>
+      <c r="H229" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF229" s="49"/>
+      <c r="AG229" s="49"/>
     </row>
     <row r="230" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="49"/>
       <c r="B230" s="49"/>
       <c r="E230" s="30"/>
-      <c r="H230" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="I230" s="22"/>
-      <c r="J230" s="22"/>
-      <c r="K230" s="22"/>
-      <c r="L230" s="22"/>
-      <c r="M230" s="22"/>
-      <c r="N230" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="O230" s="22"/>
-      <c r="P230" s="22"/>
-      <c r="Q230" s="26"/>
-      <c r="R230" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="S230" s="22"/>
-      <c r="T230" s="22"/>
-      <c r="U230" s="22"/>
-      <c r="V230" s="22"/>
-      <c r="W230" s="22"/>
-      <c r="X230" s="22"/>
-      <c r="Y230" s="22"/>
-      <c r="Z230" s="22"/>
-      <c r="AA230" s="22"/>
-      <c r="AB230" s="22"/>
-      <c r="AC230" s="22"/>
-      <c r="AD230" s="22"/>
-      <c r="AE230" s="22"/>
-      <c r="AF230" s="45"/>
-      <c r="AG230" s="45"/>
-      <c r="AH230" s="22"/>
-      <c r="AI230" s="26"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="30"/>
+      <c r="H230" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I230" s="28"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="28"/>
+      <c r="L230" s="28"/>
+      <c r="M230" s="28"/>
+      <c r="N230" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="O230" s="28"/>
+      <c r="P230" s="28"/>
+      <c r="Q230" s="29"/>
+      <c r="R230" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S230" s="28"/>
+      <c r="T230" s="28"/>
+      <c r="U230" s="28"/>
+      <c r="V230" s="28"/>
+      <c r="W230" s="28"/>
+      <c r="X230" s="28"/>
+      <c r="Y230" s="28"/>
+      <c r="Z230" s="28"/>
+      <c r="AA230" s="28"/>
+      <c r="AB230" s="28"/>
+      <c r="AC230" s="28"/>
+      <c r="AD230" s="28"/>
+      <c r="AE230" s="28"/>
+      <c r="AF230" s="28"/>
+      <c r="AG230" s="28"/>
+      <c r="AH230" s="28"/>
+      <c r="AI230" s="29"/>
     </row>
     <row r="231" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="49"/>
       <c r="B231" s="49"/>
       <c r="E231" s="30"/>
-      <c r="F231" s="17"/>
-      <c r="G231" s="30"/>
-      <c r="AF231" s="49"/>
-      <c r="AG231" s="49"/>
+      <c r="H231" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="I231" s="22"/>
+      <c r="J231" s="22"/>
+      <c r="K231" s="22"/>
+      <c r="L231" s="22"/>
+      <c r="M231" s="22"/>
+      <c r="N231" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="O231" s="22"/>
+      <c r="P231" s="22"/>
+      <c r="Q231" s="26"/>
+      <c r="R231" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="S231" s="22"/>
+      <c r="T231" s="22"/>
+      <c r="U231" s="22"/>
+      <c r="V231" s="22"/>
+      <c r="W231" s="22"/>
+      <c r="X231" s="22"/>
+      <c r="Y231" s="22"/>
+      <c r="Z231" s="22"/>
+      <c r="AA231" s="22"/>
+      <c r="AB231" s="22"/>
+      <c r="AC231" s="22"/>
+      <c r="AD231" s="22"/>
+      <c r="AE231" s="22"/>
+      <c r="AF231" s="45"/>
+      <c r="AG231" s="45"/>
+      <c r="AH231" s="22"/>
+      <c r="AI231" s="26"/>
     </row>
     <row r="232" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="49"/>
       <c r="B232" s="49"/>
       <c r="E232" s="30"/>
       <c r="F232" s="17"/>
-      <c r="G232" s="30" t="str">
-        <f>$F$187&amp;"-7"</f>
-        <v>(3)-7</v>
-      </c>
-      <c r="H232" s="16" t="s">
-        <v>258</v>
-      </c>
+      <c r="G232" s="30"/>
       <c r="AF232" s="49"/>
       <c r="AG232" s="49"/>
     </row>
@@ -9286,9 +9317,12 @@
       <c r="B233" s="49"/>
       <c r="E233" s="30"/>
       <c r="F233" s="17"/>
-      <c r="G233" s="30"/>
+      <c r="G233" s="30" t="str">
+        <f>$F$188&amp;"-7"</f>
+        <v>(3)-7</v>
+      </c>
       <c r="H233" s="16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AF233" s="49"/>
       <c r="AG233" s="49"/>
@@ -9297,38 +9331,13 @@
       <c r="A234" s="49"/>
       <c r="B234" s="49"/>
       <c r="E234" s="30"/>
-      <c r="F234" s="30"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="I234" s="24"/>
-      <c r="J234" s="24"/>
-      <c r="K234" s="24"/>
-      <c r="L234" s="24"/>
-      <c r="M234" s="24"/>
-      <c r="N234" s="24"/>
-      <c r="O234" s="24"/>
-      <c r="P234" s="24"/>
-      <c r="Q234" s="24"/>
-      <c r="R234" s="24"/>
-      <c r="S234" s="24"/>
-      <c r="T234" s="24"/>
-      <c r="U234" s="24"/>
-      <c r="V234" s="24"/>
-      <c r="W234" s="24"/>
-      <c r="X234" s="24"/>
-      <c r="Y234" s="24"/>
-      <c r="Z234" s="24"/>
-      <c r="AA234" s="24"/>
-      <c r="AB234" s="24"/>
-      <c r="AC234" s="24"/>
-      <c r="AD234" s="24"/>
-      <c r="AE234" s="24"/>
-      <c r="AF234" s="24"/>
-      <c r="AG234" s="24"/>
-      <c r="AH234" s="24"/>
-      <c r="AI234" s="25"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="30"/>
+      <c r="H234" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF234" s="49"/>
+      <c r="AG234" s="49"/>
     </row>
     <row r="235" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="49"/>
@@ -9336,36 +9345,36 @@
       <c r="E235" s="30"/>
       <c r="F235" s="30"/>
       <c r="G235" s="17"/>
-      <c r="H235" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="I235" s="19"/>
-      <c r="J235" s="19"/>
-      <c r="K235" s="19"/>
-      <c r="L235" s="19"/>
-      <c r="M235" s="19"/>
-      <c r="N235" s="19"/>
-      <c r="O235" s="19"/>
-      <c r="P235" s="19"/>
-      <c r="Q235" s="19"/>
-      <c r="R235" s="19"/>
-      <c r="S235" s="19"/>
-      <c r="T235" s="19"/>
-      <c r="U235" s="19"/>
-      <c r="V235" s="19"/>
-      <c r="W235" s="19"/>
-      <c r="X235" s="19"/>
-      <c r="Y235" s="19"/>
-      <c r="Z235" s="19"/>
-      <c r="AA235" s="19"/>
-      <c r="AB235" s="19"/>
-      <c r="AC235" s="19"/>
-      <c r="AD235" s="19"/>
-      <c r="AE235" s="19"/>
-      <c r="AF235" s="19"/>
-      <c r="AG235" s="19"/>
-      <c r="AH235" s="19"/>
-      <c r="AI235" s="20"/>
+      <c r="H235" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I235" s="24"/>
+      <c r="J235" s="24"/>
+      <c r="K235" s="24"/>
+      <c r="L235" s="24"/>
+      <c r="M235" s="24"/>
+      <c r="N235" s="24"/>
+      <c r="O235" s="24"/>
+      <c r="P235" s="24"/>
+      <c r="Q235" s="24"/>
+      <c r="R235" s="24"/>
+      <c r="S235" s="24"/>
+      <c r="T235" s="24"/>
+      <c r="U235" s="24"/>
+      <c r="V235" s="24"/>
+      <c r="W235" s="24"/>
+      <c r="X235" s="24"/>
+      <c r="Y235" s="24"/>
+      <c r="Z235" s="24"/>
+      <c r="AA235" s="24"/>
+      <c r="AB235" s="24"/>
+      <c r="AC235" s="24"/>
+      <c r="AD235" s="24"/>
+      <c r="AE235" s="24"/>
+      <c r="AF235" s="24"/>
+      <c r="AG235" s="24"/>
+      <c r="AH235" s="24"/>
+      <c r="AI235" s="25"/>
     </row>
     <row r="236" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="49"/>
@@ -9374,7 +9383,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9411,7 +9420,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9448,7 +9457,7 @@
       <c r="F238" s="30"/>
       <c r="G238" s="17"/>
       <c r="H238" s="42" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I238" s="19"/>
       <c r="J238" s="19"/>
@@ -9485,7 +9494,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="42" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I239" s="19"/>
       <c r="J239" s="19"/>
@@ -9515,52 +9524,77 @@
       <c r="AH239" s="19"/>
       <c r="AI239" s="20"/>
     </row>
-    <row r="240" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E240" s="37"/>
-      <c r="F240" s="37"/>
-      <c r="G240" s="38"/>
-      <c r="H240" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="I240" s="22"/>
-      <c r="J240" s="22"/>
-      <c r="K240" s="22"/>
-      <c r="L240" s="22"/>
-      <c r="M240" s="22"/>
-      <c r="N240" s="22"/>
-      <c r="O240" s="22"/>
-      <c r="P240" s="22"/>
-      <c r="Q240" s="22"/>
-      <c r="R240" s="22"/>
-      <c r="S240" s="22"/>
-      <c r="T240" s="22"/>
-      <c r="U240" s="22"/>
-      <c r="V240" s="22"/>
-      <c r="W240" s="22"/>
-      <c r="X240" s="22"/>
-      <c r="Y240" s="22"/>
-      <c r="Z240" s="22"/>
-      <c r="AA240" s="22"/>
-      <c r="AB240" s="22"/>
-      <c r="AC240" s="22"/>
-      <c r="AD240" s="22"/>
-      <c r="AE240" s="22"/>
-      <c r="AF240" s="45"/>
-      <c r="AG240" s="45"/>
-      <c r="AH240" s="22"/>
-      <c r="AI240" s="26"/>
-    </row>
-    <row r="241" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="49"/>
-      <c r="B241" s="49"/>
-      <c r="E241" s="30"/>
-      <c r="F241" s="30"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF241" s="49"/>
-      <c r="AG241" s="49"/>
+    <row r="240" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="49"/>
+      <c r="B240" s="49"/>
+      <c r="E240" s="30"/>
+      <c r="F240" s="30"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="I240" s="19"/>
+      <c r="J240" s="19"/>
+      <c r="K240" s="19"/>
+      <c r="L240" s="19"/>
+      <c r="M240" s="19"/>
+      <c r="N240" s="19"/>
+      <c r="O240" s="19"/>
+      <c r="P240" s="19"/>
+      <c r="Q240" s="19"/>
+      <c r="R240" s="19"/>
+      <c r="S240" s="19"/>
+      <c r="T240" s="19"/>
+      <c r="U240" s="19"/>
+      <c r="V240" s="19"/>
+      <c r="W240" s="19"/>
+      <c r="X240" s="19"/>
+      <c r="Y240" s="19"/>
+      <c r="Z240" s="19"/>
+      <c r="AA240" s="19"/>
+      <c r="AB240" s="19"/>
+      <c r="AC240" s="19"/>
+      <c r="AD240" s="19"/>
+      <c r="AE240" s="19"/>
+      <c r="AF240" s="19"/>
+      <c r="AG240" s="19"/>
+      <c r="AH240" s="19"/>
+      <c r="AI240" s="20"/>
+    </row>
+    <row r="241" spans="1:35" s="19" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E241" s="37"/>
+      <c r="F241" s="37"/>
+      <c r="G241" s="38"/>
+      <c r="H241" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I241" s="22"/>
+      <c r="J241" s="22"/>
+      <c r="K241" s="22"/>
+      <c r="L241" s="22"/>
+      <c r="M241" s="22"/>
+      <c r="N241" s="22"/>
+      <c r="O241" s="22"/>
+      <c r="P241" s="22"/>
+      <c r="Q241" s="22"/>
+      <c r="R241" s="22"/>
+      <c r="S241" s="22"/>
+      <c r="T241" s="22"/>
+      <c r="U241" s="22"/>
+      <c r="V241" s="22"/>
+      <c r="W241" s="22"/>
+      <c r="X241" s="22"/>
+      <c r="Y241" s="22"/>
+      <c r="Z241" s="22"/>
+      <c r="AA241" s="22"/>
+      <c r="AB241" s="22"/>
+      <c r="AC241" s="22"/>
+      <c r="AD241" s="22"/>
+      <c r="AE241" s="22"/>
+      <c r="AF241" s="45"/>
+      <c r="AG241" s="45"/>
+      <c r="AH241" s="22"/>
+      <c r="AI241" s="26"/>
     </row>
     <row r="242" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="49"/>
@@ -9569,39 +9603,36 @@
       <c r="F242" s="30"/>
       <c r="G242" s="17"/>
       <c r="H242" s="16" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
     </row>
-    <row r="243" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="49"/>
+      <c r="B243" s="49"/>
       <c r="E243" s="30"/>
       <c r="F243" s="30"/>
-      <c r="G243" s="50"/>
-      <c r="H243" s="36" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="244" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="49"/>
-      <c r="B244" s="49"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF243" s="49"/>
+      <c r="AG243" s="49"/>
+    </row>
+    <row r="244" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E244" s="30"/>
-      <c r="F244" s="17"/>
-      <c r="AF244" s="49"/>
-      <c r="AG244" s="49"/>
+      <c r="F244" s="30"/>
+      <c r="G244" s="50"/>
+      <c r="H244" s="36" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="245" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="49"/>
       <c r="B245" s="49"/>
       <c r="E245" s="30"/>
       <c r="F245" s="17"/>
-      <c r="G245" s="30" t="str">
-        <f>$F$187&amp;"-8"</f>
-        <v>(3)-8</v>
-      </c>
-      <c r="H245" s="16" t="s">
-        <v>254</v>
-      </c>
       <c r="AF245" s="49"/>
       <c r="AG245" s="49"/>
     </row>
@@ -9610,87 +9641,63 @@
       <c r="B246" s="49"/>
       <c r="E246" s="30"/>
       <c r="F246" s="17"/>
-      <c r="G246" s="30"/>
-      <c r="H246" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I246" s="28"/>
-      <c r="J246" s="28"/>
-      <c r="K246" s="28"/>
-      <c r="L246" s="28"/>
-      <c r="M246" s="28"/>
-      <c r="N246" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="O246" s="28"/>
-      <c r="P246" s="28"/>
-      <c r="Q246" s="29"/>
-      <c r="R246" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S246" s="28"/>
-      <c r="T246" s="28"/>
-      <c r="U246" s="28"/>
-      <c r="V246" s="28"/>
-      <c r="W246" s="28"/>
-      <c r="X246" s="28"/>
-      <c r="Y246" s="28"/>
-      <c r="Z246" s="28"/>
-      <c r="AA246" s="28"/>
-      <c r="AB246" s="28"/>
-      <c r="AC246" s="28"/>
-      <c r="AD246" s="28"/>
-      <c r="AE246" s="28"/>
-      <c r="AF246" s="28"/>
-      <c r="AG246" s="28"/>
-      <c r="AH246" s="28"/>
-      <c r="AI246" s="29"/>
+      <c r="G246" s="30" t="str">
+        <f>$F$188&amp;"-8"</f>
+        <v>(3)-8</v>
+      </c>
+      <c r="H246" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF246" s="49"/>
+      <c r="AG246" s="49"/>
     </row>
     <row r="247" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="49"/>
       <c r="B247" s="49"/>
       <c r="E247" s="30"/>
-      <c r="H247" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="I247" s="22"/>
-      <c r="J247" s="22"/>
-      <c r="K247" s="22"/>
-      <c r="L247" s="22"/>
-      <c r="M247" s="22"/>
-      <c r="N247" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="O247" s="22"/>
-      <c r="P247" s="22"/>
-      <c r="Q247" s="26"/>
-      <c r="R247" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="S247" s="22"/>
-      <c r="T247" s="22"/>
-      <c r="U247" s="22"/>
-      <c r="V247" s="22"/>
-      <c r="W247" s="22"/>
-      <c r="X247" s="22"/>
-      <c r="Y247" s="22"/>
-      <c r="Z247" s="22"/>
-      <c r="AA247" s="22"/>
-      <c r="AB247" s="22"/>
-      <c r="AC247" s="22"/>
-      <c r="AD247" s="22"/>
-      <c r="AE247" s="22"/>
-      <c r="AF247" s="45"/>
-      <c r="AG247" s="45"/>
-      <c r="AH247" s="22"/>
-      <c r="AI247" s="26"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I247" s="28"/>
+      <c r="J247" s="28"/>
+      <c r="K247" s="28"/>
+      <c r="L247" s="28"/>
+      <c r="M247" s="28"/>
+      <c r="N247" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="O247" s="28"/>
+      <c r="P247" s="28"/>
+      <c r="Q247" s="29"/>
+      <c r="R247" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S247" s="28"/>
+      <c r="T247" s="28"/>
+      <c r="U247" s="28"/>
+      <c r="V247" s="28"/>
+      <c r="W247" s="28"/>
+      <c r="X247" s="28"/>
+      <c r="Y247" s="28"/>
+      <c r="Z247" s="28"/>
+      <c r="AA247" s="28"/>
+      <c r="AB247" s="28"/>
+      <c r="AC247" s="28"/>
+      <c r="AD247" s="28"/>
+      <c r="AE247" s="28"/>
+      <c r="AF247" s="28"/>
+      <c r="AG247" s="28"/>
+      <c r="AH247" s="28"/>
+      <c r="AI247" s="29"/>
     </row>
     <row r="248" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="49"/>
       <c r="B248" s="49"/>
       <c r="E248" s="30"/>
       <c r="H248" s="21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I248" s="22"/>
       <c r="J248" s="22"/>
@@ -9704,7 +9711,7 @@
       <c r="P248" s="22"/>
       <c r="Q248" s="26"/>
       <c r="R248" s="22" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
@@ -9729,7 +9736,7 @@
       <c r="B249" s="49"/>
       <c r="E249" s="30"/>
       <c r="H249" s="21" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="I249" s="22"/>
       <c r="J249" s="22"/>
@@ -9737,13 +9744,13 @@
       <c r="L249" s="22"/>
       <c r="M249" s="22"/>
       <c r="N249" s="21" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="O249" s="22"/>
       <c r="P249" s="22"/>
       <c r="Q249" s="26"/>
       <c r="R249" s="22" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
@@ -9768,7 +9775,7 @@
       <c r="B250" s="49"/>
       <c r="E250" s="30"/>
       <c r="H250" s="21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I250" s="22"/>
       <c r="J250" s="22"/>
@@ -9776,13 +9783,13 @@
       <c r="L250" s="22"/>
       <c r="M250" s="22"/>
       <c r="N250" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O250" s="22"/>
       <c r="P250" s="22"/>
       <c r="Q250" s="26"/>
       <c r="R250" s="22" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
@@ -9807,7 +9814,7 @@
       <c r="B251" s="49"/>
       <c r="E251" s="30"/>
       <c r="H251" s="21" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="I251" s="22"/>
       <c r="J251" s="22"/>
@@ -9815,13 +9822,13 @@
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="21" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="O251" s="22"/>
       <c r="P251" s="22"/>
       <c r="Q251" s="26"/>
       <c r="R251" s="22" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
@@ -9846,7 +9853,7 @@
       <c r="B252" s="49"/>
       <c r="E252" s="30"/>
       <c r="H252" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I252" s="22"/>
       <c r="J252" s="22"/>
@@ -9854,13 +9861,13 @@
       <c r="L252" s="22"/>
       <c r="M252" s="22"/>
       <c r="N252" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O252" s="22"/>
       <c r="P252" s="22"/>
       <c r="Q252" s="26"/>
       <c r="R252" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
@@ -9885,7 +9892,7 @@
       <c r="B253" s="49"/>
       <c r="E253" s="30"/>
       <c r="H253" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I253" s="22"/>
       <c r="J253" s="22"/>
@@ -9893,13 +9900,13 @@
       <c r="L253" s="22"/>
       <c r="M253" s="22"/>
       <c r="N253" s="21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O253" s="22"/>
       <c r="P253" s="22"/>
       <c r="Q253" s="26"/>
       <c r="R253" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
@@ -9924,7 +9931,7 @@
       <c r="B254" s="49"/>
       <c r="E254" s="30"/>
       <c r="H254" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I254" s="22"/>
       <c r="J254" s="22"/>
@@ -9932,13 +9939,13 @@
       <c r="L254" s="22"/>
       <c r="M254" s="22"/>
       <c r="N254" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O254" s="22"/>
       <c r="P254" s="22"/>
       <c r="Q254" s="26"/>
       <c r="R254" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
@@ -9963,21 +9970,21 @@
       <c r="B255" s="49"/>
       <c r="E255" s="30"/>
       <c r="H255" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I255" s="22"/>
       <c r="J255" s="22"/>
       <c r="K255" s="22"/>
       <c r="L255" s="22"/>
       <c r="M255" s="22"/>
-      <c r="N255" s="41" t="s">
-        <v>237</v>
+      <c r="N255" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="O255" s="22"/>
       <c r="P255" s="22"/>
       <c r="Q255" s="26"/>
       <c r="R255" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="S255" s="22"/>
       <c r="T255" s="22"/>
@@ -10002,7 +10009,7 @@
       <c r="B256" s="49"/>
       <c r="E256" s="30"/>
       <c r="H256" s="21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I256" s="22"/>
       <c r="J256" s="22"/>
@@ -10010,13 +10017,13 @@
       <c r="L256" s="22"/>
       <c r="M256" s="22"/>
       <c r="N256" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O256" s="22"/>
       <c r="P256" s="22"/>
       <c r="Q256" s="26"/>
       <c r="R256" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="S256" s="22"/>
       <c r="T256" s="22"/>
@@ -10041,7 +10048,7 @@
       <c r="B257" s="49"/>
       <c r="E257" s="30"/>
       <c r="H257" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I257" s="22"/>
       <c r="J257" s="22"/>
@@ -10049,13 +10056,13 @@
       <c r="L257" s="22"/>
       <c r="M257" s="22"/>
       <c r="N257" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O257" s="22"/>
       <c r="P257" s="22"/>
       <c r="Q257" s="26"/>
       <c r="R257" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S257" s="22"/>
       <c r="T257" s="22"/>
@@ -10079,28 +10086,54 @@
       <c r="A258" s="49"/>
       <c r="B258" s="49"/>
       <c r="E258" s="30"/>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="19"/>
-      <c r="K258" s="19"/>
-      <c r="L258" s="19"/>
-      <c r="M258" s="19"/>
-      <c r="N258" s="19"/>
-      <c r="O258" s="19"/>
-      <c r="P258" s="19"/>
-      <c r="AF258" s="49"/>
-      <c r="AG258" s="49"/>
+      <c r="H258" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="I258" s="22"/>
+      <c r="J258" s="22"/>
+      <c r="K258" s="22"/>
+      <c r="L258" s="22"/>
+      <c r="M258" s="22"/>
+      <c r="N258" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="O258" s="22"/>
+      <c r="P258" s="22"/>
+      <c r="Q258" s="26"/>
+      <c r="R258" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="S258" s="22"/>
+      <c r="T258" s="22"/>
+      <c r="U258" s="22"/>
+      <c r="V258" s="22"/>
+      <c r="W258" s="22"/>
+      <c r="X258" s="22"/>
+      <c r="Y258" s="22"/>
+      <c r="Z258" s="22"/>
+      <c r="AA258" s="22"/>
+      <c r="AB258" s="22"/>
+      <c r="AC258" s="22"/>
+      <c r="AD258" s="22"/>
+      <c r="AE258" s="22"/>
+      <c r="AF258" s="45"/>
+      <c r="AG258" s="45"/>
+      <c r="AH258" s="22"/>
+      <c r="AI258" s="26"/>
     </row>
     <row r="259" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="49"/>
       <c r="B259" s="49"/>
       <c r="E259" s="30"/>
-      <c r="F259" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G259" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="H259" s="19"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="19"/>
+      <c r="K259" s="19"/>
+      <c r="L259" s="19"/>
+      <c r="M259" s="19"/>
+      <c r="N259" s="19"/>
+      <c r="O259" s="19"/>
+      <c r="P259" s="19"/>
       <c r="AF259" s="49"/>
       <c r="AG259" s="49"/>
     </row>
@@ -10108,88 +10141,64 @@
       <c r="A260" s="49"/>
       <c r="B260" s="49"/>
       <c r="E260" s="30"/>
-      <c r="F260" s="17" t="str">
-        <f>$G$188&amp;" →"</f>
-        <v>(3)-1 →</v>
-      </c>
-      <c r="G260" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="H260" s="54"/>
-      <c r="I260" s="24"/>
-      <c r="J260" s="24"/>
-      <c r="K260" s="24"/>
-      <c r="L260" s="24"/>
-      <c r="M260" s="24"/>
-      <c r="N260" s="24"/>
-      <c r="O260" s="24"/>
-      <c r="P260" s="24"/>
-      <c r="Q260" s="24"/>
-      <c r="R260" s="24"/>
-      <c r="S260" s="24"/>
-      <c r="T260" s="24"/>
-      <c r="U260" s="24"/>
-      <c r="V260" s="24"/>
-      <c r="W260" s="24"/>
-      <c r="X260" s="24"/>
-      <c r="Y260" s="24"/>
-      <c r="Z260" s="24"/>
-      <c r="AA260" s="24"/>
-      <c r="AB260" s="24"/>
-      <c r="AC260" s="24"/>
-      <c r="AD260" s="24"/>
-      <c r="AE260" s="24"/>
-      <c r="AF260" s="24"/>
-      <c r="AG260" s="24"/>
-      <c r="AH260" s="24"/>
-      <c r="AI260" s="25"/>
+      <c r="F260" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G260" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF260" s="49"/>
+      <c r="AG260" s="49"/>
     </row>
     <row r="261" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="49"/>
       <c r="B261" s="49"/>
       <c r="E261" s="30"/>
-      <c r="F261" s="17"/>
-      <c r="G261" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="H261" s="55"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="19"/>
-      <c r="K261" s="19"/>
-      <c r="L261" s="19"/>
-      <c r="M261" s="19"/>
-      <c r="N261" s="19"/>
-      <c r="O261" s="19"/>
-      <c r="P261" s="19"/>
-      <c r="Q261" s="19"/>
-      <c r="R261" s="19"/>
-      <c r="S261" s="19"/>
-      <c r="T261" s="19"/>
-      <c r="U261" s="19"/>
-      <c r="V261" s="19"/>
-      <c r="W261" s="19"/>
-      <c r="X261" s="19"/>
-      <c r="Y261" s="19"/>
-      <c r="Z261" s="19"/>
-      <c r="AA261" s="19"/>
-      <c r="AB261" s="19"/>
-      <c r="AC261" s="19"/>
-      <c r="AD261" s="19"/>
-      <c r="AE261" s="19"/>
-      <c r="AF261" s="19"/>
-      <c r="AG261" s="19"/>
-      <c r="AH261" s="19"/>
-      <c r="AI261" s="20"/>
+      <c r="F261" s="17" t="str">
+        <f>$G$189&amp;" →"</f>
+        <v>(3)-1 →</v>
+      </c>
+      <c r="G261" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="H261" s="54"/>
+      <c r="I261" s="24"/>
+      <c r="J261" s="24"/>
+      <c r="K261" s="24"/>
+      <c r="L261" s="24"/>
+      <c r="M261" s="24"/>
+      <c r="N261" s="24"/>
+      <c r="O261" s="24"/>
+      <c r="P261" s="24"/>
+      <c r="Q261" s="24"/>
+      <c r="R261" s="24"/>
+      <c r="S261" s="24"/>
+      <c r="T261" s="24"/>
+      <c r="U261" s="24"/>
+      <c r="V261" s="24"/>
+      <c r="W261" s="24"/>
+      <c r="X261" s="24"/>
+      <c r="Y261" s="24"/>
+      <c r="Z261" s="24"/>
+      <c r="AA261" s="24"/>
+      <c r="AB261" s="24"/>
+      <c r="AC261" s="24"/>
+      <c r="AD261" s="24"/>
+      <c r="AE261" s="24"/>
+      <c r="AF261" s="24"/>
+      <c r="AG261" s="24"/>
+      <c r="AH261" s="24"/>
+      <c r="AI261" s="25"/>
     </row>
     <row r="262" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="49"/>
       <c r="B262" s="49"/>
       <c r="E262" s="30"/>
       <c r="F262" s="17"/>
-      <c r="G262" s="52"/>
-      <c r="H262" s="55" t="s">
-        <v>144</v>
-      </c>
+      <c r="G262" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="H262" s="55"/>
       <c r="I262" s="19"/>
       <c r="J262" s="19"/>
       <c r="K262" s="19"/>
@@ -10225,7 +10234,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="52"/>
       <c r="H263" s="55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
@@ -10262,7 +10271,7 @@
       <c r="F264" s="17"/>
       <c r="G264" s="52"/>
       <c r="H264" s="55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I264" s="19"/>
       <c r="J264" s="19"/>
@@ -10299,7 +10308,7 @@
       <c r="F265" s="17"/>
       <c r="G265" s="52"/>
       <c r="H265" s="55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I265" s="19"/>
       <c r="J265" s="19"/>
@@ -10336,7 +10345,7 @@
       <c r="F266" s="17"/>
       <c r="G266" s="52"/>
       <c r="H266" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10372,10 +10381,10 @@
       <c r="E267" s="30"/>
       <c r="F267" s="17"/>
       <c r="G267" s="52"/>
-      <c r="H267" s="55"/>
-      <c r="I267" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="H267" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I267" s="19"/>
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
       <c r="L267" s="19"/>
@@ -10411,7 +10420,7 @@
       <c r="G268" s="52"/>
       <c r="H268" s="55"/>
       <c r="I268" s="19" t="s">
-        <v>266</v>
+        <v>148</v>
       </c>
       <c r="J268" s="19"/>
       <c r="K268" s="19"/>
@@ -10446,10 +10455,10 @@
       <c r="E269" s="30"/>
       <c r="F269" s="17"/>
       <c r="G269" s="52"/>
-      <c r="H269" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="I269" s="19"/>
+      <c r="H269" s="55"/>
+      <c r="I269" s="19" t="s">
+        <v>264</v>
+      </c>
       <c r="J269" s="19"/>
       <c r="K269" s="19"/>
       <c r="L269" s="19"/>
@@ -10482,10 +10491,10 @@
       <c r="B270" s="49"/>
       <c r="E270" s="30"/>
       <c r="F270" s="17"/>
-      <c r="G270" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="H270" s="55"/>
+      <c r="G270" s="52"/>
+      <c r="H270" s="55" t="s">
+        <v>265</v>
+      </c>
       <c r="I270" s="19"/>
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
@@ -10518,12 +10527,9 @@
       <c r="A271" s="49"/>
       <c r="B271" s="49"/>
       <c r="E271" s="30"/>
-      <c r="F271" s="17" t="str">
-        <f>$G$212&amp;" →"</f>
-        <v>(3)-3 →</v>
-      </c>
+      <c r="F271" s="17"/>
       <c r="G271" s="52" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H271" s="55"/>
       <c r="I271" s="19"/>
@@ -10558,11 +10564,14 @@
       <c r="A272" s="49"/>
       <c r="B272" s="49"/>
       <c r="E272" s="30"/>
-      <c r="F272" s="17"/>
-      <c r="G272" s="52"/>
-      <c r="H272" s="55" t="s">
-        <v>148</v>
-      </c>
+      <c r="F272" s="17" t="str">
+        <f>$G$213&amp;" →"</f>
+        <v>(3)-3 →</v>
+      </c>
+      <c r="G272" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H272" s="55"/>
       <c r="I272" s="19"/>
       <c r="J272" s="19"/>
       <c r="K272" s="19"/>
@@ -10597,10 +10606,10 @@
       <c r="E273" s="30"/>
       <c r="F273" s="17"/>
       <c r="G273" s="52"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="H273" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I273" s="19"/>
       <c r="J273" s="19"/>
       <c r="K273" s="19"/>
       <c r="L273" s="19"/>
@@ -10636,7 +10645,7 @@
       <c r="G274" s="52"/>
       <c r="H274" s="55"/>
       <c r="I274" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J274" s="19"/>
       <c r="K274" s="19"/>
@@ -10669,15 +10678,12 @@
       <c r="A275" s="49"/>
       <c r="B275" s="49"/>
       <c r="E275" s="30"/>
-      <c r="F275" s="17" t="str">
-        <f>$G$223&amp;" →"</f>
-        <v>(3)-5 →</v>
-      </c>
-      <c r="G275" s="52" t="s">
-        <v>263</v>
-      </c>
+      <c r="F275" s="17"/>
+      <c r="G275" s="52"/>
       <c r="H275" s="55"/>
-      <c r="I275" s="19"/>
+      <c r="I275" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="J275" s="19"/>
       <c r="K275" s="19"/>
       <c r="L275" s="19"/>
@@ -10710,11 +10716,11 @@
       <c r="B276" s="49"/>
       <c r="E276" s="30"/>
       <c r="F276" s="17" t="str">
-        <f>$G$232&amp;" →"</f>
-        <v>(3)-7 →</v>
+        <f>$G$224&amp;" →"</f>
+        <v>(3)-5 →</v>
       </c>
       <c r="G276" s="52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H276" s="55"/>
       <c r="I276" s="19"/>
@@ -10749,9 +10755,12 @@
       <c r="A277" s="49"/>
       <c r="B277" s="49"/>
       <c r="E277" s="30"/>
-      <c r="F277" s="17"/>
+      <c r="F277" s="17" t="str">
+        <f>$G$233&amp;" →"</f>
+        <v>(3)-7 →</v>
+      </c>
       <c r="G277" s="52" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="H277" s="55"/>
       <c r="I277" s="19"/>
@@ -10788,7 +10797,7 @@
       <c r="E278" s="30"/>
       <c r="F278" s="17"/>
       <c r="G278" s="52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H278" s="55"/>
       <c r="I278" s="19"/>
@@ -10824,10 +10833,10 @@
       <c r="B279" s="49"/>
       <c r="E279" s="30"/>
       <c r="F279" s="17"/>
-      <c r="G279" s="52"/>
-      <c r="H279" s="55" t="s">
-        <v>151</v>
-      </c>
+      <c r="G279" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H279" s="55"/>
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
       <c r="K279" s="19"/>
@@ -10863,7 +10872,7 @@
       <c r="F280" s="17"/>
       <c r="G280" s="52"/>
       <c r="H280" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I280" s="19"/>
       <c r="J280" s="19"/>
@@ -10900,7 +10909,7 @@
       <c r="F281" s="17"/>
       <c r="G281" s="52"/>
       <c r="H281" s="55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I281" s="19"/>
       <c r="J281" s="19"/>
@@ -10937,7 +10946,7 @@
       <c r="F282" s="17"/>
       <c r="G282" s="52"/>
       <c r="H282" s="55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I282" s="19"/>
       <c r="J282" s="19"/>
@@ -10972,103 +10981,127 @@
       <c r="B283" s="49"/>
       <c r="E283" s="30"/>
       <c r="F283" s="17"/>
-      <c r="G283" s="53"/>
-      <c r="H283" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="I283" s="22"/>
-      <c r="J283" s="22"/>
-      <c r="K283" s="22"/>
-      <c r="L283" s="22"/>
-      <c r="M283" s="22"/>
-      <c r="N283" s="22"/>
-      <c r="O283" s="22"/>
-      <c r="P283" s="22"/>
-      <c r="Q283" s="22"/>
-      <c r="R283" s="22"/>
-      <c r="S283" s="22"/>
-      <c r="T283" s="22"/>
-      <c r="U283" s="22"/>
-      <c r="V283" s="22"/>
-      <c r="W283" s="22"/>
-      <c r="X283" s="22"/>
-      <c r="Y283" s="22"/>
-      <c r="Z283" s="22"/>
-      <c r="AA283" s="22"/>
-      <c r="AB283" s="22"/>
-      <c r="AC283" s="22"/>
-      <c r="AD283" s="22"/>
-      <c r="AE283" s="22"/>
-      <c r="AF283" s="45"/>
-      <c r="AG283" s="45"/>
-      <c r="AH283" s="22"/>
-      <c r="AI283" s="26"/>
+      <c r="G283" s="52"/>
+      <c r="H283" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I283" s="19"/>
+      <c r="J283" s="19"/>
+      <c r="K283" s="19"/>
+      <c r="L283" s="19"/>
+      <c r="M283" s="19"/>
+      <c r="N283" s="19"/>
+      <c r="O283" s="19"/>
+      <c r="P283" s="19"/>
+      <c r="Q283" s="19"/>
+      <c r="R283" s="19"/>
+      <c r="S283" s="19"/>
+      <c r="T283" s="19"/>
+      <c r="U283" s="19"/>
+      <c r="V283" s="19"/>
+      <c r="W283" s="19"/>
+      <c r="X283" s="19"/>
+      <c r="Y283" s="19"/>
+      <c r="Z283" s="19"/>
+      <c r="AA283" s="19"/>
+      <c r="AB283" s="19"/>
+      <c r="AC283" s="19"/>
+      <c r="AD283" s="19"/>
+      <c r="AE283" s="19"/>
+      <c r="AF283" s="19"/>
+      <c r="AG283" s="19"/>
+      <c r="AH283" s="19"/>
+      <c r="AI283" s="20"/>
     </row>
     <row r="284" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="49"/>
       <c r="B284" s="49"/>
       <c r="E284" s="30"/>
       <c r="F284" s="17"/>
-      <c r="AF284" s="49"/>
-      <c r="AG284" s="49"/>
+      <c r="G284" s="53"/>
+      <c r="H284" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I284" s="22"/>
+      <c r="J284" s="22"/>
+      <c r="K284" s="22"/>
+      <c r="L284" s="22"/>
+      <c r="M284" s="22"/>
+      <c r="N284" s="22"/>
+      <c r="O284" s="22"/>
+      <c r="P284" s="22"/>
+      <c r="Q284" s="22"/>
+      <c r="R284" s="22"/>
+      <c r="S284" s="22"/>
+      <c r="T284" s="22"/>
+      <c r="U284" s="22"/>
+      <c r="V284" s="22"/>
+      <c r="W284" s="22"/>
+      <c r="X284" s="22"/>
+      <c r="Y284" s="22"/>
+      <c r="Z284" s="22"/>
+      <c r="AA284" s="22"/>
+      <c r="AB284" s="22"/>
+      <c r="AC284" s="22"/>
+      <c r="AD284" s="22"/>
+      <c r="AE284" s="22"/>
+      <c r="AF284" s="45"/>
+      <c r="AG284" s="45"/>
+      <c r="AH284" s="22"/>
+      <c r="AI284" s="26"/>
     </row>
     <row r="285" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="49"/>
       <c r="B285" s="49"/>
       <c r="E285" s="30"/>
       <c r="F285" s="17"/>
-      <c r="G285" s="19"/>
-      <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
-      <c r="J285" s="19"/>
-      <c r="K285" s="19"/>
-      <c r="L285" s="19"/>
-      <c r="M285" s="19"/>
-      <c r="N285" s="19"/>
-      <c r="O285" s="19"/>
-      <c r="P285" s="19"/>
-      <c r="Q285" s="19"/>
-      <c r="R285" s="19"/>
-      <c r="S285" s="19"/>
-      <c r="T285" s="19"/>
-      <c r="U285" s="19"/>
-      <c r="V285" s="19"/>
-      <c r="W285" s="19"/>
-      <c r="X285" s="19"/>
-      <c r="Y285" s="19"/>
-      <c r="Z285" s="19"/>
-      <c r="AA285" s="19"/>
-      <c r="AB285" s="19"/>
-      <c r="AC285" s="19"/>
-      <c r="AD285" s="19"/>
-      <c r="AE285" s="19"/>
-      <c r="AF285" s="19"/>
-      <c r="AG285" s="19"/>
-      <c r="AH285" s="19"/>
-      <c r="AI285" s="19"/>
+      <c r="AF285" s="49"/>
+      <c r="AG285" s="49"/>
     </row>
     <row r="286" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="49"/>
       <c r="B286" s="49"/>
-      <c r="E286" s="30" t="str">
-        <f>$D$110&amp;"3."</f>
-        <v>7.13.3.3.</v>
-      </c>
-      <c r="F286" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF286" s="49"/>
-      <c r="AG286" s="49"/>
+      <c r="E286" s="30"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="19"/>
+      <c r="H286" s="19"/>
+      <c r="I286" s="19"/>
+      <c r="J286" s="19"/>
+      <c r="K286" s="19"/>
+      <c r="L286" s="19"/>
+      <c r="M286" s="19"/>
+      <c r="N286" s="19"/>
+      <c r="O286" s="19"/>
+      <c r="P286" s="19"/>
+      <c r="Q286" s="19"/>
+      <c r="R286" s="19"/>
+      <c r="S286" s="19"/>
+      <c r="T286" s="19"/>
+      <c r="U286" s="19"/>
+      <c r="V286" s="19"/>
+      <c r="W286" s="19"/>
+      <c r="X286" s="19"/>
+      <c r="Y286" s="19"/>
+      <c r="Z286" s="19"/>
+      <c r="AA286" s="19"/>
+      <c r="AB286" s="19"/>
+      <c r="AC286" s="19"/>
+      <c r="AD286" s="19"/>
+      <c r="AE286" s="19"/>
+      <c r="AF286" s="19"/>
+      <c r="AG286" s="19"/>
+      <c r="AH286" s="19"/>
+      <c r="AI286" s="19"/>
     </row>
     <row r="287" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="49"/>
       <c r="B287" s="49"/>
-      <c r="E287" s="30"/>
-      <c r="F287" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G287" s="16" t="s">
-        <v>131</v>
+      <c r="E287" s="30" t="str">
+        <f>$D$111&amp;"3."</f>
+        <v>7.13.3.3.</v>
+      </c>
+      <c r="F287" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="AF287" s="49"/>
       <c r="AG287" s="49"/>
@@ -11077,333 +11110,338 @@
       <c r="A288" s="49"/>
       <c r="B288" s="49"/>
       <c r="E288" s="30"/>
-      <c r="F288" s="31"/>
-      <c r="G288" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H288" s="28"/>
-      <c r="I288" s="28"/>
-      <c r="J288" s="29"/>
-      <c r="K288" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="L288" s="28"/>
-      <c r="M288" s="29"/>
-      <c r="N288" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="O288" s="28"/>
-      <c r="P288" s="28"/>
-      <c r="Q288" s="28"/>
-      <c r="R288" s="29"/>
-      <c r="S288" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="T288" s="28"/>
-      <c r="U288" s="28"/>
-      <c r="V288" s="28"/>
-      <c r="W288" s="28"/>
-      <c r="X288" s="28"/>
-      <c r="Y288" s="28"/>
-      <c r="Z288" s="28"/>
-      <c r="AA288" s="28"/>
-      <c r="AB288" s="28"/>
-      <c r="AC288" s="28"/>
-      <c r="AD288" s="28"/>
-      <c r="AE288" s="28"/>
-      <c r="AF288" s="28"/>
-      <c r="AG288" s="28"/>
-      <c r="AH288" s="28"/>
-      <c r="AI288" s="29"/>
+      <c r="F288" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF288" s="49"/>
+      <c r="AG288" s="49"/>
     </row>
     <row r="289" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="49"/>
       <c r="B289" s="49"/>
       <c r="E289" s="30"/>
       <c r="F289" s="31"/>
-      <c r="G289" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H289" s="47"/>
-      <c r="I289" s="47"/>
-      <c r="J289" s="48"/>
-      <c r="K289" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="L289" s="47"/>
-      <c r="M289" s="48"/>
-      <c r="N289" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="O289" s="47"/>
-      <c r="P289" s="47"/>
-      <c r="Q289" s="47"/>
-      <c r="R289" s="48"/>
-      <c r="S289" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="T289" s="47"/>
-      <c r="U289" s="47"/>
-      <c r="V289" s="47"/>
-      <c r="W289" s="47"/>
-      <c r="X289" s="47"/>
-      <c r="Y289" s="47"/>
-      <c r="Z289" s="47"/>
-      <c r="AA289" s="47"/>
-      <c r="AB289" s="47"/>
-      <c r="AC289" s="47"/>
-      <c r="AD289" s="47"/>
-      <c r="AE289" s="47"/>
-      <c r="AF289" s="47"/>
-      <c r="AG289" s="47"/>
-      <c r="AH289" s="47"/>
-      <c r="AI289" s="48"/>
+      <c r="G289" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H289" s="28"/>
+      <c r="I289" s="28"/>
+      <c r="J289" s="28"/>
+      <c r="K289" s="29"/>
+      <c r="L289" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="M289" s="28"/>
+      <c r="N289" s="29"/>
+      <c r="O289" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="P289" s="28"/>
+      <c r="Q289" s="28"/>
+      <c r="R289" s="29"/>
+      <c r="S289" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="T289" s="28"/>
+      <c r="U289" s="28"/>
+      <c r="V289" s="28"/>
+      <c r="W289" s="28"/>
+      <c r="X289" s="28"/>
+      <c r="Y289" s="28"/>
+      <c r="Z289" s="28"/>
+      <c r="AA289" s="28"/>
+      <c r="AB289" s="28"/>
+      <c r="AC289" s="28"/>
+      <c r="AD289" s="28"/>
+      <c r="AE289" s="28"/>
+      <c r="AF289" s="28"/>
+      <c r="AG289" s="28"/>
+      <c r="AH289" s="28"/>
+      <c r="AI289" s="29"/>
     </row>
     <row r="290" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="49"/>
       <c r="B290" s="49"/>
       <c r="E290" s="30"/>
       <c r="F290" s="31"/>
-      <c r="G290" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
-      <c r="J290" s="20"/>
-      <c r="K290" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L290" s="19"/>
-      <c r="M290" s="20"/>
-      <c r="N290" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="O290" s="19"/>
-      <c r="P290" s="19"/>
-      <c r="Q290" s="19"/>
-      <c r="R290" s="20"/>
-      <c r="S290" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="T290" s="19"/>
-      <c r="U290" s="19"/>
-      <c r="V290" s="19"/>
-      <c r="W290" s="19"/>
-      <c r="X290" s="19"/>
-      <c r="Y290" s="19"/>
-      <c r="Z290" s="19"/>
-      <c r="AA290" s="19"/>
-      <c r="AB290" s="19"/>
-      <c r="AC290" s="19"/>
-      <c r="AD290" s="19"/>
-      <c r="AE290" s="19"/>
-      <c r="AF290" s="19"/>
-      <c r="AG290" s="19"/>
-      <c r="AH290" s="19"/>
-      <c r="AI290" s="20"/>
+      <c r="G290" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H290" s="47"/>
+      <c r="I290" s="47"/>
+      <c r="J290" s="47"/>
+      <c r="K290" s="48"/>
+      <c r="L290" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="M290" s="47"/>
+      <c r="N290" s="48"/>
+      <c r="O290" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="P290" s="47"/>
+      <c r="Q290" s="47"/>
+      <c r="R290" s="48"/>
+      <c r="S290" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="T290" s="47"/>
+      <c r="U290" s="47"/>
+      <c r="V290" s="47"/>
+      <c r="W290" s="47"/>
+      <c r="X290" s="47"/>
+      <c r="Y290" s="47"/>
+      <c r="Z290" s="47"/>
+      <c r="AA290" s="47"/>
+      <c r="AB290" s="47"/>
+      <c r="AC290" s="47"/>
+      <c r="AD290" s="47"/>
+      <c r="AE290" s="47"/>
+      <c r="AF290" s="47"/>
+      <c r="AG290" s="47"/>
+      <c r="AH290" s="47"/>
+      <c r="AI290" s="48"/>
     </row>
     <row r="291" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="49"/>
       <c r="B291" s="49"/>
       <c r="E291" s="30"/>
       <c r="F291" s="31"/>
-      <c r="G291" s="21"/>
-      <c r="H291" s="22"/>
-      <c r="I291" s="22"/>
-      <c r="J291" s="26"/>
-      <c r="K291" s="22"/>
-      <c r="L291" s="22"/>
-      <c r="M291" s="26"/>
-      <c r="N291" s="22"/>
-      <c r="O291" s="22"/>
-      <c r="P291" s="22"/>
-      <c r="Q291" s="22"/>
-      <c r="R291" s="26"/>
-      <c r="S291" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="T291" s="22"/>
-      <c r="U291" s="22"/>
-      <c r="V291" s="22"/>
-      <c r="W291" s="22"/>
-      <c r="X291" s="22"/>
-      <c r="Y291" s="22"/>
-      <c r="Z291" s="22"/>
-      <c r="AA291" s="22"/>
-      <c r="AB291" s="22"/>
-      <c r="AC291" s="22"/>
-      <c r="AD291" s="22"/>
-      <c r="AE291" s="22"/>
-      <c r="AF291" s="45"/>
-      <c r="AG291" s="45"/>
-      <c r="AH291" s="22"/>
-      <c r="AI291" s="26"/>
+      <c r="G291" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H291" s="19"/>
+      <c r="I291" s="19"/>
+      <c r="J291" s="19"/>
+      <c r="K291" s="20"/>
+      <c r="L291" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M291" s="19"/>
+      <c r="N291" s="20"/>
+      <c r="O291" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="P291" s="19"/>
+      <c r="Q291" s="19"/>
+      <c r="R291" s="20"/>
+      <c r="S291" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="T291" s="19"/>
+      <c r="U291" s="19"/>
+      <c r="V291" s="19"/>
+      <c r="W291" s="19"/>
+      <c r="X291" s="19"/>
+      <c r="Y291" s="19"/>
+      <c r="Z291" s="19"/>
+      <c r="AA291" s="19"/>
+      <c r="AB291" s="19"/>
+      <c r="AC291" s="19"/>
+      <c r="AD291" s="19"/>
+      <c r="AE291" s="19"/>
+      <c r="AF291" s="19"/>
+      <c r="AG291" s="19"/>
+      <c r="AH291" s="19"/>
+      <c r="AI291" s="20"/>
     </row>
     <row r="292" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="49"/>
       <c r="B292" s="49"/>
       <c r="E292" s="30"/>
       <c r="F292" s="31"/>
-      <c r="G292" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H292" s="33"/>
-      <c r="I292" s="33"/>
-      <c r="J292" s="34"/>
-      <c r="K292" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="L292" s="33"/>
-      <c r="M292" s="34"/>
-      <c r="N292" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="O292" s="33"/>
-      <c r="P292" s="33"/>
-      <c r="Q292" s="33"/>
-      <c r="R292" s="34"/>
-      <c r="S292" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="T292" s="33"/>
-      <c r="U292" s="33"/>
-      <c r="V292" s="33"/>
-      <c r="W292" s="33"/>
-      <c r="X292" s="33"/>
-      <c r="Y292" s="33"/>
-      <c r="Z292" s="33"/>
-      <c r="AA292" s="33"/>
-      <c r="AB292" s="33"/>
-      <c r="AC292" s="33"/>
-      <c r="AD292" s="33"/>
-      <c r="AE292" s="33"/>
-      <c r="AF292" s="47"/>
-      <c r="AG292" s="47"/>
-      <c r="AH292" s="33"/>
-      <c r="AI292" s="34"/>
-    </row>
-    <row r="293" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="49"/>
-      <c r="B293" s="49"/>
+      <c r="G292" s="21"/>
+      <c r="H292" s="22"/>
+      <c r="I292" s="22"/>
+      <c r="J292" s="45"/>
+      <c r="K292" s="46"/>
+      <c r="L292" s="45"/>
+      <c r="M292" s="45"/>
+      <c r="N292" s="46"/>
+      <c r="O292" s="45"/>
+      <c r="P292" s="22"/>
+      <c r="Q292" s="22"/>
+      <c r="R292" s="26"/>
+      <c r="S292" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="T292" s="22"/>
+      <c r="U292" s="22"/>
+      <c r="V292" s="22"/>
+      <c r="W292" s="22"/>
+      <c r="X292" s="22"/>
+      <c r="Y292" s="22"/>
+      <c r="Z292" s="22"/>
+      <c r="AA292" s="22"/>
+      <c r="AB292" s="22"/>
+      <c r="AC292" s="22"/>
+      <c r="AD292" s="22"/>
+      <c r="AE292" s="22"/>
+      <c r="AF292" s="45"/>
+      <c r="AG292" s="45"/>
+      <c r="AH292" s="22"/>
+      <c r="AI292" s="26"/>
+    </row>
+    <row r="293" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E293" s="30"/>
       <c r="F293" s="31"/>
-      <c r="AF293" s="49"/>
-      <c r="AG293" s="49"/>
+      <c r="G293" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="H293" s="47"/>
+      <c r="I293" s="47"/>
+      <c r="J293" s="47"/>
+      <c r="K293" s="48"/>
+      <c r="L293" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="M293" s="47"/>
+      <c r="N293" s="48"/>
+      <c r="O293" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="P293" s="47"/>
+      <c r="Q293" s="47"/>
+      <c r="R293" s="48"/>
+      <c r="S293" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="T293" s="47"/>
+      <c r="U293" s="47"/>
+      <c r="V293" s="47"/>
+      <c r="W293" s="47"/>
+      <c r="X293" s="47"/>
+      <c r="Y293" s="47"/>
+      <c r="Z293" s="47"/>
+      <c r="AA293" s="47"/>
+      <c r="AB293" s="47"/>
+      <c r="AC293" s="47"/>
+      <c r="AD293" s="47"/>
+      <c r="AE293" s="47"/>
+      <c r="AF293" s="47"/>
+      <c r="AG293" s="47"/>
+      <c r="AH293" s="47"/>
+      <c r="AI293" s="48"/>
     </row>
     <row r="294" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="49"/>
       <c r="B294" s="49"/>
       <c r="E294" s="30"/>
-      <c r="F294" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G294" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF294" s="49"/>
-      <c r="AG294" s="49"/>
+      <c r="F294" s="31"/>
+      <c r="G294" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H294" s="33"/>
+      <c r="I294" s="33"/>
+      <c r="J294" s="47"/>
+      <c r="K294" s="48"/>
+      <c r="L294" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="M294" s="47"/>
+      <c r="N294" s="48"/>
+      <c r="O294" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="P294" s="33"/>
+      <c r="Q294" s="33"/>
+      <c r="R294" s="34"/>
+      <c r="S294" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="T294" s="33"/>
+      <c r="U294" s="33"/>
+      <c r="V294" s="33"/>
+      <c r="W294" s="33"/>
+      <c r="X294" s="33"/>
+      <c r="Y294" s="33"/>
+      <c r="Z294" s="33"/>
+      <c r="AA294" s="33"/>
+      <c r="AB294" s="33"/>
+      <c r="AC294" s="33"/>
+      <c r="AD294" s="33"/>
+      <c r="AE294" s="33"/>
+      <c r="AF294" s="47"/>
+      <c r="AG294" s="47"/>
+      <c r="AH294" s="33"/>
+      <c r="AI294" s="34"/>
     </row>
     <row r="295" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="49"/>
       <c r="B295" s="49"/>
       <c r="E295" s="30"/>
-      <c r="F295" s="17"/>
-      <c r="G295" s="30" t="str">
-        <f>F294&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H295" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="F295" s="31"/>
       <c r="AF295" s="49"/>
       <c r="AG295" s="49"/>
     </row>
     <row r="296" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="49"/>
       <c r="B296" s="49"/>
-      <c r="D296" s="19"/>
-      <c r="E296" s="37"/>
-      <c r="F296" s="37"/>
-      <c r="G296" s="38"/>
-      <c r="H296" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I296" s="24"/>
-      <c r="J296" s="24"/>
-      <c r="K296" s="24"/>
-      <c r="L296" s="24"/>
-      <c r="M296" s="24"/>
-      <c r="N296" s="24"/>
-      <c r="O296" s="24"/>
-      <c r="P296" s="24"/>
-      <c r="Q296" s="24"/>
-      <c r="R296" s="24"/>
-      <c r="S296" s="24"/>
-      <c r="T296" s="24"/>
-      <c r="U296" s="24"/>
-      <c r="V296" s="24"/>
-      <c r="W296" s="24"/>
-      <c r="X296" s="24"/>
-      <c r="Y296" s="24"/>
-      <c r="Z296" s="24"/>
-      <c r="AA296" s="24"/>
-      <c r="AB296" s="24"/>
-      <c r="AC296" s="24"/>
-      <c r="AD296" s="24"/>
-      <c r="AE296" s="24"/>
-      <c r="AF296" s="24"/>
-      <c r="AG296" s="24"/>
-      <c r="AH296" s="24"/>
-      <c r="AI296" s="25"/>
+      <c r="E296" s="30"/>
+      <c r="F296" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G296" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF296" s="49"/>
+      <c r="AG296" s="49"/>
     </row>
     <row r="297" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="49"/>
       <c r="B297" s="49"/>
       <c r="E297" s="30"/>
-      <c r="F297" s="30"/>
-      <c r="G297" s="17"/>
-      <c r="H297" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="I297" s="22"/>
-      <c r="J297" s="22"/>
-      <c r="K297" s="22"/>
-      <c r="L297" s="22"/>
-      <c r="M297" s="22"/>
-      <c r="N297" s="22"/>
-      <c r="O297" s="22"/>
-      <c r="P297" s="22"/>
-      <c r="Q297" s="22"/>
-      <c r="R297" s="22"/>
-      <c r="S297" s="22"/>
-      <c r="T297" s="22"/>
-      <c r="U297" s="22"/>
-      <c r="V297" s="22"/>
-      <c r="W297" s="22"/>
-      <c r="X297" s="22"/>
-      <c r="Y297" s="22"/>
-      <c r="Z297" s="22"/>
-      <c r="AA297" s="22"/>
-      <c r="AB297" s="22"/>
-      <c r="AC297" s="22"/>
-      <c r="AD297" s="22"/>
-      <c r="AE297" s="22"/>
-      <c r="AF297" s="45"/>
-      <c r="AG297" s="45"/>
-      <c r="AH297" s="22"/>
-      <c r="AI297" s="26"/>
+      <c r="F297" s="17"/>
+      <c r="G297" s="30" t="str">
+        <f>F296&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H297" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF297" s="49"/>
+      <c r="AG297" s="49"/>
     </row>
     <row r="298" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="49"/>
       <c r="B298" s="49"/>
-      <c r="E298" s="30"/>
-      <c r="F298" s="30"/>
-      <c r="G298" s="17"/>
-      <c r="H298" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF298" s="49"/>
-      <c r="AG298" s="49"/>
+      <c r="D298" s="19"/>
+      <c r="E298" s="37"/>
+      <c r="F298" s="37"/>
+      <c r="G298" s="38"/>
+      <c r="H298" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I298" s="24"/>
+      <c r="J298" s="24"/>
+      <c r="K298" s="24"/>
+      <c r="L298" s="24"/>
+      <c r="M298" s="24"/>
+      <c r="N298" s="24"/>
+      <c r="O298" s="24"/>
+      <c r="P298" s="24"/>
+      <c r="Q298" s="24"/>
+      <c r="R298" s="24"/>
+      <c r="S298" s="24"/>
+      <c r="T298" s="24"/>
+      <c r="U298" s="24"/>
+      <c r="V298" s="24"/>
+      <c r="W298" s="24"/>
+      <c r="X298" s="24"/>
+      <c r="Y298" s="24"/>
+      <c r="Z298" s="24"/>
+      <c r="AA298" s="24"/>
+      <c r="AB298" s="24"/>
+      <c r="AC298" s="24"/>
+      <c r="AD298" s="24"/>
+      <c r="AE298" s="24"/>
+      <c r="AF298" s="24"/>
+      <c r="AG298" s="24"/>
+      <c r="AH298" s="24"/>
+      <c r="AI298" s="25"/>
     </row>
     <row r="299" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="49"/>
@@ -11411,17 +11449,46 @@
       <c r="E299" s="30"/>
       <c r="F299" s="30"/>
       <c r="G299" s="17"/>
-      <c r="H299" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF299" s="49"/>
-      <c r="AG299" s="49"/>
+      <c r="H299" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="I299" s="22"/>
+      <c r="J299" s="22"/>
+      <c r="K299" s="22"/>
+      <c r="L299" s="22"/>
+      <c r="M299" s="22"/>
+      <c r="N299" s="22"/>
+      <c r="O299" s="22"/>
+      <c r="P299" s="22"/>
+      <c r="Q299" s="22"/>
+      <c r="R299" s="22"/>
+      <c r="S299" s="22"/>
+      <c r="T299" s="22"/>
+      <c r="U299" s="22"/>
+      <c r="V299" s="22"/>
+      <c r="W299" s="22"/>
+      <c r="X299" s="22"/>
+      <c r="Y299" s="22"/>
+      <c r="Z299" s="22"/>
+      <c r="AA299" s="22"/>
+      <c r="AB299" s="22"/>
+      <c r="AC299" s="22"/>
+      <c r="AD299" s="22"/>
+      <c r="AE299" s="22"/>
+      <c r="AF299" s="45"/>
+      <c r="AG299" s="45"/>
+      <c r="AH299" s="22"/>
+      <c r="AI299" s="26"/>
     </row>
     <row r="300" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="49"/>
       <c r="B300" s="49"/>
       <c r="E300" s="30"/>
-      <c r="F300" s="17"/>
+      <c r="F300" s="30"/>
+      <c r="G300" s="17"/>
+      <c r="H300" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="AF300" s="49"/>
       <c r="AG300" s="49"/>
     </row>
@@ -11429,13 +11496,10 @@
       <c r="A301" s="49"/>
       <c r="B301" s="49"/>
       <c r="E301" s="30"/>
-      <c r="F301" s="17"/>
-      <c r="G301" s="30" t="str">
-        <f>F294&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
+      <c r="F301" s="30"/>
+      <c r="G301" s="17"/>
       <c r="H301" s="16" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="AF301" s="49"/>
       <c r="AG301" s="49"/>
@@ -11445,213 +11509,158 @@
       <c r="B302" s="49"/>
       <c r="E302" s="30"/>
       <c r="F302" s="17"/>
-      <c r="G302" s="30"/>
-      <c r="H302" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I302" s="28"/>
-      <c r="J302" s="28"/>
-      <c r="K302" s="28"/>
-      <c r="L302" s="28"/>
-      <c r="M302" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="N302" s="28"/>
-      <c r="O302" s="28"/>
-      <c r="P302" s="29"/>
-      <c r="Q302" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="R302" s="28"/>
-      <c r="S302" s="28"/>
-      <c r="T302" s="28"/>
-      <c r="U302" s="28"/>
-      <c r="V302" s="28"/>
-      <c r="W302" s="28"/>
-      <c r="X302" s="28"/>
-      <c r="Y302" s="28"/>
-      <c r="Z302" s="28"/>
-      <c r="AA302" s="28"/>
-      <c r="AB302" s="28"/>
-      <c r="AC302" s="28"/>
-      <c r="AD302" s="28"/>
-      <c r="AE302" s="28"/>
-      <c r="AF302" s="28"/>
-      <c r="AG302" s="28"/>
-      <c r="AH302" s="28"/>
-      <c r="AI302" s="29"/>
+      <c r="AF302" s="49"/>
+      <c r="AG302" s="49"/>
     </row>
     <row r="303" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="49"/>
       <c r="B303" s="49"/>
       <c r="E303" s="30"/>
-      <c r="H303" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I303" s="33"/>
-      <c r="J303" s="33"/>
-      <c r="K303" s="33"/>
-      <c r="L303" s="33"/>
-      <c r="M303" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="N303" s="33"/>
-      <c r="O303" s="33"/>
-      <c r="P303" s="34"/>
-      <c r="Q303" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="R303" s="33"/>
-      <c r="S303" s="33"/>
-      <c r="T303" s="33"/>
-      <c r="U303" s="33"/>
-      <c r="V303" s="33"/>
-      <c r="W303" s="33"/>
-      <c r="X303" s="33"/>
-      <c r="Y303" s="33"/>
-      <c r="Z303" s="33"/>
-      <c r="AA303" s="33"/>
-      <c r="AB303" s="33"/>
-      <c r="AC303" s="33"/>
-      <c r="AD303" s="33"/>
-      <c r="AE303" s="33"/>
-      <c r="AF303" s="47"/>
-      <c r="AG303" s="47"/>
-      <c r="AH303" s="33"/>
-      <c r="AI303" s="34"/>
+      <c r="F303" s="17"/>
+      <c r="G303" s="30" t="str">
+        <f>F296&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H303" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF303" s="49"/>
+      <c r="AG303" s="49"/>
     </row>
     <row r="304" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="49"/>
       <c r="B304" s="49"/>
       <c r="E304" s="30"/>
-      <c r="H304" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I304" s="19"/>
-      <c r="J304" s="19"/>
-      <c r="K304" s="19"/>
-      <c r="L304" s="19"/>
-      <c r="M304" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="N304" s="19"/>
-      <c r="O304" s="19"/>
-      <c r="P304" s="20"/>
-      <c r="Q304" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="R304" s="19"/>
-      <c r="S304" s="19"/>
-      <c r="T304" s="19"/>
-      <c r="U304" s="19"/>
-      <c r="V304" s="19"/>
-      <c r="W304" s="19"/>
-      <c r="X304" s="19"/>
-      <c r="Y304" s="19"/>
-      <c r="Z304" s="19"/>
-      <c r="AA304" s="19"/>
-      <c r="AB304" s="19"/>
-      <c r="AC304" s="19"/>
-      <c r="AD304" s="19"/>
-      <c r="AE304" s="19"/>
-      <c r="AF304" s="19"/>
-      <c r="AG304" s="19"/>
-      <c r="AH304" s="19"/>
-      <c r="AI304" s="20"/>
+      <c r="F304" s="17"/>
+      <c r="G304" s="30"/>
+      <c r="H304" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I304" s="28"/>
+      <c r="J304" s="28"/>
+      <c r="K304" s="28"/>
+      <c r="L304" s="28"/>
+      <c r="M304" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="N304" s="28"/>
+      <c r="O304" s="28"/>
+      <c r="P304" s="29"/>
+      <c r="Q304" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="R304" s="28"/>
+      <c r="S304" s="28"/>
+      <c r="T304" s="28"/>
+      <c r="U304" s="28"/>
+      <c r="V304" s="28"/>
+      <c r="W304" s="28"/>
+      <c r="X304" s="28"/>
+      <c r="Y304" s="28"/>
+      <c r="Z304" s="28"/>
+      <c r="AA304" s="28"/>
+      <c r="AB304" s="28"/>
+      <c r="AC304" s="28"/>
+      <c r="AD304" s="28"/>
+      <c r="AE304" s="28"/>
+      <c r="AF304" s="28"/>
+      <c r="AG304" s="28"/>
+      <c r="AH304" s="28"/>
+      <c r="AI304" s="29"/>
     </row>
     <row r="305" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="49"/>
       <c r="B305" s="49"/>
       <c r="E305" s="30"/>
-      <c r="H305" s="21"/>
-      <c r="I305" s="22"/>
-      <c r="J305" s="22"/>
-      <c r="K305" s="22"/>
-      <c r="L305" s="22"/>
-      <c r="M305" s="21"/>
-      <c r="N305" s="22"/>
-      <c r="O305" s="22"/>
-      <c r="P305" s="26"/>
-      <c r="Q305" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="R305" s="22"/>
-      <c r="S305" s="22"/>
-      <c r="T305" s="22"/>
-      <c r="U305" s="22"/>
-      <c r="V305" s="22"/>
-      <c r="W305" s="22"/>
-      <c r="X305" s="22"/>
-      <c r="Y305" s="22"/>
-      <c r="Z305" s="22"/>
-      <c r="AA305" s="22"/>
-      <c r="AB305" s="22"/>
-      <c r="AC305" s="22"/>
-      <c r="AD305" s="22"/>
-      <c r="AE305" s="22"/>
-      <c r="AF305" s="45"/>
-      <c r="AG305" s="45"/>
-      <c r="AH305" s="22"/>
-      <c r="AI305" s="26"/>
+      <c r="H305" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I305" s="33"/>
+      <c r="J305" s="33"/>
+      <c r="K305" s="33"/>
+      <c r="L305" s="33"/>
+      <c r="M305" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="N305" s="33"/>
+      <c r="O305" s="33"/>
+      <c r="P305" s="34"/>
+      <c r="Q305" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R305" s="33"/>
+      <c r="S305" s="33"/>
+      <c r="T305" s="33"/>
+      <c r="U305" s="33"/>
+      <c r="V305" s="33"/>
+      <c r="W305" s="33"/>
+      <c r="X305" s="33"/>
+      <c r="Y305" s="33"/>
+      <c r="Z305" s="33"/>
+      <c r="AA305" s="33"/>
+      <c r="AB305" s="33"/>
+      <c r="AC305" s="33"/>
+      <c r="AD305" s="33"/>
+      <c r="AE305" s="33"/>
+      <c r="AF305" s="47"/>
+      <c r="AG305" s="47"/>
+      <c r="AH305" s="33"/>
+      <c r="AI305" s="34"/>
     </row>
     <row r="306" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="49"/>
       <c r="B306" s="49"/>
       <c r="E306" s="30"/>
-      <c r="H306" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="I306" s="22"/>
-      <c r="J306" s="22"/>
-      <c r="K306" s="22"/>
-      <c r="L306" s="22"/>
-      <c r="M306" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="N306" s="22"/>
-      <c r="O306" s="22"/>
-      <c r="P306" s="26"/>
-      <c r="Q306" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="R306" s="22"/>
-      <c r="S306" s="22"/>
-      <c r="T306" s="22"/>
-      <c r="U306" s="22"/>
-      <c r="V306" s="22"/>
-      <c r="W306" s="22"/>
-      <c r="X306" s="22"/>
-      <c r="Y306" s="22"/>
-      <c r="Z306" s="22"/>
-      <c r="AA306" s="22"/>
-      <c r="AB306" s="22"/>
-      <c r="AC306" s="22"/>
-      <c r="AD306" s="22"/>
-      <c r="AE306" s="22"/>
-      <c r="AF306" s="45"/>
-      <c r="AG306" s="45"/>
-      <c r="AH306" s="22"/>
-      <c r="AI306" s="26"/>
+      <c r="H306" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I306" s="19"/>
+      <c r="J306" s="19"/>
+      <c r="K306" s="19"/>
+      <c r="L306" s="19"/>
+      <c r="M306" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N306" s="19"/>
+      <c r="O306" s="19"/>
+      <c r="P306" s="20"/>
+      <c r="Q306" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="R306" s="19"/>
+      <c r="S306" s="19"/>
+      <c r="T306" s="19"/>
+      <c r="U306" s="19"/>
+      <c r="V306" s="19"/>
+      <c r="W306" s="19"/>
+      <c r="X306" s="19"/>
+      <c r="Y306" s="19"/>
+      <c r="Z306" s="19"/>
+      <c r="AA306" s="19"/>
+      <c r="AB306" s="19"/>
+      <c r="AC306" s="19"/>
+      <c r="AD306" s="19"/>
+      <c r="AE306" s="19"/>
+      <c r="AF306" s="19"/>
+      <c r="AG306" s="19"/>
+      <c r="AH306" s="19"/>
+      <c r="AI306" s="20"/>
     </row>
     <row r="307" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="49"/>
       <c r="B307" s="49"/>
       <c r="E307" s="30"/>
-      <c r="H307" s="21" t="s">
-        <v>94</v>
-      </c>
+      <c r="H307" s="21"/>
       <c r="I307" s="22"/>
       <c r="J307" s="22"/>
       <c r="K307" s="22"/>
       <c r="L307" s="22"/>
-      <c r="M307" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="M307" s="21"/>
       <c r="N307" s="22"/>
       <c r="O307" s="22"/>
       <c r="P307" s="26"/>
       <c r="Q307" s="22" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="R307" s="22"/>
       <c r="S307" s="22"/>
@@ -11676,60 +11685,60 @@
       <c r="A308" s="49"/>
       <c r="B308" s="49"/>
       <c r="E308" s="30"/>
-      <c r="H308" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="I308" s="33"/>
-      <c r="J308" s="33"/>
-      <c r="K308" s="33"/>
-      <c r="L308" s="33"/>
-      <c r="M308" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="N308" s="33"/>
-      <c r="O308" s="33"/>
-      <c r="P308" s="34"/>
-      <c r="Q308" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="R308" s="33"/>
-      <c r="S308" s="33"/>
-      <c r="T308" s="33"/>
-      <c r="U308" s="33"/>
-      <c r="V308" s="33"/>
-      <c r="W308" s="33"/>
-      <c r="X308" s="33"/>
-      <c r="Y308" s="33"/>
-      <c r="Z308" s="33"/>
-      <c r="AA308" s="33"/>
-      <c r="AB308" s="33"/>
-      <c r="AC308" s="33"/>
-      <c r="AD308" s="33"/>
-      <c r="AE308" s="33"/>
-      <c r="AF308" s="47"/>
-      <c r="AG308" s="47"/>
-      <c r="AH308" s="33"/>
-      <c r="AI308" s="34"/>
+      <c r="H308" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I308" s="22"/>
+      <c r="J308" s="22"/>
+      <c r="K308" s="22"/>
+      <c r="L308" s="22"/>
+      <c r="M308" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="N308" s="22"/>
+      <c r="O308" s="22"/>
+      <c r="P308" s="26"/>
+      <c r="Q308" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R308" s="22"/>
+      <c r="S308" s="22"/>
+      <c r="T308" s="22"/>
+      <c r="U308" s="22"/>
+      <c r="V308" s="22"/>
+      <c r="W308" s="22"/>
+      <c r="X308" s="22"/>
+      <c r="Y308" s="22"/>
+      <c r="Z308" s="22"/>
+      <c r="AA308" s="22"/>
+      <c r="AB308" s="22"/>
+      <c r="AC308" s="22"/>
+      <c r="AD308" s="22"/>
+      <c r="AE308" s="22"/>
+      <c r="AF308" s="45"/>
+      <c r="AG308" s="45"/>
+      <c r="AH308" s="22"/>
+      <c r="AI308" s="26"/>
     </row>
     <row r="309" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="49"/>
       <c r="B309" s="49"/>
       <c r="E309" s="30"/>
       <c r="H309" s="21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I309" s="22"/>
       <c r="J309" s="22"/>
       <c r="K309" s="22"/>
       <c r="L309" s="22"/>
       <c r="M309" s="21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N309" s="22"/>
       <c r="O309" s="22"/>
       <c r="P309" s="26"/>
       <c r="Q309" s="22" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="R309" s="22"/>
       <c r="S309" s="22"/>
@@ -11754,60 +11763,60 @@
       <c r="A310" s="49"/>
       <c r="B310" s="49"/>
       <c r="E310" s="30"/>
-      <c r="H310" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I310" s="22"/>
-      <c r="J310" s="22"/>
-      <c r="K310" s="22"/>
-      <c r="L310" s="22"/>
-      <c r="M310" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="N310" s="22"/>
-      <c r="O310" s="22"/>
-      <c r="P310" s="26"/>
-      <c r="Q310" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="R310" s="22"/>
-      <c r="S310" s="22"/>
-      <c r="T310" s="22"/>
-      <c r="U310" s="22"/>
-      <c r="V310" s="22"/>
-      <c r="W310" s="22"/>
-      <c r="X310" s="22"/>
-      <c r="Y310" s="22"/>
-      <c r="Z310" s="22"/>
-      <c r="AA310" s="22"/>
-      <c r="AB310" s="22"/>
-      <c r="AC310" s="22"/>
-      <c r="AD310" s="22"/>
-      <c r="AE310" s="22"/>
-      <c r="AF310" s="45"/>
-      <c r="AG310" s="45"/>
-      <c r="AH310" s="22"/>
-      <c r="AI310" s="26"/>
+      <c r="H310" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="I310" s="33"/>
+      <c r="J310" s="33"/>
+      <c r="K310" s="33"/>
+      <c r="L310" s="33"/>
+      <c r="M310" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N310" s="33"/>
+      <c r="O310" s="33"/>
+      <c r="P310" s="34"/>
+      <c r="Q310" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="R310" s="33"/>
+      <c r="S310" s="33"/>
+      <c r="T310" s="33"/>
+      <c r="U310" s="33"/>
+      <c r="V310" s="33"/>
+      <c r="W310" s="33"/>
+      <c r="X310" s="33"/>
+      <c r="Y310" s="33"/>
+      <c r="Z310" s="33"/>
+      <c r="AA310" s="33"/>
+      <c r="AB310" s="33"/>
+      <c r="AC310" s="33"/>
+      <c r="AD310" s="33"/>
+      <c r="AE310" s="33"/>
+      <c r="AF310" s="47"/>
+      <c r="AG310" s="47"/>
+      <c r="AH310" s="33"/>
+      <c r="AI310" s="34"/>
     </row>
     <row r="311" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="49"/>
       <c r="B311" s="49"/>
       <c r="E311" s="30"/>
       <c r="H311" s="21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I311" s="22"/>
       <c r="J311" s="22"/>
       <c r="K311" s="22"/>
       <c r="L311" s="22"/>
       <c r="M311" s="21" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N311" s="22"/>
       <c r="O311" s="22"/>
       <c r="P311" s="26"/>
       <c r="Q311" s="22" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="R311" s="22"/>
       <c r="S311" s="22"/>
@@ -11832,60 +11841,60 @@
       <c r="A312" s="49"/>
       <c r="B312" s="49"/>
       <c r="E312" s="30"/>
-      <c r="H312" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I312" s="33"/>
-      <c r="J312" s="33"/>
-      <c r="K312" s="33"/>
-      <c r="L312" s="33"/>
-      <c r="M312" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N312" s="33"/>
-      <c r="O312" s="33"/>
-      <c r="P312" s="34"/>
-      <c r="Q312" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="R312" s="33"/>
-      <c r="S312" s="33"/>
-      <c r="T312" s="33"/>
-      <c r="U312" s="33"/>
-      <c r="V312" s="33"/>
-      <c r="W312" s="33"/>
-      <c r="X312" s="33"/>
-      <c r="Y312" s="33"/>
-      <c r="Z312" s="33"/>
-      <c r="AA312" s="33"/>
-      <c r="AB312" s="33"/>
-      <c r="AC312" s="33"/>
-      <c r="AD312" s="33"/>
-      <c r="AE312" s="33"/>
-      <c r="AF312" s="47"/>
-      <c r="AG312" s="47"/>
-      <c r="AH312" s="33"/>
-      <c r="AI312" s="34"/>
+      <c r="H312" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I312" s="22"/>
+      <c r="J312" s="22"/>
+      <c r="K312" s="22"/>
+      <c r="L312" s="22"/>
+      <c r="M312" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N312" s="22"/>
+      <c r="O312" s="22"/>
+      <c r="P312" s="26"/>
+      <c r="Q312" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="R312" s="22"/>
+      <c r="S312" s="22"/>
+      <c r="T312" s="22"/>
+      <c r="U312" s="22"/>
+      <c r="V312" s="22"/>
+      <c r="W312" s="22"/>
+      <c r="X312" s="22"/>
+      <c r="Y312" s="22"/>
+      <c r="Z312" s="22"/>
+      <c r="AA312" s="22"/>
+      <c r="AB312" s="22"/>
+      <c r="AC312" s="22"/>
+      <c r="AD312" s="22"/>
+      <c r="AE312" s="22"/>
+      <c r="AF312" s="45"/>
+      <c r="AG312" s="45"/>
+      <c r="AH312" s="22"/>
+      <c r="AI312" s="26"/>
     </row>
     <row r="313" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="49"/>
       <c r="B313" s="49"/>
       <c r="E313" s="30"/>
       <c r="H313" s="21" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="I313" s="22"/>
       <c r="J313" s="22"/>
       <c r="K313" s="22"/>
       <c r="L313" s="22"/>
       <c r="M313" s="21" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="N313" s="22"/>
       <c r="O313" s="22"/>
       <c r="P313" s="26"/>
       <c r="Q313" s="22" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="R313" s="22"/>
       <c r="S313" s="22"/>
@@ -11910,56 +11919,60 @@
       <c r="A314" s="49"/>
       <c r="B314" s="49"/>
       <c r="E314" s="30"/>
-      <c r="H314" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="I314" s="19"/>
-      <c r="J314" s="19"/>
-      <c r="K314" s="19"/>
-      <c r="L314" s="19"/>
-      <c r="M314" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="N314" s="19"/>
-      <c r="O314" s="19"/>
-      <c r="P314" s="20"/>
-      <c r="Q314" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="R314" s="19"/>
-      <c r="S314" s="19"/>
-      <c r="T314" s="19"/>
-      <c r="U314" s="19"/>
-      <c r="V314" s="19"/>
-      <c r="W314" s="19"/>
-      <c r="X314" s="19"/>
-      <c r="Y314" s="19"/>
-      <c r="Z314" s="19"/>
-      <c r="AA314" s="19"/>
-      <c r="AB314" s="19"/>
-      <c r="AC314" s="19"/>
-      <c r="AD314" s="19"/>
-      <c r="AE314" s="19"/>
-      <c r="AF314" s="19"/>
-      <c r="AG314" s="19"/>
-      <c r="AH314" s="19"/>
-      <c r="AI314" s="20"/>
+      <c r="H314" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I314" s="33"/>
+      <c r="J314" s="33"/>
+      <c r="K314" s="33"/>
+      <c r="L314" s="33"/>
+      <c r="M314" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="N314" s="33"/>
+      <c r="O314" s="33"/>
+      <c r="P314" s="34"/>
+      <c r="Q314" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="R314" s="33"/>
+      <c r="S314" s="33"/>
+      <c r="T314" s="33"/>
+      <c r="U314" s="33"/>
+      <c r="V314" s="33"/>
+      <c r="W314" s="33"/>
+      <c r="X314" s="33"/>
+      <c r="Y314" s="33"/>
+      <c r="Z314" s="33"/>
+      <c r="AA314" s="33"/>
+      <c r="AB314" s="33"/>
+      <c r="AC314" s="33"/>
+      <c r="AD314" s="33"/>
+      <c r="AE314" s="33"/>
+      <c r="AF314" s="47"/>
+      <c r="AG314" s="47"/>
+      <c r="AH314" s="33"/>
+      <c r="AI314" s="34"/>
     </row>
     <row r="315" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="49"/>
       <c r="B315" s="49"/>
       <c r="E315" s="30"/>
-      <c r="H315" s="21"/>
+      <c r="H315" s="21" t="s">
+        <v>169</v>
+      </c>
       <c r="I315" s="22"/>
       <c r="J315" s="22"/>
       <c r="K315" s="22"/>
       <c r="L315" s="22"/>
-      <c r="M315" s="21"/>
+      <c r="M315" s="21" t="s">
+        <v>170</v>
+      </c>
       <c r="N315" s="22"/>
       <c r="O315" s="22"/>
       <c r="P315" s="26"/>
       <c r="Q315" s="22" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="R315" s="22"/>
       <c r="S315" s="22"/>
@@ -11984,16 +11997,22 @@
       <c r="A316" s="49"/>
       <c r="B316" s="49"/>
       <c r="E316" s="30"/>
-      <c r="H316" s="19"/>
+      <c r="H316" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="I316" s="19"/>
       <c r="J316" s="19"/>
       <c r="K316" s="19"/>
       <c r="L316" s="19"/>
-      <c r="M316" s="19"/>
+      <c r="M316" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="N316" s="19"/>
       <c r="O316" s="19"/>
-      <c r="P316" s="19"/>
-      <c r="Q316" s="19"/>
+      <c r="P316" s="20"/>
+      <c r="Q316" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="R316" s="19"/>
       <c r="S316" s="19"/>
       <c r="T316" s="19"/>
@@ -12011,148 +12030,216 @@
       <c r="AF316" s="19"/>
       <c r="AG316" s="19"/>
       <c r="AH316" s="19"/>
-      <c r="AI316" s="19"/>
+      <c r="AI316" s="20"/>
     </row>
     <row r="317" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="49"/>
       <c r="B317" s="49"/>
       <c r="E317" s="30"/>
-      <c r="F317" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G317" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF317" s="49"/>
-      <c r="AG317" s="49"/>
+      <c r="H317" s="21"/>
+      <c r="I317" s="22"/>
+      <c r="J317" s="22"/>
+      <c r="K317" s="22"/>
+      <c r="L317" s="22"/>
+      <c r="M317" s="21"/>
+      <c r="N317" s="22"/>
+      <c r="O317" s="22"/>
+      <c r="P317" s="26"/>
+      <c r="Q317" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="R317" s="22"/>
+      <c r="S317" s="22"/>
+      <c r="T317" s="22"/>
+      <c r="U317" s="22"/>
+      <c r="V317" s="22"/>
+      <c r="W317" s="22"/>
+      <c r="X317" s="22"/>
+      <c r="Y317" s="22"/>
+      <c r="Z317" s="22"/>
+      <c r="AA317" s="22"/>
+      <c r="AB317" s="22"/>
+      <c r="AC317" s="22"/>
+      <c r="AD317" s="22"/>
+      <c r="AE317" s="22"/>
+      <c r="AF317" s="45"/>
+      <c r="AG317" s="45"/>
+      <c r="AH317" s="22"/>
+      <c r="AI317" s="26"/>
     </row>
     <row r="318" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="49"/>
       <c r="B318" s="49"/>
       <c r="E318" s="30"/>
-      <c r="F318" s="17"/>
-      <c r="G318" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF318" s="49"/>
-      <c r="AG318" s="49"/>
+      <c r="H318" s="19"/>
+      <c r="I318" s="19"/>
+      <c r="J318" s="19"/>
+      <c r="K318" s="19"/>
+      <c r="L318" s="19"/>
+      <c r="M318" s="19"/>
+      <c r="N318" s="19"/>
+      <c r="O318" s="19"/>
+      <c r="P318" s="19"/>
+      <c r="Q318" s="19"/>
+      <c r="R318" s="19"/>
+      <c r="S318" s="19"/>
+      <c r="T318" s="19"/>
+      <c r="U318" s="19"/>
+      <c r="V318" s="19"/>
+      <c r="W318" s="19"/>
+      <c r="X318" s="19"/>
+      <c r="Y318" s="19"/>
+      <c r="Z318" s="19"/>
+      <c r="AA318" s="19"/>
+      <c r="AB318" s="19"/>
+      <c r="AC318" s="19"/>
+      <c r="AD318" s="19"/>
+      <c r="AE318" s="19"/>
+      <c r="AF318" s="19"/>
+      <c r="AG318" s="19"/>
+      <c r="AH318" s="19"/>
+      <c r="AI318" s="19"/>
     </row>
     <row r="319" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="49"/>
       <c r="B319" s="49"/>
       <c r="E319" s="30"/>
-      <c r="F319" s="17"/>
-      <c r="G319" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="H319" s="24"/>
-      <c r="I319" s="24"/>
-      <c r="J319" s="24"/>
-      <c r="K319" s="24"/>
-      <c r="L319" s="24"/>
-      <c r="M319" s="24"/>
-      <c r="N319" s="24"/>
-      <c r="O319" s="24"/>
-      <c r="P319" s="24"/>
-      <c r="Q319" s="24"/>
-      <c r="R319" s="24"/>
-      <c r="S319" s="24"/>
-      <c r="T319" s="24"/>
-      <c r="U319" s="24"/>
-      <c r="V319" s="24"/>
-      <c r="W319" s="24"/>
-      <c r="X319" s="24"/>
-      <c r="Y319" s="24"/>
-      <c r="Z319" s="24"/>
-      <c r="AA319" s="24"/>
-      <c r="AB319" s="24"/>
-      <c r="AC319" s="24"/>
-      <c r="AD319" s="24"/>
-      <c r="AE319" s="24"/>
-      <c r="AF319" s="24"/>
-      <c r="AG319" s="24"/>
-      <c r="AH319" s="24"/>
-      <c r="AI319" s="25"/>
+      <c r="F319" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G319" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF319" s="49"/>
+      <c r="AG319" s="49"/>
     </row>
     <row r="320" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="49"/>
       <c r="B320" s="49"/>
       <c r="E320" s="30"/>
       <c r="F320" s="17"/>
-      <c r="G320" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="H320" s="22"/>
-      <c r="I320" s="22"/>
-      <c r="J320" s="22"/>
-      <c r="K320" s="22"/>
-      <c r="L320" s="22"/>
-      <c r="M320" s="22"/>
-      <c r="N320" s="22"/>
-      <c r="O320" s="22"/>
-      <c r="P320" s="22"/>
-      <c r="Q320" s="22"/>
-      <c r="R320" s="22"/>
-      <c r="S320" s="22"/>
-      <c r="T320" s="22"/>
-      <c r="U320" s="22"/>
-      <c r="V320" s="22"/>
-      <c r="W320" s="22"/>
-      <c r="X320" s="22"/>
-      <c r="Y320" s="22"/>
-      <c r="Z320" s="22"/>
-      <c r="AA320" s="22"/>
-      <c r="AB320" s="22"/>
-      <c r="AC320" s="22"/>
-      <c r="AD320" s="22"/>
-      <c r="AE320" s="22"/>
-      <c r="AF320" s="45"/>
-      <c r="AG320" s="45"/>
-      <c r="AH320" s="22"/>
-      <c r="AI320" s="26"/>
-    </row>
-    <row r="321" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G320" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF320" s="49"/>
+      <c r="AG320" s="49"/>
+    </row>
+    <row r="321" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="49"/>
       <c r="B321" s="49"/>
       <c r="E321" s="30"/>
-      <c r="F321" s="31"/>
-      <c r="AF321" s="49"/>
-      <c r="AG321" s="49"/>
-    </row>
-    <row r="322" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F321" s="17"/>
+      <c r="G321" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H321" s="24"/>
+      <c r="I321" s="24"/>
+      <c r="J321" s="24"/>
+      <c r="K321" s="24"/>
+      <c r="L321" s="24"/>
+      <c r="M321" s="24"/>
+      <c r="N321" s="24"/>
+      <c r="O321" s="24"/>
+      <c r="P321" s="24"/>
+      <c r="Q321" s="24"/>
+      <c r="R321" s="24"/>
+      <c r="S321" s="24"/>
+      <c r="T321" s="24"/>
+      <c r="U321" s="24"/>
+      <c r="V321" s="24"/>
+      <c r="W321" s="24"/>
+      <c r="X321" s="24"/>
+      <c r="Y321" s="24"/>
+      <c r="Z321" s="24"/>
+      <c r="AA321" s="24"/>
+      <c r="AB321" s="24"/>
+      <c r="AC321" s="24"/>
+      <c r="AD321" s="24"/>
+      <c r="AE321" s="24"/>
+      <c r="AF321" s="24"/>
+      <c r="AG321" s="24"/>
+      <c r="AH321" s="24"/>
+      <c r="AI321" s="25"/>
+    </row>
+    <row r="322" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="49"/>
       <c r="B322" s="49"/>
       <c r="E322" s="30"/>
-      <c r="F322" s="31"/>
-      <c r="AF322" s="49"/>
-      <c r="AG322" s="49"/>
-    </row>
-    <row r="323" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F322" s="17"/>
+      <c r="G322" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="H322" s="22"/>
+      <c r="I322" s="22"/>
+      <c r="J322" s="22"/>
+      <c r="K322" s="22"/>
+      <c r="L322" s="22"/>
+      <c r="M322" s="22"/>
+      <c r="N322" s="22"/>
+      <c r="O322" s="22"/>
+      <c r="P322" s="22"/>
+      <c r="Q322" s="22"/>
+      <c r="R322" s="22"/>
+      <c r="S322" s="22"/>
+      <c r="T322" s="22"/>
+      <c r="U322" s="22"/>
+      <c r="V322" s="22"/>
+      <c r="W322" s="22"/>
+      <c r="X322" s="22"/>
+      <c r="Y322" s="22"/>
+      <c r="Z322" s="22"/>
+      <c r="AA322" s="22"/>
+      <c r="AB322" s="22"/>
+      <c r="AC322" s="22"/>
+      <c r="AD322" s="22"/>
+      <c r="AE322" s="22"/>
+      <c r="AF322" s="45"/>
+      <c r="AG322" s="45"/>
+      <c r="AH322" s="22"/>
+      <c r="AI322" s="26"/>
+    </row>
+    <row r="323" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="49"/>
       <c r="B323" s="49"/>
-      <c r="E323" s="30" t="str">
-        <f>$D$110&amp;"4."</f>
-        <v>7.13.3.4.</v>
-      </c>
-      <c r="F323" s="31" t="s">
-        <v>84</v>
-      </c>
+      <c r="E323" s="30"/>
+      <c r="F323" s="31"/>
       <c r="AF323" s="49"/>
       <c r="AG323" s="49"/>
     </row>
-    <row r="324" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="49"/>
       <c r="B324" s="49"/>
       <c r="E324" s="30"/>
-      <c r="F324" s="31" t="s">
-        <v>279</v>
-      </c>
+      <c r="F324" s="31"/>
       <c r="AF324" s="49"/>
       <c r="AG324" s="49"/>
     </row>
-    <row r="325" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="49"/>
+      <c r="B325" s="49"/>
+      <c r="E325" s="30" t="str">
+        <f>$D$111&amp;"4."</f>
+        <v>7.13.3.4.</v>
+      </c>
+      <c r="F325" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="AF325" s="49"/>
       <c r="AG325" s="49"/>
+    </row>
+    <row r="326" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="49"/>
+      <c r="B326" s="49"/>
+      <c r="E326" s="30"/>
+      <c r="F326" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF326" s="49"/>
+      <c r="AG326" s="49"/>
+    </row>
+    <row r="327" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF327" s="49"/>
+      <c r="AG327" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12174,12 +12261,12 @@
   <rowBreaks count="8" manualBreakCount="8">
     <brk id="38" max="34" man="1"/>
     <brk id="82" max="34" man="1"/>
-    <brk id="122" max="34" man="1"/>
-    <brk id="165" max="34" man="1"/>
-    <brk id="198" max="34" man="1"/>
-    <brk id="231" max="34" man="1"/>
-    <brk id="257" max="34" man="1"/>
-    <brk id="284" max="34" man="1"/>
+    <brk id="123" max="34" man="1"/>
+    <brk id="166" max="34" man="1"/>
+    <brk id="199" max="34" man="1"/>
+    <brk id="232" max="34" man="1"/>
+    <brk id="258" max="34" man="1"/>
+    <brk id="285" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3F78BB-9D13-4B66-B16C-76B69BAEEE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836FB37-22FC-48B8-B74E-368A7FEF4B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="364">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1358,10 +1358,6 @@
   </si>
   <si>
     <t>画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインユーザID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2738,7 +2734,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2759,7 +2755,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -2800,11 +2796,11 @@
       <c r="N2" s="76"/>
       <c r="O2" s="77"/>
       <c r="P2" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S2" s="79"/>
       <c r="T2" s="79"/>
@@ -2870,10 +2866,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>289</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2883,13 +2879,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2945,13 +2941,13 @@
       <c r="G13" s="61"/>
       <c r="H13" s="62"/>
       <c r="I13" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -2983,7 +2979,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="59"/>
       <c r="I14" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
@@ -3029,7 +3025,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3065,7 +3061,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3107,7 +3103,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3145,7 +3141,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3187,7 +3183,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3225,7 +3221,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3267,7 +3263,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3345,7 +3341,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3423,7 +3419,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3498,7 +3494,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3524,7 +3520,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3567,7 +3563,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3610,7 +3606,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3653,7 +3649,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3696,7 +3692,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3729,7 +3725,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -3739,7 +3735,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3767,7 +3763,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="46"/>
       <c r="I35" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
@@ -3777,7 +3773,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3810,7 +3806,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
       <c r="I36" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -3820,7 +3816,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3848,7 +3844,7 @@
       <c r="G37" s="45"/>
       <c r="H37" s="46"/>
       <c r="I37" s="45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
@@ -3858,7 +3854,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -3975,7 +3971,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="48"/>
       <c r="O43" s="47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -4049,7 +4045,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -4085,7 +4081,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="46"/>
       <c r="O46" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="45"/>
@@ -4159,7 +4155,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4195,7 +4191,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="46"/>
       <c r="O49" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="45"/>
@@ -4419,7 +4415,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4455,7 +4451,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4491,7 +4487,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4525,7 +4521,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4597,7 +4593,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4633,7 +4629,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4666,7 +4662,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4679,11 +4675,11 @@
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="28" t="s">
+      <c r="I64" s="28"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K64" s="28"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -4691,11 +4687,11 @@
       <c r="P64" s="28"/>
       <c r="Q64" s="28"/>
       <c r="R64" s="28"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="U64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="28" t="s">
+        <v>333</v>
+      </c>
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
       <c r="X64" s="28"/>
@@ -4723,11 +4719,11 @@
       </c>
       <c r="G65" s="47"/>
       <c r="H65" s="47"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="47" t="s">
+      <c r="I65" s="47"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K65" s="47"/>
       <c r="L65" s="47"/>
       <c r="M65" s="47"/>
       <c r="N65" s="47"/>
@@ -4735,11 +4731,11 @@
       <c r="P65" s="47"/>
       <c r="Q65" s="47"/>
       <c r="R65" s="47"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="U65" s="45"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="48"/>
+      <c r="U65" s="47" t="s">
+        <v>334</v>
+      </c>
       <c r="V65" s="45"/>
       <c r="W65" s="45"/>
       <c r="X65" s="45"/>
@@ -4765,24 +4761,24 @@
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="22" t="s">
+      <c r="I66" s="45"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="V66" s="45"/>
       <c r="W66" s="22"/>
       <c r="X66" s="22"/>
       <c r="Y66" s="22"/>
@@ -4806,24 +4802,24 @@
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="22" t="s">
+      <c r="I67" s="45"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="26"/>
-      <c r="T67" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="V67" s="45"/>
       <c r="W67" s="22"/>
       <c r="X67" s="22"/>
       <c r="Y67" s="22"/>
@@ -4847,24 +4843,24 @@
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="22" t="s">
+      <c r="I68" s="45"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="V68" s="45"/>
       <c r="W68" s="22"/>
       <c r="X68" s="22"/>
       <c r="Y68" s="22"/>
@@ -4888,24 +4884,24 @@
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="22" t="s">
+      <c r="I69" s="45"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="V69" s="45"/>
       <c r="W69" s="22"/>
       <c r="X69" s="22"/>
       <c r="Y69" s="22"/>
@@ -5025,7 +5021,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G75" s="30"/>
     </row>
@@ -5052,7 +5048,7 @@
       <c r="B77" s="49"/>
       <c r="E77" s="30"/>
       <c r="F77" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
@@ -5093,7 +5089,7 @@
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
       <c r="K79" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -5136,12 +5132,12 @@
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5178,7 +5174,7 @@
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O81" s="45"/>
       <c r="P81" s="45"/>
@@ -5317,7 +5313,7 @@
       <c r="J89" s="47"/>
       <c r="K89" s="47"/>
       <c r="L89" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M89" s="47"/>
       <c r="N89" s="47"/>
@@ -5356,7 +5352,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
@@ -5395,7 +5391,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
       <c r="L91" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -5672,7 +5668,7 @@
       <c r="S99" s="19"/>
       <c r="T99" s="19"/>
       <c r="U99" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V99" s="19"/>
       <c r="W99" s="19"/>
@@ -5779,7 +5775,7 @@
         <v>60</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF102" s="49"/>
       <c r="AG102" s="49"/>
@@ -5789,7 +5785,7 @@
       <c r="B103" s="49"/>
       <c r="F103" s="17"/>
       <c r="G103" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF103" s="49"/>
       <c r="AG103" s="49"/>
@@ -5802,34 +5798,34 @@
     </row>
     <row r="105" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G105" s="49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G107" s="49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="G109" s="49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5888,12 +5884,12 @@
       <c r="H114" s="28"/>
       <c r="I114" s="29"/>
       <c r="J114" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K114" s="28"/>
       <c r="L114" s="29"/>
       <c r="M114" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N114" s="28"/>
       <c r="O114" s="28"/>
@@ -5926,7 +5922,7 @@
       <c r="E115" s="30"/>
       <c r="F115" s="31"/>
       <c r="G115" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H115" s="24"/>
       <c r="I115" s="25"/>
@@ -5936,14 +5932,14 @@
       <c r="K115" s="24"/>
       <c r="L115" s="25"/>
       <c r="M115" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="24"/>
       <c r="P115" s="24"/>
       <c r="Q115" s="25"/>
       <c r="R115" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S115" s="24"/>
       <c r="T115" s="24"/>
@@ -5978,7 +5974,7 @@
       <c r="P116" s="45"/>
       <c r="Q116" s="46"/>
       <c r="R116" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S116" s="45"/>
       <c r="T116" s="45"/>
@@ -6142,7 +6138,7 @@
       <c r="F122" s="30"/>
       <c r="G122" s="17"/>
       <c r="H122" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF122" s="49"/>
       <c r="AG122" s="49"/>
@@ -6324,7 +6320,7 @@
       <c r="N129" s="19"/>
       <c r="O129" s="20"/>
       <c r="P129" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q129" s="19"/>
       <c r="R129" s="19"/>
@@ -6632,7 +6628,7 @@
       <c r="O137" s="20"/>
       <c r="P137" s="19"/>
       <c r="Q137" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R137" s="22"/>
       <c r="S137" s="22"/>
@@ -6747,7 +6743,7 @@
       <c r="N140" s="22"/>
       <c r="O140" s="26"/>
       <c r="P140" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q140" s="22"/>
       <c r="R140" s="22"/>
@@ -7040,7 +7036,7 @@
         <v>116</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
@@ -7335,7 +7331,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="22"/>
       <c r="P158" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q158" s="22"/>
       <c r="R158" s="22"/>
@@ -7494,7 +7490,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="17"/>
       <c r="G164" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -7531,7 +7527,7 @@
       <c r="E165" s="30"/>
       <c r="F165" s="17"/>
       <c r="G165" s="53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="22"/>
@@ -7611,12 +7607,12 @@
       <c r="H170" s="28"/>
       <c r="I170" s="29"/>
       <c r="J170" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K170" s="28"/>
       <c r="L170" s="29"/>
       <c r="M170" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N170" s="28"/>
       <c r="O170" s="28"/>
@@ -7659,7 +7655,7 @@
       <c r="K171" s="47"/>
       <c r="L171" s="48"/>
       <c r="M171" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N171" s="47"/>
       <c r="O171" s="47"/>
@@ -7766,7 +7762,7 @@
       <c r="F176" s="30"/>
       <c r="G176" s="17"/>
       <c r="H176" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF176" s="49"/>
       <c r="AG176" s="49"/>
@@ -7808,16 +7804,16 @@
       <c r="J179" s="28"/>
       <c r="K179" s="28"/>
       <c r="L179" s="28"/>
-      <c r="M179" s="27" t="s">
+      <c r="M179" s="29"/>
+      <c r="N179" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="N179" s="28"/>
       <c r="O179" s="28"/>
-      <c r="P179" s="29"/>
-      <c r="Q179" s="28" t="s">
+      <c r="P179" s="28"/>
+      <c r="Q179" s="29"/>
+      <c r="R179" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="R179" s="28"/>
       <c r="S179" s="28"/>
       <c r="T179" s="28"/>
       <c r="U179" s="28"/>
@@ -7849,16 +7845,16 @@
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
       <c r="L180" s="19"/>
-      <c r="M180" s="18" t="s">
+      <c r="M180" s="20"/>
+      <c r="N180" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="N180" s="19"/>
       <c r="O180" s="19"/>
-      <c r="P180" s="20"/>
-      <c r="Q180" s="19" t="s">
+      <c r="P180" s="19"/>
+      <c r="Q180" s="20"/>
+      <c r="R180" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="R180" s="19"/>
       <c r="S180" s="19"/>
       <c r="T180" s="19"/>
       <c r="U180" s="19"/>
@@ -7890,17 +7886,17 @@
       <c r="J181" s="33"/>
       <c r="K181" s="33"/>
       <c r="L181" s="33"/>
-      <c r="M181" s="32" t="s">
+      <c r="M181" s="48"/>
+      <c r="N181" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N181" s="33"/>
-      <c r="O181" s="33"/>
-      <c r="P181" s="34"/>
-      <c r="Q181" s="33" t="s">
+      <c r="O181" s="47"/>
+      <c r="P181" s="47"/>
+      <c r="Q181" s="48"/>
+      <c r="R181" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="R181" s="33"/>
-      <c r="S181" s="33"/>
+      <c r="S181" s="47"/>
       <c r="T181" s="33"/>
       <c r="U181" s="33"/>
       <c r="V181" s="33"/>
@@ -7931,16 +7927,16 @@
       <c r="J182" s="19"/>
       <c r="K182" s="19"/>
       <c r="L182" s="19"/>
-      <c r="M182" s="18" t="s">
+      <c r="M182" s="20"/>
+      <c r="N182" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N182" s="19"/>
       <c r="O182" s="19"/>
-      <c r="P182" s="20"/>
-      <c r="Q182" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="R182" s="19"/>
+      <c r="P182" s="19"/>
+      <c r="Q182" s="20"/>
+      <c r="R182" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="S182" s="19"/>
       <c r="T182" s="19"/>
       <c r="U182" s="19"/>
@@ -7970,14 +7966,14 @@
       <c r="J183" s="19"/>
       <c r="K183" s="19"/>
       <c r="L183" s="19"/>
-      <c r="M183" s="18"/>
-      <c r="N183" s="19"/>
+      <c r="M183" s="20"/>
+      <c r="N183" s="18"/>
       <c r="O183" s="19"/>
-      <c r="P183" s="20"/>
-      <c r="Q183" s="19" t="s">
+      <c r="P183" s="19"/>
+      <c r="Q183" s="20"/>
+      <c r="R183" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="R183" s="19"/>
       <c r="S183" s="19"/>
       <c r="T183" s="19"/>
       <c r="U183" s="19"/>
@@ -8007,15 +8003,15 @@
       <c r="J184" s="22"/>
       <c r="K184" s="22"/>
       <c r="L184" s="22"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="22"/>
-      <c r="O184" s="22"/>
-      <c r="P184" s="26"/>
-      <c r="Q184" s="22" t="s">
+      <c r="M184" s="46"/>
+      <c r="N184" s="44"/>
+      <c r="O184" s="45"/>
+      <c r="P184" s="45"/>
+      <c r="Q184" s="46"/>
+      <c r="R184" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="R184" s="22"/>
-      <c r="S184" s="22"/>
+      <c r="S184" s="45"/>
       <c r="T184" s="22"/>
       <c r="U184" s="22"/>
       <c r="V184" s="22"/>
@@ -8044,16 +8040,16 @@
       <c r="J185" s="24"/>
       <c r="K185" s="24"/>
       <c r="L185" s="24"/>
-      <c r="M185" s="23" t="s">
+      <c r="M185" s="25"/>
+      <c r="N185" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="N185" s="24"/>
       <c r="O185" s="24"/>
       <c r="P185" s="24"/>
-      <c r="Q185" s="23" t="s">
+      <c r="Q185" s="24"/>
+      <c r="R185" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="R185" s="24"/>
       <c r="S185" s="24"/>
       <c r="T185" s="24"/>
       <c r="U185" s="24"/>
@@ -8081,16 +8077,16 @@
       <c r="J186" s="22"/>
       <c r="K186" s="22"/>
       <c r="L186" s="22"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="22"/>
-      <c r="O186" s="22"/>
-      <c r="P186" s="22"/>
-      <c r="Q186" s="21" t="str">
+      <c r="M186" s="46"/>
+      <c r="N186" s="44"/>
+      <c r="O186" s="45"/>
+      <c r="P186" s="45"/>
+      <c r="Q186" s="45"/>
+      <c r="R186" s="44" t="str">
         <f>$F$188&amp;$G$188&amp;"参照。"</f>
         <v>(3)HTTPアクセスメッセージのフォーマット定義参照。</v>
       </c>
-      <c r="R186" s="22"/>
-      <c r="S186" s="22"/>
+      <c r="S186" s="45"/>
       <c r="T186" s="22"/>
       <c r="U186" s="22"/>
       <c r="V186" s="22"/>
@@ -8164,7 +8160,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I191" s="24"/>
       <c r="J191" s="24"/>
@@ -8201,7 +8197,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8238,7 +8234,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8275,7 +8271,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8312,7 +8308,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8349,7 +8345,7 @@
       <c r="F196" s="30"/>
       <c r="G196" s="17"/>
       <c r="H196" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
@@ -8417,7 +8413,7 @@
     <row r="198" spans="1:37" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="30"/>
       <c r="H198" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I198" s="19"/>
       <c r="J198" s="19"/>
@@ -8456,7 +8452,7 @@
       <c r="F199" s="30"/>
       <c r="G199" s="17"/>
       <c r="H199" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF199" s="49"/>
     </row>
@@ -8920,7 +8916,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="17"/>
       <c r="H215" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I215" s="24"/>
       <c r="J215" s="24"/>
@@ -8990,7 +8986,7 @@
       <c r="F217" s="37"/>
       <c r="G217" s="38"/>
       <c r="H217" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9000,7 +8996,7 @@
       <c r="F218" s="30"/>
       <c r="G218" s="17"/>
       <c r="H218" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF218" s="49"/>
       <c r="AG218" s="49"/>
@@ -9195,7 +9191,7 @@
       <c r="F227" s="30"/>
       <c r="G227" s="17"/>
       <c r="H227" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF227" s="49"/>
       <c r="AG227" s="49"/>
@@ -9242,11 +9238,11 @@
       </c>
       <c r="O230" s="28"/>
       <c r="P230" s="28"/>
-      <c r="Q230" s="29"/>
-      <c r="R230" s="28" t="s">
+      <c r="Q230" s="28"/>
+      <c r="R230" s="29"/>
+      <c r="S230" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="S230" s="28"/>
       <c r="T230" s="28"/>
       <c r="U230" s="28"/>
       <c r="V230" s="28"/>
@@ -9281,11 +9277,11 @@
       </c>
       <c r="O231" s="22"/>
       <c r="P231" s="22"/>
-      <c r="Q231" s="26"/>
-      <c r="R231" s="22" t="s">
+      <c r="Q231" s="45"/>
+      <c r="R231" s="46"/>
+      <c r="S231" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="S231" s="22"/>
       <c r="T231" s="22"/>
       <c r="U231" s="22"/>
       <c r="V231" s="22"/>
@@ -9383,7 +9379,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9420,7 +9416,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9457,7 +9453,7 @@
       <c r="F238" s="30"/>
       <c r="G238" s="17"/>
       <c r="H238" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I238" s="19"/>
       <c r="J238" s="19"/>
@@ -9494,7 +9490,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I239" s="19"/>
       <c r="J239" s="19"/>
@@ -9531,7 +9527,7 @@
       <c r="F240" s="30"/>
       <c r="G240" s="17"/>
       <c r="H240" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I240" s="19"/>
       <c r="J240" s="19"/>
@@ -9603,7 +9599,7 @@
       <c r="F242" s="30"/>
       <c r="G242" s="17"/>
       <c r="H242" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF242" s="49"/>
       <c r="AG242" s="49"/>
@@ -9625,7 +9621,7 @@
       <c r="F244" s="30"/>
       <c r="G244" s="50"/>
       <c r="H244" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="245" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11132,12 +11128,12 @@
       <c r="J289" s="28"/>
       <c r="K289" s="29"/>
       <c r="L289" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M289" s="28"/>
       <c r="N289" s="29"/>
       <c r="O289" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P289" s="28"/>
       <c r="Q289" s="28"/>
@@ -11180,7 +11176,7 @@
       <c r="M290" s="47"/>
       <c r="N290" s="48"/>
       <c r="O290" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P290" s="47"/>
       <c r="Q290" s="47"/>
@@ -11289,25 +11285,25 @@
       <c r="E293" s="30"/>
       <c r="F293" s="31"/>
       <c r="G293" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H293" s="47"/>
       <c r="I293" s="47"/>
       <c r="J293" s="47"/>
       <c r="K293" s="48"/>
       <c r="L293" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M293" s="47"/>
       <c r="N293" s="48"/>
       <c r="O293" s="47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P293" s="47"/>
       <c r="Q293" s="47"/>
       <c r="R293" s="48"/>
       <c r="S293" s="47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T293" s="47"/>
       <c r="U293" s="47"/>
@@ -11344,7 +11340,7 @@
       <c r="M294" s="47"/>
       <c r="N294" s="48"/>
       <c r="O294" s="47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P294" s="33"/>
       <c r="Q294" s="33"/>
@@ -11487,7 +11483,7 @@
       <c r="F300" s="30"/>
       <c r="G300" s="17"/>
       <c r="H300" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF300" s="49"/>
       <c r="AG300" s="49"/>
@@ -11545,11 +11541,11 @@
       </c>
       <c r="N304" s="28"/>
       <c r="O304" s="28"/>
-      <c r="P304" s="29"/>
-      <c r="Q304" s="28" t="s">
+      <c r="P304" s="28"/>
+      <c r="Q304" s="29"/>
+      <c r="R304" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="R304" s="28"/>
       <c r="S304" s="28"/>
       <c r="T304" s="28"/>
       <c r="U304" s="28"/>
@@ -11584,11 +11580,11 @@
       </c>
       <c r="N305" s="33"/>
       <c r="O305" s="33"/>
-      <c r="P305" s="34"/>
-      <c r="Q305" s="33" t="s">
+      <c r="P305" s="47"/>
+      <c r="Q305" s="48"/>
+      <c r="R305" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="R305" s="33"/>
       <c r="S305" s="33"/>
       <c r="T305" s="33"/>
       <c r="U305" s="33"/>
@@ -11623,11 +11619,11 @@
       </c>
       <c r="N306" s="19"/>
       <c r="O306" s="19"/>
-      <c r="P306" s="20"/>
-      <c r="Q306" s="19" t="s">
+      <c r="P306" s="19"/>
+      <c r="Q306" s="20"/>
+      <c r="R306" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="R306" s="19"/>
       <c r="S306" s="19"/>
       <c r="T306" s="19"/>
       <c r="U306" s="19"/>
@@ -11658,11 +11654,11 @@
       <c r="M307" s="21"/>
       <c r="N307" s="22"/>
       <c r="O307" s="22"/>
-      <c r="P307" s="26"/>
-      <c r="Q307" s="22" t="s">
+      <c r="P307" s="45"/>
+      <c r="Q307" s="46"/>
+      <c r="R307" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="R307" s="22"/>
       <c r="S307" s="22"/>
       <c r="T307" s="22"/>
       <c r="U307" s="22"/>
@@ -11697,11 +11693,11 @@
       </c>
       <c r="N308" s="22"/>
       <c r="O308" s="22"/>
-      <c r="P308" s="26"/>
-      <c r="Q308" s="22" t="s">
+      <c r="P308" s="45"/>
+      <c r="Q308" s="46"/>
+      <c r="R308" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="R308" s="22"/>
       <c r="S308" s="22"/>
       <c r="T308" s="22"/>
       <c r="U308" s="22"/>
@@ -11736,11 +11732,11 @@
       </c>
       <c r="N309" s="22"/>
       <c r="O309" s="22"/>
-      <c r="P309" s="26"/>
-      <c r="Q309" s="22" t="s">
+      <c r="P309" s="45"/>
+      <c r="Q309" s="46"/>
+      <c r="R309" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="R309" s="22"/>
       <c r="S309" s="22"/>
       <c r="T309" s="22"/>
       <c r="U309" s="22"/>
@@ -11775,11 +11771,11 @@
       </c>
       <c r="N310" s="33"/>
       <c r="O310" s="33"/>
-      <c r="P310" s="34"/>
-      <c r="Q310" s="33" t="s">
+      <c r="P310" s="47"/>
+      <c r="Q310" s="48"/>
+      <c r="R310" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="R310" s="33"/>
       <c r="S310" s="33"/>
       <c r="T310" s="33"/>
       <c r="U310" s="33"/>
@@ -11814,11 +11810,11 @@
       </c>
       <c r="N311" s="22"/>
       <c r="O311" s="22"/>
-      <c r="P311" s="26"/>
-      <c r="Q311" s="22" t="s">
+      <c r="P311" s="45"/>
+      <c r="Q311" s="46"/>
+      <c r="R311" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="R311" s="22"/>
       <c r="S311" s="22"/>
       <c r="T311" s="22"/>
       <c r="U311" s="22"/>
@@ -11853,11 +11849,11 @@
       </c>
       <c r="N312" s="22"/>
       <c r="O312" s="22"/>
-      <c r="P312" s="26"/>
-      <c r="Q312" s="22" t="s">
+      <c r="P312" s="45"/>
+      <c r="Q312" s="46"/>
+      <c r="R312" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="R312" s="22"/>
       <c r="S312" s="22"/>
       <c r="T312" s="22"/>
       <c r="U312" s="22"/>
@@ -11892,11 +11888,11 @@
       </c>
       <c r="N313" s="22"/>
       <c r="O313" s="22"/>
-      <c r="P313" s="26"/>
-      <c r="Q313" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="R313" s="22"/>
+      <c r="P313" s="45"/>
+      <c r="Q313" s="46"/>
+      <c r="R313" s="45" t="s">
+        <v>268</v>
+      </c>
       <c r="S313" s="22"/>
       <c r="T313" s="22"/>
       <c r="U313" s="22"/>
@@ -11931,11 +11927,11 @@
       </c>
       <c r="N314" s="33"/>
       <c r="O314" s="33"/>
-      <c r="P314" s="34"/>
-      <c r="Q314" s="33" t="s">
+      <c r="P314" s="47"/>
+      <c r="Q314" s="48"/>
+      <c r="R314" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="R314" s="33"/>
       <c r="S314" s="33"/>
       <c r="T314" s="33"/>
       <c r="U314" s="33"/>
@@ -11970,11 +11966,11 @@
       </c>
       <c r="N315" s="22"/>
       <c r="O315" s="22"/>
-      <c r="P315" s="26"/>
-      <c r="Q315" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="R315" s="22"/>
+      <c r="P315" s="45"/>
+      <c r="Q315" s="46"/>
+      <c r="R315" s="45" t="s">
+        <v>286</v>
+      </c>
       <c r="S315" s="22"/>
       <c r="T315" s="22"/>
       <c r="U315" s="22"/>
@@ -12009,11 +12005,11 @@
       </c>
       <c r="N316" s="19"/>
       <c r="O316" s="19"/>
-      <c r="P316" s="20"/>
-      <c r="Q316" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="R316" s="19"/>
+      <c r="P316" s="19"/>
+      <c r="Q316" s="20"/>
+      <c r="R316" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="S316" s="19"/>
       <c r="T316" s="19"/>
       <c r="U316" s="19"/>
@@ -12044,11 +12040,11 @@
       <c r="M317" s="21"/>
       <c r="N317" s="22"/>
       <c r="O317" s="22"/>
-      <c r="P317" s="26"/>
-      <c r="Q317" s="22" t="s">
+      <c r="P317" s="45"/>
+      <c r="Q317" s="46"/>
+      <c r="R317" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="R317" s="22"/>
       <c r="S317" s="22"/>
       <c r="T317" s="22"/>
       <c r="U317" s="22"/>
@@ -12130,7 +12126,7 @@
       <c r="E321" s="30"/>
       <c r="F321" s="17"/>
       <c r="G321" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H321" s="24"/>
       <c r="I321" s="24"/>
@@ -12167,7 +12163,7 @@
       <c r="E322" s="30"/>
       <c r="F322" s="17"/>
       <c r="G322" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H322" s="22"/>
       <c r="I322" s="22"/>
@@ -12232,7 +12228,7 @@
       <c r="B326" s="49"/>
       <c r="E326" s="30"/>
       <c r="F326" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF326" s="49"/>
       <c r="AG326" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836FB37-22FC-48B8-B74E-368A7FEF4B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26587BA5-6013-4077-B7CA-2D41BEA59F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,10 +1632,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">  ServletContextListenerの初期化時が完了したことを示すログなどが出力される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アプリケーションの継続が不可能になる深刻な問題が発生したことを示す。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1907,6 +1903,10 @@
     <rPh sb="0" eb="5">
       <t>セイノウケイソクヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  NablarchServletContextListenerの初期化が完了したことを示すログなどが出力される。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2885,7 +2885,7 @@
     <row r="8" spans="1:35" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="50"/>
       <c r="D8" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2947,7 +2947,7 @@
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
       <c r="M13" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
@@ -3025,7 +3025,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -3061,7 +3061,7 @@
       <c r="K16" s="45"/>
       <c r="L16" s="46"/>
       <c r="M16" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
@@ -3103,7 +3103,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -3141,7 +3141,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="46"/>
       <c r="M18" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -3183,7 +3183,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -3221,7 +3221,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="46"/>
       <c r="M20" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -3263,7 +3263,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="20"/>
       <c r="M21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -3341,7 +3341,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -3419,7 +3419,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
       <c r="M25" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -3494,7 +3494,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AE28" s="49"/>
       <c r="AF28" s="49"/>
@@ -3520,7 +3520,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
@@ -3563,7 +3563,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="48"/>
       <c r="Q30" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
@@ -3606,7 +3606,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
@@ -3649,7 +3649,7 @@
       <c r="O32" s="47"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R32" s="47"/>
       <c r="S32" s="47"/>
@@ -3692,7 +3692,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R33" s="47"/>
       <c r="S33" s="47"/>
@@ -3735,7 +3735,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
@@ -3773,7 +3773,7 @@
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
@@ -3816,7 +3816,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3854,7 +3854,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
@@ -3971,7 +3971,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="48"/>
       <c r="O43" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
@@ -4451,7 +4451,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4629,7 +4629,7 @@
       <c r="M61" s="45"/>
       <c r="N61" s="46"/>
       <c r="O61" s="45" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="P61" s="45"/>
       <c r="Q61" s="45"/>
@@ -4662,7 +4662,7 @@
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="F63" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF63" s="49"/>
       <c r="AG63" s="49"/>
@@ -4690,7 +4690,7 @@
       <c r="S64" s="28"/>
       <c r="T64" s="29"/>
       <c r="U64" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V64" s="28"/>
       <c r="W64" s="28"/>
@@ -4734,7 +4734,7 @@
       <c r="S65" s="47"/>
       <c r="T65" s="48"/>
       <c r="U65" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V65" s="45"/>
       <c r="W65" s="45"/>
@@ -4776,7 +4776,7 @@
       <c r="S66" s="45"/>
       <c r="T66" s="46"/>
       <c r="U66" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V66" s="45"/>
       <c r="W66" s="22"/>
@@ -4817,7 +4817,7 @@
       <c r="S67" s="45"/>
       <c r="T67" s="46"/>
       <c r="U67" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V67" s="45"/>
       <c r="W67" s="22"/>
@@ -4858,7 +4858,7 @@
       <c r="S68" s="45"/>
       <c r="T68" s="46"/>
       <c r="U68" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V68" s="45"/>
       <c r="W68" s="22"/>
@@ -4899,7 +4899,7 @@
       <c r="S69" s="45"/>
       <c r="T69" s="46"/>
       <c r="U69" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V69" s="45"/>
       <c r="W69" s="22"/>
@@ -5137,7 +5137,7 @@
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -5391,7 +5391,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
       <c r="L91" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
@@ -5668,7 +5668,7 @@
       <c r="S99" s="19"/>
       <c r="T99" s="19"/>
       <c r="U99" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V99" s="19"/>
       <c r="W99" s="19"/>
@@ -5884,12 +5884,12 @@
       <c r="H114" s="28"/>
       <c r="I114" s="29"/>
       <c r="J114" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K114" s="28"/>
       <c r="L114" s="29"/>
       <c r="M114" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N114" s="28"/>
       <c r="O114" s="28"/>
@@ -5932,7 +5932,7 @@
       <c r="K115" s="24"/>
       <c r="L115" s="25"/>
       <c r="M115" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="24"/>
@@ -6628,7 +6628,7 @@
       <c r="O137" s="20"/>
       <c r="P137" s="19"/>
       <c r="Q137" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R137" s="22"/>
       <c r="S137" s="22"/>
@@ -7036,7 +7036,7 @@
         <v>116</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
@@ -7607,12 +7607,12 @@
       <c r="H170" s="28"/>
       <c r="I170" s="29"/>
       <c r="J170" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K170" s="28"/>
       <c r="L170" s="29"/>
       <c r="M170" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N170" s="28"/>
       <c r="O170" s="28"/>
@@ -7655,7 +7655,7 @@
       <c r="K171" s="47"/>
       <c r="L171" s="48"/>
       <c r="M171" s="47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N171" s="47"/>
       <c r="O171" s="47"/>
@@ -8160,7 +8160,7 @@
       <c r="F191" s="30"/>
       <c r="G191" s="17"/>
       <c r="H191" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I191" s="24"/>
       <c r="J191" s="24"/>
@@ -8197,7 +8197,7 @@
       <c r="F192" s="30"/>
       <c r="G192" s="17"/>
       <c r="H192" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
@@ -8234,7 +8234,7 @@
       <c r="F193" s="30"/>
       <c r="G193" s="17"/>
       <c r="H193" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
@@ -8271,7 +8271,7 @@
       <c r="F194" s="30"/>
       <c r="G194" s="17"/>
       <c r="H194" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -8308,7 +8308,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="17"/>
       <c r="H195" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -8345,7 +8345,7 @@
       <c r="F196" s="30"/>
       <c r="G196" s="17"/>
       <c r="H196" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
@@ -8413,7 +8413,7 @@
     <row r="198" spans="1:37" s="49" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="30"/>
       <c r="H198" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I198" s="19"/>
       <c r="J198" s="19"/>
@@ -8916,7 +8916,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="17"/>
       <c r="H215" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I215" s="24"/>
       <c r="J215" s="24"/>
@@ -8986,7 +8986,7 @@
       <c r="F217" s="37"/>
       <c r="G217" s="38"/>
       <c r="H217" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9379,7 +9379,7 @@
       <c r="F236" s="30"/>
       <c r="G236" s="17"/>
       <c r="H236" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
@@ -9416,7 +9416,7 @@
       <c r="F237" s="30"/>
       <c r="G237" s="17"/>
       <c r="H237" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -9453,7 +9453,7 @@
       <c r="F238" s="30"/>
       <c r="G238" s="17"/>
       <c r="H238" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I238" s="19"/>
       <c r="J238" s="19"/>
@@ -9490,7 +9490,7 @@
       <c r="F239" s="30"/>
       <c r="G239" s="17"/>
       <c r="H239" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I239" s="19"/>
       <c r="J239" s="19"/>
@@ -9527,7 +9527,7 @@
       <c r="F240" s="30"/>
       <c r="G240" s="17"/>
       <c r="H240" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I240" s="19"/>
       <c r="J240" s="19"/>
@@ -9621,7 +9621,7 @@
       <c r="F244" s="30"/>
       <c r="G244" s="50"/>
       <c r="H244" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="245" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11128,12 +11128,12 @@
       <c r="J289" s="28"/>
       <c r="K289" s="29"/>
       <c r="L289" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M289" s="28"/>
       <c r="N289" s="29"/>
       <c r="O289" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P289" s="28"/>
       <c r="Q289" s="28"/>
@@ -11176,7 +11176,7 @@
       <c r="M290" s="47"/>
       <c r="N290" s="48"/>
       <c r="O290" s="47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P290" s="47"/>
       <c r="Q290" s="47"/>
@@ -11285,25 +11285,25 @@
       <c r="E293" s="30"/>
       <c r="F293" s="31"/>
       <c r="G293" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H293" s="47"/>
       <c r="I293" s="47"/>
       <c r="J293" s="47"/>
       <c r="K293" s="48"/>
       <c r="L293" s="47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M293" s="47"/>
       <c r="N293" s="48"/>
       <c r="O293" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P293" s="47"/>
       <c r="Q293" s="47"/>
       <c r="R293" s="48"/>
       <c r="S293" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T293" s="47"/>
       <c r="U293" s="47"/>
@@ -11340,7 +11340,7 @@
       <c r="M294" s="47"/>
       <c r="N294" s="48"/>
       <c r="O294" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P294" s="33"/>
       <c r="Q294" s="33"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858A790F-932E-4A62-9E7E-B06230D408CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAFC639-43A7-4687-B687-46881A00F671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$250</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$273</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$99</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$99</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="293">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1241,19 +1241,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログの種類ごとのフォーマットは、Nablarchが提供するデフォルトのフォーマットを使用する。</t>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>それぞれのデフォルトフォーマットについては、下記記載の解説書を参照のこと。</t>
     <rPh sb="21" eb="23">
       <t>カキ</t>
@@ -1360,6 +1347,113 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;ログ出力日時&gt; - &lt;ログレベル&gt; - [&lt;実行時ID&gt;] boot_proc = [&lt;起動プロセス&gt;] proc_sys = [&lt;処理方式&gt;] </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Input Data : \n</t>
+  </si>
+  <si>
+    <t>&lt;処理対象データ&gt;</t>
+  </si>
+  <si>
+    <t>※ \n：改行を表す。実際の出力では、このマークの個所のみが改行される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエスト処理開始時のログ出力フォーマット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害通知ログのログ出力フォーマット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    url         = [&lt;URL&gt;]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    method      = [&lt;HTTPメソッド&gt;]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    client_ip   = [&lt;クライアント端末IPアドレス&gt;]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    user_agent  = [&lt;HTTPヘッダのUser-Agent&gt;]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    parameters  = [&lt;リクエストパラメータ&gt;]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログの種類ごとのフォーマットは、基本的にNablarchが提供するデフォルトのフォーマットを使用する。</t>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fail_code = [&lt;障害コード&gt;] &lt;メッセージ&gt;\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害通知ログのフォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスログのフォーマット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトフォーマットを使用せず独自にフォーマットを設定するものについては、以下で説明する。</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@@@@ BEGIN @@@@ req_id = [&lt;リクエストID&gt;] user_id = [&lt;ユーザID&gt;] session_id = [&lt;HTTPセッションID&gt;]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    port        = [&lt;ポート番号&gt;]\n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ &lt;論理名&gt;：可変となる要素(プレースホルダ)を表す(例：&lt;リクエストID&gt;)。これ以外の個所はリテラルである。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ &lt;メッセージ&gt;以降は、障害コードに応じたメッセージが出力されるため桁位置は可変となる。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1785,6 +1879,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1850,18 +1956,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2194,7 +2288,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS250"/>
+  <dimension ref="A1:AS273"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2211,43 +2305,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="70"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2256,43 +2350,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="8" t="s">
         <v>174</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
       <c r="Y2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2301,39 +2395,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
       <c r="Y3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5070,13 +5164,13 @@
     <row r="107" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="46"/>
       <c r="E107" s="31" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="46"/>
       <c r="E108" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5093,7 +5187,7 @@
       <c r="H110" s="28"/>
       <c r="I110" s="29"/>
       <c r="J110" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K110" s="28"/>
       <c r="L110" s="28"/>
@@ -5120,242 +5214,191 @@
     </row>
     <row r="111" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="46"/>
-      <c r="E111" s="83" t="s">
+      <c r="E111" s="58" t="s">
         <v>39</v>
       </c>
       <c r="F111" s="43"/>
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
       <c r="I111" s="44"/>
-      <c r="J111" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="K111" s="81"/>
-      <c r="L111" s="81"/>
-      <c r="M111" s="81"/>
-      <c r="N111" s="81"/>
-      <c r="O111" s="81"/>
-      <c r="P111" s="81"/>
-      <c r="Q111" s="81"/>
-      <c r="R111" s="81"/>
-      <c r="S111" s="81"/>
-      <c r="T111" s="81"/>
-      <c r="U111" s="81"/>
-      <c r="V111" s="81"/>
-      <c r="W111" s="81"/>
-      <c r="X111" s="81"/>
-      <c r="Y111" s="81"/>
-      <c r="Z111" s="81"/>
-      <c r="AA111" s="81"/>
-      <c r="AB111" s="81"/>
-      <c r="AC111" s="81"/>
-      <c r="AD111" s="81"/>
-      <c r="AE111" s="81"/>
-      <c r="AF111" s="82"/>
+      <c r="J111" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="K111" s="60"/>
+      <c r="L111" s="60"/>
+      <c r="M111" s="60"/>
+      <c r="N111" s="60"/>
+      <c r="O111" s="60"/>
+      <c r="P111" s="60"/>
+      <c r="Q111" s="60"/>
+      <c r="R111" s="60"/>
+      <c r="S111" s="60"/>
+      <c r="T111" s="60"/>
+      <c r="U111" s="60"/>
+      <c r="V111" s="60"/>
+      <c r="W111" s="60"/>
+      <c r="X111" s="60"/>
+      <c r="Y111" s="60"/>
+      <c r="Z111" s="60"/>
+      <c r="AA111" s="60"/>
+      <c r="AB111" s="60"/>
+      <c r="AC111" s="60"/>
+      <c r="AD111" s="60"/>
+      <c r="AE111" s="60"/>
+      <c r="AF111" s="61"/>
     </row>
     <row r="112" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="46"/>
-      <c r="E112" s="83" t="s">
+      <c r="E112" s="58" t="s">
         <v>41</v>
       </c>
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
       <c r="H112" s="43"/>
       <c r="I112" s="44"/>
-      <c r="J112" s="80" t="s">
-        <v>268</v>
-      </c>
-      <c r="K112" s="81"/>
-      <c r="L112" s="81"/>
-      <c r="M112" s="81"/>
-      <c r="N112" s="81"/>
-      <c r="O112" s="81"/>
-      <c r="P112" s="81"/>
-      <c r="Q112" s="81"/>
-      <c r="R112" s="81"/>
-      <c r="S112" s="81"/>
-      <c r="T112" s="81"/>
-      <c r="U112" s="81"/>
-      <c r="V112" s="81"/>
-      <c r="W112" s="81"/>
-      <c r="X112" s="81"/>
-      <c r="Y112" s="81"/>
-      <c r="Z112" s="81"/>
-      <c r="AA112" s="81"/>
-      <c r="AB112" s="81"/>
-      <c r="AC112" s="81"/>
-      <c r="AD112" s="81"/>
-      <c r="AE112" s="81"/>
-      <c r="AF112" s="82"/>
-    </row>
-    <row r="113" spans="4:35" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J112" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="K112" s="60"/>
+      <c r="L112" s="60"/>
+      <c r="M112" s="60"/>
+      <c r="N112" s="60"/>
+      <c r="O112" s="60"/>
+      <c r="P112" s="60"/>
+      <c r="Q112" s="60"/>
+      <c r="R112" s="60"/>
+      <c r="S112" s="60"/>
+      <c r="T112" s="60"/>
+      <c r="U112" s="60"/>
+      <c r="V112" s="60"/>
+      <c r="W112" s="60"/>
+      <c r="X112" s="60"/>
+      <c r="Y112" s="60"/>
+      <c r="Z112" s="60"/>
+      <c r="AA112" s="60"/>
+      <c r="AB112" s="60"/>
+      <c r="AC112" s="60"/>
+      <c r="AD112" s="60"/>
+      <c r="AE112" s="60"/>
+      <c r="AF112" s="61"/>
+    </row>
+    <row r="113" spans="4:34" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D113" s="46"/>
-      <c r="E113" s="83" t="s">
+      <c r="E113" s="58" t="s">
         <v>43</v>
       </c>
       <c r="F113" s="43"/>
       <c r="G113" s="43"/>
       <c r="H113" s="43"/>
       <c r="I113" s="44"/>
-      <c r="J113" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="K113" s="81"/>
-      <c r="L113" s="81"/>
-      <c r="M113" s="81"/>
-      <c r="N113" s="81"/>
-      <c r="O113" s="81"/>
-      <c r="P113" s="81"/>
-      <c r="Q113" s="81"/>
-      <c r="R113" s="81"/>
-      <c r="S113" s="81"/>
-      <c r="T113" s="81"/>
-      <c r="U113" s="81"/>
-      <c r="V113" s="81"/>
-      <c r="W113" s="81"/>
-      <c r="X113" s="81"/>
-      <c r="Y113" s="81"/>
-      <c r="Z113" s="81"/>
-      <c r="AA113" s="81"/>
-      <c r="AB113" s="81"/>
-      <c r="AC113" s="81"/>
-      <c r="AD113" s="81"/>
-      <c r="AE113" s="81"/>
-      <c r="AF113" s="82"/>
-    </row>
-    <row r="114" spans="4:35" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J113" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="K113" s="60"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="60"/>
+      <c r="O113" s="60"/>
+      <c r="P113" s="60"/>
+      <c r="Q113" s="60"/>
+      <c r="R113" s="60"/>
+      <c r="S113" s="60"/>
+      <c r="T113" s="60"/>
+      <c r="U113" s="60"/>
+      <c r="V113" s="60"/>
+      <c r="W113" s="60"/>
+      <c r="X113" s="60"/>
+      <c r="Y113" s="60"/>
+      <c r="Z113" s="60"/>
+      <c r="AA113" s="60"/>
+      <c r="AB113" s="60"/>
+      <c r="AC113" s="60"/>
+      <c r="AD113" s="60"/>
+      <c r="AE113" s="60"/>
+      <c r="AF113" s="61"/>
+    </row>
+    <row r="114" spans="4:34" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" s="46"/>
-      <c r="E114" s="83" t="s">
+      <c r="E114" s="58" t="s">
         <v>46</v>
       </c>
       <c r="F114" s="43"/>
       <c r="G114" s="43"/>
       <c r="H114" s="43"/>
       <c r="I114" s="44"/>
-      <c r="J114" s="80" t="s">
+      <c r="J114" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="K114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="60"/>
+      <c r="O114" s="60"/>
+      <c r="P114" s="60"/>
+      <c r="Q114" s="60"/>
+      <c r="R114" s="60"/>
+      <c r="S114" s="60"/>
+      <c r="T114" s="60"/>
+      <c r="U114" s="60"/>
+      <c r="V114" s="60"/>
+      <c r="W114" s="60"/>
+      <c r="X114" s="60"/>
+      <c r="Y114" s="60"/>
+      <c r="Z114" s="60"/>
+      <c r="AA114" s="60"/>
+      <c r="AB114" s="60"/>
+      <c r="AC114" s="60"/>
+      <c r="AD114" s="60"/>
+      <c r="AE114" s="60"/>
+      <c r="AF114" s="61"/>
+    </row>
+    <row r="115" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E116" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="K114" s="81"/>
-      <c r="L114" s="81"/>
-      <c r="M114" s="81"/>
-      <c r="N114" s="81"/>
-      <c r="O114" s="81"/>
-      <c r="P114" s="81"/>
-      <c r="Q114" s="81"/>
-      <c r="R114" s="81"/>
-      <c r="S114" s="81"/>
-      <c r="T114" s="81"/>
-      <c r="U114" s="81"/>
-      <c r="V114" s="81"/>
-      <c r="W114" s="81"/>
-      <c r="X114" s="81"/>
-      <c r="Y114" s="81"/>
-      <c r="Z114" s="81"/>
-      <c r="AA114" s="81"/>
-      <c r="AB114" s="81"/>
-      <c r="AC114" s="81"/>
-      <c r="AD114" s="81"/>
-      <c r="AE114" s="81"/>
-      <c r="AF114" s="82"/>
-    </row>
-    <row r="115" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E116" s="45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="117" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D118" s="46" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>7.13.4.</v>
-      </c>
+    </row>
+    <row r="117" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="30" t="str">
-        <f>$D$118&amp;"1."</f>
-        <v>7.13.4.1.</v>
-      </c>
-      <c r="F119" s="31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E120" s="30"/>
-      <c r="F120" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E121" s="30"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H121" s="28"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="K121" s="28"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="N121" s="28"/>
-      <c r="O121" s="28"/>
-      <c r="P121" s="28"/>
-      <c r="Q121" s="29"/>
-      <c r="R121" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="S121" s="28"/>
-      <c r="T121" s="28"/>
-      <c r="U121" s="28"/>
-      <c r="V121" s="28"/>
-      <c r="W121" s="28"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="28"/>
-      <c r="Z121" s="28"/>
-      <c r="AA121" s="28"/>
-      <c r="AB121" s="28"/>
-      <c r="AC121" s="28"/>
-      <c r="AD121" s="28"/>
-      <c r="AE121" s="28"/>
-      <c r="AF121" s="28"/>
-      <c r="AG121" s="28"/>
-      <c r="AH121" s="28"/>
-      <c r="AI121" s="29"/>
-    </row>
-    <row r="122" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E122" s="30"/>
-      <c r="F122" s="31"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E120" s="46" t="str">
+        <f>$D$106&amp;"1."</f>
+        <v>7.13.3.1.</v>
+      </c>
+      <c r="F120" s="45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E121" s="46"/>
+      <c r="F121" s="30" t="str">
+        <f>$E$120&amp;"1."</f>
+        <v>7.13.3.1.1.</v>
+      </c>
+      <c r="G121" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G122" s="23" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="H122" s="24"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="24" t="s">
-        <v>139</v>
-      </c>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
       <c r="K122" s="24"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="24" t="s">
-        <v>235</v>
-      </c>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
       <c r="N122" s="24"/>
       <c r="O122" s="24"/>
       <c r="P122" s="24"/>
-      <c r="Q122" s="25"/>
-      <c r="R122" s="24" t="s">
-        <v>194</v>
-      </c>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
       <c r="S122" s="24"/>
       <c r="T122" s="24"/>
       <c r="U122" s="24"/>
@@ -5371,699 +5414,322 @@
       <c r="AE122" s="24"/>
       <c r="AF122" s="24"/>
       <c r="AG122" s="24"/>
-      <c r="AH122" s="24"/>
-      <c r="AI122" s="25"/>
-    </row>
-    <row r="123" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E123" s="30"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="42"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="41"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="42"/>
-      <c r="R123" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="S123" s="41"/>
-      <c r="T123" s="41"/>
-      <c r="U123" s="41"/>
-      <c r="V123" s="41"/>
-      <c r="W123" s="41"/>
-      <c r="X123" s="41"/>
-      <c r="Y123" s="41"/>
-      <c r="Z123" s="41"/>
-      <c r="AA123" s="41"/>
-      <c r="AB123" s="41"/>
-      <c r="AC123" s="41"/>
-      <c r="AD123" s="41"/>
-      <c r="AE123" s="41"/>
-      <c r="AF123" s="41"/>
-      <c r="AG123" s="41"/>
-      <c r="AH123" s="41"/>
-      <c r="AI123" s="42"/>
-    </row>
-    <row r="124" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="30"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
-      <c r="N124" s="19"/>
-      <c r="O124" s="19"/>
-      <c r="P124" s="19"/>
-      <c r="Q124" s="19"/>
-      <c r="R124" s="19"/>
-      <c r="S124" s="19"/>
-      <c r="T124" s="19"/>
-      <c r="U124" s="19"/>
-      <c r="V124" s="19"/>
-      <c r="W124" s="19"/>
-      <c r="X124" s="19"/>
-      <c r="Y124" s="19"/>
-      <c r="Z124" s="19"/>
-      <c r="AA124" s="19"/>
-      <c r="AB124" s="19"/>
-      <c r="AC124" s="19"/>
-      <c r="AD124" s="19"/>
-      <c r="AE124" s="19"/>
-      <c r="AF124" s="19"/>
-      <c r="AG124" s="19"/>
-      <c r="AH124" s="19"/>
-      <c r="AI124" s="19"/>
-    </row>
-    <row r="125" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E125" s="30"/>
-      <c r="F125" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G125" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="126" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E126" s="30"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="30" t="str">
-        <f>F125&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H126" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="23" t="s">
+      <c r="AH122" s="25"/>
+    </row>
+    <row r="123" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G123" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="24"/>
-      <c r="L127" s="24"/>
-      <c r="M127" s="24"/>
-      <c r="N127" s="24"/>
-      <c r="O127" s="24"/>
-      <c r="P127" s="24"/>
-      <c r="Q127" s="24"/>
-      <c r="R127" s="24"/>
-      <c r="S127" s="24"/>
-      <c r="T127" s="24"/>
-      <c r="U127" s="24"/>
-      <c r="V127" s="24"/>
-      <c r="W127" s="24"/>
-      <c r="X127" s="24"/>
-      <c r="Y127" s="24"/>
-      <c r="Z127" s="24"/>
-      <c r="AA127" s="24"/>
-      <c r="AB127" s="24"/>
-      <c r="AC127" s="24"/>
-      <c r="AD127" s="24"/>
-      <c r="AE127" s="24"/>
-      <c r="AF127" s="24"/>
-      <c r="AG127" s="24"/>
-      <c r="AH127" s="24"/>
-      <c r="AI127" s="25"/>
-    </row>
-    <row r="128" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-      <c r="K128" s="41"/>
-      <c r="L128" s="41"/>
-      <c r="M128" s="41"/>
-      <c r="N128" s="41"/>
-      <c r="O128" s="41"/>
-      <c r="P128" s="41"/>
-      <c r="Q128" s="41"/>
-      <c r="R128" s="41"/>
-      <c r="S128" s="41"/>
-      <c r="T128" s="41"/>
-      <c r="U128" s="41"/>
-      <c r="V128" s="41"/>
-      <c r="W128" s="41"/>
-      <c r="X128" s="41"/>
-      <c r="Y128" s="41"/>
-      <c r="Z128" s="41"/>
-      <c r="AA128" s="41"/>
-      <c r="AB128" s="41"/>
-      <c r="AC128" s="41"/>
-      <c r="AD128" s="41"/>
-      <c r="AE128" s="41"/>
-      <c r="AF128" s="41"/>
-      <c r="AG128" s="41"/>
-      <c r="AH128" s="41"/>
-      <c r="AI128" s="42"/>
-    </row>
-    <row r="129" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E129" s="30"/>
-      <c r="F129" s="30"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="130" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E130" s="30"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH123" s="20"/>
+    </row>
+    <row r="124" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G124" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="41"/>
+      <c r="S124" s="41"/>
+      <c r="T124" s="41"/>
+      <c r="U124" s="41"/>
+      <c r="V124" s="41"/>
+      <c r="W124" s="41"/>
+      <c r="X124" s="41"/>
+      <c r="Y124" s="41"/>
+      <c r="Z124" s="41"/>
+      <c r="AA124" s="41"/>
+      <c r="AB124" s="41"/>
+      <c r="AC124" s="41"/>
+      <c r="AD124" s="41"/>
+      <c r="AE124" s="41"/>
+      <c r="AF124" s="41"/>
+      <c r="AG124" s="41"/>
+      <c r="AH124" s="42"/>
+    </row>
+    <row r="125" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G125" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G126" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G127" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="46"/>
+      <c r="E128" s="31"/>
+    </row>
+    <row r="129" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="46" t="str">
+        <f>$D$106&amp;"2."</f>
+        <v>7.13.3.2.</v>
+      </c>
+      <c r="F129" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E130" s="46"/>
+      <c r="F130" s="30" t="str">
+        <f>$E$129&amp;"1."</f>
+        <v>7.13.3.2.1.</v>
+      </c>
+      <c r="G130" s="45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="30"/>
-      <c r="F131" s="46"/>
-    </row>
-    <row r="132" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G131" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="24"/>
+      <c r="O131" s="24"/>
+      <c r="P131" s="24"/>
+      <c r="Q131" s="24"/>
+      <c r="R131" s="24"/>
+      <c r="S131" s="24"/>
+      <c r="T131" s="24"/>
+      <c r="U131" s="24"/>
+      <c r="V131" s="24"/>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24"/>
+      <c r="Y131" s="24"/>
+      <c r="Z131" s="24"/>
+      <c r="AA131" s="24"/>
+      <c r="AB131" s="24"/>
+      <c r="AC131" s="24"/>
+      <c r="AD131" s="24"/>
+      <c r="AE131" s="24"/>
+      <c r="AF131" s="24"/>
+      <c r="AG131" s="24"/>
+      <c r="AH131" s="25"/>
+    </row>
+    <row r="132" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="30"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="30" t="str">
-        <f>F125&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H132" s="45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G132" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH132" s="20"/>
+    </row>
+    <row r="133" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="30"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="M133" s="28"/>
-      <c r="N133" s="28"/>
-      <c r="O133" s="29"/>
-      <c r="P133" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q133" s="28"/>
-      <c r="R133" s="28"/>
-      <c r="S133" s="28"/>
-      <c r="T133" s="28"/>
-      <c r="U133" s="28"/>
-      <c r="V133" s="28"/>
-      <c r="W133" s="28"/>
-      <c r="X133" s="28"/>
-      <c r="Y133" s="28"/>
-      <c r="Z133" s="28"/>
-      <c r="AA133" s="28"/>
-      <c r="AB133" s="28"/>
-      <c r="AC133" s="28"/>
-      <c r="AD133" s="28"/>
-      <c r="AE133" s="28"/>
-      <c r="AF133" s="28"/>
-      <c r="AG133" s="28"/>
-      <c r="AH133" s="28"/>
-      <c r="AI133" s="29"/>
-    </row>
-    <row r="134" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G133" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH133" s="20"/>
+    </row>
+    <row r="134" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="30"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="20"/>
-      <c r="P134" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="19"/>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="19"/>
-      <c r="W134" s="19"/>
-      <c r="X134" s="19"/>
-      <c r="Y134" s="19"/>
-      <c r="Z134" s="19"/>
-      <c r="AA134" s="19"/>
-      <c r="AB134" s="19"/>
-      <c r="AC134" s="19"/>
-      <c r="AD134" s="19"/>
-      <c r="AE134" s="19"/>
-      <c r="AF134" s="19"/>
-      <c r="AG134" s="19"/>
-      <c r="AH134" s="19"/>
-      <c r="AI134" s="20"/>
-    </row>
-    <row r="135" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G134" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH134" s="20"/>
+    </row>
+    <row r="135" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="30"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="43"/>
-      <c r="L135" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="M135" s="43"/>
-      <c r="N135" s="43"/>
-      <c r="O135" s="44"/>
-      <c r="P135" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q135" s="43"/>
-      <c r="R135" s="43"/>
-      <c r="S135" s="43"/>
-      <c r="T135" s="43"/>
-      <c r="U135" s="43"/>
-      <c r="V135" s="43"/>
-      <c r="W135" s="43"/>
-      <c r="X135" s="43"/>
-      <c r="Y135" s="43"/>
-      <c r="Z135" s="43"/>
-      <c r="AA135" s="43"/>
-      <c r="AB135" s="43"/>
-      <c r="AC135" s="43"/>
-      <c r="AD135" s="43"/>
-      <c r="AE135" s="43"/>
-      <c r="AF135" s="43"/>
-      <c r="AG135" s="43"/>
-      <c r="AH135" s="43"/>
-      <c r="AI135" s="44"/>
-    </row>
-    <row r="136" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G135" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH135" s="20"/>
+    </row>
+    <row r="136" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E136" s="30"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="20"/>
-      <c r="P136" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
-      <c r="S136" s="19"/>
-      <c r="T136" s="19"/>
-      <c r="U136" s="19"/>
-      <c r="V136" s="19"/>
-      <c r="W136" s="19"/>
-      <c r="X136" s="19"/>
-      <c r="Y136" s="19"/>
-      <c r="Z136" s="19"/>
-      <c r="AA136" s="19"/>
-      <c r="AB136" s="19"/>
-      <c r="AC136" s="19"/>
-      <c r="AD136" s="19"/>
-      <c r="AE136" s="19"/>
-      <c r="AF136" s="19"/>
-      <c r="AG136" s="19"/>
-      <c r="AH136" s="19"/>
-      <c r="AI136" s="20"/>
-    </row>
-    <row r="137" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G136" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH136" s="20"/>
+    </row>
+    <row r="137" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E137" s="30"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="20"/>
-      <c r="P137" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
-      <c r="S137" s="19"/>
-      <c r="T137" s="19"/>
-      <c r="U137" s="19"/>
-      <c r="V137" s="19"/>
-      <c r="W137" s="19"/>
-      <c r="X137" s="19"/>
-      <c r="Y137" s="19"/>
-      <c r="Z137" s="19"/>
-      <c r="AA137" s="19"/>
-      <c r="AB137" s="19"/>
-      <c r="AC137" s="19"/>
-      <c r="AD137" s="19"/>
-      <c r="AE137" s="19"/>
-      <c r="AF137" s="19"/>
-      <c r="AG137" s="19"/>
-      <c r="AH137" s="19"/>
-      <c r="AI137" s="20"/>
-    </row>
-    <row r="138" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="30"/>
-      <c r="F138" s="46"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="41"/>
-      <c r="K138" s="41"/>
-      <c r="L138" s="40"/>
-      <c r="M138" s="41"/>
-      <c r="N138" s="41"/>
-      <c r="O138" s="42"/>
-      <c r="P138" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q138" s="41"/>
-      <c r="R138" s="41"/>
-      <c r="S138" s="41"/>
-      <c r="T138" s="41"/>
-      <c r="U138" s="41"/>
-      <c r="V138" s="41"/>
-      <c r="W138" s="41"/>
-      <c r="X138" s="41"/>
-      <c r="Y138" s="41"/>
-      <c r="Z138" s="41"/>
-      <c r="AA138" s="41"/>
-      <c r="AB138" s="41"/>
-      <c r="AC138" s="41"/>
-      <c r="AD138" s="41"/>
-      <c r="AE138" s="41"/>
-      <c r="AF138" s="41"/>
-      <c r="AG138" s="41"/>
-      <c r="AH138" s="41"/>
-      <c r="AI138" s="42"/>
-    </row>
-    <row r="139" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="30"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="I139" s="41"/>
-      <c r="J139" s="41"/>
-      <c r="K139" s="41"/>
-      <c r="L139" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M139" s="41"/>
-      <c r="N139" s="41"/>
-      <c r="O139" s="42"/>
-      <c r="P139" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q139" s="41"/>
-      <c r="R139" s="41"/>
-      <c r="S139" s="41"/>
-      <c r="T139" s="41"/>
-      <c r="U139" s="41"/>
-      <c r="V139" s="41"/>
-      <c r="W139" s="41"/>
-      <c r="X139" s="41"/>
-      <c r="Y139" s="41"/>
-      <c r="Z139" s="41"/>
-      <c r="AA139" s="41"/>
-      <c r="AB139" s="41"/>
-      <c r="AC139" s="41"/>
-      <c r="AD139" s="41"/>
-      <c r="AE139" s="41"/>
-      <c r="AF139" s="41"/>
-      <c r="AG139" s="41"/>
-      <c r="AH139" s="41"/>
-      <c r="AI139" s="42"/>
-    </row>
-    <row r="140" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="30"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
-      <c r="O140" s="20"/>
-      <c r="P140" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q140" s="19"/>
-      <c r="R140" s="19"/>
-      <c r="S140" s="19"/>
-      <c r="T140" s="19"/>
-      <c r="U140" s="19"/>
-      <c r="V140" s="19"/>
-      <c r="W140" s="19"/>
-      <c r="X140" s="19"/>
-      <c r="Y140" s="19"/>
-      <c r="Z140" s="19"/>
-      <c r="AA140" s="19"/>
-      <c r="AB140" s="19"/>
-      <c r="AC140" s="19"/>
-      <c r="AD140" s="19"/>
-      <c r="AE140" s="19"/>
-      <c r="AF140" s="19"/>
-      <c r="AG140" s="19"/>
-      <c r="AH140" s="19"/>
-      <c r="AI140" s="20"/>
-    </row>
-    <row r="141" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="30"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="20"/>
-      <c r="P141" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
-      <c r="S141" s="19"/>
-      <c r="T141" s="19"/>
-      <c r="U141" s="19"/>
-      <c r="V141" s="19"/>
-      <c r="W141" s="19"/>
-      <c r="X141" s="19"/>
-      <c r="Y141" s="19"/>
-      <c r="Z141" s="19"/>
-      <c r="AA141" s="19"/>
-      <c r="AB141" s="19"/>
-      <c r="AC141" s="19"/>
-      <c r="AD141" s="19"/>
-      <c r="AE141" s="19"/>
-      <c r="AF141" s="19"/>
-      <c r="AG141" s="19"/>
-      <c r="AH141" s="19"/>
-      <c r="AI141" s="20"/>
-    </row>
-    <row r="142" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="30"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="20"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="R142" s="28"/>
-      <c r="S142" s="28"/>
-      <c r="T142" s="28"/>
-      <c r="U142" s="29"/>
-      <c r="V142" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="W142" s="28"/>
-      <c r="X142" s="29"/>
-      <c r="Y142" s="19"/>
-      <c r="Z142" s="19"/>
-      <c r="AA142" s="19"/>
-      <c r="AB142" s="19"/>
-      <c r="AC142" s="19"/>
-      <c r="AD142" s="19"/>
-      <c r="AE142" s="19"/>
-      <c r="AF142" s="19"/>
-      <c r="AG142" s="19"/>
-      <c r="AH142" s="19"/>
-      <c r="AI142" s="20"/>
-    </row>
-    <row r="143" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G137" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="41"/>
+      <c r="N137" s="41"/>
+      <c r="O137" s="41"/>
+      <c r="P137" s="41"/>
+      <c r="Q137" s="41"/>
+      <c r="R137" s="41"/>
+      <c r="S137" s="41"/>
+      <c r="T137" s="41"/>
+      <c r="U137" s="41"/>
+      <c r="V137" s="41"/>
+      <c r="W137" s="41"/>
+      <c r="X137" s="41"/>
+      <c r="Y137" s="41"/>
+      <c r="Z137" s="41"/>
+      <c r="AA137" s="41"/>
+      <c r="AB137" s="41"/>
+      <c r="AC137" s="41"/>
+      <c r="AD137" s="41"/>
+      <c r="AE137" s="41"/>
+      <c r="AF137" s="41"/>
+      <c r="AG137" s="41"/>
+      <c r="AH137" s="42"/>
+    </row>
+    <row r="138" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G138" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G139" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D141" s="46" t="str">
+        <f>$C$7&amp;"4."</f>
+        <v>7.13.4.</v>
+      </c>
+      <c r="E141" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="142" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E142" s="30" t="str">
+        <f>$D$141&amp;"1."</f>
+        <v>7.13.4.1.</v>
+      </c>
+      <c r="F142" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="30"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
-      <c r="O143" s="20"/>
-      <c r="P143" s="19"/>
-      <c r="Q143" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="R143" s="43"/>
-      <c r="S143" s="43"/>
-      <c r="T143" s="43"/>
-      <c r="U143" s="44"/>
-      <c r="V143" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="W143" s="43"/>
-      <c r="X143" s="44"/>
-      <c r="Y143" s="19"/>
-      <c r="Z143" s="19"/>
-      <c r="AA143" s="19"/>
-      <c r="AB143" s="19"/>
-      <c r="AC143" s="19"/>
-      <c r="AD143" s="19"/>
-      <c r="AE143" s="19"/>
-      <c r="AF143" s="19"/>
-      <c r="AG143" s="19"/>
-      <c r="AH143" s="19"/>
-      <c r="AI143" s="20"/>
-    </row>
-    <row r="144" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="30"/>
-      <c r="F144" s="46"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
-      <c r="O144" s="20"/>
-      <c r="P144" s="19"/>
-      <c r="Q144" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="R144" s="41"/>
-      <c r="S144" s="41"/>
-      <c r="T144" s="41"/>
-      <c r="U144" s="42"/>
-      <c r="V144" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="W144" s="41"/>
-      <c r="X144" s="42"/>
-      <c r="Y144" s="19"/>
-      <c r="Z144" s="19"/>
-      <c r="AA144" s="19"/>
-      <c r="AB144" s="19"/>
-      <c r="AC144" s="19"/>
-      <c r="AD144" s="19"/>
-      <c r="AE144" s="19"/>
-      <c r="AF144" s="19"/>
-      <c r="AG144" s="19"/>
-      <c r="AH144" s="19"/>
-      <c r="AI144" s="20"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H144" s="28"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K144" s="28"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="N144" s="28"/>
+      <c r="O144" s="28"/>
+      <c r="P144" s="28"/>
+      <c r="Q144" s="29"/>
+      <c r="R144" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="S144" s="28"/>
+      <c r="T144" s="28"/>
+      <c r="U144" s="28"/>
+      <c r="V144" s="28"/>
+      <c r="W144" s="28"/>
+      <c r="X144" s="28"/>
+      <c r="Y144" s="28"/>
+      <c r="Z144" s="28"/>
+      <c r="AA144" s="28"/>
+      <c r="AB144" s="28"/>
+      <c r="AC144" s="28"/>
+      <c r="AD144" s="28"/>
+      <c r="AE144" s="28"/>
+      <c r="AF144" s="28"/>
+      <c r="AG144" s="28"/>
+      <c r="AH144" s="28"/>
+      <c r="AI144" s="29"/>
     </row>
     <row r="145" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="30"/>
-      <c r="F145" s="46"/>
-      <c r="H145" s="40"/>
-      <c r="I145" s="41"/>
-      <c r="J145" s="41"/>
-      <c r="K145" s="41"/>
-      <c r="L145" s="40"/>
-      <c r="M145" s="41"/>
-      <c r="N145" s="41"/>
-      <c r="O145" s="42"/>
-      <c r="P145" s="41"/>
-      <c r="Q145" s="41"/>
-      <c r="R145" s="41"/>
-      <c r="S145" s="41"/>
-      <c r="T145" s="41"/>
-      <c r="U145" s="41"/>
-      <c r="V145" s="41"/>
-      <c r="W145" s="41"/>
-      <c r="X145" s="41"/>
-      <c r="Y145" s="41"/>
-      <c r="Z145" s="41"/>
-      <c r="AA145" s="41"/>
-      <c r="AB145" s="41"/>
-      <c r="AC145" s="41"/>
-      <c r="AD145" s="41"/>
-      <c r="AE145" s="41"/>
-      <c r="AF145" s="41"/>
-      <c r="AG145" s="41"/>
-      <c r="AH145" s="41"/>
-      <c r="AI145" s="42"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H145" s="24"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="K145" s="24"/>
+      <c r="L145" s="25"/>
+      <c r="M145" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="N145" s="24"/>
+      <c r="O145" s="24"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="25"/>
+      <c r="R145" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="S145" s="24"/>
+      <c r="T145" s="24"/>
+      <c r="U145" s="24"/>
+      <c r="V145" s="24"/>
+      <c r="W145" s="24"/>
+      <c r="X145" s="24"/>
+      <c r="Y145" s="24"/>
+      <c r="Z145" s="24"/>
+      <c r="AA145" s="24"/>
+      <c r="AB145" s="24"/>
+      <c r="AC145" s="24"/>
+      <c r="AD145" s="24"/>
+      <c r="AE145" s="24"/>
+      <c r="AF145" s="24"/>
+      <c r="AG145" s="24"/>
+      <c r="AH145" s="24"/>
+      <c r="AI145" s="25"/>
     </row>
     <row r="146" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="30"/>
-      <c r="F146" s="46"/>
-      <c r="H146" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I146" s="41"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="42"/>
       <c r="J146" s="41"/>
       <c r="K146" s="41"/>
-      <c r="L146" s="40" t="s">
-        <v>104</v>
-      </c>
+      <c r="L146" s="42"/>
       <c r="M146" s="41"/>
       <c r="N146" s="41"/>
-      <c r="O146" s="42"/>
-      <c r="P146" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q146" s="41"/>
-      <c r="R146" s="41"/>
+      <c r="O146" s="41"/>
+      <c r="P146" s="41"/>
+      <c r="Q146" s="42"/>
+      <c r="R146" s="41" t="s">
+        <v>193</v>
+      </c>
       <c r="S146" s="41"/>
       <c r="T146" s="41"/>
       <c r="U146" s="41"/>
@@ -6085,310 +5751,215 @@
     <row r="147" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="30"/>
       <c r="F147" s="31"/>
-      <c r="H147" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-      <c r="K147" s="41"/>
-      <c r="L147" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="M147" s="41"/>
-      <c r="N147" s="41"/>
-      <c r="O147" s="42"/>
-      <c r="P147" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q147" s="41"/>
-      <c r="R147" s="41"/>
-      <c r="S147" s="41"/>
-      <c r="T147" s="41"/>
-      <c r="U147" s="41"/>
-      <c r="V147" s="41"/>
-      <c r="W147" s="41"/>
-      <c r="X147" s="41"/>
-      <c r="Y147" s="41"/>
-      <c r="Z147" s="41"/>
-      <c r="AA147" s="41"/>
-      <c r="AB147" s="41"/>
-      <c r="AC147" s="41"/>
-      <c r="AD147" s="41"/>
-      <c r="AE147" s="41"/>
-      <c r="AF147" s="41"/>
-      <c r="AG147" s="41"/>
-      <c r="AH147" s="41"/>
-      <c r="AI147" s="42"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="19"/>
+      <c r="AA147" s="19"/>
+      <c r="AB147" s="19"/>
+      <c r="AC147" s="19"/>
+      <c r="AD147" s="19"/>
+      <c r="AE147" s="19"/>
+      <c r="AF147" s="19"/>
+      <c r="AG147" s="19"/>
+      <c r="AH147" s="19"/>
+      <c r="AI147" s="19"/>
     </row>
     <row r="148" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E148" s="30"/>
-      <c r="H148" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I148" s="24"/>
-      <c r="J148" s="24"/>
-      <c r="K148" s="24"/>
-      <c r="L148" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="M148" s="24"/>
-      <c r="N148" s="24"/>
-      <c r="O148" s="24"/>
-      <c r="P148" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q148" s="24"/>
-      <c r="R148" s="24"/>
-      <c r="S148" s="24"/>
-      <c r="T148" s="24"/>
-      <c r="U148" s="24"/>
-      <c r="V148" s="24"/>
-      <c r="W148" s="24"/>
-      <c r="X148" s="24"/>
-      <c r="Y148" s="24"/>
-      <c r="Z148" s="24"/>
-      <c r="AA148" s="24"/>
-      <c r="AB148" s="24"/>
-      <c r="AC148" s="24"/>
-      <c r="AD148" s="24"/>
-      <c r="AE148" s="24"/>
-      <c r="AF148" s="24"/>
-      <c r="AG148" s="24"/>
-      <c r="AH148" s="24"/>
-      <c r="AI148" s="25"/>
+      <c r="F148" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G148" s="45" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="149" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E149" s="30"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="41"/>
-      <c r="J149" s="41"/>
-      <c r="K149" s="41"/>
-      <c r="L149" s="40"/>
-      <c r="M149" s="41"/>
-      <c r="N149" s="41"/>
-      <c r="O149" s="41"/>
-      <c r="P149" s="40" t="str">
-        <f>"フォーマットは"&amp;$D$106&amp;$E$106&amp;"参照。"</f>
-        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
-      </c>
-      <c r="Q149" s="41"/>
-      <c r="R149" s="41"/>
-      <c r="S149" s="41"/>
-      <c r="T149" s="41"/>
-      <c r="U149" s="41"/>
-      <c r="V149" s="41"/>
-      <c r="W149" s="41"/>
-      <c r="X149" s="41"/>
-      <c r="Y149" s="41"/>
-      <c r="Z149" s="41"/>
-      <c r="AA149" s="41"/>
-      <c r="AB149" s="41"/>
-      <c r="AC149" s="41"/>
-      <c r="AD149" s="41"/>
-      <c r="AE149" s="41"/>
-      <c r="AF149" s="41"/>
-      <c r="AG149" s="41"/>
-      <c r="AH149" s="41"/>
-      <c r="AI149" s="42"/>
-    </row>
-    <row r="150" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="30" t="str">
+        <f>F148&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H149" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="46"/>
+      <c r="H150" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24"/>
+      <c r="O150" s="24"/>
+      <c r="P150" s="24"/>
+      <c r="Q150" s="24"/>
+      <c r="R150" s="24"/>
+      <c r="S150" s="24"/>
+      <c r="T150" s="24"/>
+      <c r="U150" s="24"/>
+      <c r="V150" s="24"/>
+      <c r="W150" s="24"/>
+      <c r="X150" s="24"/>
+      <c r="Y150" s="24"/>
+      <c r="Z150" s="24"/>
+      <c r="AA150" s="24"/>
+      <c r="AB150" s="24"/>
+      <c r="AC150" s="24"/>
+      <c r="AD150" s="24"/>
+      <c r="AE150" s="24"/>
+      <c r="AF150" s="24"/>
+      <c r="AG150" s="24"/>
+      <c r="AH150" s="24"/>
+      <c r="AI150" s="25"/>
+    </row>
     <row r="151" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E151" s="30"/>
-      <c r="F151" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" s="45" t="s">
-        <v>17</v>
-      </c>
+      <c r="F151" s="30"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="I151" s="41"/>
+      <c r="J151" s="41"/>
+      <c r="K151" s="41"/>
+      <c r="L151" s="41"/>
+      <c r="M151" s="41"/>
+      <c r="N151" s="41"/>
+      <c r="O151" s="41"/>
+      <c r="P151" s="41"/>
+      <c r="Q151" s="41"/>
+      <c r="R151" s="41"/>
+      <c r="S151" s="41"/>
+      <c r="T151" s="41"/>
+      <c r="U151" s="41"/>
+      <c r="V151" s="41"/>
+      <c r="W151" s="41"/>
+      <c r="X151" s="41"/>
+      <c r="Y151" s="41"/>
+      <c r="Z151" s="41"/>
+      <c r="AA151" s="41"/>
+      <c r="AB151" s="41"/>
+      <c r="AC151" s="41"/>
+      <c r="AD151" s="41"/>
+      <c r="AE151" s="41"/>
+      <c r="AF151" s="41"/>
+      <c r="AG151" s="41"/>
+      <c r="AH151" s="41"/>
+      <c r="AI151" s="42"/>
     </row>
     <row r="152" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E152" s="30"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="H152" s="24"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="24"/>
-      <c r="K152" s="24"/>
-      <c r="L152" s="24"/>
-      <c r="M152" s="24"/>
-      <c r="N152" s="24"/>
-      <c r="O152" s="24"/>
-      <c r="P152" s="24"/>
-      <c r="Q152" s="24"/>
-      <c r="R152" s="24"/>
-      <c r="S152" s="24"/>
-      <c r="T152" s="24"/>
-      <c r="U152" s="24"/>
-      <c r="V152" s="24"/>
-      <c r="W152" s="24"/>
-      <c r="X152" s="24"/>
-      <c r="Y152" s="24"/>
-      <c r="Z152" s="24"/>
-      <c r="AA152" s="24"/>
-      <c r="AB152" s="24"/>
-      <c r="AC152" s="24"/>
-      <c r="AD152" s="24"/>
-      <c r="AE152" s="24"/>
-      <c r="AF152" s="24"/>
-      <c r="AG152" s="24"/>
-      <c r="AH152" s="24"/>
-      <c r="AI152" s="25"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="45" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="153" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E153" s="30"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="19"/>
-      <c r="R153" s="19"/>
-      <c r="S153" s="19"/>
-      <c r="T153" s="19"/>
-      <c r="U153" s="19"/>
-      <c r="V153" s="19"/>
-      <c r="W153" s="19"/>
-      <c r="X153" s="19"/>
-      <c r="Y153" s="19"/>
-      <c r="Z153" s="19"/>
-      <c r="AA153" s="19"/>
-      <c r="AB153" s="19"/>
-      <c r="AC153" s="19"/>
-      <c r="AD153" s="19"/>
-      <c r="AE153" s="19"/>
-      <c r="AF153" s="19"/>
-      <c r="AG153" s="19"/>
-      <c r="AH153" s="19"/>
-      <c r="AI153" s="20"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="46"/>
+      <c r="H153" s="45" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="154" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E154" s="30"/>
       <c r="F154" s="46"/>
-      <c r="G154" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="19"/>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="19"/>
-      <c r="S154" s="19"/>
-      <c r="T154" s="19"/>
-      <c r="U154" s="19"/>
-      <c r="V154" s="19"/>
-      <c r="W154" s="19"/>
-      <c r="X154" s="19"/>
-      <c r="Y154" s="19"/>
-      <c r="Z154" s="19"/>
-      <c r="AA154" s="19"/>
-      <c r="AB154" s="19"/>
-      <c r="AC154" s="19"/>
-      <c r="AD154" s="19"/>
-      <c r="AE154" s="19"/>
-      <c r="AF154" s="19"/>
-      <c r="AG154" s="19"/>
-      <c r="AH154" s="19"/>
-      <c r="AI154" s="20"/>
     </row>
     <row r="155" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E155" s="30"/>
       <c r="F155" s="46"/>
-      <c r="G155" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
-      <c r="O155" s="19"/>
-      <c r="P155" s="19"/>
-      <c r="Q155" s="19"/>
-      <c r="R155" s="19"/>
-      <c r="S155" s="19"/>
-      <c r="T155" s="19"/>
-      <c r="U155" s="19"/>
-      <c r="V155" s="19"/>
-      <c r="W155" s="19"/>
-      <c r="X155" s="19"/>
-      <c r="Y155" s="19"/>
-      <c r="Z155" s="19"/>
-      <c r="AA155" s="19"/>
-      <c r="AB155" s="19"/>
-      <c r="AC155" s="19"/>
-      <c r="AD155" s="19"/>
-      <c r="AE155" s="19"/>
-      <c r="AF155" s="19"/>
-      <c r="AG155" s="19"/>
-      <c r="AH155" s="19"/>
-      <c r="AI155" s="20"/>
+      <c r="G155" s="30" t="str">
+        <f>F148&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H155" s="45" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="156" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="30"/>
       <c r="F156" s="46"/>
-      <c r="G156" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H156" s="41"/>
-      <c r="I156" s="41"/>
-      <c r="J156" s="41"/>
-      <c r="K156" s="41"/>
-      <c r="L156" s="41"/>
-      <c r="M156" s="41"/>
-      <c r="N156" s="41"/>
-      <c r="O156" s="41"/>
-      <c r="P156" s="41"/>
-      <c r="Q156" s="41"/>
-      <c r="R156" s="41"/>
-      <c r="S156" s="41"/>
-      <c r="T156" s="41"/>
-      <c r="U156" s="41"/>
-      <c r="V156" s="41"/>
-      <c r="W156" s="41"/>
-      <c r="X156" s="41"/>
-      <c r="Y156" s="41"/>
-      <c r="Z156" s="41"/>
-      <c r="AA156" s="41"/>
-      <c r="AB156" s="41"/>
-      <c r="AC156" s="41"/>
-      <c r="AD156" s="41"/>
-      <c r="AE156" s="41"/>
-      <c r="AF156" s="41"/>
-      <c r="AG156" s="41"/>
-      <c r="AH156" s="41"/>
-      <c r="AI156" s="42"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M156" s="28"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q156" s="28"/>
+      <c r="R156" s="28"/>
+      <c r="S156" s="28"/>
+      <c r="T156" s="28"/>
+      <c r="U156" s="28"/>
+      <c r="V156" s="28"/>
+      <c r="W156" s="28"/>
+      <c r="X156" s="28"/>
+      <c r="Y156" s="28"/>
+      <c r="Z156" s="28"/>
+      <c r="AA156" s="28"/>
+      <c r="AB156" s="28"/>
+      <c r="AC156" s="28"/>
+      <c r="AD156" s="28"/>
+      <c r="AE156" s="28"/>
+      <c r="AF156" s="28"/>
+      <c r="AG156" s="28"/>
+      <c r="AH156" s="28"/>
+      <c r="AI156" s="29"/>
     </row>
     <row r="157" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E157" s="30"/>
       <c r="F157" s="46"/>
-      <c r="G157" s="50"/>
-      <c r="H157" s="19"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
       <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
+      <c r="L157" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="M157" s="19"/>
       <c r="N157" s="19"/>
-      <c r="O157" s="19"/>
-      <c r="P157" s="19"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="Q157" s="19"/>
       <c r="R157" s="19"/>
       <c r="S157" s="19"/>
@@ -6407,341 +5978,467 @@
       <c r="AF157" s="19"/>
       <c r="AG157" s="19"/>
       <c r="AH157" s="19"/>
-      <c r="AI157" s="19"/>
+      <c r="AI157" s="20"/>
     </row>
     <row r="158" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E158" s="30" t="str">
-        <f>$D$118&amp;"2."</f>
-        <v>7.13.4.2.</v>
-      </c>
-      <c r="F158" s="31" t="s">
-        <v>251</v>
-      </c>
+      <c r="E158" s="30"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="43"/>
+      <c r="J158" s="43"/>
+      <c r="K158" s="43"/>
+      <c r="L158" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="M158" s="43"/>
+      <c r="N158" s="43"/>
+      <c r="O158" s="44"/>
+      <c r="P158" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q158" s="43"/>
+      <c r="R158" s="43"/>
+      <c r="S158" s="43"/>
+      <c r="T158" s="43"/>
+      <c r="U158" s="43"/>
+      <c r="V158" s="43"/>
+      <c r="W158" s="43"/>
+      <c r="X158" s="43"/>
+      <c r="Y158" s="43"/>
+      <c r="Z158" s="43"/>
+      <c r="AA158" s="43"/>
+      <c r="AB158" s="43"/>
+      <c r="AC158" s="43"/>
+      <c r="AD158" s="43"/>
+      <c r="AE158" s="43"/>
+      <c r="AF158" s="43"/>
+      <c r="AG158" s="43"/>
+      <c r="AH158" s="43"/>
+      <c r="AI158" s="44"/>
     </row>
     <row r="159" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E159" s="30"/>
-      <c r="F159" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="45" t="s">
-        <v>112</v>
-      </c>
+      <c r="F159" s="46"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
+      <c r="S159" s="19"/>
+      <c r="T159" s="19"/>
+      <c r="U159" s="19"/>
+      <c r="V159" s="19"/>
+      <c r="W159" s="19"/>
+      <c r="X159" s="19"/>
+      <c r="Y159" s="19"/>
+      <c r="Z159" s="19"/>
+      <c r="AA159" s="19"/>
+      <c r="AB159" s="19"/>
+      <c r="AC159" s="19"/>
+      <c r="AD159" s="19"/>
+      <c r="AE159" s="19"/>
+      <c r="AF159" s="19"/>
+      <c r="AG159" s="19"/>
+      <c r="AH159" s="19"/>
+      <c r="AI159" s="20"/>
     </row>
     <row r="160" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="30"/>
-      <c r="F160" s="31"/>
-      <c r="G160" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="M160" s="28"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="P160" s="28"/>
-      <c r="Q160" s="28"/>
-      <c r="R160" s="29"/>
-      <c r="S160" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="T160" s="28"/>
-      <c r="U160" s="28"/>
-      <c r="V160" s="28"/>
-      <c r="W160" s="28"/>
-      <c r="X160" s="28"/>
-      <c r="Y160" s="28"/>
-      <c r="Z160" s="28"/>
-      <c r="AA160" s="28"/>
-      <c r="AB160" s="28"/>
-      <c r="AC160" s="28"/>
-      <c r="AD160" s="28"/>
-      <c r="AE160" s="28"/>
-      <c r="AF160" s="28"/>
-      <c r="AG160" s="28"/>
-      <c r="AH160" s="28"/>
-      <c r="AI160" s="29"/>
-    </row>
-    <row r="161" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="46"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="20"/>
+      <c r="P160" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
+      <c r="U160" s="19"/>
+      <c r="V160" s="19"/>
+      <c r="W160" s="19"/>
+      <c r="X160" s="19"/>
+      <c r="Y160" s="19"/>
+      <c r="Z160" s="19"/>
+      <c r="AA160" s="19"/>
+      <c r="AB160" s="19"/>
+      <c r="AC160" s="19"/>
+      <c r="AD160" s="19"/>
+      <c r="AE160" s="19"/>
+      <c r="AF160" s="19"/>
+      <c r="AG160" s="19"/>
+      <c r="AH160" s="19"/>
+      <c r="AI160" s="20"/>
+    </row>
+    <row r="161" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E161" s="30"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H161" s="43"/>
-      <c r="I161" s="43"/>
-      <c r="J161" s="43"/>
-      <c r="K161" s="44"/>
-      <c r="L161" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M161" s="43"/>
-      <c r="N161" s="44"/>
-      <c r="O161" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="P161" s="43"/>
-      <c r="Q161" s="43"/>
-      <c r="R161" s="44"/>
-      <c r="S161" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="T161" s="43"/>
-      <c r="U161" s="43"/>
-      <c r="V161" s="43"/>
-      <c r="W161" s="43"/>
-      <c r="X161" s="43"/>
-      <c r="Y161" s="43"/>
-      <c r="Z161" s="43"/>
-      <c r="AA161" s="43"/>
-      <c r="AB161" s="43"/>
-      <c r="AC161" s="43"/>
-      <c r="AD161" s="43"/>
-      <c r="AE161" s="43"/>
-      <c r="AF161" s="43"/>
-      <c r="AG161" s="43"/>
-      <c r="AH161" s="43"/>
-      <c r="AI161" s="44"/>
-    </row>
-    <row r="162" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F161" s="46"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="40"/>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41"/>
+      <c r="K161" s="41"/>
+      <c r="L161" s="40"/>
+      <c r="M161" s="41"/>
+      <c r="N161" s="41"/>
+      <c r="O161" s="42"/>
+      <c r="P161" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q161" s="41"/>
+      <c r="R161" s="41"/>
+      <c r="S161" s="41"/>
+      <c r="T161" s="41"/>
+      <c r="U161" s="41"/>
+      <c r="V161" s="41"/>
+      <c r="W161" s="41"/>
+      <c r="X161" s="41"/>
+      <c r="Y161" s="41"/>
+      <c r="Z161" s="41"/>
+      <c r="AA161" s="41"/>
+      <c r="AB161" s="41"/>
+      <c r="AC161" s="41"/>
+      <c r="AD161" s="41"/>
+      <c r="AE161" s="41"/>
+      <c r="AF161" s="41"/>
+      <c r="AG161" s="41"/>
+      <c r="AH161" s="41"/>
+      <c r="AI161" s="42"/>
+    </row>
+    <row r="162" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="30"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="20"/>
-      <c r="L162" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="M162" s="19"/>
-      <c r="N162" s="20"/>
-      <c r="O162" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
-      <c r="R162" s="20"/>
-      <c r="S162" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="T162" s="19"/>
-      <c r="U162" s="19"/>
-      <c r="V162" s="19"/>
-      <c r="W162" s="19"/>
-      <c r="X162" s="19"/>
-      <c r="Y162" s="19"/>
-      <c r="Z162" s="19"/>
-      <c r="AA162" s="19"/>
-      <c r="AB162" s="19"/>
-      <c r="AC162" s="19"/>
-      <c r="AD162" s="19"/>
-      <c r="AE162" s="19"/>
-      <c r="AF162" s="19"/>
-      <c r="AG162" s="19"/>
-      <c r="AH162" s="19"/>
-      <c r="AI162" s="20"/>
-    </row>
-    <row r="163" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F162" s="46"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I162" s="41"/>
+      <c r="J162" s="41"/>
+      <c r="K162" s="41"/>
+      <c r="L162" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M162" s="41"/>
+      <c r="N162" s="41"/>
+      <c r="O162" s="42"/>
+      <c r="P162" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q162" s="41"/>
+      <c r="R162" s="41"/>
+      <c r="S162" s="41"/>
+      <c r="T162" s="41"/>
+      <c r="U162" s="41"/>
+      <c r="V162" s="41"/>
+      <c r="W162" s="41"/>
+      <c r="X162" s="41"/>
+      <c r="Y162" s="41"/>
+      <c r="Z162" s="41"/>
+      <c r="AA162" s="41"/>
+      <c r="AB162" s="41"/>
+      <c r="AC162" s="41"/>
+      <c r="AD162" s="41"/>
+      <c r="AE162" s="41"/>
+      <c r="AF162" s="41"/>
+      <c r="AG162" s="41"/>
+      <c r="AH162" s="41"/>
+      <c r="AI162" s="42"/>
+    </row>
+    <row r="163" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E163" s="30"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="40"/>
-      <c r="H163" s="41"/>
-      <c r="I163" s="41"/>
-      <c r="J163" s="41"/>
-      <c r="K163" s="42"/>
-      <c r="L163" s="41"/>
-      <c r="M163" s="41"/>
-      <c r="N163" s="42"/>
-      <c r="O163" s="41"/>
-      <c r="P163" s="41"/>
-      <c r="Q163" s="41"/>
-      <c r="R163" s="42"/>
-      <c r="S163" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="T163" s="41"/>
-      <c r="U163" s="41"/>
-      <c r="V163" s="41"/>
-      <c r="W163" s="41"/>
-      <c r="X163" s="41"/>
-      <c r="Y163" s="41"/>
-      <c r="Z163" s="41"/>
-      <c r="AA163" s="41"/>
-      <c r="AB163" s="41"/>
-      <c r="AC163" s="41"/>
-      <c r="AD163" s="41"/>
-      <c r="AE163" s="41"/>
-      <c r="AF163" s="41"/>
-      <c r="AG163" s="41"/>
-      <c r="AH163" s="41"/>
-      <c r="AI163" s="42"/>
-    </row>
-    <row r="164" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F163" s="46"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="20"/>
+      <c r="P163" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+      <c r="S163" s="19"/>
+      <c r="T163" s="19"/>
+      <c r="U163" s="19"/>
+      <c r="V163" s="19"/>
+      <c r="W163" s="19"/>
+      <c r="X163" s="19"/>
+      <c r="Y163" s="19"/>
+      <c r="Z163" s="19"/>
+      <c r="AA163" s="19"/>
+      <c r="AB163" s="19"/>
+      <c r="AC163" s="19"/>
+      <c r="AD163" s="19"/>
+      <c r="AE163" s="19"/>
+      <c r="AF163" s="19"/>
+      <c r="AG163" s="19"/>
+      <c r="AH163" s="19"/>
+      <c r="AI163" s="20"/>
+    </row>
+    <row r="164" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E164" s="30"/>
-      <c r="F164" s="31"/>
-      <c r="G164" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="H164" s="43"/>
-      <c r="I164" s="43"/>
-      <c r="J164" s="43"/>
-      <c r="K164" s="44"/>
-      <c r="L164" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="M164" s="43"/>
-      <c r="N164" s="44"/>
-      <c r="O164" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="P164" s="43"/>
-      <c r="Q164" s="43"/>
-      <c r="R164" s="44"/>
-      <c r="S164" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="T164" s="43"/>
-      <c r="U164" s="43"/>
-      <c r="V164" s="43"/>
-      <c r="W164" s="43"/>
-      <c r="X164" s="43"/>
-      <c r="Y164" s="43"/>
-      <c r="Z164" s="43"/>
-      <c r="AA164" s="43"/>
-      <c r="AB164" s="43"/>
-      <c r="AC164" s="43"/>
-      <c r="AD164" s="43"/>
-      <c r="AE164" s="43"/>
-      <c r="AF164" s="43"/>
-      <c r="AG164" s="43"/>
-      <c r="AH164" s="43"/>
-      <c r="AI164" s="44"/>
-    </row>
-    <row r="165" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="46"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="20"/>
+      <c r="P164" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
+      <c r="S164" s="19"/>
+      <c r="T164" s="19"/>
+      <c r="U164" s="19"/>
+      <c r="V164" s="19"/>
+      <c r="W164" s="19"/>
+      <c r="X164" s="19"/>
+      <c r="Y164" s="19"/>
+      <c r="Z164" s="19"/>
+      <c r="AA164" s="19"/>
+      <c r="AB164" s="19"/>
+      <c r="AC164" s="19"/>
+      <c r="AD164" s="19"/>
+      <c r="AE164" s="19"/>
+      <c r="AF164" s="19"/>
+      <c r="AG164" s="19"/>
+      <c r="AH164" s="19"/>
+      <c r="AI164" s="20"/>
+    </row>
+    <row r="165" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E165" s="30"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H165" s="43"/>
-      <c r="I165" s="43"/>
-      <c r="J165" s="43"/>
-      <c r="K165" s="44"/>
-      <c r="L165" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="M165" s="43"/>
-      <c r="N165" s="44"/>
-      <c r="O165" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="P165" s="43"/>
-      <c r="Q165" s="43"/>
-      <c r="R165" s="44"/>
-      <c r="S165" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="T165" s="43"/>
-      <c r="U165" s="43"/>
-      <c r="V165" s="43"/>
-      <c r="W165" s="43"/>
-      <c r="X165" s="43"/>
-      <c r="Y165" s="43"/>
-      <c r="Z165" s="43"/>
-      <c r="AA165" s="43"/>
-      <c r="AB165" s="43"/>
-      <c r="AC165" s="43"/>
-      <c r="AD165" s="43"/>
-      <c r="AE165" s="43"/>
-      <c r="AF165" s="43"/>
-      <c r="AG165" s="43"/>
-      <c r="AH165" s="43"/>
-      <c r="AI165" s="44"/>
-    </row>
-    <row r="166" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F165" s="46"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="20"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R165" s="28"/>
+      <c r="S165" s="28"/>
+      <c r="T165" s="28"/>
+      <c r="U165" s="29"/>
+      <c r="V165" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="W165" s="28"/>
+      <c r="X165" s="29"/>
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="19"/>
+      <c r="AA165" s="19"/>
+      <c r="AB165" s="19"/>
+      <c r="AC165" s="19"/>
+      <c r="AD165" s="19"/>
+      <c r="AE165" s="19"/>
+      <c r="AF165" s="19"/>
+      <c r="AG165" s="19"/>
+      <c r="AH165" s="19"/>
+      <c r="AI165" s="20"/>
+    </row>
+    <row r="166" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E166" s="30"/>
-      <c r="F166" s="31"/>
-    </row>
-    <row r="167" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F166" s="46"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="20"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="R166" s="43"/>
+      <c r="S166" s="43"/>
+      <c r="T166" s="43"/>
+      <c r="U166" s="44"/>
+      <c r="V166" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="W166" s="43"/>
+      <c r="X166" s="44"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+      <c r="AB166" s="19"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="19"/>
+      <c r="AE166" s="19"/>
+      <c r="AF166" s="19"/>
+      <c r="AG166" s="19"/>
+      <c r="AH166" s="19"/>
+      <c r="AI166" s="20"/>
+    </row>
+    <row r="167" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E167" s="30"/>
-      <c r="F167" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G167" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="168" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F167" s="46"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="R167" s="41"/>
+      <c r="S167" s="41"/>
+      <c r="T167" s="41"/>
+      <c r="U167" s="42"/>
+      <c r="V167" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="W167" s="41"/>
+      <c r="X167" s="42"/>
+      <c r="Y167" s="19"/>
+      <c r="Z167" s="19"/>
+      <c r="AA167" s="19"/>
+      <c r="AB167" s="19"/>
+      <c r="AC167" s="19"/>
+      <c r="AD167" s="19"/>
+      <c r="AE167" s="19"/>
+      <c r="AF167" s="19"/>
+      <c r="AG167" s="19"/>
+      <c r="AH167" s="19"/>
+      <c r="AI167" s="20"/>
+    </row>
+    <row r="168" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="30"/>
       <c r="F168" s="46"/>
-      <c r="G168" s="30" t="str">
-        <f>F167&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H168" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D169" s="19"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="24"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="24"/>
-      <c r="P169" s="24"/>
-      <c r="Q169" s="24"/>
-      <c r="R169" s="24"/>
-      <c r="S169" s="24"/>
-      <c r="T169" s="24"/>
-      <c r="U169" s="24"/>
-      <c r="V169" s="24"/>
-      <c r="W169" s="24"/>
-      <c r="X169" s="24"/>
-      <c r="Y169" s="24"/>
-      <c r="Z169" s="24"/>
-      <c r="AA169" s="24"/>
-      <c r="AB169" s="24"/>
-      <c r="AC169" s="24"/>
-      <c r="AD169" s="24"/>
-      <c r="AE169" s="24"/>
-      <c r="AF169" s="24"/>
-      <c r="AG169" s="24"/>
-      <c r="AH169" s="24"/>
-      <c r="AI169" s="25"/>
-    </row>
-    <row r="170" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H168" s="40"/>
+      <c r="I168" s="41"/>
+      <c r="J168" s="41"/>
+      <c r="K168" s="41"/>
+      <c r="L168" s="40"/>
+      <c r="M168" s="41"/>
+      <c r="N168" s="41"/>
+      <c r="O168" s="42"/>
+      <c r="P168" s="41"/>
+      <c r="Q168" s="41"/>
+      <c r="R168" s="41"/>
+      <c r="S168" s="41"/>
+      <c r="T168" s="41"/>
+      <c r="U168" s="41"/>
+      <c r="V168" s="41"/>
+      <c r="W168" s="41"/>
+      <c r="X168" s="41"/>
+      <c r="Y168" s="41"/>
+      <c r="Z168" s="41"/>
+      <c r="AA168" s="41"/>
+      <c r="AB168" s="41"/>
+      <c r="AC168" s="41"/>
+      <c r="AD168" s="41"/>
+      <c r="AE168" s="41"/>
+      <c r="AF168" s="41"/>
+      <c r="AG168" s="41"/>
+      <c r="AH168" s="41"/>
+      <c r="AI168" s="42"/>
+    </row>
+    <row r="169" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E169" s="30"/>
+      <c r="F169" s="46"/>
+      <c r="H169" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I169" s="41"/>
+      <c r="J169" s="41"/>
+      <c r="K169" s="41"/>
+      <c r="L169" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="M169" s="41"/>
+      <c r="N169" s="41"/>
+      <c r="O169" s="42"/>
+      <c r="P169" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q169" s="41"/>
+      <c r="R169" s="41"/>
+      <c r="S169" s="41"/>
+      <c r="T169" s="41"/>
+      <c r="U169" s="41"/>
+      <c r="V169" s="41"/>
+      <c r="W169" s="41"/>
+      <c r="X169" s="41"/>
+      <c r="Y169" s="41"/>
+      <c r="Z169" s="41"/>
+      <c r="AA169" s="41"/>
+      <c r="AB169" s="41"/>
+      <c r="AC169" s="41"/>
+      <c r="AD169" s="41"/>
+      <c r="AE169" s="41"/>
+      <c r="AF169" s="41"/>
+      <c r="AG169" s="41"/>
+      <c r="AH169" s="41"/>
+      <c r="AI169" s="42"/>
+    </row>
+    <row r="170" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="46"/>
+      <c r="F170" s="31"/>
       <c r="H170" s="40" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="I170" s="41"/>
       <c r="J170" s="41"/>
       <c r="K170" s="41"/>
-      <c r="L170" s="41"/>
+      <c r="L170" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="M170" s="41"/>
       <c r="N170" s="41"/>
-      <c r="O170" s="41"/>
-      <c r="P170" s="41"/>
+      <c r="O170" s="42"/>
+      <c r="P170" s="41" t="s">
+        <v>172</v>
+      </c>
       <c r="Q170" s="41"/>
       <c r="R170" s="41"/>
       <c r="S170" s="41"/>
@@ -6762,132 +6459,174 @@
       <c r="AH170" s="41"/>
       <c r="AI170" s="42"/>
     </row>
-    <row r="171" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H171" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M171" s="24"/>
+      <c r="N171" s="24"/>
+      <c r="O171" s="24"/>
+      <c r="P171" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q171" s="24"/>
+      <c r="R171" s="24"/>
+      <c r="S171" s="24"/>
+      <c r="T171" s="24"/>
+      <c r="U171" s="24"/>
+      <c r="V171" s="24"/>
+      <c r="W171" s="24"/>
+      <c r="X171" s="24"/>
+      <c r="Y171" s="24"/>
+      <c r="Z171" s="24"/>
+      <c r="AA171" s="24"/>
+      <c r="AB171" s="24"/>
+      <c r="AC171" s="24"/>
+      <c r="AD171" s="24"/>
+      <c r="AE171" s="24"/>
+      <c r="AF171" s="24"/>
+      <c r="AG171" s="24"/>
+      <c r="AH171" s="24"/>
+      <c r="AI171" s="25"/>
+    </row>
+    <row r="172" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E172" s="30"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="173" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E173" s="30"/>
-      <c r="F173" s="46"/>
-    </row>
-    <row r="174" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H172" s="40"/>
+      <c r="I172" s="41"/>
+      <c r="J172" s="41"/>
+      <c r="K172" s="41"/>
+      <c r="L172" s="40"/>
+      <c r="M172" s="41"/>
+      <c r="N172" s="41"/>
+      <c r="O172" s="41"/>
+      <c r="P172" s="40" t="str">
+        <f>"フォーマットは"&amp;$D$106&amp;$E$106&amp;"参照。"</f>
+        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
+      </c>
+      <c r="Q172" s="41"/>
+      <c r="R172" s="41"/>
+      <c r="S172" s="41"/>
+      <c r="T172" s="41"/>
+      <c r="U172" s="41"/>
+      <c r="V172" s="41"/>
+      <c r="W172" s="41"/>
+      <c r="X172" s="41"/>
+      <c r="Y172" s="41"/>
+      <c r="Z172" s="41"/>
+      <c r="AA172" s="41"/>
+      <c r="AB172" s="41"/>
+      <c r="AC172" s="41"/>
+      <c r="AD172" s="41"/>
+      <c r="AE172" s="41"/>
+      <c r="AF172" s="41"/>
+      <c r="AG172" s="41"/>
+      <c r="AH172" s="41"/>
+      <c r="AI172" s="42"/>
+    </row>
+    <row r="173" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E174" s="30"/>
-      <c r="F174" s="46"/>
-      <c r="G174" s="30" t="str">
-        <f>F167&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H174" s="45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="175" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F174" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E175" s="30"/>
       <c r="F175" s="46"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I175" s="28"/>
-      <c r="J175" s="28"/>
-      <c r="K175" s="28"/>
-      <c r="L175" s="28"/>
-      <c r="M175" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="N175" s="28"/>
-      <c r="O175" s="28"/>
-      <c r="P175" s="28"/>
-      <c r="Q175" s="29"/>
-      <c r="R175" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="S175" s="28"/>
-      <c r="T175" s="28"/>
-      <c r="U175" s="28"/>
-      <c r="V175" s="28"/>
-      <c r="W175" s="28"/>
-      <c r="X175" s="28"/>
-      <c r="Y175" s="28"/>
-      <c r="Z175" s="28"/>
-      <c r="AA175" s="28"/>
-      <c r="AB175" s="28"/>
-      <c r="AC175" s="28"/>
-      <c r="AD175" s="28"/>
-      <c r="AE175" s="28"/>
-      <c r="AF175" s="28"/>
-      <c r="AG175" s="28"/>
-      <c r="AH175" s="28"/>
-      <c r="AI175" s="29"/>
-    </row>
-    <row r="176" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G175" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="H175" s="24"/>
+      <c r="I175" s="24"/>
+      <c r="J175" s="24"/>
+      <c r="K175" s="24"/>
+      <c r="L175" s="24"/>
+      <c r="M175" s="24"/>
+      <c r="N175" s="24"/>
+      <c r="O175" s="24"/>
+      <c r="P175" s="24"/>
+      <c r="Q175" s="24"/>
+      <c r="R175" s="24"/>
+      <c r="S175" s="24"/>
+      <c r="T175" s="24"/>
+      <c r="U175" s="24"/>
+      <c r="V175" s="24"/>
+      <c r="W175" s="24"/>
+      <c r="X175" s="24"/>
+      <c r="Y175" s="24"/>
+      <c r="Z175" s="24"/>
+      <c r="AA175" s="24"/>
+      <c r="AB175" s="24"/>
+      <c r="AC175" s="24"/>
+      <c r="AD175" s="24"/>
+      <c r="AE175" s="24"/>
+      <c r="AF175" s="24"/>
+      <c r="AG175" s="24"/>
+      <c r="AH175" s="24"/>
+      <c r="AI175" s="25"/>
+    </row>
+    <row r="176" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E176" s="30"/>
-      <c r="H176" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="I176" s="43"/>
-      <c r="J176" s="43"/>
-      <c r="K176" s="43"/>
-      <c r="L176" s="43"/>
-      <c r="M176" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="N176" s="43"/>
-      <c r="O176" s="43"/>
-      <c r="P176" s="43"/>
-      <c r="Q176" s="44"/>
-      <c r="R176" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S176" s="43"/>
-      <c r="T176" s="43"/>
-      <c r="U176" s="43"/>
-      <c r="V176" s="43"/>
-      <c r="W176" s="43"/>
-      <c r="X176" s="43"/>
-      <c r="Y176" s="43"/>
-      <c r="Z176" s="43"/>
-      <c r="AA176" s="43"/>
-      <c r="AB176" s="43"/>
-      <c r="AC176" s="43"/>
-      <c r="AD176" s="43"/>
-      <c r="AE176" s="43"/>
-      <c r="AF176" s="43"/>
-      <c r="AG176" s="43"/>
-      <c r="AH176" s="43"/>
-      <c r="AI176" s="44"/>
-    </row>
-    <row r="177" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F176" s="46"/>
+      <c r="G176" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="19"/>
+      <c r="L176" s="19"/>
+      <c r="M176" s="19"/>
+      <c r="N176" s="19"/>
+      <c r="O176" s="19"/>
+      <c r="P176" s="19"/>
+      <c r="Q176" s="19"/>
+      <c r="R176" s="19"/>
+      <c r="S176" s="19"/>
+      <c r="T176" s="19"/>
+      <c r="U176" s="19"/>
+      <c r="V176" s="19"/>
+      <c r="W176" s="19"/>
+      <c r="X176" s="19"/>
+      <c r="Y176" s="19"/>
+      <c r="Z176" s="19"/>
+      <c r="AA176" s="19"/>
+      <c r="AB176" s="19"/>
+      <c r="AC176" s="19"/>
+      <c r="AD176" s="19"/>
+      <c r="AE176" s="19"/>
+      <c r="AF176" s="19"/>
+      <c r="AG176" s="19"/>
+      <c r="AH176" s="19"/>
+      <c r="AI176" s="20"/>
+    </row>
+    <row r="177" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E177" s="30"/>
-      <c r="H177" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="F177" s="46"/>
+      <c r="G177" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H177" s="19"/>
       <c r="I177" s="19"/>
       <c r="J177" s="19"/>
       <c r="K177" s="19"/>
       <c r="L177" s="19"/>
-      <c r="M177" s="18" t="s">
-        <v>89</v>
-      </c>
+      <c r="M177" s="19"/>
       <c r="N177" s="19"/>
       <c r="O177" s="19"/>
       <c r="P177" s="19"/>
-      <c r="Q177" s="20"/>
-      <c r="R177" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="Q177" s="19"/>
+      <c r="R177" s="19"/>
       <c r="S177" s="19"/>
       <c r="T177" s="19"/>
       <c r="U177" s="19"/>
@@ -6906,58 +6645,58 @@
       <c r="AH177" s="19"/>
       <c r="AI177" s="20"/>
     </row>
-    <row r="178" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E178" s="30"/>
-      <c r="H178" s="40"/>
-      <c r="I178" s="41"/>
-      <c r="J178" s="41"/>
-      <c r="K178" s="41"/>
-      <c r="L178" s="41"/>
-      <c r="M178" s="40"/>
-      <c r="N178" s="41"/>
-      <c r="O178" s="41"/>
-      <c r="P178" s="41"/>
-      <c r="Q178" s="42"/>
-      <c r="R178" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="S178" s="41"/>
-      <c r="T178" s="41"/>
-      <c r="U178" s="41"/>
-      <c r="V178" s="41"/>
-      <c r="W178" s="41"/>
-      <c r="X178" s="41"/>
-      <c r="Y178" s="41"/>
-      <c r="Z178" s="41"/>
-      <c r="AA178" s="41"/>
-      <c r="AB178" s="41"/>
-      <c r="AC178" s="41"/>
-      <c r="AD178" s="41"/>
-      <c r="AE178" s="41"/>
-      <c r="AF178" s="41"/>
-      <c r="AG178" s="41"/>
-      <c r="AH178" s="41"/>
-      <c r="AI178" s="42"/>
-    </row>
-    <row r="179" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F178" s="46"/>
+      <c r="G178" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
+      <c r="L178" s="19"/>
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+      <c r="O178" s="19"/>
+      <c r="P178" s="19"/>
+      <c r="Q178" s="19"/>
+      <c r="R178" s="19"/>
+      <c r="S178" s="19"/>
+      <c r="T178" s="19"/>
+      <c r="U178" s="19"/>
+      <c r="V178" s="19"/>
+      <c r="W178" s="19"/>
+      <c r="X178" s="19"/>
+      <c r="Y178" s="19"/>
+      <c r="Z178" s="19"/>
+      <c r="AA178" s="19"/>
+      <c r="AB178" s="19"/>
+      <c r="AC178" s="19"/>
+      <c r="AD178" s="19"/>
+      <c r="AE178" s="19"/>
+      <c r="AF178" s="19"/>
+      <c r="AG178" s="19"/>
+      <c r="AH178" s="19"/>
+      <c r="AI178" s="20"/>
+    </row>
+    <row r="179" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E179" s="30"/>
-      <c r="H179" s="40" t="s">
-        <v>115</v>
-      </c>
+      <c r="F179" s="46"/>
+      <c r="G179" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H179" s="41"/>
       <c r="I179" s="41"/>
       <c r="J179" s="41"/>
       <c r="K179" s="41"/>
       <c r="L179" s="41"/>
-      <c r="M179" s="40" t="s">
-        <v>120</v>
-      </c>
+      <c r="M179" s="41"/>
       <c r="N179" s="41"/>
       <c r="O179" s="41"/>
       <c r="P179" s="41"/>
-      <c r="Q179" s="42"/>
-      <c r="R179" s="41" t="s">
-        <v>115</v>
-      </c>
+      <c r="Q179" s="41"/>
+      <c r="R179" s="41"/>
       <c r="S179" s="41"/>
       <c r="T179" s="41"/>
       <c r="U179" s="41"/>
@@ -6976,245 +6715,198 @@
       <c r="AH179" s="41"/>
       <c r="AI179" s="42"/>
     </row>
-    <row r="180" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E180" s="30"/>
-      <c r="H180" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I180" s="41"/>
-      <c r="J180" s="41"/>
-      <c r="K180" s="41"/>
-      <c r="L180" s="41"/>
-      <c r="M180" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N180" s="41"/>
-      <c r="O180" s="41"/>
-      <c r="P180" s="41"/>
-      <c r="Q180" s="42"/>
-      <c r="R180" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="S180" s="41"/>
-      <c r="T180" s="41"/>
-      <c r="U180" s="41"/>
-      <c r="V180" s="41"/>
-      <c r="W180" s="41"/>
-      <c r="X180" s="41"/>
-      <c r="Y180" s="41"/>
-      <c r="Z180" s="41"/>
-      <c r="AA180" s="41"/>
-      <c r="AB180" s="41"/>
-      <c r="AC180" s="41"/>
-      <c r="AD180" s="41"/>
-      <c r="AE180" s="41"/>
-      <c r="AF180" s="41"/>
-      <c r="AG180" s="41"/>
-      <c r="AH180" s="41"/>
-      <c r="AI180" s="42"/>
-    </row>
-    <row r="181" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E181" s="30"/>
-      <c r="H181" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="I181" s="43"/>
-      <c r="J181" s="43"/>
-      <c r="K181" s="43"/>
-      <c r="L181" s="43"/>
-      <c r="M181" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="N181" s="43"/>
-      <c r="O181" s="43"/>
-      <c r="P181" s="43"/>
-      <c r="Q181" s="44"/>
-      <c r="R181" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="S181" s="43"/>
-      <c r="T181" s="43"/>
-      <c r="U181" s="43"/>
-      <c r="V181" s="43"/>
-      <c r="W181" s="43"/>
-      <c r="X181" s="43"/>
-      <c r="Y181" s="43"/>
-      <c r="Z181" s="43"/>
-      <c r="AA181" s="43"/>
-      <c r="AB181" s="43"/>
-      <c r="AC181" s="43"/>
-      <c r="AD181" s="43"/>
-      <c r="AE181" s="43"/>
-      <c r="AF181" s="43"/>
-      <c r="AG181" s="43"/>
-      <c r="AH181" s="43"/>
-      <c r="AI181" s="44"/>
-    </row>
-    <row r="182" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F180" s="46"/>
+      <c r="G180" s="50"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="19"/>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="19"/>
+      <c r="S180" s="19"/>
+      <c r="T180" s="19"/>
+      <c r="U180" s="19"/>
+      <c r="V180" s="19"/>
+      <c r="W180" s="19"/>
+      <c r="X180" s="19"/>
+      <c r="Y180" s="19"/>
+      <c r="Z180" s="19"/>
+      <c r="AA180" s="19"/>
+      <c r="AB180" s="19"/>
+      <c r="AC180" s="19"/>
+      <c r="AD180" s="19"/>
+      <c r="AE180" s="19"/>
+      <c r="AF180" s="19"/>
+      <c r="AG180" s="19"/>
+      <c r="AH180" s="19"/>
+      <c r="AI180" s="19"/>
+    </row>
+    <row r="181" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E181" s="30" t="str">
+        <f>$D$141&amp;"2."</f>
+        <v>7.13.4.2.</v>
+      </c>
+      <c r="F181" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="182" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E182" s="30"/>
-      <c r="H182" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="I182" s="41"/>
-      <c r="J182" s="41"/>
-      <c r="K182" s="41"/>
-      <c r="L182" s="41"/>
-      <c r="M182" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="N182" s="41"/>
-      <c r="O182" s="41"/>
-      <c r="P182" s="41"/>
-      <c r="Q182" s="42"/>
-      <c r="R182" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="S182" s="41"/>
-      <c r="T182" s="41"/>
-      <c r="U182" s="41"/>
-      <c r="V182" s="41"/>
-      <c r="W182" s="41"/>
-      <c r="X182" s="41"/>
-      <c r="Y182" s="41"/>
-      <c r="Z182" s="41"/>
-      <c r="AA182" s="41"/>
-      <c r="AB182" s="41"/>
-      <c r="AC182" s="41"/>
-      <c r="AD182" s="41"/>
-      <c r="AE182" s="41"/>
-      <c r="AF182" s="41"/>
-      <c r="AG182" s="41"/>
-      <c r="AH182" s="41"/>
-      <c r="AI182" s="42"/>
-    </row>
-    <row r="183" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F182" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E183" s="30"/>
-      <c r="H183" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I183" s="41"/>
-      <c r="J183" s="41"/>
-      <c r="K183" s="41"/>
-      <c r="L183" s="41"/>
-      <c r="M183" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="N183" s="41"/>
-      <c r="O183" s="41"/>
-      <c r="P183" s="41"/>
-      <c r="Q183" s="42"/>
-      <c r="R183" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="S183" s="41"/>
-      <c r="T183" s="41"/>
-      <c r="U183" s="41"/>
-      <c r="V183" s="41"/>
-      <c r="W183" s="41"/>
-      <c r="X183" s="41"/>
-      <c r="Y183" s="41"/>
-      <c r="Z183" s="41"/>
-      <c r="AA183" s="41"/>
-      <c r="AB183" s="41"/>
-      <c r="AC183" s="41"/>
-      <c r="AD183" s="41"/>
-      <c r="AE183" s="41"/>
-      <c r="AF183" s="41"/>
-      <c r="AG183" s="41"/>
-      <c r="AH183" s="41"/>
-      <c r="AI183" s="42"/>
-    </row>
-    <row r="184" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F183" s="31"/>
+      <c r="G183" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H183" s="28"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="29"/>
+      <c r="L183" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M183" s="28"/>
+      <c r="N183" s="29"/>
+      <c r="O183" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="P183" s="28"/>
+      <c r="Q183" s="28"/>
+      <c r="R183" s="29"/>
+      <c r="S183" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="T183" s="28"/>
+      <c r="U183" s="28"/>
+      <c r="V183" s="28"/>
+      <c r="W183" s="28"/>
+      <c r="X183" s="28"/>
+      <c r="Y183" s="28"/>
+      <c r="Z183" s="28"/>
+      <c r="AA183" s="28"/>
+      <c r="AB183" s="28"/>
+      <c r="AC183" s="28"/>
+      <c r="AD183" s="28"/>
+      <c r="AE183" s="28"/>
+      <c r="AF183" s="28"/>
+      <c r="AG183" s="28"/>
+      <c r="AH183" s="28"/>
+      <c r="AI183" s="29"/>
+    </row>
+    <row r="184" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E184" s="30"/>
-      <c r="H184" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I184" s="41"/>
-      <c r="J184" s="41"/>
-      <c r="K184" s="41"/>
-      <c r="L184" s="41"/>
-      <c r="M184" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="N184" s="41"/>
-      <c r="O184" s="41"/>
-      <c r="P184" s="41"/>
-      <c r="Q184" s="42"/>
-      <c r="R184" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="S184" s="41"/>
-      <c r="T184" s="41"/>
-      <c r="U184" s="41"/>
-      <c r="V184" s="41"/>
-      <c r="W184" s="41"/>
-      <c r="X184" s="41"/>
-      <c r="Y184" s="41"/>
-      <c r="Z184" s="41"/>
-      <c r="AA184" s="41"/>
-      <c r="AB184" s="41"/>
-      <c r="AC184" s="41"/>
-      <c r="AD184" s="41"/>
-      <c r="AE184" s="41"/>
-      <c r="AF184" s="41"/>
-      <c r="AG184" s="41"/>
-      <c r="AH184" s="41"/>
-      <c r="AI184" s="42"/>
-    </row>
-    <row r="185" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F184" s="31"/>
+      <c r="G184" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H184" s="43"/>
+      <c r="I184" s="43"/>
+      <c r="J184" s="43"/>
+      <c r="K184" s="44"/>
+      <c r="L184" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M184" s="43"/>
+      <c r="N184" s="44"/>
+      <c r="O184" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="P184" s="43"/>
+      <c r="Q184" s="43"/>
+      <c r="R184" s="44"/>
+      <c r="S184" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="T184" s="43"/>
+      <c r="U184" s="43"/>
+      <c r="V184" s="43"/>
+      <c r="W184" s="43"/>
+      <c r="X184" s="43"/>
+      <c r="Y184" s="43"/>
+      <c r="Z184" s="43"/>
+      <c r="AA184" s="43"/>
+      <c r="AB184" s="43"/>
+      <c r="AC184" s="43"/>
+      <c r="AD184" s="43"/>
+      <c r="AE184" s="43"/>
+      <c r="AF184" s="43"/>
+      <c r="AG184" s="43"/>
+      <c r="AH184" s="43"/>
+      <c r="AI184" s="44"/>
+    </row>
+    <row r="185" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E185" s="30"/>
-      <c r="H185" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I185" s="24"/>
-      <c r="J185" s="24"/>
-      <c r="K185" s="24"/>
-      <c r="L185" s="25"/>
-      <c r="M185" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="N185" s="24"/>
-      <c r="O185" s="24"/>
-      <c r="P185" s="24"/>
-      <c r="Q185" s="25"/>
-      <c r="R185" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="S185" s="24"/>
-      <c r="T185" s="24"/>
-      <c r="U185" s="24"/>
-      <c r="V185" s="24"/>
-      <c r="W185" s="24"/>
-      <c r="X185" s="24"/>
-      <c r="Y185" s="24"/>
-      <c r="Z185" s="24"/>
-      <c r="AA185" s="24"/>
-      <c r="AB185" s="24"/>
-      <c r="AC185" s="24"/>
-      <c r="AD185" s="24"/>
-      <c r="AE185" s="24"/>
-      <c r="AF185" s="24"/>
-      <c r="AG185" s="24"/>
-      <c r="AH185" s="24"/>
-      <c r="AI185" s="25"/>
-    </row>
-    <row r="186" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F185" s="31"/>
+      <c r="G185" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M185" s="19"/>
+      <c r="N185" s="20"/>
+      <c r="O185" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="20"/>
+      <c r="S185" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="T185" s="19"/>
+      <c r="U185" s="19"/>
+      <c r="V185" s="19"/>
+      <c r="W185" s="19"/>
+      <c r="X185" s="19"/>
+      <c r="Y185" s="19"/>
+      <c r="Z185" s="19"/>
+      <c r="AA185" s="19"/>
+      <c r="AB185" s="19"/>
+      <c r="AC185" s="19"/>
+      <c r="AD185" s="19"/>
+      <c r="AE185" s="19"/>
+      <c r="AF185" s="19"/>
+      <c r="AG185" s="19"/>
+      <c r="AH185" s="19"/>
+      <c r="AI185" s="20"/>
+    </row>
+    <row r="186" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E186" s="30"/>
-      <c r="H186" s="40"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="40"/>
+      <c r="H186" s="41"/>
       <c r="I186" s="41"/>
       <c r="J186" s="41"/>
-      <c r="K186" s="41"/>
-      <c r="L186" s="42"/>
-      <c r="M186" s="40"/>
-      <c r="N186" s="41"/>
+      <c r="K186" s="42"/>
+      <c r="L186" s="41"/>
+      <c r="M186" s="41"/>
+      <c r="N186" s="42"/>
       <c r="O186" s="41"/>
       <c r="P186" s="41"/>
-      <c r="Q186" s="42"/>
-      <c r="R186" s="40" t="str">
-        <f>"ログの種類ごとのフォーマットは"&amp;$D$106&amp;$E$106&amp;"を参照。"</f>
-        <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
-      </c>
-      <c r="S186" s="41"/>
+      <c r="Q186" s="41"/>
+      <c r="R186" s="42"/>
+      <c r="S186" s="41" t="s">
+        <v>143</v>
+      </c>
       <c r="T186" s="41"/>
       <c r="U186" s="41"/>
       <c r="V186" s="41"/>
@@ -7232,437 +6924,453 @@
       <c r="AH186" s="41"/>
       <c r="AI186" s="42"/>
     </row>
-    <row r="187" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E187" s="30"/>
-      <c r="H187" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I187" s="24"/>
-      <c r="J187" s="24"/>
-      <c r="K187" s="24"/>
-      <c r="L187" s="25"/>
-      <c r="M187" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="N187" s="24"/>
-      <c r="O187" s="24"/>
-      <c r="P187" s="24"/>
-      <c r="Q187" s="25"/>
-      <c r="R187" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="S187" s="24"/>
-      <c r="T187" s="24"/>
-      <c r="U187" s="24"/>
-      <c r="V187" s="24"/>
-      <c r="W187" s="24"/>
-      <c r="X187" s="24"/>
-      <c r="Y187" s="24"/>
-      <c r="Z187" s="24"/>
-      <c r="AA187" s="24"/>
-      <c r="AB187" s="24"/>
-      <c r="AC187" s="24"/>
-      <c r="AD187" s="24"/>
-      <c r="AE187" s="24"/>
-      <c r="AF187" s="24"/>
-      <c r="AG187" s="24"/>
-      <c r="AH187" s="24"/>
-      <c r="AI187" s="25"/>
-    </row>
-    <row r="188" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F187" s="31"/>
+      <c r="G187" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="H187" s="43"/>
+      <c r="I187" s="43"/>
+      <c r="J187" s="43"/>
+      <c r="K187" s="44"/>
+      <c r="L187" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="M187" s="43"/>
+      <c r="N187" s="44"/>
+      <c r="O187" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="P187" s="43"/>
+      <c r="Q187" s="43"/>
+      <c r="R187" s="44"/>
+      <c r="S187" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="T187" s="43"/>
+      <c r="U187" s="43"/>
+      <c r="V187" s="43"/>
+      <c r="W187" s="43"/>
+      <c r="X187" s="43"/>
+      <c r="Y187" s="43"/>
+      <c r="Z187" s="43"/>
+      <c r="AA187" s="43"/>
+      <c r="AB187" s="43"/>
+      <c r="AC187" s="43"/>
+      <c r="AD187" s="43"/>
+      <c r="AE187" s="43"/>
+      <c r="AF187" s="43"/>
+      <c r="AG187" s="43"/>
+      <c r="AH187" s="43"/>
+      <c r="AI187" s="44"/>
+    </row>
+    <row r="188" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E188" s="30"/>
-      <c r="H188" s="40"/>
-      <c r="I188" s="41"/>
-      <c r="J188" s="41"/>
-      <c r="K188" s="41"/>
-      <c r="L188" s="42"/>
-      <c r="M188" s="40"/>
-      <c r="N188" s="41"/>
-      <c r="O188" s="41"/>
-      <c r="P188" s="41"/>
-      <c r="Q188" s="42"/>
-      <c r="R188" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="S188" s="41"/>
-      <c r="T188" s="41"/>
-      <c r="U188" s="41"/>
-      <c r="V188" s="41"/>
-      <c r="W188" s="41"/>
-      <c r="X188" s="41"/>
-      <c r="Y188" s="41"/>
-      <c r="Z188" s="41"/>
-      <c r="AA188" s="41"/>
-      <c r="AB188" s="41"/>
-      <c r="AC188" s="41"/>
-      <c r="AD188" s="41"/>
-      <c r="AE188" s="41"/>
-      <c r="AF188" s="41"/>
-      <c r="AG188" s="41"/>
-      <c r="AH188" s="41"/>
-      <c r="AI188" s="42"/>
-    </row>
-    <row r="189" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F188" s="31"/>
+      <c r="G188" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H188" s="43"/>
+      <c r="I188" s="43"/>
+      <c r="J188" s="43"/>
+      <c r="K188" s="44"/>
+      <c r="L188" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="M188" s="43"/>
+      <c r="N188" s="44"/>
+      <c r="O188" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="P188" s="43"/>
+      <c r="Q188" s="43"/>
+      <c r="R188" s="44"/>
+      <c r="S188" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="T188" s="43"/>
+      <c r="U188" s="43"/>
+      <c r="V188" s="43"/>
+      <c r="W188" s="43"/>
+      <c r="X188" s="43"/>
+      <c r="Y188" s="43"/>
+      <c r="Z188" s="43"/>
+      <c r="AA188" s="43"/>
+      <c r="AB188" s="43"/>
+      <c r="AC188" s="43"/>
+      <c r="AD188" s="43"/>
+      <c r="AE188" s="43"/>
+      <c r="AF188" s="43"/>
+      <c r="AG188" s="43"/>
+      <c r="AH188" s="43"/>
+      <c r="AI188" s="44"/>
+    </row>
+    <row r="189" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E189" s="30"/>
-      <c r="H189" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="N189" s="19"/>
-      <c r="O189" s="19"/>
-      <c r="P189" s="19"/>
-      <c r="Q189" s="20"/>
-      <c r="R189" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="S189" s="19"/>
-      <c r="T189" s="19"/>
-      <c r="U189" s="19"/>
-      <c r="V189" s="19"/>
-      <c r="W189" s="19"/>
-      <c r="X189" s="19"/>
-      <c r="Y189" s="19"/>
-      <c r="Z189" s="19"/>
-      <c r="AA189" s="19"/>
-      <c r="AB189" s="19"/>
-      <c r="AC189" s="19"/>
-      <c r="AD189" s="19"/>
-      <c r="AE189" s="19"/>
-      <c r="AF189" s="19"/>
-      <c r="AG189" s="19"/>
-      <c r="AH189" s="19"/>
-      <c r="AI189" s="20"/>
-    </row>
-    <row r="190" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F189" s="31"/>
+    </row>
+    <row r="190" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E190" s="30"/>
-      <c r="H190" s="40"/>
-      <c r="I190" s="41"/>
-      <c r="J190" s="41"/>
-      <c r="K190" s="41"/>
-      <c r="L190" s="41"/>
-      <c r="M190" s="40"/>
-      <c r="N190" s="41"/>
-      <c r="O190" s="41"/>
-      <c r="P190" s="41"/>
-      <c r="Q190" s="42"/>
-      <c r="R190" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="S190" s="41"/>
-      <c r="T190" s="41"/>
-      <c r="U190" s="41"/>
-      <c r="V190" s="41"/>
-      <c r="W190" s="41"/>
-      <c r="X190" s="41"/>
-      <c r="Y190" s="41"/>
-      <c r="Z190" s="41"/>
-      <c r="AA190" s="41"/>
-      <c r="AB190" s="41"/>
-      <c r="AC190" s="41"/>
-      <c r="AD190" s="41"/>
-      <c r="AE190" s="41"/>
-      <c r="AF190" s="41"/>
-      <c r="AG190" s="41"/>
-      <c r="AH190" s="41"/>
-      <c r="AI190" s="42"/>
-    </row>
-    <row r="191" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F190" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G190" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="191" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E191" s="30"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
-      <c r="R191" s="19"/>
-      <c r="S191" s="19"/>
-      <c r="T191" s="19"/>
-      <c r="U191" s="19"/>
-      <c r="V191" s="19"/>
-      <c r="W191" s="19"/>
-      <c r="X191" s="19"/>
-      <c r="Y191" s="19"/>
-      <c r="Z191" s="19"/>
-      <c r="AA191" s="19"/>
-      <c r="AB191" s="19"/>
-      <c r="AC191" s="19"/>
-      <c r="AD191" s="19"/>
-      <c r="AE191" s="19"/>
-      <c r="AF191" s="19"/>
-      <c r="AG191" s="19"/>
-      <c r="AH191" s="19"/>
-      <c r="AI191" s="19"/>
-    </row>
-    <row r="192" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E192" s="30"/>
-      <c r="F192" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" s="45" t="s">
-        <v>17</v>
-      </c>
+      <c r="F191" s="46"/>
+      <c r="G191" s="30" t="str">
+        <f>F190&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H191" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D192" s="19"/>
+      <c r="E192" s="37"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I192" s="24"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="24"/>
+      <c r="L192" s="24"/>
+      <c r="M192" s="24"/>
+      <c r="N192" s="24"/>
+      <c r="O192" s="24"/>
+      <c r="P192" s="24"/>
+      <c r="Q192" s="24"/>
+      <c r="R192" s="24"/>
+      <c r="S192" s="24"/>
+      <c r="T192" s="24"/>
+      <c r="U192" s="24"/>
+      <c r="V192" s="24"/>
+      <c r="W192" s="24"/>
+      <c r="X192" s="24"/>
+      <c r="Y192" s="24"/>
+      <c r="Z192" s="24"/>
+      <c r="AA192" s="24"/>
+      <c r="AB192" s="24"/>
+      <c r="AC192" s="24"/>
+      <c r="AD192" s="24"/>
+      <c r="AE192" s="24"/>
+      <c r="AF192" s="24"/>
+      <c r="AG192" s="24"/>
+      <c r="AH192" s="24"/>
+      <c r="AI192" s="25"/>
     </row>
     <row r="193" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E193" s="30"/>
-      <c r="F193" s="46"/>
-      <c r="G193" s="45" t="s">
-        <v>163</v>
-      </c>
+      <c r="F193" s="30"/>
+      <c r="G193" s="46"/>
+      <c r="H193" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="I193" s="41"/>
+      <c r="J193" s="41"/>
+      <c r="K193" s="41"/>
+      <c r="L193" s="41"/>
+      <c r="M193" s="41"/>
+      <c r="N193" s="41"/>
+      <c r="O193" s="41"/>
+      <c r="P193" s="41"/>
+      <c r="Q193" s="41"/>
+      <c r="R193" s="41"/>
+      <c r="S193" s="41"/>
+      <c r="T193" s="41"/>
+      <c r="U193" s="41"/>
+      <c r="V193" s="41"/>
+      <c r="W193" s="41"/>
+      <c r="X193" s="41"/>
+      <c r="Y193" s="41"/>
+      <c r="Z193" s="41"/>
+      <c r="AA193" s="41"/>
+      <c r="AB193" s="41"/>
+      <c r="AC193" s="41"/>
+      <c r="AD193" s="41"/>
+      <c r="AE193" s="41"/>
+      <c r="AF193" s="41"/>
+      <c r="AG193" s="41"/>
+      <c r="AH193" s="41"/>
+      <c r="AI193" s="42"/>
     </row>
     <row r="194" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E194" s="30"/>
-      <c r="F194" s="46"/>
-      <c r="G194" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="H194" s="24"/>
-      <c r="I194" s="24"/>
-      <c r="J194" s="24"/>
-      <c r="K194" s="24"/>
-      <c r="L194" s="24"/>
-      <c r="M194" s="24"/>
-      <c r="N194" s="24"/>
-      <c r="O194" s="24"/>
-      <c r="P194" s="24"/>
-      <c r="Q194" s="24"/>
-      <c r="R194" s="24"/>
-      <c r="S194" s="24"/>
-      <c r="T194" s="24"/>
-      <c r="U194" s="24"/>
-      <c r="V194" s="24"/>
-      <c r="W194" s="24"/>
-      <c r="X194" s="24"/>
-      <c r="Y194" s="24"/>
-      <c r="Z194" s="24"/>
-      <c r="AA194" s="24"/>
-      <c r="AB194" s="24"/>
-      <c r="AC194" s="24"/>
-      <c r="AD194" s="24"/>
-      <c r="AE194" s="24"/>
-      <c r="AF194" s="24"/>
-      <c r="AG194" s="24"/>
-      <c r="AH194" s="24"/>
-      <c r="AI194" s="25"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="45" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="195" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E195" s="30"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H195" s="41"/>
-      <c r="I195" s="41"/>
-      <c r="J195" s="41"/>
-      <c r="K195" s="41"/>
-      <c r="L195" s="41"/>
-      <c r="M195" s="41"/>
-      <c r="N195" s="41"/>
-      <c r="O195" s="41"/>
-      <c r="P195" s="41"/>
-      <c r="Q195" s="41"/>
-      <c r="R195" s="41"/>
-      <c r="S195" s="41"/>
-      <c r="T195" s="41"/>
-      <c r="U195" s="41"/>
-      <c r="V195" s="41"/>
-      <c r="W195" s="41"/>
-      <c r="X195" s="41"/>
-      <c r="Y195" s="41"/>
-      <c r="Z195" s="41"/>
-      <c r="AA195" s="41"/>
-      <c r="AB195" s="41"/>
-      <c r="AC195" s="41"/>
-      <c r="AD195" s="41"/>
-      <c r="AE195" s="41"/>
-      <c r="AF195" s="41"/>
-      <c r="AG195" s="41"/>
-      <c r="AH195" s="41"/>
-      <c r="AI195" s="42"/>
+      <c r="F195" s="30"/>
+      <c r="G195" s="46"/>
+      <c r="H195" s="45" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="196" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E196" s="30"/>
       <c r="F196" s="46"/>
-      <c r="G196" s="50"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="19"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
-      <c r="N196" s="19"/>
-      <c r="O196" s="19"/>
-      <c r="P196" s="19"/>
-      <c r="Q196" s="19"/>
-      <c r="R196" s="19"/>
-      <c r="S196" s="19"/>
-      <c r="T196" s="19"/>
-      <c r="U196" s="19"/>
-      <c r="V196" s="19"/>
-      <c r="W196" s="19"/>
-      <c r="X196" s="19"/>
-      <c r="Y196" s="19"/>
-      <c r="Z196" s="19"/>
-      <c r="AA196" s="19"/>
-      <c r="AB196" s="19"/>
-      <c r="AC196" s="19"/>
-      <c r="AD196" s="19"/>
-      <c r="AE196" s="19"/>
-      <c r="AF196" s="19"/>
-      <c r="AG196" s="19"/>
-      <c r="AH196" s="19"/>
-      <c r="AI196" s="19"/>
     </row>
     <row r="197" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E197" s="30" t="str">
-        <f>$D$118&amp;"3."</f>
-        <v>7.13.4.3.</v>
-      </c>
-      <c r="F197" s="31" t="s">
-        <v>252</v>
+      <c r="E197" s="30"/>
+      <c r="F197" s="46"/>
+      <c r="G197" s="30" t="str">
+        <f>F190&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H197" s="45" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="198" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="30"/>
-      <c r="F198" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" s="45" t="s">
-        <v>112</v>
-      </c>
+      <c r="F198" s="46"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I198" s="28"/>
+      <c r="J198" s="28"/>
+      <c r="K198" s="28"/>
+      <c r="L198" s="28"/>
+      <c r="M198" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N198" s="28"/>
+      <c r="O198" s="28"/>
+      <c r="P198" s="28"/>
+      <c r="Q198" s="29"/>
+      <c r="R198" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S198" s="28"/>
+      <c r="T198" s="28"/>
+      <c r="U198" s="28"/>
+      <c r="V198" s="28"/>
+      <c r="W198" s="28"/>
+      <c r="X198" s="28"/>
+      <c r="Y198" s="28"/>
+      <c r="Z198" s="28"/>
+      <c r="AA198" s="28"/>
+      <c r="AB198" s="28"/>
+      <c r="AC198" s="28"/>
+      <c r="AD198" s="28"/>
+      <c r="AE198" s="28"/>
+      <c r="AF198" s="28"/>
+      <c r="AG198" s="28"/>
+      <c r="AH198" s="28"/>
+      <c r="AI198" s="29"/>
     </row>
     <row r="199" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E199" s="30"/>
-      <c r="F199" s="31"/>
-      <c r="G199" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H199" s="28"/>
-      <c r="I199" s="29"/>
-      <c r="J199" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="K199" s="28"/>
-      <c r="L199" s="29"/>
-      <c r="M199" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="N199" s="28"/>
-      <c r="O199" s="28"/>
-      <c r="P199" s="28"/>
-      <c r="Q199" s="29"/>
-      <c r="R199" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="S199" s="28"/>
-      <c r="T199" s="28"/>
-      <c r="U199" s="28"/>
-      <c r="V199" s="28"/>
-      <c r="W199" s="28"/>
-      <c r="X199" s="28"/>
-      <c r="Y199" s="28"/>
-      <c r="Z199" s="28"/>
-      <c r="AA199" s="28"/>
-      <c r="AB199" s="28"/>
-      <c r="AC199" s="28"/>
-      <c r="AD199" s="28"/>
-      <c r="AE199" s="28"/>
-      <c r="AF199" s="28"/>
-      <c r="AG199" s="28"/>
-      <c r="AH199" s="28"/>
-      <c r="AI199" s="29"/>
+      <c r="H199" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I199" s="43"/>
+      <c r="J199" s="43"/>
+      <c r="K199" s="43"/>
+      <c r="L199" s="43"/>
+      <c r="M199" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="N199" s="43"/>
+      <c r="O199" s="43"/>
+      <c r="P199" s="43"/>
+      <c r="Q199" s="44"/>
+      <c r="R199" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="S199" s="43"/>
+      <c r="T199" s="43"/>
+      <c r="U199" s="43"/>
+      <c r="V199" s="43"/>
+      <c r="W199" s="43"/>
+      <c r="X199" s="43"/>
+      <c r="Y199" s="43"/>
+      <c r="Z199" s="43"/>
+      <c r="AA199" s="43"/>
+      <c r="AB199" s="43"/>
+      <c r="AC199" s="43"/>
+      <c r="AD199" s="43"/>
+      <c r="AE199" s="43"/>
+      <c r="AF199" s="43"/>
+      <c r="AG199" s="43"/>
+      <c r="AH199" s="43"/>
+      <c r="AI199" s="44"/>
     </row>
     <row r="200" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E200" s="30"/>
-      <c r="F200" s="31"/>
-      <c r="G200" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H200" s="43"/>
-      <c r="I200" s="44"/>
-      <c r="J200" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="K200" s="43"/>
-      <c r="L200" s="44"/>
-      <c r="M200" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="N200" s="43"/>
-      <c r="O200" s="43"/>
-      <c r="P200" s="43"/>
-      <c r="Q200" s="44"/>
-      <c r="R200" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="S200" s="43"/>
-      <c r="T200" s="43"/>
-      <c r="U200" s="43"/>
-      <c r="V200" s="43"/>
-      <c r="W200" s="43"/>
-      <c r="X200" s="43"/>
-      <c r="Y200" s="43"/>
-      <c r="Z200" s="43"/>
-      <c r="AA200" s="43"/>
-      <c r="AB200" s="43"/>
-      <c r="AC200" s="43"/>
-      <c r="AD200" s="43"/>
-      <c r="AE200" s="43"/>
-      <c r="AF200" s="43"/>
-      <c r="AG200" s="43"/>
-      <c r="AH200" s="43"/>
-      <c r="AI200" s="44"/>
+      <c r="H200" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I200" s="19"/>
+      <c r="J200" s="19"/>
+      <c r="K200" s="19"/>
+      <c r="L200" s="19"/>
+      <c r="M200" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N200" s="19"/>
+      <c r="O200" s="19"/>
+      <c r="P200" s="19"/>
+      <c r="Q200" s="20"/>
+      <c r="R200" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="S200" s="19"/>
+      <c r="T200" s="19"/>
+      <c r="U200" s="19"/>
+      <c r="V200" s="19"/>
+      <c r="W200" s="19"/>
+      <c r="X200" s="19"/>
+      <c r="Y200" s="19"/>
+      <c r="Z200" s="19"/>
+      <c r="AA200" s="19"/>
+      <c r="AB200" s="19"/>
+      <c r="AC200" s="19"/>
+      <c r="AD200" s="19"/>
+      <c r="AE200" s="19"/>
+      <c r="AF200" s="19"/>
+      <c r="AG200" s="19"/>
+      <c r="AH200" s="19"/>
+      <c r="AI200" s="20"/>
     </row>
     <row r="201" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E201" s="30"/>
-      <c r="F201" s="31"/>
+      <c r="H201" s="40"/>
+      <c r="I201" s="41"/>
+      <c r="J201" s="41"/>
+      <c r="K201" s="41"/>
+      <c r="L201" s="41"/>
+      <c r="M201" s="40"/>
+      <c r="N201" s="41"/>
+      <c r="O201" s="41"/>
+      <c r="P201" s="41"/>
+      <c r="Q201" s="42"/>
+      <c r="R201" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="S201" s="41"/>
+      <c r="T201" s="41"/>
+      <c r="U201" s="41"/>
+      <c r="V201" s="41"/>
+      <c r="W201" s="41"/>
+      <c r="X201" s="41"/>
+      <c r="Y201" s="41"/>
+      <c r="Z201" s="41"/>
+      <c r="AA201" s="41"/>
+      <c r="AB201" s="41"/>
+      <c r="AC201" s="41"/>
+      <c r="AD201" s="41"/>
+      <c r="AE201" s="41"/>
+      <c r="AF201" s="41"/>
+      <c r="AG201" s="41"/>
+      <c r="AH201" s="41"/>
+      <c r="AI201" s="42"/>
     </row>
     <row r="202" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E202" s="30"/>
-      <c r="F202" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G202" s="45" t="s">
-        <v>110</v>
-      </c>
+      <c r="H202" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I202" s="41"/>
+      <c r="J202" s="41"/>
+      <c r="K202" s="41"/>
+      <c r="L202" s="41"/>
+      <c r="M202" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N202" s="41"/>
+      <c r="O202" s="41"/>
+      <c r="P202" s="41"/>
+      <c r="Q202" s="42"/>
+      <c r="R202" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="S202" s="41"/>
+      <c r="T202" s="41"/>
+      <c r="U202" s="41"/>
+      <c r="V202" s="41"/>
+      <c r="W202" s="41"/>
+      <c r="X202" s="41"/>
+      <c r="Y202" s="41"/>
+      <c r="Z202" s="41"/>
+      <c r="AA202" s="41"/>
+      <c r="AB202" s="41"/>
+      <c r="AC202" s="41"/>
+      <c r="AD202" s="41"/>
+      <c r="AE202" s="41"/>
+      <c r="AF202" s="41"/>
+      <c r="AG202" s="41"/>
+      <c r="AH202" s="41"/>
+      <c r="AI202" s="42"/>
     </row>
     <row r="203" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E203" s="30"/>
-      <c r="F203" s="46"/>
-      <c r="G203" s="30" t="str">
-        <f>F202&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H203" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="H203" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="I203" s="41"/>
+      <c r="J203" s="41"/>
+      <c r="K203" s="41"/>
+      <c r="L203" s="41"/>
+      <c r="M203" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="N203" s="41"/>
+      <c r="O203" s="41"/>
+      <c r="P203" s="41"/>
+      <c r="Q203" s="42"/>
+      <c r="R203" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="S203" s="41"/>
+      <c r="T203" s="41"/>
+      <c r="U203" s="41"/>
+      <c r="V203" s="41"/>
+      <c r="W203" s="41"/>
+      <c r="X203" s="41"/>
+      <c r="Y203" s="41"/>
+      <c r="Z203" s="41"/>
+      <c r="AA203" s="41"/>
+      <c r="AB203" s="41"/>
+      <c r="AC203" s="41"/>
+      <c r="AD203" s="41"/>
+      <c r="AE203" s="41"/>
+      <c r="AF203" s="41"/>
+      <c r="AG203" s="41"/>
+      <c r="AH203" s="41"/>
+      <c r="AI203" s="42"/>
     </row>
     <row r="204" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E204" s="30"/>
-      <c r="F204" s="30"/>
-      <c r="G204" s="46"/>
       <c r="H204" s="32" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I204" s="43"/>
       <c r="J204" s="43"/>
       <c r="K204" s="43"/>
       <c r="L204" s="43"/>
-      <c r="M204" s="43"/>
+      <c r="M204" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="N204" s="43"/>
       <c r="O204" s="43"/>
       <c r="P204" s="43"/>
-      <c r="Q204" s="43"/>
-      <c r="R204" s="43"/>
+      <c r="Q204" s="44"/>
+      <c r="R204" s="43" t="s">
+        <v>148</v>
+      </c>
       <c r="S204" s="43"/>
       <c r="T204" s="43"/>
       <c r="U204" s="43"/>
@@ -7683,200 +7391,274 @@
     </row>
     <row r="205" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E205" s="30"/>
-      <c r="F205" s="30"/>
-      <c r="G205" s="46"/>
-      <c r="H205" s="45" t="s">
-        <v>185</v>
-      </c>
+      <c r="H205" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I205" s="41"/>
+      <c r="J205" s="41"/>
+      <c r="K205" s="41"/>
+      <c r="L205" s="41"/>
+      <c r="M205" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="N205" s="41"/>
+      <c r="O205" s="41"/>
+      <c r="P205" s="41"/>
+      <c r="Q205" s="42"/>
+      <c r="R205" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="S205" s="41"/>
+      <c r="T205" s="41"/>
+      <c r="U205" s="41"/>
+      <c r="V205" s="41"/>
+      <c r="W205" s="41"/>
+      <c r="X205" s="41"/>
+      <c r="Y205" s="41"/>
+      <c r="Z205" s="41"/>
+      <c r="AA205" s="41"/>
+      <c r="AB205" s="41"/>
+      <c r="AC205" s="41"/>
+      <c r="AD205" s="41"/>
+      <c r="AE205" s="41"/>
+      <c r="AF205" s="41"/>
+      <c r="AG205" s="41"/>
+      <c r="AH205" s="41"/>
+      <c r="AI205" s="42"/>
     </row>
     <row r="206" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E206" s="30"/>
-      <c r="F206" s="30"/>
-      <c r="G206" s="46"/>
+      <c r="H206" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I206" s="41"/>
+      <c r="J206" s="41"/>
+      <c r="K206" s="41"/>
+      <c r="L206" s="41"/>
+      <c r="M206" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N206" s="41"/>
+      <c r="O206" s="41"/>
+      <c r="P206" s="41"/>
+      <c r="Q206" s="42"/>
+      <c r="R206" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="S206" s="41"/>
+      <c r="T206" s="41"/>
+      <c r="U206" s="41"/>
+      <c r="V206" s="41"/>
+      <c r="W206" s="41"/>
+      <c r="X206" s="41"/>
+      <c r="Y206" s="41"/>
+      <c r="Z206" s="41"/>
+      <c r="AA206" s="41"/>
+      <c r="AB206" s="41"/>
+      <c r="AC206" s="41"/>
+      <c r="AD206" s="41"/>
+      <c r="AE206" s="41"/>
+      <c r="AF206" s="41"/>
+      <c r="AG206" s="41"/>
+      <c r="AH206" s="41"/>
+      <c r="AI206" s="42"/>
     </row>
     <row r="207" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E207" s="30"/>
-      <c r="F207" s="46"/>
-      <c r="G207" s="30" t="str">
-        <f>F202&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H207" s="45" t="s">
-        <v>83</v>
-      </c>
+      <c r="H207" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I207" s="41"/>
+      <c r="J207" s="41"/>
+      <c r="K207" s="41"/>
+      <c r="L207" s="41"/>
+      <c r="M207" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="N207" s="41"/>
+      <c r="O207" s="41"/>
+      <c r="P207" s="41"/>
+      <c r="Q207" s="42"/>
+      <c r="R207" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="S207" s="41"/>
+      <c r="T207" s="41"/>
+      <c r="U207" s="41"/>
+      <c r="V207" s="41"/>
+      <c r="W207" s="41"/>
+      <c r="X207" s="41"/>
+      <c r="Y207" s="41"/>
+      <c r="Z207" s="41"/>
+      <c r="AA207" s="41"/>
+      <c r="AB207" s="41"/>
+      <c r="AC207" s="41"/>
+      <c r="AD207" s="41"/>
+      <c r="AE207" s="41"/>
+      <c r="AF207" s="41"/>
+      <c r="AG207" s="41"/>
+      <c r="AH207" s="41"/>
+      <c r="AI207" s="42"/>
     </row>
     <row r="208" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E208" s="30"/>
-      <c r="F208" s="46"/>
-      <c r="G208" s="30"/>
-      <c r="H208" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I208" s="28"/>
-      <c r="J208" s="28"/>
-      <c r="K208" s="28"/>
-      <c r="L208" s="28"/>
-      <c r="M208" s="29"/>
-      <c r="N208" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="O208" s="28"/>
-      <c r="P208" s="28"/>
-      <c r="Q208" s="29"/>
-      <c r="R208" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="S208" s="28"/>
-      <c r="T208" s="28"/>
-      <c r="U208" s="28"/>
-      <c r="V208" s="28"/>
-      <c r="W208" s="28"/>
-      <c r="X208" s="28"/>
-      <c r="Y208" s="28"/>
-      <c r="Z208" s="28"/>
-      <c r="AA208" s="28"/>
-      <c r="AB208" s="28"/>
-      <c r="AC208" s="28"/>
-      <c r="AD208" s="28"/>
-      <c r="AE208" s="28"/>
-      <c r="AF208" s="28"/>
-      <c r="AG208" s="28"/>
-      <c r="AH208" s="28"/>
-      <c r="AI208" s="29"/>
-    </row>
-    <row r="209" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H208" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I208" s="24"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="24"/>
+      <c r="L208" s="25"/>
+      <c r="M208" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N208" s="24"/>
+      <c r="O208" s="24"/>
+      <c r="P208" s="24"/>
+      <c r="Q208" s="25"/>
+      <c r="R208" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="S208" s="24"/>
+      <c r="T208" s="24"/>
+      <c r="U208" s="24"/>
+      <c r="V208" s="24"/>
+      <c r="W208" s="24"/>
+      <c r="X208" s="24"/>
+      <c r="Y208" s="24"/>
+      <c r="Z208" s="24"/>
+      <c r="AA208" s="24"/>
+      <c r="AB208" s="24"/>
+      <c r="AC208" s="24"/>
+      <c r="AD208" s="24"/>
+      <c r="AE208" s="24"/>
+      <c r="AF208" s="24"/>
+      <c r="AG208" s="24"/>
+      <c r="AH208" s="24"/>
+      <c r="AI208" s="25"/>
+    </row>
+    <row r="209" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E209" s="30"/>
-      <c r="F209" s="46"/>
-      <c r="G209" s="30"/>
-      <c r="H209" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I209" s="19"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="19"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="20"/>
-      <c r="N209" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="O209" s="19"/>
-      <c r="P209" s="19"/>
-      <c r="Q209" s="20"/>
-      <c r="R209" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="S209" s="19"/>
-      <c r="T209" s="19"/>
-      <c r="U209" s="19"/>
-      <c r="V209" s="19"/>
-      <c r="W209" s="19"/>
-      <c r="X209" s="19"/>
-      <c r="Y209" s="19"/>
-      <c r="Z209" s="19"/>
-      <c r="AA209" s="19"/>
-      <c r="AB209" s="19"/>
-      <c r="AC209" s="19"/>
-      <c r="AD209" s="19"/>
-      <c r="AE209" s="19"/>
-      <c r="AF209" s="19"/>
-      <c r="AG209" s="19"/>
-      <c r="AH209" s="19"/>
-      <c r="AI209" s="20"/>
-    </row>
-    <row r="210" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H209" s="40"/>
+      <c r="I209" s="41"/>
+      <c r="J209" s="41"/>
+      <c r="K209" s="41"/>
+      <c r="L209" s="42"/>
+      <c r="M209" s="40"/>
+      <c r="N209" s="41"/>
+      <c r="O209" s="41"/>
+      <c r="P209" s="41"/>
+      <c r="Q209" s="42"/>
+      <c r="R209" s="40" t="str">
+        <f>"ログの種類ごとのフォーマットは"&amp;$D$106&amp;$E$106&amp;"を参照。"</f>
+        <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
+      </c>
+      <c r="S209" s="41"/>
+      <c r="T209" s="41"/>
+      <c r="U209" s="41"/>
+      <c r="V209" s="41"/>
+      <c r="W209" s="41"/>
+      <c r="X209" s="41"/>
+      <c r="Y209" s="41"/>
+      <c r="Z209" s="41"/>
+      <c r="AA209" s="41"/>
+      <c r="AB209" s="41"/>
+      <c r="AC209" s="41"/>
+      <c r="AD209" s="41"/>
+      <c r="AE209" s="41"/>
+      <c r="AF209" s="41"/>
+      <c r="AG209" s="41"/>
+      <c r="AH209" s="41"/>
+      <c r="AI209" s="42"/>
+    </row>
+    <row r="210" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E210" s="30"/>
-      <c r="F210" s="46"/>
-      <c r="G210" s="30"/>
-      <c r="H210" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I210" s="43"/>
-      <c r="J210" s="43"/>
-      <c r="K210" s="43"/>
-      <c r="L210" s="43"/>
-      <c r="M210" s="44"/>
-      <c r="N210" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O210" s="43"/>
-      <c r="P210" s="43"/>
-      <c r="Q210" s="44"/>
-      <c r="R210" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="S210" s="43"/>
-      <c r="T210" s="43"/>
-      <c r="U210" s="43"/>
-      <c r="V210" s="43"/>
-      <c r="W210" s="43"/>
-      <c r="X210" s="43"/>
-      <c r="Y210" s="43"/>
-      <c r="Z210" s="43"/>
-      <c r="AA210" s="43"/>
-      <c r="AB210" s="43"/>
-      <c r="AC210" s="43"/>
-      <c r="AD210" s="43"/>
-      <c r="AE210" s="43"/>
-      <c r="AF210" s="43"/>
-      <c r="AG210" s="43"/>
-      <c r="AH210" s="43"/>
-      <c r="AI210" s="44"/>
-    </row>
-    <row r="211" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H210" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I210" s="24"/>
+      <c r="J210" s="24"/>
+      <c r="K210" s="24"/>
+      <c r="L210" s="25"/>
+      <c r="M210" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="N210" s="24"/>
+      <c r="O210" s="24"/>
+      <c r="P210" s="24"/>
+      <c r="Q210" s="25"/>
+      <c r="R210" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="S210" s="24"/>
+      <c r="T210" s="24"/>
+      <c r="U210" s="24"/>
+      <c r="V210" s="24"/>
+      <c r="W210" s="24"/>
+      <c r="X210" s="24"/>
+      <c r="Y210" s="24"/>
+      <c r="Z210" s="24"/>
+      <c r="AA210" s="24"/>
+      <c r="AB210" s="24"/>
+      <c r="AC210" s="24"/>
+      <c r="AD210" s="24"/>
+      <c r="AE210" s="24"/>
+      <c r="AF210" s="24"/>
+      <c r="AG210" s="24"/>
+      <c r="AH210" s="24"/>
+      <c r="AI210" s="25"/>
+    </row>
+    <row r="211" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E211" s="30"/>
-      <c r="F211" s="46"/>
-      <c r="G211" s="30"/>
-      <c r="H211" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="20"/>
-      <c r="N211" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O211" s="19"/>
-      <c r="P211" s="19"/>
-      <c r="Q211" s="20"/>
-      <c r="R211" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="S211" s="19"/>
-      <c r="T211" s="19"/>
-      <c r="U211" s="19"/>
-      <c r="V211" s="19"/>
-      <c r="W211" s="19"/>
-      <c r="X211" s="19"/>
-      <c r="Y211" s="19"/>
-      <c r="Z211" s="19"/>
-      <c r="AA211" s="19"/>
-      <c r="AB211" s="19"/>
-      <c r="AC211" s="19"/>
-      <c r="AD211" s="19"/>
-      <c r="AE211" s="19"/>
-      <c r="AF211" s="19"/>
-      <c r="AG211" s="19"/>
-      <c r="AH211" s="19"/>
-      <c r="AI211" s="20"/>
-    </row>
-    <row r="212" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H211" s="40"/>
+      <c r="I211" s="41"/>
+      <c r="J211" s="41"/>
+      <c r="K211" s="41"/>
+      <c r="L211" s="42"/>
+      <c r="M211" s="40"/>
+      <c r="N211" s="41"/>
+      <c r="O211" s="41"/>
+      <c r="P211" s="41"/>
+      <c r="Q211" s="42"/>
+      <c r="R211" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="S211" s="41"/>
+      <c r="T211" s="41"/>
+      <c r="U211" s="41"/>
+      <c r="V211" s="41"/>
+      <c r="W211" s="41"/>
+      <c r="X211" s="41"/>
+      <c r="Y211" s="41"/>
+      <c r="Z211" s="41"/>
+      <c r="AA211" s="41"/>
+      <c r="AB211" s="41"/>
+      <c r="AC211" s="41"/>
+      <c r="AD211" s="41"/>
+      <c r="AE211" s="41"/>
+      <c r="AF211" s="41"/>
+      <c r="AG211" s="41"/>
+      <c r="AH211" s="41"/>
+      <c r="AI211" s="42"/>
+    </row>
+    <row r="212" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E212" s="30"/>
-      <c r="F212" s="46"/>
-      <c r="G212" s="30"/>
-      <c r="H212" s="18"/>
+      <c r="H212" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="I212" s="19"/>
       <c r="J212" s="19"/>
       <c r="K212" s="19"/>
       <c r="L212" s="19"/>
-      <c r="M212" s="20"/>
-      <c r="N212" s="18"/>
+      <c r="M212" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="N212" s="19"/>
       <c r="O212" s="19"/>
       <c r="P212" s="19"/>
       <c r="Q212" s="20"/>
       <c r="R212" s="19" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="S212" s="19"/>
       <c r="T212" s="19"/>
@@ -7896,22 +7678,20 @@
       <c r="AH212" s="19"/>
       <c r="AI212" s="20"/>
     </row>
-    <row r="213" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E213" s="30"/>
-      <c r="F213" s="46"/>
-      <c r="G213" s="30"/>
       <c r="H213" s="40"/>
       <c r="I213" s="41"/>
       <c r="J213" s="41"/>
       <c r="K213" s="41"/>
       <c r="L213" s="41"/>
-      <c r="M213" s="42"/>
-      <c r="N213" s="40"/>
+      <c r="M213" s="40"/>
+      <c r="N213" s="41"/>
       <c r="O213" s="41"/>
       <c r="P213" s="41"/>
       <c r="Q213" s="42"/>
       <c r="R213" s="41" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="S213" s="41"/>
       <c r="T213" s="41"/>
@@ -7931,136 +7711,128 @@
       <c r="AH213" s="41"/>
       <c r="AI213" s="42"/>
     </row>
-    <row r="214" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E214" s="30"/>
-      <c r="H214" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="I214" s="24"/>
-      <c r="J214" s="24"/>
-      <c r="K214" s="24"/>
-      <c r="L214" s="24"/>
-      <c r="M214" s="25"/>
-      <c r="N214" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="O214" s="24"/>
-      <c r="P214" s="24"/>
-      <c r="Q214" s="24"/>
-      <c r="R214" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="S214" s="24"/>
-      <c r="T214" s="24"/>
-      <c r="U214" s="24"/>
-      <c r="V214" s="24"/>
-      <c r="W214" s="24"/>
-      <c r="X214" s="24"/>
-      <c r="Y214" s="24"/>
-      <c r="Z214" s="24"/>
-      <c r="AA214" s="24"/>
-      <c r="AB214" s="24"/>
-      <c r="AC214" s="24"/>
-      <c r="AD214" s="24"/>
-      <c r="AE214" s="24"/>
-      <c r="AF214" s="24"/>
-      <c r="AG214" s="24"/>
-      <c r="AH214" s="24"/>
-      <c r="AI214" s="25"/>
-    </row>
-    <row r="215" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="19"/>
+      <c r="N214" s="19"/>
+      <c r="O214" s="19"/>
+      <c r="P214" s="19"/>
+      <c r="Q214" s="19"/>
+      <c r="R214" s="19"/>
+      <c r="S214" s="19"/>
+      <c r="T214" s="19"/>
+      <c r="U214" s="19"/>
+      <c r="V214" s="19"/>
+      <c r="W214" s="19"/>
+      <c r="X214" s="19"/>
+      <c r="Y214" s="19"/>
+      <c r="Z214" s="19"/>
+      <c r="AA214" s="19"/>
+      <c r="AB214" s="19"/>
+      <c r="AC214" s="19"/>
+      <c r="AD214" s="19"/>
+      <c r="AE214" s="19"/>
+      <c r="AF214" s="19"/>
+      <c r="AG214" s="19"/>
+      <c r="AH214" s="19"/>
+      <c r="AI214" s="19"/>
+    </row>
+    <row r="215" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E215" s="30"/>
-      <c r="H215" s="40"/>
-      <c r="I215" s="41"/>
-      <c r="J215" s="41"/>
-      <c r="K215" s="41"/>
-      <c r="L215" s="41"/>
-      <c r="M215" s="42"/>
-      <c r="N215" s="40"/>
-      <c r="O215" s="41"/>
-      <c r="P215" s="41"/>
-      <c r="Q215" s="41"/>
-      <c r="R215" s="40" t="str">
-        <f>"フォーマットは"&amp;$D$106&amp;$E$106&amp;"参照。"</f>
-        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
-      </c>
-      <c r="S215" s="41"/>
-      <c r="T215" s="41"/>
-      <c r="U215" s="41"/>
-      <c r="V215" s="41"/>
-      <c r="W215" s="41"/>
-      <c r="X215" s="41"/>
-      <c r="Y215" s="41"/>
-      <c r="Z215" s="41"/>
-      <c r="AA215" s="41"/>
-      <c r="AB215" s="41"/>
-      <c r="AC215" s="41"/>
-      <c r="AD215" s="41"/>
-      <c r="AE215" s="41"/>
-      <c r="AF215" s="41"/>
-      <c r="AG215" s="41"/>
-      <c r="AH215" s="41"/>
-      <c r="AI215" s="42"/>
-    </row>
-    <row r="216" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="45"/>
-      <c r="B216" s="45"/>
+      <c r="F215" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E216" s="30"/>
-      <c r="F216" s="31"/>
-      <c r="AF216" s="45"/>
-      <c r="AG216" s="45"/>
-    </row>
-    <row r="217" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F216" s="46"/>
+      <c r="G216" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="217" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E217" s="30"/>
-      <c r="F217" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="G217" s="45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="218" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F217" s="46"/>
+      <c r="G217" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="H217" s="24"/>
+      <c r="I217" s="24"/>
+      <c r="J217" s="24"/>
+      <c r="K217" s="24"/>
+      <c r="L217" s="24"/>
+      <c r="M217" s="24"/>
+      <c r="N217" s="24"/>
+      <c r="O217" s="24"/>
+      <c r="P217" s="24"/>
+      <c r="Q217" s="24"/>
+      <c r="R217" s="24"/>
+      <c r="S217" s="24"/>
+      <c r="T217" s="24"/>
+      <c r="U217" s="24"/>
+      <c r="V217" s="24"/>
+      <c r="W217" s="24"/>
+      <c r="X217" s="24"/>
+      <c r="Y217" s="24"/>
+      <c r="Z217" s="24"/>
+      <c r="AA217" s="24"/>
+      <c r="AB217" s="24"/>
+      <c r="AC217" s="24"/>
+      <c r="AD217" s="24"/>
+      <c r="AE217" s="24"/>
+      <c r="AF217" s="24"/>
+      <c r="AG217" s="24"/>
+      <c r="AH217" s="24"/>
+      <c r="AI217" s="25"/>
+    </row>
+    <row r="218" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E218" s="30"/>
       <c r="F218" s="46"/>
-      <c r="G218" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="H218" s="24"/>
-      <c r="I218" s="24"/>
-      <c r="J218" s="24"/>
-      <c r="K218" s="24"/>
-      <c r="L218" s="24"/>
-      <c r="M218" s="24"/>
-      <c r="N218" s="24"/>
-      <c r="O218" s="24"/>
-      <c r="P218" s="24"/>
-      <c r="Q218" s="24"/>
-      <c r="R218" s="24"/>
-      <c r="S218" s="24"/>
-      <c r="T218" s="24"/>
-      <c r="U218" s="24"/>
-      <c r="V218" s="24"/>
-      <c r="W218" s="24"/>
-      <c r="X218" s="24"/>
-      <c r="Y218" s="24"/>
-      <c r="Z218" s="24"/>
-      <c r="AA218" s="24"/>
-      <c r="AB218" s="24"/>
-      <c r="AC218" s="24"/>
-      <c r="AD218" s="24"/>
-      <c r="AE218" s="24"/>
-      <c r="AF218" s="24"/>
-      <c r="AG218" s="24"/>
-      <c r="AH218" s="24"/>
-      <c r="AI218" s="25"/>
-    </row>
-    <row r="219" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G218" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="H218" s="41"/>
+      <c r="I218" s="41"/>
+      <c r="J218" s="41"/>
+      <c r="K218" s="41"/>
+      <c r="L218" s="41"/>
+      <c r="M218" s="41"/>
+      <c r="N218" s="41"/>
+      <c r="O218" s="41"/>
+      <c r="P218" s="41"/>
+      <c r="Q218" s="41"/>
+      <c r="R218" s="41"/>
+      <c r="S218" s="41"/>
+      <c r="T218" s="41"/>
+      <c r="U218" s="41"/>
+      <c r="V218" s="41"/>
+      <c r="W218" s="41"/>
+      <c r="X218" s="41"/>
+      <c r="Y218" s="41"/>
+      <c r="Z218" s="41"/>
+      <c r="AA218" s="41"/>
+      <c r="AB218" s="41"/>
+      <c r="AC218" s="41"/>
+      <c r="AD218" s="41"/>
+      <c r="AE218" s="41"/>
+      <c r="AF218" s="41"/>
+      <c r="AG218" s="41"/>
+      <c r="AH218" s="41"/>
+      <c r="AI218" s="42"/>
+    </row>
+    <row r="219" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E219" s="30"/>
       <c r="F219" s="46"/>
-      <c r="G219" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="H219" s="50"/>
+      <c r="G219" s="50"/>
+      <c r="H219" s="19"/>
       <c r="I219" s="19"/>
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>
@@ -8087,445 +7859,251 @@
       <c r="AF219" s="19"/>
       <c r="AG219" s="19"/>
       <c r="AH219" s="19"/>
-      <c r="AI219" s="20"/>
-    </row>
-    <row r="220" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E220" s="30"/>
-      <c r="F220" s="46"/>
-      <c r="G220" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="H220" s="50"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="19"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
-      <c r="N220" s="19"/>
-      <c r="O220" s="19"/>
-      <c r="P220" s="19"/>
-      <c r="Q220" s="19"/>
-      <c r="R220" s="19"/>
-      <c r="S220" s="19"/>
-      <c r="T220" s="19"/>
-      <c r="U220" s="19"/>
-      <c r="V220" s="19"/>
-      <c r="W220" s="19"/>
-      <c r="X220" s="19"/>
-      <c r="Y220" s="19"/>
-      <c r="Z220" s="19"/>
-      <c r="AA220" s="19"/>
-      <c r="AB220" s="19"/>
-      <c r="AC220" s="19"/>
-      <c r="AD220" s="19"/>
-      <c r="AE220" s="19"/>
-      <c r="AF220" s="19"/>
-      <c r="AG220" s="19"/>
-      <c r="AH220" s="19"/>
-      <c r="AI220" s="20"/>
-    </row>
-    <row r="221" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI219" s="19"/>
+    </row>
+    <row r="220" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E220" s="30" t="str">
+        <f>$D$141&amp;"3."</f>
+        <v>7.13.4.3.</v>
+      </c>
+      <c r="F220" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="221" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E221" s="30"/>
-      <c r="F221" s="46"/>
-      <c r="G221" s="48"/>
-      <c r="H221" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="I221" s="19"/>
-      <c r="J221" s="19"/>
-      <c r="K221" s="19"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="19"/>
-      <c r="N221" s="19"/>
-      <c r="O221" s="19"/>
-      <c r="P221" s="19"/>
-      <c r="Q221" s="19"/>
-      <c r="R221" s="19"/>
-      <c r="S221" s="19"/>
-      <c r="T221" s="19"/>
-      <c r="U221" s="19"/>
-      <c r="V221" s="19"/>
-      <c r="W221" s="19"/>
-      <c r="X221" s="19"/>
-      <c r="Y221" s="19"/>
-      <c r="Z221" s="19"/>
-      <c r="AA221" s="19"/>
-      <c r="AB221" s="19"/>
-      <c r="AC221" s="19"/>
-      <c r="AD221" s="19"/>
-      <c r="AE221" s="19"/>
-      <c r="AF221" s="19"/>
-      <c r="AG221" s="19"/>
-      <c r="AH221" s="19"/>
-      <c r="AI221" s="20"/>
-    </row>
-    <row r="222" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F221" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E222" s="30"/>
-      <c r="F222" s="46"/>
-      <c r="G222" s="48"/>
-      <c r="H222" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="19"/>
-      <c r="L222" s="19"/>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-      <c r="O222" s="19"/>
-      <c r="P222" s="19"/>
-      <c r="Q222" s="19"/>
-      <c r="R222" s="19"/>
-      <c r="S222" s="19"/>
-      <c r="T222" s="19"/>
-      <c r="U222" s="19"/>
-      <c r="V222" s="19"/>
-      <c r="W222" s="19"/>
-      <c r="X222" s="19"/>
-      <c r="Y222" s="19"/>
-      <c r="Z222" s="19"/>
-      <c r="AA222" s="19"/>
-      <c r="AB222" s="19"/>
-      <c r="AC222" s="19"/>
-      <c r="AD222" s="19"/>
-      <c r="AE222" s="19"/>
-      <c r="AF222" s="19"/>
-      <c r="AG222" s="19"/>
-      <c r="AH222" s="19"/>
-      <c r="AI222" s="20"/>
-    </row>
-    <row r="223" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F222" s="31"/>
+      <c r="G222" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H222" s="28"/>
+      <c r="I222" s="29"/>
+      <c r="J222" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K222" s="28"/>
+      <c r="L222" s="29"/>
+      <c r="M222" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="N222" s="28"/>
+      <c r="O222" s="28"/>
+      <c r="P222" s="28"/>
+      <c r="Q222" s="29"/>
+      <c r="R222" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="S222" s="28"/>
+      <c r="T222" s="28"/>
+      <c r="U222" s="28"/>
+      <c r="V222" s="28"/>
+      <c r="W222" s="28"/>
+      <c r="X222" s="28"/>
+      <c r="Y222" s="28"/>
+      <c r="Z222" s="28"/>
+      <c r="AA222" s="28"/>
+      <c r="AB222" s="28"/>
+      <c r="AC222" s="28"/>
+      <c r="AD222" s="28"/>
+      <c r="AE222" s="28"/>
+      <c r="AF222" s="28"/>
+      <c r="AG222" s="28"/>
+      <c r="AH222" s="28"/>
+      <c r="AI222" s="29"/>
+    </row>
+    <row r="223" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E223" s="30"/>
-      <c r="F223" s="46"/>
-      <c r="G223" s="48"/>
-      <c r="H223" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I223" s="19"/>
-      <c r="J223" s="19"/>
-      <c r="K223" s="19"/>
-      <c r="L223" s="19"/>
-      <c r="M223" s="19"/>
-      <c r="N223" s="19"/>
-      <c r="O223" s="19"/>
-      <c r="P223" s="19"/>
-      <c r="Q223" s="19"/>
-      <c r="R223" s="19"/>
-      <c r="S223" s="19"/>
-      <c r="T223" s="19"/>
-      <c r="U223" s="19"/>
-      <c r="V223" s="19"/>
-      <c r="W223" s="19"/>
-      <c r="X223" s="19"/>
-      <c r="Y223" s="19"/>
-      <c r="Z223" s="19"/>
-      <c r="AA223" s="19"/>
-      <c r="AB223" s="19"/>
-      <c r="AC223" s="19"/>
-      <c r="AD223" s="19"/>
-      <c r="AE223" s="19"/>
-      <c r="AF223" s="19"/>
-      <c r="AG223" s="19"/>
-      <c r="AH223" s="19"/>
-      <c r="AI223" s="20"/>
-    </row>
-    <row r="224" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F223" s="31"/>
+      <c r="G223" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H223" s="43"/>
+      <c r="I223" s="44"/>
+      <c r="J223" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="K223" s="43"/>
+      <c r="L223" s="44"/>
+      <c r="M223" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="N223" s="43"/>
+      <c r="O223" s="43"/>
+      <c r="P223" s="43"/>
+      <c r="Q223" s="44"/>
+      <c r="R223" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="S223" s="43"/>
+      <c r="T223" s="43"/>
+      <c r="U223" s="43"/>
+      <c r="V223" s="43"/>
+      <c r="W223" s="43"/>
+      <c r="X223" s="43"/>
+      <c r="Y223" s="43"/>
+      <c r="Z223" s="43"/>
+      <c r="AA223" s="43"/>
+      <c r="AB223" s="43"/>
+      <c r="AC223" s="43"/>
+      <c r="AD223" s="43"/>
+      <c r="AE223" s="43"/>
+      <c r="AF223" s="43"/>
+      <c r="AG223" s="43"/>
+      <c r="AH223" s="43"/>
+      <c r="AI223" s="44"/>
+    </row>
+    <row r="224" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E224" s="30"/>
-      <c r="F224" s="46"/>
-      <c r="G224" s="48"/>
-      <c r="H224" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I224" s="19"/>
-      <c r="J224" s="19"/>
-      <c r="K224" s="19"/>
-      <c r="L224" s="19"/>
-      <c r="M224" s="19"/>
-      <c r="N224" s="19"/>
-      <c r="O224" s="19"/>
-      <c r="P224" s="19"/>
-      <c r="Q224" s="19"/>
-      <c r="R224" s="19"/>
-      <c r="S224" s="19"/>
-      <c r="T224" s="19"/>
-      <c r="U224" s="19"/>
-      <c r="V224" s="19"/>
-      <c r="W224" s="19"/>
-      <c r="X224" s="19"/>
-      <c r="Y224" s="19"/>
-      <c r="Z224" s="19"/>
-      <c r="AA224" s="19"/>
-      <c r="AB224" s="19"/>
-      <c r="AC224" s="19"/>
-      <c r="AD224" s="19"/>
-      <c r="AE224" s="19"/>
-      <c r="AF224" s="19"/>
-      <c r="AG224" s="19"/>
-      <c r="AH224" s="19"/>
-      <c r="AI224" s="20"/>
-    </row>
-    <row r="225" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F224" s="31"/>
+    </row>
+    <row r="225" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E225" s="30"/>
-      <c r="F225" s="46"/>
-      <c r="G225" s="48"/>
-      <c r="H225" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I225" s="19"/>
-      <c r="J225" s="19"/>
-      <c r="K225" s="19"/>
-      <c r="L225" s="19"/>
-      <c r="M225" s="19"/>
-      <c r="N225" s="19"/>
-      <c r="O225" s="19"/>
-      <c r="P225" s="19"/>
-      <c r="Q225" s="19"/>
-      <c r="R225" s="19"/>
-      <c r="S225" s="19"/>
-      <c r="T225" s="19"/>
-      <c r="U225" s="19"/>
-      <c r="V225" s="19"/>
-      <c r="W225" s="19"/>
-      <c r="X225" s="19"/>
-      <c r="Y225" s="19"/>
-      <c r="Z225" s="19"/>
-      <c r="AA225" s="19"/>
-      <c r="AB225" s="19"/>
-      <c r="AC225" s="19"/>
-      <c r="AD225" s="19"/>
-      <c r="AE225" s="19"/>
-      <c r="AF225" s="19"/>
-      <c r="AG225" s="19"/>
-      <c r="AH225" s="19"/>
-      <c r="AI225" s="20"/>
-    </row>
-    <row r="226" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F225" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G225" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="226" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E226" s="30"/>
       <c r="F226" s="46"/>
-      <c r="G226" s="48"/>
-      <c r="H226" s="50"/>
-      <c r="I226" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
-      <c r="N226" s="19"/>
-      <c r="O226" s="19"/>
-      <c r="P226" s="19"/>
-      <c r="Q226" s="19"/>
-      <c r="R226" s="19"/>
-      <c r="S226" s="19"/>
-      <c r="T226" s="19"/>
-      <c r="U226" s="19"/>
-      <c r="V226" s="19"/>
-      <c r="W226" s="19"/>
-      <c r="X226" s="19"/>
-      <c r="Y226" s="19"/>
-      <c r="Z226" s="19"/>
-      <c r="AA226" s="19"/>
-      <c r="AB226" s="19"/>
-      <c r="AC226" s="19"/>
-      <c r="AD226" s="19"/>
-      <c r="AE226" s="19"/>
-      <c r="AF226" s="19"/>
-      <c r="AG226" s="19"/>
-      <c r="AH226" s="19"/>
-      <c r="AI226" s="20"/>
-    </row>
-    <row r="227" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G226" s="30" t="str">
+        <f>F225&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H226" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E227" s="30"/>
-      <c r="F227" s="46"/>
-      <c r="G227" s="48"/>
-      <c r="H227" s="50"/>
-      <c r="I227" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J227" s="19"/>
-      <c r="K227" s="19"/>
-      <c r="L227" s="19"/>
-      <c r="M227" s="19"/>
-      <c r="N227" s="19"/>
-      <c r="O227" s="19"/>
-      <c r="P227" s="19"/>
-      <c r="Q227" s="19"/>
-      <c r="R227" s="19"/>
-      <c r="S227" s="19"/>
-      <c r="T227" s="19"/>
-      <c r="U227" s="19"/>
-      <c r="V227" s="19"/>
-      <c r="W227" s="19"/>
-      <c r="X227" s="19"/>
-      <c r="Y227" s="19"/>
-      <c r="Z227" s="19"/>
-      <c r="AA227" s="19"/>
-      <c r="AB227" s="19"/>
-      <c r="AC227" s="19"/>
-      <c r="AD227" s="19"/>
-      <c r="AE227" s="19"/>
-      <c r="AF227" s="19"/>
-      <c r="AG227" s="19"/>
-      <c r="AH227" s="19"/>
-      <c r="AI227" s="20"/>
-    </row>
-    <row r="228" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F227" s="30"/>
+      <c r="G227" s="46"/>
+      <c r="H227" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I227" s="43"/>
+      <c r="J227" s="43"/>
+      <c r="K227" s="43"/>
+      <c r="L227" s="43"/>
+      <c r="M227" s="43"/>
+      <c r="N227" s="43"/>
+      <c r="O227" s="43"/>
+      <c r="P227" s="43"/>
+      <c r="Q227" s="43"/>
+      <c r="R227" s="43"/>
+      <c r="S227" s="43"/>
+      <c r="T227" s="43"/>
+      <c r="U227" s="43"/>
+      <c r="V227" s="43"/>
+      <c r="W227" s="43"/>
+      <c r="X227" s="43"/>
+      <c r="Y227" s="43"/>
+      <c r="Z227" s="43"/>
+      <c r="AA227" s="43"/>
+      <c r="AB227" s="43"/>
+      <c r="AC227" s="43"/>
+      <c r="AD227" s="43"/>
+      <c r="AE227" s="43"/>
+      <c r="AF227" s="43"/>
+      <c r="AG227" s="43"/>
+      <c r="AH227" s="43"/>
+      <c r="AI227" s="44"/>
+    </row>
+    <row r="228" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E228" s="30"/>
-      <c r="F228" s="46"/>
-      <c r="G228" s="48"/>
-      <c r="H228" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="I228" s="19"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="19"/>
-      <c r="L228" s="19"/>
-      <c r="M228" s="19"/>
-      <c r="N228" s="19"/>
-      <c r="O228" s="19"/>
-      <c r="P228" s="19"/>
-      <c r="Q228" s="19"/>
-      <c r="R228" s="19"/>
-      <c r="S228" s="19"/>
-      <c r="T228" s="19"/>
-      <c r="U228" s="19"/>
-      <c r="V228" s="19"/>
-      <c r="W228" s="19"/>
-      <c r="X228" s="19"/>
-      <c r="Y228" s="19"/>
-      <c r="Z228" s="19"/>
-      <c r="AA228" s="19"/>
-      <c r="AB228" s="19"/>
-      <c r="AC228" s="19"/>
-      <c r="AD228" s="19"/>
-      <c r="AE228" s="19"/>
-      <c r="AF228" s="19"/>
-      <c r="AG228" s="19"/>
-      <c r="AH228" s="19"/>
-      <c r="AI228" s="20"/>
-    </row>
-    <row r="229" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F228" s="30"/>
+      <c r="G228" s="46"/>
+      <c r="H228" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="229" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E229" s="30"/>
-      <c r="F229" s="46"/>
-      <c r="G229" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="H229" s="50"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="19"/>
-      <c r="K229" s="19"/>
-      <c r="L229" s="19"/>
-      <c r="M229" s="19"/>
-      <c r="N229" s="19"/>
-      <c r="O229" s="19"/>
-      <c r="P229" s="19"/>
-      <c r="Q229" s="19"/>
-      <c r="R229" s="19"/>
-      <c r="S229" s="19"/>
-      <c r="T229" s="19"/>
-      <c r="U229" s="19"/>
-      <c r="V229" s="19"/>
-      <c r="W229" s="19"/>
-      <c r="X229" s="19"/>
-      <c r="Y229" s="19"/>
-      <c r="Z229" s="19"/>
-      <c r="AA229" s="19"/>
-      <c r="AB229" s="19"/>
-      <c r="AC229" s="19"/>
-      <c r="AD229" s="19"/>
-      <c r="AE229" s="19"/>
-      <c r="AF229" s="19"/>
-      <c r="AG229" s="19"/>
-      <c r="AH229" s="19"/>
-      <c r="AI229" s="20"/>
-    </row>
-    <row r="230" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F229" s="30"/>
+      <c r="G229" s="46"/>
+    </row>
+    <row r="230" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E230" s="30"/>
       <c r="F230" s="46"/>
-      <c r="G230" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="H230" s="50"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="19"/>
-      <c r="K230" s="19"/>
-      <c r="L230" s="19"/>
-      <c r="M230" s="19"/>
-      <c r="N230" s="19"/>
-      <c r="O230" s="19"/>
-      <c r="P230" s="19"/>
-      <c r="Q230" s="19"/>
-      <c r="R230" s="19"/>
-      <c r="S230" s="19"/>
-      <c r="T230" s="19"/>
-      <c r="U230" s="19"/>
-      <c r="V230" s="19"/>
-      <c r="W230" s="19"/>
-      <c r="X230" s="19"/>
-      <c r="Y230" s="19"/>
-      <c r="Z230" s="19"/>
-      <c r="AA230" s="19"/>
-      <c r="AB230" s="19"/>
-      <c r="AC230" s="19"/>
-      <c r="AD230" s="19"/>
-      <c r="AE230" s="19"/>
-      <c r="AF230" s="19"/>
-      <c r="AG230" s="19"/>
-      <c r="AH230" s="19"/>
-      <c r="AI230" s="20"/>
-    </row>
-    <row r="231" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G230" s="30" t="str">
+        <f>F225&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H230" s="45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="231" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E231" s="30"/>
       <c r="F231" s="46"/>
-      <c r="G231" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="H231" s="50"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="19"/>
-      <c r="K231" s="19"/>
-      <c r="L231" s="19"/>
-      <c r="M231" s="19"/>
-      <c r="N231" s="19"/>
-      <c r="O231" s="19"/>
-      <c r="P231" s="19"/>
-      <c r="Q231" s="19"/>
-      <c r="R231" s="19"/>
-      <c r="S231" s="19"/>
-      <c r="T231" s="19"/>
-      <c r="U231" s="19"/>
-      <c r="V231" s="19"/>
-      <c r="W231" s="19"/>
-      <c r="X231" s="19"/>
-      <c r="Y231" s="19"/>
-      <c r="Z231" s="19"/>
-      <c r="AA231" s="19"/>
-      <c r="AB231" s="19"/>
-      <c r="AC231" s="19"/>
-      <c r="AD231" s="19"/>
-      <c r="AE231" s="19"/>
-      <c r="AF231" s="19"/>
-      <c r="AG231" s="19"/>
-      <c r="AH231" s="19"/>
-      <c r="AI231" s="20"/>
-    </row>
-    <row r="232" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G231" s="30"/>
+      <c r="H231" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I231" s="28"/>
+      <c r="J231" s="28"/>
+      <c r="K231" s="28"/>
+      <c r="L231" s="28"/>
+      <c r="M231" s="29"/>
+      <c r="N231" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O231" s="28"/>
+      <c r="P231" s="28"/>
+      <c r="Q231" s="29"/>
+      <c r="R231" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S231" s="28"/>
+      <c r="T231" s="28"/>
+      <c r="U231" s="28"/>
+      <c r="V231" s="28"/>
+      <c r="W231" s="28"/>
+      <c r="X231" s="28"/>
+      <c r="Y231" s="28"/>
+      <c r="Z231" s="28"/>
+      <c r="AA231" s="28"/>
+      <c r="AB231" s="28"/>
+      <c r="AC231" s="28"/>
+      <c r="AD231" s="28"/>
+      <c r="AE231" s="28"/>
+      <c r="AF231" s="28"/>
+      <c r="AG231" s="28"/>
+      <c r="AH231" s="28"/>
+      <c r="AI231" s="29"/>
+    </row>
+    <row r="232" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E232" s="30"/>
       <c r="F232" s="46"/>
-      <c r="G232" s="48"/>
-      <c r="H232" s="50" t="s">
-        <v>128</v>
+      <c r="G232" s="30"/>
+      <c r="H232" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="I232" s="19"/>
       <c r="J232" s="19"/>
       <c r="K232" s="19"/>
       <c r="L232" s="19"/>
-      <c r="M232" s="19"/>
-      <c r="N232" s="19"/>
+      <c r="M232" s="20"/>
+      <c r="N232" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="O232" s="19"/>
       <c r="P232" s="19"/>
-      <c r="Q232" s="19"/>
-      <c r="R232" s="19"/>
+      <c r="Q232" s="20"/>
+      <c r="R232" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="S232" s="19"/>
       <c r="T232" s="19"/>
       <c r="U232" s="19"/>
@@ -8544,58 +8122,66 @@
       <c r="AH232" s="19"/>
       <c r="AI232" s="20"/>
     </row>
-    <row r="233" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E233" s="30"/>
       <c r="F233" s="46"/>
-      <c r="G233" s="48"/>
-      <c r="H233" s="50"/>
-      <c r="I233" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J233" s="19"/>
-      <c r="K233" s="19"/>
-      <c r="L233" s="19"/>
-      <c r="M233" s="19"/>
-      <c r="N233" s="19"/>
-      <c r="O233" s="19"/>
-      <c r="P233" s="19"/>
-      <c r="Q233" s="19"/>
-      <c r="R233" s="19"/>
-      <c r="S233" s="19"/>
-      <c r="T233" s="19"/>
-      <c r="U233" s="19"/>
-      <c r="V233" s="19"/>
-      <c r="W233" s="19"/>
-      <c r="X233" s="19"/>
-      <c r="Y233" s="19"/>
-      <c r="Z233" s="19"/>
-      <c r="AA233" s="19"/>
-      <c r="AB233" s="19"/>
-      <c r="AC233" s="19"/>
-      <c r="AD233" s="19"/>
-      <c r="AE233" s="19"/>
-      <c r="AF233" s="19"/>
-      <c r="AG233" s="19"/>
-      <c r="AH233" s="19"/>
-      <c r="AI233" s="20"/>
-    </row>
-    <row r="234" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G233" s="30"/>
+      <c r="H233" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I233" s="43"/>
+      <c r="J233" s="43"/>
+      <c r="K233" s="43"/>
+      <c r="L233" s="43"/>
+      <c r="M233" s="44"/>
+      <c r="N233" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O233" s="43"/>
+      <c r="P233" s="43"/>
+      <c r="Q233" s="44"/>
+      <c r="R233" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="S233" s="43"/>
+      <c r="T233" s="43"/>
+      <c r="U233" s="43"/>
+      <c r="V233" s="43"/>
+      <c r="W233" s="43"/>
+      <c r="X233" s="43"/>
+      <c r="Y233" s="43"/>
+      <c r="Z233" s="43"/>
+      <c r="AA233" s="43"/>
+      <c r="AB233" s="43"/>
+      <c r="AC233" s="43"/>
+      <c r="AD233" s="43"/>
+      <c r="AE233" s="43"/>
+      <c r="AF233" s="43"/>
+      <c r="AG233" s="43"/>
+      <c r="AH233" s="43"/>
+      <c r="AI233" s="44"/>
+    </row>
+    <row r="234" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E234" s="30"/>
       <c r="F234" s="46"/>
-      <c r="G234" s="48"/>
-      <c r="H234" s="50"/>
-      <c r="I234" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="G234" s="30"/>
+      <c r="H234" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I234" s="19"/>
       <c r="J234" s="19"/>
       <c r="K234" s="19"/>
       <c r="L234" s="19"/>
-      <c r="M234" s="19"/>
-      <c r="N234" s="19"/>
+      <c r="M234" s="20"/>
+      <c r="N234" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="O234" s="19"/>
       <c r="P234" s="19"/>
-      <c r="Q234" s="19"/>
-      <c r="R234" s="19"/>
+      <c r="Q234" s="20"/>
+      <c r="R234" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="S234" s="19"/>
       <c r="T234" s="19"/>
       <c r="U234" s="19"/>
@@ -8614,23 +8200,23 @@
       <c r="AH234" s="19"/>
       <c r="AI234" s="20"/>
     </row>
-    <row r="235" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E235" s="30"/>
       <c r="F235" s="46"/>
-      <c r="G235" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="H235" s="50"/>
+      <c r="G235" s="30"/>
+      <c r="H235" s="18"/>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
       <c r="K235" s="19"/>
       <c r="L235" s="19"/>
-      <c r="M235" s="19"/>
-      <c r="N235" s="19"/>
+      <c r="M235" s="20"/>
+      <c r="N235" s="18"/>
       <c r="O235" s="19"/>
       <c r="P235" s="19"/>
-      <c r="Q235" s="19"/>
-      <c r="R235" s="19"/>
+      <c r="Q235" s="20"/>
+      <c r="R235" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="S235" s="19"/>
       <c r="T235" s="19"/>
       <c r="U235" s="19"/>
@@ -8649,223 +8235,171 @@
       <c r="AH235" s="19"/>
       <c r="AI235" s="20"/>
     </row>
-    <row r="236" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E236" s="30"/>
       <c r="F236" s="46"/>
-      <c r="G236" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="H236" s="50"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="19"/>
-      <c r="K236" s="19"/>
-      <c r="L236" s="19"/>
-      <c r="M236" s="19"/>
-      <c r="N236" s="19"/>
-      <c r="O236" s="19"/>
-      <c r="P236" s="19"/>
-      <c r="Q236" s="19"/>
-      <c r="R236" s="19"/>
-      <c r="S236" s="19"/>
-      <c r="T236" s="19"/>
-      <c r="U236" s="19"/>
-      <c r="V236" s="19"/>
-      <c r="W236" s="19"/>
-      <c r="X236" s="19"/>
-      <c r="Y236" s="19"/>
-      <c r="Z236" s="19"/>
-      <c r="AA236" s="19"/>
-      <c r="AB236" s="19"/>
-      <c r="AC236" s="19"/>
-      <c r="AD236" s="19"/>
-      <c r="AE236" s="19"/>
-      <c r="AF236" s="19"/>
-      <c r="AG236" s="19"/>
-      <c r="AH236" s="19"/>
-      <c r="AI236" s="20"/>
-    </row>
-    <row r="237" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G236" s="30"/>
+      <c r="H236" s="40"/>
+      <c r="I236" s="41"/>
+      <c r="J236" s="41"/>
+      <c r="K236" s="41"/>
+      <c r="L236" s="41"/>
+      <c r="M236" s="42"/>
+      <c r="N236" s="40"/>
+      <c r="O236" s="41"/>
+      <c r="P236" s="41"/>
+      <c r="Q236" s="42"/>
+      <c r="R236" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="S236" s="41"/>
+      <c r="T236" s="41"/>
+      <c r="U236" s="41"/>
+      <c r="V236" s="41"/>
+      <c r="W236" s="41"/>
+      <c r="X236" s="41"/>
+      <c r="Y236" s="41"/>
+      <c r="Z236" s="41"/>
+      <c r="AA236" s="41"/>
+      <c r="AB236" s="41"/>
+      <c r="AC236" s="41"/>
+      <c r="AD236" s="41"/>
+      <c r="AE236" s="41"/>
+      <c r="AF236" s="41"/>
+      <c r="AG236" s="41"/>
+      <c r="AH236" s="41"/>
+      <c r="AI236" s="42"/>
+    </row>
+    <row r="237" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E237" s="30"/>
-      <c r="F237" s="46"/>
-      <c r="G237" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="H237" s="50"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="19"/>
-      <c r="K237" s="19"/>
-      <c r="L237" s="19"/>
-      <c r="M237" s="19"/>
-      <c r="N237" s="19"/>
-      <c r="O237" s="19"/>
-      <c r="P237" s="19"/>
-      <c r="Q237" s="19"/>
-      <c r="R237" s="19"/>
-      <c r="S237" s="19"/>
-      <c r="T237" s="19"/>
-      <c r="U237" s="19"/>
-      <c r="V237" s="19"/>
-      <c r="W237" s="19"/>
-      <c r="X237" s="19"/>
-      <c r="Y237" s="19"/>
-      <c r="Z237" s="19"/>
-      <c r="AA237" s="19"/>
-      <c r="AB237" s="19"/>
-      <c r="AC237" s="19"/>
-      <c r="AD237" s="19"/>
-      <c r="AE237" s="19"/>
-      <c r="AF237" s="19"/>
-      <c r="AG237" s="19"/>
-      <c r="AH237" s="19"/>
-      <c r="AI237" s="20"/>
-    </row>
-    <row r="238" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H237" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I237" s="24"/>
+      <c r="J237" s="24"/>
+      <c r="K237" s="24"/>
+      <c r="L237" s="24"/>
+      <c r="M237" s="25"/>
+      <c r="N237" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="O237" s="24"/>
+      <c r="P237" s="24"/>
+      <c r="Q237" s="24"/>
+      <c r="R237" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="S237" s="24"/>
+      <c r="T237" s="24"/>
+      <c r="U237" s="24"/>
+      <c r="V237" s="24"/>
+      <c r="W237" s="24"/>
+      <c r="X237" s="24"/>
+      <c r="Y237" s="24"/>
+      <c r="Z237" s="24"/>
+      <c r="AA237" s="24"/>
+      <c r="AB237" s="24"/>
+      <c r="AC237" s="24"/>
+      <c r="AD237" s="24"/>
+      <c r="AE237" s="24"/>
+      <c r="AF237" s="24"/>
+      <c r="AG237" s="24"/>
+      <c r="AH237" s="24"/>
+      <c r="AI237" s="25"/>
+    </row>
+    <row r="238" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E238" s="30"/>
-      <c r="F238" s="46"/>
-      <c r="G238" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H238" s="50"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="19"/>
-      <c r="K238" s="19"/>
-      <c r="L238" s="19"/>
-      <c r="M238" s="19"/>
-      <c r="N238" s="19"/>
-      <c r="O238" s="19"/>
-      <c r="P238" s="19"/>
-      <c r="Q238" s="19"/>
-      <c r="R238" s="19"/>
-      <c r="S238" s="19"/>
-      <c r="T238" s="19"/>
-      <c r="U238" s="19"/>
-      <c r="V238" s="19"/>
-      <c r="W238" s="19"/>
-      <c r="X238" s="19"/>
-      <c r="Y238" s="19"/>
-      <c r="Z238" s="19"/>
-      <c r="AA238" s="19"/>
-      <c r="AB238" s="19"/>
-      <c r="AC238" s="19"/>
-      <c r="AD238" s="19"/>
-      <c r="AE238" s="19"/>
-      <c r="AF238" s="19"/>
-      <c r="AG238" s="19"/>
-      <c r="AH238" s="19"/>
-      <c r="AI238" s="20"/>
-    </row>
-    <row r="239" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H238" s="40"/>
+      <c r="I238" s="41"/>
+      <c r="J238" s="41"/>
+      <c r="K238" s="41"/>
+      <c r="L238" s="41"/>
+      <c r="M238" s="42"/>
+      <c r="N238" s="40"/>
+      <c r="O238" s="41"/>
+      <c r="P238" s="41"/>
+      <c r="Q238" s="41"/>
+      <c r="R238" s="40" t="str">
+        <f>"フォーマットは"&amp;$D$106&amp;$E$106&amp;"参照。"</f>
+        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
+      </c>
+      <c r="S238" s="41"/>
+      <c r="T238" s="41"/>
+      <c r="U238" s="41"/>
+      <c r="V238" s="41"/>
+      <c r="W238" s="41"/>
+      <c r="X238" s="41"/>
+      <c r="Y238" s="41"/>
+      <c r="Z238" s="41"/>
+      <c r="AA238" s="41"/>
+      <c r="AB238" s="41"/>
+      <c r="AC238" s="41"/>
+      <c r="AD238" s="41"/>
+      <c r="AE238" s="41"/>
+      <c r="AF238" s="41"/>
+      <c r="AG238" s="41"/>
+      <c r="AH238" s="41"/>
+      <c r="AI238" s="42"/>
+    </row>
+    <row r="239" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="45"/>
+      <c r="B239" s="45"/>
       <c r="E239" s="30"/>
-      <c r="F239" s="46"/>
-      <c r="G239" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="H239" s="50"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="19"/>
-      <c r="K239" s="19"/>
-      <c r="L239" s="19"/>
-      <c r="M239" s="19"/>
-      <c r="N239" s="19"/>
-      <c r="O239" s="19"/>
-      <c r="P239" s="19"/>
-      <c r="Q239" s="19"/>
-      <c r="R239" s="19"/>
-      <c r="S239" s="19"/>
-      <c r="T239" s="19"/>
-      <c r="U239" s="19"/>
-      <c r="V239" s="19"/>
-      <c r="W239" s="19"/>
-      <c r="X239" s="19"/>
-      <c r="Y239" s="19"/>
-      <c r="Z239" s="19"/>
-      <c r="AA239" s="19"/>
-      <c r="AB239" s="19"/>
-      <c r="AC239" s="19"/>
-      <c r="AD239" s="19"/>
-      <c r="AE239" s="19"/>
-      <c r="AF239" s="19"/>
-      <c r="AG239" s="19"/>
-      <c r="AH239" s="19"/>
-      <c r="AI239" s="20"/>
-    </row>
-    <row r="240" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F239" s="31"/>
+      <c r="AF239" s="45"/>
+      <c r="AG239" s="45"/>
+    </row>
+    <row r="240" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E240" s="30"/>
-      <c r="F240" s="46"/>
-      <c r="G240" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="H240" s="50"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="19"/>
-      <c r="K240" s="19"/>
-      <c r="L240" s="19"/>
-      <c r="M240" s="19"/>
-      <c r="N240" s="19"/>
-      <c r="O240" s="19"/>
-      <c r="P240" s="19"/>
-      <c r="Q240" s="19"/>
-      <c r="R240" s="19"/>
-      <c r="S240" s="19"/>
-      <c r="T240" s="19"/>
-      <c r="U240" s="19"/>
-      <c r="V240" s="19"/>
-      <c r="W240" s="19"/>
-      <c r="X240" s="19"/>
-      <c r="Y240" s="19"/>
-      <c r="Z240" s="19"/>
-      <c r="AA240" s="19"/>
-      <c r="AB240" s="19"/>
-      <c r="AC240" s="19"/>
-      <c r="AD240" s="19"/>
-      <c r="AE240" s="19"/>
-      <c r="AF240" s="19"/>
-      <c r="AG240" s="19"/>
-      <c r="AH240" s="19"/>
-      <c r="AI240" s="20"/>
-    </row>
-    <row r="241" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F240" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G240" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E241" s="30"/>
       <c r="F241" s="46"/>
-      <c r="G241" s="48"/>
-      <c r="H241" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="I241" s="19"/>
-      <c r="J241" s="19"/>
-      <c r="K241" s="19"/>
-      <c r="L241" s="19"/>
-      <c r="M241" s="19"/>
-      <c r="N241" s="19"/>
-      <c r="O241" s="19"/>
-      <c r="P241" s="19"/>
-      <c r="Q241" s="19"/>
-      <c r="R241" s="19"/>
-      <c r="S241" s="19"/>
-      <c r="T241" s="19"/>
-      <c r="U241" s="19"/>
-      <c r="V241" s="19"/>
-      <c r="W241" s="19"/>
-      <c r="X241" s="19"/>
-      <c r="Y241" s="19"/>
-      <c r="Z241" s="19"/>
-      <c r="AA241" s="19"/>
-      <c r="AB241" s="19"/>
-      <c r="AC241" s="19"/>
-      <c r="AD241" s="19"/>
-      <c r="AE241" s="19"/>
-      <c r="AF241" s="19"/>
-      <c r="AG241" s="19"/>
-      <c r="AH241" s="19"/>
-      <c r="AI241" s="20"/>
-    </row>
-    <row r="242" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G241" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H241" s="24"/>
+      <c r="I241" s="24"/>
+      <c r="J241" s="24"/>
+      <c r="K241" s="24"/>
+      <c r="L241" s="24"/>
+      <c r="M241" s="24"/>
+      <c r="N241" s="24"/>
+      <c r="O241" s="24"/>
+      <c r="P241" s="24"/>
+      <c r="Q241" s="24"/>
+      <c r="R241" s="24"/>
+      <c r="S241" s="24"/>
+      <c r="T241" s="24"/>
+      <c r="U241" s="24"/>
+      <c r="V241" s="24"/>
+      <c r="W241" s="24"/>
+      <c r="X241" s="24"/>
+      <c r="Y241" s="24"/>
+      <c r="Z241" s="24"/>
+      <c r="AA241" s="24"/>
+      <c r="AB241" s="24"/>
+      <c r="AC241" s="24"/>
+      <c r="AD241" s="24"/>
+      <c r="AE241" s="24"/>
+      <c r="AF241" s="24"/>
+      <c r="AG241" s="24"/>
+      <c r="AH241" s="24"/>
+      <c r="AI241" s="25"/>
+    </row>
+    <row r="242" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E242" s="30"/>
       <c r="F242" s="46"/>
-      <c r="G242" s="48"/>
-      <c r="H242" s="50" t="s">
-        <v>132</v>
-      </c>
+      <c r="G242" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="H242" s="50"/>
       <c r="I242" s="19"/>
       <c r="J242" s="19"/>
       <c r="K242" s="19"/>
@@ -8894,13 +8428,13 @@
       <c r="AH242" s="19"/>
       <c r="AI242" s="20"/>
     </row>
-    <row r="243" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E243" s="30"/>
       <c r="F243" s="46"/>
-      <c r="G243" s="48"/>
-      <c r="H243" s="50" t="s">
-        <v>133</v>
-      </c>
+      <c r="G243" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H243" s="50"/>
       <c r="I243" s="19"/>
       <c r="J243" s="19"/>
       <c r="K243" s="19"/>
@@ -8929,12 +8463,12 @@
       <c r="AH243" s="19"/>
       <c r="AI243" s="20"/>
     </row>
-    <row r="244" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E244" s="30"/>
       <c r="F244" s="46"/>
       <c r="G244" s="48"/>
       <c r="H244" s="50" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I244" s="19"/>
       <c r="J244" s="19"/>
@@ -8964,46 +8498,48 @@
       <c r="AH244" s="19"/>
       <c r="AI244" s="20"/>
     </row>
-    <row r="245" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E245" s="30"/>
       <c r="F245" s="46"/>
-      <c r="G245" s="49"/>
-      <c r="H245" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="I245" s="41"/>
-      <c r="J245" s="41"/>
-      <c r="K245" s="41"/>
-      <c r="L245" s="41"/>
-      <c r="M245" s="41"/>
-      <c r="N245" s="41"/>
-      <c r="O245" s="41"/>
-      <c r="P245" s="41"/>
-      <c r="Q245" s="41"/>
-      <c r="R245" s="41"/>
-      <c r="S245" s="41"/>
-      <c r="T245" s="41"/>
-      <c r="U245" s="41"/>
-      <c r="V245" s="41"/>
-      <c r="W245" s="41"/>
-      <c r="X245" s="41"/>
-      <c r="Y245" s="41"/>
-      <c r="Z245" s="41"/>
-      <c r="AA245" s="41"/>
-      <c r="AB245" s="41"/>
-      <c r="AC245" s="41"/>
-      <c r="AD245" s="41"/>
-      <c r="AE245" s="41"/>
-      <c r="AF245" s="41"/>
-      <c r="AG245" s="41"/>
-      <c r="AH245" s="41"/>
-      <c r="AI245" s="42"/>
-    </row>
-    <row r="246" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G245" s="48"/>
+      <c r="H245" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I245" s="19"/>
+      <c r="J245" s="19"/>
+      <c r="K245" s="19"/>
+      <c r="L245" s="19"/>
+      <c r="M245" s="19"/>
+      <c r="N245" s="19"/>
+      <c r="O245" s="19"/>
+      <c r="P245" s="19"/>
+      <c r="Q245" s="19"/>
+      <c r="R245" s="19"/>
+      <c r="S245" s="19"/>
+      <c r="T245" s="19"/>
+      <c r="U245" s="19"/>
+      <c r="V245" s="19"/>
+      <c r="W245" s="19"/>
+      <c r="X245" s="19"/>
+      <c r="Y245" s="19"/>
+      <c r="Z245" s="19"/>
+      <c r="AA245" s="19"/>
+      <c r="AB245" s="19"/>
+      <c r="AC245" s="19"/>
+      <c r="AD245" s="19"/>
+      <c r="AE245" s="19"/>
+      <c r="AF245" s="19"/>
+      <c r="AG245" s="19"/>
+      <c r="AH245" s="19"/>
+      <c r="AI245" s="20"/>
+    </row>
+    <row r="246" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E246" s="30"/>
       <c r="F246" s="46"/>
-      <c r="G246" s="50"/>
-      <c r="H246" s="50"/>
+      <c r="G246" s="48"/>
+      <c r="H246" s="50" t="s">
+        <v>126</v>
+      </c>
       <c r="I246" s="19"/>
       <c r="J246" s="19"/>
       <c r="K246" s="19"/>
@@ -9030,50 +8566,848 @@
       <c r="AF246" s="19"/>
       <c r="AG246" s="19"/>
       <c r="AH246" s="19"/>
-      <c r="AI246" s="19"/>
-    </row>
-    <row r="247" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="45"/>
-      <c r="B247" s="45"/>
-      <c r="D247" s="46" t="str">
+      <c r="AI246" s="20"/>
+    </row>
+    <row r="247" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E247" s="30"/>
+      <c r="F247" s="46"/>
+      <c r="G247" s="48"/>
+      <c r="H247" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="I247" s="19"/>
+      <c r="J247" s="19"/>
+      <c r="K247" s="19"/>
+      <c r="L247" s="19"/>
+      <c r="M247" s="19"/>
+      <c r="N247" s="19"/>
+      <c r="O247" s="19"/>
+      <c r="P247" s="19"/>
+      <c r="Q247" s="19"/>
+      <c r="R247" s="19"/>
+      <c r="S247" s="19"/>
+      <c r="T247" s="19"/>
+      <c r="U247" s="19"/>
+      <c r="V247" s="19"/>
+      <c r="W247" s="19"/>
+      <c r="X247" s="19"/>
+      <c r="Y247" s="19"/>
+      <c r="Z247" s="19"/>
+      <c r="AA247" s="19"/>
+      <c r="AB247" s="19"/>
+      <c r="AC247" s="19"/>
+      <c r="AD247" s="19"/>
+      <c r="AE247" s="19"/>
+      <c r="AF247" s="19"/>
+      <c r="AG247" s="19"/>
+      <c r="AH247" s="19"/>
+      <c r="AI247" s="20"/>
+    </row>
+    <row r="248" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E248" s="30"/>
+      <c r="F248" s="46"/>
+      <c r="G248" s="48"/>
+      <c r="H248" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I248" s="19"/>
+      <c r="J248" s="19"/>
+      <c r="K248" s="19"/>
+      <c r="L248" s="19"/>
+      <c r="M248" s="19"/>
+      <c r="N248" s="19"/>
+      <c r="O248" s="19"/>
+      <c r="P248" s="19"/>
+      <c r="Q248" s="19"/>
+      <c r="R248" s="19"/>
+      <c r="S248" s="19"/>
+      <c r="T248" s="19"/>
+      <c r="U248" s="19"/>
+      <c r="V248" s="19"/>
+      <c r="W248" s="19"/>
+      <c r="X248" s="19"/>
+      <c r="Y248" s="19"/>
+      <c r="Z248" s="19"/>
+      <c r="AA248" s="19"/>
+      <c r="AB248" s="19"/>
+      <c r="AC248" s="19"/>
+      <c r="AD248" s="19"/>
+      <c r="AE248" s="19"/>
+      <c r="AF248" s="19"/>
+      <c r="AG248" s="19"/>
+      <c r="AH248" s="19"/>
+      <c r="AI248" s="20"/>
+    </row>
+    <row r="249" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E249" s="30"/>
+      <c r="F249" s="46"/>
+      <c r="G249" s="48"/>
+      <c r="H249" s="50"/>
+      <c r="I249" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J249" s="19"/>
+      <c r="K249" s="19"/>
+      <c r="L249" s="19"/>
+      <c r="M249" s="19"/>
+      <c r="N249" s="19"/>
+      <c r="O249" s="19"/>
+      <c r="P249" s="19"/>
+      <c r="Q249" s="19"/>
+      <c r="R249" s="19"/>
+      <c r="S249" s="19"/>
+      <c r="T249" s="19"/>
+      <c r="U249" s="19"/>
+      <c r="V249" s="19"/>
+      <c r="W249" s="19"/>
+      <c r="X249" s="19"/>
+      <c r="Y249" s="19"/>
+      <c r="Z249" s="19"/>
+      <c r="AA249" s="19"/>
+      <c r="AB249" s="19"/>
+      <c r="AC249" s="19"/>
+      <c r="AD249" s="19"/>
+      <c r="AE249" s="19"/>
+      <c r="AF249" s="19"/>
+      <c r="AG249" s="19"/>
+      <c r="AH249" s="19"/>
+      <c r="AI249" s="20"/>
+    </row>
+    <row r="250" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E250" s="30"/>
+      <c r="F250" s="46"/>
+      <c r="G250" s="48"/>
+      <c r="H250" s="50"/>
+      <c r="I250" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J250" s="19"/>
+      <c r="K250" s="19"/>
+      <c r="L250" s="19"/>
+      <c r="M250" s="19"/>
+      <c r="N250" s="19"/>
+      <c r="O250" s="19"/>
+      <c r="P250" s="19"/>
+      <c r="Q250" s="19"/>
+      <c r="R250" s="19"/>
+      <c r="S250" s="19"/>
+      <c r="T250" s="19"/>
+      <c r="U250" s="19"/>
+      <c r="V250" s="19"/>
+      <c r="W250" s="19"/>
+      <c r="X250" s="19"/>
+      <c r="Y250" s="19"/>
+      <c r="Z250" s="19"/>
+      <c r="AA250" s="19"/>
+      <c r="AB250" s="19"/>
+      <c r="AC250" s="19"/>
+      <c r="AD250" s="19"/>
+      <c r="AE250" s="19"/>
+      <c r="AF250" s="19"/>
+      <c r="AG250" s="19"/>
+      <c r="AH250" s="19"/>
+      <c r="AI250" s="20"/>
+    </row>
+    <row r="251" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E251" s="30"/>
+      <c r="F251" s="46"/>
+      <c r="G251" s="48"/>
+      <c r="H251" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I251" s="19"/>
+      <c r="J251" s="19"/>
+      <c r="K251" s="19"/>
+      <c r="L251" s="19"/>
+      <c r="M251" s="19"/>
+      <c r="N251" s="19"/>
+      <c r="O251" s="19"/>
+      <c r="P251" s="19"/>
+      <c r="Q251" s="19"/>
+      <c r="R251" s="19"/>
+      <c r="S251" s="19"/>
+      <c r="T251" s="19"/>
+      <c r="U251" s="19"/>
+      <c r="V251" s="19"/>
+      <c r="W251" s="19"/>
+      <c r="X251" s="19"/>
+      <c r="Y251" s="19"/>
+      <c r="Z251" s="19"/>
+      <c r="AA251" s="19"/>
+      <c r="AB251" s="19"/>
+      <c r="AC251" s="19"/>
+      <c r="AD251" s="19"/>
+      <c r="AE251" s="19"/>
+      <c r="AF251" s="19"/>
+      <c r="AG251" s="19"/>
+      <c r="AH251" s="19"/>
+      <c r="AI251" s="20"/>
+    </row>
+    <row r="252" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E252" s="30"/>
+      <c r="F252" s="46"/>
+      <c r="G252" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H252" s="50"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="19"/>
+      <c r="K252" s="19"/>
+      <c r="L252" s="19"/>
+      <c r="M252" s="19"/>
+      <c r="N252" s="19"/>
+      <c r="O252" s="19"/>
+      <c r="P252" s="19"/>
+      <c r="Q252" s="19"/>
+      <c r="R252" s="19"/>
+      <c r="S252" s="19"/>
+      <c r="T252" s="19"/>
+      <c r="U252" s="19"/>
+      <c r="V252" s="19"/>
+      <c r="W252" s="19"/>
+      <c r="X252" s="19"/>
+      <c r="Y252" s="19"/>
+      <c r="Z252" s="19"/>
+      <c r="AA252" s="19"/>
+      <c r="AB252" s="19"/>
+      <c r="AC252" s="19"/>
+      <c r="AD252" s="19"/>
+      <c r="AE252" s="19"/>
+      <c r="AF252" s="19"/>
+      <c r="AG252" s="19"/>
+      <c r="AH252" s="19"/>
+      <c r="AI252" s="20"/>
+    </row>
+    <row r="253" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E253" s="30"/>
+      <c r="F253" s="46"/>
+      <c r="G253" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="H253" s="50"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="19"/>
+      <c r="K253" s="19"/>
+      <c r="L253" s="19"/>
+      <c r="M253" s="19"/>
+      <c r="N253" s="19"/>
+      <c r="O253" s="19"/>
+      <c r="P253" s="19"/>
+      <c r="Q253" s="19"/>
+      <c r="R253" s="19"/>
+      <c r="S253" s="19"/>
+      <c r="T253" s="19"/>
+      <c r="U253" s="19"/>
+      <c r="V253" s="19"/>
+      <c r="W253" s="19"/>
+      <c r="X253" s="19"/>
+      <c r="Y253" s="19"/>
+      <c r="Z253" s="19"/>
+      <c r="AA253" s="19"/>
+      <c r="AB253" s="19"/>
+      <c r="AC253" s="19"/>
+      <c r="AD253" s="19"/>
+      <c r="AE253" s="19"/>
+      <c r="AF253" s="19"/>
+      <c r="AG253" s="19"/>
+      <c r="AH253" s="19"/>
+      <c r="AI253" s="20"/>
+    </row>
+    <row r="254" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E254" s="30"/>
+      <c r="F254" s="46"/>
+      <c r="G254" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="H254" s="50"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="19"/>
+      <c r="K254" s="19"/>
+      <c r="L254" s="19"/>
+      <c r="M254" s="19"/>
+      <c r="N254" s="19"/>
+      <c r="O254" s="19"/>
+      <c r="P254" s="19"/>
+      <c r="Q254" s="19"/>
+      <c r="R254" s="19"/>
+      <c r="S254" s="19"/>
+      <c r="T254" s="19"/>
+      <c r="U254" s="19"/>
+      <c r="V254" s="19"/>
+      <c r="W254" s="19"/>
+      <c r="X254" s="19"/>
+      <c r="Y254" s="19"/>
+      <c r="Z254" s="19"/>
+      <c r="AA254" s="19"/>
+      <c r="AB254" s="19"/>
+      <c r="AC254" s="19"/>
+      <c r="AD254" s="19"/>
+      <c r="AE254" s="19"/>
+      <c r="AF254" s="19"/>
+      <c r="AG254" s="19"/>
+      <c r="AH254" s="19"/>
+      <c r="AI254" s="20"/>
+    </row>
+    <row r="255" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E255" s="30"/>
+      <c r="F255" s="46"/>
+      <c r="G255" s="48"/>
+      <c r="H255" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I255" s="19"/>
+      <c r="J255" s="19"/>
+      <c r="K255" s="19"/>
+      <c r="L255" s="19"/>
+      <c r="M255" s="19"/>
+      <c r="N255" s="19"/>
+      <c r="O255" s="19"/>
+      <c r="P255" s="19"/>
+      <c r="Q255" s="19"/>
+      <c r="R255" s="19"/>
+      <c r="S255" s="19"/>
+      <c r="T255" s="19"/>
+      <c r="U255" s="19"/>
+      <c r="V255" s="19"/>
+      <c r="W255" s="19"/>
+      <c r="X255" s="19"/>
+      <c r="Y255" s="19"/>
+      <c r="Z255" s="19"/>
+      <c r="AA255" s="19"/>
+      <c r="AB255" s="19"/>
+      <c r="AC255" s="19"/>
+      <c r="AD255" s="19"/>
+      <c r="AE255" s="19"/>
+      <c r="AF255" s="19"/>
+      <c r="AG255" s="19"/>
+      <c r="AH255" s="19"/>
+      <c r="AI255" s="20"/>
+    </row>
+    <row r="256" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E256" s="30"/>
+      <c r="F256" s="46"/>
+      <c r="G256" s="48"/>
+      <c r="H256" s="50"/>
+      <c r="I256" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J256" s="19"/>
+      <c r="K256" s="19"/>
+      <c r="L256" s="19"/>
+      <c r="M256" s="19"/>
+      <c r="N256" s="19"/>
+      <c r="O256" s="19"/>
+      <c r="P256" s="19"/>
+      <c r="Q256" s="19"/>
+      <c r="R256" s="19"/>
+      <c r="S256" s="19"/>
+      <c r="T256" s="19"/>
+      <c r="U256" s="19"/>
+      <c r="V256" s="19"/>
+      <c r="W256" s="19"/>
+      <c r="X256" s="19"/>
+      <c r="Y256" s="19"/>
+      <c r="Z256" s="19"/>
+      <c r="AA256" s="19"/>
+      <c r="AB256" s="19"/>
+      <c r="AC256" s="19"/>
+      <c r="AD256" s="19"/>
+      <c r="AE256" s="19"/>
+      <c r="AF256" s="19"/>
+      <c r="AG256" s="19"/>
+      <c r="AH256" s="19"/>
+      <c r="AI256" s="20"/>
+    </row>
+    <row r="257" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E257" s="30"/>
+      <c r="F257" s="46"/>
+      <c r="G257" s="48"/>
+      <c r="H257" s="50"/>
+      <c r="I257" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J257" s="19"/>
+      <c r="K257" s="19"/>
+      <c r="L257" s="19"/>
+      <c r="M257" s="19"/>
+      <c r="N257" s="19"/>
+      <c r="O257" s="19"/>
+      <c r="P257" s="19"/>
+      <c r="Q257" s="19"/>
+      <c r="R257" s="19"/>
+      <c r="S257" s="19"/>
+      <c r="T257" s="19"/>
+      <c r="U257" s="19"/>
+      <c r="V257" s="19"/>
+      <c r="W257" s="19"/>
+      <c r="X257" s="19"/>
+      <c r="Y257" s="19"/>
+      <c r="Z257" s="19"/>
+      <c r="AA257" s="19"/>
+      <c r="AB257" s="19"/>
+      <c r="AC257" s="19"/>
+      <c r="AD257" s="19"/>
+      <c r="AE257" s="19"/>
+      <c r="AF257" s="19"/>
+      <c r="AG257" s="19"/>
+      <c r="AH257" s="19"/>
+      <c r="AI257" s="20"/>
+    </row>
+    <row r="258" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E258" s="30"/>
+      <c r="F258" s="46"/>
+      <c r="G258" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H258" s="50"/>
+      <c r="I258" s="19"/>
+      <c r="J258" s="19"/>
+      <c r="K258" s="19"/>
+      <c r="L258" s="19"/>
+      <c r="M258" s="19"/>
+      <c r="N258" s="19"/>
+      <c r="O258" s="19"/>
+      <c r="P258" s="19"/>
+      <c r="Q258" s="19"/>
+      <c r="R258" s="19"/>
+      <c r="S258" s="19"/>
+      <c r="T258" s="19"/>
+      <c r="U258" s="19"/>
+      <c r="V258" s="19"/>
+      <c r="W258" s="19"/>
+      <c r="X258" s="19"/>
+      <c r="Y258" s="19"/>
+      <c r="Z258" s="19"/>
+      <c r="AA258" s="19"/>
+      <c r="AB258" s="19"/>
+      <c r="AC258" s="19"/>
+      <c r="AD258" s="19"/>
+      <c r="AE258" s="19"/>
+      <c r="AF258" s="19"/>
+      <c r="AG258" s="19"/>
+      <c r="AH258" s="19"/>
+      <c r="AI258" s="20"/>
+    </row>
+    <row r="259" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E259" s="30"/>
+      <c r="F259" s="46"/>
+      <c r="G259" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="H259" s="50"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="19"/>
+      <c r="K259" s="19"/>
+      <c r="L259" s="19"/>
+      <c r="M259" s="19"/>
+      <c r="N259" s="19"/>
+      <c r="O259" s="19"/>
+      <c r="P259" s="19"/>
+      <c r="Q259" s="19"/>
+      <c r="R259" s="19"/>
+      <c r="S259" s="19"/>
+      <c r="T259" s="19"/>
+      <c r="U259" s="19"/>
+      <c r="V259" s="19"/>
+      <c r="W259" s="19"/>
+      <c r="X259" s="19"/>
+      <c r="Y259" s="19"/>
+      <c r="Z259" s="19"/>
+      <c r="AA259" s="19"/>
+      <c r="AB259" s="19"/>
+      <c r="AC259" s="19"/>
+      <c r="AD259" s="19"/>
+      <c r="AE259" s="19"/>
+      <c r="AF259" s="19"/>
+      <c r="AG259" s="19"/>
+      <c r="AH259" s="19"/>
+      <c r="AI259" s="20"/>
+    </row>
+    <row r="260" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E260" s="30"/>
+      <c r="F260" s="46"/>
+      <c r="G260" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="H260" s="50"/>
+      <c r="I260" s="19"/>
+      <c r="J260" s="19"/>
+      <c r="K260" s="19"/>
+      <c r="L260" s="19"/>
+      <c r="M260" s="19"/>
+      <c r="N260" s="19"/>
+      <c r="O260" s="19"/>
+      <c r="P260" s="19"/>
+      <c r="Q260" s="19"/>
+      <c r="R260" s="19"/>
+      <c r="S260" s="19"/>
+      <c r="T260" s="19"/>
+      <c r="U260" s="19"/>
+      <c r="V260" s="19"/>
+      <c r="W260" s="19"/>
+      <c r="X260" s="19"/>
+      <c r="Y260" s="19"/>
+      <c r="Z260" s="19"/>
+      <c r="AA260" s="19"/>
+      <c r="AB260" s="19"/>
+      <c r="AC260" s="19"/>
+      <c r="AD260" s="19"/>
+      <c r="AE260" s="19"/>
+      <c r="AF260" s="19"/>
+      <c r="AG260" s="19"/>
+      <c r="AH260" s="19"/>
+      <c r="AI260" s="20"/>
+    </row>
+    <row r="261" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E261" s="30"/>
+      <c r="F261" s="46"/>
+      <c r="G261" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="H261" s="50"/>
+      <c r="I261" s="19"/>
+      <c r="J261" s="19"/>
+      <c r="K261" s="19"/>
+      <c r="L261" s="19"/>
+      <c r="M261" s="19"/>
+      <c r="N261" s="19"/>
+      <c r="O261" s="19"/>
+      <c r="P261" s="19"/>
+      <c r="Q261" s="19"/>
+      <c r="R261" s="19"/>
+      <c r="S261" s="19"/>
+      <c r="T261" s="19"/>
+      <c r="U261" s="19"/>
+      <c r="V261" s="19"/>
+      <c r="W261" s="19"/>
+      <c r="X261" s="19"/>
+      <c r="Y261" s="19"/>
+      <c r="Z261" s="19"/>
+      <c r="AA261" s="19"/>
+      <c r="AB261" s="19"/>
+      <c r="AC261" s="19"/>
+      <c r="AD261" s="19"/>
+      <c r="AE261" s="19"/>
+      <c r="AF261" s="19"/>
+      <c r="AG261" s="19"/>
+      <c r="AH261" s="19"/>
+      <c r="AI261" s="20"/>
+    </row>
+    <row r="262" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E262" s="30"/>
+      <c r="F262" s="46"/>
+      <c r="G262" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H262" s="50"/>
+      <c r="I262" s="19"/>
+      <c r="J262" s="19"/>
+      <c r="K262" s="19"/>
+      <c r="L262" s="19"/>
+      <c r="M262" s="19"/>
+      <c r="N262" s="19"/>
+      <c r="O262" s="19"/>
+      <c r="P262" s="19"/>
+      <c r="Q262" s="19"/>
+      <c r="R262" s="19"/>
+      <c r="S262" s="19"/>
+      <c r="T262" s="19"/>
+      <c r="U262" s="19"/>
+      <c r="V262" s="19"/>
+      <c r="W262" s="19"/>
+      <c r="X262" s="19"/>
+      <c r="Y262" s="19"/>
+      <c r="Z262" s="19"/>
+      <c r="AA262" s="19"/>
+      <c r="AB262" s="19"/>
+      <c r="AC262" s="19"/>
+      <c r="AD262" s="19"/>
+      <c r="AE262" s="19"/>
+      <c r="AF262" s="19"/>
+      <c r="AG262" s="19"/>
+      <c r="AH262" s="19"/>
+      <c r="AI262" s="20"/>
+    </row>
+    <row r="263" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E263" s="30"/>
+      <c r="F263" s="46"/>
+      <c r="G263" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="H263" s="50"/>
+      <c r="I263" s="19"/>
+      <c r="J263" s="19"/>
+      <c r="K263" s="19"/>
+      <c r="L263" s="19"/>
+      <c r="M263" s="19"/>
+      <c r="N263" s="19"/>
+      <c r="O263" s="19"/>
+      <c r="P263" s="19"/>
+      <c r="Q263" s="19"/>
+      <c r="R263" s="19"/>
+      <c r="S263" s="19"/>
+      <c r="T263" s="19"/>
+      <c r="U263" s="19"/>
+      <c r="V263" s="19"/>
+      <c r="W263" s="19"/>
+      <c r="X263" s="19"/>
+      <c r="Y263" s="19"/>
+      <c r="Z263" s="19"/>
+      <c r="AA263" s="19"/>
+      <c r="AB263" s="19"/>
+      <c r="AC263" s="19"/>
+      <c r="AD263" s="19"/>
+      <c r="AE263" s="19"/>
+      <c r="AF263" s="19"/>
+      <c r="AG263" s="19"/>
+      <c r="AH263" s="19"/>
+      <c r="AI263" s="20"/>
+    </row>
+    <row r="264" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E264" s="30"/>
+      <c r="F264" s="46"/>
+      <c r="G264" s="48"/>
+      <c r="H264" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I264" s="19"/>
+      <c r="J264" s="19"/>
+      <c r="K264" s="19"/>
+      <c r="L264" s="19"/>
+      <c r="M264" s="19"/>
+      <c r="N264" s="19"/>
+      <c r="O264" s="19"/>
+      <c r="P264" s="19"/>
+      <c r="Q264" s="19"/>
+      <c r="R264" s="19"/>
+      <c r="S264" s="19"/>
+      <c r="T264" s="19"/>
+      <c r="U264" s="19"/>
+      <c r="V264" s="19"/>
+      <c r="W264" s="19"/>
+      <c r="X264" s="19"/>
+      <c r="Y264" s="19"/>
+      <c r="Z264" s="19"/>
+      <c r="AA264" s="19"/>
+      <c r="AB264" s="19"/>
+      <c r="AC264" s="19"/>
+      <c r="AD264" s="19"/>
+      <c r="AE264" s="19"/>
+      <c r="AF264" s="19"/>
+      <c r="AG264" s="19"/>
+      <c r="AH264" s="19"/>
+      <c r="AI264" s="20"/>
+    </row>
+    <row r="265" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E265" s="30"/>
+      <c r="F265" s="46"/>
+      <c r="G265" s="48"/>
+      <c r="H265" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I265" s="19"/>
+      <c r="J265" s="19"/>
+      <c r="K265" s="19"/>
+      <c r="L265" s="19"/>
+      <c r="M265" s="19"/>
+      <c r="N265" s="19"/>
+      <c r="O265" s="19"/>
+      <c r="P265" s="19"/>
+      <c r="Q265" s="19"/>
+      <c r="R265" s="19"/>
+      <c r="S265" s="19"/>
+      <c r="T265" s="19"/>
+      <c r="U265" s="19"/>
+      <c r="V265" s="19"/>
+      <c r="W265" s="19"/>
+      <c r="X265" s="19"/>
+      <c r="Y265" s="19"/>
+      <c r="Z265" s="19"/>
+      <c r="AA265" s="19"/>
+      <c r="AB265" s="19"/>
+      <c r="AC265" s="19"/>
+      <c r="AD265" s="19"/>
+      <c r="AE265" s="19"/>
+      <c r="AF265" s="19"/>
+      <c r="AG265" s="19"/>
+      <c r="AH265" s="19"/>
+      <c r="AI265" s="20"/>
+    </row>
+    <row r="266" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E266" s="30"/>
+      <c r="F266" s="46"/>
+      <c r="G266" s="48"/>
+      <c r="H266" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="I266" s="19"/>
+      <c r="J266" s="19"/>
+      <c r="K266" s="19"/>
+      <c r="L266" s="19"/>
+      <c r="M266" s="19"/>
+      <c r="N266" s="19"/>
+      <c r="O266" s="19"/>
+      <c r="P266" s="19"/>
+      <c r="Q266" s="19"/>
+      <c r="R266" s="19"/>
+      <c r="S266" s="19"/>
+      <c r="T266" s="19"/>
+      <c r="U266" s="19"/>
+      <c r="V266" s="19"/>
+      <c r="W266" s="19"/>
+      <c r="X266" s="19"/>
+      <c r="Y266" s="19"/>
+      <c r="Z266" s="19"/>
+      <c r="AA266" s="19"/>
+      <c r="AB266" s="19"/>
+      <c r="AC266" s="19"/>
+      <c r="AD266" s="19"/>
+      <c r="AE266" s="19"/>
+      <c r="AF266" s="19"/>
+      <c r="AG266" s="19"/>
+      <c r="AH266" s="19"/>
+      <c r="AI266" s="20"/>
+    </row>
+    <row r="267" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E267" s="30"/>
+      <c r="F267" s="46"/>
+      <c r="G267" s="48"/>
+      <c r="H267" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I267" s="19"/>
+      <c r="J267" s="19"/>
+      <c r="K267" s="19"/>
+      <c r="L267" s="19"/>
+      <c r="M267" s="19"/>
+      <c r="N267" s="19"/>
+      <c r="O267" s="19"/>
+      <c r="P267" s="19"/>
+      <c r="Q267" s="19"/>
+      <c r="R267" s="19"/>
+      <c r="S267" s="19"/>
+      <c r="T267" s="19"/>
+      <c r="U267" s="19"/>
+      <c r="V267" s="19"/>
+      <c r="W267" s="19"/>
+      <c r="X267" s="19"/>
+      <c r="Y267" s="19"/>
+      <c r="Z267" s="19"/>
+      <c r="AA267" s="19"/>
+      <c r="AB267" s="19"/>
+      <c r="AC267" s="19"/>
+      <c r="AD267" s="19"/>
+      <c r="AE267" s="19"/>
+      <c r="AF267" s="19"/>
+      <c r="AG267" s="19"/>
+      <c r="AH267" s="19"/>
+      <c r="AI267" s="20"/>
+    </row>
+    <row r="268" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E268" s="30"/>
+      <c r="F268" s="46"/>
+      <c r="G268" s="49"/>
+      <c r="H268" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I268" s="41"/>
+      <c r="J268" s="41"/>
+      <c r="K268" s="41"/>
+      <c r="L268" s="41"/>
+      <c r="M268" s="41"/>
+      <c r="N268" s="41"/>
+      <c r="O268" s="41"/>
+      <c r="P268" s="41"/>
+      <c r="Q268" s="41"/>
+      <c r="R268" s="41"/>
+      <c r="S268" s="41"/>
+      <c r="T268" s="41"/>
+      <c r="U268" s="41"/>
+      <c r="V268" s="41"/>
+      <c r="W268" s="41"/>
+      <c r="X268" s="41"/>
+      <c r="Y268" s="41"/>
+      <c r="Z268" s="41"/>
+      <c r="AA268" s="41"/>
+      <c r="AB268" s="41"/>
+      <c r="AC268" s="41"/>
+      <c r="AD268" s="41"/>
+      <c r="AE268" s="41"/>
+      <c r="AF268" s="41"/>
+      <c r="AG268" s="41"/>
+      <c r="AH268" s="41"/>
+      <c r="AI268" s="42"/>
+    </row>
+    <row r="269" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E269" s="30"/>
+      <c r="F269" s="46"/>
+      <c r="G269" s="50"/>
+      <c r="H269" s="50"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="19"/>
+      <c r="K269" s="19"/>
+      <c r="L269" s="19"/>
+      <c r="M269" s="19"/>
+      <c r="N269" s="19"/>
+      <c r="O269" s="19"/>
+      <c r="P269" s="19"/>
+      <c r="Q269" s="19"/>
+      <c r="R269" s="19"/>
+      <c r="S269" s="19"/>
+      <c r="T269" s="19"/>
+      <c r="U269" s="19"/>
+      <c r="V269" s="19"/>
+      <c r="W269" s="19"/>
+      <c r="X269" s="19"/>
+      <c r="Y269" s="19"/>
+      <c r="Z269" s="19"/>
+      <c r="AA269" s="19"/>
+      <c r="AB269" s="19"/>
+      <c r="AC269" s="19"/>
+      <c r="AD269" s="19"/>
+      <c r="AE269" s="19"/>
+      <c r="AF269" s="19"/>
+      <c r="AG269" s="19"/>
+      <c r="AH269" s="19"/>
+      <c r="AI269" s="19"/>
+    </row>
+    <row r="270" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="45"/>
+      <c r="B270" s="45"/>
+      <c r="D270" s="46" t="str">
         <f>$C$7&amp;"5."</f>
         <v>7.13.5.</v>
       </c>
-      <c r="E247" s="31" t="s">
+      <c r="E270" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F247" s="31"/>
-      <c r="AF247" s="45"/>
-      <c r="AG247" s="45"/>
-    </row>
-    <row r="248" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="45"/>
-      <c r="B248" s="45"/>
-      <c r="E248" s="31" t="s">
+      <c r="F270" s="31"/>
+      <c r="AF270" s="45"/>
+      <c r="AG270" s="45"/>
+    </row>
+    <row r="271" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="45"/>
+      <c r="B271" s="45"/>
+      <c r="E271" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="F248" s="31"/>
-      <c r="AF248" s="45"/>
-      <c r="AG248" s="45"/>
-    </row>
-    <row r="249" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="45"/>
-      <c r="B249" s="45"/>
-      <c r="E249" s="30"/>
-      <c r="AF249" s="45"/>
-      <c r="AG249" s="45"/>
-    </row>
-    <row r="250" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF250" s="45"/>
-      <c r="AG250" s="45"/>
+      <c r="F271" s="31"/>
+      <c r="AF271" s="45"/>
+      <c r="AG271" s="45"/>
+    </row>
+    <row r="272" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="45"/>
+      <c r="B272" s="45"/>
+      <c r="E272" s="30"/>
+      <c r="AF272" s="45"/>
+      <c r="AG272" s="45"/>
+    </row>
+    <row r="273" spans="32:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF273" s="45"/>
+      <c r="AG273" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J111:AF111"/>
-    <mergeCell ref="J112:AF112"/>
-    <mergeCell ref="J113:AF113"/>
-    <mergeCell ref="J114:AF114"/>
-    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -9084,24 +9418,30 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="J111:AF111"/>
+    <mergeCell ref="J112:AF112"/>
+    <mergeCell ref="J113:AF113"/>
+    <mergeCell ref="J114:AF114"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="J113" r:id="rId1" location="sql-log-setting" xr:uid="{615F727B-CFE3-4A27-B30F-2FF2BF0CAF72}"/>
-    <hyperlink ref="J111" r:id="rId2" location="failure-log-setting" xr:uid="{89637189-B445-45C3-B036-52F03ED7CAF4}"/>
-    <hyperlink ref="J112" r:id="rId3" location="http-access-log-setting" xr:uid="{AD1B6E7A-3435-42CF-8CF7-2996C82FD858}"/>
-    <hyperlink ref="J114" r:id="rId4" location="performance-log-setting" xr:uid="{0AE748C3-4A51-44B5-91C5-52AA8395E1D9}"/>
+    <hyperlink ref="J113" r:id="rId1" location="sql-log-setting" xr:uid="{52996156-CF03-4A13-9B78-35894E8A177D}"/>
+    <hyperlink ref="J111" r:id="rId2" location="failure-log-setting" xr:uid="{4B5540C5-BAC2-46C8-9EA6-27E7EECDE333}"/>
+    <hyperlink ref="J112" r:id="rId3" location="http-access-log-setting" xr:uid="{AFF0734E-51A8-40B8-8554-6558C3D47A2C}"/>
+    <hyperlink ref="J114" r:id="rId4" location="performance-log-setting" xr:uid="{1EE586A6-5FD6-48C4-ACEB-F877AB33F8B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId5"/>
-  <rowBreaks count="7" manualBreakCount="7">
+  <rowBreaks count="8" manualBreakCount="8">
     <brk id="39" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
-    <brk id="117" max="34" man="1"/>
-    <brk id="157" max="34" man="1"/>
-    <brk id="196" max="34" man="1"/>
-    <brk id="216" max="34" man="1"/>
-    <brk id="157" max="34" man="1"/>
+    <brk id="105" max="34" man="1"/>
+    <brk id="140" max="34" man="1"/>
+    <brk id="180" max="34" man="1"/>
+    <brk id="219" max="34" man="1"/>
+    <brk id="239" max="34" man="1"/>
+    <brk id="180" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAFC639-43A7-4687-B687-46881A00F671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC332771-2DEE-4B64-8231-5308C99A66AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$273</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$99</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$222</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$97</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="257">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -109,10 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アクセスログ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(3)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -178,10 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>上記の特徴を踏まえ、本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログレベル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -313,16 +305,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログファイルの種類には、以下がある。</t>
-    <rPh sb="7" eb="9">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>方針</t>
     <rPh sb="0" eb="2">
       <t>ホウシン</t>
@@ -353,13 +335,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログ出力先(物理名)</t>
     <rPh sb="2" eb="4">
       <t>シュツリョク</t>
@@ -384,10 +359,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>access.log</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>出力対象のログ</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
@@ -408,10 +379,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アクセスログ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログファイル切替基準</t>
     <rPh sb="6" eb="8">
       <t>キリカエ</t>
@@ -617,52 +584,6 @@
     <t>ログインパスワード</t>
   </si>
   <si>
-    <t>url         = [http://localhost:8880/action/ss11AA/W11AA01Action/RW11AA0102]</t>
-  </si>
-  <si>
-    <t>method      = [POST]</t>
-  </si>
-  <si>
-    <t>port        = [8880]</t>
-  </si>
-  <si>
-    <t>client_ip   = [127.0.0.1]</t>
-  </si>
-  <si>
-    <t>parameters  = [{</t>
-  </si>
-  <si>
-    <t>password = [********],</t>
-  </si>
-  <si>
-    <t>loginId = [nablarch]}]</t>
-  </si>
-  <si>
-    <t>start_time     = [2012-08-23 18:48:06.143]</t>
-  </si>
-  <si>
-    <t>end_time       = [2012-08-23 18:48:06.971]</t>
-  </si>
-  <si>
-    <t>execution_time = [828]</t>
-  </si>
-  <si>
-    <t>max_memory     = [66650112]</t>
-  </si>
-  <si>
-    <t>free_memory    = [56654464]</t>
-  </si>
-  <si>
-    <t>[1B0F055D05314CA0753180C42B02ECDB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[60952B8DEE8B80A8B5E2E50B07C9C535] url = [http://localhost:8880/action/ss11AA/W11AA01Action/RW11AA0102] status_code = [200] </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>content_path = [redirect:///action/ss11AB/W11AB01Action/RW11AB0101]</t>
-  </si>
-  <si>
     <t>MON</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -734,18 +655,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ログ出力日時&gt; - &lt;ログレベル&gt; - [&lt;実行時ID&gt;] &lt;HTTPアクセスメッセージ&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(4)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTTPアクセスメッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログ出力時に指定されたログメッセージ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -755,27 +664,6 @@
   </si>
   <si>
     <t xml:space="preserve">user_id = [nablarch] fail_code = [N000000001] an unexpected exception occurred. </t>
-  </si>
-  <si>
-    <t>2012-08-23 20:06:27.581 -INFO- [201208232006275660006] @@@@ DISPATCHING CLASS @@@@ class = [nablarch.sample.ss11AA.W11AA01Action]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-08-23 18:48:06.971 -INFO- [201208231848061430029] @@@@ END @@@@ rid = [RW11AA0102] uid = [9999999999] sid = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-08-23 18:48:06.143 -INFO- [201208231848061430029] @@@@ BEGIN @@@@ req_id = [RW11AA0102] user_id = [9999999999] session_id = </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>loginId = [=('%=#)!LDA!#%]}]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">user_agent  = [Mozilla/5.0 (Windows NT 6.3; WOW64; Trident/7.0; Touch; .NET4.0E; .NET4.0C; .NET CLR 3.5.30729; .NET CLR </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2.0.50727; .NET CLR 3.0.30729; Tablet PC 2.0; rv:11.0) like Gecko]</t>
   </si>
   <si>
     <t>画面</t>
@@ -1176,10 +1064,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アクセスログを出力するログファイル。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バッチ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1226,10 +1110,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アクセスログファイル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログの種類ごとのフォーマット</t>
     <rPh sb="3" eb="5">
       <t>シュルイ</t>
@@ -1278,30 +1158,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アクセスログのメッセージ。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>↓リクエスト処理開始時のHTTPアクセスメッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2012-08-23 18:48:06.143 -INFO- [201208231848061430029] @@@@ PARAMETERS @@@@</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>↓hiddenパラメータ復号後のHTTPアクセスメッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>↓ディスパッチ先クラス決定後のHTTPアクセスメッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>↓リクエスト処理終了時のHTTPアクセスメッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/log/failure_log.html#failure-log-setting</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1454,6 +1310,32 @@
   </si>
   <si>
     <t>※ &lt;メッセージ&gt;以降は、障害コードに応じたメッセージが出力されるため桁位置は可変となる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、以下のログファイルを出力する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それぞれのログファイルについて、出力対象などの詳細を記載する。</t>
+    <rPh sb="16" eb="20">
+      <t>シュツリョクタイショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キサイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1704,7 +1586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1858,9 +1740,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1882,6 +1761,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1890,72 +1835,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2288,7 +2167,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS273"/>
+  <dimension ref="A1:AS222"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2300,48 +2179,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="70"/>
+      <c r="R1" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="63"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="69"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2350,43 +2229,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="8" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
+      <c r="R2" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="75"/>
       <c r="Y2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="69"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2395,47 +2274,47 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78"/>
       <c r="Y3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="69"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="46" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2445,13 +2324,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="46"/>
       <c r="D8" s="45" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2491,7 +2370,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF12" s="45"/>
       <c r="AG12" s="45"/>
@@ -2501,78 +2380,78 @@
       <c r="B13" s="45"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="57"/>
+      <c r="F13" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="56"/>
     </row>
     <row r="14" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="53"/>
     </row>
     <row r="15" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45"/>
@@ -2580,18 +2459,18 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25"/>
       <c r="I15" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -2627,7 +2506,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="42"/>
       <c r="M16" s="41" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
@@ -2658,18 +2537,18 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -2707,7 +2586,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="42"/>
       <c r="M18" s="41" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -2738,18 +2617,18 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
       <c r="I19" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -2788,7 +2667,7 @@
       <c r="K20" s="19"/>
       <c r="L20" s="20"/>
       <c r="M20" s="19" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -2825,7 +2704,7 @@
       <c r="K21" s="41"/>
       <c r="L21" s="42"/>
       <c r="M21" s="41" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
@@ -2856,18 +2735,18 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
       <c r="I22" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="20"/>
       <c r="M22" s="19" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
@@ -2934,18 +2813,18 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
       <c r="I24" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
       <c r="M24" s="19" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
@@ -3012,18 +2891,18 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="20"/>
       <c r="I26" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="19" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -3098,7 +2977,7 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="16" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="AE29" s="45"/>
       <c r="AF29" s="45"/>
@@ -3109,12 +2988,12 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="29"/>
       <c r="I30" s="28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
@@ -3124,7 +3003,7 @@
       <c r="O30" s="28"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="28" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="R30" s="28"/>
       <c r="S30" s="28"/>
@@ -3157,7 +3036,7 @@
       <c r="G31" s="43"/>
       <c r="H31" s="44"/>
       <c r="I31" s="43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J31" s="43"/>
       <c r="K31" s="43"/>
@@ -3167,7 +3046,7 @@
       <c r="O31" s="43"/>
       <c r="P31" s="44"/>
       <c r="Q31" s="43" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="R31" s="43"/>
       <c r="S31" s="43"/>
@@ -3200,7 +3079,7 @@
       <c r="G32" s="43"/>
       <c r="H32" s="44"/>
       <c r="I32" s="43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J32" s="43"/>
       <c r="K32" s="43"/>
@@ -3210,7 +3089,7 @@
       <c r="O32" s="43"/>
       <c r="P32" s="44"/>
       <c r="Q32" s="43" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="R32" s="43"/>
       <c r="S32" s="43"/>
@@ -3243,7 +3122,7 @@
       <c r="G33" s="43"/>
       <c r="H33" s="44"/>
       <c r="I33" s="43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
@@ -3253,7 +3132,7 @@
       <c r="O33" s="43"/>
       <c r="P33" s="44"/>
       <c r="Q33" s="43" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="R33" s="43"/>
       <c r="S33" s="43"/>
@@ -3286,7 +3165,7 @@
       <c r="G34" s="43"/>
       <c r="H34" s="44"/>
       <c r="I34" s="43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
@@ -3296,7 +3175,7 @@
       <c r="O34" s="43"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="43" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="R34" s="43"/>
       <c r="S34" s="43"/>
@@ -3329,7 +3208,7 @@
       <c r="G35" s="24"/>
       <c r="H35" s="25"/>
       <c r="I35" s="24" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
@@ -3339,7 +3218,7 @@
       <c r="O35" s="24"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="24" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="R35" s="24"/>
       <c r="S35" s="24"/>
@@ -3367,7 +3246,7 @@
       <c r="G36" s="41"/>
       <c r="H36" s="42"/>
       <c r="I36" s="41" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
@@ -3377,7 +3256,7 @@
       <c r="O36" s="41"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="41" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="R36" s="41"/>
       <c r="S36" s="41"/>
@@ -3410,7 +3289,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="25"/>
       <c r="I37" s="24" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -3420,7 +3299,7 @@
       <c r="O37" s="24"/>
       <c r="P37" s="25"/>
       <c r="Q37" s="24" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="R37" s="24"/>
       <c r="S37" s="24"/>
@@ -3448,7 +3327,7 @@
       <c r="G38" s="41"/>
       <c r="H38" s="42"/>
       <c r="I38" s="41" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
@@ -3458,7 +3337,7 @@
       <c r="O38" s="41"/>
       <c r="P38" s="42"/>
       <c r="Q38" s="41" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="R38" s="41"/>
       <c r="S38" s="41"/>
@@ -3513,7 +3392,7 @@
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF42" s="45"/>
       <c r="AG42" s="45"/>
@@ -3522,20 +3401,20 @@
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
       <c r="F43" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
       <c r="K43" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
       <c r="N43" s="29"/>
       <c r="O43" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P43" s="28"/>
       <c r="Q43" s="28"/>
@@ -3562,20 +3441,20 @@
       <c r="A44" s="45"/>
       <c r="B44" s="45"/>
       <c r="F44" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="43"/>
       <c r="J44" s="43"/>
       <c r="K44" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L44" s="43"/>
       <c r="M44" s="43"/>
       <c r="N44" s="44"/>
       <c r="O44" s="43" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="P44" s="43"/>
       <c r="Q44" s="43"/>
@@ -3602,20 +3481,20 @@
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
       <c r="F45" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
       <c r="K45" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="20"/>
       <c r="O45" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -3649,7 +3528,7 @@
       <c r="M46" s="19"/>
       <c r="N46" s="20"/>
       <c r="O46" s="19" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
@@ -3685,7 +3564,7 @@
       <c r="M47" s="41"/>
       <c r="N47" s="42"/>
       <c r="O47" s="41" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="P47" s="41"/>
       <c r="Q47" s="41"/>
@@ -3712,20 +3591,20 @@
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="F48" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="20"/>
       <c r="O48" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -3759,7 +3638,7 @@
       <c r="M49" s="19"/>
       <c r="N49" s="20"/>
       <c r="O49" s="19" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -3795,7 +3674,7 @@
       <c r="M50" s="41"/>
       <c r="N50" s="42"/>
       <c r="O50" s="41" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="P50" s="41"/>
       <c r="Q50" s="41"/>
@@ -3822,20 +3701,20 @@
       <c r="A51" s="45"/>
       <c r="B51" s="45"/>
       <c r="F51" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="20"/>
       <c r="O51" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -3871,7 +3750,7 @@
       <c r="M52" s="41"/>
       <c r="N52" s="42"/>
       <c r="O52" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P52" s="41"/>
       <c r="Q52" s="41"/>
@@ -3898,20 +3777,20 @@
       <c r="A53" s="45"/>
       <c r="B53" s="45"/>
       <c r="F53" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
       <c r="N53" s="20"/>
       <c r="O53" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -3947,7 +3826,7 @@
       <c r="M54" s="19"/>
       <c r="N54" s="20"/>
       <c r="O54" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -3983,7 +3862,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="20"/>
       <c r="O55" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4019,7 +3898,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -4055,7 +3934,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -4091,7 +3970,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4125,7 +4004,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="20"/>
       <c r="O59" s="19" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -4161,7 +4040,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="20"/>
       <c r="O60" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -4197,7 +4076,7 @@
       <c r="M61" s="19"/>
       <c r="N61" s="20"/>
       <c r="O61" s="19" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -4233,7 +4112,7 @@
       <c r="M62" s="41"/>
       <c r="N62" s="42"/>
       <c r="O62" s="41" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P62" s="41"/>
       <c r="Q62" s="41"/>
@@ -4264,7 +4143,7 @@
     </row>
     <row r="64" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F64" s="45" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:45" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4320,7 +4199,7 @@
       <c r="A68" s="45"/>
       <c r="B68" s="45"/>
       <c r="F68" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF68" s="45"/>
       <c r="AG68" s="45"/>
@@ -4337,7 +4216,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="G70" s="30"/>
     </row>
@@ -4346,7 +4225,7 @@
       <c r="B71" s="45"/>
       <c r="E71" s="30"/>
       <c r="F71" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
@@ -4364,7 +4243,7 @@
       <c r="B72" s="45"/>
       <c r="E72" s="30"/>
       <c r="F72" s="19" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
@@ -4398,19 +4277,19 @@
       <c r="B74" s="45"/>
       <c r="E74" s="30"/>
       <c r="F74" s="27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
       <c r="J74" s="28"/>
       <c r="K74" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
       <c r="N74" s="27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
@@ -4441,19 +4320,19 @@
       <c r="B75" s="45"/>
       <c r="E75" s="30"/>
       <c r="F75" s="23" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="24"/>
       <c r="K75" s="23" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="23" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="O75" s="24"/>
       <c r="P75" s="24"/>
@@ -4490,7 +4369,7 @@
       <c r="L76" s="41"/>
       <c r="M76" s="41"/>
       <c r="N76" s="40" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="O76" s="41"/>
       <c r="P76" s="41"/>
@@ -4537,7 +4416,7 @@
         <v>7.13.2.</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AF79" s="45"/>
       <c r="AG79" s="45"/>
@@ -4550,7 +4429,7 @@
         <v>7.13.2.1.</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF80" s="45"/>
       <c r="AG80" s="45"/>
@@ -4562,7 +4441,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AF81" s="45"/>
       <c r="AG81" s="45"/>
@@ -4572,7 +4451,7 @@
       <c r="B82" s="45"/>
       <c r="F82" s="17"/>
       <c r="G82" s="16" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="AF82" s="45"/>
       <c r="AG82" s="45"/>
@@ -4583,7 +4462,7 @@
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="G83" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -4629,7 +4508,7 @@
       <c r="J84" s="43"/>
       <c r="K84" s="43"/>
       <c r="L84" s="32" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="M84" s="43"/>
       <c r="N84" s="43"/>
@@ -4660,141 +4539,150 @@
       <c r="B85" s="45"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
-      <c r="T85" s="24"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="24"/>
-      <c r="AA85" s="24"/>
-      <c r="AB85" s="24"/>
-      <c r="AC85" s="24"/>
-      <c r="AD85" s="24"/>
-      <c r="AE85" s="24"/>
-      <c r="AF85" s="24"/>
-      <c r="AG85" s="24"/>
-      <c r="AH85" s="24"/>
-      <c r="AI85" s="25"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="43"/>
+      <c r="U85" s="43"/>
+      <c r="V85" s="43"/>
+      <c r="W85" s="43"/>
+      <c r="X85" s="43"/>
+      <c r="Y85" s="43"/>
+      <c r="Z85" s="43"/>
+      <c r="AA85" s="43"/>
+      <c r="AB85" s="43"/>
+      <c r="AC85" s="43"/>
+      <c r="AD85" s="43"/>
+      <c r="AE85" s="43"/>
+      <c r="AF85" s="43"/>
+      <c r="AG85" s="43"/>
+      <c r="AH85" s="43"/>
+      <c r="AI85" s="44"/>
     </row>
     <row r="86" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="45"/>
       <c r="B86" s="45"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="G86" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="33"/>
-      <c r="V86" s="33"/>
-      <c r="W86" s="33"/>
-      <c r="X86" s="33"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
-      <c r="AB86" s="33"/>
-      <c r="AC86" s="33"/>
-      <c r="AD86" s="33"/>
-      <c r="AE86" s="33"/>
-      <c r="AF86" s="43"/>
-      <c r="AG86" s="43"/>
-      <c r="AH86" s="33"/>
-      <c r="AI86" s="34"/>
+      <c r="G86" s="17"/>
+      <c r="AF86" s="45"/>
+      <c r="AG86" s="45"/>
     </row>
     <row r="87" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="45"/>
       <c r="B87" s="45"/>
-      <c r="G87" s="17"/>
+      <c r="G87" s="16" t="s">
+        <v>256</v>
+      </c>
       <c r="AF87" s="45"/>
       <c r="AG87" s="45"/>
     </row>
     <row r="88" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="45"/>
       <c r="B88" s="45"/>
-      <c r="G88" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF88" s="45"/>
-      <c r="AG88" s="45"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="G88" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="V88" s="28"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
+      <c r="AI88" s="29"/>
     </row>
     <row r="89" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="45"/>
       <c r="B89" s="45"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-      <c r="G89" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="27" t="s">
+      <c r="G89" s="23" t="str">
+        <f>G84</f>
+        <v>障害通知ログファイル</v>
+      </c>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="24"/>
+      <c r="U89" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="28"/>
-      <c r="S89" s="28"/>
-      <c r="T89" s="28"/>
-      <c r="U89" s="27" t="s">
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="25"/>
+      <c r="Z89" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA89" s="24"/>
+      <c r="AB89" s="24"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
+      <c r="AE89" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="29"/>
-      <c r="Z89" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-      <c r="AC89" s="28"/>
-      <c r="AD89" s="28"/>
-      <c r="AE89" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF89" s="28"/>
-      <c r="AG89" s="28"/>
-      <c r="AH89" s="28"/>
-      <c r="AI89" s="29"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="24"/>
+      <c r="AI89" s="25"/>
     </row>
     <row r="90" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="45"/>
@@ -4802,42 +4690,42 @@
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="G90" s="23" t="str">
-        <f>G84</f>
-        <v>障害通知ログファイル</v>
+        <f>G85</f>
+        <v>アプリケーションログ</v>
       </c>
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
       <c r="P90" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
       <c r="S90" s="24"/>
       <c r="T90" s="24"/>
       <c r="U90" s="23" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="V90" s="24"/>
       <c r="W90" s="24"/>
       <c r="X90" s="24"/>
       <c r="Y90" s="25"/>
       <c r="Z90" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AA90" s="24"/>
       <c r="AB90" s="24"/>
       <c r="AC90" s="24"/>
       <c r="AD90" s="24"/>
       <c r="AE90" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AF90" s="24"/>
       <c r="AG90" s="24"/>
@@ -4849,48 +4737,37 @@
       <c r="B91" s="45"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-      <c r="G91" s="23" t="str">
-        <f>G85</f>
-        <v>アプリケーションログ</v>
-      </c>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="24"/>
-      <c r="T91" s="24"/>
-      <c r="U91" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="V91" s="24"/>
-      <c r="W91" s="24"/>
-      <c r="X91" s="24"/>
-      <c r="Y91" s="25"/>
-      <c r="Z91" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA91" s="24"/>
-      <c r="AB91" s="24"/>
-      <c r="AC91" s="24"/>
-      <c r="AD91" s="24"/>
-      <c r="AE91" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF91" s="24"/>
-      <c r="AG91" s="24"/>
-      <c r="AH91" s="24"/>
-      <c r="AI91" s="25"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V91" s="19"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="19"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="18"/>
+      <c r="AA91" s="19"/>
+      <c r="AB91" s="19"/>
+      <c r="AC91" s="19"/>
+      <c r="AD91" s="19"/>
+      <c r="AE91" s="18"/>
+      <c r="AF91" s="19"/>
+      <c r="AG91" s="19"/>
+      <c r="AH91" s="19"/>
+      <c r="AI91" s="20"/>
     </row>
     <row r="92" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="45"/>
@@ -4912,7 +4789,7 @@
       <c r="S92" s="19"/>
       <c r="T92" s="19"/>
       <c r="U92" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V92" s="19"/>
       <c r="W92" s="19"/>
@@ -4929,1036 +4806,1029 @@
       <c r="AH92" s="19"/>
       <c r="AI92" s="20"/>
     </row>
-    <row r="93" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
+    <row r="93" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="V93" s="19"/>
-      <c r="W93" s="19"/>
-      <c r="X93" s="19"/>
-      <c r="Y93" s="20"/>
-      <c r="Z93" s="18"/>
-      <c r="AA93" s="19"/>
-      <c r="AB93" s="19"/>
-      <c r="AC93" s="19"/>
-      <c r="AD93" s="19"/>
-      <c r="AE93" s="18"/>
-      <c r="AF93" s="19"/>
-      <c r="AG93" s="19"/>
-      <c r="AH93" s="19"/>
-      <c r="AI93" s="20"/>
-    </row>
-    <row r="94" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G93" s="40"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="41"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
+      <c r="T93" s="41"/>
+      <c r="U93" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="V93" s="41"/>
+      <c r="W93" s="41"/>
+      <c r="X93" s="41"/>
+      <c r="Y93" s="42"/>
+      <c r="Z93" s="40"/>
+      <c r="AA93" s="41"/>
+      <c r="AB93" s="41"/>
+      <c r="AC93" s="41"/>
+      <c r="AD93" s="41"/>
+      <c r="AE93" s="40"/>
+      <c r="AF93" s="41"/>
+      <c r="AG93" s="41"/>
+      <c r="AH93" s="41"/>
+      <c r="AI93" s="42"/>
+    </row>
+    <row r="94" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="G94" s="18"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
-      <c r="L94" s="18"/>
+      <c r="L94" s="19"/>
       <c r="M94" s="19"/>
       <c r="N94" s="19"/>
       <c r="O94" s="19"/>
-      <c r="P94" s="18"/>
+      <c r="P94" s="19"/>
       <c r="Q94" s="19"/>
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
       <c r="T94" s="19"/>
-      <c r="U94" s="18" t="s">
-        <v>242</v>
-      </c>
+      <c r="U94" s="19"/>
       <c r="V94" s="19"/>
       <c r="W94" s="19"/>
       <c r="X94" s="19"/>
-      <c r="Y94" s="20"/>
-      <c r="Z94" s="18"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
       <c r="AA94" s="19"/>
       <c r="AB94" s="19"/>
       <c r="AC94" s="19"/>
       <c r="AD94" s="19"/>
-      <c r="AE94" s="18"/>
+      <c r="AE94" s="19"/>
       <c r="AF94" s="19"/>
       <c r="AG94" s="19"/>
       <c r="AH94" s="19"/>
-      <c r="AI94" s="20"/>
+      <c r="AI94" s="19"/>
     </row>
     <row r="95" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="G95" s="32" t="str">
-        <f>G86</f>
-        <v>アクセスログ</v>
-      </c>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M95" s="33"/>
-      <c r="N95" s="33"/>
-      <c r="O95" s="33"/>
-      <c r="P95" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q95" s="33"/>
-      <c r="R95" s="33"/>
-      <c r="S95" s="33"/>
-      <c r="T95" s="33"/>
-      <c r="U95" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="V95" s="33"/>
-      <c r="W95" s="33"/>
-      <c r="X95" s="43"/>
-      <c r="Y95" s="44"/>
-      <c r="Z95" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA95" s="43"/>
-      <c r="AB95" s="43"/>
-      <c r="AC95" s="43"/>
-      <c r="AD95" s="43"/>
-      <c r="AE95" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF95" s="43"/>
-      <c r="AG95" s="43"/>
-      <c r="AH95" s="33"/>
-      <c r="AI95" s="34"/>
+      <c r="F95" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF95" s="45"/>
+      <c r="AG95" s="45"/>
     </row>
     <row r="96" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="45"/>
       <c r="B96" s="45"/>
-      <c r="D96" s="15"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="19"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="19"/>
-      <c r="S96" s="19"/>
-      <c r="T96" s="19"/>
-      <c r="U96" s="19"/>
-      <c r="V96" s="19"/>
-      <c r="W96" s="19"/>
-      <c r="X96" s="19"/>
-      <c r="Y96" s="19"/>
-      <c r="Z96" s="19"/>
-      <c r="AA96" s="19"/>
-      <c r="AB96" s="19"/>
-      <c r="AC96" s="19"/>
-      <c r="AD96" s="19"/>
-      <c r="AE96" s="19"/>
-      <c r="AF96" s="19"/>
-      <c r="AG96" s="19"/>
-      <c r="AH96" s="19"/>
-      <c r="AI96" s="19"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF96" s="45"/>
+      <c r="AG96" s="45"/>
     </row>
     <row r="97" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="45"/>
       <c r="B97" s="45"/>
-      <c r="F97" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G97" s="36" t="s">
-        <v>204</v>
-      </c>
       <c r="AF97" s="45"/>
       <c r="AG97" s="45"/>
     </row>
-    <row r="98" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF98" s="45"/>
-      <c r="AG98" s="45"/>
-    </row>
-    <row r="99" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="AF99" s="45"/>
-      <c r="AG99" s="45"/>
+    <row r="98" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G98" s="45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="45" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="100" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F100" s="46" t="s">
-        <v>195</v>
-      </c>
       <c r="G100" s="45" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
       <c r="G101" s="45" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
       <c r="G102" s="45" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
-      <c r="G103" s="45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="G104" s="45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="105" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-    </row>
-    <row r="106" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="D106" s="46" t="str">
+    </row>
+    <row r="104" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="D104" s="46" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.13.3.</v>
       </c>
+      <c r="E104" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF104" s="45"/>
+      <c r="AG104" s="45"/>
+    </row>
+    <row r="105" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="46"/>
+      <c r="E105" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="46"/>
       <c r="E106" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF106" s="45"/>
-      <c r="AG106" s="45"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="107" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="46"/>
-      <c r="E107" s="31" t="s">
-        <v>284</v>
-      </c>
+      <c r="E107" s="31"/>
     </row>
     <row r="108" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="46"/>
-      <c r="E108" s="31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="109" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E108" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="28"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K108" s="28"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="28"/>
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
+      <c r="Q108" s="28"/>
+      <c r="R108" s="28"/>
+      <c r="S108" s="28"/>
+      <c r="T108" s="28"/>
+      <c r="U108" s="28"/>
+      <c r="V108" s="28"/>
+      <c r="W108" s="28"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="28"/>
+      <c r="Z108" s="28"/>
+      <c r="AA108" s="28"/>
+      <c r="AB108" s="28"/>
+      <c r="AC108" s="28"/>
+      <c r="AD108" s="28"/>
+      <c r="AE108" s="28"/>
+      <c r="AF108" s="29"/>
+    </row>
+    <row r="109" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="46"/>
-      <c r="E109" s="31"/>
-    </row>
-    <row r="110" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E109" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="K109" s="81"/>
+      <c r="L109" s="81"/>
+      <c r="M109" s="81"/>
+      <c r="N109" s="81"/>
+      <c r="O109" s="81"/>
+      <c r="P109" s="81"/>
+      <c r="Q109" s="81"/>
+      <c r="R109" s="81"/>
+      <c r="S109" s="81"/>
+      <c r="T109" s="81"/>
+      <c r="U109" s="81"/>
+      <c r="V109" s="81"/>
+      <c r="W109" s="81"/>
+      <c r="X109" s="81"/>
+      <c r="Y109" s="81"/>
+      <c r="Z109" s="81"/>
+      <c r="AA109" s="81"/>
+      <c r="AB109" s="81"/>
+      <c r="AC109" s="81"/>
+      <c r="AD109" s="81"/>
+      <c r="AE109" s="81"/>
+      <c r="AF109" s="82"/>
+    </row>
+    <row r="110" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="46"/>
-      <c r="E110" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="28"/>
-      <c r="N110" s="28"/>
-      <c r="O110" s="28"/>
-      <c r="P110" s="28"/>
-      <c r="Q110" s="28"/>
-      <c r="R110" s="28"/>
-      <c r="S110" s="28"/>
-      <c r="T110" s="28"/>
-      <c r="U110" s="28"/>
-      <c r="V110" s="28"/>
-      <c r="W110" s="28"/>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="28"/>
-      <c r="Z110" s="28"/>
-      <c r="AA110" s="28"/>
-      <c r="AB110" s="28"/>
-      <c r="AC110" s="28"/>
-      <c r="AD110" s="28"/>
-      <c r="AE110" s="28"/>
-      <c r="AF110" s="29"/>
+      <c r="E110" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="K110" s="81"/>
+      <c r="L110" s="81"/>
+      <c r="M110" s="81"/>
+      <c r="N110" s="81"/>
+      <c r="O110" s="81"/>
+      <c r="P110" s="81"/>
+      <c r="Q110" s="81"/>
+      <c r="R110" s="81"/>
+      <c r="S110" s="81"/>
+      <c r="T110" s="81"/>
+      <c r="U110" s="81"/>
+      <c r="V110" s="81"/>
+      <c r="W110" s="81"/>
+      <c r="X110" s="81"/>
+      <c r="Y110" s="81"/>
+      <c r="Z110" s="81"/>
+      <c r="AA110" s="81"/>
+      <c r="AB110" s="81"/>
+      <c r="AC110" s="81"/>
+      <c r="AD110" s="81"/>
+      <c r="AE110" s="81"/>
+      <c r="AF110" s="82"/>
     </row>
     <row r="111" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="46"/>
-      <c r="E111" s="58" t="s">
-        <v>39</v>
+      <c r="E111" s="57" t="s">
+        <v>41</v>
       </c>
       <c r="F111" s="43"/>
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
       <c r="I111" s="44"/>
-      <c r="J111" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="K111" s="60"/>
-      <c r="L111" s="60"/>
-      <c r="M111" s="60"/>
-      <c r="N111" s="60"/>
-      <c r="O111" s="60"/>
-      <c r="P111" s="60"/>
-      <c r="Q111" s="60"/>
-      <c r="R111" s="60"/>
-      <c r="S111" s="60"/>
-      <c r="T111" s="60"/>
-      <c r="U111" s="60"/>
-      <c r="V111" s="60"/>
-      <c r="W111" s="60"/>
-      <c r="X111" s="60"/>
-      <c r="Y111" s="60"/>
-      <c r="Z111" s="60"/>
-      <c r="AA111" s="60"/>
-      <c r="AB111" s="60"/>
-      <c r="AC111" s="60"/>
-      <c r="AD111" s="60"/>
-      <c r="AE111" s="60"/>
-      <c r="AF111" s="61"/>
+      <c r="J111" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="K111" s="81"/>
+      <c r="L111" s="81"/>
+      <c r="M111" s="81"/>
+      <c r="N111" s="81"/>
+      <c r="O111" s="81"/>
+      <c r="P111" s="81"/>
+      <c r="Q111" s="81"/>
+      <c r="R111" s="81"/>
+      <c r="S111" s="81"/>
+      <c r="T111" s="81"/>
+      <c r="U111" s="81"/>
+      <c r="V111" s="81"/>
+      <c r="W111" s="81"/>
+      <c r="X111" s="81"/>
+      <c r="Y111" s="81"/>
+      <c r="Z111" s="81"/>
+      <c r="AA111" s="81"/>
+      <c r="AB111" s="81"/>
+      <c r="AC111" s="81"/>
+      <c r="AD111" s="81"/>
+      <c r="AE111" s="81"/>
+      <c r="AF111" s="82"/>
     </row>
     <row r="112" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="46"/>
-      <c r="E112" s="58" t="s">
-        <v>41</v>
+      <c r="E112" s="57" t="s">
+        <v>44</v>
       </c>
       <c r="F112" s="43"/>
       <c r="G112" s="43"/>
       <c r="H112" s="43"/>
       <c r="I112" s="44"/>
-      <c r="J112" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="60"/>
-      <c r="N112" s="60"/>
-      <c r="O112" s="60"/>
-      <c r="P112" s="60"/>
-      <c r="Q112" s="60"/>
-      <c r="R112" s="60"/>
-      <c r="S112" s="60"/>
-      <c r="T112" s="60"/>
-      <c r="U112" s="60"/>
-      <c r="V112" s="60"/>
-      <c r="W112" s="60"/>
-      <c r="X112" s="60"/>
-      <c r="Y112" s="60"/>
-      <c r="Z112" s="60"/>
-      <c r="AA112" s="60"/>
-      <c r="AB112" s="60"/>
-      <c r="AC112" s="60"/>
-      <c r="AD112" s="60"/>
-      <c r="AE112" s="60"/>
-      <c r="AF112" s="61"/>
-    </row>
-    <row r="113" spans="4:34" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D113" s="46"/>
-      <c r="E113" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="K113" s="60"/>
-      <c r="L113" s="60"/>
-      <c r="M113" s="60"/>
-      <c r="N113" s="60"/>
-      <c r="O113" s="60"/>
-      <c r="P113" s="60"/>
-      <c r="Q113" s="60"/>
-      <c r="R113" s="60"/>
-      <c r="S113" s="60"/>
-      <c r="T113" s="60"/>
-      <c r="U113" s="60"/>
-      <c r="V113" s="60"/>
-      <c r="W113" s="60"/>
-      <c r="X113" s="60"/>
-      <c r="Y113" s="60"/>
-      <c r="Z113" s="60"/>
-      <c r="AA113" s="60"/>
-      <c r="AB113" s="60"/>
-      <c r="AC113" s="60"/>
-      <c r="AD113" s="60"/>
-      <c r="AE113" s="60"/>
-      <c r="AF113" s="61"/>
-    </row>
-    <row r="114" spans="4:34" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D114" s="46"/>
-      <c r="E114" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="K114" s="60"/>
-      <c r="L114" s="60"/>
-      <c r="M114" s="60"/>
-      <c r="N114" s="60"/>
-      <c r="O114" s="60"/>
-      <c r="P114" s="60"/>
-      <c r="Q114" s="60"/>
-      <c r="R114" s="60"/>
-      <c r="S114" s="60"/>
-      <c r="T114" s="60"/>
-      <c r="U114" s="60"/>
-      <c r="V114" s="60"/>
-      <c r="W114" s="60"/>
-      <c r="X114" s="60"/>
-      <c r="Y114" s="60"/>
-      <c r="Z114" s="60"/>
-      <c r="AA114" s="60"/>
-      <c r="AB114" s="60"/>
-      <c r="AC114" s="60"/>
-      <c r="AD114" s="60"/>
-      <c r="AE114" s="60"/>
-      <c r="AF114" s="61"/>
+      <c r="J112" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="81"/>
+      <c r="U112" s="81"/>
+      <c r="V112" s="81"/>
+      <c r="W112" s="81"/>
+      <c r="X112" s="81"/>
+      <c r="Y112" s="81"/>
+      <c r="Z112" s="81"/>
+      <c r="AA112" s="81"/>
+      <c r="AB112" s="81"/>
+      <c r="AC112" s="81"/>
+      <c r="AD112" s="81"/>
+      <c r="AE112" s="81"/>
+      <c r="AF112" s="82"/>
+    </row>
+    <row r="113" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E114" s="45" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="115" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E116" s="45" t="s">
-        <v>269</v>
+      <c r="E116" s="31" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="118" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E118" s="31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="119" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E118" s="46" t="str">
+        <f>$D$104&amp;"1."</f>
+        <v>7.13.3.1.</v>
+      </c>
+      <c r="F118" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" s="46"/>
+      <c r="F119" s="30" t="str">
+        <f>$E$118&amp;"1."</f>
+        <v>7.13.3.1.1.</v>
+      </c>
+      <c r="G119" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
     <row r="120" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E120" s="46" t="str">
-        <f>$D$106&amp;"1."</f>
-        <v>7.13.3.1.</v>
-      </c>
-      <c r="F120" s="45" t="s">
-        <v>286</v>
-      </c>
+      <c r="G120" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="24"/>
+      <c r="Q120" s="24"/>
+      <c r="R120" s="24"/>
+      <c r="S120" s="24"/>
+      <c r="T120" s="24"/>
+      <c r="U120" s="24"/>
+      <c r="V120" s="24"/>
+      <c r="W120" s="24"/>
+      <c r="X120" s="24"/>
+      <c r="Y120" s="24"/>
+      <c r="Z120" s="24"/>
+      <c r="AA120" s="24"/>
+      <c r="AB120" s="24"/>
+      <c r="AC120" s="24"/>
+      <c r="AD120" s="24"/>
+      <c r="AE120" s="24"/>
+      <c r="AF120" s="24"/>
+      <c r="AG120" s="24"/>
+      <c r="AH120" s="25"/>
     </row>
     <row r="121" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E121" s="46"/>
-      <c r="F121" s="30" t="str">
-        <f>$E$120&amp;"1."</f>
-        <v>7.13.3.1.1.</v>
-      </c>
-      <c r="G121" s="45" t="s">
-        <v>278</v>
-      </c>
+      <c r="G121" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH121" s="20"/>
     </row>
     <row r="122" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G122" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="24"/>
-      <c r="O122" s="24"/>
-      <c r="P122" s="24"/>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="24"/>
-      <c r="S122" s="24"/>
-      <c r="T122" s="24"/>
-      <c r="U122" s="24"/>
-      <c r="V122" s="24"/>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-      <c r="Z122" s="24"/>
-      <c r="AA122" s="24"/>
-      <c r="AB122" s="24"/>
-      <c r="AC122" s="24"/>
-      <c r="AD122" s="24"/>
-      <c r="AE122" s="24"/>
-      <c r="AF122" s="24"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="25"/>
+      <c r="G122" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="41"/>
+      <c r="S122" s="41"/>
+      <c r="T122" s="41"/>
+      <c r="U122" s="41"/>
+      <c r="V122" s="41"/>
+      <c r="W122" s="41"/>
+      <c r="X122" s="41"/>
+      <c r="Y122" s="41"/>
+      <c r="Z122" s="41"/>
+      <c r="AA122" s="41"/>
+      <c r="AB122" s="41"/>
+      <c r="AC122" s="41"/>
+      <c r="AD122" s="41"/>
+      <c r="AE122" s="41"/>
+      <c r="AF122" s="41"/>
+      <c r="AG122" s="41"/>
+      <c r="AH122" s="42"/>
     </row>
     <row r="123" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G123" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH123" s="20"/>
+      <c r="G123" s="36" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="124" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G124" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-      <c r="K124" s="41"/>
-      <c r="L124" s="41"/>
-      <c r="M124" s="41"/>
-      <c r="N124" s="41"/>
-      <c r="O124" s="41"/>
-      <c r="P124" s="41"/>
-      <c r="Q124" s="41"/>
-      <c r="R124" s="41"/>
-      <c r="S124" s="41"/>
-      <c r="T124" s="41"/>
-      <c r="U124" s="41"/>
-      <c r="V124" s="41"/>
-      <c r="W124" s="41"/>
-      <c r="X124" s="41"/>
-      <c r="Y124" s="41"/>
-      <c r="Z124" s="41"/>
-      <c r="AA124" s="41"/>
-      <c r="AB124" s="41"/>
-      <c r="AC124" s="41"/>
-      <c r="AD124" s="41"/>
-      <c r="AE124" s="41"/>
-      <c r="AF124" s="41"/>
-      <c r="AG124" s="41"/>
-      <c r="AH124" s="42"/>
+      <c r="G124" s="45" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="125" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G125" s="36" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G126" s="45" t="s">
-        <v>291</v>
-      </c>
+      <c r="D126" s="46"/>
+      <c r="E126" s="31"/>
     </row>
     <row r="127" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G127" s="36" t="s">
-        <v>292</v>
+      <c r="E127" s="46" t="str">
+        <f>$D$104&amp;"2."</f>
+        <v>7.13.3.2.</v>
+      </c>
+      <c r="F127" s="45" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D128" s="46"/>
-      <c r="E128" s="31"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="30" t="str">
+        <f>$E$127&amp;"1."</f>
+        <v>7.13.3.2.1.</v>
+      </c>
+      <c r="G128" s="45" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="129" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E129" s="46" t="str">
-        <f>$D$106&amp;"2."</f>
-        <v>7.13.3.2.</v>
-      </c>
-      <c r="F129" s="45" t="s">
-        <v>287</v>
-      </c>
+      <c r="E129" s="30"/>
+      <c r="G129" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="24"/>
+      <c r="R129" s="24"/>
+      <c r="S129" s="24"/>
+      <c r="T129" s="24"/>
+      <c r="U129" s="24"/>
+      <c r="V129" s="24"/>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+      <c r="Y129" s="24"/>
+      <c r="Z129" s="24"/>
+      <c r="AA129" s="24"/>
+      <c r="AB129" s="24"/>
+      <c r="AC129" s="24"/>
+      <c r="AD129" s="24"/>
+      <c r="AE129" s="24"/>
+      <c r="AF129" s="24"/>
+      <c r="AG129" s="24"/>
+      <c r="AH129" s="25"/>
     </row>
     <row r="130" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E130" s="46"/>
-      <c r="F130" s="30" t="str">
-        <f>$E$129&amp;"1."</f>
-        <v>7.13.3.2.1.</v>
-      </c>
-      <c r="G130" s="45" t="s">
-        <v>277</v>
-      </c>
+      <c r="E130" s="30"/>
+      <c r="G130" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH130" s="20"/>
     </row>
     <row r="131" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="30"/>
-      <c r="G131" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="24"/>
-      <c r="O131" s="24"/>
-      <c r="P131" s="24"/>
-      <c r="Q131" s="24"/>
-      <c r="R131" s="24"/>
-      <c r="S131" s="24"/>
-      <c r="T131" s="24"/>
-      <c r="U131" s="24"/>
-      <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-      <c r="Y131" s="24"/>
-      <c r="Z131" s="24"/>
-      <c r="AA131" s="24"/>
-      <c r="AB131" s="24"/>
-      <c r="AC131" s="24"/>
-      <c r="AD131" s="24"/>
-      <c r="AE131" s="24"/>
-      <c r="AF131" s="24"/>
-      <c r="AG131" s="24"/>
-      <c r="AH131" s="25"/>
+      <c r="G131" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH131" s="20"/>
     </row>
     <row r="132" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="30"/>
       <c r="G132" s="18" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AH132" s="20"/>
     </row>
     <row r="133" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="30"/>
       <c r="G133" s="18" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="AH133" s="20"/>
     </row>
     <row r="134" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="30"/>
       <c r="G134" s="18" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="AH134" s="20"/>
     </row>
     <row r="135" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="30"/>
-      <c r="G135" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH135" s="20"/>
+      <c r="G135" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
+      <c r="L135" s="41"/>
+      <c r="M135" s="41"/>
+      <c r="N135" s="41"/>
+      <c r="O135" s="41"/>
+      <c r="P135" s="41"/>
+      <c r="Q135" s="41"/>
+      <c r="R135" s="41"/>
+      <c r="S135" s="41"/>
+      <c r="T135" s="41"/>
+      <c r="U135" s="41"/>
+      <c r="V135" s="41"/>
+      <c r="W135" s="41"/>
+      <c r="X135" s="41"/>
+      <c r="Y135" s="41"/>
+      <c r="Z135" s="41"/>
+      <c r="AA135" s="41"/>
+      <c r="AB135" s="41"/>
+      <c r="AC135" s="41"/>
+      <c r="AD135" s="41"/>
+      <c r="AE135" s="41"/>
+      <c r="AF135" s="41"/>
+      <c r="AG135" s="41"/>
+      <c r="AH135" s="42"/>
     </row>
     <row r="136" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E136" s="30"/>
-      <c r="G136" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH136" s="20"/>
+      <c r="G136" s="36" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="137" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="30"/>
-      <c r="G137" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="41"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="41"/>
-      <c r="N137" s="41"/>
-      <c r="O137" s="41"/>
-      <c r="P137" s="41"/>
-      <c r="Q137" s="41"/>
-      <c r="R137" s="41"/>
-      <c r="S137" s="41"/>
-      <c r="T137" s="41"/>
-      <c r="U137" s="41"/>
-      <c r="V137" s="41"/>
-      <c r="W137" s="41"/>
-      <c r="X137" s="41"/>
-      <c r="Y137" s="41"/>
-      <c r="Z137" s="41"/>
-      <c r="AA137" s="41"/>
-      <c r="AB137" s="41"/>
-      <c r="AC137" s="41"/>
-      <c r="AD137" s="41"/>
-      <c r="AE137" s="41"/>
-      <c r="AF137" s="41"/>
-      <c r="AG137" s="41"/>
-      <c r="AH137" s="42"/>
-    </row>
-    <row r="138" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G138" s="36" t="s">
-        <v>276</v>
-      </c>
-    </row>
+      <c r="G137" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="139" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G139" s="45" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="140" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D141" s="46" t="str">
+      <c r="D139" s="46" t="str">
         <f>$C$7&amp;"4."</f>
         <v>7.13.4.</v>
       </c>
-      <c r="E141" s="31" t="s">
-        <v>254</v>
+      <c r="E139" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="140" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E140" s="30" t="str">
+        <f>$D$139&amp;"1."</f>
+        <v>7.13.4.1.</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E141" s="30"/>
+      <c r="F141" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="45" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="30" t="str">
-        <f>$D$141&amp;"1."</f>
-        <v>7.13.4.1.</v>
-      </c>
-      <c r="F142" s="31" t="s">
-        <v>257</v>
-      </c>
+      <c r="E142" s="30"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H142" s="28"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K142" s="28"/>
+      <c r="L142" s="29"/>
+      <c r="M142" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N142" s="28"/>
+      <c r="O142" s="28"/>
+      <c r="P142" s="28"/>
+      <c r="Q142" s="29"/>
+      <c r="R142" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S142" s="28"/>
+      <c r="T142" s="28"/>
+      <c r="U142" s="28"/>
+      <c r="V142" s="28"/>
+      <c r="W142" s="28"/>
+      <c r="X142" s="28"/>
+      <c r="Y142" s="28"/>
+      <c r="Z142" s="28"/>
+      <c r="AA142" s="28"/>
+      <c r="AB142" s="28"/>
+      <c r="AC142" s="28"/>
+      <c r="AD142" s="28"/>
+      <c r="AE142" s="28"/>
+      <c r="AF142" s="28"/>
+      <c r="AG142" s="28"/>
+      <c r="AH142" s="28"/>
+      <c r="AI142" s="29"/>
     </row>
     <row r="143" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="30"/>
-      <c r="F143" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="45" t="s">
-        <v>112</v>
-      </c>
+      <c r="F143" s="31"/>
+      <c r="G143" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H143" s="24"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K143" s="24"/>
+      <c r="L143" s="25"/>
+      <c r="M143" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="N143" s="24"/>
+      <c r="O143" s="24"/>
+      <c r="P143" s="24"/>
+      <c r="Q143" s="25"/>
+      <c r="R143" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="S143" s="24"/>
+      <c r="T143" s="24"/>
+      <c r="U143" s="24"/>
+      <c r="V143" s="24"/>
+      <c r="W143" s="24"/>
+      <c r="X143" s="24"/>
+      <c r="Y143" s="24"/>
+      <c r="Z143" s="24"/>
+      <c r="AA143" s="24"/>
+      <c r="AB143" s="24"/>
+      <c r="AC143" s="24"/>
+      <c r="AD143" s="24"/>
+      <c r="AE143" s="24"/>
+      <c r="AF143" s="24"/>
+      <c r="AG143" s="24"/>
+      <c r="AH143" s="24"/>
+      <c r="AI143" s="25"/>
     </row>
     <row r="144" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="30"/>
       <c r="F144" s="31"/>
-      <c r="G144" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H144" s="28"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="K144" s="28"/>
-      <c r="L144" s="29"/>
-      <c r="M144" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="N144" s="28"/>
-      <c r="O144" s="28"/>
-      <c r="P144" s="28"/>
-      <c r="Q144" s="29"/>
-      <c r="R144" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="S144" s="28"/>
-      <c r="T144" s="28"/>
-      <c r="U144" s="28"/>
-      <c r="V144" s="28"/>
-      <c r="W144" s="28"/>
-      <c r="X144" s="28"/>
-      <c r="Y144" s="28"/>
-      <c r="Z144" s="28"/>
-      <c r="AA144" s="28"/>
-      <c r="AB144" s="28"/>
-      <c r="AC144" s="28"/>
-      <c r="AD144" s="28"/>
-      <c r="AE144" s="28"/>
-      <c r="AF144" s="28"/>
-      <c r="AG144" s="28"/>
-      <c r="AH144" s="28"/>
-      <c r="AI144" s="29"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="41"/>
+      <c r="L144" s="42"/>
+      <c r="M144" s="41"/>
+      <c r="N144" s="41"/>
+      <c r="O144" s="41"/>
+      <c r="P144" s="41"/>
+      <c r="Q144" s="42"/>
+      <c r="R144" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="S144" s="41"/>
+      <c r="T144" s="41"/>
+      <c r="U144" s="41"/>
+      <c r="V144" s="41"/>
+      <c r="W144" s="41"/>
+      <c r="X144" s="41"/>
+      <c r="Y144" s="41"/>
+      <c r="Z144" s="41"/>
+      <c r="AA144" s="41"/>
+      <c r="AB144" s="41"/>
+      <c r="AC144" s="41"/>
+      <c r="AD144" s="41"/>
+      <c r="AE144" s="41"/>
+      <c r="AF144" s="41"/>
+      <c r="AG144" s="41"/>
+      <c r="AH144" s="41"/>
+      <c r="AI144" s="42"/>
     </row>
     <row r="145" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="30"/>
       <c r="F145" s="31"/>
-      <c r="G145" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H145" s="24"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="K145" s="24"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="N145" s="24"/>
-      <c r="O145" s="24"/>
-      <c r="P145" s="24"/>
-      <c r="Q145" s="25"/>
-      <c r="R145" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="S145" s="24"/>
-      <c r="T145" s="24"/>
-      <c r="U145" s="24"/>
-      <c r="V145" s="24"/>
-      <c r="W145" s="24"/>
-      <c r="X145" s="24"/>
-      <c r="Y145" s="24"/>
-      <c r="Z145" s="24"/>
-      <c r="AA145" s="24"/>
-      <c r="AB145" s="24"/>
-      <c r="AC145" s="24"/>
-      <c r="AD145" s="24"/>
-      <c r="AE145" s="24"/>
-      <c r="AF145" s="24"/>
-      <c r="AG145" s="24"/>
-      <c r="AH145" s="24"/>
-      <c r="AI145" s="25"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="19"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
+      <c r="S145" s="19"/>
+      <c r="T145" s="19"/>
+      <c r="U145" s="19"/>
+      <c r="V145" s="19"/>
+      <c r="W145" s="19"/>
+      <c r="X145" s="19"/>
+      <c r="Y145" s="19"/>
+      <c r="Z145" s="19"/>
+      <c r="AA145" s="19"/>
+      <c r="AB145" s="19"/>
+      <c r="AC145" s="19"/>
+      <c r="AD145" s="19"/>
+      <c r="AE145" s="19"/>
+      <c r="AF145" s="19"/>
+      <c r="AG145" s="19"/>
+      <c r="AH145" s="19"/>
+      <c r="AI145" s="19"/>
     </row>
     <row r="146" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="30"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="40"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="41"/>
-      <c r="K146" s="41"/>
-      <c r="L146" s="42"/>
-      <c r="M146" s="41"/>
-      <c r="N146" s="41"/>
-      <c r="O146" s="41"/>
-      <c r="P146" s="41"/>
-      <c r="Q146" s="42"/>
-      <c r="R146" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="S146" s="41"/>
-      <c r="T146" s="41"/>
-      <c r="U146" s="41"/>
-      <c r="V146" s="41"/>
-      <c r="W146" s="41"/>
-      <c r="X146" s="41"/>
-      <c r="Y146" s="41"/>
-      <c r="Z146" s="41"/>
-      <c r="AA146" s="41"/>
-      <c r="AB146" s="41"/>
-      <c r="AC146" s="41"/>
-      <c r="AD146" s="41"/>
-      <c r="AE146" s="41"/>
-      <c r="AF146" s="41"/>
-      <c r="AG146" s="41"/>
-      <c r="AH146" s="41"/>
-      <c r="AI146" s="42"/>
+      <c r="F146" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G146" s="45" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="147" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="30"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
-      <c r="O147" s="19"/>
-      <c r="P147" s="19"/>
-      <c r="Q147" s="19"/>
-      <c r="R147" s="19"/>
-      <c r="S147" s="19"/>
-      <c r="T147" s="19"/>
-      <c r="U147" s="19"/>
-      <c r="V147" s="19"/>
-      <c r="W147" s="19"/>
-      <c r="X147" s="19"/>
-      <c r="Y147" s="19"/>
-      <c r="Z147" s="19"/>
-      <c r="AA147" s="19"/>
-      <c r="AB147" s="19"/>
-      <c r="AC147" s="19"/>
-      <c r="AD147" s="19"/>
-      <c r="AE147" s="19"/>
-      <c r="AF147" s="19"/>
-      <c r="AG147" s="19"/>
-      <c r="AH147" s="19"/>
-      <c r="AI147" s="19"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="30" t="str">
+        <f>F146&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H147" s="45" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="148" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E148" s="30"/>
-      <c r="F148" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G148" s="45" t="s">
-        <v>110</v>
-      </c>
+      <c r="F148" s="30"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="24"/>
+      <c r="O148" s="24"/>
+      <c r="P148" s="24"/>
+      <c r="Q148" s="24"/>
+      <c r="R148" s="24"/>
+      <c r="S148" s="24"/>
+      <c r="T148" s="24"/>
+      <c r="U148" s="24"/>
+      <c r="V148" s="24"/>
+      <c r="W148" s="24"/>
+      <c r="X148" s="24"/>
+      <c r="Y148" s="24"/>
+      <c r="Z148" s="24"/>
+      <c r="AA148" s="24"/>
+      <c r="AB148" s="24"/>
+      <c r="AC148" s="24"/>
+      <c r="AD148" s="24"/>
+      <c r="AE148" s="24"/>
+      <c r="AF148" s="24"/>
+      <c r="AG148" s="24"/>
+      <c r="AH148" s="24"/>
+      <c r="AI148" s="25"/>
     </row>
     <row r="149" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E149" s="30"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="30" t="str">
-        <f>F148&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H149" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="F149" s="30"/>
+      <c r="G149" s="46"/>
+      <c r="H149" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="I149" s="41"/>
+      <c r="J149" s="41"/>
+      <c r="K149" s="41"/>
+      <c r="L149" s="41"/>
+      <c r="M149" s="41"/>
+      <c r="N149" s="41"/>
+      <c r="O149" s="41"/>
+      <c r="P149" s="41"/>
+      <c r="Q149" s="41"/>
+      <c r="R149" s="41"/>
+      <c r="S149" s="41"/>
+      <c r="T149" s="41"/>
+      <c r="U149" s="41"/>
+      <c r="V149" s="41"/>
+      <c r="W149" s="41"/>
+      <c r="X149" s="41"/>
+      <c r="Y149" s="41"/>
+      <c r="Z149" s="41"/>
+      <c r="AA149" s="41"/>
+      <c r="AB149" s="41"/>
+      <c r="AC149" s="41"/>
+      <c r="AD149" s="41"/>
+      <c r="AE149" s="41"/>
+      <c r="AF149" s="41"/>
+      <c r="AG149" s="41"/>
+      <c r="AH149" s="41"/>
+      <c r="AI149" s="42"/>
     </row>
     <row r="150" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E150" s="30"/>
       <c r="F150" s="30"/>
       <c r="G150" s="46"/>
-      <c r="H150" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="24"/>
-      <c r="M150" s="24"/>
-      <c r="N150" s="24"/>
-      <c r="O150" s="24"/>
-      <c r="P150" s="24"/>
-      <c r="Q150" s="24"/>
-      <c r="R150" s="24"/>
-      <c r="S150" s="24"/>
-      <c r="T150" s="24"/>
-      <c r="U150" s="24"/>
-      <c r="V150" s="24"/>
-      <c r="W150" s="24"/>
-      <c r="X150" s="24"/>
-      <c r="Y150" s="24"/>
-      <c r="Z150" s="24"/>
-      <c r="AA150" s="24"/>
-      <c r="AB150" s="24"/>
-      <c r="AC150" s="24"/>
-      <c r="AD150" s="24"/>
-      <c r="AE150" s="24"/>
-      <c r="AF150" s="24"/>
-      <c r="AG150" s="24"/>
-      <c r="AH150" s="24"/>
-      <c r="AI150" s="25"/>
+      <c r="H150" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="151" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E151" s="30"/>
       <c r="F151" s="30"/>
       <c r="G151" s="46"/>
-      <c r="H151" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="I151" s="41"/>
-      <c r="J151" s="41"/>
-      <c r="K151" s="41"/>
-      <c r="L151" s="41"/>
-      <c r="M151" s="41"/>
-      <c r="N151" s="41"/>
-      <c r="O151" s="41"/>
-      <c r="P151" s="41"/>
-      <c r="Q151" s="41"/>
-      <c r="R151" s="41"/>
-      <c r="S151" s="41"/>
-      <c r="T151" s="41"/>
-      <c r="U151" s="41"/>
-      <c r="V151" s="41"/>
-      <c r="W151" s="41"/>
-      <c r="X151" s="41"/>
-      <c r="Y151" s="41"/>
-      <c r="Z151" s="41"/>
-      <c r="AA151" s="41"/>
-      <c r="AB151" s="41"/>
-      <c r="AC151" s="41"/>
-      <c r="AD151" s="41"/>
-      <c r="AE151" s="41"/>
-      <c r="AF151" s="41"/>
-      <c r="AG151" s="41"/>
-      <c r="AH151" s="41"/>
-      <c r="AI151" s="42"/>
+      <c r="H151" s="45" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="152" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="45" t="s">
-        <v>185</v>
-      </c>
+      <c r="F152" s="46"/>
     </row>
     <row r="153" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="46"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="30" t="str">
+        <f>F146&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
       <c r="H153" s="45" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E154" s="30"/>
       <c r="F154" s="46"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M154" s="28"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="29"/>
+      <c r="P154" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q154" s="28"/>
+      <c r="R154" s="28"/>
+      <c r="S154" s="28"/>
+      <c r="T154" s="28"/>
+      <c r="U154" s="28"/>
+      <c r="V154" s="28"/>
+      <c r="W154" s="28"/>
+      <c r="X154" s="28"/>
+      <c r="Y154" s="28"/>
+      <c r="Z154" s="28"/>
+      <c r="AA154" s="28"/>
+      <c r="AB154" s="28"/>
+      <c r="AC154" s="28"/>
+      <c r="AD154" s="28"/>
+      <c r="AE154" s="28"/>
+      <c r="AF154" s="28"/>
+      <c r="AG154" s="28"/>
+      <c r="AH154" s="28"/>
+      <c r="AI154" s="29"/>
     </row>
     <row r="155" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E155" s="30"/>
       <c r="F155" s="46"/>
-      <c r="G155" s="30" t="str">
-        <f>F148&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H155" s="45" t="s">
-        <v>83</v>
-      </c>
+      <c r="G155" s="30"/>
+      <c r="H155" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="20"/>
+      <c r="P155" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="19"/>
+      <c r="T155" s="19"/>
+      <c r="U155" s="19"/>
+      <c r="V155" s="19"/>
+      <c r="W155" s="19"/>
+      <c r="X155" s="19"/>
+      <c r="Y155" s="19"/>
+      <c r="Z155" s="19"/>
+      <c r="AA155" s="19"/>
+      <c r="AB155" s="19"/>
+      <c r="AC155" s="19"/>
+      <c r="AD155" s="19"/>
+      <c r="AE155" s="19"/>
+      <c r="AF155" s="19"/>
+      <c r="AG155" s="19"/>
+      <c r="AH155" s="19"/>
+      <c r="AI155" s="20"/>
     </row>
     <row r="156" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="30"/>
       <c r="F156" s="46"/>
       <c r="G156" s="30"/>
-      <c r="H156" s="27" t="s">
+      <c r="H156" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" s="43"/>
+      <c r="J156" s="43"/>
+      <c r="K156" s="43"/>
+      <c r="L156" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M156" s="43"/>
+      <c r="N156" s="43"/>
+      <c r="O156" s="44"/>
+      <c r="P156" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I156" s="28"/>
-      <c r="J156" s="28"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="M156" s="28"/>
-      <c r="N156" s="28"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q156" s="28"/>
-      <c r="R156" s="28"/>
-      <c r="S156" s="28"/>
-      <c r="T156" s="28"/>
-      <c r="U156" s="28"/>
-      <c r="V156" s="28"/>
-      <c r="W156" s="28"/>
-      <c r="X156" s="28"/>
-      <c r="Y156" s="28"/>
-      <c r="Z156" s="28"/>
-      <c r="AA156" s="28"/>
-      <c r="AB156" s="28"/>
-      <c r="AC156" s="28"/>
-      <c r="AD156" s="28"/>
-      <c r="AE156" s="28"/>
-      <c r="AF156" s="28"/>
-      <c r="AG156" s="28"/>
-      <c r="AH156" s="28"/>
-      <c r="AI156" s="29"/>
+      <c r="Q156" s="43"/>
+      <c r="R156" s="43"/>
+      <c r="S156" s="43"/>
+      <c r="T156" s="43"/>
+      <c r="U156" s="43"/>
+      <c r="V156" s="43"/>
+      <c r="W156" s="43"/>
+      <c r="X156" s="43"/>
+      <c r="Y156" s="43"/>
+      <c r="Z156" s="43"/>
+      <c r="AA156" s="43"/>
+      <c r="AB156" s="43"/>
+      <c r="AC156" s="43"/>
+      <c r="AD156" s="43"/>
+      <c r="AE156" s="43"/>
+      <c r="AF156" s="43"/>
+      <c r="AG156" s="43"/>
+      <c r="AH156" s="43"/>
+      <c r="AI156" s="44"/>
     </row>
     <row r="157" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E157" s="30"/>
       <c r="F157" s="46"/>
       <c r="G157" s="30"/>
       <c r="H157" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
       <c r="K157" s="19"/>
       <c r="L157" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M157" s="19"/>
       <c r="N157" s="19"/>
       <c r="O157" s="20"/>
       <c r="P157" s="19" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="Q157" s="19"/>
       <c r="R157" s="19"/>
@@ -5984,216 +5854,210 @@
       <c r="E158" s="30"/>
       <c r="F158" s="46"/>
       <c r="G158" s="30"/>
-      <c r="H158" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I158" s="43"/>
-      <c r="J158" s="43"/>
-      <c r="K158" s="43"/>
-      <c r="L158" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="M158" s="43"/>
-      <c r="N158" s="43"/>
-      <c r="O158" s="44"/>
-      <c r="P158" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q158" s="43"/>
-      <c r="R158" s="43"/>
-      <c r="S158" s="43"/>
-      <c r="T158" s="43"/>
-      <c r="U158" s="43"/>
-      <c r="V158" s="43"/>
-      <c r="W158" s="43"/>
-      <c r="X158" s="43"/>
-      <c r="Y158" s="43"/>
-      <c r="Z158" s="43"/>
-      <c r="AA158" s="43"/>
-      <c r="AB158" s="43"/>
-      <c r="AC158" s="43"/>
-      <c r="AD158" s="43"/>
-      <c r="AE158" s="43"/>
-      <c r="AF158" s="43"/>
-      <c r="AG158" s="43"/>
-      <c r="AH158" s="43"/>
-      <c r="AI158" s="44"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="20"/>
+      <c r="P158" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
+      <c r="S158" s="19"/>
+      <c r="T158" s="19"/>
+      <c r="U158" s="19"/>
+      <c r="V158" s="19"/>
+      <c r="W158" s="19"/>
+      <c r="X158" s="19"/>
+      <c r="Y158" s="19"/>
+      <c r="Z158" s="19"/>
+      <c r="AA158" s="19"/>
+      <c r="AB158" s="19"/>
+      <c r="AC158" s="19"/>
+      <c r="AD158" s="19"/>
+      <c r="AE158" s="19"/>
+      <c r="AF158" s="19"/>
+      <c r="AG158" s="19"/>
+      <c r="AH158" s="19"/>
+      <c r="AI158" s="20"/>
     </row>
     <row r="159" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E159" s="30"/>
       <c r="F159" s="46"/>
       <c r="G159" s="30"/>
-      <c r="H159" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="20"/>
-      <c r="P159" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q159" s="19"/>
-      <c r="R159" s="19"/>
-      <c r="S159" s="19"/>
-      <c r="T159" s="19"/>
-      <c r="U159" s="19"/>
-      <c r="V159" s="19"/>
-      <c r="W159" s="19"/>
-      <c r="X159" s="19"/>
-      <c r="Y159" s="19"/>
-      <c r="Z159" s="19"/>
-      <c r="AA159" s="19"/>
-      <c r="AB159" s="19"/>
-      <c r="AC159" s="19"/>
-      <c r="AD159" s="19"/>
-      <c r="AE159" s="19"/>
-      <c r="AF159" s="19"/>
-      <c r="AG159" s="19"/>
-      <c r="AH159" s="19"/>
-      <c r="AI159" s="20"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41"/>
+      <c r="K159" s="41"/>
+      <c r="L159" s="40"/>
+      <c r="M159" s="41"/>
+      <c r="N159" s="41"/>
+      <c r="O159" s="42"/>
+      <c r="P159" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q159" s="41"/>
+      <c r="R159" s="41"/>
+      <c r="S159" s="41"/>
+      <c r="T159" s="41"/>
+      <c r="U159" s="41"/>
+      <c r="V159" s="41"/>
+      <c r="W159" s="41"/>
+      <c r="X159" s="41"/>
+      <c r="Y159" s="41"/>
+      <c r="Z159" s="41"/>
+      <c r="AA159" s="41"/>
+      <c r="AB159" s="41"/>
+      <c r="AC159" s="41"/>
+      <c r="AD159" s="41"/>
+      <c r="AE159" s="41"/>
+      <c r="AF159" s="41"/>
+      <c r="AG159" s="41"/>
+      <c r="AH159" s="41"/>
+      <c r="AI159" s="42"/>
     </row>
     <row r="160" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="30"/>
       <c r="F160" s="46"/>
       <c r="G160" s="30"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-      <c r="O160" s="20"/>
-      <c r="P160" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q160" s="19"/>
-      <c r="R160" s="19"/>
-      <c r="S160" s="19"/>
-      <c r="T160" s="19"/>
-      <c r="U160" s="19"/>
-      <c r="V160" s="19"/>
-      <c r="W160" s="19"/>
-      <c r="X160" s="19"/>
-      <c r="Y160" s="19"/>
-      <c r="Z160" s="19"/>
-      <c r="AA160" s="19"/>
-      <c r="AB160" s="19"/>
-      <c r="AC160" s="19"/>
-      <c r="AD160" s="19"/>
-      <c r="AE160" s="19"/>
-      <c r="AF160" s="19"/>
-      <c r="AG160" s="19"/>
-      <c r="AH160" s="19"/>
-      <c r="AI160" s="20"/>
+      <c r="H160" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I160" s="41"/>
+      <c r="J160" s="41"/>
+      <c r="K160" s="41"/>
+      <c r="L160" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M160" s="41"/>
+      <c r="N160" s="41"/>
+      <c r="O160" s="42"/>
+      <c r="P160" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q160" s="41"/>
+      <c r="R160" s="41"/>
+      <c r="S160" s="41"/>
+      <c r="T160" s="41"/>
+      <c r="U160" s="41"/>
+      <c r="V160" s="41"/>
+      <c r="W160" s="41"/>
+      <c r="X160" s="41"/>
+      <c r="Y160" s="41"/>
+      <c r="Z160" s="41"/>
+      <c r="AA160" s="41"/>
+      <c r="AB160" s="41"/>
+      <c r="AC160" s="41"/>
+      <c r="AD160" s="41"/>
+      <c r="AE160" s="41"/>
+      <c r="AF160" s="41"/>
+      <c r="AG160" s="41"/>
+      <c r="AH160" s="41"/>
+      <c r="AI160" s="42"/>
     </row>
     <row r="161" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E161" s="30"/>
       <c r="F161" s="46"/>
       <c r="G161" s="30"/>
-      <c r="H161" s="40"/>
-      <c r="I161" s="41"/>
-      <c r="J161" s="41"/>
-      <c r="K161" s="41"/>
-      <c r="L161" s="40"/>
-      <c r="M161" s="41"/>
-      <c r="N161" s="41"/>
-      <c r="O161" s="42"/>
-      <c r="P161" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q161" s="41"/>
-      <c r="R161" s="41"/>
-      <c r="S161" s="41"/>
-      <c r="T161" s="41"/>
-      <c r="U161" s="41"/>
-      <c r="V161" s="41"/>
-      <c r="W161" s="41"/>
-      <c r="X161" s="41"/>
-      <c r="Y161" s="41"/>
-      <c r="Z161" s="41"/>
-      <c r="AA161" s="41"/>
-      <c r="AB161" s="41"/>
-      <c r="AC161" s="41"/>
-      <c r="AD161" s="41"/>
-      <c r="AE161" s="41"/>
-      <c r="AF161" s="41"/>
-      <c r="AG161" s="41"/>
-      <c r="AH161" s="41"/>
-      <c r="AI161" s="42"/>
+      <c r="H161" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="19"/>
+      <c r="T161" s="19"/>
+      <c r="U161" s="19"/>
+      <c r="V161" s="19"/>
+      <c r="W161" s="19"/>
+      <c r="X161" s="19"/>
+      <c r="Y161" s="19"/>
+      <c r="Z161" s="19"/>
+      <c r="AA161" s="19"/>
+      <c r="AB161" s="19"/>
+      <c r="AC161" s="19"/>
+      <c r="AD161" s="19"/>
+      <c r="AE161" s="19"/>
+      <c r="AF161" s="19"/>
+      <c r="AG161" s="19"/>
+      <c r="AH161" s="19"/>
+      <c r="AI161" s="20"/>
     </row>
     <row r="162" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="30"/>
       <c r="F162" s="46"/>
       <c r="G162" s="30"/>
-      <c r="H162" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="I162" s="41"/>
-      <c r="J162" s="41"/>
-      <c r="K162" s="41"/>
-      <c r="L162" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M162" s="41"/>
-      <c r="N162" s="41"/>
-      <c r="O162" s="42"/>
-      <c r="P162" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q162" s="41"/>
-      <c r="R162" s="41"/>
-      <c r="S162" s="41"/>
-      <c r="T162" s="41"/>
-      <c r="U162" s="41"/>
-      <c r="V162" s="41"/>
-      <c r="W162" s="41"/>
-      <c r="X162" s="41"/>
-      <c r="Y162" s="41"/>
-      <c r="Z162" s="41"/>
-      <c r="AA162" s="41"/>
-      <c r="AB162" s="41"/>
-      <c r="AC162" s="41"/>
-      <c r="AD162" s="41"/>
-      <c r="AE162" s="41"/>
-      <c r="AF162" s="41"/>
-      <c r="AG162" s="41"/>
-      <c r="AH162" s="41"/>
-      <c r="AI162" s="42"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="20"/>
+      <c r="P162" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+      <c r="T162" s="19"/>
+      <c r="U162" s="19"/>
+      <c r="V162" s="19"/>
+      <c r="W162" s="19"/>
+      <c r="X162" s="19"/>
+      <c r="Y162" s="19"/>
+      <c r="Z162" s="19"/>
+      <c r="AA162" s="19"/>
+      <c r="AB162" s="19"/>
+      <c r="AC162" s="19"/>
+      <c r="AD162" s="19"/>
+      <c r="AE162" s="19"/>
+      <c r="AF162" s="19"/>
+      <c r="AG162" s="19"/>
+      <c r="AH162" s="19"/>
+      <c r="AI162" s="20"/>
     </row>
     <row r="163" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E163" s="30"/>
       <c r="F163" s="46"/>
       <c r="G163" s="30"/>
-      <c r="H163" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="H163" s="18"/>
       <c r="I163" s="19"/>
       <c r="J163" s="19"/>
       <c r="K163" s="19"/>
-      <c r="L163" s="18" t="s">
-        <v>98</v>
-      </c>
+      <c r="L163" s="18"/>
       <c r="M163" s="19"/>
       <c r="N163" s="19"/>
       <c r="O163" s="20"/>
-      <c r="P163" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q163" s="19"/>
-      <c r="R163" s="19"/>
-      <c r="S163" s="19"/>
-      <c r="T163" s="19"/>
-      <c r="U163" s="19"/>
-      <c r="V163" s="19"/>
-      <c r="W163" s="19"/>
-      <c r="X163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R163" s="28"/>
+      <c r="S163" s="28"/>
+      <c r="T163" s="28"/>
+      <c r="U163" s="29"/>
+      <c r="V163" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="W163" s="28"/>
+      <c r="X163" s="29"/>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
       <c r="AA163" s="19"/>
@@ -6218,17 +6082,19 @@
       <c r="M164" s="19"/>
       <c r="N164" s="19"/>
       <c r="O164" s="20"/>
-      <c r="P164" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q164" s="19"/>
-      <c r="R164" s="19"/>
-      <c r="S164" s="19"/>
-      <c r="T164" s="19"/>
-      <c r="U164" s="19"/>
-      <c r="V164" s="19"/>
-      <c r="W164" s="19"/>
-      <c r="X164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="R164" s="43"/>
+      <c r="S164" s="43"/>
+      <c r="T164" s="43"/>
+      <c r="U164" s="44"/>
+      <c r="V164" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="W164" s="43"/>
+      <c r="X164" s="44"/>
       <c r="Y164" s="19"/>
       <c r="Z164" s="19"/>
       <c r="AA164" s="19"/>
@@ -6244,7 +6110,6 @@
     <row r="165" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E165" s="30"/>
       <c r="F165" s="46"/>
-      <c r="G165" s="30"/>
       <c r="H165" s="18"/>
       <c r="I165" s="19"/>
       <c r="J165" s="19"/>
@@ -6254,18 +6119,18 @@
       <c r="N165" s="19"/>
       <c r="O165" s="20"/>
       <c r="P165" s="19"/>
-      <c r="Q165" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="R165" s="28"/>
-      <c r="S165" s="28"/>
-      <c r="T165" s="28"/>
-      <c r="U165" s="29"/>
-      <c r="V165" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="W165" s="28"/>
-      <c r="X165" s="29"/>
+      <c r="Q165" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="R165" s="41"/>
+      <c r="S165" s="41"/>
+      <c r="T165" s="41"/>
+      <c r="U165" s="42"/>
+      <c r="V165" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="W165" s="41"/>
+      <c r="X165" s="42"/>
       <c r="Y165" s="19"/>
       <c r="Z165" s="19"/>
       <c r="AA165" s="19"/>
@@ -6281,88 +6146,91 @@
     <row r="166" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E166" s="30"/>
       <c r="F166" s="46"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="20"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="R166" s="43"/>
-      <c r="S166" s="43"/>
-      <c r="T166" s="43"/>
-      <c r="U166" s="44"/>
-      <c r="V166" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="W166" s="43"/>
-      <c r="X166" s="44"/>
-      <c r="Y166" s="19"/>
-      <c r="Z166" s="19"/>
-      <c r="AA166" s="19"/>
-      <c r="AB166" s="19"/>
-      <c r="AC166" s="19"/>
-      <c r="AD166" s="19"/>
-      <c r="AE166" s="19"/>
-      <c r="AF166" s="19"/>
-      <c r="AG166" s="19"/>
-      <c r="AH166" s="19"/>
-      <c r="AI166" s="20"/>
+      <c r="H166" s="40"/>
+      <c r="I166" s="41"/>
+      <c r="J166" s="41"/>
+      <c r="K166" s="41"/>
+      <c r="L166" s="40"/>
+      <c r="M166" s="41"/>
+      <c r="N166" s="41"/>
+      <c r="O166" s="42"/>
+      <c r="P166" s="41"/>
+      <c r="Q166" s="41"/>
+      <c r="R166" s="41"/>
+      <c r="S166" s="41"/>
+      <c r="T166" s="41"/>
+      <c r="U166" s="41"/>
+      <c r="V166" s="41"/>
+      <c r="W166" s="41"/>
+      <c r="X166" s="41"/>
+      <c r="Y166" s="41"/>
+      <c r="Z166" s="41"/>
+      <c r="AA166" s="41"/>
+      <c r="AB166" s="41"/>
+      <c r="AC166" s="41"/>
+      <c r="AD166" s="41"/>
+      <c r="AE166" s="41"/>
+      <c r="AF166" s="41"/>
+      <c r="AG166" s="41"/>
+      <c r="AH166" s="41"/>
+      <c r="AI166" s="42"/>
     </row>
     <row r="167" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E167" s="30"/>
       <c r="F167" s="46"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="20"/>
-      <c r="P167" s="19"/>
-      <c r="Q167" s="40" t="s">
-        <v>241</v>
-      </c>
+      <c r="H167" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I167" s="41"/>
+      <c r="J167" s="41"/>
+      <c r="K167" s="41"/>
+      <c r="L167" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M167" s="41"/>
+      <c r="N167" s="41"/>
+      <c r="O167" s="42"/>
+      <c r="P167" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q167" s="41"/>
       <c r="R167" s="41"/>
       <c r="S167" s="41"/>
       <c r="T167" s="41"/>
-      <c r="U167" s="42"/>
-      <c r="V167" s="41" t="s">
-        <v>155</v>
-      </c>
+      <c r="U167" s="41"/>
+      <c r="V167" s="41"/>
       <c r="W167" s="41"/>
-      <c r="X167" s="42"/>
-      <c r="Y167" s="19"/>
-      <c r="Z167" s="19"/>
-      <c r="AA167" s="19"/>
-      <c r="AB167" s="19"/>
-      <c r="AC167" s="19"/>
-      <c r="AD167" s="19"/>
-      <c r="AE167" s="19"/>
-      <c r="AF167" s="19"/>
-      <c r="AG167" s="19"/>
-      <c r="AH167" s="19"/>
-      <c r="AI167" s="20"/>
+      <c r="X167" s="41"/>
+      <c r="Y167" s="41"/>
+      <c r="Z167" s="41"/>
+      <c r="AA167" s="41"/>
+      <c r="AB167" s="41"/>
+      <c r="AC167" s="41"/>
+      <c r="AD167" s="41"/>
+      <c r="AE167" s="41"/>
+      <c r="AF167" s="41"/>
+      <c r="AG167" s="41"/>
+      <c r="AH167" s="41"/>
+      <c r="AI167" s="42"/>
     </row>
     <row r="168" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="30"/>
-      <c r="F168" s="46"/>
-      <c r="H168" s="40"/>
+      <c r="F168" s="31"/>
+      <c r="H168" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="I168" s="41"/>
       <c r="J168" s="41"/>
       <c r="K168" s="41"/>
-      <c r="L168" s="40"/>
+      <c r="L168" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="M168" s="41"/>
       <c r="N168" s="41"/>
       <c r="O168" s="42"/>
-      <c r="P168" s="41"/>
+      <c r="P168" s="41" t="s">
+        <v>142</v>
+      </c>
       <c r="Q168" s="41"/>
       <c r="R168" s="41"/>
       <c r="S168" s="41"/>
@@ -6385,59 +6253,54 @@
     </row>
     <row r="169" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E169" s="30"/>
-      <c r="F169" s="46"/>
-      <c r="H169" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I169" s="41"/>
-      <c r="J169" s="41"/>
-      <c r="K169" s="41"/>
-      <c r="L169" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="M169" s="41"/>
-      <c r="N169" s="41"/>
-      <c r="O169" s="42"/>
-      <c r="P169" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q169" s="41"/>
-      <c r="R169" s="41"/>
-      <c r="S169" s="41"/>
-      <c r="T169" s="41"/>
-      <c r="U169" s="41"/>
-      <c r="V169" s="41"/>
-      <c r="W169" s="41"/>
-      <c r="X169" s="41"/>
-      <c r="Y169" s="41"/>
-      <c r="Z169" s="41"/>
-      <c r="AA169" s="41"/>
-      <c r="AB169" s="41"/>
-      <c r="AC169" s="41"/>
-      <c r="AD169" s="41"/>
-      <c r="AE169" s="41"/>
-      <c r="AF169" s="41"/>
-      <c r="AG169" s="41"/>
-      <c r="AH169" s="41"/>
-      <c r="AI169" s="42"/>
+      <c r="H169" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M169" s="24"/>
+      <c r="N169" s="24"/>
+      <c r="O169" s="24"/>
+      <c r="P169" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q169" s="24"/>
+      <c r="R169" s="24"/>
+      <c r="S169" s="24"/>
+      <c r="T169" s="24"/>
+      <c r="U169" s="24"/>
+      <c r="V169" s="24"/>
+      <c r="W169" s="24"/>
+      <c r="X169" s="24"/>
+      <c r="Y169" s="24"/>
+      <c r="Z169" s="24"/>
+      <c r="AA169" s="24"/>
+      <c r="AB169" s="24"/>
+      <c r="AC169" s="24"/>
+      <c r="AD169" s="24"/>
+      <c r="AE169" s="24"/>
+      <c r="AF169" s="24"/>
+      <c r="AG169" s="24"/>
+      <c r="AH169" s="24"/>
+      <c r="AI169" s="25"/>
     </row>
     <row r="170" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E170" s="30"/>
-      <c r="F170" s="31"/>
-      <c r="H170" s="40" t="s">
-        <v>105</v>
-      </c>
+      <c r="H170" s="40"/>
       <c r="I170" s="41"/>
       <c r="J170" s="41"/>
       <c r="K170" s="41"/>
-      <c r="L170" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="L170" s="40"/>
       <c r="M170" s="41"/>
       <c r="N170" s="41"/>
-      <c r="O170" s="42"/>
-      <c r="P170" s="41" t="s">
-        <v>172</v>
+      <c r="O170" s="41"/>
+      <c r="P170" s="40" t="str">
+        <f>"フォーマットは"&amp;$D$104&amp;$E$104&amp;"参照。"</f>
+        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
       </c>
       <c r="Q170" s="41"/>
       <c r="R170" s="41"/>
@@ -6459,127 +6322,126 @@
       <c r="AH170" s="41"/>
       <c r="AI170" s="42"/>
     </row>
-    <row r="171" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E171" s="30"/>
-      <c r="H171" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="24"/>
-      <c r="L171" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="M171" s="24"/>
-      <c r="N171" s="24"/>
-      <c r="O171" s="24"/>
-      <c r="P171" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q171" s="24"/>
-      <c r="R171" s="24"/>
-      <c r="S171" s="24"/>
-      <c r="T171" s="24"/>
-      <c r="U171" s="24"/>
-      <c r="V171" s="24"/>
-      <c r="W171" s="24"/>
-      <c r="X171" s="24"/>
-      <c r="Y171" s="24"/>
-      <c r="Z171" s="24"/>
-      <c r="AA171" s="24"/>
-      <c r="AB171" s="24"/>
-      <c r="AC171" s="24"/>
-      <c r="AD171" s="24"/>
-      <c r="AE171" s="24"/>
-      <c r="AF171" s="24"/>
-      <c r="AG171" s="24"/>
-      <c r="AH171" s="24"/>
-      <c r="AI171" s="25"/>
-    </row>
+    <row r="171" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="172" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E172" s="30"/>
-      <c r="H172" s="40"/>
-      <c r="I172" s="41"/>
-      <c r="J172" s="41"/>
-      <c r="K172" s="41"/>
-      <c r="L172" s="40"/>
-      <c r="M172" s="41"/>
-      <c r="N172" s="41"/>
-      <c r="O172" s="41"/>
-      <c r="P172" s="40" t="str">
-        <f>"フォーマットは"&amp;$D$106&amp;$E$106&amp;"参照。"</f>
-        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
-      </c>
-      <c r="Q172" s="41"/>
-      <c r="R172" s="41"/>
-      <c r="S172" s="41"/>
-      <c r="T172" s="41"/>
-      <c r="U172" s="41"/>
-      <c r="V172" s="41"/>
-      <c r="W172" s="41"/>
-      <c r="X172" s="41"/>
-      <c r="Y172" s="41"/>
-      <c r="Z172" s="41"/>
-      <c r="AA172" s="41"/>
-      <c r="AB172" s="41"/>
-      <c r="AC172" s="41"/>
-      <c r="AD172" s="41"/>
-      <c r="AE172" s="41"/>
-      <c r="AF172" s="41"/>
-      <c r="AG172" s="41"/>
-      <c r="AH172" s="41"/>
-      <c r="AI172" s="42"/>
-    </row>
-    <row r="173" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F172" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E173" s="30"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+      <c r="N173" s="24"/>
+      <c r="O173" s="24"/>
+      <c r="P173" s="24"/>
+      <c r="Q173" s="24"/>
+      <c r="R173" s="24"/>
+      <c r="S173" s="24"/>
+      <c r="T173" s="24"/>
+      <c r="U173" s="24"/>
+      <c r="V173" s="24"/>
+      <c r="W173" s="24"/>
+      <c r="X173" s="24"/>
+      <c r="Y173" s="24"/>
+      <c r="Z173" s="24"/>
+      <c r="AA173" s="24"/>
+      <c r="AB173" s="24"/>
+      <c r="AC173" s="24"/>
+      <c r="AD173" s="24"/>
+      <c r="AE173" s="24"/>
+      <c r="AF173" s="24"/>
+      <c r="AG173" s="24"/>
+      <c r="AH173" s="24"/>
+      <c r="AI173" s="25"/>
+    </row>
     <row r="174" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E174" s="30"/>
-      <c r="F174" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" s="45" t="s">
-        <v>17</v>
-      </c>
+      <c r="F174" s="46"/>
+      <c r="G174" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="19"/>
+      <c r="S174" s="19"/>
+      <c r="T174" s="19"/>
+      <c r="U174" s="19"/>
+      <c r="V174" s="19"/>
+      <c r="W174" s="19"/>
+      <c r="X174" s="19"/>
+      <c r="Y174" s="19"/>
+      <c r="Z174" s="19"/>
+      <c r="AA174" s="19"/>
+      <c r="AB174" s="19"/>
+      <c r="AC174" s="19"/>
+      <c r="AD174" s="19"/>
+      <c r="AE174" s="19"/>
+      <c r="AF174" s="19"/>
+      <c r="AG174" s="19"/>
+      <c r="AH174" s="19"/>
+      <c r="AI174" s="20"/>
     </row>
     <row r="175" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E175" s="30"/>
       <c r="F175" s="46"/>
-      <c r="G175" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="H175" s="24"/>
-      <c r="I175" s="24"/>
-      <c r="J175" s="24"/>
-      <c r="K175" s="24"/>
-      <c r="L175" s="24"/>
-      <c r="M175" s="24"/>
-      <c r="N175" s="24"/>
-      <c r="O175" s="24"/>
-      <c r="P175" s="24"/>
-      <c r="Q175" s="24"/>
-      <c r="R175" s="24"/>
-      <c r="S175" s="24"/>
-      <c r="T175" s="24"/>
-      <c r="U175" s="24"/>
-      <c r="V175" s="24"/>
-      <c r="W175" s="24"/>
-      <c r="X175" s="24"/>
-      <c r="Y175" s="24"/>
-      <c r="Z175" s="24"/>
-      <c r="AA175" s="24"/>
-      <c r="AB175" s="24"/>
-      <c r="AC175" s="24"/>
-      <c r="AD175" s="24"/>
-      <c r="AE175" s="24"/>
-      <c r="AF175" s="24"/>
-      <c r="AG175" s="24"/>
-      <c r="AH175" s="24"/>
-      <c r="AI175" s="25"/>
+      <c r="G175" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="19"/>
+      <c r="L175" s="19"/>
+      <c r="M175" s="19"/>
+      <c r="N175" s="19"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="19"/>
+      <c r="Q175" s="19"/>
+      <c r="R175" s="19"/>
+      <c r="S175" s="19"/>
+      <c r="T175" s="19"/>
+      <c r="U175" s="19"/>
+      <c r="V175" s="19"/>
+      <c r="W175" s="19"/>
+      <c r="X175" s="19"/>
+      <c r="Y175" s="19"/>
+      <c r="Z175" s="19"/>
+      <c r="AA175" s="19"/>
+      <c r="AB175" s="19"/>
+      <c r="AC175" s="19"/>
+      <c r="AD175" s="19"/>
+      <c r="AE175" s="19"/>
+      <c r="AF175" s="19"/>
+      <c r="AG175" s="19"/>
+      <c r="AH175" s="19"/>
+      <c r="AI175" s="20"/>
     </row>
     <row r="176" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E176" s="30"/>
       <c r="F176" s="46"/>
       <c r="G176" s="48" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -6613,44 +6475,42 @@
     <row r="177" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E177" s="30"/>
       <c r="F177" s="46"/>
-      <c r="G177" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-      <c r="O177" s="19"/>
-      <c r="P177" s="19"/>
-      <c r="Q177" s="19"/>
-      <c r="R177" s="19"/>
-      <c r="S177" s="19"/>
-      <c r="T177" s="19"/>
-      <c r="U177" s="19"/>
-      <c r="V177" s="19"/>
-      <c r="W177" s="19"/>
-      <c r="X177" s="19"/>
-      <c r="Y177" s="19"/>
-      <c r="Z177" s="19"/>
-      <c r="AA177" s="19"/>
-      <c r="AB177" s="19"/>
-      <c r="AC177" s="19"/>
-      <c r="AD177" s="19"/>
-      <c r="AE177" s="19"/>
-      <c r="AF177" s="19"/>
-      <c r="AG177" s="19"/>
-      <c r="AH177" s="19"/>
-      <c r="AI177" s="20"/>
+      <c r="G177" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H177" s="41"/>
+      <c r="I177" s="41"/>
+      <c r="J177" s="41"/>
+      <c r="K177" s="41"/>
+      <c r="L177" s="41"/>
+      <c r="M177" s="41"/>
+      <c r="N177" s="41"/>
+      <c r="O177" s="41"/>
+      <c r="P177" s="41"/>
+      <c r="Q177" s="41"/>
+      <c r="R177" s="41"/>
+      <c r="S177" s="41"/>
+      <c r="T177" s="41"/>
+      <c r="U177" s="41"/>
+      <c r="V177" s="41"/>
+      <c r="W177" s="41"/>
+      <c r="X177" s="41"/>
+      <c r="Y177" s="41"/>
+      <c r="Z177" s="41"/>
+      <c r="AA177" s="41"/>
+      <c r="AB177" s="41"/>
+      <c r="AC177" s="41"/>
+      <c r="AD177" s="41"/>
+      <c r="AE177" s="41"/>
+      <c r="AF177" s="41"/>
+      <c r="AG177" s="41"/>
+      <c r="AH177" s="41"/>
+      <c r="AI177" s="42"/>
     </row>
     <row r="178" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E178" s="30"/>
       <c r="F178" s="46"/>
-      <c r="G178" s="48" t="s">
-        <v>177</v>
-      </c>
+      <c r="G178" s="50"/>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
       <c r="J178" s="19"/>
@@ -6678,587 +6538,593 @@
       <c r="AF178" s="19"/>
       <c r="AG178" s="19"/>
       <c r="AH178" s="19"/>
-      <c r="AI178" s="20"/>
+      <c r="AI178" s="19"/>
     </row>
     <row r="179" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E179" s="30"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H179" s="41"/>
-      <c r="I179" s="41"/>
-      <c r="J179" s="41"/>
-      <c r="K179" s="41"/>
-      <c r="L179" s="41"/>
-      <c r="M179" s="41"/>
-      <c r="N179" s="41"/>
-      <c r="O179" s="41"/>
-      <c r="P179" s="41"/>
-      <c r="Q179" s="41"/>
-      <c r="R179" s="41"/>
-      <c r="S179" s="41"/>
-      <c r="T179" s="41"/>
-      <c r="U179" s="41"/>
-      <c r="V179" s="41"/>
-      <c r="W179" s="41"/>
-      <c r="X179" s="41"/>
-      <c r="Y179" s="41"/>
-      <c r="Z179" s="41"/>
-      <c r="AA179" s="41"/>
-      <c r="AB179" s="41"/>
-      <c r="AC179" s="41"/>
-      <c r="AD179" s="41"/>
-      <c r="AE179" s="41"/>
-      <c r="AF179" s="41"/>
-      <c r="AG179" s="41"/>
-      <c r="AH179" s="41"/>
-      <c r="AI179" s="42"/>
+      <c r="E179" s="30" t="str">
+        <f>$D$139&amp;"2."</f>
+        <v>7.13.4.2.</v>
+      </c>
+      <c r="F179" s="31" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="180" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E180" s="30"/>
-      <c r="F180" s="46"/>
-      <c r="G180" s="50"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="19"/>
-      <c r="L180" s="19"/>
-      <c r="M180" s="19"/>
-      <c r="N180" s="19"/>
-      <c r="O180" s="19"/>
-      <c r="P180" s="19"/>
-      <c r="Q180" s="19"/>
-      <c r="R180" s="19"/>
-      <c r="S180" s="19"/>
-      <c r="T180" s="19"/>
-      <c r="U180" s="19"/>
-      <c r="V180" s="19"/>
-      <c r="W180" s="19"/>
-      <c r="X180" s="19"/>
-      <c r="Y180" s="19"/>
-      <c r="Z180" s="19"/>
-      <c r="AA180" s="19"/>
-      <c r="AB180" s="19"/>
-      <c r="AC180" s="19"/>
-      <c r="AD180" s="19"/>
-      <c r="AE180" s="19"/>
-      <c r="AF180" s="19"/>
-      <c r="AG180" s="19"/>
-      <c r="AH180" s="19"/>
-      <c r="AI180" s="19"/>
+      <c r="F180" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="45" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="181" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E181" s="30" t="str">
-        <f>$D$141&amp;"2."</f>
-        <v>7.13.4.2.</v>
-      </c>
-      <c r="F181" s="31" t="s">
-        <v>251</v>
-      </c>
+      <c r="E181" s="30"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="29"/>
+      <c r="L181" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M181" s="28"/>
+      <c r="N181" s="29"/>
+      <c r="O181" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="P181" s="28"/>
+      <c r="Q181" s="28"/>
+      <c r="R181" s="29"/>
+      <c r="S181" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="T181" s="28"/>
+      <c r="U181" s="28"/>
+      <c r="V181" s="28"/>
+      <c r="W181" s="28"/>
+      <c r="X181" s="28"/>
+      <c r="Y181" s="28"/>
+      <c r="Z181" s="28"/>
+      <c r="AA181" s="28"/>
+      <c r="AB181" s="28"/>
+      <c r="AC181" s="28"/>
+      <c r="AD181" s="28"/>
+      <c r="AE181" s="28"/>
+      <c r="AF181" s="28"/>
+      <c r="AG181" s="28"/>
+      <c r="AH181" s="28"/>
+      <c r="AI181" s="29"/>
     </row>
     <row r="182" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E182" s="30"/>
-      <c r="F182" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" s="45" t="s">
-        <v>112</v>
-      </c>
+      <c r="F182" s="31"/>
+      <c r="G182" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="43"/>
+      <c r="K182" s="44"/>
+      <c r="L182" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M182" s="43"/>
+      <c r="N182" s="44"/>
+      <c r="O182" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="P182" s="43"/>
+      <c r="Q182" s="43"/>
+      <c r="R182" s="44"/>
+      <c r="S182" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="T182" s="43"/>
+      <c r="U182" s="43"/>
+      <c r="V182" s="43"/>
+      <c r="W182" s="43"/>
+      <c r="X182" s="43"/>
+      <c r="Y182" s="43"/>
+      <c r="Z182" s="43"/>
+      <c r="AA182" s="43"/>
+      <c r="AB182" s="43"/>
+      <c r="AC182" s="43"/>
+      <c r="AD182" s="43"/>
+      <c r="AE182" s="43"/>
+      <c r="AF182" s="43"/>
+      <c r="AG182" s="43"/>
+      <c r="AH182" s="43"/>
+      <c r="AI182" s="44"/>
     </row>
     <row r="183" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E183" s="30"/>
       <c r="F183" s="31"/>
-      <c r="G183" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H183" s="28"/>
-      <c r="I183" s="28"/>
-      <c r="J183" s="28"/>
-      <c r="K183" s="29"/>
-      <c r="L183" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="M183" s="28"/>
-      <c r="N183" s="29"/>
-      <c r="O183" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="P183" s="28"/>
-      <c r="Q183" s="28"/>
-      <c r="R183" s="29"/>
-      <c r="S183" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="T183" s="28"/>
-      <c r="U183" s="28"/>
-      <c r="V183" s="28"/>
-      <c r="W183" s="28"/>
-      <c r="X183" s="28"/>
-      <c r="Y183" s="28"/>
-      <c r="Z183" s="28"/>
-      <c r="AA183" s="28"/>
-      <c r="AB183" s="28"/>
-      <c r="AC183" s="28"/>
-      <c r="AD183" s="28"/>
-      <c r="AE183" s="28"/>
-      <c r="AF183" s="28"/>
-      <c r="AG183" s="28"/>
-      <c r="AH183" s="28"/>
-      <c r="AI183" s="29"/>
+      <c r="G183" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M183" s="19"/>
+      <c r="N183" s="20"/>
+      <c r="O183" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P183" s="19"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="20"/>
+      <c r="S183" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="T183" s="19"/>
+      <c r="U183" s="19"/>
+      <c r="V183" s="19"/>
+      <c r="W183" s="19"/>
+      <c r="X183" s="19"/>
+      <c r="Y183" s="19"/>
+      <c r="Z183" s="19"/>
+      <c r="AA183" s="19"/>
+      <c r="AB183" s="19"/>
+      <c r="AC183" s="19"/>
+      <c r="AD183" s="19"/>
+      <c r="AE183" s="19"/>
+      <c r="AF183" s="19"/>
+      <c r="AG183" s="19"/>
+      <c r="AH183" s="19"/>
+      <c r="AI183" s="20"/>
     </row>
     <row r="184" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E184" s="30"/>
       <c r="F184" s="31"/>
-      <c r="G184" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H184" s="43"/>
-      <c r="I184" s="43"/>
-      <c r="J184" s="43"/>
-      <c r="K184" s="44"/>
-      <c r="L184" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M184" s="43"/>
-      <c r="N184" s="44"/>
-      <c r="O184" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="P184" s="43"/>
-      <c r="Q184" s="43"/>
-      <c r="R184" s="44"/>
-      <c r="S184" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="T184" s="43"/>
-      <c r="U184" s="43"/>
-      <c r="V184" s="43"/>
-      <c r="W184" s="43"/>
-      <c r="X184" s="43"/>
-      <c r="Y184" s="43"/>
-      <c r="Z184" s="43"/>
-      <c r="AA184" s="43"/>
-      <c r="AB184" s="43"/>
-      <c r="AC184" s="43"/>
-      <c r="AD184" s="43"/>
-      <c r="AE184" s="43"/>
-      <c r="AF184" s="43"/>
-      <c r="AG184" s="43"/>
-      <c r="AH184" s="43"/>
-      <c r="AI184" s="44"/>
+      <c r="G184" s="40"/>
+      <c r="H184" s="41"/>
+      <c r="I184" s="41"/>
+      <c r="J184" s="41"/>
+      <c r="K184" s="42"/>
+      <c r="L184" s="41"/>
+      <c r="M184" s="41"/>
+      <c r="N184" s="42"/>
+      <c r="O184" s="41"/>
+      <c r="P184" s="41"/>
+      <c r="Q184" s="41"/>
+      <c r="R184" s="42"/>
+      <c r="S184" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="T184" s="41"/>
+      <c r="U184" s="41"/>
+      <c r="V184" s="41"/>
+      <c r="W184" s="41"/>
+      <c r="X184" s="41"/>
+      <c r="Y184" s="41"/>
+      <c r="Z184" s="41"/>
+      <c r="AA184" s="41"/>
+      <c r="AB184" s="41"/>
+      <c r="AC184" s="41"/>
+      <c r="AD184" s="41"/>
+      <c r="AE184" s="41"/>
+      <c r="AF184" s="41"/>
+      <c r="AG184" s="41"/>
+      <c r="AH184" s="41"/>
+      <c r="AI184" s="42"/>
     </row>
     <row r="185" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E185" s="30"/>
       <c r="F185" s="31"/>
-      <c r="G185" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="20"/>
-      <c r="L185" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="M185" s="19"/>
-      <c r="N185" s="20"/>
-      <c r="O185" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="P185" s="19"/>
-      <c r="Q185" s="19"/>
-      <c r="R185" s="20"/>
-      <c r="S185" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="T185" s="19"/>
-      <c r="U185" s="19"/>
-      <c r="V185" s="19"/>
-      <c r="W185" s="19"/>
-      <c r="X185" s="19"/>
-      <c r="Y185" s="19"/>
-      <c r="Z185" s="19"/>
-      <c r="AA185" s="19"/>
-      <c r="AB185" s="19"/>
-      <c r="AC185" s="19"/>
-      <c r="AD185" s="19"/>
-      <c r="AE185" s="19"/>
-      <c r="AF185" s="19"/>
-      <c r="AG185" s="19"/>
-      <c r="AH185" s="19"/>
-      <c r="AI185" s="20"/>
+      <c r="G185" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="H185" s="43"/>
+      <c r="I185" s="43"/>
+      <c r="J185" s="43"/>
+      <c r="K185" s="44"/>
+      <c r="L185" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="M185" s="43"/>
+      <c r="N185" s="44"/>
+      <c r="O185" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="P185" s="43"/>
+      <c r="Q185" s="43"/>
+      <c r="R185" s="44"/>
+      <c r="S185" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="T185" s="43"/>
+      <c r="U185" s="43"/>
+      <c r="V185" s="43"/>
+      <c r="W185" s="43"/>
+      <c r="X185" s="43"/>
+      <c r="Y185" s="43"/>
+      <c r="Z185" s="43"/>
+      <c r="AA185" s="43"/>
+      <c r="AB185" s="43"/>
+      <c r="AC185" s="43"/>
+      <c r="AD185" s="43"/>
+      <c r="AE185" s="43"/>
+      <c r="AF185" s="43"/>
+      <c r="AG185" s="43"/>
+      <c r="AH185" s="43"/>
+      <c r="AI185" s="44"/>
     </row>
     <row r="186" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E186" s="30"/>
       <c r="F186" s="31"/>
-      <c r="G186" s="40"/>
-      <c r="H186" s="41"/>
-      <c r="I186" s="41"/>
-      <c r="J186" s="41"/>
-      <c r="K186" s="42"/>
-      <c r="L186" s="41"/>
-      <c r="M186" s="41"/>
-      <c r="N186" s="42"/>
-      <c r="O186" s="41"/>
-      <c r="P186" s="41"/>
-      <c r="Q186" s="41"/>
-      <c r="R186" s="42"/>
-      <c r="S186" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="T186" s="41"/>
-      <c r="U186" s="41"/>
-      <c r="V186" s="41"/>
-      <c r="W186" s="41"/>
-      <c r="X186" s="41"/>
-      <c r="Y186" s="41"/>
-      <c r="Z186" s="41"/>
-      <c r="AA186" s="41"/>
-      <c r="AB186" s="41"/>
-      <c r="AC186" s="41"/>
-      <c r="AD186" s="41"/>
-      <c r="AE186" s="41"/>
-      <c r="AF186" s="41"/>
-      <c r="AG186" s="41"/>
-      <c r="AH186" s="41"/>
-      <c r="AI186" s="42"/>
+      <c r="G186" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H186" s="43"/>
+      <c r="I186" s="43"/>
+      <c r="J186" s="43"/>
+      <c r="K186" s="44"/>
+      <c r="L186" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="M186" s="43"/>
+      <c r="N186" s="44"/>
+      <c r="O186" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="P186" s="43"/>
+      <c r="Q186" s="43"/>
+      <c r="R186" s="44"/>
+      <c r="S186" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T186" s="43"/>
+      <c r="U186" s="43"/>
+      <c r="V186" s="43"/>
+      <c r="W186" s="43"/>
+      <c r="X186" s="43"/>
+      <c r="Y186" s="43"/>
+      <c r="Z186" s="43"/>
+      <c r="AA186" s="43"/>
+      <c r="AB186" s="43"/>
+      <c r="AC186" s="43"/>
+      <c r="AD186" s="43"/>
+      <c r="AE186" s="43"/>
+      <c r="AF186" s="43"/>
+      <c r="AG186" s="43"/>
+      <c r="AH186" s="43"/>
+      <c r="AI186" s="44"/>
     </row>
     <row r="187" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E187" s="30"/>
       <c r="F187" s="31"/>
-      <c r="G187" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="H187" s="43"/>
-      <c r="I187" s="43"/>
-      <c r="J187" s="43"/>
-      <c r="K187" s="44"/>
-      <c r="L187" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="M187" s="43"/>
-      <c r="N187" s="44"/>
-      <c r="O187" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="P187" s="43"/>
-      <c r="Q187" s="43"/>
-      <c r="R187" s="44"/>
-      <c r="S187" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="T187" s="43"/>
-      <c r="U187" s="43"/>
-      <c r="V187" s="43"/>
-      <c r="W187" s="43"/>
-      <c r="X187" s="43"/>
-      <c r="Y187" s="43"/>
-      <c r="Z187" s="43"/>
-      <c r="AA187" s="43"/>
-      <c r="AB187" s="43"/>
-      <c r="AC187" s="43"/>
-      <c r="AD187" s="43"/>
-      <c r="AE187" s="43"/>
-      <c r="AF187" s="43"/>
-      <c r="AG187" s="43"/>
-      <c r="AH187" s="43"/>
-      <c r="AI187" s="44"/>
     </row>
     <row r="188" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E188" s="30"/>
-      <c r="F188" s="31"/>
-      <c r="G188" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H188" s="43"/>
-      <c r="I188" s="43"/>
-      <c r="J188" s="43"/>
-      <c r="K188" s="44"/>
-      <c r="L188" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="M188" s="43"/>
-      <c r="N188" s="44"/>
-      <c r="O188" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="P188" s="43"/>
-      <c r="Q188" s="43"/>
-      <c r="R188" s="44"/>
-      <c r="S188" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="T188" s="43"/>
-      <c r="U188" s="43"/>
-      <c r="V188" s="43"/>
-      <c r="W188" s="43"/>
-      <c r="X188" s="43"/>
-      <c r="Y188" s="43"/>
-      <c r="Z188" s="43"/>
-      <c r="AA188" s="43"/>
-      <c r="AB188" s="43"/>
-      <c r="AC188" s="43"/>
-      <c r="AD188" s="43"/>
-      <c r="AE188" s="43"/>
-      <c r="AF188" s="43"/>
-      <c r="AG188" s="43"/>
-      <c r="AH188" s="43"/>
-      <c r="AI188" s="44"/>
+      <c r="F188" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G188" s="45" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="189" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E189" s="30"/>
-      <c r="F189" s="31"/>
+      <c r="F189" s="46"/>
+      <c r="G189" s="30" t="str">
+        <f>F188&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H189" s="45" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="190" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E190" s="30"/>
-      <c r="F190" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G190" s="45" t="s">
-        <v>110</v>
-      </c>
+      <c r="D190" s="19"/>
+      <c r="E190" s="37"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="38"/>
+      <c r="H190" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I190" s="24"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="24"/>
+      <c r="L190" s="24"/>
+      <c r="M190" s="24"/>
+      <c r="N190" s="24"/>
+      <c r="O190" s="24"/>
+      <c r="P190" s="24"/>
+      <c r="Q190" s="24"/>
+      <c r="R190" s="24"/>
+      <c r="S190" s="24"/>
+      <c r="T190" s="24"/>
+      <c r="U190" s="24"/>
+      <c r="V190" s="24"/>
+      <c r="W190" s="24"/>
+      <c r="X190" s="24"/>
+      <c r="Y190" s="24"/>
+      <c r="Z190" s="24"/>
+      <c r="AA190" s="24"/>
+      <c r="AB190" s="24"/>
+      <c r="AC190" s="24"/>
+      <c r="AD190" s="24"/>
+      <c r="AE190" s="24"/>
+      <c r="AF190" s="24"/>
+      <c r="AG190" s="24"/>
+      <c r="AH190" s="24"/>
+      <c r="AI190" s="25"/>
     </row>
     <row r="191" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E191" s="30"/>
-      <c r="F191" s="46"/>
-      <c r="G191" s="30" t="str">
-        <f>F190&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H191" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="F191" s="30"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I191" s="41"/>
+      <c r="J191" s="41"/>
+      <c r="K191" s="41"/>
+      <c r="L191" s="41"/>
+      <c r="M191" s="41"/>
+      <c r="N191" s="41"/>
+      <c r="O191" s="41"/>
+      <c r="P191" s="41"/>
+      <c r="Q191" s="41"/>
+      <c r="R191" s="41"/>
+      <c r="S191" s="41"/>
+      <c r="T191" s="41"/>
+      <c r="U191" s="41"/>
+      <c r="V191" s="41"/>
+      <c r="W191" s="41"/>
+      <c r="X191" s="41"/>
+      <c r="Y191" s="41"/>
+      <c r="Z191" s="41"/>
+      <c r="AA191" s="41"/>
+      <c r="AB191" s="41"/>
+      <c r="AC191" s="41"/>
+      <c r="AD191" s="41"/>
+      <c r="AE191" s="41"/>
+      <c r="AF191" s="41"/>
+      <c r="AG191" s="41"/>
+      <c r="AH191" s="41"/>
+      <c r="AI191" s="42"/>
     </row>
     <row r="192" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D192" s="19"/>
-      <c r="E192" s="37"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="38"/>
-      <c r="H192" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I192" s="24"/>
-      <c r="J192" s="24"/>
-      <c r="K192" s="24"/>
-      <c r="L192" s="24"/>
-      <c r="M192" s="24"/>
-      <c r="N192" s="24"/>
-      <c r="O192" s="24"/>
-      <c r="P192" s="24"/>
-      <c r="Q192" s="24"/>
-      <c r="R192" s="24"/>
-      <c r="S192" s="24"/>
-      <c r="T192" s="24"/>
-      <c r="U192" s="24"/>
-      <c r="V192" s="24"/>
-      <c r="W192" s="24"/>
-      <c r="X192" s="24"/>
-      <c r="Y192" s="24"/>
-      <c r="Z192" s="24"/>
-      <c r="AA192" s="24"/>
-      <c r="AB192" s="24"/>
-      <c r="AC192" s="24"/>
-      <c r="AD192" s="24"/>
-      <c r="AE192" s="24"/>
-      <c r="AF192" s="24"/>
-      <c r="AG192" s="24"/>
-      <c r="AH192" s="24"/>
-      <c r="AI192" s="25"/>
+      <c r="E192" s="30"/>
+      <c r="F192" s="30"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="45" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="193" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E193" s="30"/>
       <c r="F193" s="30"/>
       <c r="G193" s="46"/>
-      <c r="H193" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I193" s="41"/>
-      <c r="J193" s="41"/>
-      <c r="K193" s="41"/>
-      <c r="L193" s="41"/>
-      <c r="M193" s="41"/>
-      <c r="N193" s="41"/>
-      <c r="O193" s="41"/>
-      <c r="P193" s="41"/>
-      <c r="Q193" s="41"/>
-      <c r="R193" s="41"/>
-      <c r="S193" s="41"/>
-      <c r="T193" s="41"/>
-      <c r="U193" s="41"/>
-      <c r="V193" s="41"/>
-      <c r="W193" s="41"/>
-      <c r="X193" s="41"/>
-      <c r="Y193" s="41"/>
-      <c r="Z193" s="41"/>
-      <c r="AA193" s="41"/>
-      <c r="AB193" s="41"/>
-      <c r="AC193" s="41"/>
-      <c r="AD193" s="41"/>
-      <c r="AE193" s="41"/>
-      <c r="AF193" s="41"/>
-      <c r="AG193" s="41"/>
-      <c r="AH193" s="41"/>
-      <c r="AI193" s="42"/>
+      <c r="H193" s="45" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="194" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E194" s="30"/>
-      <c r="F194" s="30"/>
-      <c r="G194" s="46"/>
-      <c r="H194" s="45" t="s">
-        <v>185</v>
-      </c>
+      <c r="F194" s="46"/>
     </row>
     <row r="195" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E195" s="30"/>
-      <c r="F195" s="30"/>
-      <c r="G195" s="46"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="30" t="str">
+        <f>F188&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
       <c r="H195" s="45" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
     </row>
     <row r="196" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E196" s="30"/>
       <c r="F196" s="46"/>
+      <c r="G196" s="30"/>
+      <c r="H196" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
+      <c r="L196" s="28"/>
+      <c r="M196" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N196" s="28"/>
+      <c r="O196" s="28"/>
+      <c r="P196" s="28"/>
+      <c r="Q196" s="29"/>
+      <c r="R196" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S196" s="28"/>
+      <c r="T196" s="28"/>
+      <c r="U196" s="28"/>
+      <c r="V196" s="28"/>
+      <c r="W196" s="28"/>
+      <c r="X196" s="28"/>
+      <c r="Y196" s="28"/>
+      <c r="Z196" s="28"/>
+      <c r="AA196" s="28"/>
+      <c r="AB196" s="28"/>
+      <c r="AC196" s="28"/>
+      <c r="AD196" s="28"/>
+      <c r="AE196" s="28"/>
+      <c r="AF196" s="28"/>
+      <c r="AG196" s="28"/>
+      <c r="AH196" s="28"/>
+      <c r="AI196" s="29"/>
     </row>
     <row r="197" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E197" s="30"/>
-      <c r="F197" s="46"/>
-      <c r="G197" s="30" t="str">
-        <f>F190&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H197" s="45" t="s">
-        <v>83</v>
-      </c>
+      <c r="H197" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I197" s="43"/>
+      <c r="J197" s="43"/>
+      <c r="K197" s="43"/>
+      <c r="L197" s="43"/>
+      <c r="M197" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="N197" s="43"/>
+      <c r="O197" s="43"/>
+      <c r="P197" s="43"/>
+      <c r="Q197" s="44"/>
+      <c r="R197" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="S197" s="43"/>
+      <c r="T197" s="43"/>
+      <c r="U197" s="43"/>
+      <c r="V197" s="43"/>
+      <c r="W197" s="43"/>
+      <c r="X197" s="43"/>
+      <c r="Y197" s="43"/>
+      <c r="Z197" s="43"/>
+      <c r="AA197" s="43"/>
+      <c r="AB197" s="43"/>
+      <c r="AC197" s="43"/>
+      <c r="AD197" s="43"/>
+      <c r="AE197" s="43"/>
+      <c r="AF197" s="43"/>
+      <c r="AG197" s="43"/>
+      <c r="AH197" s="43"/>
+      <c r="AI197" s="44"/>
     </row>
     <row r="198" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="30"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="30"/>
-      <c r="H198" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I198" s="28"/>
-      <c r="J198" s="28"/>
-      <c r="K198" s="28"/>
-      <c r="L198" s="28"/>
-      <c r="M198" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="N198" s="28"/>
-      <c r="O198" s="28"/>
-      <c r="P198" s="28"/>
-      <c r="Q198" s="29"/>
-      <c r="R198" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="S198" s="28"/>
-      <c r="T198" s="28"/>
-      <c r="U198" s="28"/>
-      <c r="V198" s="28"/>
-      <c r="W198" s="28"/>
-      <c r="X198" s="28"/>
-      <c r="Y198" s="28"/>
-      <c r="Z198" s="28"/>
-      <c r="AA198" s="28"/>
-      <c r="AB198" s="28"/>
-      <c r="AC198" s="28"/>
-      <c r="AD198" s="28"/>
-      <c r="AE198" s="28"/>
-      <c r="AF198" s="28"/>
-      <c r="AG198" s="28"/>
-      <c r="AH198" s="28"/>
-      <c r="AI198" s="29"/>
+      <c r="H198" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" s="19"/>
+      <c r="J198" s="19"/>
+      <c r="K198" s="19"/>
+      <c r="L198" s="19"/>
+      <c r="M198" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N198" s="19"/>
+      <c r="O198" s="19"/>
+      <c r="P198" s="19"/>
+      <c r="Q198" s="20"/>
+      <c r="R198" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="S198" s="19"/>
+      <c r="T198" s="19"/>
+      <c r="U198" s="19"/>
+      <c r="V198" s="19"/>
+      <c r="W198" s="19"/>
+      <c r="X198" s="19"/>
+      <c r="Y198" s="19"/>
+      <c r="Z198" s="19"/>
+      <c r="AA198" s="19"/>
+      <c r="AB198" s="19"/>
+      <c r="AC198" s="19"/>
+      <c r="AD198" s="19"/>
+      <c r="AE198" s="19"/>
+      <c r="AF198" s="19"/>
+      <c r="AG198" s="19"/>
+      <c r="AH198" s="19"/>
+      <c r="AI198" s="20"/>
     </row>
     <row r="199" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E199" s="30"/>
-      <c r="H199" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="I199" s="43"/>
-      <c r="J199" s="43"/>
-      <c r="K199" s="43"/>
-      <c r="L199" s="43"/>
-      <c r="M199" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="N199" s="43"/>
-      <c r="O199" s="43"/>
-      <c r="P199" s="43"/>
-      <c r="Q199" s="44"/>
-      <c r="R199" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="S199" s="43"/>
-      <c r="T199" s="43"/>
-      <c r="U199" s="43"/>
-      <c r="V199" s="43"/>
-      <c r="W199" s="43"/>
-      <c r="X199" s="43"/>
-      <c r="Y199" s="43"/>
-      <c r="Z199" s="43"/>
-      <c r="AA199" s="43"/>
-      <c r="AB199" s="43"/>
-      <c r="AC199" s="43"/>
-      <c r="AD199" s="43"/>
-      <c r="AE199" s="43"/>
-      <c r="AF199" s="43"/>
-      <c r="AG199" s="43"/>
-      <c r="AH199" s="43"/>
-      <c r="AI199" s="44"/>
+      <c r="H199" s="40"/>
+      <c r="I199" s="41"/>
+      <c r="J199" s="41"/>
+      <c r="K199" s="41"/>
+      <c r="L199" s="41"/>
+      <c r="M199" s="40"/>
+      <c r="N199" s="41"/>
+      <c r="O199" s="41"/>
+      <c r="P199" s="41"/>
+      <c r="Q199" s="42"/>
+      <c r="R199" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="S199" s="41"/>
+      <c r="T199" s="41"/>
+      <c r="U199" s="41"/>
+      <c r="V199" s="41"/>
+      <c r="W199" s="41"/>
+      <c r="X199" s="41"/>
+      <c r="Y199" s="41"/>
+      <c r="Z199" s="41"/>
+      <c r="AA199" s="41"/>
+      <c r="AB199" s="41"/>
+      <c r="AC199" s="41"/>
+      <c r="AD199" s="41"/>
+      <c r="AE199" s="41"/>
+      <c r="AF199" s="41"/>
+      <c r="AG199" s="41"/>
+      <c r="AH199" s="41"/>
+      <c r="AI199" s="42"/>
     </row>
     <row r="200" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E200" s="30"/>
-      <c r="H200" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I200" s="19"/>
-      <c r="J200" s="19"/>
-      <c r="K200" s="19"/>
-      <c r="L200" s="19"/>
-      <c r="M200" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N200" s="19"/>
-      <c r="O200" s="19"/>
-      <c r="P200" s="19"/>
-      <c r="Q200" s="20"/>
-      <c r="R200" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="S200" s="19"/>
-      <c r="T200" s="19"/>
-      <c r="U200" s="19"/>
-      <c r="V200" s="19"/>
-      <c r="W200" s="19"/>
-      <c r="X200" s="19"/>
-      <c r="Y200" s="19"/>
-      <c r="Z200" s="19"/>
-      <c r="AA200" s="19"/>
-      <c r="AB200" s="19"/>
-      <c r="AC200" s="19"/>
-      <c r="AD200" s="19"/>
-      <c r="AE200" s="19"/>
-      <c r="AF200" s="19"/>
-      <c r="AG200" s="19"/>
-      <c r="AH200" s="19"/>
-      <c r="AI200" s="20"/>
+      <c r="H200" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I200" s="41"/>
+      <c r="J200" s="41"/>
+      <c r="K200" s="41"/>
+      <c r="L200" s="41"/>
+      <c r="M200" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N200" s="41"/>
+      <c r="O200" s="41"/>
+      <c r="P200" s="41"/>
+      <c r="Q200" s="42"/>
+      <c r="R200" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="S200" s="41"/>
+      <c r="T200" s="41"/>
+      <c r="U200" s="41"/>
+      <c r="V200" s="41"/>
+      <c r="W200" s="41"/>
+      <c r="X200" s="41"/>
+      <c r="Y200" s="41"/>
+      <c r="Z200" s="41"/>
+      <c r="AA200" s="41"/>
+      <c r="AB200" s="41"/>
+      <c r="AC200" s="41"/>
+      <c r="AD200" s="41"/>
+      <c r="AE200" s="41"/>
+      <c r="AF200" s="41"/>
+      <c r="AG200" s="41"/>
+      <c r="AH200" s="41"/>
+      <c r="AI200" s="42"/>
     </row>
     <row r="201" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E201" s="30"/>
-      <c r="H201" s="40"/>
+      <c r="H201" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="I201" s="41"/>
       <c r="J201" s="41"/>
       <c r="K201" s="41"/>
       <c r="L201" s="41"/>
-      <c r="M201" s="40"/>
+      <c r="M201" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N201" s="41"/>
       <c r="O201" s="41"/>
       <c r="P201" s="41"/>
       <c r="Q201" s="42"/>
       <c r="R201" s="41" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="S201" s="41"/>
       <c r="T201" s="41"/>
@@ -7280,45 +7146,45 @@
     </row>
     <row r="202" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E202" s="30"/>
-      <c r="H202" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I202" s="41"/>
-      <c r="J202" s="41"/>
-      <c r="K202" s="41"/>
-      <c r="L202" s="41"/>
-      <c r="M202" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="N202" s="41"/>
-      <c r="O202" s="41"/>
-      <c r="P202" s="41"/>
-      <c r="Q202" s="42"/>
-      <c r="R202" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="S202" s="41"/>
-      <c r="T202" s="41"/>
-      <c r="U202" s="41"/>
-      <c r="V202" s="41"/>
-      <c r="W202" s="41"/>
-      <c r="X202" s="41"/>
-      <c r="Y202" s="41"/>
-      <c r="Z202" s="41"/>
-      <c r="AA202" s="41"/>
-      <c r="AB202" s="41"/>
-      <c r="AC202" s="41"/>
-      <c r="AD202" s="41"/>
-      <c r="AE202" s="41"/>
-      <c r="AF202" s="41"/>
-      <c r="AG202" s="41"/>
-      <c r="AH202" s="41"/>
-      <c r="AI202" s="42"/>
+      <c r="H202" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I202" s="43"/>
+      <c r="J202" s="43"/>
+      <c r="K202" s="43"/>
+      <c r="L202" s="43"/>
+      <c r="M202" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="N202" s="43"/>
+      <c r="O202" s="43"/>
+      <c r="P202" s="43"/>
+      <c r="Q202" s="44"/>
+      <c r="R202" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="S202" s="43"/>
+      <c r="T202" s="43"/>
+      <c r="U202" s="43"/>
+      <c r="V202" s="43"/>
+      <c r="W202" s="43"/>
+      <c r="X202" s="43"/>
+      <c r="Y202" s="43"/>
+      <c r="Z202" s="43"/>
+      <c r="AA202" s="43"/>
+      <c r="AB202" s="43"/>
+      <c r="AC202" s="43"/>
+      <c r="AD202" s="43"/>
+      <c r="AE202" s="43"/>
+      <c r="AF202" s="43"/>
+      <c r="AG202" s="43"/>
+      <c r="AH202" s="43"/>
+      <c r="AI202" s="44"/>
     </row>
     <row r="203" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E203" s="30"/>
       <c r="H203" s="40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I203" s="41"/>
       <c r="J203" s="41"/>
@@ -7332,7 +7198,7 @@
       <c r="P203" s="41"/>
       <c r="Q203" s="42"/>
       <c r="R203" s="41" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="S203" s="41"/>
       <c r="T203" s="41"/>
@@ -7354,40 +7220,40 @@
     </row>
     <row r="204" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E204" s="30"/>
-      <c r="H204" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="I204" s="43"/>
-      <c r="J204" s="43"/>
-      <c r="K204" s="43"/>
-      <c r="L204" s="43"/>
-      <c r="M204" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="N204" s="43"/>
-      <c r="O204" s="43"/>
-      <c r="P204" s="43"/>
-      <c r="Q204" s="44"/>
-      <c r="R204" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="S204" s="43"/>
-      <c r="T204" s="43"/>
-      <c r="U204" s="43"/>
-      <c r="V204" s="43"/>
-      <c r="W204" s="43"/>
-      <c r="X204" s="43"/>
-      <c r="Y204" s="43"/>
-      <c r="Z204" s="43"/>
-      <c r="AA204" s="43"/>
-      <c r="AB204" s="43"/>
-      <c r="AC204" s="43"/>
-      <c r="AD204" s="43"/>
-      <c r="AE204" s="43"/>
-      <c r="AF204" s="43"/>
-      <c r="AG204" s="43"/>
-      <c r="AH204" s="43"/>
-      <c r="AI204" s="44"/>
+      <c r="H204" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I204" s="41"/>
+      <c r="J204" s="41"/>
+      <c r="K204" s="41"/>
+      <c r="L204" s="41"/>
+      <c r="M204" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="N204" s="41"/>
+      <c r="O204" s="41"/>
+      <c r="P204" s="41"/>
+      <c r="Q204" s="42"/>
+      <c r="R204" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="S204" s="41"/>
+      <c r="T204" s="41"/>
+      <c r="U204" s="41"/>
+      <c r="V204" s="41"/>
+      <c r="W204" s="41"/>
+      <c r="X204" s="41"/>
+      <c r="Y204" s="41"/>
+      <c r="Z204" s="41"/>
+      <c r="AA204" s="41"/>
+      <c r="AB204" s="41"/>
+      <c r="AC204" s="41"/>
+      <c r="AD204" s="41"/>
+      <c r="AE204" s="41"/>
+      <c r="AF204" s="41"/>
+      <c r="AG204" s="41"/>
+      <c r="AH204" s="41"/>
+      <c r="AI204" s="42"/>
     </row>
     <row r="205" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E205" s="30"/>
@@ -7399,14 +7265,14 @@
       <c r="K205" s="41"/>
       <c r="L205" s="41"/>
       <c r="M205" s="40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N205" s="41"/>
       <c r="O205" s="41"/>
       <c r="P205" s="41"/>
       <c r="Q205" s="42"/>
       <c r="R205" s="41" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="S205" s="41"/>
       <c r="T205" s="41"/>
@@ -7428,59 +7294,56 @@
     </row>
     <row r="206" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E206" s="30"/>
-      <c r="H206" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I206" s="41"/>
-      <c r="J206" s="41"/>
-      <c r="K206" s="41"/>
-      <c r="L206" s="41"/>
-      <c r="M206" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="N206" s="41"/>
-      <c r="O206" s="41"/>
-      <c r="P206" s="41"/>
-      <c r="Q206" s="42"/>
-      <c r="R206" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="S206" s="41"/>
-      <c r="T206" s="41"/>
-      <c r="U206" s="41"/>
-      <c r="V206" s="41"/>
-      <c r="W206" s="41"/>
-      <c r="X206" s="41"/>
-      <c r="Y206" s="41"/>
-      <c r="Z206" s="41"/>
-      <c r="AA206" s="41"/>
-      <c r="AB206" s="41"/>
-      <c r="AC206" s="41"/>
-      <c r="AD206" s="41"/>
-      <c r="AE206" s="41"/>
-      <c r="AF206" s="41"/>
-      <c r="AG206" s="41"/>
-      <c r="AH206" s="41"/>
-      <c r="AI206" s="42"/>
+      <c r="H206" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I206" s="24"/>
+      <c r="J206" s="24"/>
+      <c r="K206" s="24"/>
+      <c r="L206" s="25"/>
+      <c r="M206" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="N206" s="24"/>
+      <c r="O206" s="24"/>
+      <c r="P206" s="24"/>
+      <c r="Q206" s="25"/>
+      <c r="R206" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="S206" s="24"/>
+      <c r="T206" s="24"/>
+      <c r="U206" s="24"/>
+      <c r="V206" s="24"/>
+      <c r="W206" s="24"/>
+      <c r="X206" s="24"/>
+      <c r="Y206" s="24"/>
+      <c r="Z206" s="24"/>
+      <c r="AA206" s="24"/>
+      <c r="AB206" s="24"/>
+      <c r="AC206" s="24"/>
+      <c r="AD206" s="24"/>
+      <c r="AE206" s="24"/>
+      <c r="AF206" s="24"/>
+      <c r="AG206" s="24"/>
+      <c r="AH206" s="24"/>
+      <c r="AI206" s="25"/>
     </row>
     <row r="207" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E207" s="30"/>
-      <c r="H207" s="40" t="s">
-        <v>105</v>
-      </c>
+      <c r="H207" s="40"/>
       <c r="I207" s="41"/>
       <c r="J207" s="41"/>
       <c r="K207" s="41"/>
-      <c r="L207" s="41"/>
-      <c r="M207" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="L207" s="42"/>
+      <c r="M207" s="40"/>
       <c r="N207" s="41"/>
       <c r="O207" s="41"/>
       <c r="P207" s="41"/>
       <c r="Q207" s="42"/>
-      <c r="R207" s="41" t="s">
-        <v>172</v>
+      <c r="R207" s="40" t="str">
+        <f>"ログの種類ごとのフォーマットは"&amp;$D$104&amp;$E$104&amp;"を参照。"</f>
+        <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
       </c>
       <c r="S207" s="41"/>
       <c r="T207" s="41"/>
@@ -7503,21 +7366,21 @@
     <row r="208" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E208" s="30"/>
       <c r="H208" s="23" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I208" s="24"/>
       <c r="J208" s="24"/>
       <c r="K208" s="24"/>
       <c r="L208" s="25"/>
       <c r="M208" s="23" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="N208" s="24"/>
       <c r="O208" s="24"/>
       <c r="P208" s="24"/>
       <c r="Q208" s="25"/>
       <c r="R208" s="23" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="S208" s="24"/>
       <c r="T208" s="24"/>
@@ -7537,7 +7400,7 @@
       <c r="AH208" s="24"/>
       <c r="AI208" s="25"/>
     </row>
-    <row r="209" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E209" s="30"/>
       <c r="H209" s="40"/>
       <c r="I209" s="41"/>
@@ -7549,9 +7412,8 @@
       <c r="O209" s="41"/>
       <c r="P209" s="41"/>
       <c r="Q209" s="42"/>
-      <c r="R209" s="40" t="str">
-        <f>"ログの種類ごとのフォーマットは"&amp;$D$106&amp;$E$106&amp;"を参照。"</f>
-        <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
+      <c r="R209" s="40" t="s">
+        <v>233</v>
       </c>
       <c r="S209" s="41"/>
       <c r="T209" s="41"/>
@@ -7571,57 +7433,57 @@
       <c r="AH209" s="41"/>
       <c r="AI209" s="42"/>
     </row>
-    <row r="210" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E210" s="30"/>
-      <c r="H210" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I210" s="24"/>
-      <c r="J210" s="24"/>
-      <c r="K210" s="24"/>
-      <c r="L210" s="25"/>
-      <c r="M210" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="N210" s="24"/>
-      <c r="O210" s="24"/>
-      <c r="P210" s="24"/>
-      <c r="Q210" s="25"/>
-      <c r="R210" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="S210" s="24"/>
-      <c r="T210" s="24"/>
-      <c r="U210" s="24"/>
-      <c r="V210" s="24"/>
-      <c r="W210" s="24"/>
-      <c r="X210" s="24"/>
-      <c r="Y210" s="24"/>
-      <c r="Z210" s="24"/>
-      <c r="AA210" s="24"/>
-      <c r="AB210" s="24"/>
-      <c r="AC210" s="24"/>
-      <c r="AD210" s="24"/>
-      <c r="AE210" s="24"/>
-      <c r="AF210" s="24"/>
-      <c r="AG210" s="24"/>
-      <c r="AH210" s="24"/>
-      <c r="AI210" s="25"/>
-    </row>
-    <row r="211" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H210" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="19"/>
+      <c r="L210" s="19"/>
+      <c r="M210" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N210" s="19"/>
+      <c r="O210" s="19"/>
+      <c r="P210" s="19"/>
+      <c r="Q210" s="20"/>
+      <c r="R210" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="S210" s="19"/>
+      <c r="T210" s="19"/>
+      <c r="U210" s="19"/>
+      <c r="V210" s="19"/>
+      <c r="W210" s="19"/>
+      <c r="X210" s="19"/>
+      <c r="Y210" s="19"/>
+      <c r="Z210" s="19"/>
+      <c r="AA210" s="19"/>
+      <c r="AB210" s="19"/>
+      <c r="AC210" s="19"/>
+      <c r="AD210" s="19"/>
+      <c r="AE210" s="19"/>
+      <c r="AF210" s="19"/>
+      <c r="AG210" s="19"/>
+      <c r="AH210" s="19"/>
+      <c r="AI210" s="20"/>
+    </row>
+    <row r="211" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E211" s="30"/>
       <c r="H211" s="40"/>
       <c r="I211" s="41"/>
       <c r="J211" s="41"/>
       <c r="K211" s="41"/>
-      <c r="L211" s="42"/>
+      <c r="L211" s="41"/>
       <c r="M211" s="40"/>
       <c r="N211" s="41"/>
       <c r="O211" s="41"/>
       <c r="P211" s="41"/>
       <c r="Q211" s="42"/>
-      <c r="R211" s="40" t="s">
-        <v>271</v>
+      <c r="R211" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="S211" s="41"/>
       <c r="T211" s="41"/>
@@ -7641,25 +7503,19 @@
       <c r="AH211" s="41"/>
       <c r="AI211" s="42"/>
     </row>
-    <row r="212" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E212" s="30"/>
-      <c r="H212" s="18" t="s">
-        <v>152</v>
-      </c>
+      <c r="H212" s="19"/>
       <c r="I212" s="19"/>
       <c r="J212" s="19"/>
       <c r="K212" s="19"/>
       <c r="L212" s="19"/>
-      <c r="M212" s="18" t="s">
-        <v>153</v>
-      </c>
+      <c r="M212" s="19"/>
       <c r="N212" s="19"/>
       <c r="O212" s="19"/>
       <c r="P212" s="19"/>
-      <c r="Q212" s="20"/>
-      <c r="R212" s="19" t="s">
-        <v>187</v>
-      </c>
+      <c r="Q212" s="19"/>
+      <c r="R212" s="19"/>
       <c r="S212" s="19"/>
       <c r="T212" s="19"/>
       <c r="U212" s="19"/>
@@ -7676,1738 +7532,201 @@
       <c r="AF212" s="19"/>
       <c r="AG212" s="19"/>
       <c r="AH212" s="19"/>
-      <c r="AI212" s="20"/>
-    </row>
-    <row r="213" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI212" s="19"/>
+    </row>
+    <row r="213" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E213" s="30"/>
-      <c r="H213" s="40"/>
-      <c r="I213" s="41"/>
-      <c r="J213" s="41"/>
-      <c r="K213" s="41"/>
-      <c r="L213" s="41"/>
-      <c r="M213" s="40"/>
-      <c r="N213" s="41"/>
-      <c r="O213" s="41"/>
-      <c r="P213" s="41"/>
-      <c r="Q213" s="42"/>
-      <c r="R213" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="S213" s="41"/>
-      <c r="T213" s="41"/>
-      <c r="U213" s="41"/>
-      <c r="V213" s="41"/>
-      <c r="W213" s="41"/>
-      <c r="X213" s="41"/>
-      <c r="Y213" s="41"/>
-      <c r="Z213" s="41"/>
-      <c r="AA213" s="41"/>
-      <c r="AB213" s="41"/>
-      <c r="AC213" s="41"/>
-      <c r="AD213" s="41"/>
-      <c r="AE213" s="41"/>
-      <c r="AF213" s="41"/>
-      <c r="AG213" s="41"/>
-      <c r="AH213" s="41"/>
-      <c r="AI213" s="42"/>
-    </row>
-    <row r="214" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F213" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E214" s="30"/>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
-      <c r="N214" s="19"/>
-      <c r="O214" s="19"/>
-      <c r="P214" s="19"/>
-      <c r="Q214" s="19"/>
-      <c r="R214" s="19"/>
-      <c r="S214" s="19"/>
-      <c r="T214" s="19"/>
-      <c r="U214" s="19"/>
-      <c r="V214" s="19"/>
-      <c r="W214" s="19"/>
-      <c r="X214" s="19"/>
-      <c r="Y214" s="19"/>
-      <c r="Z214" s="19"/>
-      <c r="AA214" s="19"/>
-      <c r="AB214" s="19"/>
-      <c r="AC214" s="19"/>
-      <c r="AD214" s="19"/>
-      <c r="AE214" s="19"/>
-      <c r="AF214" s="19"/>
-      <c r="AG214" s="19"/>
-      <c r="AH214" s="19"/>
-      <c r="AI214" s="19"/>
-    </row>
-    <row r="215" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F214" s="46"/>
+      <c r="G214" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="215" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E215" s="30"/>
-      <c r="F215" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G215" s="45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="216" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F215" s="46"/>
+      <c r="G215" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H215" s="24"/>
+      <c r="I215" s="24"/>
+      <c r="J215" s="24"/>
+      <c r="K215" s="24"/>
+      <c r="L215" s="24"/>
+      <c r="M215" s="24"/>
+      <c r="N215" s="24"/>
+      <c r="O215" s="24"/>
+      <c r="P215" s="24"/>
+      <c r="Q215" s="24"/>
+      <c r="R215" s="24"/>
+      <c r="S215" s="24"/>
+      <c r="T215" s="24"/>
+      <c r="U215" s="24"/>
+      <c r="V215" s="24"/>
+      <c r="W215" s="24"/>
+      <c r="X215" s="24"/>
+      <c r="Y215" s="24"/>
+      <c r="Z215" s="24"/>
+      <c r="AA215" s="24"/>
+      <c r="AB215" s="24"/>
+      <c r="AC215" s="24"/>
+      <c r="AD215" s="24"/>
+      <c r="AE215" s="24"/>
+      <c r="AF215" s="24"/>
+      <c r="AG215" s="24"/>
+      <c r="AH215" s="24"/>
+      <c r="AI215" s="25"/>
+    </row>
+    <row r="216" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E216" s="30"/>
       <c r="F216" s="46"/>
-      <c r="G216" s="45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="217" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G216" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H216" s="41"/>
+      <c r="I216" s="41"/>
+      <c r="J216" s="41"/>
+      <c r="K216" s="41"/>
+      <c r="L216" s="41"/>
+      <c r="M216" s="41"/>
+      <c r="N216" s="41"/>
+      <c r="O216" s="41"/>
+      <c r="P216" s="41"/>
+      <c r="Q216" s="41"/>
+      <c r="R216" s="41"/>
+      <c r="S216" s="41"/>
+      <c r="T216" s="41"/>
+      <c r="U216" s="41"/>
+      <c r="V216" s="41"/>
+      <c r="W216" s="41"/>
+      <c r="X216" s="41"/>
+      <c r="Y216" s="41"/>
+      <c r="Z216" s="41"/>
+      <c r="AA216" s="41"/>
+      <c r="AB216" s="41"/>
+      <c r="AC216" s="41"/>
+      <c r="AD216" s="41"/>
+      <c r="AE216" s="41"/>
+      <c r="AF216" s="41"/>
+      <c r="AG216" s="41"/>
+      <c r="AH216" s="41"/>
+      <c r="AI216" s="42"/>
+    </row>
+    <row r="217" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E217" s="30"/>
       <c r="F217" s="46"/>
-      <c r="G217" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="H217" s="24"/>
-      <c r="I217" s="24"/>
-      <c r="J217" s="24"/>
-      <c r="K217" s="24"/>
-      <c r="L217" s="24"/>
-      <c r="M217" s="24"/>
-      <c r="N217" s="24"/>
-      <c r="O217" s="24"/>
-      <c r="P217" s="24"/>
-      <c r="Q217" s="24"/>
-      <c r="R217" s="24"/>
-      <c r="S217" s="24"/>
-      <c r="T217" s="24"/>
-      <c r="U217" s="24"/>
-      <c r="V217" s="24"/>
-      <c r="W217" s="24"/>
-      <c r="X217" s="24"/>
-      <c r="Y217" s="24"/>
-      <c r="Z217" s="24"/>
-      <c r="AA217" s="24"/>
-      <c r="AB217" s="24"/>
-      <c r="AC217" s="24"/>
-      <c r="AD217" s="24"/>
-      <c r="AE217" s="24"/>
-      <c r="AF217" s="24"/>
-      <c r="AG217" s="24"/>
-      <c r="AH217" s="24"/>
-      <c r="AI217" s="25"/>
-    </row>
-    <row r="218" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G217" s="50"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="19"/>
+      <c r="K217" s="19"/>
+      <c r="L217" s="19"/>
+      <c r="M217" s="19"/>
+      <c r="N217" s="19"/>
+      <c r="O217" s="19"/>
+      <c r="P217" s="19"/>
+      <c r="Q217" s="19"/>
+      <c r="R217" s="19"/>
+      <c r="S217" s="19"/>
+      <c r="T217" s="19"/>
+      <c r="U217" s="19"/>
+      <c r="V217" s="19"/>
+      <c r="W217" s="19"/>
+      <c r="X217" s="19"/>
+      <c r="Y217" s="19"/>
+      <c r="Z217" s="19"/>
+      <c r="AA217" s="19"/>
+      <c r="AB217" s="19"/>
+      <c r="AC217" s="19"/>
+      <c r="AD217" s="19"/>
+      <c r="AE217" s="19"/>
+      <c r="AF217" s="19"/>
+      <c r="AG217" s="19"/>
+      <c r="AH217" s="19"/>
+      <c r="AI217" s="19"/>
+    </row>
+    <row r="218" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E218" s="30"/>
       <c r="F218" s="46"/>
-      <c r="G218" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H218" s="41"/>
-      <c r="I218" s="41"/>
-      <c r="J218" s="41"/>
-      <c r="K218" s="41"/>
-      <c r="L218" s="41"/>
-      <c r="M218" s="41"/>
-      <c r="N218" s="41"/>
-      <c r="O218" s="41"/>
-      <c r="P218" s="41"/>
-      <c r="Q218" s="41"/>
-      <c r="R218" s="41"/>
-      <c r="S218" s="41"/>
-      <c r="T218" s="41"/>
-      <c r="U218" s="41"/>
-      <c r="V218" s="41"/>
-      <c r="W218" s="41"/>
-      <c r="X218" s="41"/>
-      <c r="Y218" s="41"/>
-      <c r="Z218" s="41"/>
-      <c r="AA218" s="41"/>
-      <c r="AB218" s="41"/>
-      <c r="AC218" s="41"/>
-      <c r="AD218" s="41"/>
-      <c r="AE218" s="41"/>
-      <c r="AF218" s="41"/>
-      <c r="AG218" s="41"/>
-      <c r="AH218" s="41"/>
-      <c r="AI218" s="42"/>
-    </row>
-    <row r="219" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E219" s="30"/>
-      <c r="F219" s="46"/>
-      <c r="G219" s="50"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="19"/>
-      <c r="K219" s="19"/>
-      <c r="L219" s="19"/>
-      <c r="M219" s="19"/>
-      <c r="N219" s="19"/>
-      <c r="O219" s="19"/>
-      <c r="P219" s="19"/>
-      <c r="Q219" s="19"/>
-      <c r="R219" s="19"/>
-      <c r="S219" s="19"/>
-      <c r="T219" s="19"/>
-      <c r="U219" s="19"/>
-      <c r="V219" s="19"/>
-      <c r="W219" s="19"/>
-      <c r="X219" s="19"/>
-      <c r="Y219" s="19"/>
-      <c r="Z219" s="19"/>
-      <c r="AA219" s="19"/>
-      <c r="AB219" s="19"/>
-      <c r="AC219" s="19"/>
-      <c r="AD219" s="19"/>
-      <c r="AE219" s="19"/>
-      <c r="AF219" s="19"/>
-      <c r="AG219" s="19"/>
-      <c r="AH219" s="19"/>
-      <c r="AI219" s="19"/>
-    </row>
-    <row r="220" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E220" s="30" t="str">
-        <f>$D$141&amp;"3."</f>
-        <v>7.13.4.3.</v>
-      </c>
-      <c r="F220" s="31" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="221" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E221" s="30"/>
-      <c r="F221" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G221" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="222" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E222" s="30"/>
-      <c r="F222" s="31"/>
-      <c r="G222" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="H222" s="28"/>
-      <c r="I222" s="29"/>
-      <c r="J222" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="K222" s="28"/>
-      <c r="L222" s="29"/>
-      <c r="M222" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="N222" s="28"/>
-      <c r="O222" s="28"/>
-      <c r="P222" s="28"/>
-      <c r="Q222" s="29"/>
-      <c r="R222" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="S222" s="28"/>
-      <c r="T222" s="28"/>
-      <c r="U222" s="28"/>
-      <c r="V222" s="28"/>
-      <c r="W222" s="28"/>
-      <c r="X222" s="28"/>
-      <c r="Y222" s="28"/>
-      <c r="Z222" s="28"/>
-      <c r="AA222" s="28"/>
-      <c r="AB222" s="28"/>
-      <c r="AC222" s="28"/>
-      <c r="AD222" s="28"/>
-      <c r="AE222" s="28"/>
-      <c r="AF222" s="28"/>
-      <c r="AG222" s="28"/>
-      <c r="AH222" s="28"/>
-      <c r="AI222" s="29"/>
-    </row>
-    <row r="223" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E223" s="30"/>
-      <c r="F223" s="31"/>
-      <c r="G223" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H223" s="43"/>
-      <c r="I223" s="44"/>
-      <c r="J223" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="K223" s="43"/>
-      <c r="L223" s="44"/>
-      <c r="M223" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="N223" s="43"/>
-      <c r="O223" s="43"/>
-      <c r="P223" s="43"/>
-      <c r="Q223" s="44"/>
-      <c r="R223" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="S223" s="43"/>
-      <c r="T223" s="43"/>
-      <c r="U223" s="43"/>
-      <c r="V223" s="43"/>
-      <c r="W223" s="43"/>
-      <c r="X223" s="43"/>
-      <c r="Y223" s="43"/>
-      <c r="Z223" s="43"/>
-      <c r="AA223" s="43"/>
-      <c r="AB223" s="43"/>
-      <c r="AC223" s="43"/>
-      <c r="AD223" s="43"/>
-      <c r="AE223" s="43"/>
-      <c r="AF223" s="43"/>
-      <c r="AG223" s="43"/>
-      <c r="AH223" s="43"/>
-      <c r="AI223" s="44"/>
-    </row>
-    <row r="224" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E224" s="30"/>
-      <c r="F224" s="31"/>
-    </row>
-    <row r="225" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E225" s="30"/>
-      <c r="F225" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G225" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="226" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E226" s="30"/>
-      <c r="F226" s="46"/>
-      <c r="G226" s="30" t="str">
-        <f>F225&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H226" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E227" s="30"/>
-      <c r="F227" s="30"/>
-      <c r="G227" s="46"/>
-      <c r="H227" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="I227" s="43"/>
-      <c r="J227" s="43"/>
-      <c r="K227" s="43"/>
-      <c r="L227" s="43"/>
-      <c r="M227" s="43"/>
-      <c r="N227" s="43"/>
-      <c r="O227" s="43"/>
-      <c r="P227" s="43"/>
-      <c r="Q227" s="43"/>
-      <c r="R227" s="43"/>
-      <c r="S227" s="43"/>
-      <c r="T227" s="43"/>
-      <c r="U227" s="43"/>
-      <c r="V227" s="43"/>
-      <c r="W227" s="43"/>
-      <c r="X227" s="43"/>
-      <c r="Y227" s="43"/>
-      <c r="Z227" s="43"/>
-      <c r="AA227" s="43"/>
-      <c r="AB227" s="43"/>
-      <c r="AC227" s="43"/>
-      <c r="AD227" s="43"/>
-      <c r="AE227" s="43"/>
-      <c r="AF227" s="43"/>
-      <c r="AG227" s="43"/>
-      <c r="AH227" s="43"/>
-      <c r="AI227" s="44"/>
-    </row>
-    <row r="228" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E228" s="30"/>
-      <c r="F228" s="30"/>
-      <c r="G228" s="46"/>
-      <c r="H228" s="45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="229" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E229" s="30"/>
-      <c r="F229" s="30"/>
-      <c r="G229" s="46"/>
-    </row>
-    <row r="230" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E230" s="30"/>
-      <c r="F230" s="46"/>
-      <c r="G230" s="30" t="str">
-        <f>F225&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H230" s="45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="231" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E231" s="30"/>
-      <c r="F231" s="46"/>
-      <c r="G231" s="30"/>
-      <c r="H231" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I231" s="28"/>
-      <c r="J231" s="28"/>
-      <c r="K231" s="28"/>
-      <c r="L231" s="28"/>
-      <c r="M231" s="29"/>
-      <c r="N231" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="O231" s="28"/>
-      <c r="P231" s="28"/>
-      <c r="Q231" s="29"/>
-      <c r="R231" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="S231" s="28"/>
-      <c r="T231" s="28"/>
-      <c r="U231" s="28"/>
-      <c r="V231" s="28"/>
-      <c r="W231" s="28"/>
-      <c r="X231" s="28"/>
-      <c r="Y231" s="28"/>
-      <c r="Z231" s="28"/>
-      <c r="AA231" s="28"/>
-      <c r="AB231" s="28"/>
-      <c r="AC231" s="28"/>
-      <c r="AD231" s="28"/>
-      <c r="AE231" s="28"/>
-      <c r="AF231" s="28"/>
-      <c r="AG231" s="28"/>
-      <c r="AH231" s="28"/>
-      <c r="AI231" s="29"/>
-    </row>
-    <row r="232" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E232" s="30"/>
-      <c r="F232" s="46"/>
-      <c r="G232" s="30"/>
-      <c r="H232" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I232" s="19"/>
-      <c r="J232" s="19"/>
-      <c r="K232" s="19"/>
-      <c r="L232" s="19"/>
-      <c r="M232" s="20"/>
-      <c r="N232" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="O232" s="19"/>
-      <c r="P232" s="19"/>
-      <c r="Q232" s="20"/>
-      <c r="R232" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="S232" s="19"/>
-      <c r="T232" s="19"/>
-      <c r="U232" s="19"/>
-      <c r="V232" s="19"/>
-      <c r="W232" s="19"/>
-      <c r="X232" s="19"/>
-      <c r="Y232" s="19"/>
-      <c r="Z232" s="19"/>
-      <c r="AA232" s="19"/>
-      <c r="AB232" s="19"/>
-      <c r="AC232" s="19"/>
-      <c r="AD232" s="19"/>
-      <c r="AE232" s="19"/>
-      <c r="AF232" s="19"/>
-      <c r="AG232" s="19"/>
-      <c r="AH232" s="19"/>
-      <c r="AI232" s="20"/>
-    </row>
-    <row r="233" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E233" s="30"/>
-      <c r="F233" s="46"/>
-      <c r="G233" s="30"/>
-      <c r="H233" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I233" s="43"/>
-      <c r="J233" s="43"/>
-      <c r="K233" s="43"/>
-      <c r="L233" s="43"/>
-      <c r="M233" s="44"/>
-      <c r="N233" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O233" s="43"/>
-      <c r="P233" s="43"/>
-      <c r="Q233" s="44"/>
-      <c r="R233" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="S233" s="43"/>
-      <c r="T233" s="43"/>
-      <c r="U233" s="43"/>
-      <c r="V233" s="43"/>
-      <c r="W233" s="43"/>
-      <c r="X233" s="43"/>
-      <c r="Y233" s="43"/>
-      <c r="Z233" s="43"/>
-      <c r="AA233" s="43"/>
-      <c r="AB233" s="43"/>
-      <c r="AC233" s="43"/>
-      <c r="AD233" s="43"/>
-      <c r="AE233" s="43"/>
-      <c r="AF233" s="43"/>
-      <c r="AG233" s="43"/>
-      <c r="AH233" s="43"/>
-      <c r="AI233" s="44"/>
-    </row>
-    <row r="234" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E234" s="30"/>
-      <c r="F234" s="46"/>
-      <c r="G234" s="30"/>
-      <c r="H234" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I234" s="19"/>
-      <c r="J234" s="19"/>
-      <c r="K234" s="19"/>
-      <c r="L234" s="19"/>
-      <c r="M234" s="20"/>
-      <c r="N234" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O234" s="19"/>
-      <c r="P234" s="19"/>
-      <c r="Q234" s="20"/>
-      <c r="R234" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="S234" s="19"/>
-      <c r="T234" s="19"/>
-      <c r="U234" s="19"/>
-      <c r="V234" s="19"/>
-      <c r="W234" s="19"/>
-      <c r="X234" s="19"/>
-      <c r="Y234" s="19"/>
-      <c r="Z234" s="19"/>
-      <c r="AA234" s="19"/>
-      <c r="AB234" s="19"/>
-      <c r="AC234" s="19"/>
-      <c r="AD234" s="19"/>
-      <c r="AE234" s="19"/>
-      <c r="AF234" s="19"/>
-      <c r="AG234" s="19"/>
-      <c r="AH234" s="19"/>
-      <c r="AI234" s="20"/>
-    </row>
-    <row r="235" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E235" s="30"/>
-      <c r="F235" s="46"/>
-      <c r="G235" s="30"/>
-      <c r="H235" s="18"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="19"/>
-      <c r="K235" s="19"/>
-      <c r="L235" s="19"/>
-      <c r="M235" s="20"/>
-      <c r="N235" s="18"/>
-      <c r="O235" s="19"/>
-      <c r="P235" s="19"/>
-      <c r="Q235" s="20"/>
-      <c r="R235" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="S235" s="19"/>
-      <c r="T235" s="19"/>
-      <c r="U235" s="19"/>
-      <c r="V235" s="19"/>
-      <c r="W235" s="19"/>
-      <c r="X235" s="19"/>
-      <c r="Y235" s="19"/>
-      <c r="Z235" s="19"/>
-      <c r="AA235" s="19"/>
-      <c r="AB235" s="19"/>
-      <c r="AC235" s="19"/>
-      <c r="AD235" s="19"/>
-      <c r="AE235" s="19"/>
-      <c r="AF235" s="19"/>
-      <c r="AG235" s="19"/>
-      <c r="AH235" s="19"/>
-      <c r="AI235" s="20"/>
-    </row>
-    <row r="236" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E236" s="30"/>
-      <c r="F236" s="46"/>
-      <c r="G236" s="30"/>
-      <c r="H236" s="40"/>
-      <c r="I236" s="41"/>
-      <c r="J236" s="41"/>
-      <c r="K236" s="41"/>
-      <c r="L236" s="41"/>
-      <c r="M236" s="42"/>
-      <c r="N236" s="40"/>
-      <c r="O236" s="41"/>
-      <c r="P236" s="41"/>
-      <c r="Q236" s="42"/>
-      <c r="R236" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="S236" s="41"/>
-      <c r="T236" s="41"/>
-      <c r="U236" s="41"/>
-      <c r="V236" s="41"/>
-      <c r="W236" s="41"/>
-      <c r="X236" s="41"/>
-      <c r="Y236" s="41"/>
-      <c r="Z236" s="41"/>
-      <c r="AA236" s="41"/>
-      <c r="AB236" s="41"/>
-      <c r="AC236" s="41"/>
-      <c r="AD236" s="41"/>
-      <c r="AE236" s="41"/>
-      <c r="AF236" s="41"/>
-      <c r="AG236" s="41"/>
-      <c r="AH236" s="41"/>
-      <c r="AI236" s="42"/>
-    </row>
-    <row r="237" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E237" s="30"/>
-      <c r="H237" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="I237" s="24"/>
-      <c r="J237" s="24"/>
-      <c r="K237" s="24"/>
-      <c r="L237" s="24"/>
-      <c r="M237" s="25"/>
-      <c r="N237" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="O237" s="24"/>
-      <c r="P237" s="24"/>
-      <c r="Q237" s="24"/>
-      <c r="R237" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="S237" s="24"/>
-      <c r="T237" s="24"/>
-      <c r="U237" s="24"/>
-      <c r="V237" s="24"/>
-      <c r="W237" s="24"/>
-      <c r="X237" s="24"/>
-      <c r="Y237" s="24"/>
-      <c r="Z237" s="24"/>
-      <c r="AA237" s="24"/>
-      <c r="AB237" s="24"/>
-      <c r="AC237" s="24"/>
-      <c r="AD237" s="24"/>
-      <c r="AE237" s="24"/>
-      <c r="AF237" s="24"/>
-      <c r="AG237" s="24"/>
-      <c r="AH237" s="24"/>
-      <c r="AI237" s="25"/>
-    </row>
-    <row r="238" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E238" s="30"/>
-      <c r="H238" s="40"/>
-      <c r="I238" s="41"/>
-      <c r="J238" s="41"/>
-      <c r="K238" s="41"/>
-      <c r="L238" s="41"/>
-      <c r="M238" s="42"/>
-      <c r="N238" s="40"/>
-      <c r="O238" s="41"/>
-      <c r="P238" s="41"/>
-      <c r="Q238" s="41"/>
-      <c r="R238" s="40" t="str">
-        <f>"フォーマットは"&amp;$D$106&amp;$E$106&amp;"参照。"</f>
-        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
-      </c>
-      <c r="S238" s="41"/>
-      <c r="T238" s="41"/>
-      <c r="U238" s="41"/>
-      <c r="V238" s="41"/>
-      <c r="W238" s="41"/>
-      <c r="X238" s="41"/>
-      <c r="Y238" s="41"/>
-      <c r="Z238" s="41"/>
-      <c r="AA238" s="41"/>
-      <c r="AB238" s="41"/>
-      <c r="AC238" s="41"/>
-      <c r="AD238" s="41"/>
-      <c r="AE238" s="41"/>
-      <c r="AF238" s="41"/>
-      <c r="AG238" s="41"/>
-      <c r="AH238" s="41"/>
-      <c r="AI238" s="42"/>
-    </row>
-    <row r="239" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="45"/>
-      <c r="B239" s="45"/>
-      <c r="E239" s="30"/>
-      <c r="F239" s="31"/>
-      <c r="AF239" s="45"/>
-      <c r="AG239" s="45"/>
-    </row>
-    <row r="240" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E240" s="30"/>
-      <c r="F240" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="G240" s="45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E241" s="30"/>
-      <c r="F241" s="46"/>
-      <c r="G241" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="H241" s="24"/>
-      <c r="I241" s="24"/>
-      <c r="J241" s="24"/>
-      <c r="K241" s="24"/>
-      <c r="L241" s="24"/>
-      <c r="M241" s="24"/>
-      <c r="N241" s="24"/>
-      <c r="O241" s="24"/>
-      <c r="P241" s="24"/>
-      <c r="Q241" s="24"/>
-      <c r="R241" s="24"/>
-      <c r="S241" s="24"/>
-      <c r="T241" s="24"/>
-      <c r="U241" s="24"/>
-      <c r="V241" s="24"/>
-      <c r="W241" s="24"/>
-      <c r="X241" s="24"/>
-      <c r="Y241" s="24"/>
-      <c r="Z241" s="24"/>
-      <c r="AA241" s="24"/>
-      <c r="AB241" s="24"/>
-      <c r="AC241" s="24"/>
-      <c r="AD241" s="24"/>
-      <c r="AE241" s="24"/>
-      <c r="AF241" s="24"/>
-      <c r="AG241" s="24"/>
-      <c r="AH241" s="24"/>
-      <c r="AI241" s="25"/>
-    </row>
-    <row r="242" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E242" s="30"/>
-      <c r="F242" s="46"/>
-      <c r="G242" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="H242" s="50"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="19"/>
-      <c r="K242" s="19"/>
-      <c r="L242" s="19"/>
-      <c r="M242" s="19"/>
-      <c r="N242" s="19"/>
-      <c r="O242" s="19"/>
-      <c r="P242" s="19"/>
-      <c r="Q242" s="19"/>
-      <c r="R242" s="19"/>
-      <c r="S242" s="19"/>
-      <c r="T242" s="19"/>
-      <c r="U242" s="19"/>
-      <c r="V242" s="19"/>
-      <c r="W242" s="19"/>
-      <c r="X242" s="19"/>
-      <c r="Y242" s="19"/>
-      <c r="Z242" s="19"/>
-      <c r="AA242" s="19"/>
-      <c r="AB242" s="19"/>
-      <c r="AC242" s="19"/>
-      <c r="AD242" s="19"/>
-      <c r="AE242" s="19"/>
-      <c r="AF242" s="19"/>
-      <c r="AG242" s="19"/>
-      <c r="AH242" s="19"/>
-      <c r="AI242" s="20"/>
-    </row>
-    <row r="243" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E243" s="30"/>
-      <c r="F243" s="46"/>
-      <c r="G243" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="H243" s="50"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="19"/>
-      <c r="K243" s="19"/>
-      <c r="L243" s="19"/>
-      <c r="M243" s="19"/>
-      <c r="N243" s="19"/>
-      <c r="O243" s="19"/>
-      <c r="P243" s="19"/>
-      <c r="Q243" s="19"/>
-      <c r="R243" s="19"/>
-      <c r="S243" s="19"/>
-      <c r="T243" s="19"/>
-      <c r="U243" s="19"/>
-      <c r="V243" s="19"/>
-      <c r="W243" s="19"/>
-      <c r="X243" s="19"/>
-      <c r="Y243" s="19"/>
-      <c r="Z243" s="19"/>
-      <c r="AA243" s="19"/>
-      <c r="AB243" s="19"/>
-      <c r="AC243" s="19"/>
-      <c r="AD243" s="19"/>
-      <c r="AE243" s="19"/>
-      <c r="AF243" s="19"/>
-      <c r="AG243" s="19"/>
-      <c r="AH243" s="19"/>
-      <c r="AI243" s="20"/>
-    </row>
-    <row r="244" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E244" s="30"/>
-      <c r="F244" s="46"/>
-      <c r="G244" s="48"/>
-      <c r="H244" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="I244" s="19"/>
-      <c r="J244" s="19"/>
-      <c r="K244" s="19"/>
-      <c r="L244" s="19"/>
-      <c r="M244" s="19"/>
-      <c r="N244" s="19"/>
-      <c r="O244" s="19"/>
-      <c r="P244" s="19"/>
-      <c r="Q244" s="19"/>
-      <c r="R244" s="19"/>
-      <c r="S244" s="19"/>
-      <c r="T244" s="19"/>
-      <c r="U244" s="19"/>
-      <c r="V244" s="19"/>
-      <c r="W244" s="19"/>
-      <c r="X244" s="19"/>
-      <c r="Y244" s="19"/>
-      <c r="Z244" s="19"/>
-      <c r="AA244" s="19"/>
-      <c r="AB244" s="19"/>
-      <c r="AC244" s="19"/>
-      <c r="AD244" s="19"/>
-      <c r="AE244" s="19"/>
-      <c r="AF244" s="19"/>
-      <c r="AG244" s="19"/>
-      <c r="AH244" s="19"/>
-      <c r="AI244" s="20"/>
-    </row>
-    <row r="245" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E245" s="30"/>
-      <c r="F245" s="46"/>
-      <c r="G245" s="48"/>
-      <c r="H245" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="I245" s="19"/>
-      <c r="J245" s="19"/>
-      <c r="K245" s="19"/>
-      <c r="L245" s="19"/>
-      <c r="M245" s="19"/>
-      <c r="N245" s="19"/>
-      <c r="O245" s="19"/>
-      <c r="P245" s="19"/>
-      <c r="Q245" s="19"/>
-      <c r="R245" s="19"/>
-      <c r="S245" s="19"/>
-      <c r="T245" s="19"/>
-      <c r="U245" s="19"/>
-      <c r="V245" s="19"/>
-      <c r="W245" s="19"/>
-      <c r="X245" s="19"/>
-      <c r="Y245" s="19"/>
-      <c r="Z245" s="19"/>
-      <c r="AA245" s="19"/>
-      <c r="AB245" s="19"/>
-      <c r="AC245" s="19"/>
-      <c r="AD245" s="19"/>
-      <c r="AE245" s="19"/>
-      <c r="AF245" s="19"/>
-      <c r="AG245" s="19"/>
-      <c r="AH245" s="19"/>
-      <c r="AI245" s="20"/>
-    </row>
-    <row r="246" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E246" s="30"/>
-      <c r="F246" s="46"/>
-      <c r="G246" s="48"/>
-      <c r="H246" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I246" s="19"/>
-      <c r="J246" s="19"/>
-      <c r="K246" s="19"/>
-      <c r="L246" s="19"/>
-      <c r="M246" s="19"/>
-      <c r="N246" s="19"/>
-      <c r="O246" s="19"/>
-      <c r="P246" s="19"/>
-      <c r="Q246" s="19"/>
-      <c r="R246" s="19"/>
-      <c r="S246" s="19"/>
-      <c r="T246" s="19"/>
-      <c r="U246" s="19"/>
-      <c r="V246" s="19"/>
-      <c r="W246" s="19"/>
-      <c r="X246" s="19"/>
-      <c r="Y246" s="19"/>
-      <c r="Z246" s="19"/>
-      <c r="AA246" s="19"/>
-      <c r="AB246" s="19"/>
-      <c r="AC246" s="19"/>
-      <c r="AD246" s="19"/>
-      <c r="AE246" s="19"/>
-      <c r="AF246" s="19"/>
-      <c r="AG246" s="19"/>
-      <c r="AH246" s="19"/>
-      <c r="AI246" s="20"/>
-    </row>
-    <row r="247" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E247" s="30"/>
-      <c r="F247" s="46"/>
-      <c r="G247" s="48"/>
-      <c r="H247" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I247" s="19"/>
-      <c r="J247" s="19"/>
-      <c r="K247" s="19"/>
-      <c r="L247" s="19"/>
-      <c r="M247" s="19"/>
-      <c r="N247" s="19"/>
-      <c r="O247" s="19"/>
-      <c r="P247" s="19"/>
-      <c r="Q247" s="19"/>
-      <c r="R247" s="19"/>
-      <c r="S247" s="19"/>
-      <c r="T247" s="19"/>
-      <c r="U247" s="19"/>
-      <c r="V247" s="19"/>
-      <c r="W247" s="19"/>
-      <c r="X247" s="19"/>
-      <c r="Y247" s="19"/>
-      <c r="Z247" s="19"/>
-      <c r="AA247" s="19"/>
-      <c r="AB247" s="19"/>
-      <c r="AC247" s="19"/>
-      <c r="AD247" s="19"/>
-      <c r="AE247" s="19"/>
-      <c r="AF247" s="19"/>
-      <c r="AG247" s="19"/>
-      <c r="AH247" s="19"/>
-      <c r="AI247" s="20"/>
-    </row>
-    <row r="248" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E248" s="30"/>
-      <c r="F248" s="46"/>
-      <c r="G248" s="48"/>
-      <c r="H248" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I248" s="19"/>
-      <c r="J248" s="19"/>
-      <c r="K248" s="19"/>
-      <c r="L248" s="19"/>
-      <c r="M248" s="19"/>
-      <c r="N248" s="19"/>
-      <c r="O248" s="19"/>
-      <c r="P248" s="19"/>
-      <c r="Q248" s="19"/>
-      <c r="R248" s="19"/>
-      <c r="S248" s="19"/>
-      <c r="T248" s="19"/>
-      <c r="U248" s="19"/>
-      <c r="V248" s="19"/>
-      <c r="W248" s="19"/>
-      <c r="X248" s="19"/>
-      <c r="Y248" s="19"/>
-      <c r="Z248" s="19"/>
-      <c r="AA248" s="19"/>
-      <c r="AB248" s="19"/>
-      <c r="AC248" s="19"/>
-      <c r="AD248" s="19"/>
-      <c r="AE248" s="19"/>
-      <c r="AF248" s="19"/>
-      <c r="AG248" s="19"/>
-      <c r="AH248" s="19"/>
-      <c r="AI248" s="20"/>
-    </row>
-    <row r="249" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E249" s="30"/>
-      <c r="F249" s="46"/>
-      <c r="G249" s="48"/>
-      <c r="H249" s="50"/>
-      <c r="I249" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J249" s="19"/>
-      <c r="K249" s="19"/>
-      <c r="L249" s="19"/>
-      <c r="M249" s="19"/>
-      <c r="N249" s="19"/>
-      <c r="O249" s="19"/>
-      <c r="P249" s="19"/>
-      <c r="Q249" s="19"/>
-      <c r="R249" s="19"/>
-      <c r="S249" s="19"/>
-      <c r="T249" s="19"/>
-      <c r="U249" s="19"/>
-      <c r="V249" s="19"/>
-      <c r="W249" s="19"/>
-      <c r="X249" s="19"/>
-      <c r="Y249" s="19"/>
-      <c r="Z249" s="19"/>
-      <c r="AA249" s="19"/>
-      <c r="AB249" s="19"/>
-      <c r="AC249" s="19"/>
-      <c r="AD249" s="19"/>
-      <c r="AE249" s="19"/>
-      <c r="AF249" s="19"/>
-      <c r="AG249" s="19"/>
-      <c r="AH249" s="19"/>
-      <c r="AI249" s="20"/>
-    </row>
-    <row r="250" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E250" s="30"/>
-      <c r="F250" s="46"/>
-      <c r="G250" s="48"/>
-      <c r="H250" s="50"/>
-      <c r="I250" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="J250" s="19"/>
-      <c r="K250" s="19"/>
-      <c r="L250" s="19"/>
-      <c r="M250" s="19"/>
-      <c r="N250" s="19"/>
-      <c r="O250" s="19"/>
-      <c r="P250" s="19"/>
-      <c r="Q250" s="19"/>
-      <c r="R250" s="19"/>
-      <c r="S250" s="19"/>
-      <c r="T250" s="19"/>
-      <c r="U250" s="19"/>
-      <c r="V250" s="19"/>
-      <c r="W250" s="19"/>
-      <c r="X250" s="19"/>
-      <c r="Y250" s="19"/>
-      <c r="Z250" s="19"/>
-      <c r="AA250" s="19"/>
-      <c r="AB250" s="19"/>
-      <c r="AC250" s="19"/>
-      <c r="AD250" s="19"/>
-      <c r="AE250" s="19"/>
-      <c r="AF250" s="19"/>
-      <c r="AG250" s="19"/>
-      <c r="AH250" s="19"/>
-      <c r="AI250" s="20"/>
-    </row>
-    <row r="251" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E251" s="30"/>
-      <c r="F251" s="46"/>
-      <c r="G251" s="48"/>
-      <c r="H251" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="I251" s="19"/>
-      <c r="J251" s="19"/>
-      <c r="K251" s="19"/>
-      <c r="L251" s="19"/>
-      <c r="M251" s="19"/>
-      <c r="N251" s="19"/>
-      <c r="O251" s="19"/>
-      <c r="P251" s="19"/>
-      <c r="Q251" s="19"/>
-      <c r="R251" s="19"/>
-      <c r="S251" s="19"/>
-      <c r="T251" s="19"/>
-      <c r="U251" s="19"/>
-      <c r="V251" s="19"/>
-      <c r="W251" s="19"/>
-      <c r="X251" s="19"/>
-      <c r="Y251" s="19"/>
-      <c r="Z251" s="19"/>
-      <c r="AA251" s="19"/>
-      <c r="AB251" s="19"/>
-      <c r="AC251" s="19"/>
-      <c r="AD251" s="19"/>
-      <c r="AE251" s="19"/>
-      <c r="AF251" s="19"/>
-      <c r="AG251" s="19"/>
-      <c r="AH251" s="19"/>
-      <c r="AI251" s="20"/>
-    </row>
-    <row r="252" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E252" s="30"/>
-      <c r="F252" s="46"/>
-      <c r="G252" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="H252" s="50"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="19"/>
-      <c r="K252" s="19"/>
-      <c r="L252" s="19"/>
-      <c r="M252" s="19"/>
-      <c r="N252" s="19"/>
-      <c r="O252" s="19"/>
-      <c r="P252" s="19"/>
-      <c r="Q252" s="19"/>
-      <c r="R252" s="19"/>
-      <c r="S252" s="19"/>
-      <c r="T252" s="19"/>
-      <c r="U252" s="19"/>
-      <c r="V252" s="19"/>
-      <c r="W252" s="19"/>
-      <c r="X252" s="19"/>
-      <c r="Y252" s="19"/>
-      <c r="Z252" s="19"/>
-      <c r="AA252" s="19"/>
-      <c r="AB252" s="19"/>
-      <c r="AC252" s="19"/>
-      <c r="AD252" s="19"/>
-      <c r="AE252" s="19"/>
-      <c r="AF252" s="19"/>
-      <c r="AG252" s="19"/>
-      <c r="AH252" s="19"/>
-      <c r="AI252" s="20"/>
-    </row>
-    <row r="253" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E253" s="30"/>
-      <c r="F253" s="46"/>
-      <c r="G253" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="H253" s="50"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="19"/>
-      <c r="K253" s="19"/>
-      <c r="L253" s="19"/>
-      <c r="M253" s="19"/>
-      <c r="N253" s="19"/>
-      <c r="O253" s="19"/>
-      <c r="P253" s="19"/>
-      <c r="Q253" s="19"/>
-      <c r="R253" s="19"/>
-      <c r="S253" s="19"/>
-      <c r="T253" s="19"/>
-      <c r="U253" s="19"/>
-      <c r="V253" s="19"/>
-      <c r="W253" s="19"/>
-      <c r="X253" s="19"/>
-      <c r="Y253" s="19"/>
-      <c r="Z253" s="19"/>
-      <c r="AA253" s="19"/>
-      <c r="AB253" s="19"/>
-      <c r="AC253" s="19"/>
-      <c r="AD253" s="19"/>
-      <c r="AE253" s="19"/>
-      <c r="AF253" s="19"/>
-      <c r="AG253" s="19"/>
-      <c r="AH253" s="19"/>
-      <c r="AI253" s="20"/>
-    </row>
-    <row r="254" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E254" s="30"/>
-      <c r="F254" s="46"/>
-      <c r="G254" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="H254" s="50"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="19"/>
-      <c r="K254" s="19"/>
-      <c r="L254" s="19"/>
-      <c r="M254" s="19"/>
-      <c r="N254" s="19"/>
-      <c r="O254" s="19"/>
-      <c r="P254" s="19"/>
-      <c r="Q254" s="19"/>
-      <c r="R254" s="19"/>
-      <c r="S254" s="19"/>
-      <c r="T254" s="19"/>
-      <c r="U254" s="19"/>
-      <c r="V254" s="19"/>
-      <c r="W254" s="19"/>
-      <c r="X254" s="19"/>
-      <c r="Y254" s="19"/>
-      <c r="Z254" s="19"/>
-      <c r="AA254" s="19"/>
-      <c r="AB254" s="19"/>
-      <c r="AC254" s="19"/>
-      <c r="AD254" s="19"/>
-      <c r="AE254" s="19"/>
-      <c r="AF254" s="19"/>
-      <c r="AG254" s="19"/>
-      <c r="AH254" s="19"/>
-      <c r="AI254" s="20"/>
-    </row>
-    <row r="255" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E255" s="30"/>
-      <c r="F255" s="46"/>
-      <c r="G255" s="48"/>
-      <c r="H255" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I255" s="19"/>
-      <c r="J255" s="19"/>
-      <c r="K255" s="19"/>
-      <c r="L255" s="19"/>
-      <c r="M255" s="19"/>
-      <c r="N255" s="19"/>
-      <c r="O255" s="19"/>
-      <c r="P255" s="19"/>
-      <c r="Q255" s="19"/>
-      <c r="R255" s="19"/>
-      <c r="S255" s="19"/>
-      <c r="T255" s="19"/>
-      <c r="U255" s="19"/>
-      <c r="V255" s="19"/>
-      <c r="W255" s="19"/>
-      <c r="X255" s="19"/>
-      <c r="Y255" s="19"/>
-      <c r="Z255" s="19"/>
-      <c r="AA255" s="19"/>
-      <c r="AB255" s="19"/>
-      <c r="AC255" s="19"/>
-      <c r="AD255" s="19"/>
-      <c r="AE255" s="19"/>
-      <c r="AF255" s="19"/>
-      <c r="AG255" s="19"/>
-      <c r="AH255" s="19"/>
-      <c r="AI255" s="20"/>
-    </row>
-    <row r="256" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E256" s="30"/>
-      <c r="F256" s="46"/>
-      <c r="G256" s="48"/>
-      <c r="H256" s="50"/>
-      <c r="I256" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J256" s="19"/>
-      <c r="K256" s="19"/>
-      <c r="L256" s="19"/>
-      <c r="M256" s="19"/>
-      <c r="N256" s="19"/>
-      <c r="O256" s="19"/>
-      <c r="P256" s="19"/>
-      <c r="Q256" s="19"/>
-      <c r="R256" s="19"/>
-      <c r="S256" s="19"/>
-      <c r="T256" s="19"/>
-      <c r="U256" s="19"/>
-      <c r="V256" s="19"/>
-      <c r="W256" s="19"/>
-      <c r="X256" s="19"/>
-      <c r="Y256" s="19"/>
-      <c r="Z256" s="19"/>
-      <c r="AA256" s="19"/>
-      <c r="AB256" s="19"/>
-      <c r="AC256" s="19"/>
-      <c r="AD256" s="19"/>
-      <c r="AE256" s="19"/>
-      <c r="AF256" s="19"/>
-      <c r="AG256" s="19"/>
-      <c r="AH256" s="19"/>
-      <c r="AI256" s="20"/>
-    </row>
-    <row r="257" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E257" s="30"/>
-      <c r="F257" s="46"/>
-      <c r="G257" s="48"/>
-      <c r="H257" s="50"/>
-      <c r="I257" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="J257" s="19"/>
-      <c r="K257" s="19"/>
-      <c r="L257" s="19"/>
-      <c r="M257" s="19"/>
-      <c r="N257" s="19"/>
-      <c r="O257" s="19"/>
-      <c r="P257" s="19"/>
-      <c r="Q257" s="19"/>
-      <c r="R257" s="19"/>
-      <c r="S257" s="19"/>
-      <c r="T257" s="19"/>
-      <c r="U257" s="19"/>
-      <c r="V257" s="19"/>
-      <c r="W257" s="19"/>
-      <c r="X257" s="19"/>
-      <c r="Y257" s="19"/>
-      <c r="Z257" s="19"/>
-      <c r="AA257" s="19"/>
-      <c r="AB257" s="19"/>
-      <c r="AC257" s="19"/>
-      <c r="AD257" s="19"/>
-      <c r="AE257" s="19"/>
-      <c r="AF257" s="19"/>
-      <c r="AG257" s="19"/>
-      <c r="AH257" s="19"/>
-      <c r="AI257" s="20"/>
-    </row>
-    <row r="258" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E258" s="30"/>
-      <c r="F258" s="46"/>
-      <c r="G258" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="H258" s="50"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="19"/>
-      <c r="K258" s="19"/>
-      <c r="L258" s="19"/>
-      <c r="M258" s="19"/>
-      <c r="N258" s="19"/>
-      <c r="O258" s="19"/>
-      <c r="P258" s="19"/>
-      <c r="Q258" s="19"/>
-      <c r="R258" s="19"/>
-      <c r="S258" s="19"/>
-      <c r="T258" s="19"/>
-      <c r="U258" s="19"/>
-      <c r="V258" s="19"/>
-      <c r="W258" s="19"/>
-      <c r="X258" s="19"/>
-      <c r="Y258" s="19"/>
-      <c r="Z258" s="19"/>
-      <c r="AA258" s="19"/>
-      <c r="AB258" s="19"/>
-      <c r="AC258" s="19"/>
-      <c r="AD258" s="19"/>
-      <c r="AE258" s="19"/>
-      <c r="AF258" s="19"/>
-      <c r="AG258" s="19"/>
-      <c r="AH258" s="19"/>
-      <c r="AI258" s="20"/>
-    </row>
-    <row r="259" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E259" s="30"/>
-      <c r="F259" s="46"/>
-      <c r="G259" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="H259" s="50"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="19"/>
-      <c r="K259" s="19"/>
-      <c r="L259" s="19"/>
-      <c r="M259" s="19"/>
-      <c r="N259" s="19"/>
-      <c r="O259" s="19"/>
-      <c r="P259" s="19"/>
-      <c r="Q259" s="19"/>
-      <c r="R259" s="19"/>
-      <c r="S259" s="19"/>
-      <c r="T259" s="19"/>
-      <c r="U259" s="19"/>
-      <c r="V259" s="19"/>
-      <c r="W259" s="19"/>
-      <c r="X259" s="19"/>
-      <c r="Y259" s="19"/>
-      <c r="Z259" s="19"/>
-      <c r="AA259" s="19"/>
-      <c r="AB259" s="19"/>
-      <c r="AC259" s="19"/>
-      <c r="AD259" s="19"/>
-      <c r="AE259" s="19"/>
-      <c r="AF259" s="19"/>
-      <c r="AG259" s="19"/>
-      <c r="AH259" s="19"/>
-      <c r="AI259" s="20"/>
-    </row>
-    <row r="260" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E260" s="30"/>
-      <c r="F260" s="46"/>
-      <c r="G260" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="H260" s="50"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="19"/>
-      <c r="K260" s="19"/>
-      <c r="L260" s="19"/>
-      <c r="M260" s="19"/>
-      <c r="N260" s="19"/>
-      <c r="O260" s="19"/>
-      <c r="P260" s="19"/>
-      <c r="Q260" s="19"/>
-      <c r="R260" s="19"/>
-      <c r="S260" s="19"/>
-      <c r="T260" s="19"/>
-      <c r="U260" s="19"/>
-      <c r="V260" s="19"/>
-      <c r="W260" s="19"/>
-      <c r="X260" s="19"/>
-      <c r="Y260" s="19"/>
-      <c r="Z260" s="19"/>
-      <c r="AA260" s="19"/>
-      <c r="AB260" s="19"/>
-      <c r="AC260" s="19"/>
-      <c r="AD260" s="19"/>
-      <c r="AE260" s="19"/>
-      <c r="AF260" s="19"/>
-      <c r="AG260" s="19"/>
-      <c r="AH260" s="19"/>
-      <c r="AI260" s="20"/>
-    </row>
-    <row r="261" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E261" s="30"/>
-      <c r="F261" s="46"/>
-      <c r="G261" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H261" s="50"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="19"/>
-      <c r="K261" s="19"/>
-      <c r="L261" s="19"/>
-      <c r="M261" s="19"/>
-      <c r="N261" s="19"/>
-      <c r="O261" s="19"/>
-      <c r="P261" s="19"/>
-      <c r="Q261" s="19"/>
-      <c r="R261" s="19"/>
-      <c r="S261" s="19"/>
-      <c r="T261" s="19"/>
-      <c r="U261" s="19"/>
-      <c r="V261" s="19"/>
-      <c r="W261" s="19"/>
-      <c r="X261" s="19"/>
-      <c r="Y261" s="19"/>
-      <c r="Z261" s="19"/>
-      <c r="AA261" s="19"/>
-      <c r="AB261" s="19"/>
-      <c r="AC261" s="19"/>
-      <c r="AD261" s="19"/>
-      <c r="AE261" s="19"/>
-      <c r="AF261" s="19"/>
-      <c r="AG261" s="19"/>
-      <c r="AH261" s="19"/>
-      <c r="AI261" s="20"/>
-    </row>
-    <row r="262" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E262" s="30"/>
-      <c r="F262" s="46"/>
-      <c r="G262" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="H262" s="50"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="19"/>
-      <c r="K262" s="19"/>
-      <c r="L262" s="19"/>
-      <c r="M262" s="19"/>
-      <c r="N262" s="19"/>
-      <c r="O262" s="19"/>
-      <c r="P262" s="19"/>
-      <c r="Q262" s="19"/>
-      <c r="R262" s="19"/>
-      <c r="S262" s="19"/>
-      <c r="T262" s="19"/>
-      <c r="U262" s="19"/>
-      <c r="V262" s="19"/>
-      <c r="W262" s="19"/>
-      <c r="X262" s="19"/>
-      <c r="Y262" s="19"/>
-      <c r="Z262" s="19"/>
-      <c r="AA262" s="19"/>
-      <c r="AB262" s="19"/>
-      <c r="AC262" s="19"/>
-      <c r="AD262" s="19"/>
-      <c r="AE262" s="19"/>
-      <c r="AF262" s="19"/>
-      <c r="AG262" s="19"/>
-      <c r="AH262" s="19"/>
-      <c r="AI262" s="20"/>
-    </row>
-    <row r="263" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E263" s="30"/>
-      <c r="F263" s="46"/>
-      <c r="G263" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="H263" s="50"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="19"/>
-      <c r="K263" s="19"/>
-      <c r="L263" s="19"/>
-      <c r="M263" s="19"/>
-      <c r="N263" s="19"/>
-      <c r="O263" s="19"/>
-      <c r="P263" s="19"/>
-      <c r="Q263" s="19"/>
-      <c r="R263" s="19"/>
-      <c r="S263" s="19"/>
-      <c r="T263" s="19"/>
-      <c r="U263" s="19"/>
-      <c r="V263" s="19"/>
-      <c r="W263" s="19"/>
-      <c r="X263" s="19"/>
-      <c r="Y263" s="19"/>
-      <c r="Z263" s="19"/>
-      <c r="AA263" s="19"/>
-      <c r="AB263" s="19"/>
-      <c r="AC263" s="19"/>
-      <c r="AD263" s="19"/>
-      <c r="AE263" s="19"/>
-      <c r="AF263" s="19"/>
-      <c r="AG263" s="19"/>
-      <c r="AH263" s="19"/>
-      <c r="AI263" s="20"/>
-    </row>
-    <row r="264" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E264" s="30"/>
-      <c r="F264" s="46"/>
-      <c r="G264" s="48"/>
-      <c r="H264" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="I264" s="19"/>
-      <c r="J264" s="19"/>
-      <c r="K264" s="19"/>
-      <c r="L264" s="19"/>
-      <c r="M264" s="19"/>
-      <c r="N264" s="19"/>
-      <c r="O264" s="19"/>
-      <c r="P264" s="19"/>
-      <c r="Q264" s="19"/>
-      <c r="R264" s="19"/>
-      <c r="S264" s="19"/>
-      <c r="T264" s="19"/>
-      <c r="U264" s="19"/>
-      <c r="V264" s="19"/>
-      <c r="W264" s="19"/>
-      <c r="X264" s="19"/>
-      <c r="Y264" s="19"/>
-      <c r="Z264" s="19"/>
-      <c r="AA264" s="19"/>
-      <c r="AB264" s="19"/>
-      <c r="AC264" s="19"/>
-      <c r="AD264" s="19"/>
-      <c r="AE264" s="19"/>
-      <c r="AF264" s="19"/>
-      <c r="AG264" s="19"/>
-      <c r="AH264" s="19"/>
-      <c r="AI264" s="20"/>
-    </row>
-    <row r="265" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E265" s="30"/>
-      <c r="F265" s="46"/>
-      <c r="G265" s="48"/>
-      <c r="H265" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="I265" s="19"/>
-      <c r="J265" s="19"/>
-      <c r="K265" s="19"/>
-      <c r="L265" s="19"/>
-      <c r="M265" s="19"/>
-      <c r="N265" s="19"/>
-      <c r="O265" s="19"/>
-      <c r="P265" s="19"/>
-      <c r="Q265" s="19"/>
-      <c r="R265" s="19"/>
-      <c r="S265" s="19"/>
-      <c r="T265" s="19"/>
-      <c r="U265" s="19"/>
-      <c r="V265" s="19"/>
-      <c r="W265" s="19"/>
-      <c r="X265" s="19"/>
-      <c r="Y265" s="19"/>
-      <c r="Z265" s="19"/>
-      <c r="AA265" s="19"/>
-      <c r="AB265" s="19"/>
-      <c r="AC265" s="19"/>
-      <c r="AD265" s="19"/>
-      <c r="AE265" s="19"/>
-      <c r="AF265" s="19"/>
-      <c r="AG265" s="19"/>
-      <c r="AH265" s="19"/>
-      <c r="AI265" s="20"/>
-    </row>
-    <row r="266" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E266" s="30"/>
-      <c r="F266" s="46"/>
-      <c r="G266" s="48"/>
-      <c r="H266" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="I266" s="19"/>
-      <c r="J266" s="19"/>
-      <c r="K266" s="19"/>
-      <c r="L266" s="19"/>
-      <c r="M266" s="19"/>
-      <c r="N266" s="19"/>
-      <c r="O266" s="19"/>
-      <c r="P266" s="19"/>
-      <c r="Q266" s="19"/>
-      <c r="R266" s="19"/>
-      <c r="S266" s="19"/>
-      <c r="T266" s="19"/>
-      <c r="U266" s="19"/>
-      <c r="V266" s="19"/>
-      <c r="W266" s="19"/>
-      <c r="X266" s="19"/>
-      <c r="Y266" s="19"/>
-      <c r="Z266" s="19"/>
-      <c r="AA266" s="19"/>
-      <c r="AB266" s="19"/>
-      <c r="AC266" s="19"/>
-      <c r="AD266" s="19"/>
-      <c r="AE266" s="19"/>
-      <c r="AF266" s="19"/>
-      <c r="AG266" s="19"/>
-      <c r="AH266" s="19"/>
-      <c r="AI266" s="20"/>
-    </row>
-    <row r="267" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E267" s="30"/>
-      <c r="F267" s="46"/>
-      <c r="G267" s="48"/>
-      <c r="H267" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="I267" s="19"/>
-      <c r="J267" s="19"/>
-      <c r="K267" s="19"/>
-      <c r="L267" s="19"/>
-      <c r="M267" s="19"/>
-      <c r="N267" s="19"/>
-      <c r="O267" s="19"/>
-      <c r="P267" s="19"/>
-      <c r="Q267" s="19"/>
-      <c r="R267" s="19"/>
-      <c r="S267" s="19"/>
-      <c r="T267" s="19"/>
-      <c r="U267" s="19"/>
-      <c r="V267" s="19"/>
-      <c r="W267" s="19"/>
-      <c r="X267" s="19"/>
-      <c r="Y267" s="19"/>
-      <c r="Z267" s="19"/>
-      <c r="AA267" s="19"/>
-      <c r="AB267" s="19"/>
-      <c r="AC267" s="19"/>
-      <c r="AD267" s="19"/>
-      <c r="AE267" s="19"/>
-      <c r="AF267" s="19"/>
-      <c r="AG267" s="19"/>
-      <c r="AH267" s="19"/>
-      <c r="AI267" s="20"/>
-    </row>
-    <row r="268" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E268" s="30"/>
-      <c r="F268" s="46"/>
-      <c r="G268" s="49"/>
-      <c r="H268" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="I268" s="41"/>
-      <c r="J268" s="41"/>
-      <c r="K268" s="41"/>
-      <c r="L268" s="41"/>
-      <c r="M268" s="41"/>
-      <c r="N268" s="41"/>
-      <c r="O268" s="41"/>
-      <c r="P268" s="41"/>
-      <c r="Q268" s="41"/>
-      <c r="R268" s="41"/>
-      <c r="S268" s="41"/>
-      <c r="T268" s="41"/>
-      <c r="U268" s="41"/>
-      <c r="V268" s="41"/>
-      <c r="W268" s="41"/>
-      <c r="X268" s="41"/>
-      <c r="Y268" s="41"/>
-      <c r="Z268" s="41"/>
-      <c r="AA268" s="41"/>
-      <c r="AB268" s="41"/>
-      <c r="AC268" s="41"/>
-      <c r="AD268" s="41"/>
-      <c r="AE268" s="41"/>
-      <c r="AF268" s="41"/>
-      <c r="AG268" s="41"/>
-      <c r="AH268" s="41"/>
-      <c r="AI268" s="42"/>
-    </row>
-    <row r="269" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E269" s="30"/>
-      <c r="F269" s="46"/>
-      <c r="G269" s="50"/>
-      <c r="H269" s="50"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="19"/>
-      <c r="K269" s="19"/>
-      <c r="L269" s="19"/>
-      <c r="M269" s="19"/>
-      <c r="N269" s="19"/>
-      <c r="O269" s="19"/>
-      <c r="P269" s="19"/>
-      <c r="Q269" s="19"/>
-      <c r="R269" s="19"/>
-      <c r="S269" s="19"/>
-      <c r="T269" s="19"/>
-      <c r="U269" s="19"/>
-      <c r="V269" s="19"/>
-      <c r="W269" s="19"/>
-      <c r="X269" s="19"/>
-      <c r="Y269" s="19"/>
-      <c r="Z269" s="19"/>
-      <c r="AA269" s="19"/>
-      <c r="AB269" s="19"/>
-      <c r="AC269" s="19"/>
-      <c r="AD269" s="19"/>
-      <c r="AE269" s="19"/>
-      <c r="AF269" s="19"/>
-      <c r="AG269" s="19"/>
-      <c r="AH269" s="19"/>
-      <c r="AI269" s="19"/>
-    </row>
-    <row r="270" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="45"/>
-      <c r="B270" s="45"/>
-      <c r="D270" s="46" t="str">
+      <c r="G218" s="50"/>
+      <c r="H218" s="50"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="19"/>
+      <c r="K218" s="19"/>
+      <c r="L218" s="19"/>
+      <c r="M218" s="19"/>
+      <c r="N218" s="19"/>
+      <c r="O218" s="19"/>
+      <c r="P218" s="19"/>
+      <c r="Q218" s="19"/>
+      <c r="R218" s="19"/>
+      <c r="S218" s="19"/>
+      <c r="T218" s="19"/>
+      <c r="U218" s="19"/>
+      <c r="V218" s="19"/>
+      <c r="W218" s="19"/>
+      <c r="X218" s="19"/>
+      <c r="Y218" s="19"/>
+      <c r="Z218" s="19"/>
+      <c r="AA218" s="19"/>
+      <c r="AB218" s="19"/>
+      <c r="AC218" s="19"/>
+      <c r="AD218" s="19"/>
+      <c r="AE218" s="19"/>
+      <c r="AF218" s="19"/>
+      <c r="AG218" s="19"/>
+      <c r="AH218" s="19"/>
+      <c r="AI218" s="19"/>
+    </row>
+    <row r="219" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="45"/>
+      <c r="B219" s="45"/>
+      <c r="D219" s="46" t="str">
         <f>$C$7&amp;"5."</f>
         <v>7.13.5.</v>
       </c>
-      <c r="E270" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F270" s="31"/>
-      <c r="AF270" s="45"/>
-      <c r="AG270" s="45"/>
-    </row>
-    <row r="271" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="45"/>
-      <c r="B271" s="45"/>
-      <c r="E271" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="F271" s="31"/>
-      <c r="AF271" s="45"/>
-      <c r="AG271" s="45"/>
-    </row>
-    <row r="272" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="45"/>
-      <c r="B272" s="45"/>
-      <c r="E272" s="30"/>
-      <c r="AF272" s="45"/>
-      <c r="AG272" s="45"/>
-    </row>
-    <row r="273" spans="32:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF273" s="45"/>
-      <c r="AG273" s="45"/>
+      <c r="E219" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F219" s="31"/>
+      <c r="AF219" s="45"/>
+      <c r="AG219" s="45"/>
+    </row>
+    <row r="220" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="45"/>
+      <c r="B220" s="45"/>
+      <c r="E220" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F220" s="31"/>
+      <c r="AF220" s="45"/>
+      <c r="AG220" s="45"/>
+    </row>
+    <row r="221" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="45"/>
+      <c r="B221" s="45"/>
+      <c r="E221" s="30"/>
+      <c r="AF221" s="45"/>
+      <c r="AG221" s="45"/>
+    </row>
+    <row r="222" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF222" s="45"/>
+      <c r="AG222" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J109:AF109"/>
+    <mergeCell ref="J110:AF110"/>
+    <mergeCell ref="J111:AF111"/>
+    <mergeCell ref="J112:AF112"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -9419,29 +7738,23 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="J111:AF111"/>
-    <mergeCell ref="J112:AF112"/>
-    <mergeCell ref="J113:AF113"/>
-    <mergeCell ref="J114:AF114"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="J113" r:id="rId1" location="sql-log-setting" xr:uid="{52996156-CF03-4A13-9B78-35894E8A177D}"/>
-    <hyperlink ref="J111" r:id="rId2" location="failure-log-setting" xr:uid="{4B5540C5-BAC2-46C8-9EA6-27E7EECDE333}"/>
-    <hyperlink ref="J112" r:id="rId3" location="http-access-log-setting" xr:uid="{AFF0734E-51A8-40B8-8554-6558C3D47A2C}"/>
-    <hyperlink ref="J114" r:id="rId4" location="performance-log-setting" xr:uid="{1EE586A6-5FD6-48C4-ACEB-F877AB33F8B3}"/>
+    <hyperlink ref="J111" r:id="rId1" location="sql-log-setting" xr:uid="{52996156-CF03-4A13-9B78-35894E8A177D}"/>
+    <hyperlink ref="J109" r:id="rId2" location="failure-log-setting" xr:uid="{4B5540C5-BAC2-46C8-9EA6-27E7EECDE333}"/>
+    <hyperlink ref="J110" r:id="rId3" location="http-access-log-setting" xr:uid="{AFF0734E-51A8-40B8-8554-6558C3D47A2C}"/>
+    <hyperlink ref="J112" r:id="rId4" location="performance-log-setting" xr:uid="{1EE586A6-5FD6-48C4-ACEB-F877AB33F8B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId5"/>
-  <rowBreaks count="8" manualBreakCount="8">
+  <rowBreaks count="6" manualBreakCount="6">
     <brk id="39" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
-    <brk id="105" max="34" man="1"/>
-    <brk id="140" max="34" man="1"/>
-    <brk id="180" max="34" man="1"/>
-    <brk id="219" max="34" man="1"/>
-    <brk id="239" max="34" man="1"/>
-    <brk id="180" max="34" man="1"/>
+    <brk id="103" max="34" man="1"/>
+    <brk id="138" max="34" man="1"/>
+    <brk id="178" max="34" man="1"/>
+    <brk id="178" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC332771-2DEE-4B64-8231-5308C99A66AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A7FC6D-4671-4772-BB82-DF50BEA32DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$222</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$223</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$97</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$97</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="258">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1335,6 +1335,28 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、プレースホルダに出力される値の説明については、上記解説書を参照。</t>
+    <rPh sb="10" eb="12">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1761,6 +1783,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1826,15 +1857,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2167,7 +2189,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS222"/>
+  <dimension ref="A1:AS223"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2184,43 +2206,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="63"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="69"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="72"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2229,43 +2251,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
       <c r="P2" s="8" t="s">
         <v>144</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="69"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="72"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2274,39 +2296,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="81"/>
       <c r="Y3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="69"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="72"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5013,31 +5035,31 @@
       <c r="G109" s="43"/>
       <c r="H109" s="43"/>
       <c r="I109" s="44"/>
-      <c r="J109" s="80" t="s">
+      <c r="J109" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="K109" s="81"/>
-      <c r="L109" s="81"/>
-      <c r="M109" s="81"/>
-      <c r="N109" s="81"/>
-      <c r="O109" s="81"/>
-      <c r="P109" s="81"/>
-      <c r="Q109" s="81"/>
-      <c r="R109" s="81"/>
-      <c r="S109" s="81"/>
-      <c r="T109" s="81"/>
-      <c r="U109" s="81"/>
-      <c r="V109" s="81"/>
-      <c r="W109" s="81"/>
-      <c r="X109" s="81"/>
-      <c r="Y109" s="81"/>
-      <c r="Z109" s="81"/>
-      <c r="AA109" s="81"/>
-      <c r="AB109" s="81"/>
-      <c r="AC109" s="81"/>
-      <c r="AD109" s="81"/>
-      <c r="AE109" s="81"/>
-      <c r="AF109" s="82"/>
+      <c r="K109" s="59"/>
+      <c r="L109" s="59"/>
+      <c r="M109" s="59"/>
+      <c r="N109" s="59"/>
+      <c r="O109" s="59"/>
+      <c r="P109" s="59"/>
+      <c r="Q109" s="59"/>
+      <c r="R109" s="59"/>
+      <c r="S109" s="59"/>
+      <c r="T109" s="59"/>
+      <c r="U109" s="59"/>
+      <c r="V109" s="59"/>
+      <c r="W109" s="59"/>
+      <c r="X109" s="59"/>
+      <c r="Y109" s="59"/>
+      <c r="Z109" s="59"/>
+      <c r="AA109" s="59"/>
+      <c r="AB109" s="59"/>
+      <c r="AC109" s="59"/>
+      <c r="AD109" s="59"/>
+      <c r="AE109" s="59"/>
+      <c r="AF109" s="60"/>
     </row>
     <row r="110" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="46"/>
@@ -5048,31 +5070,31 @@
       <c r="G110" s="43"/>
       <c r="H110" s="43"/>
       <c r="I110" s="44"/>
-      <c r="J110" s="80" t="s">
+      <c r="J110" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="K110" s="81"/>
-      <c r="L110" s="81"/>
-      <c r="M110" s="81"/>
-      <c r="N110" s="81"/>
-      <c r="O110" s="81"/>
-      <c r="P110" s="81"/>
-      <c r="Q110" s="81"/>
-      <c r="R110" s="81"/>
-      <c r="S110" s="81"/>
-      <c r="T110" s="81"/>
-      <c r="U110" s="81"/>
-      <c r="V110" s="81"/>
-      <c r="W110" s="81"/>
-      <c r="X110" s="81"/>
-      <c r="Y110" s="81"/>
-      <c r="Z110" s="81"/>
-      <c r="AA110" s="81"/>
-      <c r="AB110" s="81"/>
-      <c r="AC110" s="81"/>
-      <c r="AD110" s="81"/>
-      <c r="AE110" s="81"/>
-      <c r="AF110" s="82"/>
+      <c r="K110" s="59"/>
+      <c r="L110" s="59"/>
+      <c r="M110" s="59"/>
+      <c r="N110" s="59"/>
+      <c r="O110" s="59"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
+      <c r="R110" s="59"/>
+      <c r="S110" s="59"/>
+      <c r="T110" s="59"/>
+      <c r="U110" s="59"/>
+      <c r="V110" s="59"/>
+      <c r="W110" s="59"/>
+      <c r="X110" s="59"/>
+      <c r="Y110" s="59"/>
+      <c r="Z110" s="59"/>
+      <c r="AA110" s="59"/>
+      <c r="AB110" s="59"/>
+      <c r="AC110" s="59"/>
+      <c r="AD110" s="59"/>
+      <c r="AE110" s="59"/>
+      <c r="AF110" s="60"/>
     </row>
     <row r="111" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="46"/>
@@ -5083,31 +5105,31 @@
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
       <c r="I111" s="44"/>
-      <c r="J111" s="80" t="s">
+      <c r="J111" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="K111" s="81"/>
-      <c r="L111" s="81"/>
-      <c r="M111" s="81"/>
-      <c r="N111" s="81"/>
-      <c r="O111" s="81"/>
-      <c r="P111" s="81"/>
-      <c r="Q111" s="81"/>
-      <c r="R111" s="81"/>
-      <c r="S111" s="81"/>
-      <c r="T111" s="81"/>
-      <c r="U111" s="81"/>
-      <c r="V111" s="81"/>
-      <c r="W111" s="81"/>
-      <c r="X111" s="81"/>
-      <c r="Y111" s="81"/>
-      <c r="Z111" s="81"/>
-      <c r="AA111" s="81"/>
-      <c r="AB111" s="81"/>
-      <c r="AC111" s="81"/>
-      <c r="AD111" s="81"/>
-      <c r="AE111" s="81"/>
-      <c r="AF111" s="82"/>
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+      <c r="N111" s="59"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
+      <c r="R111" s="59"/>
+      <c r="S111" s="59"/>
+      <c r="T111" s="59"/>
+      <c r="U111" s="59"/>
+      <c r="V111" s="59"/>
+      <c r="W111" s="59"/>
+      <c r="X111" s="59"/>
+      <c r="Y111" s="59"/>
+      <c r="Z111" s="59"/>
+      <c r="AA111" s="59"/>
+      <c r="AB111" s="59"/>
+      <c r="AC111" s="59"/>
+      <c r="AD111" s="59"/>
+      <c r="AE111" s="59"/>
+      <c r="AF111" s="60"/>
     </row>
     <row r="112" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="46"/>
@@ -5118,31 +5140,31 @@
       <c r="G112" s="43"/>
       <c r="H112" s="43"/>
       <c r="I112" s="44"/>
-      <c r="J112" s="80" t="s">
+      <c r="J112" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="K112" s="81"/>
-      <c r="L112" s="81"/>
-      <c r="M112" s="81"/>
-      <c r="N112" s="81"/>
-      <c r="O112" s="81"/>
-      <c r="P112" s="81"/>
-      <c r="Q112" s="81"/>
-      <c r="R112" s="81"/>
-      <c r="S112" s="81"/>
-      <c r="T112" s="81"/>
-      <c r="U112" s="81"/>
-      <c r="V112" s="81"/>
-      <c r="W112" s="81"/>
-      <c r="X112" s="81"/>
-      <c r="Y112" s="81"/>
-      <c r="Z112" s="81"/>
-      <c r="AA112" s="81"/>
-      <c r="AB112" s="81"/>
-      <c r="AC112" s="81"/>
-      <c r="AD112" s="81"/>
-      <c r="AE112" s="81"/>
-      <c r="AF112" s="82"/>
+      <c r="K112" s="59"/>
+      <c r="L112" s="59"/>
+      <c r="M112" s="59"/>
+      <c r="N112" s="59"/>
+      <c r="O112" s="59"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="59"/>
+      <c r="R112" s="59"/>
+      <c r="S112" s="59"/>
+      <c r="T112" s="59"/>
+      <c r="U112" s="59"/>
+      <c r="V112" s="59"/>
+      <c r="W112" s="59"/>
+      <c r="X112" s="59"/>
+      <c r="Y112" s="59"/>
+      <c r="Z112" s="59"/>
+      <c r="AA112" s="59"/>
+      <c r="AB112" s="59"/>
+      <c r="AC112" s="59"/>
+      <c r="AD112" s="59"/>
+      <c r="AE112" s="59"/>
+      <c r="AF112" s="60"/>
     </row>
     <row r="113" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5156,714 +5178,684 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E118" s="46" t="str">
+    <row r="117" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E117" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E119" s="46" t="str">
         <f>$D$104&amp;"1."</f>
         <v>7.13.3.1.</v>
       </c>
-      <c r="F118" s="45" t="s">
+      <c r="F119" s="45" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="46"/>
-      <c r="F119" s="30" t="str">
-        <f>$E$118&amp;"1."</f>
+    <row r="120" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E120" s="46"/>
+      <c r="F120" s="30" t="str">
+        <f>$E$119&amp;"1."</f>
         <v>7.13.3.1.1.</v>
       </c>
-      <c r="G119" s="45" t="s">
+      <c r="G120" s="45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="23" t="s">
+    <row r="121" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G121" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="24"/>
-      <c r="P120" s="24"/>
-      <c r="Q120" s="24"/>
-      <c r="R120" s="24"/>
-      <c r="S120" s="24"/>
-      <c r="T120" s="24"/>
-      <c r="U120" s="24"/>
-      <c r="V120" s="24"/>
-      <c r="W120" s="24"/>
-      <c r="X120" s="24"/>
-      <c r="Y120" s="24"/>
-      <c r="Z120" s="24"/>
-      <c r="AA120" s="24"/>
-      <c r="AB120" s="24"/>
-      <c r="AC120" s="24"/>
-      <c r="AD120" s="24"/>
-      <c r="AE120" s="24"/>
-      <c r="AF120" s="24"/>
-      <c r="AG120" s="24"/>
-      <c r="AH120" s="25"/>
-    </row>
-    <row r="121" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G121" s="18" t="s">
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="24"/>
+      <c r="P121" s="24"/>
+      <c r="Q121" s="24"/>
+      <c r="R121" s="24"/>
+      <c r="S121" s="24"/>
+      <c r="T121" s="24"/>
+      <c r="U121" s="24"/>
+      <c r="V121" s="24"/>
+      <c r="W121" s="24"/>
+      <c r="X121" s="24"/>
+      <c r="Y121" s="24"/>
+      <c r="Z121" s="24"/>
+      <c r="AA121" s="24"/>
+      <c r="AB121" s="24"/>
+      <c r="AC121" s="24"/>
+      <c r="AD121" s="24"/>
+      <c r="AE121" s="24"/>
+      <c r="AF121" s="24"/>
+      <c r="AG121" s="24"/>
+      <c r="AH121" s="25"/>
+    </row>
+    <row r="122" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G122" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="AH121" s="20"/>
-    </row>
-    <row r="122" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G122" s="40" t="s">
+      <c r="AH122" s="20"/>
+    </row>
+    <row r="123" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G123" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="41"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="41"/>
-      <c r="R122" s="41"/>
-      <c r="S122" s="41"/>
-      <c r="T122" s="41"/>
-      <c r="U122" s="41"/>
-      <c r="V122" s="41"/>
-      <c r="W122" s="41"/>
-      <c r="X122" s="41"/>
-      <c r="Y122" s="41"/>
-      <c r="Z122" s="41"/>
-      <c r="AA122" s="41"/>
-      <c r="AB122" s="41"/>
-      <c r="AC122" s="41"/>
-      <c r="AD122" s="41"/>
-      <c r="AE122" s="41"/>
-      <c r="AF122" s="41"/>
-      <c r="AG122" s="41"/>
-      <c r="AH122" s="42"/>
-    </row>
-    <row r="123" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G123" s="36" t="s">
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="41"/>
+      <c r="S123" s="41"/>
+      <c r="T123" s="41"/>
+      <c r="U123" s="41"/>
+      <c r="V123" s="41"/>
+      <c r="W123" s="41"/>
+      <c r="X123" s="41"/>
+      <c r="Y123" s="41"/>
+      <c r="Z123" s="41"/>
+      <c r="AA123" s="41"/>
+      <c r="AB123" s="41"/>
+      <c r="AC123" s="41"/>
+      <c r="AD123" s="41"/>
+      <c r="AE123" s="41"/>
+      <c r="AF123" s="41"/>
+      <c r="AG123" s="41"/>
+      <c r="AH123" s="42"/>
+    </row>
+    <row r="124" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G124" s="36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G124" s="45" t="s">
+    <row r="125" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G125" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="125" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G125" s="36" t="s">
+    <row r="126" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G126" s="36" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D126" s="46"/>
-      <c r="E126" s="31"/>
-    </row>
     <row r="127" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E127" s="46" t="str">
+      <c r="D127" s="46"/>
+      <c r="E127" s="31"/>
+    </row>
+    <row r="128" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E128" s="46" t="str">
         <f>$D$104&amp;"2."</f>
         <v>7.13.3.2.</v>
       </c>
-      <c r="F127" s="45" t="s">
+      <c r="F128" s="45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E128" s="46"/>
-      <c r="F128" s="30" t="str">
-        <f>$E$127&amp;"1."</f>
+    <row r="129" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="46"/>
+      <c r="F129" s="30" t="str">
+        <f>$E$128&amp;"1."</f>
         <v>7.13.3.2.1.</v>
       </c>
-      <c r="G128" s="45" t="s">
+      <c r="G129" s="45" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="129" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E129" s="30"/>
-      <c r="G129" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="24"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="24"/>
-      <c r="Q129" s="24"/>
-      <c r="R129" s="24"/>
-      <c r="S129" s="24"/>
-      <c r="T129" s="24"/>
-      <c r="U129" s="24"/>
-      <c r="V129" s="24"/>
-      <c r="W129" s="24"/>
-      <c r="X129" s="24"/>
-      <c r="Y129" s="24"/>
-      <c r="Z129" s="24"/>
-      <c r="AA129" s="24"/>
-      <c r="AB129" s="24"/>
-      <c r="AC129" s="24"/>
-      <c r="AD129" s="24"/>
-      <c r="AE129" s="24"/>
-      <c r="AF129" s="24"/>
-      <c r="AG129" s="24"/>
-      <c r="AH129" s="25"/>
     </row>
     <row r="130" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="30"/>
-      <c r="G130" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH130" s="20"/>
+      <c r="G130" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
+      <c r="N130" s="24"/>
+      <c r="O130" s="24"/>
+      <c r="P130" s="24"/>
+      <c r="Q130" s="24"/>
+      <c r="R130" s="24"/>
+      <c r="S130" s="24"/>
+      <c r="T130" s="24"/>
+      <c r="U130" s="24"/>
+      <c r="V130" s="24"/>
+      <c r="W130" s="24"/>
+      <c r="X130" s="24"/>
+      <c r="Y130" s="24"/>
+      <c r="Z130" s="24"/>
+      <c r="AA130" s="24"/>
+      <c r="AB130" s="24"/>
+      <c r="AC130" s="24"/>
+      <c r="AD130" s="24"/>
+      <c r="AE130" s="24"/>
+      <c r="AF130" s="24"/>
+      <c r="AG130" s="24"/>
+      <c r="AH130" s="25"/>
     </row>
     <row r="131" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="30"/>
       <c r="G131" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH131" s="20"/>
     </row>
     <row r="132" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="30"/>
       <c r="G132" s="18" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AH132" s="20"/>
     </row>
     <row r="133" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="30"/>
       <c r="G133" s="18" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AH133" s="20"/>
     </row>
     <row r="134" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="30"/>
       <c r="G134" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH134" s="20"/>
     </row>
     <row r="135" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="30"/>
-      <c r="G135" s="40" t="s">
+      <c r="G135" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH135" s="20"/>
+    </row>
+    <row r="136" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E136" s="30"/>
+      <c r="G136" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
-      <c r="K135" s="41"/>
-      <c r="L135" s="41"/>
-      <c r="M135" s="41"/>
-      <c r="N135" s="41"/>
-      <c r="O135" s="41"/>
-      <c r="P135" s="41"/>
-      <c r="Q135" s="41"/>
-      <c r="R135" s="41"/>
-      <c r="S135" s="41"/>
-      <c r="T135" s="41"/>
-      <c r="U135" s="41"/>
-      <c r="V135" s="41"/>
-      <c r="W135" s="41"/>
-      <c r="X135" s="41"/>
-      <c r="Y135" s="41"/>
-      <c r="Z135" s="41"/>
-      <c r="AA135" s="41"/>
-      <c r="AB135" s="41"/>
-      <c r="AC135" s="41"/>
-      <c r="AD135" s="41"/>
-      <c r="AE135" s="41"/>
-      <c r="AF135" s="41"/>
-      <c r="AG135" s="41"/>
-      <c r="AH135" s="42"/>
-    </row>
-    <row r="136" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G136" s="36" t="s">
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
+      <c r="L136" s="41"/>
+      <c r="M136" s="41"/>
+      <c r="N136" s="41"/>
+      <c r="O136" s="41"/>
+      <c r="P136" s="41"/>
+      <c r="Q136" s="41"/>
+      <c r="R136" s="41"/>
+      <c r="S136" s="41"/>
+      <c r="T136" s="41"/>
+      <c r="U136" s="41"/>
+      <c r="V136" s="41"/>
+      <c r="W136" s="41"/>
+      <c r="X136" s="41"/>
+      <c r="Y136" s="41"/>
+      <c r="Z136" s="41"/>
+      <c r="AA136" s="41"/>
+      <c r="AB136" s="41"/>
+      <c r="AC136" s="41"/>
+      <c r="AD136" s="41"/>
+      <c r="AE136" s="41"/>
+      <c r="AF136" s="41"/>
+      <c r="AG136" s="41"/>
+      <c r="AH136" s="42"/>
+    </row>
+    <row r="137" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G137" s="36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G137" s="45" t="s">
+    <row r="138" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G138" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="138" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D139" s="46" t="str">
+    <row r="139" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D140" s="46" t="str">
         <f>$C$7&amp;"4."</f>
         <v>7.13.4.</v>
       </c>
-      <c r="E139" s="31" t="s">
+      <c r="E140" s="31" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="140" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="30" t="str">
-        <f>$D$139&amp;"1."</f>
+    <row r="141" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E141" s="30" t="str">
+        <f>$D$140&amp;"1."</f>
         <v>7.13.4.1.</v>
       </c>
-      <c r="F140" s="31" t="s">
+      <c r="F141" s="31" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="30"/>
-      <c r="F141" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="142" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="30"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H142" s="28"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="K142" s="28"/>
-      <c r="L142" s="29"/>
-      <c r="M142" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N142" s="28"/>
-      <c r="O142" s="28"/>
-      <c r="P142" s="28"/>
-      <c r="Q142" s="29"/>
-      <c r="R142" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="S142" s="28"/>
-      <c r="T142" s="28"/>
-      <c r="U142" s="28"/>
-      <c r="V142" s="28"/>
-      <c r="W142" s="28"/>
-      <c r="X142" s="28"/>
-      <c r="Y142" s="28"/>
-      <c r="Z142" s="28"/>
-      <c r="AA142" s="28"/>
-      <c r="AB142" s="28"/>
-      <c r="AC142" s="28"/>
-      <c r="AD142" s="28"/>
-      <c r="AE142" s="28"/>
-      <c r="AF142" s="28"/>
-      <c r="AG142" s="28"/>
-      <c r="AH142" s="28"/>
-      <c r="AI142" s="29"/>
+      <c r="F142" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="45" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="143" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="30"/>
       <c r="F143" s="31"/>
-      <c r="G143" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H143" s="24"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K143" s="24"/>
-      <c r="L143" s="25"/>
-      <c r="M143" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="N143" s="24"/>
-      <c r="O143" s="24"/>
-      <c r="P143" s="24"/>
-      <c r="Q143" s="25"/>
-      <c r="R143" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="S143" s="24"/>
-      <c r="T143" s="24"/>
-      <c r="U143" s="24"/>
-      <c r="V143" s="24"/>
-      <c r="W143" s="24"/>
-      <c r="X143" s="24"/>
-      <c r="Y143" s="24"/>
-      <c r="Z143" s="24"/>
-      <c r="AA143" s="24"/>
-      <c r="AB143" s="24"/>
-      <c r="AC143" s="24"/>
-      <c r="AD143" s="24"/>
-      <c r="AE143" s="24"/>
-      <c r="AF143" s="24"/>
-      <c r="AG143" s="24"/>
-      <c r="AH143" s="24"/>
-      <c r="AI143" s="25"/>
+      <c r="G143" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H143" s="28"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K143" s="28"/>
+      <c r="L143" s="29"/>
+      <c r="M143" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N143" s="28"/>
+      <c r="O143" s="28"/>
+      <c r="P143" s="28"/>
+      <c r="Q143" s="29"/>
+      <c r="R143" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S143" s="28"/>
+      <c r="T143" s="28"/>
+      <c r="U143" s="28"/>
+      <c r="V143" s="28"/>
+      <c r="W143" s="28"/>
+      <c r="X143" s="28"/>
+      <c r="Y143" s="28"/>
+      <c r="Z143" s="28"/>
+      <c r="AA143" s="28"/>
+      <c r="AB143" s="28"/>
+      <c r="AC143" s="28"/>
+      <c r="AD143" s="28"/>
+      <c r="AE143" s="28"/>
+      <c r="AF143" s="28"/>
+      <c r="AG143" s="28"/>
+      <c r="AH143" s="28"/>
+      <c r="AI143" s="29"/>
     </row>
     <row r="144" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="30"/>
       <c r="F144" s="31"/>
-      <c r="G144" s="40"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="41"/>
-      <c r="K144" s="41"/>
-      <c r="L144" s="42"/>
-      <c r="M144" s="41"/>
-      <c r="N144" s="41"/>
-      <c r="O144" s="41"/>
-      <c r="P144" s="41"/>
-      <c r="Q144" s="42"/>
-      <c r="R144" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="S144" s="41"/>
-      <c r="T144" s="41"/>
-      <c r="U144" s="41"/>
-      <c r="V144" s="41"/>
-      <c r="W144" s="41"/>
-      <c r="X144" s="41"/>
-      <c r="Y144" s="41"/>
-      <c r="Z144" s="41"/>
-      <c r="AA144" s="41"/>
-      <c r="AB144" s="41"/>
-      <c r="AC144" s="41"/>
-      <c r="AD144" s="41"/>
-      <c r="AE144" s="41"/>
-      <c r="AF144" s="41"/>
-      <c r="AG144" s="41"/>
-      <c r="AH144" s="41"/>
-      <c r="AI144" s="42"/>
+      <c r="G144" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H144" s="24"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K144" s="24"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="N144" s="24"/>
+      <c r="O144" s="24"/>
+      <c r="P144" s="24"/>
+      <c r="Q144" s="25"/>
+      <c r="R144" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="S144" s="24"/>
+      <c r="T144" s="24"/>
+      <c r="U144" s="24"/>
+      <c r="V144" s="24"/>
+      <c r="W144" s="24"/>
+      <c r="X144" s="24"/>
+      <c r="Y144" s="24"/>
+      <c r="Z144" s="24"/>
+      <c r="AA144" s="24"/>
+      <c r="AB144" s="24"/>
+      <c r="AC144" s="24"/>
+      <c r="AD144" s="24"/>
+      <c r="AE144" s="24"/>
+      <c r="AF144" s="24"/>
+      <c r="AG144" s="24"/>
+      <c r="AH144" s="24"/>
+      <c r="AI144" s="25"/>
     </row>
     <row r="145" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="30"/>
       <c r="F145" s="31"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
-      <c r="O145" s="19"/>
-      <c r="P145" s="19"/>
-      <c r="Q145" s="19"/>
-      <c r="R145" s="19"/>
-      <c r="S145" s="19"/>
-      <c r="T145" s="19"/>
-      <c r="U145" s="19"/>
-      <c r="V145" s="19"/>
-      <c r="W145" s="19"/>
-      <c r="X145" s="19"/>
-      <c r="Y145" s="19"/>
-      <c r="Z145" s="19"/>
-      <c r="AA145" s="19"/>
-      <c r="AB145" s="19"/>
-      <c r="AC145" s="19"/>
-      <c r="AD145" s="19"/>
-      <c r="AE145" s="19"/>
-      <c r="AF145" s="19"/>
-      <c r="AG145" s="19"/>
-      <c r="AH145" s="19"/>
-      <c r="AI145" s="19"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="41"/>
+      <c r="N145" s="41"/>
+      <c r="O145" s="41"/>
+      <c r="P145" s="41"/>
+      <c r="Q145" s="42"/>
+      <c r="R145" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="S145" s="41"/>
+      <c r="T145" s="41"/>
+      <c r="U145" s="41"/>
+      <c r="V145" s="41"/>
+      <c r="W145" s="41"/>
+      <c r="X145" s="41"/>
+      <c r="Y145" s="41"/>
+      <c r="Z145" s="41"/>
+      <c r="AA145" s="41"/>
+      <c r="AB145" s="41"/>
+      <c r="AC145" s="41"/>
+      <c r="AD145" s="41"/>
+      <c r="AE145" s="41"/>
+      <c r="AF145" s="41"/>
+      <c r="AG145" s="41"/>
+      <c r="AH145" s="41"/>
+      <c r="AI145" s="42"/>
     </row>
     <row r="146" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="30"/>
-      <c r="F146" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G146" s="45" t="s">
-        <v>104</v>
-      </c>
+      <c r="F146" s="31"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
+      <c r="V146" s="19"/>
+      <c r="W146" s="19"/>
+      <c r="X146" s="19"/>
+      <c r="Y146" s="19"/>
+      <c r="Z146" s="19"/>
+      <c r="AA146" s="19"/>
+      <c r="AB146" s="19"/>
+      <c r="AC146" s="19"/>
+      <c r="AD146" s="19"/>
+      <c r="AE146" s="19"/>
+      <c r="AF146" s="19"/>
+      <c r="AG146" s="19"/>
+      <c r="AH146" s="19"/>
+      <c r="AI146" s="19"/>
     </row>
     <row r="147" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="30"/>
-      <c r="F147" s="46"/>
-      <c r="G147" s="30" t="str">
-        <f>F146&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H147" s="45" t="s">
-        <v>14</v>
+      <c r="F147" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G147" s="45" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="I148" s="24"/>
-      <c r="J148" s="24"/>
-      <c r="K148" s="24"/>
-      <c r="L148" s="24"/>
-      <c r="M148" s="24"/>
-      <c r="N148" s="24"/>
-      <c r="O148" s="24"/>
-      <c r="P148" s="24"/>
-      <c r="Q148" s="24"/>
-      <c r="R148" s="24"/>
-      <c r="S148" s="24"/>
-      <c r="T148" s="24"/>
-      <c r="U148" s="24"/>
-      <c r="V148" s="24"/>
-      <c r="W148" s="24"/>
-      <c r="X148" s="24"/>
-      <c r="Y148" s="24"/>
-      <c r="Z148" s="24"/>
-      <c r="AA148" s="24"/>
-      <c r="AB148" s="24"/>
-      <c r="AC148" s="24"/>
-      <c r="AD148" s="24"/>
-      <c r="AE148" s="24"/>
-      <c r="AF148" s="24"/>
-      <c r="AG148" s="24"/>
-      <c r="AH148" s="24"/>
-      <c r="AI148" s="25"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="30" t="str">
+        <f>F147&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H148" s="45" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="149" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E149" s="30"/>
       <c r="F149" s="30"/>
       <c r="G149" s="46"/>
-      <c r="H149" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="I149" s="41"/>
-      <c r="J149" s="41"/>
-      <c r="K149" s="41"/>
-      <c r="L149" s="41"/>
-      <c r="M149" s="41"/>
-      <c r="N149" s="41"/>
-      <c r="O149" s="41"/>
-      <c r="P149" s="41"/>
-      <c r="Q149" s="41"/>
-      <c r="R149" s="41"/>
-      <c r="S149" s="41"/>
-      <c r="T149" s="41"/>
-      <c r="U149" s="41"/>
-      <c r="V149" s="41"/>
-      <c r="W149" s="41"/>
-      <c r="X149" s="41"/>
-      <c r="Y149" s="41"/>
-      <c r="Z149" s="41"/>
-      <c r="AA149" s="41"/>
-      <c r="AB149" s="41"/>
-      <c r="AC149" s="41"/>
-      <c r="AD149" s="41"/>
-      <c r="AE149" s="41"/>
-      <c r="AF149" s="41"/>
-      <c r="AG149" s="41"/>
-      <c r="AH149" s="41"/>
-      <c r="AI149" s="42"/>
+      <c r="H149" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="24"/>
+      <c r="O149" s="24"/>
+      <c r="P149" s="24"/>
+      <c r="Q149" s="24"/>
+      <c r="R149" s="24"/>
+      <c r="S149" s="24"/>
+      <c r="T149" s="24"/>
+      <c r="U149" s="24"/>
+      <c r="V149" s="24"/>
+      <c r="W149" s="24"/>
+      <c r="X149" s="24"/>
+      <c r="Y149" s="24"/>
+      <c r="Z149" s="24"/>
+      <c r="AA149" s="24"/>
+      <c r="AB149" s="24"/>
+      <c r="AC149" s="24"/>
+      <c r="AD149" s="24"/>
+      <c r="AE149" s="24"/>
+      <c r="AF149" s="24"/>
+      <c r="AG149" s="24"/>
+      <c r="AH149" s="24"/>
+      <c r="AI149" s="25"/>
     </row>
     <row r="150" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E150" s="30"/>
       <c r="F150" s="30"/>
       <c r="G150" s="46"/>
-      <c r="H150" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="H150" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
+      <c r="K150" s="41"/>
+      <c r="L150" s="41"/>
+      <c r="M150" s="41"/>
+      <c r="N150" s="41"/>
+      <c r="O150" s="41"/>
+      <c r="P150" s="41"/>
+      <c r="Q150" s="41"/>
+      <c r="R150" s="41"/>
+      <c r="S150" s="41"/>
+      <c r="T150" s="41"/>
+      <c r="U150" s="41"/>
+      <c r="V150" s="41"/>
+      <c r="W150" s="41"/>
+      <c r="X150" s="41"/>
+      <c r="Y150" s="41"/>
+      <c r="Z150" s="41"/>
+      <c r="AA150" s="41"/>
+      <c r="AB150" s="41"/>
+      <c r="AC150" s="41"/>
+      <c r="AD150" s="41"/>
+      <c r="AE150" s="41"/>
+      <c r="AF150" s="41"/>
+      <c r="AG150" s="41"/>
+      <c r="AH150" s="41"/>
+      <c r="AI150" s="42"/>
     </row>
     <row r="151" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E151" s="30"/>
       <c r="F151" s="30"/>
       <c r="G151" s="46"/>
       <c r="H151" s="45" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E152" s="30"/>
-      <c r="F152" s="46"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="45" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="153" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E153" s="30"/>
       <c r="F153" s="46"/>
-      <c r="G153" s="30" t="str">
-        <f>F146&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H153" s="45" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="154" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E154" s="30"/>
       <c r="F154" s="46"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I154" s="28"/>
-      <c r="J154" s="28"/>
-      <c r="K154" s="28"/>
-      <c r="L154" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M154" s="28"/>
-      <c r="N154" s="28"/>
-      <c r="O154" s="29"/>
-      <c r="P154" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q154" s="28"/>
-      <c r="R154" s="28"/>
-      <c r="S154" s="28"/>
-      <c r="T154" s="28"/>
-      <c r="U154" s="28"/>
-      <c r="V154" s="28"/>
-      <c r="W154" s="28"/>
-      <c r="X154" s="28"/>
-      <c r="Y154" s="28"/>
-      <c r="Z154" s="28"/>
-      <c r="AA154" s="28"/>
-      <c r="AB154" s="28"/>
-      <c r="AC154" s="28"/>
-      <c r="AD154" s="28"/>
-      <c r="AE154" s="28"/>
-      <c r="AF154" s="28"/>
-      <c r="AG154" s="28"/>
-      <c r="AH154" s="28"/>
-      <c r="AI154" s="29"/>
+      <c r="G154" s="30" t="str">
+        <f>F147&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H154" s="45" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="155" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E155" s="30"/>
       <c r="F155" s="46"/>
       <c r="G155" s="30"/>
-      <c r="H155" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
-      <c r="O155" s="20"/>
-      <c r="P155" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q155" s="19"/>
-      <c r="R155" s="19"/>
-      <c r="S155" s="19"/>
-      <c r="T155" s="19"/>
-      <c r="U155" s="19"/>
-      <c r="V155" s="19"/>
-      <c r="W155" s="19"/>
-      <c r="X155" s="19"/>
-      <c r="Y155" s="19"/>
-      <c r="Z155" s="19"/>
-      <c r="AA155" s="19"/>
-      <c r="AB155" s="19"/>
-      <c r="AC155" s="19"/>
-      <c r="AD155" s="19"/>
-      <c r="AE155" s="19"/>
-      <c r="AF155" s="19"/>
-      <c r="AG155" s="19"/>
-      <c r="AH155" s="19"/>
-      <c r="AI155" s="20"/>
+      <c r="H155" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="28"/>
+      <c r="L155" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M155" s="28"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q155" s="28"/>
+      <c r="R155" s="28"/>
+      <c r="S155" s="28"/>
+      <c r="T155" s="28"/>
+      <c r="U155" s="28"/>
+      <c r="V155" s="28"/>
+      <c r="W155" s="28"/>
+      <c r="X155" s="28"/>
+      <c r="Y155" s="28"/>
+      <c r="Z155" s="28"/>
+      <c r="AA155" s="28"/>
+      <c r="AB155" s="28"/>
+      <c r="AC155" s="28"/>
+      <c r="AD155" s="28"/>
+      <c r="AE155" s="28"/>
+      <c r="AF155" s="28"/>
+      <c r="AG155" s="28"/>
+      <c r="AH155" s="28"/>
+      <c r="AI155" s="29"/>
     </row>
     <row r="156" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="30"/>
       <c r="F156" s="46"/>
       <c r="G156" s="30"/>
-      <c r="H156" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I156" s="43"/>
-      <c r="J156" s="43"/>
-      <c r="K156" s="43"/>
-      <c r="L156" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="M156" s="43"/>
-      <c r="N156" s="43"/>
-      <c r="O156" s="44"/>
-      <c r="P156" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q156" s="43"/>
-      <c r="R156" s="43"/>
-      <c r="S156" s="43"/>
-      <c r="T156" s="43"/>
-      <c r="U156" s="43"/>
-      <c r="V156" s="43"/>
-      <c r="W156" s="43"/>
-      <c r="X156" s="43"/>
-      <c r="Y156" s="43"/>
-      <c r="Z156" s="43"/>
-      <c r="AA156" s="43"/>
-      <c r="AB156" s="43"/>
-      <c r="AC156" s="43"/>
-      <c r="AD156" s="43"/>
-      <c r="AE156" s="43"/>
-      <c r="AF156" s="43"/>
-      <c r="AG156" s="43"/>
-      <c r="AH156" s="43"/>
-      <c r="AI156" s="44"/>
+      <c r="H156" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="19"/>
+      <c r="T156" s="19"/>
+      <c r="U156" s="19"/>
+      <c r="V156" s="19"/>
+      <c r="W156" s="19"/>
+      <c r="X156" s="19"/>
+      <c r="Y156" s="19"/>
+      <c r="Z156" s="19"/>
+      <c r="AA156" s="19"/>
+      <c r="AB156" s="19"/>
+      <c r="AC156" s="19"/>
+      <c r="AD156" s="19"/>
+      <c r="AE156" s="19"/>
+      <c r="AF156" s="19"/>
+      <c r="AG156" s="19"/>
+      <c r="AH156" s="19"/>
+      <c r="AI156" s="20"/>
     </row>
     <row r="157" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E157" s="30"/>
       <c r="F157" s="46"/>
       <c r="G157" s="30"/>
-      <c r="H157" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
-      <c r="O157" s="20"/>
-      <c r="P157" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q157" s="19"/>
-      <c r="R157" s="19"/>
-      <c r="S157" s="19"/>
-      <c r="T157" s="19"/>
-      <c r="U157" s="19"/>
-      <c r="V157" s="19"/>
-      <c r="W157" s="19"/>
-      <c r="X157" s="19"/>
-      <c r="Y157" s="19"/>
-      <c r="Z157" s="19"/>
-      <c r="AA157" s="19"/>
-      <c r="AB157" s="19"/>
-      <c r="AC157" s="19"/>
-      <c r="AD157" s="19"/>
-      <c r="AE157" s="19"/>
-      <c r="AF157" s="19"/>
-      <c r="AG157" s="19"/>
-      <c r="AH157" s="19"/>
-      <c r="AI157" s="20"/>
+      <c r="H157" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="43"/>
+      <c r="J157" s="43"/>
+      <c r="K157" s="43"/>
+      <c r="L157" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M157" s="43"/>
+      <c r="N157" s="43"/>
+      <c r="O157" s="44"/>
+      <c r="P157" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q157" s="43"/>
+      <c r="R157" s="43"/>
+      <c r="S157" s="43"/>
+      <c r="T157" s="43"/>
+      <c r="U157" s="43"/>
+      <c r="V157" s="43"/>
+      <c r="W157" s="43"/>
+      <c r="X157" s="43"/>
+      <c r="Y157" s="43"/>
+      <c r="Z157" s="43"/>
+      <c r="AA157" s="43"/>
+      <c r="AB157" s="43"/>
+      <c r="AC157" s="43"/>
+      <c r="AD157" s="43"/>
+      <c r="AE157" s="43"/>
+      <c r="AF157" s="43"/>
+      <c r="AG157" s="43"/>
+      <c r="AH157" s="43"/>
+      <c r="AI157" s="44"/>
     </row>
     <row r="158" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E158" s="30"/>
       <c r="F158" s="46"/>
       <c r="G158" s="30"/>
-      <c r="H158" s="18"/>
+      <c r="H158" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="I158" s="19"/>
       <c r="J158" s="19"/>
       <c r="K158" s="19"/>
-      <c r="L158" s="18"/>
+      <c r="L158" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="M158" s="19"/>
       <c r="N158" s="19"/>
       <c r="O158" s="20"/>
       <c r="P158" s="19" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="Q158" s="19"/>
       <c r="R158" s="19"/>
@@ -5889,55 +5881,51 @@
       <c r="E159" s="30"/>
       <c r="F159" s="46"/>
       <c r="G159" s="30"/>
-      <c r="H159" s="40"/>
-      <c r="I159" s="41"/>
-      <c r="J159" s="41"/>
-      <c r="K159" s="41"/>
-      <c r="L159" s="40"/>
-      <c r="M159" s="41"/>
-      <c r="N159" s="41"/>
-      <c r="O159" s="42"/>
-      <c r="P159" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q159" s="41"/>
-      <c r="R159" s="41"/>
-      <c r="S159" s="41"/>
-      <c r="T159" s="41"/>
-      <c r="U159" s="41"/>
-      <c r="V159" s="41"/>
-      <c r="W159" s="41"/>
-      <c r="X159" s="41"/>
-      <c r="Y159" s="41"/>
-      <c r="Z159" s="41"/>
-      <c r="AA159" s="41"/>
-      <c r="AB159" s="41"/>
-      <c r="AC159" s="41"/>
-      <c r="AD159" s="41"/>
-      <c r="AE159" s="41"/>
-      <c r="AF159" s="41"/>
-      <c r="AG159" s="41"/>
-      <c r="AH159" s="41"/>
-      <c r="AI159" s="42"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
+      <c r="S159" s="19"/>
+      <c r="T159" s="19"/>
+      <c r="U159" s="19"/>
+      <c r="V159" s="19"/>
+      <c r="W159" s="19"/>
+      <c r="X159" s="19"/>
+      <c r="Y159" s="19"/>
+      <c r="Z159" s="19"/>
+      <c r="AA159" s="19"/>
+      <c r="AB159" s="19"/>
+      <c r="AC159" s="19"/>
+      <c r="AD159" s="19"/>
+      <c r="AE159" s="19"/>
+      <c r="AF159" s="19"/>
+      <c r="AG159" s="19"/>
+      <c r="AH159" s="19"/>
+      <c r="AI159" s="20"/>
     </row>
     <row r="160" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="30"/>
       <c r="F160" s="46"/>
       <c r="G160" s="30"/>
-      <c r="H160" s="40" t="s">
-        <v>89</v>
-      </c>
+      <c r="H160" s="40"/>
       <c r="I160" s="41"/>
       <c r="J160" s="41"/>
       <c r="K160" s="41"/>
-      <c r="L160" s="40" t="s">
-        <v>90</v>
-      </c>
+      <c r="L160" s="40"/>
       <c r="M160" s="41"/>
       <c r="N160" s="41"/>
       <c r="O160" s="42"/>
       <c r="P160" s="41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q160" s="41"/>
       <c r="R160" s="41"/>
@@ -5963,55 +5951,59 @@
       <c r="E161" s="30"/>
       <c r="F161" s="46"/>
       <c r="G161" s="30"/>
-      <c r="H161" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="20"/>
-      <c r="P161" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q161" s="19"/>
-      <c r="R161" s="19"/>
-      <c r="S161" s="19"/>
-      <c r="T161" s="19"/>
-      <c r="U161" s="19"/>
-      <c r="V161" s="19"/>
-      <c r="W161" s="19"/>
-      <c r="X161" s="19"/>
-      <c r="Y161" s="19"/>
-      <c r="Z161" s="19"/>
-      <c r="AA161" s="19"/>
-      <c r="AB161" s="19"/>
-      <c r="AC161" s="19"/>
-      <c r="AD161" s="19"/>
-      <c r="AE161" s="19"/>
-      <c r="AF161" s="19"/>
-      <c r="AG161" s="19"/>
-      <c r="AH161" s="19"/>
-      <c r="AI161" s="20"/>
+      <c r="H161" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41"/>
+      <c r="K161" s="41"/>
+      <c r="L161" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M161" s="41"/>
+      <c r="N161" s="41"/>
+      <c r="O161" s="42"/>
+      <c r="P161" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q161" s="41"/>
+      <c r="R161" s="41"/>
+      <c r="S161" s="41"/>
+      <c r="T161" s="41"/>
+      <c r="U161" s="41"/>
+      <c r="V161" s="41"/>
+      <c r="W161" s="41"/>
+      <c r="X161" s="41"/>
+      <c r="Y161" s="41"/>
+      <c r="Z161" s="41"/>
+      <c r="AA161" s="41"/>
+      <c r="AB161" s="41"/>
+      <c r="AC161" s="41"/>
+      <c r="AD161" s="41"/>
+      <c r="AE161" s="41"/>
+      <c r="AF161" s="41"/>
+      <c r="AG161" s="41"/>
+      <c r="AH161" s="41"/>
+      <c r="AI161" s="42"/>
     </row>
     <row r="162" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="30"/>
       <c r="F162" s="46"/>
       <c r="G162" s="30"/>
-      <c r="H162" s="18"/>
+      <c r="H162" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="I162" s="19"/>
       <c r="J162" s="19"/>
       <c r="K162" s="19"/>
-      <c r="L162" s="18"/>
+      <c r="L162" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="M162" s="19"/>
       <c r="N162" s="19"/>
       <c r="O162" s="20"/>
       <c r="P162" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q162" s="19"/>
       <c r="R162" s="19"/>
@@ -6045,19 +6037,17 @@
       <c r="M163" s="19"/>
       <c r="N163" s="19"/>
       <c r="O163" s="20"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="R163" s="28"/>
-      <c r="S163" s="28"/>
-      <c r="T163" s="28"/>
-      <c r="U163" s="29"/>
-      <c r="V163" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="W163" s="28"/>
-      <c r="X163" s="29"/>
+      <c r="P163" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+      <c r="S163" s="19"/>
+      <c r="T163" s="19"/>
+      <c r="U163" s="19"/>
+      <c r="V163" s="19"/>
+      <c r="W163" s="19"/>
+      <c r="X163" s="19"/>
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
       <c r="AA163" s="19"/>
@@ -6083,18 +6073,18 @@
       <c r="N164" s="19"/>
       <c r="O164" s="20"/>
       <c r="P164" s="19"/>
-      <c r="Q164" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="R164" s="43"/>
-      <c r="S164" s="43"/>
-      <c r="T164" s="43"/>
-      <c r="U164" s="44"/>
-      <c r="V164" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="W164" s="43"/>
-      <c r="X164" s="44"/>
+      <c r="Q164" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R164" s="28"/>
+      <c r="S164" s="28"/>
+      <c r="T164" s="28"/>
+      <c r="U164" s="29"/>
+      <c r="V164" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="W164" s="28"/>
+      <c r="X164" s="29"/>
       <c r="Y164" s="19"/>
       <c r="Z164" s="19"/>
       <c r="AA164" s="19"/>
@@ -6110,6 +6100,7 @@
     <row r="165" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E165" s="30"/>
       <c r="F165" s="46"/>
+      <c r="G165" s="30"/>
       <c r="H165" s="18"/>
       <c r="I165" s="19"/>
       <c r="J165" s="19"/>
@@ -6119,18 +6110,18 @@
       <c r="N165" s="19"/>
       <c r="O165" s="20"/>
       <c r="P165" s="19"/>
-      <c r="Q165" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="R165" s="41"/>
-      <c r="S165" s="41"/>
-      <c r="T165" s="41"/>
-      <c r="U165" s="42"/>
-      <c r="V165" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="W165" s="41"/>
-      <c r="X165" s="42"/>
+      <c r="Q165" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="R165" s="43"/>
+      <c r="S165" s="43"/>
+      <c r="T165" s="43"/>
+      <c r="U165" s="44"/>
+      <c r="V165" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="W165" s="43"/>
+      <c r="X165" s="44"/>
       <c r="Y165" s="19"/>
       <c r="Z165" s="19"/>
       <c r="AA165" s="19"/>
@@ -6146,53 +6137,51 @@
     <row r="166" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E166" s="30"/>
       <c r="F166" s="46"/>
-      <c r="H166" s="40"/>
-      <c r="I166" s="41"/>
-      <c r="J166" s="41"/>
-      <c r="K166" s="41"/>
-      <c r="L166" s="40"/>
-      <c r="M166" s="41"/>
-      <c r="N166" s="41"/>
-      <c r="O166" s="42"/>
-      <c r="P166" s="41"/>
-      <c r="Q166" s="41"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="20"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="R166" s="41"/>
       <c r="S166" s="41"/>
       <c r="T166" s="41"/>
-      <c r="U166" s="41"/>
-      <c r="V166" s="41"/>
+      <c r="U166" s="42"/>
+      <c r="V166" s="41" t="s">
+        <v>134</v>
+      </c>
       <c r="W166" s="41"/>
-      <c r="X166" s="41"/>
-      <c r="Y166" s="41"/>
-      <c r="Z166" s="41"/>
-      <c r="AA166" s="41"/>
-      <c r="AB166" s="41"/>
-      <c r="AC166" s="41"/>
-      <c r="AD166" s="41"/>
-      <c r="AE166" s="41"/>
-      <c r="AF166" s="41"/>
-      <c r="AG166" s="41"/>
-      <c r="AH166" s="41"/>
-      <c r="AI166" s="42"/>
+      <c r="X166" s="42"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+      <c r="AB166" s="19"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="19"/>
+      <c r="AE166" s="19"/>
+      <c r="AF166" s="19"/>
+      <c r="AG166" s="19"/>
+      <c r="AH166" s="19"/>
+      <c r="AI166" s="20"/>
     </row>
     <row r="167" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E167" s="30"/>
       <c r="F167" s="46"/>
-      <c r="H167" s="40" t="s">
-        <v>97</v>
-      </c>
+      <c r="H167" s="40"/>
       <c r="I167" s="41"/>
       <c r="J167" s="41"/>
       <c r="K167" s="41"/>
-      <c r="L167" s="40" t="s">
-        <v>98</v>
-      </c>
+      <c r="L167" s="40"/>
       <c r="M167" s="41"/>
       <c r="N167" s="41"/>
       <c r="O167" s="42"/>
-      <c r="P167" s="41" t="s">
-        <v>103</v>
-      </c>
+      <c r="P167" s="41"/>
       <c r="Q167" s="41"/>
       <c r="R167" s="41"/>
       <c r="S167" s="41"/>
@@ -6215,21 +6204,21 @@
     </row>
     <row r="168" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="30"/>
-      <c r="F168" s="31"/>
+      <c r="F168" s="46"/>
       <c r="H168" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I168" s="41"/>
       <c r="J168" s="41"/>
       <c r="K168" s="41"/>
       <c r="L168" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M168" s="41"/>
       <c r="N168" s="41"/>
       <c r="O168" s="42"/>
       <c r="P168" s="41" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="Q168" s="41"/>
       <c r="R168" s="41"/>
@@ -6253,160 +6242,163 @@
     </row>
     <row r="169" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E169" s="30"/>
-      <c r="H169" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I169" s="24"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="24"/>
-      <c r="L169" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="M169" s="24"/>
-      <c r="N169" s="24"/>
-      <c r="O169" s="24"/>
-      <c r="P169" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q169" s="24"/>
-      <c r="R169" s="24"/>
-      <c r="S169" s="24"/>
-      <c r="T169" s="24"/>
-      <c r="U169" s="24"/>
-      <c r="V169" s="24"/>
-      <c r="W169" s="24"/>
-      <c r="X169" s="24"/>
-      <c r="Y169" s="24"/>
-      <c r="Z169" s="24"/>
-      <c r="AA169" s="24"/>
-      <c r="AB169" s="24"/>
-      <c r="AC169" s="24"/>
-      <c r="AD169" s="24"/>
-      <c r="AE169" s="24"/>
-      <c r="AF169" s="24"/>
-      <c r="AG169" s="24"/>
-      <c r="AH169" s="24"/>
-      <c r="AI169" s="25"/>
+      <c r="F169" s="31"/>
+      <c r="H169" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I169" s="41"/>
+      <c r="J169" s="41"/>
+      <c r="K169" s="41"/>
+      <c r="L169" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M169" s="41"/>
+      <c r="N169" s="41"/>
+      <c r="O169" s="42"/>
+      <c r="P169" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q169" s="41"/>
+      <c r="R169" s="41"/>
+      <c r="S169" s="41"/>
+      <c r="T169" s="41"/>
+      <c r="U169" s="41"/>
+      <c r="V169" s="41"/>
+      <c r="W169" s="41"/>
+      <c r="X169" s="41"/>
+      <c r="Y169" s="41"/>
+      <c r="Z169" s="41"/>
+      <c r="AA169" s="41"/>
+      <c r="AB169" s="41"/>
+      <c r="AC169" s="41"/>
+      <c r="AD169" s="41"/>
+      <c r="AE169" s="41"/>
+      <c r="AF169" s="41"/>
+      <c r="AG169" s="41"/>
+      <c r="AH169" s="41"/>
+      <c r="AI169" s="42"/>
     </row>
     <row r="170" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E170" s="30"/>
-      <c r="H170" s="40"/>
-      <c r="I170" s="41"/>
-      <c r="J170" s="41"/>
-      <c r="K170" s="41"/>
-      <c r="L170" s="40"/>
-      <c r="M170" s="41"/>
-      <c r="N170" s="41"/>
-      <c r="O170" s="41"/>
-      <c r="P170" s="40" t="str">
+      <c r="H170" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M170" s="24"/>
+      <c r="N170" s="24"/>
+      <c r="O170" s="24"/>
+      <c r="P170" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q170" s="24"/>
+      <c r="R170" s="24"/>
+      <c r="S170" s="24"/>
+      <c r="T170" s="24"/>
+      <c r="U170" s="24"/>
+      <c r="V170" s="24"/>
+      <c r="W170" s="24"/>
+      <c r="X170" s="24"/>
+      <c r="Y170" s="24"/>
+      <c r="Z170" s="24"/>
+      <c r="AA170" s="24"/>
+      <c r="AB170" s="24"/>
+      <c r="AC170" s="24"/>
+      <c r="AD170" s="24"/>
+      <c r="AE170" s="24"/>
+      <c r="AF170" s="24"/>
+      <c r="AG170" s="24"/>
+      <c r="AH170" s="24"/>
+      <c r="AI170" s="25"/>
+    </row>
+    <row r="171" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E171" s="30"/>
+      <c r="H171" s="40"/>
+      <c r="I171" s="41"/>
+      <c r="J171" s="41"/>
+      <c r="K171" s="41"/>
+      <c r="L171" s="40"/>
+      <c r="M171" s="41"/>
+      <c r="N171" s="41"/>
+      <c r="O171" s="41"/>
+      <c r="P171" s="40" t="str">
         <f>"フォーマットは"&amp;$D$104&amp;$E$104&amp;"参照。"</f>
         <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
       </c>
-      <c r="Q170" s="41"/>
-      <c r="R170" s="41"/>
-      <c r="S170" s="41"/>
-      <c r="T170" s="41"/>
-      <c r="U170" s="41"/>
-      <c r="V170" s="41"/>
-      <c r="W170" s="41"/>
-      <c r="X170" s="41"/>
-      <c r="Y170" s="41"/>
-      <c r="Z170" s="41"/>
-      <c r="AA170" s="41"/>
-      <c r="AB170" s="41"/>
-      <c r="AC170" s="41"/>
-      <c r="AD170" s="41"/>
-      <c r="AE170" s="41"/>
-      <c r="AF170" s="41"/>
-      <c r="AG170" s="41"/>
-      <c r="AH170" s="41"/>
-      <c r="AI170" s="42"/>
-    </row>
-    <row r="171" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E172" s="30"/>
-      <c r="F172" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" s="45" t="s">
-        <v>16</v>
-      </c>
-    </row>
+      <c r="Q171" s="41"/>
+      <c r="R171" s="41"/>
+      <c r="S171" s="41"/>
+      <c r="T171" s="41"/>
+      <c r="U171" s="41"/>
+      <c r="V171" s="41"/>
+      <c r="W171" s="41"/>
+      <c r="X171" s="41"/>
+      <c r="Y171" s="41"/>
+      <c r="Z171" s="41"/>
+      <c r="AA171" s="41"/>
+      <c r="AB171" s="41"/>
+      <c r="AC171" s="41"/>
+      <c r="AD171" s="41"/>
+      <c r="AE171" s="41"/>
+      <c r="AF171" s="41"/>
+      <c r="AG171" s="41"/>
+      <c r="AH171" s="41"/>
+      <c r="AI171" s="42"/>
+    </row>
+    <row r="172" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="173" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E173" s="30"/>
-      <c r="F173" s="46"/>
-      <c r="G173" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="H173" s="24"/>
-      <c r="I173" s="24"/>
-      <c r="J173" s="24"/>
-      <c r="K173" s="24"/>
-      <c r="L173" s="24"/>
-      <c r="M173" s="24"/>
-      <c r="N173" s="24"/>
-      <c r="O173" s="24"/>
-      <c r="P173" s="24"/>
-      <c r="Q173" s="24"/>
-      <c r="R173" s="24"/>
-      <c r="S173" s="24"/>
-      <c r="T173" s="24"/>
-      <c r="U173" s="24"/>
-      <c r="V173" s="24"/>
-      <c r="W173" s="24"/>
-      <c r="X173" s="24"/>
-      <c r="Y173" s="24"/>
-      <c r="Z173" s="24"/>
-      <c r="AA173" s="24"/>
-      <c r="AB173" s="24"/>
-      <c r="AC173" s="24"/>
-      <c r="AD173" s="24"/>
-      <c r="AE173" s="24"/>
-      <c r="AF173" s="24"/>
-      <c r="AG173" s="24"/>
-      <c r="AH173" s="24"/>
-      <c r="AI173" s="25"/>
+      <c r="F173" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" s="45" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="174" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E174" s="30"/>
       <c r="F174" s="46"/>
-      <c r="G174" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="19"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
-      <c r="N174" s="19"/>
-      <c r="O174" s="19"/>
-      <c r="P174" s="19"/>
-      <c r="Q174" s="19"/>
-      <c r="R174" s="19"/>
-      <c r="S174" s="19"/>
-      <c r="T174" s="19"/>
-      <c r="U174" s="19"/>
-      <c r="V174" s="19"/>
-      <c r="W174" s="19"/>
-      <c r="X174" s="19"/>
-      <c r="Y174" s="19"/>
-      <c r="Z174" s="19"/>
-      <c r="AA174" s="19"/>
-      <c r="AB174" s="19"/>
-      <c r="AC174" s="19"/>
-      <c r="AD174" s="19"/>
-      <c r="AE174" s="19"/>
-      <c r="AF174" s="19"/>
-      <c r="AG174" s="19"/>
-      <c r="AH174" s="19"/>
-      <c r="AI174" s="20"/>
+      <c r="G174" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="24"/>
+      <c r="O174" s="24"/>
+      <c r="P174" s="24"/>
+      <c r="Q174" s="24"/>
+      <c r="R174" s="24"/>
+      <c r="S174" s="24"/>
+      <c r="T174" s="24"/>
+      <c r="U174" s="24"/>
+      <c r="V174" s="24"/>
+      <c r="W174" s="24"/>
+      <c r="X174" s="24"/>
+      <c r="Y174" s="24"/>
+      <c r="Z174" s="24"/>
+      <c r="AA174" s="24"/>
+      <c r="AB174" s="24"/>
+      <c r="AC174" s="24"/>
+      <c r="AD174" s="24"/>
+      <c r="AE174" s="24"/>
+      <c r="AF174" s="24"/>
+      <c r="AG174" s="24"/>
+      <c r="AH174" s="24"/>
+      <c r="AI174" s="25"/>
     </row>
     <row r="175" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E175" s="30"/>
       <c r="F175" s="46"/>
       <c r="G175" s="48" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -6441,7 +6433,7 @@
       <c r="E176" s="30"/>
       <c r="F176" s="46"/>
       <c r="G176" s="48" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -6475,311 +6467,305 @@
     <row r="177" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E177" s="30"/>
       <c r="F177" s="46"/>
-      <c r="G177" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H177" s="41"/>
-      <c r="I177" s="41"/>
-      <c r="J177" s="41"/>
-      <c r="K177" s="41"/>
-      <c r="L177" s="41"/>
-      <c r="M177" s="41"/>
-      <c r="N177" s="41"/>
-      <c r="O177" s="41"/>
-      <c r="P177" s="41"/>
-      <c r="Q177" s="41"/>
-      <c r="R177" s="41"/>
-      <c r="S177" s="41"/>
-      <c r="T177" s="41"/>
-      <c r="U177" s="41"/>
-      <c r="V177" s="41"/>
-      <c r="W177" s="41"/>
-      <c r="X177" s="41"/>
-      <c r="Y177" s="41"/>
-      <c r="Z177" s="41"/>
-      <c r="AA177" s="41"/>
-      <c r="AB177" s="41"/>
-      <c r="AC177" s="41"/>
-      <c r="AD177" s="41"/>
-      <c r="AE177" s="41"/>
-      <c r="AF177" s="41"/>
-      <c r="AG177" s="41"/>
-      <c r="AH177" s="41"/>
-      <c r="AI177" s="42"/>
+      <c r="G177" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="19"/>
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+      <c r="O177" s="19"/>
+      <c r="P177" s="19"/>
+      <c r="Q177" s="19"/>
+      <c r="R177" s="19"/>
+      <c r="S177" s="19"/>
+      <c r="T177" s="19"/>
+      <c r="U177" s="19"/>
+      <c r="V177" s="19"/>
+      <c r="W177" s="19"/>
+      <c r="X177" s="19"/>
+      <c r="Y177" s="19"/>
+      <c r="Z177" s="19"/>
+      <c r="AA177" s="19"/>
+      <c r="AB177" s="19"/>
+      <c r="AC177" s="19"/>
+      <c r="AD177" s="19"/>
+      <c r="AE177" s="19"/>
+      <c r="AF177" s="19"/>
+      <c r="AG177" s="19"/>
+      <c r="AH177" s="19"/>
+      <c r="AI177" s="20"/>
     </row>
     <row r="178" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E178" s="30"/>
       <c r="F178" s="46"/>
-      <c r="G178" s="50"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="19"/>
-      <c r="P178" s="19"/>
-      <c r="Q178" s="19"/>
-      <c r="R178" s="19"/>
-      <c r="S178" s="19"/>
-      <c r="T178" s="19"/>
-      <c r="U178" s="19"/>
-      <c r="V178" s="19"/>
-      <c r="W178" s="19"/>
-      <c r="X178" s="19"/>
-      <c r="Y178" s="19"/>
-      <c r="Z178" s="19"/>
-      <c r="AA178" s="19"/>
-      <c r="AB178" s="19"/>
-      <c r="AC178" s="19"/>
-      <c r="AD178" s="19"/>
-      <c r="AE178" s="19"/>
-      <c r="AF178" s="19"/>
-      <c r="AG178" s="19"/>
-      <c r="AH178" s="19"/>
-      <c r="AI178" s="19"/>
+      <c r="G178" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H178" s="41"/>
+      <c r="I178" s="41"/>
+      <c r="J178" s="41"/>
+      <c r="K178" s="41"/>
+      <c r="L178" s="41"/>
+      <c r="M178" s="41"/>
+      <c r="N178" s="41"/>
+      <c r="O178" s="41"/>
+      <c r="P178" s="41"/>
+      <c r="Q178" s="41"/>
+      <c r="R178" s="41"/>
+      <c r="S178" s="41"/>
+      <c r="T178" s="41"/>
+      <c r="U178" s="41"/>
+      <c r="V178" s="41"/>
+      <c r="W178" s="41"/>
+      <c r="X178" s="41"/>
+      <c r="Y178" s="41"/>
+      <c r="Z178" s="41"/>
+      <c r="AA178" s="41"/>
+      <c r="AB178" s="41"/>
+      <c r="AC178" s="41"/>
+      <c r="AD178" s="41"/>
+      <c r="AE178" s="41"/>
+      <c r="AF178" s="41"/>
+      <c r="AG178" s="41"/>
+      <c r="AH178" s="41"/>
+      <c r="AI178" s="42"/>
     </row>
     <row r="179" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E179" s="30" t="str">
-        <f>$D$139&amp;"2."</f>
+      <c r="E179" s="30"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="50"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="19"/>
+      <c r="P179" s="19"/>
+      <c r="Q179" s="19"/>
+      <c r="R179" s="19"/>
+      <c r="S179" s="19"/>
+      <c r="T179" s="19"/>
+      <c r="U179" s="19"/>
+      <c r="V179" s="19"/>
+      <c r="W179" s="19"/>
+      <c r="X179" s="19"/>
+      <c r="Y179" s="19"/>
+      <c r="Z179" s="19"/>
+      <c r="AA179" s="19"/>
+      <c r="AB179" s="19"/>
+      <c r="AC179" s="19"/>
+      <c r="AD179" s="19"/>
+      <c r="AE179" s="19"/>
+      <c r="AF179" s="19"/>
+      <c r="AG179" s="19"/>
+      <c r="AH179" s="19"/>
+      <c r="AI179" s="19"/>
+    </row>
+    <row r="180" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E180" s="30" t="str">
+        <f>$D$140&amp;"2."</f>
         <v>7.13.4.2.</v>
       </c>
-      <c r="F179" s="31" t="s">
+      <c r="F180" s="31" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="180" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E180" s="30"/>
-      <c r="F180" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" s="45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="181" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E181" s="30"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H181" s="28"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="29"/>
-      <c r="L181" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="M181" s="28"/>
-      <c r="N181" s="29"/>
-      <c r="O181" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="P181" s="28"/>
-      <c r="Q181" s="28"/>
-      <c r="R181" s="29"/>
-      <c r="S181" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="T181" s="28"/>
-      <c r="U181" s="28"/>
-      <c r="V181" s="28"/>
-      <c r="W181" s="28"/>
-      <c r="X181" s="28"/>
-      <c r="Y181" s="28"/>
-      <c r="Z181" s="28"/>
-      <c r="AA181" s="28"/>
-      <c r="AB181" s="28"/>
-      <c r="AC181" s="28"/>
-      <c r="AD181" s="28"/>
-      <c r="AE181" s="28"/>
-      <c r="AF181" s="28"/>
-      <c r="AG181" s="28"/>
-      <c r="AH181" s="28"/>
-      <c r="AI181" s="29"/>
+      <c r="F181" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" s="45" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="182" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E182" s="30"/>
       <c r="F182" s="31"/>
-      <c r="G182" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H182" s="43"/>
-      <c r="I182" s="43"/>
-      <c r="J182" s="43"/>
-      <c r="K182" s="44"/>
-      <c r="L182" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M182" s="43"/>
-      <c r="N182" s="44"/>
-      <c r="O182" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="P182" s="43"/>
-      <c r="Q182" s="43"/>
-      <c r="R182" s="44"/>
-      <c r="S182" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="T182" s="43"/>
-      <c r="U182" s="43"/>
-      <c r="V182" s="43"/>
-      <c r="W182" s="43"/>
-      <c r="X182" s="43"/>
-      <c r="Y182" s="43"/>
-      <c r="Z182" s="43"/>
-      <c r="AA182" s="43"/>
-      <c r="AB182" s="43"/>
-      <c r="AC182" s="43"/>
-      <c r="AD182" s="43"/>
-      <c r="AE182" s="43"/>
-      <c r="AF182" s="43"/>
-      <c r="AG182" s="43"/>
-      <c r="AH182" s="43"/>
-      <c r="AI182" s="44"/>
+      <c r="G182" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H182" s="28"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="29"/>
+      <c r="L182" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M182" s="28"/>
+      <c r="N182" s="29"/>
+      <c r="O182" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="P182" s="28"/>
+      <c r="Q182" s="28"/>
+      <c r="R182" s="29"/>
+      <c r="S182" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="T182" s="28"/>
+      <c r="U182" s="28"/>
+      <c r="V182" s="28"/>
+      <c r="W182" s="28"/>
+      <c r="X182" s="28"/>
+      <c r="Y182" s="28"/>
+      <c r="Z182" s="28"/>
+      <c r="AA182" s="28"/>
+      <c r="AB182" s="28"/>
+      <c r="AC182" s="28"/>
+      <c r="AD182" s="28"/>
+      <c r="AE182" s="28"/>
+      <c r="AF182" s="28"/>
+      <c r="AG182" s="28"/>
+      <c r="AH182" s="28"/>
+      <c r="AI182" s="29"/>
     </row>
     <row r="183" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E183" s="30"/>
       <c r="F183" s="31"/>
-      <c r="G183" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="20"/>
-      <c r="L183" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="M183" s="19"/>
-      <c r="N183" s="20"/>
-      <c r="O183" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="P183" s="19"/>
-      <c r="Q183" s="19"/>
-      <c r="R183" s="20"/>
-      <c r="S183" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="T183" s="19"/>
-      <c r="U183" s="19"/>
-      <c r="V183" s="19"/>
-      <c r="W183" s="19"/>
-      <c r="X183" s="19"/>
-      <c r="Y183" s="19"/>
-      <c r="Z183" s="19"/>
-      <c r="AA183" s="19"/>
-      <c r="AB183" s="19"/>
-      <c r="AC183" s="19"/>
-      <c r="AD183" s="19"/>
-      <c r="AE183" s="19"/>
-      <c r="AF183" s="19"/>
-      <c r="AG183" s="19"/>
-      <c r="AH183" s="19"/>
-      <c r="AI183" s="20"/>
+      <c r="G183" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43"/>
+      <c r="J183" s="43"/>
+      <c r="K183" s="44"/>
+      <c r="L183" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M183" s="43"/>
+      <c r="N183" s="44"/>
+      <c r="O183" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="P183" s="43"/>
+      <c r="Q183" s="43"/>
+      <c r="R183" s="44"/>
+      <c r="S183" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="T183" s="43"/>
+      <c r="U183" s="43"/>
+      <c r="V183" s="43"/>
+      <c r="W183" s="43"/>
+      <c r="X183" s="43"/>
+      <c r="Y183" s="43"/>
+      <c r="Z183" s="43"/>
+      <c r="AA183" s="43"/>
+      <c r="AB183" s="43"/>
+      <c r="AC183" s="43"/>
+      <c r="AD183" s="43"/>
+      <c r="AE183" s="43"/>
+      <c r="AF183" s="43"/>
+      <c r="AG183" s="43"/>
+      <c r="AH183" s="43"/>
+      <c r="AI183" s="44"/>
     </row>
     <row r="184" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E184" s="30"/>
       <c r="F184" s="31"/>
-      <c r="G184" s="40"/>
-      <c r="H184" s="41"/>
-      <c r="I184" s="41"/>
-      <c r="J184" s="41"/>
-      <c r="K184" s="42"/>
-      <c r="L184" s="41"/>
-      <c r="M184" s="41"/>
-      <c r="N184" s="42"/>
-      <c r="O184" s="41"/>
-      <c r="P184" s="41"/>
-      <c r="Q184" s="41"/>
-      <c r="R184" s="42"/>
-      <c r="S184" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="T184" s="41"/>
-      <c r="U184" s="41"/>
-      <c r="V184" s="41"/>
-      <c r="W184" s="41"/>
-      <c r="X184" s="41"/>
-      <c r="Y184" s="41"/>
-      <c r="Z184" s="41"/>
-      <c r="AA184" s="41"/>
-      <c r="AB184" s="41"/>
-      <c r="AC184" s="41"/>
-      <c r="AD184" s="41"/>
-      <c r="AE184" s="41"/>
-      <c r="AF184" s="41"/>
-      <c r="AG184" s="41"/>
-      <c r="AH184" s="41"/>
-      <c r="AI184" s="42"/>
+      <c r="G184" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M184" s="19"/>
+      <c r="N184" s="20"/>
+      <c r="O184" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P184" s="19"/>
+      <c r="Q184" s="19"/>
+      <c r="R184" s="20"/>
+      <c r="S184" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="T184" s="19"/>
+      <c r="U184" s="19"/>
+      <c r="V184" s="19"/>
+      <c r="W184" s="19"/>
+      <c r="X184" s="19"/>
+      <c r="Y184" s="19"/>
+      <c r="Z184" s="19"/>
+      <c r="AA184" s="19"/>
+      <c r="AB184" s="19"/>
+      <c r="AC184" s="19"/>
+      <c r="AD184" s="19"/>
+      <c r="AE184" s="19"/>
+      <c r="AF184" s="19"/>
+      <c r="AG184" s="19"/>
+      <c r="AH184" s="19"/>
+      <c r="AI184" s="20"/>
     </row>
     <row r="185" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E185" s="30"/>
       <c r="F185" s="31"/>
-      <c r="G185" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="H185" s="43"/>
-      <c r="I185" s="43"/>
-      <c r="J185" s="43"/>
-      <c r="K185" s="44"/>
-      <c r="L185" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="M185" s="43"/>
-      <c r="N185" s="44"/>
-      <c r="O185" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="P185" s="43"/>
-      <c r="Q185" s="43"/>
-      <c r="R185" s="44"/>
-      <c r="S185" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="T185" s="43"/>
-      <c r="U185" s="43"/>
-      <c r="V185" s="43"/>
-      <c r="W185" s="43"/>
-      <c r="X185" s="43"/>
-      <c r="Y185" s="43"/>
-      <c r="Z185" s="43"/>
-      <c r="AA185" s="43"/>
-      <c r="AB185" s="43"/>
-      <c r="AC185" s="43"/>
-      <c r="AD185" s="43"/>
-      <c r="AE185" s="43"/>
-      <c r="AF185" s="43"/>
-      <c r="AG185" s="43"/>
-      <c r="AH185" s="43"/>
-      <c r="AI185" s="44"/>
+      <c r="G185" s="40"/>
+      <c r="H185" s="41"/>
+      <c r="I185" s="41"/>
+      <c r="J185" s="41"/>
+      <c r="K185" s="42"/>
+      <c r="L185" s="41"/>
+      <c r="M185" s="41"/>
+      <c r="N185" s="42"/>
+      <c r="O185" s="41"/>
+      <c r="P185" s="41"/>
+      <c r="Q185" s="41"/>
+      <c r="R185" s="42"/>
+      <c r="S185" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="T185" s="41"/>
+      <c r="U185" s="41"/>
+      <c r="V185" s="41"/>
+      <c r="W185" s="41"/>
+      <c r="X185" s="41"/>
+      <c r="Y185" s="41"/>
+      <c r="Z185" s="41"/>
+      <c r="AA185" s="41"/>
+      <c r="AB185" s="41"/>
+      <c r="AC185" s="41"/>
+      <c r="AD185" s="41"/>
+      <c r="AE185" s="41"/>
+      <c r="AF185" s="41"/>
+      <c r="AG185" s="41"/>
+      <c r="AH185" s="41"/>
+      <c r="AI185" s="42"/>
     </row>
     <row r="186" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E186" s="30"/>
       <c r="F186" s="31"/>
       <c r="G186" s="32" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="H186" s="43"/>
       <c r="I186" s="43"/>
       <c r="J186" s="43"/>
       <c r="K186" s="44"/>
       <c r="L186" s="43" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="M186" s="43"/>
       <c r="N186" s="44"/>
       <c r="O186" s="43" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P186" s="43"/>
       <c r="Q186" s="43"/>
       <c r="R186" s="44"/>
       <c r="S186" s="43" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="T186" s="43"/>
       <c r="U186" s="43"/>
@@ -6801,293 +6787,297 @@
     <row r="187" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E187" s="30"/>
       <c r="F187" s="31"/>
+      <c r="G187" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H187" s="43"/>
+      <c r="I187" s="43"/>
+      <c r="J187" s="43"/>
+      <c r="K187" s="44"/>
+      <c r="L187" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="M187" s="43"/>
+      <c r="N187" s="44"/>
+      <c r="O187" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="P187" s="43"/>
+      <c r="Q187" s="43"/>
+      <c r="R187" s="44"/>
+      <c r="S187" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T187" s="43"/>
+      <c r="U187" s="43"/>
+      <c r="V187" s="43"/>
+      <c r="W187" s="43"/>
+      <c r="X187" s="43"/>
+      <c r="Y187" s="43"/>
+      <c r="Z187" s="43"/>
+      <c r="AA187" s="43"/>
+      <c r="AB187" s="43"/>
+      <c r="AC187" s="43"/>
+      <c r="AD187" s="43"/>
+      <c r="AE187" s="43"/>
+      <c r="AF187" s="43"/>
+      <c r="AG187" s="43"/>
+      <c r="AH187" s="43"/>
+      <c r="AI187" s="44"/>
     </row>
     <row r="188" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E188" s="30"/>
-      <c r="F188" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G188" s="45" t="s">
-        <v>104</v>
-      </c>
+      <c r="F188" s="31"/>
     </row>
     <row r="189" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E189" s="30"/>
-      <c r="F189" s="46"/>
-      <c r="G189" s="30" t="str">
-        <f>F188&amp;"-1"</f>
+      <c r="F189" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G189" s="45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="190" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E190" s="30"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="30" t="str">
+        <f>F189&amp;"-1"</f>
         <v>(2)-1</v>
       </c>
-      <c r="H189" s="45" t="s">
+      <c r="H190" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D190" s="19"/>
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="38"/>
-      <c r="H190" s="23" t="s">
+    <row r="191" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D191" s="19"/>
+      <c r="E191" s="37"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="38"/>
+      <c r="H191" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I190" s="24"/>
-      <c r="J190" s="24"/>
-      <c r="K190" s="24"/>
-      <c r="L190" s="24"/>
-      <c r="M190" s="24"/>
-      <c r="N190" s="24"/>
-      <c r="O190" s="24"/>
-      <c r="P190" s="24"/>
-      <c r="Q190" s="24"/>
-      <c r="R190" s="24"/>
-      <c r="S190" s="24"/>
-      <c r="T190" s="24"/>
-      <c r="U190" s="24"/>
-      <c r="V190" s="24"/>
-      <c r="W190" s="24"/>
-      <c r="X190" s="24"/>
-      <c r="Y190" s="24"/>
-      <c r="Z190" s="24"/>
-      <c r="AA190" s="24"/>
-      <c r="AB190" s="24"/>
-      <c r="AC190" s="24"/>
-      <c r="AD190" s="24"/>
-      <c r="AE190" s="24"/>
-      <c r="AF190" s="24"/>
-      <c r="AG190" s="24"/>
-      <c r="AH190" s="24"/>
-      <c r="AI190" s="25"/>
-    </row>
-    <row r="191" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E191" s="30"/>
-      <c r="F191" s="30"/>
-      <c r="G191" s="46"/>
-      <c r="H191" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="I191" s="41"/>
-      <c r="J191" s="41"/>
-      <c r="K191" s="41"/>
-      <c r="L191" s="41"/>
-      <c r="M191" s="41"/>
-      <c r="N191" s="41"/>
-      <c r="O191" s="41"/>
-      <c r="P191" s="41"/>
-      <c r="Q191" s="41"/>
-      <c r="R191" s="41"/>
-      <c r="S191" s="41"/>
-      <c r="T191" s="41"/>
-      <c r="U191" s="41"/>
-      <c r="V191" s="41"/>
-      <c r="W191" s="41"/>
-      <c r="X191" s="41"/>
-      <c r="Y191" s="41"/>
-      <c r="Z191" s="41"/>
-      <c r="AA191" s="41"/>
-      <c r="AB191" s="41"/>
-      <c r="AC191" s="41"/>
-      <c r="AD191" s="41"/>
-      <c r="AE191" s="41"/>
-      <c r="AF191" s="41"/>
-      <c r="AG191" s="41"/>
-      <c r="AH191" s="41"/>
-      <c r="AI191" s="42"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
+      <c r="N191" s="24"/>
+      <c r="O191" s="24"/>
+      <c r="P191" s="24"/>
+      <c r="Q191" s="24"/>
+      <c r="R191" s="24"/>
+      <c r="S191" s="24"/>
+      <c r="T191" s="24"/>
+      <c r="U191" s="24"/>
+      <c r="V191" s="24"/>
+      <c r="W191" s="24"/>
+      <c r="X191" s="24"/>
+      <c r="Y191" s="24"/>
+      <c r="Z191" s="24"/>
+      <c r="AA191" s="24"/>
+      <c r="AB191" s="24"/>
+      <c r="AC191" s="24"/>
+      <c r="AD191" s="24"/>
+      <c r="AE191" s="24"/>
+      <c r="AF191" s="24"/>
+      <c r="AG191" s="24"/>
+      <c r="AH191" s="24"/>
+      <c r="AI191" s="25"/>
     </row>
     <row r="192" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E192" s="30"/>
       <c r="F192" s="30"/>
       <c r="G192" s="46"/>
-      <c r="H192" s="45" t="s">
-        <v>155</v>
-      </c>
+      <c r="H192" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I192" s="41"/>
+      <c r="J192" s="41"/>
+      <c r="K192" s="41"/>
+      <c r="L192" s="41"/>
+      <c r="M192" s="41"/>
+      <c r="N192" s="41"/>
+      <c r="O192" s="41"/>
+      <c r="P192" s="41"/>
+      <c r="Q192" s="41"/>
+      <c r="R192" s="41"/>
+      <c r="S192" s="41"/>
+      <c r="T192" s="41"/>
+      <c r="U192" s="41"/>
+      <c r="V192" s="41"/>
+      <c r="W192" s="41"/>
+      <c r="X192" s="41"/>
+      <c r="Y192" s="41"/>
+      <c r="Z192" s="41"/>
+      <c r="AA192" s="41"/>
+      <c r="AB192" s="41"/>
+      <c r="AC192" s="41"/>
+      <c r="AD192" s="41"/>
+      <c r="AE192" s="41"/>
+      <c r="AF192" s="41"/>
+      <c r="AG192" s="41"/>
+      <c r="AH192" s="41"/>
+      <c r="AI192" s="42"/>
     </row>
     <row r="193" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E193" s="30"/>
       <c r="F193" s="30"/>
       <c r="G193" s="46"/>
       <c r="H193" s="45" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E194" s="30"/>
-      <c r="F194" s="46"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="45" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="195" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E195" s="30"/>
       <c r="F195" s="46"/>
-      <c r="G195" s="30" t="str">
-        <f>F188&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H195" s="45" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="196" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E196" s="30"/>
       <c r="F196" s="46"/>
-      <c r="G196" s="30"/>
-      <c r="H196" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
-      <c r="K196" s="28"/>
-      <c r="L196" s="28"/>
-      <c r="M196" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="N196" s="28"/>
-      <c r="O196" s="28"/>
-      <c r="P196" s="28"/>
-      <c r="Q196" s="29"/>
-      <c r="R196" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="S196" s="28"/>
-      <c r="T196" s="28"/>
-      <c r="U196" s="28"/>
-      <c r="V196" s="28"/>
-      <c r="W196" s="28"/>
-      <c r="X196" s="28"/>
-      <c r="Y196" s="28"/>
-      <c r="Z196" s="28"/>
-      <c r="AA196" s="28"/>
-      <c r="AB196" s="28"/>
-      <c r="AC196" s="28"/>
-      <c r="AD196" s="28"/>
-      <c r="AE196" s="28"/>
-      <c r="AF196" s="28"/>
-      <c r="AG196" s="28"/>
-      <c r="AH196" s="28"/>
-      <c r="AI196" s="29"/>
+      <c r="G196" s="30" t="str">
+        <f>F189&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H196" s="45" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="197" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E197" s="30"/>
-      <c r="H197" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I197" s="43"/>
-      <c r="J197" s="43"/>
-      <c r="K197" s="43"/>
-      <c r="L197" s="43"/>
-      <c r="M197" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="N197" s="43"/>
-      <c r="O197" s="43"/>
-      <c r="P197" s="43"/>
-      <c r="Q197" s="44"/>
-      <c r="R197" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="S197" s="43"/>
-      <c r="T197" s="43"/>
-      <c r="U197" s="43"/>
-      <c r="V197" s="43"/>
-      <c r="W197" s="43"/>
-      <c r="X197" s="43"/>
-      <c r="Y197" s="43"/>
-      <c r="Z197" s="43"/>
-      <c r="AA197" s="43"/>
-      <c r="AB197" s="43"/>
-      <c r="AC197" s="43"/>
-      <c r="AD197" s="43"/>
-      <c r="AE197" s="43"/>
-      <c r="AF197" s="43"/>
-      <c r="AG197" s="43"/>
-      <c r="AH197" s="43"/>
-      <c r="AI197" s="44"/>
+      <c r="F197" s="46"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I197" s="28"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="28"/>
+      <c r="L197" s="28"/>
+      <c r="M197" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N197" s="28"/>
+      <c r="O197" s="28"/>
+      <c r="P197" s="28"/>
+      <c r="Q197" s="29"/>
+      <c r="R197" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S197" s="28"/>
+      <c r="T197" s="28"/>
+      <c r="U197" s="28"/>
+      <c r="V197" s="28"/>
+      <c r="W197" s="28"/>
+      <c r="X197" s="28"/>
+      <c r="Y197" s="28"/>
+      <c r="Z197" s="28"/>
+      <c r="AA197" s="28"/>
+      <c r="AB197" s="28"/>
+      <c r="AC197" s="28"/>
+      <c r="AD197" s="28"/>
+      <c r="AE197" s="28"/>
+      <c r="AF197" s="28"/>
+      <c r="AG197" s="28"/>
+      <c r="AH197" s="28"/>
+      <c r="AI197" s="29"/>
     </row>
     <row r="198" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="30"/>
-      <c r="H198" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N198" s="19"/>
-      <c r="O198" s="19"/>
-      <c r="P198" s="19"/>
-      <c r="Q198" s="20"/>
-      <c r="R198" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="S198" s="19"/>
-      <c r="T198" s="19"/>
-      <c r="U198" s="19"/>
-      <c r="V198" s="19"/>
-      <c r="W198" s="19"/>
-      <c r="X198" s="19"/>
-      <c r="Y198" s="19"/>
-      <c r="Z198" s="19"/>
-      <c r="AA198" s="19"/>
-      <c r="AB198" s="19"/>
-      <c r="AC198" s="19"/>
-      <c r="AD198" s="19"/>
-      <c r="AE198" s="19"/>
-      <c r="AF198" s="19"/>
-      <c r="AG198" s="19"/>
-      <c r="AH198" s="19"/>
-      <c r="AI198" s="20"/>
+      <c r="H198" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I198" s="43"/>
+      <c r="J198" s="43"/>
+      <c r="K198" s="43"/>
+      <c r="L198" s="43"/>
+      <c r="M198" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="N198" s="43"/>
+      <c r="O198" s="43"/>
+      <c r="P198" s="43"/>
+      <c r="Q198" s="44"/>
+      <c r="R198" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="S198" s="43"/>
+      <c r="T198" s="43"/>
+      <c r="U198" s="43"/>
+      <c r="V198" s="43"/>
+      <c r="W198" s="43"/>
+      <c r="X198" s="43"/>
+      <c r="Y198" s="43"/>
+      <c r="Z198" s="43"/>
+      <c r="AA198" s="43"/>
+      <c r="AB198" s="43"/>
+      <c r="AC198" s="43"/>
+      <c r="AD198" s="43"/>
+      <c r="AE198" s="43"/>
+      <c r="AF198" s="43"/>
+      <c r="AG198" s="43"/>
+      <c r="AH198" s="43"/>
+      <c r="AI198" s="44"/>
     </row>
     <row r="199" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E199" s="30"/>
-      <c r="H199" s="40"/>
-      <c r="I199" s="41"/>
-      <c r="J199" s="41"/>
-      <c r="K199" s="41"/>
-      <c r="L199" s="41"/>
-      <c r="M199" s="40"/>
-      <c r="N199" s="41"/>
-      <c r="O199" s="41"/>
-      <c r="P199" s="41"/>
-      <c r="Q199" s="42"/>
-      <c r="R199" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="S199" s="41"/>
-      <c r="T199" s="41"/>
-      <c r="U199" s="41"/>
-      <c r="V199" s="41"/>
-      <c r="W199" s="41"/>
-      <c r="X199" s="41"/>
-      <c r="Y199" s="41"/>
-      <c r="Z199" s="41"/>
-      <c r="AA199" s="41"/>
-      <c r="AB199" s="41"/>
-      <c r="AC199" s="41"/>
-      <c r="AD199" s="41"/>
-      <c r="AE199" s="41"/>
-      <c r="AF199" s="41"/>
-      <c r="AG199" s="41"/>
-      <c r="AH199" s="41"/>
-      <c r="AI199" s="42"/>
+      <c r="H199" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="19"/>
+      <c r="M199" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N199" s="19"/>
+      <c r="O199" s="19"/>
+      <c r="P199" s="19"/>
+      <c r="Q199" s="20"/>
+      <c r="R199" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="S199" s="19"/>
+      <c r="T199" s="19"/>
+      <c r="U199" s="19"/>
+      <c r="V199" s="19"/>
+      <c r="W199" s="19"/>
+      <c r="X199" s="19"/>
+      <c r="Y199" s="19"/>
+      <c r="Z199" s="19"/>
+      <c r="AA199" s="19"/>
+      <c r="AB199" s="19"/>
+      <c r="AC199" s="19"/>
+      <c r="AD199" s="19"/>
+      <c r="AE199" s="19"/>
+      <c r="AF199" s="19"/>
+      <c r="AG199" s="19"/>
+      <c r="AH199" s="19"/>
+      <c r="AI199" s="20"/>
     </row>
     <row r="200" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E200" s="30"/>
-      <c r="H200" s="40" t="s">
-        <v>109</v>
-      </c>
+      <c r="H200" s="40"/>
       <c r="I200" s="41"/>
       <c r="J200" s="41"/>
       <c r="K200" s="41"/>
       <c r="L200" s="41"/>
-      <c r="M200" s="40" t="s">
-        <v>114</v>
-      </c>
+      <c r="M200" s="40"/>
       <c r="N200" s="41"/>
       <c r="O200" s="41"/>
       <c r="P200" s="41"/>
       <c r="Q200" s="42"/>
       <c r="R200" s="41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="S200" s="41"/>
       <c r="T200" s="41"/>
@@ -7110,21 +7100,21 @@
     <row r="201" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E201" s="30"/>
       <c r="H201" s="40" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="I201" s="41"/>
       <c r="J201" s="41"/>
       <c r="K201" s="41"/>
       <c r="L201" s="41"/>
       <c r="M201" s="40" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="N201" s="41"/>
       <c r="O201" s="41"/>
       <c r="P201" s="41"/>
       <c r="Q201" s="42"/>
       <c r="R201" s="41" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="S201" s="41"/>
       <c r="T201" s="41"/>
@@ -7146,96 +7136,96 @@
     </row>
     <row r="202" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E202" s="30"/>
-      <c r="H202" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I202" s="43"/>
-      <c r="J202" s="43"/>
-      <c r="K202" s="43"/>
-      <c r="L202" s="43"/>
-      <c r="M202" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="N202" s="43"/>
-      <c r="O202" s="43"/>
-      <c r="P202" s="43"/>
-      <c r="Q202" s="44"/>
-      <c r="R202" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="S202" s="43"/>
-      <c r="T202" s="43"/>
-      <c r="U202" s="43"/>
-      <c r="V202" s="43"/>
-      <c r="W202" s="43"/>
-      <c r="X202" s="43"/>
-      <c r="Y202" s="43"/>
-      <c r="Z202" s="43"/>
-      <c r="AA202" s="43"/>
-      <c r="AB202" s="43"/>
-      <c r="AC202" s="43"/>
-      <c r="AD202" s="43"/>
-      <c r="AE202" s="43"/>
-      <c r="AF202" s="43"/>
-      <c r="AG202" s="43"/>
-      <c r="AH202" s="43"/>
-      <c r="AI202" s="44"/>
+      <c r="H202" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I202" s="41"/>
+      <c r="J202" s="41"/>
+      <c r="K202" s="41"/>
+      <c r="L202" s="41"/>
+      <c r="M202" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N202" s="41"/>
+      <c r="O202" s="41"/>
+      <c r="P202" s="41"/>
+      <c r="Q202" s="42"/>
+      <c r="R202" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="S202" s="41"/>
+      <c r="T202" s="41"/>
+      <c r="U202" s="41"/>
+      <c r="V202" s="41"/>
+      <c r="W202" s="41"/>
+      <c r="X202" s="41"/>
+      <c r="Y202" s="41"/>
+      <c r="Z202" s="41"/>
+      <c r="AA202" s="41"/>
+      <c r="AB202" s="41"/>
+      <c r="AC202" s="41"/>
+      <c r="AD202" s="41"/>
+      <c r="AE202" s="41"/>
+      <c r="AF202" s="41"/>
+      <c r="AG202" s="41"/>
+      <c r="AH202" s="41"/>
+      <c r="AI202" s="42"/>
     </row>
     <row r="203" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E203" s="30"/>
-      <c r="H203" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I203" s="41"/>
-      <c r="J203" s="41"/>
-      <c r="K203" s="41"/>
-      <c r="L203" s="41"/>
-      <c r="M203" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N203" s="41"/>
-      <c r="O203" s="41"/>
-      <c r="P203" s="41"/>
-      <c r="Q203" s="42"/>
-      <c r="R203" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="S203" s="41"/>
-      <c r="T203" s="41"/>
-      <c r="U203" s="41"/>
-      <c r="V203" s="41"/>
-      <c r="W203" s="41"/>
-      <c r="X203" s="41"/>
-      <c r="Y203" s="41"/>
-      <c r="Z203" s="41"/>
-      <c r="AA203" s="41"/>
-      <c r="AB203" s="41"/>
-      <c r="AC203" s="41"/>
-      <c r="AD203" s="41"/>
-      <c r="AE203" s="41"/>
-      <c r="AF203" s="41"/>
-      <c r="AG203" s="41"/>
-      <c r="AH203" s="41"/>
-      <c r="AI203" s="42"/>
+      <c r="H203" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I203" s="43"/>
+      <c r="J203" s="43"/>
+      <c r="K203" s="43"/>
+      <c r="L203" s="43"/>
+      <c r="M203" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="N203" s="43"/>
+      <c r="O203" s="43"/>
+      <c r="P203" s="43"/>
+      <c r="Q203" s="44"/>
+      <c r="R203" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="S203" s="43"/>
+      <c r="T203" s="43"/>
+      <c r="U203" s="43"/>
+      <c r="V203" s="43"/>
+      <c r="W203" s="43"/>
+      <c r="X203" s="43"/>
+      <c r="Y203" s="43"/>
+      <c r="Z203" s="43"/>
+      <c r="AA203" s="43"/>
+      <c r="AB203" s="43"/>
+      <c r="AC203" s="43"/>
+      <c r="AD203" s="43"/>
+      <c r="AE203" s="43"/>
+      <c r="AF203" s="43"/>
+      <c r="AG203" s="43"/>
+      <c r="AH203" s="43"/>
+      <c r="AI203" s="44"/>
     </row>
     <row r="204" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E204" s="30"/>
       <c r="H204" s="40" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I204" s="41"/>
       <c r="J204" s="41"/>
       <c r="K204" s="41"/>
       <c r="L204" s="41"/>
       <c r="M204" s="40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N204" s="41"/>
       <c r="O204" s="41"/>
       <c r="P204" s="41"/>
       <c r="Q204" s="42"/>
       <c r="R204" s="41" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="S204" s="41"/>
       <c r="T204" s="41"/>
@@ -7258,21 +7248,21 @@
     <row r="205" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E205" s="30"/>
       <c r="H205" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I205" s="41"/>
       <c r="J205" s="41"/>
       <c r="K205" s="41"/>
       <c r="L205" s="41"/>
       <c r="M205" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N205" s="41"/>
       <c r="O205" s="41"/>
       <c r="P205" s="41"/>
       <c r="Q205" s="42"/>
       <c r="R205" s="41" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="S205" s="41"/>
       <c r="T205" s="41"/>
@@ -7294,370 +7284,374 @@
     </row>
     <row r="206" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E206" s="30"/>
-      <c r="H206" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I206" s="24"/>
-      <c r="J206" s="24"/>
-      <c r="K206" s="24"/>
-      <c r="L206" s="25"/>
-      <c r="M206" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="N206" s="24"/>
-      <c r="O206" s="24"/>
-      <c r="P206" s="24"/>
-      <c r="Q206" s="25"/>
-      <c r="R206" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="S206" s="24"/>
-      <c r="T206" s="24"/>
-      <c r="U206" s="24"/>
-      <c r="V206" s="24"/>
-      <c r="W206" s="24"/>
-      <c r="X206" s="24"/>
-      <c r="Y206" s="24"/>
-      <c r="Z206" s="24"/>
-      <c r="AA206" s="24"/>
-      <c r="AB206" s="24"/>
-      <c r="AC206" s="24"/>
-      <c r="AD206" s="24"/>
-      <c r="AE206" s="24"/>
-      <c r="AF206" s="24"/>
-      <c r="AG206" s="24"/>
-      <c r="AH206" s="24"/>
-      <c r="AI206" s="25"/>
+      <c r="H206" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I206" s="41"/>
+      <c r="J206" s="41"/>
+      <c r="K206" s="41"/>
+      <c r="L206" s="41"/>
+      <c r="M206" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="N206" s="41"/>
+      <c r="O206" s="41"/>
+      <c r="P206" s="41"/>
+      <c r="Q206" s="42"/>
+      <c r="R206" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="S206" s="41"/>
+      <c r="T206" s="41"/>
+      <c r="U206" s="41"/>
+      <c r="V206" s="41"/>
+      <c r="W206" s="41"/>
+      <c r="X206" s="41"/>
+      <c r="Y206" s="41"/>
+      <c r="Z206" s="41"/>
+      <c r="AA206" s="41"/>
+      <c r="AB206" s="41"/>
+      <c r="AC206" s="41"/>
+      <c r="AD206" s="41"/>
+      <c r="AE206" s="41"/>
+      <c r="AF206" s="41"/>
+      <c r="AG206" s="41"/>
+      <c r="AH206" s="41"/>
+      <c r="AI206" s="42"/>
     </row>
     <row r="207" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E207" s="30"/>
-      <c r="H207" s="40"/>
-      <c r="I207" s="41"/>
-      <c r="J207" s="41"/>
-      <c r="K207" s="41"/>
-      <c r="L207" s="42"/>
-      <c r="M207" s="40"/>
-      <c r="N207" s="41"/>
-      <c r="O207" s="41"/>
-      <c r="P207" s="41"/>
-      <c r="Q207" s="42"/>
-      <c r="R207" s="40" t="str">
+      <c r="H207" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I207" s="24"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="24"/>
+      <c r="L207" s="25"/>
+      <c r="M207" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="N207" s="24"/>
+      <c r="O207" s="24"/>
+      <c r="P207" s="24"/>
+      <c r="Q207" s="25"/>
+      <c r="R207" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="S207" s="24"/>
+      <c r="T207" s="24"/>
+      <c r="U207" s="24"/>
+      <c r="V207" s="24"/>
+      <c r="W207" s="24"/>
+      <c r="X207" s="24"/>
+      <c r="Y207" s="24"/>
+      <c r="Z207" s="24"/>
+      <c r="AA207" s="24"/>
+      <c r="AB207" s="24"/>
+      <c r="AC207" s="24"/>
+      <c r="AD207" s="24"/>
+      <c r="AE207" s="24"/>
+      <c r="AF207" s="24"/>
+      <c r="AG207" s="24"/>
+      <c r="AH207" s="24"/>
+      <c r="AI207" s="25"/>
+    </row>
+    <row r="208" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E208" s="30"/>
+      <c r="H208" s="40"/>
+      <c r="I208" s="41"/>
+      <c r="J208" s="41"/>
+      <c r="K208" s="41"/>
+      <c r="L208" s="42"/>
+      <c r="M208" s="40"/>
+      <c r="N208" s="41"/>
+      <c r="O208" s="41"/>
+      <c r="P208" s="41"/>
+      <c r="Q208" s="42"/>
+      <c r="R208" s="40" t="str">
         <f>"ログの種類ごとのフォーマットは"&amp;$D$104&amp;$E$104&amp;"を参照。"</f>
         <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
       </c>
-      <c r="S207" s="41"/>
-      <c r="T207" s="41"/>
-      <c r="U207" s="41"/>
-      <c r="V207" s="41"/>
-      <c r="W207" s="41"/>
-      <c r="X207" s="41"/>
-      <c r="Y207" s="41"/>
-      <c r="Z207" s="41"/>
-      <c r="AA207" s="41"/>
-      <c r="AB207" s="41"/>
-      <c r="AC207" s="41"/>
-      <c r="AD207" s="41"/>
-      <c r="AE207" s="41"/>
-      <c r="AF207" s="41"/>
-      <c r="AG207" s="41"/>
-      <c r="AH207" s="41"/>
-      <c r="AI207" s="42"/>
-    </row>
-    <row r="208" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E208" s="30"/>
-      <c r="H208" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="I208" s="24"/>
-      <c r="J208" s="24"/>
-      <c r="K208" s="24"/>
-      <c r="L208" s="25"/>
-      <c r="M208" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N208" s="24"/>
-      <c r="O208" s="24"/>
-      <c r="P208" s="24"/>
-      <c r="Q208" s="25"/>
-      <c r="R208" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="S208" s="24"/>
-      <c r="T208" s="24"/>
-      <c r="U208" s="24"/>
-      <c r="V208" s="24"/>
-      <c r="W208" s="24"/>
-      <c r="X208" s="24"/>
-      <c r="Y208" s="24"/>
-      <c r="Z208" s="24"/>
-      <c r="AA208" s="24"/>
-      <c r="AB208" s="24"/>
-      <c r="AC208" s="24"/>
-      <c r="AD208" s="24"/>
-      <c r="AE208" s="24"/>
-      <c r="AF208" s="24"/>
-      <c r="AG208" s="24"/>
-      <c r="AH208" s="24"/>
-      <c r="AI208" s="25"/>
+      <c r="S208" s="41"/>
+      <c r="T208" s="41"/>
+      <c r="U208" s="41"/>
+      <c r="V208" s="41"/>
+      <c r="W208" s="41"/>
+      <c r="X208" s="41"/>
+      <c r="Y208" s="41"/>
+      <c r="Z208" s="41"/>
+      <c r="AA208" s="41"/>
+      <c r="AB208" s="41"/>
+      <c r="AC208" s="41"/>
+      <c r="AD208" s="41"/>
+      <c r="AE208" s="41"/>
+      <c r="AF208" s="41"/>
+      <c r="AG208" s="41"/>
+      <c r="AH208" s="41"/>
+      <c r="AI208" s="42"/>
     </row>
     <row r="209" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E209" s="30"/>
-      <c r="H209" s="40"/>
-      <c r="I209" s="41"/>
-      <c r="J209" s="41"/>
-      <c r="K209" s="41"/>
-      <c r="L209" s="42"/>
-      <c r="M209" s="40"/>
-      <c r="N209" s="41"/>
-      <c r="O209" s="41"/>
-      <c r="P209" s="41"/>
-      <c r="Q209" s="42"/>
-      <c r="R209" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="S209" s="41"/>
-      <c r="T209" s="41"/>
-      <c r="U209" s="41"/>
-      <c r="V209" s="41"/>
-      <c r="W209" s="41"/>
-      <c r="X209" s="41"/>
-      <c r="Y209" s="41"/>
-      <c r="Z209" s="41"/>
-      <c r="AA209" s="41"/>
-      <c r="AB209" s="41"/>
-      <c r="AC209" s="41"/>
-      <c r="AD209" s="41"/>
-      <c r="AE209" s="41"/>
-      <c r="AF209" s="41"/>
-      <c r="AG209" s="41"/>
-      <c r="AH209" s="41"/>
-      <c r="AI209" s="42"/>
+      <c r="H209" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I209" s="24"/>
+      <c r="J209" s="24"/>
+      <c r="K209" s="24"/>
+      <c r="L209" s="25"/>
+      <c r="M209" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N209" s="24"/>
+      <c r="O209" s="24"/>
+      <c r="P209" s="24"/>
+      <c r="Q209" s="25"/>
+      <c r="R209" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="S209" s="24"/>
+      <c r="T209" s="24"/>
+      <c r="U209" s="24"/>
+      <c r="V209" s="24"/>
+      <c r="W209" s="24"/>
+      <c r="X209" s="24"/>
+      <c r="Y209" s="24"/>
+      <c r="Z209" s="24"/>
+      <c r="AA209" s="24"/>
+      <c r="AB209" s="24"/>
+      <c r="AC209" s="24"/>
+      <c r="AD209" s="24"/>
+      <c r="AE209" s="24"/>
+      <c r="AF209" s="24"/>
+      <c r="AG209" s="24"/>
+      <c r="AH209" s="24"/>
+      <c r="AI209" s="25"/>
     </row>
     <row r="210" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E210" s="30"/>
-      <c r="H210" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19"/>
-      <c r="K210" s="19"/>
-      <c r="L210" s="19"/>
-      <c r="M210" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="N210" s="19"/>
-      <c r="O210" s="19"/>
-      <c r="P210" s="19"/>
-      <c r="Q210" s="20"/>
-      <c r="R210" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="S210" s="19"/>
-      <c r="T210" s="19"/>
-      <c r="U210" s="19"/>
-      <c r="V210" s="19"/>
-      <c r="W210" s="19"/>
-      <c r="X210" s="19"/>
-      <c r="Y210" s="19"/>
-      <c r="Z210" s="19"/>
-      <c r="AA210" s="19"/>
-      <c r="AB210" s="19"/>
-      <c r="AC210" s="19"/>
-      <c r="AD210" s="19"/>
-      <c r="AE210" s="19"/>
-      <c r="AF210" s="19"/>
-      <c r="AG210" s="19"/>
-      <c r="AH210" s="19"/>
-      <c r="AI210" s="20"/>
+      <c r="H210" s="40"/>
+      <c r="I210" s="41"/>
+      <c r="J210" s="41"/>
+      <c r="K210" s="41"/>
+      <c r="L210" s="42"/>
+      <c r="M210" s="40"/>
+      <c r="N210" s="41"/>
+      <c r="O210" s="41"/>
+      <c r="P210" s="41"/>
+      <c r="Q210" s="42"/>
+      <c r="R210" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="S210" s="41"/>
+      <c r="T210" s="41"/>
+      <c r="U210" s="41"/>
+      <c r="V210" s="41"/>
+      <c r="W210" s="41"/>
+      <c r="X210" s="41"/>
+      <c r="Y210" s="41"/>
+      <c r="Z210" s="41"/>
+      <c r="AA210" s="41"/>
+      <c r="AB210" s="41"/>
+      <c r="AC210" s="41"/>
+      <c r="AD210" s="41"/>
+      <c r="AE210" s="41"/>
+      <c r="AF210" s="41"/>
+      <c r="AG210" s="41"/>
+      <c r="AH210" s="41"/>
+      <c r="AI210" s="42"/>
     </row>
     <row r="211" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E211" s="30"/>
-      <c r="H211" s="40"/>
-      <c r="I211" s="41"/>
-      <c r="J211" s="41"/>
-      <c r="K211" s="41"/>
-      <c r="L211" s="41"/>
-      <c r="M211" s="40"/>
-      <c r="N211" s="41"/>
-      <c r="O211" s="41"/>
-      <c r="P211" s="41"/>
-      <c r="Q211" s="42"/>
-      <c r="R211" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="S211" s="41"/>
-      <c r="T211" s="41"/>
-      <c r="U211" s="41"/>
-      <c r="V211" s="41"/>
-      <c r="W211" s="41"/>
-      <c r="X211" s="41"/>
-      <c r="Y211" s="41"/>
-      <c r="Z211" s="41"/>
-      <c r="AA211" s="41"/>
-      <c r="AB211" s="41"/>
-      <c r="AC211" s="41"/>
-      <c r="AD211" s="41"/>
-      <c r="AE211" s="41"/>
-      <c r="AF211" s="41"/>
-      <c r="AG211" s="41"/>
-      <c r="AH211" s="41"/>
-      <c r="AI211" s="42"/>
+      <c r="H211" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N211" s="19"/>
+      <c r="O211" s="19"/>
+      <c r="P211" s="19"/>
+      <c r="Q211" s="20"/>
+      <c r="R211" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="S211" s="19"/>
+      <c r="T211" s="19"/>
+      <c r="U211" s="19"/>
+      <c r="V211" s="19"/>
+      <c r="W211" s="19"/>
+      <c r="X211" s="19"/>
+      <c r="Y211" s="19"/>
+      <c r="Z211" s="19"/>
+      <c r="AA211" s="19"/>
+      <c r="AB211" s="19"/>
+      <c r="AC211" s="19"/>
+      <c r="AD211" s="19"/>
+      <c r="AE211" s="19"/>
+      <c r="AF211" s="19"/>
+      <c r="AG211" s="19"/>
+      <c r="AH211" s="19"/>
+      <c r="AI211" s="20"/>
     </row>
     <row r="212" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E212" s="30"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="19"/>
-      <c r="K212" s="19"/>
-      <c r="L212" s="19"/>
-      <c r="M212" s="19"/>
-      <c r="N212" s="19"/>
-      <c r="O212" s="19"/>
-      <c r="P212" s="19"/>
-      <c r="Q212" s="19"/>
-      <c r="R212" s="19"/>
-      <c r="S212" s="19"/>
-      <c r="T212" s="19"/>
-      <c r="U212" s="19"/>
-      <c r="V212" s="19"/>
-      <c r="W212" s="19"/>
-      <c r="X212" s="19"/>
-      <c r="Y212" s="19"/>
-      <c r="Z212" s="19"/>
-      <c r="AA212" s="19"/>
-      <c r="AB212" s="19"/>
-      <c r="AC212" s="19"/>
-      <c r="AD212" s="19"/>
-      <c r="AE212" s="19"/>
-      <c r="AF212" s="19"/>
-      <c r="AG212" s="19"/>
-      <c r="AH212" s="19"/>
-      <c r="AI212" s="19"/>
+      <c r="H212" s="40"/>
+      <c r="I212" s="41"/>
+      <c r="J212" s="41"/>
+      <c r="K212" s="41"/>
+      <c r="L212" s="41"/>
+      <c r="M212" s="40"/>
+      <c r="N212" s="41"/>
+      <c r="O212" s="41"/>
+      <c r="P212" s="41"/>
+      <c r="Q212" s="42"/>
+      <c r="R212" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="S212" s="41"/>
+      <c r="T212" s="41"/>
+      <c r="U212" s="41"/>
+      <c r="V212" s="41"/>
+      <c r="W212" s="41"/>
+      <c r="X212" s="41"/>
+      <c r="Y212" s="41"/>
+      <c r="Z212" s="41"/>
+      <c r="AA212" s="41"/>
+      <c r="AB212" s="41"/>
+      <c r="AC212" s="41"/>
+      <c r="AD212" s="41"/>
+      <c r="AE212" s="41"/>
+      <c r="AF212" s="41"/>
+      <c r="AG212" s="41"/>
+      <c r="AH212" s="41"/>
+      <c r="AI212" s="42"/>
     </row>
     <row r="213" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E213" s="30"/>
-      <c r="F213" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" s="45" t="s">
-        <v>16</v>
-      </c>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="19"/>
+      <c r="K213" s="19"/>
+      <c r="L213" s="19"/>
+      <c r="M213" s="19"/>
+      <c r="N213" s="19"/>
+      <c r="O213" s="19"/>
+      <c r="P213" s="19"/>
+      <c r="Q213" s="19"/>
+      <c r="R213" s="19"/>
+      <c r="S213" s="19"/>
+      <c r="T213" s="19"/>
+      <c r="U213" s="19"/>
+      <c r="V213" s="19"/>
+      <c r="W213" s="19"/>
+      <c r="X213" s="19"/>
+      <c r="Y213" s="19"/>
+      <c r="Z213" s="19"/>
+      <c r="AA213" s="19"/>
+      <c r="AB213" s="19"/>
+      <c r="AC213" s="19"/>
+      <c r="AD213" s="19"/>
+      <c r="AE213" s="19"/>
+      <c r="AF213" s="19"/>
+      <c r="AG213" s="19"/>
+      <c r="AH213" s="19"/>
+      <c r="AI213" s="19"/>
     </row>
     <row r="214" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E214" s="30"/>
-      <c r="F214" s="46"/>
+      <c r="F214" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="G214" s="45" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E215" s="30"/>
       <c r="F215" s="46"/>
-      <c r="G215" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H215" s="24"/>
-      <c r="I215" s="24"/>
-      <c r="J215" s="24"/>
-      <c r="K215" s="24"/>
-      <c r="L215" s="24"/>
-      <c r="M215" s="24"/>
-      <c r="N215" s="24"/>
-      <c r="O215" s="24"/>
-      <c r="P215" s="24"/>
-      <c r="Q215" s="24"/>
-      <c r="R215" s="24"/>
-      <c r="S215" s="24"/>
-      <c r="T215" s="24"/>
-      <c r="U215" s="24"/>
-      <c r="V215" s="24"/>
-      <c r="W215" s="24"/>
-      <c r="X215" s="24"/>
-      <c r="Y215" s="24"/>
-      <c r="Z215" s="24"/>
-      <c r="AA215" s="24"/>
-      <c r="AB215" s="24"/>
-      <c r="AC215" s="24"/>
-      <c r="AD215" s="24"/>
-      <c r="AE215" s="24"/>
-      <c r="AF215" s="24"/>
-      <c r="AG215" s="24"/>
-      <c r="AH215" s="24"/>
-      <c r="AI215" s="25"/>
+      <c r="G215" s="45" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="216" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E216" s="30"/>
       <c r="F216" s="46"/>
-      <c r="G216" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H216" s="41"/>
-      <c r="I216" s="41"/>
-      <c r="J216" s="41"/>
-      <c r="K216" s="41"/>
-      <c r="L216" s="41"/>
-      <c r="M216" s="41"/>
-      <c r="N216" s="41"/>
-      <c r="O216" s="41"/>
-      <c r="P216" s="41"/>
-      <c r="Q216" s="41"/>
-      <c r="R216" s="41"/>
-      <c r="S216" s="41"/>
-      <c r="T216" s="41"/>
-      <c r="U216" s="41"/>
-      <c r="V216" s="41"/>
-      <c r="W216" s="41"/>
-      <c r="X216" s="41"/>
-      <c r="Y216" s="41"/>
-      <c r="Z216" s="41"/>
-      <c r="AA216" s="41"/>
-      <c r="AB216" s="41"/>
-      <c r="AC216" s="41"/>
-      <c r="AD216" s="41"/>
-      <c r="AE216" s="41"/>
-      <c r="AF216" s="41"/>
-      <c r="AG216" s="41"/>
-      <c r="AH216" s="41"/>
-      <c r="AI216" s="42"/>
+      <c r="G216" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H216" s="24"/>
+      <c r="I216" s="24"/>
+      <c r="J216" s="24"/>
+      <c r="K216" s="24"/>
+      <c r="L216" s="24"/>
+      <c r="M216" s="24"/>
+      <c r="N216" s="24"/>
+      <c r="O216" s="24"/>
+      <c r="P216" s="24"/>
+      <c r="Q216" s="24"/>
+      <c r="R216" s="24"/>
+      <c r="S216" s="24"/>
+      <c r="T216" s="24"/>
+      <c r="U216" s="24"/>
+      <c r="V216" s="24"/>
+      <c r="W216" s="24"/>
+      <c r="X216" s="24"/>
+      <c r="Y216" s="24"/>
+      <c r="Z216" s="24"/>
+      <c r="AA216" s="24"/>
+      <c r="AB216" s="24"/>
+      <c r="AC216" s="24"/>
+      <c r="AD216" s="24"/>
+      <c r="AE216" s="24"/>
+      <c r="AF216" s="24"/>
+      <c r="AG216" s="24"/>
+      <c r="AH216" s="24"/>
+      <c r="AI216" s="25"/>
     </row>
     <row r="217" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E217" s="30"/>
       <c r="F217" s="46"/>
-      <c r="G217" s="50"/>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="19"/>
-      <c r="K217" s="19"/>
-      <c r="L217" s="19"/>
-      <c r="M217" s="19"/>
-      <c r="N217" s="19"/>
-      <c r="O217" s="19"/>
-      <c r="P217" s="19"/>
-      <c r="Q217" s="19"/>
-      <c r="R217" s="19"/>
-      <c r="S217" s="19"/>
-      <c r="T217" s="19"/>
-      <c r="U217" s="19"/>
-      <c r="V217" s="19"/>
-      <c r="W217" s="19"/>
-      <c r="X217" s="19"/>
-      <c r="Y217" s="19"/>
-      <c r="Z217" s="19"/>
-      <c r="AA217" s="19"/>
-      <c r="AB217" s="19"/>
-      <c r="AC217" s="19"/>
-      <c r="AD217" s="19"/>
-      <c r="AE217" s="19"/>
-      <c r="AF217" s="19"/>
-      <c r="AG217" s="19"/>
-      <c r="AH217" s="19"/>
-      <c r="AI217" s="19"/>
+      <c r="G217" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H217" s="41"/>
+      <c r="I217" s="41"/>
+      <c r="J217" s="41"/>
+      <c r="K217" s="41"/>
+      <c r="L217" s="41"/>
+      <c r="M217" s="41"/>
+      <c r="N217" s="41"/>
+      <c r="O217" s="41"/>
+      <c r="P217" s="41"/>
+      <c r="Q217" s="41"/>
+      <c r="R217" s="41"/>
+      <c r="S217" s="41"/>
+      <c r="T217" s="41"/>
+      <c r="U217" s="41"/>
+      <c r="V217" s="41"/>
+      <c r="W217" s="41"/>
+      <c r="X217" s="41"/>
+      <c r="Y217" s="41"/>
+      <c r="Z217" s="41"/>
+      <c r="AA217" s="41"/>
+      <c r="AB217" s="41"/>
+      <c r="AC217" s="41"/>
+      <c r="AD217" s="41"/>
+      <c r="AE217" s="41"/>
+      <c r="AF217" s="41"/>
+      <c r="AG217" s="41"/>
+      <c r="AH217" s="41"/>
+      <c r="AI217" s="42"/>
     </row>
     <row r="218" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E218" s="30"/>
       <c r="F218" s="46"/>
       <c r="G218" s="50"/>
-      <c r="H218" s="50"/>
+      <c r="H218" s="19"/>
       <c r="I218" s="19"/>
       <c r="J218" s="19"/>
       <c r="K218" s="19"/>
@@ -7686,25 +7680,48 @@
       <c r="AH218" s="19"/>
       <c r="AI218" s="19"/>
     </row>
-    <row r="219" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="45"/>
-      <c r="B219" s="45"/>
-      <c r="D219" s="46" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>7.13.5.</v>
-      </c>
-      <c r="E219" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F219" s="31"/>
-      <c r="AF219" s="45"/>
-      <c r="AG219" s="45"/>
+    <row r="219" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E219" s="30"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="50"/>
+      <c r="H219" s="50"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="19"/>
+      <c r="K219" s="19"/>
+      <c r="L219" s="19"/>
+      <c r="M219" s="19"/>
+      <c r="N219" s="19"/>
+      <c r="O219" s="19"/>
+      <c r="P219" s="19"/>
+      <c r="Q219" s="19"/>
+      <c r="R219" s="19"/>
+      <c r="S219" s="19"/>
+      <c r="T219" s="19"/>
+      <c r="U219" s="19"/>
+      <c r="V219" s="19"/>
+      <c r="W219" s="19"/>
+      <c r="X219" s="19"/>
+      <c r="Y219" s="19"/>
+      <c r="Z219" s="19"/>
+      <c r="AA219" s="19"/>
+      <c r="AB219" s="19"/>
+      <c r="AC219" s="19"/>
+      <c r="AD219" s="19"/>
+      <c r="AE219" s="19"/>
+      <c r="AF219" s="19"/>
+      <c r="AG219" s="19"/>
+      <c r="AH219" s="19"/>
+      <c r="AI219" s="19"/>
     </row>
     <row r="220" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="45"/>
       <c r="B220" s="45"/>
+      <c r="D220" s="46" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>7.13.5.</v>
+      </c>
       <c r="E220" s="31" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="F220" s="31"/>
       <c r="AF220" s="45"/>
@@ -7713,13 +7730,23 @@
     <row r="221" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="45"/>
       <c r="B221" s="45"/>
-      <c r="E221" s="30"/>
+      <c r="E221" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F221" s="31"/>
       <c r="AF221" s="45"/>
       <c r="AG221" s="45"/>
     </row>
-    <row r="222" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="45"/>
+      <c r="B222" s="45"/>
+      <c r="E222" s="30"/>
       <c r="AF222" s="45"/>
       <c r="AG222" s="45"/>
+    </row>
+    <row r="223" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF223" s="45"/>
+      <c r="AG223" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -7752,9 +7779,9 @@
     <brk id="39" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
     <brk id="103" max="34" man="1"/>
-    <brk id="138" max="34" man="1"/>
-    <brk id="178" max="34" man="1"/>
-    <brk id="178" max="34" man="1"/>
+    <brk id="139" max="34" man="1"/>
+    <brk id="179" max="34" man="1"/>
+    <brk id="179" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A7FC6D-4671-4772-BB82-DF50BEA32DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9985F01-060A-424F-BD69-A45556E03757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$223</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$97</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$231</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$105</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="263">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -315,13 +315,6 @@
     <t>処理方式</t>
   </si>
   <si>
-    <t>画面・バッチ</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>出力する処理方式</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
@@ -379,27 +372,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログファイル切替基準</t>
-    <rPh sb="6" eb="8">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイルサイズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログファイル出力単位</t>
-    <rPh sb="6" eb="8">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -863,13 +836,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コンフィグファイルに記載する。</t>
-    <rPh sb="10" eb="12">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログレベルの</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1357,6 +1323,99 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブ単位</t>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ジョブID&gt;_app.log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ジョブID&gt;_monitor.log</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力単位</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>切替基準</t>
+    <rPh sb="0" eb="2">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面のログファイルはコンフィグファイルに記載する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチのログファイルは、起動時の引数で指定する。</t>
+    <rPh sb="12" eb="15">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、引数の指定はNablarchが提供するバッチ開発補助ツールが生成するシェルスクリプトによって自動的に行われる。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2189,7 +2248,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS223"/>
+  <dimension ref="A1:AS231"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2201,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2222,7 +2281,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S1" s="65"/>
       <c r="T1" s="65"/>
@@ -2263,11 +2322,11 @@
       <c r="N2" s="74"/>
       <c r="O2" s="75"/>
       <c r="P2" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="76" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S2" s="77"/>
       <c r="T2" s="77"/>
@@ -2333,10 +2392,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2346,13 +2405,13 @@
         <v>7.13.</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="46"/>
       <c r="D8" s="45" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2408,13 +2467,13 @@
       <c r="G13" s="55"/>
       <c r="H13" s="56"/>
       <c r="I13" s="55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
       <c r="M13" s="55" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
@@ -2446,7 +2505,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="53"/>
       <c r="I14" s="52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
@@ -2492,7 +2551,7 @@
       <c r="K15" s="24"/>
       <c r="L15" s="25"/>
       <c r="M15" s="24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
@@ -2528,7 +2587,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="42"/>
       <c r="M16" s="41" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
@@ -2570,7 +2629,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -2608,7 +2667,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="42"/>
       <c r="M18" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -2650,7 +2709,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -2689,7 +2748,7 @@
       <c r="K20" s="19"/>
       <c r="L20" s="20"/>
       <c r="M20" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -2726,7 +2785,7 @@
       <c r="K21" s="41"/>
       <c r="L21" s="42"/>
       <c r="M21" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
@@ -2768,7 +2827,7 @@
       <c r="K22" s="19"/>
       <c r="L22" s="20"/>
       <c r="M22" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
@@ -2846,7 +2905,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
       <c r="M24" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
@@ -2924,7 +2983,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
       <c r="M26" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -2999,7 +3058,7 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AE29" s="45"/>
       <c r="AF29" s="45"/>
@@ -3025,7 +3084,7 @@
       <c r="O30" s="28"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="R30" s="28"/>
       <c r="S30" s="28"/>
@@ -3068,7 +3127,7 @@
       <c r="O31" s="43"/>
       <c r="P31" s="44"/>
       <c r="Q31" s="43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R31" s="43"/>
       <c r="S31" s="43"/>
@@ -3111,7 +3170,7 @@
       <c r="O32" s="43"/>
       <c r="P32" s="44"/>
       <c r="Q32" s="43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R32" s="43"/>
       <c r="S32" s="43"/>
@@ -3154,7 +3213,7 @@
       <c r="O33" s="43"/>
       <c r="P33" s="44"/>
       <c r="Q33" s="43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R33" s="43"/>
       <c r="S33" s="43"/>
@@ -3197,7 +3256,7 @@
       <c r="O34" s="43"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R34" s="43"/>
       <c r="S34" s="43"/>
@@ -3230,7 +3289,7 @@
       <c r="G35" s="24"/>
       <c r="H35" s="25"/>
       <c r="I35" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
@@ -3240,7 +3299,7 @@
       <c r="O35" s="24"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R35" s="24"/>
       <c r="S35" s="24"/>
@@ -3268,7 +3327,7 @@
       <c r="G36" s="41"/>
       <c r="H36" s="42"/>
       <c r="I36" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
@@ -3278,7 +3337,7 @@
       <c r="O36" s="41"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R36" s="41"/>
       <c r="S36" s="41"/>
@@ -3311,7 +3370,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="25"/>
       <c r="I37" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -3321,7 +3380,7 @@
       <c r="O37" s="24"/>
       <c r="P37" s="25"/>
       <c r="Q37" s="24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R37" s="24"/>
       <c r="S37" s="24"/>
@@ -3349,7 +3408,7 @@
       <c r="G38" s="41"/>
       <c r="H38" s="42"/>
       <c r="I38" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
@@ -3359,7 +3418,7 @@
       <c r="O38" s="41"/>
       <c r="P38" s="42"/>
       <c r="Q38" s="41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R38" s="41"/>
       <c r="S38" s="41"/>
@@ -3476,7 +3535,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="44"/>
       <c r="O44" s="43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P44" s="43"/>
       <c r="Q44" s="43"/>
@@ -3550,7 +3609,7 @@
       <c r="M46" s="19"/>
       <c r="N46" s="20"/>
       <c r="O46" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
@@ -3586,7 +3645,7 @@
       <c r="M47" s="41"/>
       <c r="N47" s="42"/>
       <c r="O47" s="41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P47" s="41"/>
       <c r="Q47" s="41"/>
@@ -3660,7 +3719,7 @@
       <c r="M49" s="19"/>
       <c r="N49" s="20"/>
       <c r="O49" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -3696,7 +3755,7 @@
       <c r="M50" s="41"/>
       <c r="N50" s="42"/>
       <c r="O50" s="41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P50" s="41"/>
       <c r="Q50" s="41"/>
@@ -3920,7 +3979,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="20"/>
       <c r="O56" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -3956,7 +4015,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="20"/>
       <c r="O57" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -3992,7 +4051,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -4026,7 +4085,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="20"/>
       <c r="O59" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -4098,7 +4157,7 @@
       <c r="M61" s="19"/>
       <c r="N61" s="20"/>
       <c r="O61" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -4134,7 +4193,7 @@
       <c r="M62" s="41"/>
       <c r="N62" s="42"/>
       <c r="O62" s="41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P62" s="41"/>
       <c r="Q62" s="41"/>
@@ -4165,7 +4224,7 @@
     </row>
     <row r="64" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F64" s="45" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:45" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4238,7 +4297,7 @@
         <v>7.13.1.4.</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G70" s="30"/>
     </row>
@@ -4247,7 +4306,7 @@
       <c r="B71" s="45"/>
       <c r="E71" s="30"/>
       <c r="F71" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
@@ -4265,7 +4324,7 @@
       <c r="B72" s="45"/>
       <c r="E72" s="30"/>
       <c r="F72" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
@@ -4299,19 +4358,19 @@
       <c r="B74" s="45"/>
       <c r="E74" s="30"/>
       <c r="F74" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
       <c r="J74" s="28"/>
       <c r="K74" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
       <c r="N74" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
@@ -4342,19 +4401,19 @@
       <c r="B75" s="45"/>
       <c r="E75" s="30"/>
       <c r="F75" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="24"/>
       <c r="K75" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O75" s="24"/>
       <c r="P75" s="24"/>
@@ -4391,7 +4450,7 @@
       <c r="L76" s="41"/>
       <c r="M76" s="41"/>
       <c r="N76" s="40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O76" s="41"/>
       <c r="P76" s="41"/>
@@ -4473,7 +4532,7 @@
       <c r="B82" s="45"/>
       <c r="F82" s="17"/>
       <c r="G82" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF82" s="45"/>
       <c r="AG82" s="45"/>
@@ -4530,7 +4589,7 @@
       <c r="J84" s="43"/>
       <c r="K84" s="43"/>
       <c r="L84" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M84" s="43"/>
       <c r="N84" s="43"/>
@@ -4569,7 +4628,7 @@
       <c r="J85" s="43"/>
       <c r="K85" s="43"/>
       <c r="L85" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M85" s="43"/>
       <c r="N85" s="43"/>
@@ -4606,7 +4665,7 @@
       <c r="A87" s="45"/>
       <c r="B87" s="45"/>
       <c r="G87" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AF87" s="45"/>
       <c r="AG87" s="45"/>
@@ -4624,36 +4683,36 @@
       <c r="J88" s="28"/>
       <c r="K88" s="29"/>
       <c r="L88" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M88" s="28"/>
       <c r="N88" s="28"/>
       <c r="O88" s="28"/>
       <c r="P88" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q88" s="28"/>
       <c r="R88" s="28"/>
       <c r="S88" s="28"/>
       <c r="T88" s="28"/>
-      <c r="U88" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="V88" s="28"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="W88" s="28"/>
       <c r="X88" s="28"/>
-      <c r="Y88" s="29"/>
-      <c r="Z88" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="29"/>
+      <c r="AA88" s="27" t="s">
+        <v>259</v>
+      </c>
       <c r="AB88" s="28"/>
       <c r="AC88" s="28"/>
       <c r="AD88" s="28"/>
-      <c r="AE88" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF88" s="28"/>
+      <c r="AE88" s="28"/>
+      <c r="AF88" s="27" t="s">
+        <v>258</v>
+      </c>
       <c r="AG88" s="28"/>
       <c r="AH88" s="28"/>
       <c r="AI88" s="29"/>
@@ -4664,7 +4723,7 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="G89" s="23" t="str">
-        <f>G84</f>
+        <f>$G$84</f>
         <v>障害通知ログファイル</v>
       </c>
       <c r="H89" s="24"/>
@@ -4672,84 +4731,82 @@
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
       <c r="L89" s="23" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
       <c r="O89" s="24"/>
       <c r="P89" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q89" s="24"/>
       <c r="R89" s="24"/>
       <c r="S89" s="24"/>
       <c r="T89" s="24"/>
-      <c r="U89" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="V89" s="24"/>
+      <c r="U89" s="44"/>
+      <c r="V89" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="W89" s="24"/>
       <c r="X89" s="24"/>
-      <c r="Y89" s="25"/>
-      <c r="Z89" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="25"/>
+      <c r="AA89" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="AB89" s="24"/>
       <c r="AC89" s="24"/>
       <c r="AD89" s="24"/>
-      <c r="AE89" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF89" s="24"/>
+      <c r="AE89" s="24"/>
+      <c r="AF89" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="AG89" s="24"/>
       <c r="AH89" s="24"/>
       <c r="AI89" s="25"/>
     </row>
-    <row r="90" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
+    <row r="90" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="G90" s="23" t="str">
-        <f>G85</f>
-        <v>アプリケーションログ</v>
+        <f>$G$84</f>
+        <v>障害通知ログファイル</v>
       </c>
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
       <c r="L90" s="23" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
       <c r="P90" s="23" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
       <c r="S90" s="24"/>
       <c r="T90" s="24"/>
-      <c r="U90" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="V90" s="24"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="W90" s="24"/>
       <c r="X90" s="24"/>
-      <c r="Y90" s="25"/>
-      <c r="Z90" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA90" s="24"/>
+      <c r="Y90" s="24"/>
+      <c r="Z90" s="25"/>
+      <c r="AA90" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="AB90" s="24"/>
       <c r="AC90" s="24"/>
       <c r="AD90" s="24"/>
-      <c r="AE90" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF90" s="24"/>
+      <c r="AE90" s="24"/>
+      <c r="AF90" s="23" t="s">
+        <v>255</v>
+      </c>
       <c r="AG90" s="24"/>
       <c r="AH90" s="24"/>
       <c r="AI90" s="25"/>
@@ -4759,37 +4816,48 @@
       <c r="B91" s="45"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="V91" s="19"/>
-      <c r="W91" s="19"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="20"/>
-      <c r="Z91" s="18"/>
-      <c r="AA91" s="19"/>
-      <c r="AB91" s="19"/>
-      <c r="AC91" s="19"/>
-      <c r="AD91" s="19"/>
-      <c r="AE91" s="18"/>
-      <c r="AF91" s="19"/>
-      <c r="AG91" s="19"/>
-      <c r="AH91" s="19"/>
-      <c r="AI91" s="20"/>
+      <c r="G91" s="23" t="str">
+        <f>$G$85</f>
+        <v>アプリケーションログ</v>
+      </c>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="24"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W91" s="24"/>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="24"/>
+      <c r="Z91" s="25"/>
+      <c r="AA91" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB91" s="24"/>
+      <c r="AC91" s="24"/>
+      <c r="AD91" s="24"/>
+      <c r="AE91" s="24"/>
+      <c r="AF91" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG91" s="24"/>
+      <c r="AH91" s="24"/>
+      <c r="AI91" s="25"/>
     </row>
     <row r="92" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="45"/>
@@ -4810,1281 +4878,1183 @@
       <c r="R92" s="19"/>
       <c r="S92" s="19"/>
       <c r="T92" s="19"/>
-      <c r="U92" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="V92" s="19"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="W92" s="19"/>
       <c r="X92" s="19"/>
-      <c r="Y92" s="20"/>
-      <c r="Z92" s="18"/>
-      <c r="AA92" s="19"/>
+      <c r="Y92" s="19"/>
+      <c r="Z92" s="20"/>
+      <c r="AA92" s="18"/>
       <c r="AB92" s="19"/>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19"/>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="19"/>
+      <c r="AE92" s="19"/>
+      <c r="AF92" s="18"/>
       <c r="AG92" s="19"/>
       <c r="AH92" s="19"/>
       <c r="AI92" s="20"/>
     </row>
-    <row r="93" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
-      <c r="T93" s="41"/>
-      <c r="U93" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="V93" s="41"/>
-      <c r="W93" s="41"/>
-      <c r="X93" s="41"/>
-      <c r="Y93" s="42"/>
-      <c r="Z93" s="40"/>
-      <c r="AA93" s="41"/>
-      <c r="AB93" s="41"/>
-      <c r="AC93" s="41"/>
-      <c r="AD93" s="41"/>
-      <c r="AE93" s="40"/>
-      <c r="AF93" s="41"/>
-      <c r="AG93" s="41"/>
-      <c r="AH93" s="41"/>
-      <c r="AI93" s="42"/>
-    </row>
-    <row r="94" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
+      <c r="Y93" s="19"/>
+      <c r="Z93" s="20"/>
+      <c r="AA93" s="18"/>
+      <c r="AB93" s="19"/>
+      <c r="AC93" s="19"/>
+      <c r="AD93" s="19"/>
+      <c r="AE93" s="19"/>
+      <c r="AF93" s="18"/>
+      <c r="AG93" s="19"/>
+      <c r="AH93" s="19"/>
+      <c r="AI93" s="20"/>
+    </row>
+    <row r="94" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" s="15"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="19"/>
-      <c r="S94" s="19"/>
-      <c r="T94" s="19"/>
-      <c r="U94" s="19"/>
-      <c r="V94" s="19"/>
-      <c r="W94" s="19"/>
-      <c r="X94" s="19"/>
-      <c r="Y94" s="19"/>
-      <c r="Z94" s="19"/>
-      <c r="AA94" s="19"/>
-      <c r="AB94" s="19"/>
-      <c r="AC94" s="19"/>
-      <c r="AD94" s="19"/>
-      <c r="AE94" s="19"/>
-      <c r="AF94" s="19"/>
-      <c r="AG94" s="19"/>
-      <c r="AH94" s="19"/>
-      <c r="AI94" s="19"/>
-    </row>
-    <row r="95" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="F95" s="17" t="s">
+      <c r="E94" s="15"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="41"/>
+      <c r="S94" s="41"/>
+      <c r="T94" s="41"/>
+      <c r="U94" s="42"/>
+      <c r="V94" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="W94" s="41"/>
+      <c r="X94" s="41"/>
+      <c r="Y94" s="41"/>
+      <c r="Z94" s="42"/>
+      <c r="AA94" s="40"/>
+      <c r="AB94" s="41"/>
+      <c r="AC94" s="41"/>
+      <c r="AD94" s="41"/>
+      <c r="AE94" s="41"/>
+      <c r="AF94" s="40"/>
+      <c r="AG94" s="41"/>
+      <c r="AH94" s="41"/>
+      <c r="AI94" s="42"/>
+    </row>
+    <row r="95" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="G95" s="23" t="str">
+        <f>$G$85</f>
+        <v>アプリケーションログ</v>
+      </c>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="24"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W95" s="24"/>
+      <c r="X95" s="24"/>
+      <c r="Y95" s="24"/>
+      <c r="Z95" s="25"/>
+      <c r="AA95" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB95" s="24"/>
+      <c r="AC95" s="24"/>
+      <c r="AD95" s="24"/>
+      <c r="AE95" s="25"/>
+      <c r="AF95" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG95" s="24"/>
+      <c r="AH95" s="24"/>
+      <c r="AI95" s="25"/>
+    </row>
+    <row r="96" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W96" s="19"/>
+      <c r="X96" s="19"/>
+      <c r="Y96" s="19"/>
+      <c r="Z96" s="20"/>
+      <c r="AA96" s="18"/>
+      <c r="AB96" s="19"/>
+      <c r="AC96" s="19"/>
+      <c r="AD96" s="19"/>
+      <c r="AE96" s="20"/>
+      <c r="AF96" s="18"/>
+      <c r="AG96" s="19"/>
+      <c r="AH96" s="19"/>
+      <c r="AI96" s="20"/>
+    </row>
+    <row r="97" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W97" s="19"/>
+      <c r="X97" s="19"/>
+      <c r="Y97" s="19"/>
+      <c r="Z97" s="20"/>
+      <c r="AA97" s="18"/>
+      <c r="AB97" s="19"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="19"/>
+      <c r="AE97" s="20"/>
+      <c r="AF97" s="18"/>
+      <c r="AG97" s="19"/>
+      <c r="AH97" s="19"/>
+      <c r="AI97" s="20"/>
+    </row>
+    <row r="98" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="41"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="42"/>
+      <c r="V98" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="W98" s="41"/>
+      <c r="X98" s="41"/>
+      <c r="Y98" s="41"/>
+      <c r="Z98" s="42"/>
+      <c r="AA98" s="40"/>
+      <c r="AB98" s="41"/>
+      <c r="AC98" s="41"/>
+      <c r="AD98" s="41"/>
+      <c r="AE98" s="42"/>
+      <c r="AF98" s="40"/>
+      <c r="AG98" s="41"/>
+      <c r="AH98" s="41"/>
+      <c r="AI98" s="42"/>
+    </row>
+    <row r="99" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="D99" s="15"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="19"/>
+      <c r="V99" s="19"/>
+      <c r="W99" s="19"/>
+      <c r="X99" s="19"/>
+      <c r="Y99" s="19"/>
+      <c r="Z99" s="19"/>
+      <c r="AA99" s="19"/>
+      <c r="AB99" s="19"/>
+      <c r="AC99" s="19"/>
+      <c r="AD99" s="19"/>
+      <c r="AE99" s="19"/>
+      <c r="AF99" s="19"/>
+      <c r="AG99" s="19"/>
+      <c r="AH99" s="19"/>
+      <c r="AI99" s="19"/>
+    </row>
+    <row r="100" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="F100" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G95" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF95" s="45"/>
-      <c r="AG95" s="45"/>
-    </row>
-    <row r="96" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF96" s="45"/>
-      <c r="AG96" s="45"/>
-    </row>
-    <row r="97" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="AF97" s="45"/>
-      <c r="AG97" s="45"/>
-    </row>
-    <row r="98" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F98" s="46" t="s">
+      <c r="G100" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF100" s="45"/>
+      <c r="AG100" s="45"/>
+    </row>
+    <row r="101" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="46"/>
+      <c r="G101" s="36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="46"/>
+      <c r="G102" s="36"/>
+    </row>
+    <row r="103" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="46"/>
+      <c r="G103" s="36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="46"/>
+      <c r="G104" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="AF105" s="45"/>
+      <c r="AG105" s="45"/>
+    </row>
+    <row r="106" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G106" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G107" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G108" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="G109" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="G110" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="G98" s="45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="G101" s="45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="102" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="G102" s="45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-    </row>
-    <row r="104" spans="1:33" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="D104" s="46" t="str">
+    </row>
+    <row r="111" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+    </row>
+    <row r="112" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="D112" s="46" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.13.3.</v>
       </c>
-      <c r="E104" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF104" s="45"/>
-      <c r="AG104" s="45"/>
-    </row>
-    <row r="105" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D105" s="46"/>
-      <c r="E105" s="31" t="s">
+      <c r="E112" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF112" s="45"/>
+      <c r="AG112" s="45"/>
+    </row>
+    <row r="113" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="46"/>
+      <c r="E113" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="46"/>
+      <c r="E114" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="46"/>
+      <c r="E115" s="31"/>
+    </row>
+    <row r="116" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="46"/>
+      <c r="E116" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
+      <c r="O116" s="28"/>
+      <c r="P116" s="28"/>
+      <c r="Q116" s="28"/>
+      <c r="R116" s="28"/>
+      <c r="S116" s="28"/>
+      <c r="T116" s="28"/>
+      <c r="U116" s="28"/>
+      <c r="V116" s="28"/>
+      <c r="W116" s="28"/>
+      <c r="X116" s="28"/>
+      <c r="Y116" s="28"/>
+      <c r="Z116" s="28"/>
+      <c r="AA116" s="28"/>
+      <c r="AB116" s="28"/>
+      <c r="AC116" s="28"/>
+      <c r="AD116" s="28"/>
+      <c r="AE116" s="28"/>
+      <c r="AF116" s="29"/>
+    </row>
+    <row r="117" spans="4:32" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="46"/>
+      <c r="E117" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="K117" s="59"/>
+      <c r="L117" s="59"/>
+      <c r="M117" s="59"/>
+      <c r="N117" s="59"/>
+      <c r="O117" s="59"/>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="59"/>
+      <c r="R117" s="59"/>
+      <c r="S117" s="59"/>
+      <c r="T117" s="59"/>
+      <c r="U117" s="59"/>
+      <c r="V117" s="59"/>
+      <c r="W117" s="59"/>
+      <c r="X117" s="59"/>
+      <c r="Y117" s="59"/>
+      <c r="Z117" s="59"/>
+      <c r="AA117" s="59"/>
+      <c r="AB117" s="59"/>
+      <c r="AC117" s="59"/>
+      <c r="AD117" s="59"/>
+      <c r="AE117" s="59"/>
+      <c r="AF117" s="60"/>
+    </row>
+    <row r="118" spans="4:32" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="46"/>
+      <c r="E118" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="K118" s="59"/>
+      <c r="L118" s="59"/>
+      <c r="M118" s="59"/>
+      <c r="N118" s="59"/>
+      <c r="O118" s="59"/>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="59"/>
+      <c r="R118" s="59"/>
+      <c r="S118" s="59"/>
+      <c r="T118" s="59"/>
+      <c r="U118" s="59"/>
+      <c r="V118" s="59"/>
+      <c r="W118" s="59"/>
+      <c r="X118" s="59"/>
+      <c r="Y118" s="59"/>
+      <c r="Z118" s="59"/>
+      <c r="AA118" s="59"/>
+      <c r="AB118" s="59"/>
+      <c r="AC118" s="59"/>
+      <c r="AD118" s="59"/>
+      <c r="AE118" s="59"/>
+      <c r="AF118" s="60"/>
+    </row>
+    <row r="119" spans="4:32" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="46"/>
+      <c r="E119" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="K119" s="59"/>
+      <c r="L119" s="59"/>
+      <c r="M119" s="59"/>
+      <c r="N119" s="59"/>
+      <c r="O119" s="59"/>
+      <c r="P119" s="59"/>
+      <c r="Q119" s="59"/>
+      <c r="R119" s="59"/>
+      <c r="S119" s="59"/>
+      <c r="T119" s="59"/>
+      <c r="U119" s="59"/>
+      <c r="V119" s="59"/>
+      <c r="W119" s="59"/>
+      <c r="X119" s="59"/>
+      <c r="Y119" s="59"/>
+      <c r="Z119" s="59"/>
+      <c r="AA119" s="59"/>
+      <c r="AB119" s="59"/>
+      <c r="AC119" s="59"/>
+      <c r="AD119" s="59"/>
+      <c r="AE119" s="59"/>
+      <c r="AF119" s="60"/>
+    </row>
+    <row r="120" spans="4:32" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="46"/>
+      <c r="E120" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="K120" s="59"/>
+      <c r="L120" s="59"/>
+      <c r="M120" s="59"/>
+      <c r="N120" s="59"/>
+      <c r="O120" s="59"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="59"/>
+      <c r="R120" s="59"/>
+      <c r="S120" s="59"/>
+      <c r="T120" s="59"/>
+      <c r="U120" s="59"/>
+      <c r="V120" s="59"/>
+      <c r="W120" s="59"/>
+      <c r="X120" s="59"/>
+      <c r="Y120" s="59"/>
+      <c r="Z120" s="59"/>
+      <c r="AA120" s="59"/>
+      <c r="AB120" s="59"/>
+      <c r="AC120" s="59"/>
+      <c r="AD120" s="59"/>
+      <c r="AE120" s="59"/>
+      <c r="AF120" s="60"/>
+    </row>
+    <row r="121" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E122" s="45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" s="31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="106" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="46"/>
-      <c r="E106" s="31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D107" s="46"/>
-      <c r="E107" s="31"/>
-    </row>
-    <row r="108" spans="1:33" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D108" s="46"/>
-      <c r="E108" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="28"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="28"/>
-      <c r="S108" s="28"/>
-      <c r="T108" s="28"/>
-      <c r="U108" s="28"/>
-      <c r="V108" s="28"/>
-      <c r="W108" s="28"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="28"/>
-      <c r="AA108" s="28"/>
-      <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28"/>
-      <c r="AE108" s="28"/>
-      <c r="AF108" s="29"/>
-    </row>
-    <row r="109" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D109" s="46"/>
-      <c r="E109" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="K109" s="59"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="59"/>
-      <c r="N109" s="59"/>
-      <c r="O109" s="59"/>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="59"/>
-      <c r="S109" s="59"/>
-      <c r="T109" s="59"/>
-      <c r="U109" s="59"/>
-      <c r="V109" s="59"/>
-      <c r="W109" s="59"/>
-      <c r="X109" s="59"/>
-      <c r="Y109" s="59"/>
-      <c r="Z109" s="59"/>
-      <c r="AA109" s="59"/>
-      <c r="AB109" s="59"/>
-      <c r="AC109" s="59"/>
-      <c r="AD109" s="59"/>
-      <c r="AE109" s="59"/>
-      <c r="AF109" s="60"/>
-    </row>
-    <row r="110" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D110" s="46"/>
-      <c r="E110" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="K110" s="59"/>
-      <c r="L110" s="59"/>
-      <c r="M110" s="59"/>
-      <c r="N110" s="59"/>
-      <c r="O110" s="59"/>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="59"/>
-      <c r="R110" s="59"/>
-      <c r="S110" s="59"/>
-      <c r="T110" s="59"/>
-      <c r="U110" s="59"/>
-      <c r="V110" s="59"/>
-      <c r="W110" s="59"/>
-      <c r="X110" s="59"/>
-      <c r="Y110" s="59"/>
-      <c r="Z110" s="59"/>
-      <c r="AA110" s="59"/>
-      <c r="AB110" s="59"/>
-      <c r="AC110" s="59"/>
-      <c r="AD110" s="59"/>
-      <c r="AE110" s="59"/>
-      <c r="AF110" s="60"/>
-    </row>
-    <row r="111" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D111" s="46"/>
-      <c r="E111" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="F111" s="43"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="K111" s="59"/>
-      <c r="L111" s="59"/>
-      <c r="M111" s="59"/>
-      <c r="N111" s="59"/>
-      <c r="O111" s="59"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="59"/>
-      <c r="R111" s="59"/>
-      <c r="S111" s="59"/>
-      <c r="T111" s="59"/>
-      <c r="U111" s="59"/>
-      <c r="V111" s="59"/>
-      <c r="W111" s="59"/>
-      <c r="X111" s="59"/>
-      <c r="Y111" s="59"/>
-      <c r="Z111" s="59"/>
-      <c r="AA111" s="59"/>
-      <c r="AB111" s="59"/>
-      <c r="AC111" s="59"/>
-      <c r="AD111" s="59"/>
-      <c r="AE111" s="59"/>
-      <c r="AF111" s="60"/>
-    </row>
-    <row r="112" spans="1:33" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D112" s="46"/>
-      <c r="E112" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="K112" s="59"/>
-      <c r="L112" s="59"/>
-      <c r="M112" s="59"/>
-      <c r="N112" s="59"/>
-      <c r="O112" s="59"/>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="59"/>
-      <c r="R112" s="59"/>
-      <c r="S112" s="59"/>
-      <c r="T112" s="59"/>
-      <c r="U112" s="59"/>
-      <c r="V112" s="59"/>
-      <c r="W112" s="59"/>
-      <c r="X112" s="59"/>
-      <c r="Y112" s="59"/>
-      <c r="Z112" s="59"/>
-      <c r="AA112" s="59"/>
-      <c r="AB112" s="59"/>
-      <c r="AC112" s="59"/>
-      <c r="AD112" s="59"/>
-      <c r="AE112" s="59"/>
-      <c r="AF112" s="60"/>
-    </row>
-    <row r="113" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E114" s="45" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E116" s="31" t="s">
+    <row r="125" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E127" s="46" t="str">
+        <f>$D$112&amp;"1."</f>
+        <v>7.13.3.1.</v>
+      </c>
+      <c r="F127" s="45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E128" s="46"/>
+      <c r="F128" s="30" t="str">
+        <f>$E$127&amp;"1."</f>
+        <v>7.13.3.1.1.</v>
+      </c>
+      <c r="G128" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G129" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="24"/>
+      <c r="R129" s="24"/>
+      <c r="S129" s="24"/>
+      <c r="T129" s="24"/>
+      <c r="U129" s="24"/>
+      <c r="V129" s="24"/>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+      <c r="Y129" s="24"/>
+      <c r="Z129" s="24"/>
+      <c r="AA129" s="24"/>
+      <c r="AB129" s="24"/>
+      <c r="AC129" s="24"/>
+      <c r="AD129" s="24"/>
+      <c r="AE129" s="24"/>
+      <c r="AF129" s="24"/>
+      <c r="AG129" s="24"/>
+      <c r="AH129" s="25"/>
+    </row>
+    <row r="130" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G130" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH130" s="20"/>
+    </row>
+    <row r="131" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G131" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
+      <c r="L131" s="41"/>
+      <c r="M131" s="41"/>
+      <c r="N131" s="41"/>
+      <c r="O131" s="41"/>
+      <c r="P131" s="41"/>
+      <c r="Q131" s="41"/>
+      <c r="R131" s="41"/>
+      <c r="S131" s="41"/>
+      <c r="T131" s="41"/>
+      <c r="U131" s="41"/>
+      <c r="V131" s="41"/>
+      <c r="W131" s="41"/>
+      <c r="X131" s="41"/>
+      <c r="Y131" s="41"/>
+      <c r="Z131" s="41"/>
+      <c r="AA131" s="41"/>
+      <c r="AB131" s="41"/>
+      <c r="AC131" s="41"/>
+      <c r="AD131" s="41"/>
+      <c r="AE131" s="41"/>
+      <c r="AF131" s="41"/>
+      <c r="AG131" s="41"/>
+      <c r="AH131" s="42"/>
+    </row>
+    <row r="132" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G132" s="36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G133" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G134" s="36" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E117" s="31" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="118" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="46" t="str">
-        <f>$D$104&amp;"1."</f>
-        <v>7.13.3.1.</v>
-      </c>
-      <c r="F119" s="45" t="s">
+    <row r="135" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D135" s="46"/>
+      <c r="E135" s="31"/>
+    </row>
+    <row r="136" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E136" s="46" t="str">
+        <f>$D$112&amp;"2."</f>
+        <v>7.13.3.2.</v>
+      </c>
+      <c r="F136" s="45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E137" s="46"/>
+      <c r="F137" s="30" t="str">
+        <f>$E$136&amp;"1."</f>
+        <v>7.13.3.2.1.</v>
+      </c>
+      <c r="G137" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E138" s="30"/>
+      <c r="G138" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="24"/>
+      <c r="O138" s="24"/>
+      <c r="P138" s="24"/>
+      <c r="Q138" s="24"/>
+      <c r="R138" s="24"/>
+      <c r="S138" s="24"/>
+      <c r="T138" s="24"/>
+      <c r="U138" s="24"/>
+      <c r="V138" s="24"/>
+      <c r="W138" s="24"/>
+      <c r="X138" s="24"/>
+      <c r="Y138" s="24"/>
+      <c r="Z138" s="24"/>
+      <c r="AA138" s="24"/>
+      <c r="AB138" s="24"/>
+      <c r="AC138" s="24"/>
+      <c r="AD138" s="24"/>
+      <c r="AE138" s="24"/>
+      <c r="AF138" s="24"/>
+      <c r="AG138" s="24"/>
+      <c r="AH138" s="25"/>
+    </row>
+    <row r="139" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E139" s="30"/>
+      <c r="G139" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH139" s="20"/>
+    </row>
+    <row r="140" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E140" s="30"/>
+      <c r="G140" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH140" s="20"/>
+    </row>
+    <row r="141" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E141" s="30"/>
+      <c r="G141" s="18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="120" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E120" s="46"/>
-      <c r="F120" s="30" t="str">
-        <f>$E$119&amp;"1."</f>
-        <v>7.13.3.1.1.</v>
-      </c>
-      <c r="G120" s="45" t="s">
+      <c r="AH141" s="20"/>
+    </row>
+    <row r="142" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E142" s="30"/>
+      <c r="G142" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH142" s="20"/>
+    </row>
+    <row r="143" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E143" s="30"/>
+      <c r="G143" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH143" s="20"/>
+    </row>
+    <row r="144" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E144" s="30"/>
+      <c r="G144" s="40" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="121" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G121" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="24"/>
-      <c r="N121" s="24"/>
-      <c r="O121" s="24"/>
-      <c r="P121" s="24"/>
-      <c r="Q121" s="24"/>
-      <c r="R121" s="24"/>
-      <c r="S121" s="24"/>
-      <c r="T121" s="24"/>
-      <c r="U121" s="24"/>
-      <c r="V121" s="24"/>
-      <c r="W121" s="24"/>
-      <c r="X121" s="24"/>
-      <c r="Y121" s="24"/>
-      <c r="Z121" s="24"/>
-      <c r="AA121" s="24"/>
-      <c r="AB121" s="24"/>
-      <c r="AC121" s="24"/>
-      <c r="AD121" s="24"/>
-      <c r="AE121" s="24"/>
-      <c r="AF121" s="24"/>
-      <c r="AG121" s="24"/>
-      <c r="AH121" s="25"/>
-    </row>
-    <row r="122" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G122" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH122" s="20"/>
-    </row>
-    <row r="123" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G123" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="41"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="41"/>
-      <c r="R123" s="41"/>
-      <c r="S123" s="41"/>
-      <c r="T123" s="41"/>
-      <c r="U123" s="41"/>
-      <c r="V123" s="41"/>
-      <c r="W123" s="41"/>
-      <c r="X123" s="41"/>
-      <c r="Y123" s="41"/>
-      <c r="Z123" s="41"/>
-      <c r="AA123" s="41"/>
-      <c r="AB123" s="41"/>
-      <c r="AC123" s="41"/>
-      <c r="AD123" s="41"/>
-      <c r="AE123" s="41"/>
-      <c r="AF123" s="41"/>
-      <c r="AG123" s="41"/>
-      <c r="AH123" s="42"/>
-    </row>
-    <row r="124" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G124" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="125" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G125" s="45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="126" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G126" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="127" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D127" s="46"/>
-      <c r="E127" s="31"/>
-    </row>
-    <row r="128" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E128" s="46" t="str">
-        <f>$D$104&amp;"2."</f>
-        <v>7.13.3.2.</v>
-      </c>
-      <c r="F128" s="45" t="s">
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="41"/>
+      <c r="L144" s="41"/>
+      <c r="M144" s="41"/>
+      <c r="N144" s="41"/>
+      <c r="O144" s="41"/>
+      <c r="P144" s="41"/>
+      <c r="Q144" s="41"/>
+      <c r="R144" s="41"/>
+      <c r="S144" s="41"/>
+      <c r="T144" s="41"/>
+      <c r="U144" s="41"/>
+      <c r="V144" s="41"/>
+      <c r="W144" s="41"/>
+      <c r="X144" s="41"/>
+      <c r="Y144" s="41"/>
+      <c r="Z144" s="41"/>
+      <c r="AA144" s="41"/>
+      <c r="AB144" s="41"/>
+      <c r="AC144" s="41"/>
+      <c r="AD144" s="41"/>
+      <c r="AE144" s="41"/>
+      <c r="AF144" s="41"/>
+      <c r="AG144" s="41"/>
+      <c r="AH144" s="42"/>
+    </row>
+    <row r="145" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G145" s="36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G146" s="45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E129" s="46"/>
-      <c r="F129" s="30" t="str">
-        <f>$E$128&amp;"1."</f>
-        <v>7.13.3.2.1.</v>
-      </c>
-      <c r="G129" s="45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="130" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E130" s="30"/>
-      <c r="G130" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="24"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="24"/>
-      <c r="N130" s="24"/>
-      <c r="O130" s="24"/>
-      <c r="P130" s="24"/>
-      <c r="Q130" s="24"/>
-      <c r="R130" s="24"/>
-      <c r="S130" s="24"/>
-      <c r="T130" s="24"/>
-      <c r="U130" s="24"/>
-      <c r="V130" s="24"/>
-      <c r="W130" s="24"/>
-      <c r="X130" s="24"/>
-      <c r="Y130" s="24"/>
-      <c r="Z130" s="24"/>
-      <c r="AA130" s="24"/>
-      <c r="AB130" s="24"/>
-      <c r="AC130" s="24"/>
-      <c r="AD130" s="24"/>
-      <c r="AE130" s="24"/>
-      <c r="AF130" s="24"/>
-      <c r="AG130" s="24"/>
-      <c r="AH130" s="25"/>
-    </row>
-    <row r="131" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E131" s="30"/>
-      <c r="G131" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH131" s="20"/>
-    </row>
-    <row r="132" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E132" s="30"/>
-      <c r="G132" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH132" s="20"/>
-    </row>
-    <row r="133" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E133" s="30"/>
-      <c r="G133" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH133" s="20"/>
-    </row>
-    <row r="134" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E134" s="30"/>
-      <c r="G134" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH134" s="20"/>
-    </row>
-    <row r="135" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E135" s="30"/>
-      <c r="G135" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH135" s="20"/>
-    </row>
-    <row r="136" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E136" s="30"/>
-      <c r="G136" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="41"/>
-      <c r="K136" s="41"/>
-      <c r="L136" s="41"/>
-      <c r="M136" s="41"/>
-      <c r="N136" s="41"/>
-      <c r="O136" s="41"/>
-      <c r="P136" s="41"/>
-      <c r="Q136" s="41"/>
-      <c r="R136" s="41"/>
-      <c r="S136" s="41"/>
-      <c r="T136" s="41"/>
-      <c r="U136" s="41"/>
-      <c r="V136" s="41"/>
-      <c r="W136" s="41"/>
-      <c r="X136" s="41"/>
-      <c r="Y136" s="41"/>
-      <c r="Z136" s="41"/>
-      <c r="AA136" s="41"/>
-      <c r="AB136" s="41"/>
-      <c r="AC136" s="41"/>
-      <c r="AD136" s="41"/>
-      <c r="AE136" s="41"/>
-      <c r="AF136" s="41"/>
-      <c r="AG136" s="41"/>
-      <c r="AH136" s="42"/>
-    </row>
-    <row r="137" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G137" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="138" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G138" s="45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="139" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D140" s="46" t="str">
+    <row r="147" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D148" s="46" t="str">
         <f>$C$7&amp;"4."</f>
         <v>7.13.4.</v>
       </c>
-      <c r="E140" s="31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="141" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="30" t="str">
-        <f>$D$140&amp;"1."</f>
+      <c r="E148" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E149" s="30" t="str">
+        <f>$D$148&amp;"1."</f>
         <v>7.13.4.1.</v>
       </c>
-      <c r="F141" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="30"/>
-      <c r="F142" s="46" t="s">
+      <c r="F149" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="150" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E150" s="30"/>
+      <c r="F150" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G142" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="143" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="30"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H143" s="28"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="K143" s="28"/>
-      <c r="L143" s="29"/>
-      <c r="M143" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N143" s="28"/>
-      <c r="O143" s="28"/>
-      <c r="P143" s="28"/>
-      <c r="Q143" s="29"/>
-      <c r="R143" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="S143" s="28"/>
-      <c r="T143" s="28"/>
-      <c r="U143" s="28"/>
-      <c r="V143" s="28"/>
-      <c r="W143" s="28"/>
-      <c r="X143" s="28"/>
-      <c r="Y143" s="28"/>
-      <c r="Z143" s="28"/>
-      <c r="AA143" s="28"/>
-      <c r="AB143" s="28"/>
-      <c r="AC143" s="28"/>
-      <c r="AD143" s="28"/>
-      <c r="AE143" s="28"/>
-      <c r="AF143" s="28"/>
-      <c r="AG143" s="28"/>
-      <c r="AH143" s="28"/>
-      <c r="AI143" s="29"/>
-    </row>
-    <row r="144" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="30"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H144" s="24"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="K144" s="24"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="N144" s="24"/>
-      <c r="O144" s="24"/>
-      <c r="P144" s="24"/>
-      <c r="Q144" s="25"/>
-      <c r="R144" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="S144" s="24"/>
-      <c r="T144" s="24"/>
-      <c r="U144" s="24"/>
-      <c r="V144" s="24"/>
-      <c r="W144" s="24"/>
-      <c r="X144" s="24"/>
-      <c r="Y144" s="24"/>
-      <c r="Z144" s="24"/>
-      <c r="AA144" s="24"/>
-      <c r="AB144" s="24"/>
-      <c r="AC144" s="24"/>
-      <c r="AD144" s="24"/>
-      <c r="AE144" s="24"/>
-      <c r="AF144" s="24"/>
-      <c r="AG144" s="24"/>
-      <c r="AH144" s="24"/>
-      <c r="AI144" s="25"/>
-    </row>
-    <row r="145" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="30"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="40"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="41"/>
-      <c r="K145" s="41"/>
-      <c r="L145" s="42"/>
-      <c r="M145" s="41"/>
-      <c r="N145" s="41"/>
-      <c r="O145" s="41"/>
-      <c r="P145" s="41"/>
-      <c r="Q145" s="42"/>
-      <c r="R145" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="S145" s="41"/>
-      <c r="T145" s="41"/>
-      <c r="U145" s="41"/>
-      <c r="V145" s="41"/>
-      <c r="W145" s="41"/>
-      <c r="X145" s="41"/>
-      <c r="Y145" s="41"/>
-      <c r="Z145" s="41"/>
-      <c r="AA145" s="41"/>
-      <c r="AB145" s="41"/>
-      <c r="AC145" s="41"/>
-      <c r="AD145" s="41"/>
-      <c r="AE145" s="41"/>
-      <c r="AF145" s="41"/>
-      <c r="AG145" s="41"/>
-      <c r="AH145" s="41"/>
-      <c r="AI145" s="42"/>
-    </row>
-    <row r="146" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="30"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19"/>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
-      <c r="Z146" s="19"/>
-      <c r="AA146" s="19"/>
-      <c r="AB146" s="19"/>
-      <c r="AC146" s="19"/>
-      <c r="AD146" s="19"/>
-      <c r="AE146" s="19"/>
-      <c r="AF146" s="19"/>
-      <c r="AG146" s="19"/>
-      <c r="AH146" s="19"/>
-      <c r="AI146" s="19"/>
-    </row>
-    <row r="147" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="30"/>
-      <c r="F147" s="46" t="s">
+      <c r="G150" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E151" s="30"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H151" s="28"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="K151" s="28"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N151" s="28"/>
+      <c r="O151" s="28"/>
+      <c r="P151" s="28"/>
+      <c r="Q151" s="29"/>
+      <c r="R151" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="S151" s="28"/>
+      <c r="T151" s="28"/>
+      <c r="U151" s="28"/>
+      <c r="V151" s="28"/>
+      <c r="W151" s="28"/>
+      <c r="X151" s="28"/>
+      <c r="Y151" s="28"/>
+      <c r="Z151" s="28"/>
+      <c r="AA151" s="28"/>
+      <c r="AB151" s="28"/>
+      <c r="AC151" s="28"/>
+      <c r="AD151" s="28"/>
+      <c r="AE151" s="28"/>
+      <c r="AF151" s="28"/>
+      <c r="AG151" s="28"/>
+      <c r="AH151" s="28"/>
+      <c r="AI151" s="29"/>
+    </row>
+    <row r="152" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E152" s="30"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H152" s="24"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K152" s="24"/>
+      <c r="L152" s="25"/>
+      <c r="M152" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="N152" s="24"/>
+      <c r="O152" s="24"/>
+      <c r="P152" s="24"/>
+      <c r="Q152" s="25"/>
+      <c r="R152" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="S152" s="24"/>
+      <c r="T152" s="24"/>
+      <c r="U152" s="24"/>
+      <c r="V152" s="24"/>
+      <c r="W152" s="24"/>
+      <c r="X152" s="24"/>
+      <c r="Y152" s="24"/>
+      <c r="Z152" s="24"/>
+      <c r="AA152" s="24"/>
+      <c r="AB152" s="24"/>
+      <c r="AC152" s="24"/>
+      <c r="AD152" s="24"/>
+      <c r="AE152" s="24"/>
+      <c r="AF152" s="24"/>
+      <c r="AG152" s="24"/>
+      <c r="AH152" s="24"/>
+      <c r="AI152" s="25"/>
+    </row>
+    <row r="153" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E153" s="30"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="41"/>
+      <c r="K153" s="41"/>
+      <c r="L153" s="42"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="41"/>
+      <c r="O153" s="41"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="42"/>
+      <c r="R153" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="S153" s="41"/>
+      <c r="T153" s="41"/>
+      <c r="U153" s="41"/>
+      <c r="V153" s="41"/>
+      <c r="W153" s="41"/>
+      <c r="X153" s="41"/>
+      <c r="Y153" s="41"/>
+      <c r="Z153" s="41"/>
+      <c r="AA153" s="41"/>
+      <c r="AB153" s="41"/>
+      <c r="AC153" s="41"/>
+      <c r="AD153" s="41"/>
+      <c r="AE153" s="41"/>
+      <c r="AF153" s="41"/>
+      <c r="AG153" s="41"/>
+      <c r="AH153" s="41"/>
+      <c r="AI153" s="42"/>
+    </row>
+    <row r="154" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E154" s="30"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="19"/>
+      <c r="S154" s="19"/>
+      <c r="T154" s="19"/>
+      <c r="U154" s="19"/>
+      <c r="V154" s="19"/>
+      <c r="W154" s="19"/>
+      <c r="X154" s="19"/>
+      <c r="Y154" s="19"/>
+      <c r="Z154" s="19"/>
+      <c r="AA154" s="19"/>
+      <c r="AB154" s="19"/>
+      <c r="AC154" s="19"/>
+      <c r="AD154" s="19"/>
+      <c r="AE154" s="19"/>
+      <c r="AF154" s="19"/>
+      <c r="AG154" s="19"/>
+      <c r="AH154" s="19"/>
+      <c r="AI154" s="19"/>
+    </row>
+    <row r="155" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E155" s="30"/>
+      <c r="F155" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G147" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="148" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="30"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="30" t="str">
-        <f>F147&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H148" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="I149" s="24"/>
-      <c r="J149" s="24"/>
-      <c r="K149" s="24"/>
-      <c r="L149" s="24"/>
-      <c r="M149" s="24"/>
-      <c r="N149" s="24"/>
-      <c r="O149" s="24"/>
-      <c r="P149" s="24"/>
-      <c r="Q149" s="24"/>
-      <c r="R149" s="24"/>
-      <c r="S149" s="24"/>
-      <c r="T149" s="24"/>
-      <c r="U149" s="24"/>
-      <c r="V149" s="24"/>
-      <c r="W149" s="24"/>
-      <c r="X149" s="24"/>
-      <c r="Y149" s="24"/>
-      <c r="Z149" s="24"/>
-      <c r="AA149" s="24"/>
-      <c r="AB149" s="24"/>
-      <c r="AC149" s="24"/>
-      <c r="AD149" s="24"/>
-      <c r="AE149" s="24"/>
-      <c r="AF149" s="24"/>
-      <c r="AG149" s="24"/>
-      <c r="AH149" s="24"/>
-      <c r="AI149" s="25"/>
-    </row>
-    <row r="150" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150" s="30"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="I150" s="41"/>
-      <c r="J150" s="41"/>
-      <c r="K150" s="41"/>
-      <c r="L150" s="41"/>
-      <c r="M150" s="41"/>
-      <c r="N150" s="41"/>
-      <c r="O150" s="41"/>
-      <c r="P150" s="41"/>
-      <c r="Q150" s="41"/>
-      <c r="R150" s="41"/>
-      <c r="S150" s="41"/>
-      <c r="T150" s="41"/>
-      <c r="U150" s="41"/>
-      <c r="V150" s="41"/>
-      <c r="W150" s="41"/>
-      <c r="X150" s="41"/>
-      <c r="Y150" s="41"/>
-      <c r="Z150" s="41"/>
-      <c r="AA150" s="41"/>
-      <c r="AB150" s="41"/>
-      <c r="AC150" s="41"/>
-      <c r="AD150" s="41"/>
-      <c r="AE150" s="41"/>
-      <c r="AF150" s="41"/>
-      <c r="AG150" s="41"/>
-      <c r="AH150" s="41"/>
-      <c r="AI150" s="42"/>
-    </row>
-    <row r="151" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="153" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E153" s="30"/>
-      <c r="F153" s="46"/>
-    </row>
-    <row r="154" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E154" s="30"/>
-      <c r="F154" s="46"/>
-      <c r="G154" s="30" t="str">
-        <f>F147&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H154" s="45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="155" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E155" s="30"/>
-      <c r="F155" s="46"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M155" s="28"/>
-      <c r="N155" s="28"/>
-      <c r="O155" s="29"/>
-      <c r="P155" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q155" s="28"/>
-      <c r="R155" s="28"/>
-      <c r="S155" s="28"/>
-      <c r="T155" s="28"/>
-      <c r="U155" s="28"/>
-      <c r="V155" s="28"/>
-      <c r="W155" s="28"/>
-      <c r="X155" s="28"/>
-      <c r="Y155" s="28"/>
-      <c r="Z155" s="28"/>
-      <c r="AA155" s="28"/>
-      <c r="AB155" s="28"/>
-      <c r="AC155" s="28"/>
-      <c r="AD155" s="28"/>
-      <c r="AE155" s="28"/>
-      <c r="AF155" s="28"/>
-      <c r="AG155" s="28"/>
-      <c r="AH155" s="28"/>
-      <c r="AI155" s="29"/>
-    </row>
-    <row r="156" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G155" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="30"/>
       <c r="F156" s="46"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
-      <c r="O156" s="20"/>
-      <c r="P156" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q156" s="19"/>
-      <c r="R156" s="19"/>
-      <c r="S156" s="19"/>
-      <c r="T156" s="19"/>
-      <c r="U156" s="19"/>
-      <c r="V156" s="19"/>
-      <c r="W156" s="19"/>
-      <c r="X156" s="19"/>
-      <c r="Y156" s="19"/>
-      <c r="Z156" s="19"/>
-      <c r="AA156" s="19"/>
-      <c r="AB156" s="19"/>
-      <c r="AC156" s="19"/>
-      <c r="AD156" s="19"/>
-      <c r="AE156" s="19"/>
-      <c r="AF156" s="19"/>
-      <c r="AG156" s="19"/>
-      <c r="AH156" s="19"/>
-      <c r="AI156" s="20"/>
-    </row>
-    <row r="157" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G156" s="30" t="str">
+        <f>F155&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H156" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E157" s="30"/>
-      <c r="F157" s="46"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I157" s="43"/>
-      <c r="J157" s="43"/>
-      <c r="K157" s="43"/>
-      <c r="L157" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="M157" s="43"/>
-      <c r="N157" s="43"/>
-      <c r="O157" s="44"/>
-      <c r="P157" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q157" s="43"/>
-      <c r="R157" s="43"/>
-      <c r="S157" s="43"/>
-      <c r="T157" s="43"/>
-      <c r="U157" s="43"/>
-      <c r="V157" s="43"/>
-      <c r="W157" s="43"/>
-      <c r="X157" s="43"/>
-      <c r="Y157" s="43"/>
-      <c r="Z157" s="43"/>
-      <c r="AA157" s="43"/>
-      <c r="AB157" s="43"/>
-      <c r="AC157" s="43"/>
-      <c r="AD157" s="43"/>
-      <c r="AE157" s="43"/>
-      <c r="AF157" s="43"/>
-      <c r="AG157" s="43"/>
-      <c r="AH157" s="43"/>
-      <c r="AI157" s="44"/>
-    </row>
-    <row r="158" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F157" s="30"/>
+      <c r="G157" s="46"/>
+      <c r="H157" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="24"/>
+      <c r="O157" s="24"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="24"/>
+      <c r="R157" s="24"/>
+      <c r="S157" s="24"/>
+      <c r="T157" s="24"/>
+      <c r="U157" s="24"/>
+      <c r="V157" s="24"/>
+      <c r="W157" s="24"/>
+      <c r="X157" s="24"/>
+      <c r="Y157" s="24"/>
+      <c r="Z157" s="24"/>
+      <c r="AA157" s="24"/>
+      <c r="AB157" s="24"/>
+      <c r="AC157" s="24"/>
+      <c r="AD157" s="24"/>
+      <c r="AE157" s="24"/>
+      <c r="AF157" s="24"/>
+      <c r="AG157" s="24"/>
+      <c r="AH157" s="24"/>
+      <c r="AI157" s="25"/>
+    </row>
+    <row r="158" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E158" s="30"/>
-      <c r="F158" s="46"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
-      <c r="O158" s="20"/>
-      <c r="P158" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q158" s="19"/>
-      <c r="R158" s="19"/>
-      <c r="S158" s="19"/>
-      <c r="T158" s="19"/>
-      <c r="U158" s="19"/>
-      <c r="V158" s="19"/>
-      <c r="W158" s="19"/>
-      <c r="X158" s="19"/>
-      <c r="Y158" s="19"/>
-      <c r="Z158" s="19"/>
-      <c r="AA158" s="19"/>
-      <c r="AB158" s="19"/>
-      <c r="AC158" s="19"/>
-      <c r="AD158" s="19"/>
-      <c r="AE158" s="19"/>
-      <c r="AF158" s="19"/>
-      <c r="AG158" s="19"/>
-      <c r="AH158" s="19"/>
-      <c r="AI158" s="20"/>
-    </row>
-    <row r="159" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F158" s="30"/>
+      <c r="G158" s="46"/>
+      <c r="H158" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41"/>
+      <c r="L158" s="41"/>
+      <c r="M158" s="41"/>
+      <c r="N158" s="41"/>
+      <c r="O158" s="41"/>
+      <c r="P158" s="41"/>
+      <c r="Q158" s="41"/>
+      <c r="R158" s="41"/>
+      <c r="S158" s="41"/>
+      <c r="T158" s="41"/>
+      <c r="U158" s="41"/>
+      <c r="V158" s="41"/>
+      <c r="W158" s="41"/>
+      <c r="X158" s="41"/>
+      <c r="Y158" s="41"/>
+      <c r="Z158" s="41"/>
+      <c r="AA158" s="41"/>
+      <c r="AB158" s="41"/>
+      <c r="AC158" s="41"/>
+      <c r="AD158" s="41"/>
+      <c r="AE158" s="41"/>
+      <c r="AF158" s="41"/>
+      <c r="AG158" s="41"/>
+      <c r="AH158" s="41"/>
+      <c r="AI158" s="42"/>
+    </row>
+    <row r="159" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E159" s="30"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="20"/>
-      <c r="P159" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q159" s="19"/>
-      <c r="R159" s="19"/>
-      <c r="S159" s="19"/>
-      <c r="T159" s="19"/>
-      <c r="U159" s="19"/>
-      <c r="V159" s="19"/>
-      <c r="W159" s="19"/>
-      <c r="X159" s="19"/>
-      <c r="Y159" s="19"/>
-      <c r="Z159" s="19"/>
-      <c r="AA159" s="19"/>
-      <c r="AB159" s="19"/>
-      <c r="AC159" s="19"/>
-      <c r="AD159" s="19"/>
-      <c r="AE159" s="19"/>
-      <c r="AF159" s="19"/>
-      <c r="AG159" s="19"/>
-      <c r="AH159" s="19"/>
-      <c r="AI159" s="20"/>
-    </row>
-    <row r="160" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="30"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="30"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="40"/>
-      <c r="I160" s="41"/>
-      <c r="J160" s="41"/>
-      <c r="K160" s="41"/>
-      <c r="L160" s="40"/>
-      <c r="M160" s="41"/>
-      <c r="N160" s="41"/>
-      <c r="O160" s="42"/>
-      <c r="P160" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q160" s="41"/>
-      <c r="R160" s="41"/>
-      <c r="S160" s="41"/>
-      <c r="T160" s="41"/>
-      <c r="U160" s="41"/>
-      <c r="V160" s="41"/>
-      <c r="W160" s="41"/>
-      <c r="X160" s="41"/>
-      <c r="Y160" s="41"/>
-      <c r="Z160" s="41"/>
-      <c r="AA160" s="41"/>
-      <c r="AB160" s="41"/>
-      <c r="AC160" s="41"/>
-      <c r="AD160" s="41"/>
-      <c r="AE160" s="41"/>
-      <c r="AF160" s="41"/>
-      <c r="AG160" s="41"/>
-      <c r="AH160" s="41"/>
-      <c r="AI160" s="42"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="45" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="161" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E161" s="30"/>
       <c r="F161" s="46"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="I161" s="41"/>
-      <c r="J161" s="41"/>
-      <c r="K161" s="41"/>
-      <c r="L161" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="M161" s="41"/>
-      <c r="N161" s="41"/>
-      <c r="O161" s="42"/>
-      <c r="P161" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q161" s="41"/>
-      <c r="R161" s="41"/>
-      <c r="S161" s="41"/>
-      <c r="T161" s="41"/>
-      <c r="U161" s="41"/>
-      <c r="V161" s="41"/>
-      <c r="W161" s="41"/>
-      <c r="X161" s="41"/>
-      <c r="Y161" s="41"/>
-      <c r="Z161" s="41"/>
-      <c r="AA161" s="41"/>
-      <c r="AB161" s="41"/>
-      <c r="AC161" s="41"/>
-      <c r="AD161" s="41"/>
-      <c r="AE161" s="41"/>
-      <c r="AF161" s="41"/>
-      <c r="AG161" s="41"/>
-      <c r="AH161" s="41"/>
-      <c r="AI161" s="42"/>
     </row>
     <row r="162" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="30"/>
       <c r="F162" s="46"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="20"/>
-      <c r="P162" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q162" s="19"/>
-      <c r="R162" s="19"/>
-      <c r="S162" s="19"/>
-      <c r="T162" s="19"/>
-      <c r="U162" s="19"/>
-      <c r="V162" s="19"/>
-      <c r="W162" s="19"/>
-      <c r="X162" s="19"/>
-      <c r="Y162" s="19"/>
-      <c r="Z162" s="19"/>
-      <c r="AA162" s="19"/>
-      <c r="AB162" s="19"/>
-      <c r="AC162" s="19"/>
-      <c r="AD162" s="19"/>
-      <c r="AE162" s="19"/>
-      <c r="AF162" s="19"/>
-      <c r="AG162" s="19"/>
-      <c r="AH162" s="19"/>
-      <c r="AI162" s="20"/>
+      <c r="G162" s="30" t="str">
+        <f>F155&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H162" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="163" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E163" s="30"/>
       <c r="F163" s="46"/>
       <c r="G163" s="30"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
-      <c r="O163" s="20"/>
-      <c r="P163" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q163" s="19"/>
-      <c r="R163" s="19"/>
-      <c r="S163" s="19"/>
-      <c r="T163" s="19"/>
-      <c r="U163" s="19"/>
-      <c r="V163" s="19"/>
-      <c r="W163" s="19"/>
-      <c r="X163" s="19"/>
-      <c r="Y163" s="19"/>
-      <c r="Z163" s="19"/>
-      <c r="AA163" s="19"/>
-      <c r="AB163" s="19"/>
-      <c r="AC163" s="19"/>
-      <c r="AD163" s="19"/>
-      <c r="AE163" s="19"/>
-      <c r="AF163" s="19"/>
-      <c r="AG163" s="19"/>
-      <c r="AH163" s="19"/>
-      <c r="AI163" s="20"/>
+      <c r="H163" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M163" s="28"/>
+      <c r="N163" s="28"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q163" s="28"/>
+      <c r="R163" s="28"/>
+      <c r="S163" s="28"/>
+      <c r="T163" s="28"/>
+      <c r="U163" s="28"/>
+      <c r="V163" s="28"/>
+      <c r="W163" s="28"/>
+      <c r="X163" s="28"/>
+      <c r="Y163" s="28"/>
+      <c r="Z163" s="28"/>
+      <c r="AA163" s="28"/>
+      <c r="AB163" s="28"/>
+      <c r="AC163" s="28"/>
+      <c r="AD163" s="28"/>
+      <c r="AE163" s="28"/>
+      <c r="AF163" s="28"/>
+      <c r="AG163" s="28"/>
+      <c r="AH163" s="28"/>
+      <c r="AI163" s="29"/>
     </row>
     <row r="164" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E164" s="30"/>
       <c r="F164" s="46"/>
       <c r="G164" s="30"/>
-      <c r="H164" s="18"/>
+      <c r="H164" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
       <c r="K164" s="19"/>
-      <c r="L164" s="18"/>
+      <c r="L164" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="M164" s="19"/>
       <c r="N164" s="19"/>
       <c r="O164" s="20"/>
-      <c r="P164" s="19"/>
-      <c r="Q164" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="R164" s="28"/>
-      <c r="S164" s="28"/>
-      <c r="T164" s="28"/>
-      <c r="U164" s="29"/>
-      <c r="V164" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="W164" s="28"/>
-      <c r="X164" s="29"/>
+      <c r="P164" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
+      <c r="S164" s="19"/>
+      <c r="T164" s="19"/>
+      <c r="U164" s="19"/>
+      <c r="V164" s="19"/>
+      <c r="W164" s="19"/>
+      <c r="X164" s="19"/>
       <c r="Y164" s="19"/>
       <c r="Z164" s="19"/>
       <c r="AA164" s="19"/>
@@ -6101,63 +6071,68 @@
       <c r="E165" s="30"/>
       <c r="F165" s="46"/>
       <c r="G165" s="30"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-      <c r="O165" s="20"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="32" t="s">
-        <v>141</v>
-      </c>
+      <c r="H165" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="43"/>
+      <c r="J165" s="43"/>
+      <c r="K165" s="43"/>
+      <c r="L165" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M165" s="43"/>
+      <c r="N165" s="43"/>
+      <c r="O165" s="44"/>
+      <c r="P165" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q165" s="43"/>
       <c r="R165" s="43"/>
       <c r="S165" s="43"/>
       <c r="T165" s="43"/>
-      <c r="U165" s="44"/>
-      <c r="V165" s="43" t="s">
-        <v>96</v>
-      </c>
+      <c r="U165" s="43"/>
+      <c r="V165" s="43"/>
       <c r="W165" s="43"/>
-      <c r="X165" s="44"/>
-      <c r="Y165" s="19"/>
-      <c r="Z165" s="19"/>
-      <c r="AA165" s="19"/>
-      <c r="AB165" s="19"/>
-      <c r="AC165" s="19"/>
-      <c r="AD165" s="19"/>
-      <c r="AE165" s="19"/>
-      <c r="AF165" s="19"/>
-      <c r="AG165" s="19"/>
-      <c r="AH165" s="19"/>
-      <c r="AI165" s="20"/>
+      <c r="X165" s="43"/>
+      <c r="Y165" s="43"/>
+      <c r="Z165" s="43"/>
+      <c r="AA165" s="43"/>
+      <c r="AB165" s="43"/>
+      <c r="AC165" s="43"/>
+      <c r="AD165" s="43"/>
+      <c r="AE165" s="43"/>
+      <c r="AF165" s="43"/>
+      <c r="AG165" s="43"/>
+      <c r="AH165" s="43"/>
+      <c r="AI165" s="44"/>
     </row>
     <row r="166" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E166" s="30"/>
       <c r="F166" s="46"/>
-      <c r="H166" s="18"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="I166" s="19"/>
       <c r="J166" s="19"/>
       <c r="K166" s="19"/>
-      <c r="L166" s="18"/>
+      <c r="L166" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="M166" s="19"/>
       <c r="N166" s="19"/>
       <c r="O166" s="20"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="R166" s="41"/>
-      <c r="S166" s="41"/>
-      <c r="T166" s="41"/>
-      <c r="U166" s="42"/>
-      <c r="V166" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="W166" s="41"/>
-      <c r="X166" s="42"/>
+      <c r="P166" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19"/>
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
       <c r="Y166" s="19"/>
       <c r="Z166" s="19"/>
       <c r="AA166" s="19"/>
@@ -6173,52 +6148,52 @@
     <row r="167" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E167" s="30"/>
       <c r="F167" s="46"/>
-      <c r="H167" s="40"/>
-      <c r="I167" s="41"/>
-      <c r="J167" s="41"/>
-      <c r="K167" s="41"/>
-      <c r="L167" s="40"/>
-      <c r="M167" s="41"/>
-      <c r="N167" s="41"/>
-      <c r="O167" s="42"/>
-      <c r="P167" s="41"/>
-      <c r="Q167" s="41"/>
-      <c r="R167" s="41"/>
-      <c r="S167" s="41"/>
-      <c r="T167" s="41"/>
-      <c r="U167" s="41"/>
-      <c r="V167" s="41"/>
-      <c r="W167" s="41"/>
-      <c r="X167" s="41"/>
-      <c r="Y167" s="41"/>
-      <c r="Z167" s="41"/>
-      <c r="AA167" s="41"/>
-      <c r="AB167" s="41"/>
-      <c r="AC167" s="41"/>
-      <c r="AD167" s="41"/>
-      <c r="AE167" s="41"/>
-      <c r="AF167" s="41"/>
-      <c r="AG167" s="41"/>
-      <c r="AH167" s="41"/>
-      <c r="AI167" s="42"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="19"/>
+      <c r="S167" s="19"/>
+      <c r="T167" s="19"/>
+      <c r="U167" s="19"/>
+      <c r="V167" s="19"/>
+      <c r="W167" s="19"/>
+      <c r="X167" s="19"/>
+      <c r="Y167" s="19"/>
+      <c r="Z167" s="19"/>
+      <c r="AA167" s="19"/>
+      <c r="AB167" s="19"/>
+      <c r="AC167" s="19"/>
+      <c r="AD167" s="19"/>
+      <c r="AE167" s="19"/>
+      <c r="AF167" s="19"/>
+      <c r="AG167" s="19"/>
+      <c r="AH167" s="19"/>
+      <c r="AI167" s="20"/>
     </row>
     <row r="168" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="30"/>
       <c r="F168" s="46"/>
-      <c r="H168" s="40" t="s">
-        <v>97</v>
-      </c>
+      <c r="G168" s="30"/>
+      <c r="H168" s="40"/>
       <c r="I168" s="41"/>
       <c r="J168" s="41"/>
       <c r="K168" s="41"/>
-      <c r="L168" s="40" t="s">
-        <v>98</v>
-      </c>
+      <c r="L168" s="40"/>
       <c r="M168" s="41"/>
       <c r="N168" s="41"/>
       <c r="O168" s="42"/>
       <c r="P168" s="41" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="Q168" s="41"/>
       <c r="R168" s="41"/>
@@ -6242,21 +6217,22 @@
     </row>
     <row r="169" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E169" s="30"/>
-      <c r="F169" s="31"/>
+      <c r="F169" s="46"/>
+      <c r="G169" s="30"/>
       <c r="H169" s="40" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I169" s="41"/>
       <c r="J169" s="41"/>
       <c r="K169" s="41"/>
       <c r="L169" s="40" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M169" s="41"/>
       <c r="N169" s="41"/>
       <c r="O169" s="42"/>
       <c r="P169" s="41" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="Q169" s="41"/>
       <c r="R169" s="41"/>
@@ -6280,417 +6256,465 @@
     </row>
     <row r="170" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E170" s="30"/>
-      <c r="H170" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I170" s="24"/>
-      <c r="J170" s="24"/>
-      <c r="K170" s="24"/>
-      <c r="L170" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="M170" s="24"/>
-      <c r="N170" s="24"/>
-      <c r="O170" s="24"/>
-      <c r="P170" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q170" s="24"/>
-      <c r="R170" s="24"/>
-      <c r="S170" s="24"/>
-      <c r="T170" s="24"/>
-      <c r="U170" s="24"/>
-      <c r="V170" s="24"/>
-      <c r="W170" s="24"/>
-      <c r="X170" s="24"/>
-      <c r="Y170" s="24"/>
-      <c r="Z170" s="24"/>
-      <c r="AA170" s="24"/>
-      <c r="AB170" s="24"/>
-      <c r="AC170" s="24"/>
-      <c r="AD170" s="24"/>
-      <c r="AE170" s="24"/>
-      <c r="AF170" s="24"/>
-      <c r="AG170" s="24"/>
-      <c r="AH170" s="24"/>
-      <c r="AI170" s="25"/>
+      <c r="F170" s="46"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M170" s="19"/>
+      <c r="N170" s="19"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q170" s="19"/>
+      <c r="R170" s="19"/>
+      <c r="S170" s="19"/>
+      <c r="T170" s="19"/>
+      <c r="U170" s="19"/>
+      <c r="V170" s="19"/>
+      <c r="W170" s="19"/>
+      <c r="X170" s="19"/>
+      <c r="Y170" s="19"/>
+      <c r="Z170" s="19"/>
+      <c r="AA170" s="19"/>
+      <c r="AB170" s="19"/>
+      <c r="AC170" s="19"/>
+      <c r="AD170" s="19"/>
+      <c r="AE170" s="19"/>
+      <c r="AF170" s="19"/>
+      <c r="AG170" s="19"/>
+      <c r="AH170" s="19"/>
+      <c r="AI170" s="20"/>
     </row>
     <row r="171" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E171" s="30"/>
-      <c r="H171" s="40"/>
-      <c r="I171" s="41"/>
-      <c r="J171" s="41"/>
-      <c r="K171" s="41"/>
-      <c r="L171" s="40"/>
-      <c r="M171" s="41"/>
-      <c r="N171" s="41"/>
-      <c r="O171" s="41"/>
-      <c r="P171" s="40" t="str">
-        <f>"フォーマットは"&amp;$D$104&amp;$E$104&amp;"参照。"</f>
-        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
-      </c>
-      <c r="Q171" s="41"/>
-      <c r="R171" s="41"/>
-      <c r="S171" s="41"/>
-      <c r="T171" s="41"/>
-      <c r="U171" s="41"/>
-      <c r="V171" s="41"/>
-      <c r="W171" s="41"/>
-      <c r="X171" s="41"/>
-      <c r="Y171" s="41"/>
-      <c r="Z171" s="41"/>
-      <c r="AA171" s="41"/>
-      <c r="AB171" s="41"/>
-      <c r="AC171" s="41"/>
-      <c r="AD171" s="41"/>
-      <c r="AE171" s="41"/>
-      <c r="AF171" s="41"/>
-      <c r="AG171" s="41"/>
-      <c r="AH171" s="41"/>
-      <c r="AI171" s="42"/>
-    </row>
-    <row r="172" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="20"/>
+      <c r="P171" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="19"/>
+      <c r="S171" s="19"/>
+      <c r="T171" s="19"/>
+      <c r="U171" s="19"/>
+      <c r="V171" s="19"/>
+      <c r="W171" s="19"/>
+      <c r="X171" s="19"/>
+      <c r="Y171" s="19"/>
+      <c r="Z171" s="19"/>
+      <c r="AA171" s="19"/>
+      <c r="AB171" s="19"/>
+      <c r="AC171" s="19"/>
+      <c r="AD171" s="19"/>
+      <c r="AE171" s="19"/>
+      <c r="AF171" s="19"/>
+      <c r="AG171" s="19"/>
+      <c r="AH171" s="19"/>
+      <c r="AI171" s="20"/>
+    </row>
+    <row r="172" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E172" s="30"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="19"/>
+      <c r="N172" s="19"/>
+      <c r="O172" s="20"/>
+      <c r="P172" s="19"/>
+      <c r="Q172" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R172" s="28"/>
+      <c r="S172" s="28"/>
+      <c r="T172" s="28"/>
+      <c r="U172" s="29"/>
+      <c r="V172" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W172" s="28"/>
+      <c r="X172" s="29"/>
+      <c r="Y172" s="19"/>
+      <c r="Z172" s="19"/>
+      <c r="AA172" s="19"/>
+      <c r="AB172" s="19"/>
+      <c r="AC172" s="19"/>
+      <c r="AD172" s="19"/>
+      <c r="AE172" s="19"/>
+      <c r="AF172" s="19"/>
+      <c r="AG172" s="19"/>
+      <c r="AH172" s="19"/>
+      <c r="AI172" s="20"/>
+    </row>
     <row r="173" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E173" s="30"/>
-      <c r="F173" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" s="45" t="s">
-        <v>16</v>
-      </c>
+      <c r="F173" s="46"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="20"/>
+      <c r="P173" s="19"/>
+      <c r="Q173" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="R173" s="43"/>
+      <c r="S173" s="43"/>
+      <c r="T173" s="43"/>
+      <c r="U173" s="44"/>
+      <c r="V173" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="W173" s="43"/>
+      <c r="X173" s="44"/>
+      <c r="Y173" s="19"/>
+      <c r="Z173" s="19"/>
+      <c r="AA173" s="19"/>
+      <c r="AB173" s="19"/>
+      <c r="AC173" s="19"/>
+      <c r="AD173" s="19"/>
+      <c r="AE173" s="19"/>
+      <c r="AF173" s="19"/>
+      <c r="AG173" s="19"/>
+      <c r="AH173" s="19"/>
+      <c r="AI173" s="20"/>
     </row>
     <row r="174" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E174" s="30"/>
       <c r="F174" s="46"/>
-      <c r="G174" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="H174" s="24"/>
-      <c r="I174" s="24"/>
-      <c r="J174" s="24"/>
-      <c r="K174" s="24"/>
-      <c r="L174" s="24"/>
-      <c r="M174" s="24"/>
-      <c r="N174" s="24"/>
-      <c r="O174" s="24"/>
-      <c r="P174" s="24"/>
-      <c r="Q174" s="24"/>
-      <c r="R174" s="24"/>
-      <c r="S174" s="24"/>
-      <c r="T174" s="24"/>
-      <c r="U174" s="24"/>
-      <c r="V174" s="24"/>
-      <c r="W174" s="24"/>
-      <c r="X174" s="24"/>
-      <c r="Y174" s="24"/>
-      <c r="Z174" s="24"/>
-      <c r="AA174" s="24"/>
-      <c r="AB174" s="24"/>
-      <c r="AC174" s="24"/>
-      <c r="AD174" s="24"/>
-      <c r="AE174" s="24"/>
-      <c r="AF174" s="24"/>
-      <c r="AG174" s="24"/>
-      <c r="AH174" s="24"/>
-      <c r="AI174" s="25"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="20"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="R174" s="41"/>
+      <c r="S174" s="41"/>
+      <c r="T174" s="41"/>
+      <c r="U174" s="42"/>
+      <c r="V174" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="W174" s="41"/>
+      <c r="X174" s="42"/>
+      <c r="Y174" s="19"/>
+      <c r="Z174" s="19"/>
+      <c r="AA174" s="19"/>
+      <c r="AB174" s="19"/>
+      <c r="AC174" s="19"/>
+      <c r="AD174" s="19"/>
+      <c r="AE174" s="19"/>
+      <c r="AF174" s="19"/>
+      <c r="AG174" s="19"/>
+      <c r="AH174" s="19"/>
+      <c r="AI174" s="20"/>
     </row>
     <row r="175" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E175" s="30"/>
       <c r="F175" s="46"/>
-      <c r="G175" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="19"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="19"/>
-      <c r="N175" s="19"/>
-      <c r="O175" s="19"/>
-      <c r="P175" s="19"/>
-      <c r="Q175" s="19"/>
-      <c r="R175" s="19"/>
-      <c r="S175" s="19"/>
-      <c r="T175" s="19"/>
-      <c r="U175" s="19"/>
-      <c r="V175" s="19"/>
-      <c r="W175" s="19"/>
-      <c r="X175" s="19"/>
-      <c r="Y175" s="19"/>
-      <c r="Z175" s="19"/>
-      <c r="AA175" s="19"/>
-      <c r="AB175" s="19"/>
-      <c r="AC175" s="19"/>
-      <c r="AD175" s="19"/>
-      <c r="AE175" s="19"/>
-      <c r="AF175" s="19"/>
-      <c r="AG175" s="19"/>
-      <c r="AH175" s="19"/>
-      <c r="AI175" s="20"/>
+      <c r="H175" s="40"/>
+      <c r="I175" s="41"/>
+      <c r="J175" s="41"/>
+      <c r="K175" s="41"/>
+      <c r="L175" s="40"/>
+      <c r="M175" s="41"/>
+      <c r="N175" s="41"/>
+      <c r="O175" s="42"/>
+      <c r="P175" s="41"/>
+      <c r="Q175" s="41"/>
+      <c r="R175" s="41"/>
+      <c r="S175" s="41"/>
+      <c r="T175" s="41"/>
+      <c r="U175" s="41"/>
+      <c r="V175" s="41"/>
+      <c r="W175" s="41"/>
+      <c r="X175" s="41"/>
+      <c r="Y175" s="41"/>
+      <c r="Z175" s="41"/>
+      <c r="AA175" s="41"/>
+      <c r="AB175" s="41"/>
+      <c r="AC175" s="41"/>
+      <c r="AD175" s="41"/>
+      <c r="AE175" s="41"/>
+      <c r="AF175" s="41"/>
+      <c r="AG175" s="41"/>
+      <c r="AH175" s="41"/>
+      <c r="AI175" s="42"/>
     </row>
     <row r="176" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E176" s="30"/>
       <c r="F176" s="46"/>
-      <c r="G176" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-      <c r="K176" s="19"/>
-      <c r="L176" s="19"/>
-      <c r="M176" s="19"/>
-      <c r="N176" s="19"/>
-      <c r="O176" s="19"/>
-      <c r="P176" s="19"/>
-      <c r="Q176" s="19"/>
-      <c r="R176" s="19"/>
-      <c r="S176" s="19"/>
-      <c r="T176" s="19"/>
-      <c r="U176" s="19"/>
-      <c r="V176" s="19"/>
-      <c r="W176" s="19"/>
-      <c r="X176" s="19"/>
-      <c r="Y176" s="19"/>
-      <c r="Z176" s="19"/>
-      <c r="AA176" s="19"/>
-      <c r="AB176" s="19"/>
-      <c r="AC176" s="19"/>
-      <c r="AD176" s="19"/>
-      <c r="AE176" s="19"/>
-      <c r="AF176" s="19"/>
-      <c r="AG176" s="19"/>
-      <c r="AH176" s="19"/>
-      <c r="AI176" s="20"/>
-    </row>
-    <row r="177" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H176" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I176" s="41"/>
+      <c r="J176" s="41"/>
+      <c r="K176" s="41"/>
+      <c r="L176" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M176" s="41"/>
+      <c r="N176" s="41"/>
+      <c r="O176" s="42"/>
+      <c r="P176" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q176" s="41"/>
+      <c r="R176" s="41"/>
+      <c r="S176" s="41"/>
+      <c r="T176" s="41"/>
+      <c r="U176" s="41"/>
+      <c r="V176" s="41"/>
+      <c r="W176" s="41"/>
+      <c r="X176" s="41"/>
+      <c r="Y176" s="41"/>
+      <c r="Z176" s="41"/>
+      <c r="AA176" s="41"/>
+      <c r="AB176" s="41"/>
+      <c r="AC176" s="41"/>
+      <c r="AD176" s="41"/>
+      <c r="AE176" s="41"/>
+      <c r="AF176" s="41"/>
+      <c r="AG176" s="41"/>
+      <c r="AH176" s="41"/>
+      <c r="AI176" s="42"/>
+    </row>
+    <row r="177" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E177" s="30"/>
-      <c r="F177" s="46"/>
-      <c r="G177" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-      <c r="O177" s="19"/>
-      <c r="P177" s="19"/>
-      <c r="Q177" s="19"/>
-      <c r="R177" s="19"/>
-      <c r="S177" s="19"/>
-      <c r="T177" s="19"/>
-      <c r="U177" s="19"/>
-      <c r="V177" s="19"/>
-      <c r="W177" s="19"/>
-      <c r="X177" s="19"/>
-      <c r="Y177" s="19"/>
-      <c r="Z177" s="19"/>
-      <c r="AA177" s="19"/>
-      <c r="AB177" s="19"/>
-      <c r="AC177" s="19"/>
-      <c r="AD177" s="19"/>
-      <c r="AE177" s="19"/>
-      <c r="AF177" s="19"/>
-      <c r="AG177" s="19"/>
-      <c r="AH177" s="19"/>
-      <c r="AI177" s="20"/>
-    </row>
-    <row r="178" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F177" s="31"/>
+      <c r="H177" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I177" s="41"/>
+      <c r="J177" s="41"/>
+      <c r="K177" s="41"/>
+      <c r="L177" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M177" s="41"/>
+      <c r="N177" s="41"/>
+      <c r="O177" s="42"/>
+      <c r="P177" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q177" s="41"/>
+      <c r="R177" s="41"/>
+      <c r="S177" s="41"/>
+      <c r="T177" s="41"/>
+      <c r="U177" s="41"/>
+      <c r="V177" s="41"/>
+      <c r="W177" s="41"/>
+      <c r="X177" s="41"/>
+      <c r="Y177" s="41"/>
+      <c r="Z177" s="41"/>
+      <c r="AA177" s="41"/>
+      <c r="AB177" s="41"/>
+      <c r="AC177" s="41"/>
+      <c r="AD177" s="41"/>
+      <c r="AE177" s="41"/>
+      <c r="AF177" s="41"/>
+      <c r="AG177" s="41"/>
+      <c r="AH177" s="41"/>
+      <c r="AI177" s="42"/>
+    </row>
+    <row r="178" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E178" s="30"/>
-      <c r="F178" s="46"/>
-      <c r="G178" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H178" s="41"/>
-      <c r="I178" s="41"/>
-      <c r="J178" s="41"/>
-      <c r="K178" s="41"/>
-      <c r="L178" s="41"/>
-      <c r="M178" s="41"/>
-      <c r="N178" s="41"/>
-      <c r="O178" s="41"/>
-      <c r="P178" s="41"/>
-      <c r="Q178" s="41"/>
-      <c r="R178" s="41"/>
-      <c r="S178" s="41"/>
-      <c r="T178" s="41"/>
-      <c r="U178" s="41"/>
-      <c r="V178" s="41"/>
-      <c r="W178" s="41"/>
-      <c r="X178" s="41"/>
-      <c r="Y178" s="41"/>
-      <c r="Z178" s="41"/>
-      <c r="AA178" s="41"/>
-      <c r="AB178" s="41"/>
-      <c r="AC178" s="41"/>
-      <c r="AD178" s="41"/>
-      <c r="AE178" s="41"/>
-      <c r="AF178" s="41"/>
-      <c r="AG178" s="41"/>
-      <c r="AH178" s="41"/>
-      <c r="AI178" s="42"/>
-    </row>
-    <row r="179" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H178" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M178" s="24"/>
+      <c r="N178" s="24"/>
+      <c r="O178" s="24"/>
+      <c r="P178" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q178" s="24"/>
+      <c r="R178" s="24"/>
+      <c r="S178" s="24"/>
+      <c r="T178" s="24"/>
+      <c r="U178" s="24"/>
+      <c r="V178" s="24"/>
+      <c r="W178" s="24"/>
+      <c r="X178" s="24"/>
+      <c r="Y178" s="24"/>
+      <c r="Z178" s="24"/>
+      <c r="AA178" s="24"/>
+      <c r="AB178" s="24"/>
+      <c r="AC178" s="24"/>
+      <c r="AD178" s="24"/>
+      <c r="AE178" s="24"/>
+      <c r="AF178" s="24"/>
+      <c r="AG178" s="24"/>
+      <c r="AH178" s="24"/>
+      <c r="AI178" s="25"/>
+    </row>
+    <row r="179" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E179" s="30"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="50"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
-      <c r="N179" s="19"/>
-      <c r="O179" s="19"/>
-      <c r="P179" s="19"/>
-      <c r="Q179" s="19"/>
-      <c r="R179" s="19"/>
-      <c r="S179" s="19"/>
-      <c r="T179" s="19"/>
-      <c r="U179" s="19"/>
-      <c r="V179" s="19"/>
-      <c r="W179" s="19"/>
-      <c r="X179" s="19"/>
-      <c r="Y179" s="19"/>
-      <c r="Z179" s="19"/>
-      <c r="AA179" s="19"/>
-      <c r="AB179" s="19"/>
-      <c r="AC179" s="19"/>
-      <c r="AD179" s="19"/>
-      <c r="AE179" s="19"/>
-      <c r="AF179" s="19"/>
-      <c r="AG179" s="19"/>
-      <c r="AH179" s="19"/>
-      <c r="AI179" s="19"/>
-    </row>
-    <row r="180" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E180" s="30" t="str">
-        <f>$D$140&amp;"2."</f>
-        <v>7.13.4.2.</v>
-      </c>
-      <c r="F180" s="31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="181" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H179" s="40"/>
+      <c r="I179" s="41"/>
+      <c r="J179" s="41"/>
+      <c r="K179" s="41"/>
+      <c r="L179" s="40"/>
+      <c r="M179" s="41"/>
+      <c r="N179" s="41"/>
+      <c r="O179" s="41"/>
+      <c r="P179" s="40" t="str">
+        <f>"フォーマットは"&amp;$D$112&amp;$E$112&amp;"参照。"</f>
+        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
+      </c>
+      <c r="Q179" s="41"/>
+      <c r="R179" s="41"/>
+      <c r="S179" s="41"/>
+      <c r="T179" s="41"/>
+      <c r="U179" s="41"/>
+      <c r="V179" s="41"/>
+      <c r="W179" s="41"/>
+      <c r="X179" s="41"/>
+      <c r="Y179" s="41"/>
+      <c r="Z179" s="41"/>
+      <c r="AA179" s="41"/>
+      <c r="AB179" s="41"/>
+      <c r="AC179" s="41"/>
+      <c r="AD179" s="41"/>
+      <c r="AE179" s="41"/>
+      <c r="AF179" s="41"/>
+      <c r="AG179" s="41"/>
+      <c r="AH179" s="41"/>
+      <c r="AI179" s="42"/>
+    </row>
+    <row r="180" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E181" s="30"/>
       <c r="F181" s="46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G181" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E182" s="30"/>
-      <c r="F182" s="31"/>
-      <c r="G182" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H182" s="28"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="28"/>
-      <c r="K182" s="29"/>
-      <c r="L182" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="M182" s="28"/>
-      <c r="N182" s="29"/>
-      <c r="O182" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="P182" s="28"/>
-      <c r="Q182" s="28"/>
-      <c r="R182" s="29"/>
-      <c r="S182" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="T182" s="28"/>
-      <c r="U182" s="28"/>
-      <c r="V182" s="28"/>
-      <c r="W182" s="28"/>
-      <c r="X182" s="28"/>
-      <c r="Y182" s="28"/>
-      <c r="Z182" s="28"/>
-      <c r="AA182" s="28"/>
-      <c r="AB182" s="28"/>
-      <c r="AC182" s="28"/>
-      <c r="AD182" s="28"/>
-      <c r="AE182" s="28"/>
-      <c r="AF182" s="28"/>
-      <c r="AG182" s="28"/>
-      <c r="AH182" s="28"/>
-      <c r="AI182" s="29"/>
-    </row>
-    <row r="183" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F182" s="46"/>
+      <c r="G182" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
+      <c r="M182" s="24"/>
+      <c r="N182" s="24"/>
+      <c r="O182" s="24"/>
+      <c r="P182" s="24"/>
+      <c r="Q182" s="24"/>
+      <c r="R182" s="24"/>
+      <c r="S182" s="24"/>
+      <c r="T182" s="24"/>
+      <c r="U182" s="24"/>
+      <c r="V182" s="24"/>
+      <c r="W182" s="24"/>
+      <c r="X182" s="24"/>
+      <c r="Y182" s="24"/>
+      <c r="Z182" s="24"/>
+      <c r="AA182" s="24"/>
+      <c r="AB182" s="24"/>
+      <c r="AC182" s="24"/>
+      <c r="AD182" s="24"/>
+      <c r="AE182" s="24"/>
+      <c r="AF182" s="24"/>
+      <c r="AG182" s="24"/>
+      <c r="AH182" s="24"/>
+      <c r="AI182" s="25"/>
+    </row>
+    <row r="183" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E183" s="30"/>
-      <c r="F183" s="31"/>
-      <c r="G183" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H183" s="43"/>
-      <c r="I183" s="43"/>
-      <c r="J183" s="43"/>
-      <c r="K183" s="44"/>
-      <c r="L183" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M183" s="43"/>
-      <c r="N183" s="44"/>
-      <c r="O183" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="P183" s="43"/>
-      <c r="Q183" s="43"/>
-      <c r="R183" s="44"/>
-      <c r="S183" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="T183" s="43"/>
-      <c r="U183" s="43"/>
-      <c r="V183" s="43"/>
-      <c r="W183" s="43"/>
-      <c r="X183" s="43"/>
-      <c r="Y183" s="43"/>
-      <c r="Z183" s="43"/>
-      <c r="AA183" s="43"/>
-      <c r="AB183" s="43"/>
-      <c r="AC183" s="43"/>
-      <c r="AD183" s="43"/>
-      <c r="AE183" s="43"/>
-      <c r="AF183" s="43"/>
-      <c r="AG183" s="43"/>
-      <c r="AH183" s="43"/>
-      <c r="AI183" s="44"/>
-    </row>
-    <row r="184" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F183" s="46"/>
+      <c r="G183" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="19"/>
+      <c r="N183" s="19"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="19"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="19"/>
+      <c r="S183" s="19"/>
+      <c r="T183" s="19"/>
+      <c r="U183" s="19"/>
+      <c r="V183" s="19"/>
+      <c r="W183" s="19"/>
+      <c r="X183" s="19"/>
+      <c r="Y183" s="19"/>
+      <c r="Z183" s="19"/>
+      <c r="AA183" s="19"/>
+      <c r="AB183" s="19"/>
+      <c r="AC183" s="19"/>
+      <c r="AD183" s="19"/>
+      <c r="AE183" s="19"/>
+      <c r="AF183" s="19"/>
+      <c r="AG183" s="19"/>
+      <c r="AH183" s="19"/>
+      <c r="AI183" s="20"/>
+    </row>
+    <row r="184" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E184" s="30"/>
-      <c r="F184" s="31"/>
-      <c r="G184" s="18" t="s">
-        <v>41</v>
+      <c r="F184" s="46"/>
+      <c r="G184" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
-      <c r="K184" s="20"/>
-      <c r="L184" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
       <c r="M184" s="19"/>
-      <c r="N184" s="20"/>
-      <c r="O184" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="N184" s="19"/>
+      <c r="O184" s="19"/>
       <c r="P184" s="19"/>
       <c r="Q184" s="19"/>
-      <c r="R184" s="20"/>
-      <c r="S184" s="19" t="s">
-        <v>121</v>
-      </c>
+      <c r="R184" s="19"/>
+      <c r="S184" s="19"/>
       <c r="T184" s="19"/>
       <c r="U184" s="19"/>
       <c r="V184" s="19"/>
@@ -6708,377 +6732,444 @@
       <c r="AH184" s="19"/>
       <c r="AI184" s="20"/>
     </row>
-    <row r="185" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E185" s="30"/>
-      <c r="F185" s="31"/>
-      <c r="G185" s="40"/>
-      <c r="H185" s="41"/>
-      <c r="I185" s="41"/>
-      <c r="J185" s="41"/>
-      <c r="K185" s="42"/>
-      <c r="L185" s="41"/>
-      <c r="M185" s="41"/>
-      <c r="N185" s="42"/>
-      <c r="O185" s="41"/>
-      <c r="P185" s="41"/>
-      <c r="Q185" s="41"/>
-      <c r="R185" s="42"/>
-      <c r="S185" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="T185" s="41"/>
-      <c r="U185" s="41"/>
-      <c r="V185" s="41"/>
-      <c r="W185" s="41"/>
-      <c r="X185" s="41"/>
-      <c r="Y185" s="41"/>
-      <c r="Z185" s="41"/>
-      <c r="AA185" s="41"/>
-      <c r="AB185" s="41"/>
-      <c r="AC185" s="41"/>
-      <c r="AD185" s="41"/>
-      <c r="AE185" s="41"/>
-      <c r="AF185" s="41"/>
-      <c r="AG185" s="41"/>
-      <c r="AH185" s="41"/>
-      <c r="AI185" s="42"/>
-    </row>
-    <row r="186" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F185" s="46"/>
+      <c r="G185" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="19"/>
+      <c r="S185" s="19"/>
+      <c r="T185" s="19"/>
+      <c r="U185" s="19"/>
+      <c r="V185" s="19"/>
+      <c r="W185" s="19"/>
+      <c r="X185" s="19"/>
+      <c r="Y185" s="19"/>
+      <c r="Z185" s="19"/>
+      <c r="AA185" s="19"/>
+      <c r="AB185" s="19"/>
+      <c r="AC185" s="19"/>
+      <c r="AD185" s="19"/>
+      <c r="AE185" s="19"/>
+      <c r="AF185" s="19"/>
+      <c r="AG185" s="19"/>
+      <c r="AH185" s="19"/>
+      <c r="AI185" s="20"/>
+    </row>
+    <row r="186" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E186" s="30"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="H186" s="43"/>
-      <c r="I186" s="43"/>
-      <c r="J186" s="43"/>
-      <c r="K186" s="44"/>
-      <c r="L186" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="M186" s="43"/>
-      <c r="N186" s="44"/>
-      <c r="O186" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="P186" s="43"/>
-      <c r="Q186" s="43"/>
-      <c r="R186" s="44"/>
-      <c r="S186" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="T186" s="43"/>
-      <c r="U186" s="43"/>
-      <c r="V186" s="43"/>
-      <c r="W186" s="43"/>
-      <c r="X186" s="43"/>
-      <c r="Y186" s="43"/>
-      <c r="Z186" s="43"/>
-      <c r="AA186" s="43"/>
-      <c r="AB186" s="43"/>
-      <c r="AC186" s="43"/>
-      <c r="AD186" s="43"/>
-      <c r="AE186" s="43"/>
-      <c r="AF186" s="43"/>
-      <c r="AG186" s="43"/>
-      <c r="AH186" s="43"/>
-      <c r="AI186" s="44"/>
-    </row>
-    <row r="187" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F186" s="46"/>
+      <c r="G186" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H186" s="41"/>
+      <c r="I186" s="41"/>
+      <c r="J186" s="41"/>
+      <c r="K186" s="41"/>
+      <c r="L186" s="41"/>
+      <c r="M186" s="41"/>
+      <c r="N186" s="41"/>
+      <c r="O186" s="41"/>
+      <c r="P186" s="41"/>
+      <c r="Q186" s="41"/>
+      <c r="R186" s="41"/>
+      <c r="S186" s="41"/>
+      <c r="T186" s="41"/>
+      <c r="U186" s="41"/>
+      <c r="V186" s="41"/>
+      <c r="W186" s="41"/>
+      <c r="X186" s="41"/>
+      <c r="Y186" s="41"/>
+      <c r="Z186" s="41"/>
+      <c r="AA186" s="41"/>
+      <c r="AB186" s="41"/>
+      <c r="AC186" s="41"/>
+      <c r="AD186" s="41"/>
+      <c r="AE186" s="41"/>
+      <c r="AF186" s="41"/>
+      <c r="AG186" s="41"/>
+      <c r="AH186" s="41"/>
+      <c r="AI186" s="42"/>
+    </row>
+    <row r="187" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E187" s="30"/>
-      <c r="F187" s="31"/>
-      <c r="G187" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H187" s="43"/>
-      <c r="I187" s="43"/>
-      <c r="J187" s="43"/>
-      <c r="K187" s="44"/>
-      <c r="L187" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="M187" s="43"/>
-      <c r="N187" s="44"/>
-      <c r="O187" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="P187" s="43"/>
-      <c r="Q187" s="43"/>
-      <c r="R187" s="44"/>
-      <c r="S187" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="T187" s="43"/>
-      <c r="U187" s="43"/>
-      <c r="V187" s="43"/>
-      <c r="W187" s="43"/>
-      <c r="X187" s="43"/>
-      <c r="Y187" s="43"/>
-      <c r="Z187" s="43"/>
-      <c r="AA187" s="43"/>
-      <c r="AB187" s="43"/>
-      <c r="AC187" s="43"/>
-      <c r="AD187" s="43"/>
-      <c r="AE187" s="43"/>
-      <c r="AF187" s="43"/>
-      <c r="AG187" s="43"/>
-      <c r="AH187" s="43"/>
-      <c r="AI187" s="44"/>
-    </row>
-    <row r="188" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E188" s="30"/>
-      <c r="F188" s="31"/>
-    </row>
-    <row r="189" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F187" s="46"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="19"/>
+      <c r="S187" s="19"/>
+      <c r="T187" s="19"/>
+      <c r="U187" s="19"/>
+      <c r="V187" s="19"/>
+      <c r="W187" s="19"/>
+      <c r="X187" s="19"/>
+      <c r="Y187" s="19"/>
+      <c r="Z187" s="19"/>
+      <c r="AA187" s="19"/>
+      <c r="AB187" s="19"/>
+      <c r="AC187" s="19"/>
+      <c r="AD187" s="19"/>
+      <c r="AE187" s="19"/>
+      <c r="AF187" s="19"/>
+      <c r="AG187" s="19"/>
+      <c r="AH187" s="19"/>
+      <c r="AI187" s="19"/>
+    </row>
+    <row r="188" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E188" s="30" t="str">
+        <f>$D$148&amp;"2."</f>
+        <v>7.13.4.2.</v>
+      </c>
+      <c r="F188" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E189" s="30"/>
       <c r="F189" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E190" s="30"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="M190" s="28"/>
+      <c r="N190" s="29"/>
+      <c r="O190" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="P190" s="28"/>
+      <c r="Q190" s="28"/>
+      <c r="R190" s="29"/>
+      <c r="S190" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T190" s="28"/>
+      <c r="U190" s="28"/>
+      <c r="V190" s="28"/>
+      <c r="W190" s="28"/>
+      <c r="X190" s="28"/>
+      <c r="Y190" s="28"/>
+      <c r="Z190" s="28"/>
+      <c r="AA190" s="28"/>
+      <c r="AB190" s="28"/>
+      <c r="AC190" s="28"/>
+      <c r="AD190" s="28"/>
+      <c r="AE190" s="28"/>
+      <c r="AF190" s="28"/>
+      <c r="AG190" s="28"/>
+      <c r="AH190" s="28"/>
+      <c r="AI190" s="29"/>
+    </row>
+    <row r="191" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E191" s="30"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H191" s="43"/>
+      <c r="I191" s="43"/>
+      <c r="J191" s="43"/>
+      <c r="K191" s="44"/>
+      <c r="L191" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="M191" s="43"/>
+      <c r="N191" s="44"/>
+      <c r="O191" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="P191" s="43"/>
+      <c r="Q191" s="43"/>
+      <c r="R191" s="44"/>
+      <c r="S191" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="T191" s="43"/>
+      <c r="U191" s="43"/>
+      <c r="V191" s="43"/>
+      <c r="W191" s="43"/>
+      <c r="X191" s="43"/>
+      <c r="Y191" s="43"/>
+      <c r="Z191" s="43"/>
+      <c r="AA191" s="43"/>
+      <c r="AB191" s="43"/>
+      <c r="AC191" s="43"/>
+      <c r="AD191" s="43"/>
+      <c r="AE191" s="43"/>
+      <c r="AF191" s="43"/>
+      <c r="AG191" s="43"/>
+      <c r="AH191" s="43"/>
+      <c r="AI191" s="44"/>
+    </row>
+    <row r="192" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E192" s="30"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="M192" s="19"/>
+      <c r="N192" s="20"/>
+      <c r="O192" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P192" s="19"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="20"/>
+      <c r="S192" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="T192" s="19"/>
+      <c r="U192" s="19"/>
+      <c r="V192" s="19"/>
+      <c r="W192" s="19"/>
+      <c r="X192" s="19"/>
+      <c r="Y192" s="19"/>
+      <c r="Z192" s="19"/>
+      <c r="AA192" s="19"/>
+      <c r="AB192" s="19"/>
+      <c r="AC192" s="19"/>
+      <c r="AD192" s="19"/>
+      <c r="AE192" s="19"/>
+      <c r="AF192" s="19"/>
+      <c r="AG192" s="19"/>
+      <c r="AH192" s="19"/>
+      <c r="AI192" s="20"/>
+    </row>
+    <row r="193" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E193" s="30"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="40"/>
+      <c r="H193" s="41"/>
+      <c r="I193" s="41"/>
+      <c r="J193" s="41"/>
+      <c r="K193" s="42"/>
+      <c r="L193" s="41"/>
+      <c r="M193" s="41"/>
+      <c r="N193" s="42"/>
+      <c r="O193" s="41"/>
+      <c r="P193" s="41"/>
+      <c r="Q193" s="41"/>
+      <c r="R193" s="42"/>
+      <c r="S193" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="T193" s="41"/>
+      <c r="U193" s="41"/>
+      <c r="V193" s="41"/>
+      <c r="W193" s="41"/>
+      <c r="X193" s="41"/>
+      <c r="Y193" s="41"/>
+      <c r="Z193" s="41"/>
+      <c r="AA193" s="41"/>
+      <c r="AB193" s="41"/>
+      <c r="AC193" s="41"/>
+      <c r="AD193" s="41"/>
+      <c r="AE193" s="41"/>
+      <c r="AF193" s="41"/>
+      <c r="AG193" s="41"/>
+      <c r="AH193" s="41"/>
+      <c r="AI193" s="42"/>
+    </row>
+    <row r="194" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E194" s="30"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H194" s="43"/>
+      <c r="I194" s="43"/>
+      <c r="J194" s="43"/>
+      <c r="K194" s="44"/>
+      <c r="L194" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M194" s="43"/>
+      <c r="N194" s="44"/>
+      <c r="O194" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="P194" s="43"/>
+      <c r="Q194" s="43"/>
+      <c r="R194" s="44"/>
+      <c r="S194" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="T194" s="43"/>
+      <c r="U194" s="43"/>
+      <c r="V194" s="43"/>
+      <c r="W194" s="43"/>
+      <c r="X194" s="43"/>
+      <c r="Y194" s="43"/>
+      <c r="Z194" s="43"/>
+      <c r="AA194" s="43"/>
+      <c r="AB194" s="43"/>
+      <c r="AC194" s="43"/>
+      <c r="AD194" s="43"/>
+      <c r="AE194" s="43"/>
+      <c r="AF194" s="43"/>
+      <c r="AG194" s="43"/>
+      <c r="AH194" s="43"/>
+      <c r="AI194" s="44"/>
+    </row>
+    <row r="195" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E195" s="30"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H195" s="43"/>
+      <c r="I195" s="43"/>
+      <c r="J195" s="43"/>
+      <c r="K195" s="44"/>
+      <c r="L195" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M195" s="43"/>
+      <c r="N195" s="44"/>
+      <c r="O195" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="P195" s="43"/>
+      <c r="Q195" s="43"/>
+      <c r="R195" s="44"/>
+      <c r="S195" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="T195" s="43"/>
+      <c r="U195" s="43"/>
+      <c r="V195" s="43"/>
+      <c r="W195" s="43"/>
+      <c r="X195" s="43"/>
+      <c r="Y195" s="43"/>
+      <c r="Z195" s="43"/>
+      <c r="AA195" s="43"/>
+      <c r="AB195" s="43"/>
+      <c r="AC195" s="43"/>
+      <c r="AD195" s="43"/>
+      <c r="AE195" s="43"/>
+      <c r="AF195" s="43"/>
+      <c r="AG195" s="43"/>
+      <c r="AH195" s="43"/>
+      <c r="AI195" s="44"/>
+    </row>
+    <row r="196" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E196" s="30"/>
+      <c r="F196" s="31"/>
+    </row>
+    <row r="197" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E197" s="30"/>
+      <c r="F197" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G189" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="190" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E190" s="30"/>
-      <c r="F190" s="46"/>
-      <c r="G190" s="30" t="str">
-        <f>F189&amp;"-1"</f>
+      <c r="G197" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E198" s="30"/>
+      <c r="F198" s="46"/>
+      <c r="G198" s="30" t="str">
+        <f>F197&amp;"-1"</f>
         <v>(2)-1</v>
       </c>
-      <c r="H190" s="45" t="s">
+      <c r="H198" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D191" s="19"/>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="38"/>
-      <c r="H191" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I191" s="24"/>
-      <c r="J191" s="24"/>
-      <c r="K191" s="24"/>
-      <c r="L191" s="24"/>
-      <c r="M191" s="24"/>
-      <c r="N191" s="24"/>
-      <c r="O191" s="24"/>
-      <c r="P191" s="24"/>
-      <c r="Q191" s="24"/>
-      <c r="R191" s="24"/>
-      <c r="S191" s="24"/>
-      <c r="T191" s="24"/>
-      <c r="U191" s="24"/>
-      <c r="V191" s="24"/>
-      <c r="W191" s="24"/>
-      <c r="X191" s="24"/>
-      <c r="Y191" s="24"/>
-      <c r="Z191" s="24"/>
-      <c r="AA191" s="24"/>
-      <c r="AB191" s="24"/>
-      <c r="AC191" s="24"/>
-      <c r="AD191" s="24"/>
-      <c r="AE191" s="24"/>
-      <c r="AF191" s="24"/>
-      <c r="AG191" s="24"/>
-      <c r="AH191" s="24"/>
-      <c r="AI191" s="25"/>
-    </row>
-    <row r="192" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E192" s="30"/>
-      <c r="F192" s="30"/>
-      <c r="G192" s="46"/>
-      <c r="H192" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="I192" s="41"/>
-      <c r="J192" s="41"/>
-      <c r="K192" s="41"/>
-      <c r="L192" s="41"/>
-      <c r="M192" s="41"/>
-      <c r="N192" s="41"/>
-      <c r="O192" s="41"/>
-      <c r="P192" s="41"/>
-      <c r="Q192" s="41"/>
-      <c r="R192" s="41"/>
-      <c r="S192" s="41"/>
-      <c r="T192" s="41"/>
-      <c r="U192" s="41"/>
-      <c r="V192" s="41"/>
-      <c r="W192" s="41"/>
-      <c r="X192" s="41"/>
-      <c r="Y192" s="41"/>
-      <c r="Z192" s="41"/>
-      <c r="AA192" s="41"/>
-      <c r="AB192" s="41"/>
-      <c r="AC192" s="41"/>
-      <c r="AD192" s="41"/>
-      <c r="AE192" s="41"/>
-      <c r="AF192" s="41"/>
-      <c r="AG192" s="41"/>
-      <c r="AH192" s="41"/>
-      <c r="AI192" s="42"/>
-    </row>
-    <row r="193" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E193" s="30"/>
-      <c r="F193" s="30"/>
-      <c r="G193" s="46"/>
-      <c r="H193" s="45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="194" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E194" s="30"/>
-      <c r="F194" s="30"/>
-      <c r="G194" s="46"/>
-      <c r="H194" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="195" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E195" s="30"/>
-      <c r="F195" s="46"/>
-    </row>
-    <row r="196" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E196" s="30"/>
-      <c r="F196" s="46"/>
-      <c r="G196" s="30" t="str">
-        <f>F189&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H196" s="45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="197" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E197" s="30"/>
-      <c r="F197" s="46"/>
-      <c r="G197" s="30"/>
-      <c r="H197" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I197" s="28"/>
-      <c r="J197" s="28"/>
-      <c r="K197" s="28"/>
-      <c r="L197" s="28"/>
-      <c r="M197" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="N197" s="28"/>
-      <c r="O197" s="28"/>
-      <c r="P197" s="28"/>
-      <c r="Q197" s="29"/>
-      <c r="R197" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="S197" s="28"/>
-      <c r="T197" s="28"/>
-      <c r="U197" s="28"/>
-      <c r="V197" s="28"/>
-      <c r="W197" s="28"/>
-      <c r="X197" s="28"/>
-      <c r="Y197" s="28"/>
-      <c r="Z197" s="28"/>
-      <c r="AA197" s="28"/>
-      <c r="AB197" s="28"/>
-      <c r="AC197" s="28"/>
-      <c r="AD197" s="28"/>
-      <c r="AE197" s="28"/>
-      <c r="AF197" s="28"/>
-      <c r="AG197" s="28"/>
-      <c r="AH197" s="28"/>
-      <c r="AI197" s="29"/>
-    </row>
-    <row r="198" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E198" s="30"/>
-      <c r="H198" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I198" s="43"/>
-      <c r="J198" s="43"/>
-      <c r="K198" s="43"/>
-      <c r="L198" s="43"/>
-      <c r="M198" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="N198" s="43"/>
-      <c r="O198" s="43"/>
-      <c r="P198" s="43"/>
-      <c r="Q198" s="44"/>
-      <c r="R198" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="S198" s="43"/>
-      <c r="T198" s="43"/>
-      <c r="U198" s="43"/>
-      <c r="V198" s="43"/>
-      <c r="W198" s="43"/>
-      <c r="X198" s="43"/>
-      <c r="Y198" s="43"/>
-      <c r="Z198" s="43"/>
-      <c r="AA198" s="43"/>
-      <c r="AB198" s="43"/>
-      <c r="AC198" s="43"/>
-      <c r="AD198" s="43"/>
-      <c r="AE198" s="43"/>
-      <c r="AF198" s="43"/>
-      <c r="AG198" s="43"/>
-      <c r="AH198" s="43"/>
-      <c r="AI198" s="44"/>
-    </row>
-    <row r="199" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E199" s="30"/>
-      <c r="H199" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N199" s="19"/>
-      <c r="O199" s="19"/>
-      <c r="P199" s="19"/>
-      <c r="Q199" s="20"/>
-      <c r="R199" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="S199" s="19"/>
-      <c r="T199" s="19"/>
-      <c r="U199" s="19"/>
-      <c r="V199" s="19"/>
-      <c r="W199" s="19"/>
-      <c r="X199" s="19"/>
-      <c r="Y199" s="19"/>
-      <c r="Z199" s="19"/>
-      <c r="AA199" s="19"/>
-      <c r="AB199" s="19"/>
-      <c r="AC199" s="19"/>
-      <c r="AD199" s="19"/>
-      <c r="AE199" s="19"/>
-      <c r="AF199" s="19"/>
-      <c r="AG199" s="19"/>
-      <c r="AH199" s="19"/>
-      <c r="AI199" s="20"/>
-    </row>
-    <row r="200" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D199" s="19"/>
+      <c r="E199" s="37"/>
+      <c r="F199" s="37"/>
+      <c r="G199" s="38"/>
+      <c r="H199" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I199" s="24"/>
+      <c r="J199" s="24"/>
+      <c r="K199" s="24"/>
+      <c r="L199" s="24"/>
+      <c r="M199" s="24"/>
+      <c r="N199" s="24"/>
+      <c r="O199" s="24"/>
+      <c r="P199" s="24"/>
+      <c r="Q199" s="24"/>
+      <c r="R199" s="24"/>
+      <c r="S199" s="24"/>
+      <c r="T199" s="24"/>
+      <c r="U199" s="24"/>
+      <c r="V199" s="24"/>
+      <c r="W199" s="24"/>
+      <c r="X199" s="24"/>
+      <c r="Y199" s="24"/>
+      <c r="Z199" s="24"/>
+      <c r="AA199" s="24"/>
+      <c r="AB199" s="24"/>
+      <c r="AC199" s="24"/>
+      <c r="AD199" s="24"/>
+      <c r="AE199" s="24"/>
+      <c r="AF199" s="24"/>
+      <c r="AG199" s="24"/>
+      <c r="AH199" s="24"/>
+      <c r="AI199" s="25"/>
+    </row>
+    <row r="200" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E200" s="30"/>
-      <c r="H200" s="40"/>
+      <c r="F200" s="30"/>
+      <c r="G200" s="46"/>
+      <c r="H200" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="I200" s="41"/>
       <c r="J200" s="41"/>
       <c r="K200" s="41"/>
       <c r="L200" s="41"/>
-      <c r="M200" s="40"/>
+      <c r="M200" s="41"/>
       <c r="N200" s="41"/>
       <c r="O200" s="41"/>
       <c r="P200" s="41"/>
-      <c r="Q200" s="42"/>
-      <c r="R200" s="41" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q200" s="41"/>
+      <c r="R200" s="41"/>
       <c r="S200" s="41"/>
       <c r="T200" s="41"/>
       <c r="U200" s="41"/>
@@ -7097,280 +7188,164 @@
       <c r="AH200" s="41"/>
       <c r="AI200" s="42"/>
     </row>
-    <row r="201" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E201" s="30"/>
-      <c r="H201" s="40" t="s">
+      <c r="F201" s="30"/>
+      <c r="G201" s="46"/>
+      <c r="H201" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E202" s="30"/>
+      <c r="F202" s="30"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E203" s="30"/>
+      <c r="F203" s="46"/>
+    </row>
+    <row r="204" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E204" s="30"/>
+      <c r="F204" s="46"/>
+      <c r="G204" s="30" t="str">
+        <f>F197&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H204" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E205" s="30"/>
+      <c r="F205" s="46"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I205" s="28"/>
+      <c r="J205" s="28"/>
+      <c r="K205" s="28"/>
+      <c r="L205" s="28"/>
+      <c r="M205" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N205" s="28"/>
+      <c r="O205" s="28"/>
+      <c r="P205" s="28"/>
+      <c r="Q205" s="29"/>
+      <c r="R205" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S205" s="28"/>
+      <c r="T205" s="28"/>
+      <c r="U205" s="28"/>
+      <c r="V205" s="28"/>
+      <c r="W205" s="28"/>
+      <c r="X205" s="28"/>
+      <c r="Y205" s="28"/>
+      <c r="Z205" s="28"/>
+      <c r="AA205" s="28"/>
+      <c r="AB205" s="28"/>
+      <c r="AC205" s="28"/>
+      <c r="AD205" s="28"/>
+      <c r="AE205" s="28"/>
+      <c r="AF205" s="28"/>
+      <c r="AG205" s="28"/>
+      <c r="AH205" s="28"/>
+      <c r="AI205" s="29"/>
+    </row>
+    <row r="206" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E206" s="30"/>
+      <c r="H206" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I206" s="43"/>
+      <c r="J206" s="43"/>
+      <c r="K206" s="43"/>
+      <c r="L206" s="43"/>
+      <c r="M206" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N206" s="43"/>
+      <c r="O206" s="43"/>
+      <c r="P206" s="43"/>
+      <c r="Q206" s="44"/>
+      <c r="R206" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="S206" s="43"/>
+      <c r="T206" s="43"/>
+      <c r="U206" s="43"/>
+      <c r="V206" s="43"/>
+      <c r="W206" s="43"/>
+      <c r="X206" s="43"/>
+      <c r="Y206" s="43"/>
+      <c r="Z206" s="43"/>
+      <c r="AA206" s="43"/>
+      <c r="AB206" s="43"/>
+      <c r="AC206" s="43"/>
+      <c r="AD206" s="43"/>
+      <c r="AE206" s="43"/>
+      <c r="AF206" s="43"/>
+      <c r="AG206" s="43"/>
+      <c r="AH206" s="43"/>
+      <c r="AI206" s="44"/>
+    </row>
+    <row r="207" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E207" s="30"/>
+      <c r="H207" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I207" s="19"/>
+      <c r="J207" s="19"/>
+      <c r="K207" s="19"/>
+      <c r="L207" s="19"/>
+      <c r="M207" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N207" s="19"/>
+      <c r="O207" s="19"/>
+      <c r="P207" s="19"/>
+      <c r="Q207" s="20"/>
+      <c r="R207" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I201" s="41"/>
-      <c r="J201" s="41"/>
-      <c r="K201" s="41"/>
-      <c r="L201" s="41"/>
-      <c r="M201" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="N201" s="41"/>
-      <c r="O201" s="41"/>
-      <c r="P201" s="41"/>
-      <c r="Q201" s="42"/>
-      <c r="R201" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="S201" s="41"/>
-      <c r="T201" s="41"/>
-      <c r="U201" s="41"/>
-      <c r="V201" s="41"/>
-      <c r="W201" s="41"/>
-      <c r="X201" s="41"/>
-      <c r="Y201" s="41"/>
-      <c r="Z201" s="41"/>
-      <c r="AA201" s="41"/>
-      <c r="AB201" s="41"/>
-      <c r="AC201" s="41"/>
-      <c r="AD201" s="41"/>
-      <c r="AE201" s="41"/>
-      <c r="AF201" s="41"/>
-      <c r="AG201" s="41"/>
-      <c r="AH201" s="41"/>
-      <c r="AI201" s="42"/>
-    </row>
-    <row r="202" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E202" s="30"/>
-      <c r="H202" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I202" s="41"/>
-      <c r="J202" s="41"/>
-      <c r="K202" s="41"/>
-      <c r="L202" s="41"/>
-      <c r="M202" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="N202" s="41"/>
-      <c r="O202" s="41"/>
-      <c r="P202" s="41"/>
-      <c r="Q202" s="42"/>
-      <c r="R202" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="S202" s="41"/>
-      <c r="T202" s="41"/>
-      <c r="U202" s="41"/>
-      <c r="V202" s="41"/>
-      <c r="W202" s="41"/>
-      <c r="X202" s="41"/>
-      <c r="Y202" s="41"/>
-      <c r="Z202" s="41"/>
-      <c r="AA202" s="41"/>
-      <c r="AB202" s="41"/>
-      <c r="AC202" s="41"/>
-      <c r="AD202" s="41"/>
-      <c r="AE202" s="41"/>
-      <c r="AF202" s="41"/>
-      <c r="AG202" s="41"/>
-      <c r="AH202" s="41"/>
-      <c r="AI202" s="42"/>
-    </row>
-    <row r="203" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E203" s="30"/>
-      <c r="H203" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I203" s="43"/>
-      <c r="J203" s="43"/>
-      <c r="K203" s="43"/>
-      <c r="L203" s="43"/>
-      <c r="M203" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="N203" s="43"/>
-      <c r="O203" s="43"/>
-      <c r="P203" s="43"/>
-      <c r="Q203" s="44"/>
-      <c r="R203" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="S203" s="43"/>
-      <c r="T203" s="43"/>
-      <c r="U203" s="43"/>
-      <c r="V203" s="43"/>
-      <c r="W203" s="43"/>
-      <c r="X203" s="43"/>
-      <c r="Y203" s="43"/>
-      <c r="Z203" s="43"/>
-      <c r="AA203" s="43"/>
-      <c r="AB203" s="43"/>
-      <c r="AC203" s="43"/>
-      <c r="AD203" s="43"/>
-      <c r="AE203" s="43"/>
-      <c r="AF203" s="43"/>
-      <c r="AG203" s="43"/>
-      <c r="AH203" s="43"/>
-      <c r="AI203" s="44"/>
-    </row>
-    <row r="204" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E204" s="30"/>
-      <c r="H204" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I204" s="41"/>
-      <c r="J204" s="41"/>
-      <c r="K204" s="41"/>
-      <c r="L204" s="41"/>
-      <c r="M204" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N204" s="41"/>
-      <c r="O204" s="41"/>
-      <c r="P204" s="41"/>
-      <c r="Q204" s="42"/>
-      <c r="R204" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="S204" s="41"/>
-      <c r="T204" s="41"/>
-      <c r="U204" s="41"/>
-      <c r="V204" s="41"/>
-      <c r="W204" s="41"/>
-      <c r="X204" s="41"/>
-      <c r="Y204" s="41"/>
-      <c r="Z204" s="41"/>
-      <c r="AA204" s="41"/>
-      <c r="AB204" s="41"/>
-      <c r="AC204" s="41"/>
-      <c r="AD204" s="41"/>
-      <c r="AE204" s="41"/>
-      <c r="AF204" s="41"/>
-      <c r="AG204" s="41"/>
-      <c r="AH204" s="41"/>
-      <c r="AI204" s="42"/>
-    </row>
-    <row r="205" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E205" s="30"/>
-      <c r="H205" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I205" s="41"/>
-      <c r="J205" s="41"/>
-      <c r="K205" s="41"/>
-      <c r="L205" s="41"/>
-      <c r="M205" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="N205" s="41"/>
-      <c r="O205" s="41"/>
-      <c r="P205" s="41"/>
-      <c r="Q205" s="42"/>
-      <c r="R205" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="S205" s="41"/>
-      <c r="T205" s="41"/>
-      <c r="U205" s="41"/>
-      <c r="V205" s="41"/>
-      <c r="W205" s="41"/>
-      <c r="X205" s="41"/>
-      <c r="Y205" s="41"/>
-      <c r="Z205" s="41"/>
-      <c r="AA205" s="41"/>
-      <c r="AB205" s="41"/>
-      <c r="AC205" s="41"/>
-      <c r="AD205" s="41"/>
-      <c r="AE205" s="41"/>
-      <c r="AF205" s="41"/>
-      <c r="AG205" s="41"/>
-      <c r="AH205" s="41"/>
-      <c r="AI205" s="42"/>
-    </row>
-    <row r="206" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E206" s="30"/>
-      <c r="H206" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="I206" s="41"/>
-      <c r="J206" s="41"/>
-      <c r="K206" s="41"/>
-      <c r="L206" s="41"/>
-      <c r="M206" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="N206" s="41"/>
-      <c r="O206" s="41"/>
-      <c r="P206" s="41"/>
-      <c r="Q206" s="42"/>
-      <c r="R206" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="S206" s="41"/>
-      <c r="T206" s="41"/>
-      <c r="U206" s="41"/>
-      <c r="V206" s="41"/>
-      <c r="W206" s="41"/>
-      <c r="X206" s="41"/>
-      <c r="Y206" s="41"/>
-      <c r="Z206" s="41"/>
-      <c r="AA206" s="41"/>
-      <c r="AB206" s="41"/>
-      <c r="AC206" s="41"/>
-      <c r="AD206" s="41"/>
-      <c r="AE206" s="41"/>
-      <c r="AF206" s="41"/>
-      <c r="AG206" s="41"/>
-      <c r="AH206" s="41"/>
-      <c r="AI206" s="42"/>
-    </row>
-    <row r="207" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E207" s="30"/>
-      <c r="H207" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I207" s="24"/>
-      <c r="J207" s="24"/>
-      <c r="K207" s="24"/>
-      <c r="L207" s="25"/>
-      <c r="M207" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="N207" s="24"/>
-      <c r="O207" s="24"/>
-      <c r="P207" s="24"/>
-      <c r="Q207" s="25"/>
-      <c r="R207" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="S207" s="24"/>
-      <c r="T207" s="24"/>
-      <c r="U207" s="24"/>
-      <c r="V207" s="24"/>
-      <c r="W207" s="24"/>
-      <c r="X207" s="24"/>
-      <c r="Y207" s="24"/>
-      <c r="Z207" s="24"/>
-      <c r="AA207" s="24"/>
-      <c r="AB207" s="24"/>
-      <c r="AC207" s="24"/>
-      <c r="AD207" s="24"/>
-      <c r="AE207" s="24"/>
-      <c r="AF207" s="24"/>
-      <c r="AG207" s="24"/>
-      <c r="AH207" s="24"/>
-      <c r="AI207" s="25"/>
-    </row>
-    <row r="208" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S207" s="19"/>
+      <c r="T207" s="19"/>
+      <c r="U207" s="19"/>
+      <c r="V207" s="19"/>
+      <c r="W207" s="19"/>
+      <c r="X207" s="19"/>
+      <c r="Y207" s="19"/>
+      <c r="Z207" s="19"/>
+      <c r="AA207" s="19"/>
+      <c r="AB207" s="19"/>
+      <c r="AC207" s="19"/>
+      <c r="AD207" s="19"/>
+      <c r="AE207" s="19"/>
+      <c r="AF207" s="19"/>
+      <c r="AG207" s="19"/>
+      <c r="AH207" s="19"/>
+      <c r="AI207" s="20"/>
+    </row>
+    <row r="208" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E208" s="30"/>
       <c r="H208" s="40"/>
       <c r="I208" s="41"/>
       <c r="J208" s="41"/>
       <c r="K208" s="41"/>
-      <c r="L208" s="42"/>
+      <c r="L208" s="41"/>
       <c r="M208" s="40"/>
       <c r="N208" s="41"/>
       <c r="O208" s="41"/>
       <c r="P208" s="41"/>
       <c r="Q208" s="42"/>
-      <c r="R208" s="40" t="str">
-        <f>"ログの種類ごとのフォーマットは"&amp;$D$104&amp;$E$104&amp;"を参照。"</f>
-        <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
+      <c r="R208" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="S208" s="41"/>
       <c r="T208" s="41"/>
@@ -7390,57 +7365,61 @@
       <c r="AH208" s="41"/>
       <c r="AI208" s="42"/>
     </row>
-    <row r="209" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E209" s="30"/>
-      <c r="H209" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="I209" s="24"/>
-      <c r="J209" s="24"/>
-      <c r="K209" s="24"/>
-      <c r="L209" s="25"/>
-      <c r="M209" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N209" s="24"/>
-      <c r="O209" s="24"/>
-      <c r="P209" s="24"/>
-      <c r="Q209" s="25"/>
-      <c r="R209" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="S209" s="24"/>
-      <c r="T209" s="24"/>
-      <c r="U209" s="24"/>
-      <c r="V209" s="24"/>
-      <c r="W209" s="24"/>
-      <c r="X209" s="24"/>
-      <c r="Y209" s="24"/>
-      <c r="Z209" s="24"/>
-      <c r="AA209" s="24"/>
-      <c r="AB209" s="24"/>
-      <c r="AC209" s="24"/>
-      <c r="AD209" s="24"/>
-      <c r="AE209" s="24"/>
-      <c r="AF209" s="24"/>
-      <c r="AG209" s="24"/>
-      <c r="AH209" s="24"/>
-      <c r="AI209" s="25"/>
-    </row>
-    <row r="210" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H209" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I209" s="41"/>
+      <c r="J209" s="41"/>
+      <c r="K209" s="41"/>
+      <c r="L209" s="41"/>
+      <c r="M209" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="N209" s="41"/>
+      <c r="O209" s="41"/>
+      <c r="P209" s="41"/>
+      <c r="Q209" s="42"/>
+      <c r="R209" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="S209" s="41"/>
+      <c r="T209" s="41"/>
+      <c r="U209" s="41"/>
+      <c r="V209" s="41"/>
+      <c r="W209" s="41"/>
+      <c r="X209" s="41"/>
+      <c r="Y209" s="41"/>
+      <c r="Z209" s="41"/>
+      <c r="AA209" s="41"/>
+      <c r="AB209" s="41"/>
+      <c r="AC209" s="41"/>
+      <c r="AD209" s="41"/>
+      <c r="AE209" s="41"/>
+      <c r="AF209" s="41"/>
+      <c r="AG209" s="41"/>
+      <c r="AH209" s="41"/>
+      <c r="AI209" s="42"/>
+    </row>
+    <row r="210" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E210" s="30"/>
-      <c r="H210" s="40"/>
+      <c r="H210" s="40" t="s">
+        <v>82</v>
+      </c>
       <c r="I210" s="41"/>
       <c r="J210" s="41"/>
       <c r="K210" s="41"/>
-      <c r="L210" s="42"/>
-      <c r="M210" s="40"/>
+      <c r="L210" s="41"/>
+      <c r="M210" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N210" s="41"/>
       <c r="O210" s="41"/>
       <c r="P210" s="41"/>
       <c r="Q210" s="42"/>
-      <c r="R210" s="40" t="s">
-        <v>233</v>
+      <c r="R210" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="S210" s="41"/>
       <c r="T210" s="41"/>
@@ -7460,57 +7439,61 @@
       <c r="AH210" s="41"/>
       <c r="AI210" s="42"/>
     </row>
-    <row r="211" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E211" s="30"/>
-      <c r="H211" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="N211" s="19"/>
-      <c r="O211" s="19"/>
-      <c r="P211" s="19"/>
-      <c r="Q211" s="20"/>
-      <c r="R211" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="S211" s="19"/>
-      <c r="T211" s="19"/>
-      <c r="U211" s="19"/>
-      <c r="V211" s="19"/>
-      <c r="W211" s="19"/>
-      <c r="X211" s="19"/>
-      <c r="Y211" s="19"/>
-      <c r="Z211" s="19"/>
-      <c r="AA211" s="19"/>
-      <c r="AB211" s="19"/>
-      <c r="AC211" s="19"/>
-      <c r="AD211" s="19"/>
-      <c r="AE211" s="19"/>
-      <c r="AF211" s="19"/>
-      <c r="AG211" s="19"/>
-      <c r="AH211" s="19"/>
-      <c r="AI211" s="20"/>
-    </row>
-    <row r="212" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H211" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I211" s="43"/>
+      <c r="J211" s="43"/>
+      <c r="K211" s="43"/>
+      <c r="L211" s="43"/>
+      <c r="M211" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="N211" s="43"/>
+      <c r="O211" s="43"/>
+      <c r="P211" s="43"/>
+      <c r="Q211" s="44"/>
+      <c r="R211" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="S211" s="43"/>
+      <c r="T211" s="43"/>
+      <c r="U211" s="43"/>
+      <c r="V211" s="43"/>
+      <c r="W211" s="43"/>
+      <c r="X211" s="43"/>
+      <c r="Y211" s="43"/>
+      <c r="Z211" s="43"/>
+      <c r="AA211" s="43"/>
+      <c r="AB211" s="43"/>
+      <c r="AC211" s="43"/>
+      <c r="AD211" s="43"/>
+      <c r="AE211" s="43"/>
+      <c r="AF211" s="43"/>
+      <c r="AG211" s="43"/>
+      <c r="AH211" s="43"/>
+      <c r="AI211" s="44"/>
+    </row>
+    <row r="212" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E212" s="30"/>
-      <c r="H212" s="40"/>
+      <c r="H212" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="I212" s="41"/>
       <c r="J212" s="41"/>
       <c r="K212" s="41"/>
       <c r="L212" s="41"/>
-      <c r="M212" s="40"/>
+      <c r="M212" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N212" s="41"/>
       <c r="O212" s="41"/>
       <c r="P212" s="41"/>
       <c r="Q212" s="42"/>
       <c r="R212" s="41" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="S212" s="41"/>
       <c r="T212" s="41"/>
@@ -7530,171 +7513,240 @@
       <c r="AH212" s="41"/>
       <c r="AI212" s="42"/>
     </row>
-    <row r="213" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E213" s="30"/>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="19"/>
-      <c r="K213" s="19"/>
-      <c r="L213" s="19"/>
-      <c r="M213" s="19"/>
-      <c r="N213" s="19"/>
-      <c r="O213" s="19"/>
-      <c r="P213" s="19"/>
-      <c r="Q213" s="19"/>
-      <c r="R213" s="19"/>
-      <c r="S213" s="19"/>
-      <c r="T213" s="19"/>
-      <c r="U213" s="19"/>
-      <c r="V213" s="19"/>
-      <c r="W213" s="19"/>
-      <c r="X213" s="19"/>
-      <c r="Y213" s="19"/>
-      <c r="Z213" s="19"/>
-      <c r="AA213" s="19"/>
-      <c r="AB213" s="19"/>
-      <c r="AC213" s="19"/>
-      <c r="AD213" s="19"/>
-      <c r="AE213" s="19"/>
-      <c r="AF213" s="19"/>
-      <c r="AG213" s="19"/>
-      <c r="AH213" s="19"/>
-      <c r="AI213" s="19"/>
-    </row>
-    <row r="214" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H213" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I213" s="41"/>
+      <c r="J213" s="41"/>
+      <c r="K213" s="41"/>
+      <c r="L213" s="41"/>
+      <c r="M213" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N213" s="41"/>
+      <c r="O213" s="41"/>
+      <c r="P213" s="41"/>
+      <c r="Q213" s="42"/>
+      <c r="R213" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="S213" s="41"/>
+      <c r="T213" s="41"/>
+      <c r="U213" s="41"/>
+      <c r="V213" s="41"/>
+      <c r="W213" s="41"/>
+      <c r="X213" s="41"/>
+      <c r="Y213" s="41"/>
+      <c r="Z213" s="41"/>
+      <c r="AA213" s="41"/>
+      <c r="AB213" s="41"/>
+      <c r="AC213" s="41"/>
+      <c r="AD213" s="41"/>
+      <c r="AE213" s="41"/>
+      <c r="AF213" s="41"/>
+      <c r="AG213" s="41"/>
+      <c r="AH213" s="41"/>
+      <c r="AI213" s="42"/>
+    </row>
+    <row r="214" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E214" s="30"/>
-      <c r="F214" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G214" s="45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H214" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I214" s="41"/>
+      <c r="J214" s="41"/>
+      <c r="K214" s="41"/>
+      <c r="L214" s="41"/>
+      <c r="M214" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N214" s="41"/>
+      <c r="O214" s="41"/>
+      <c r="P214" s="41"/>
+      <c r="Q214" s="42"/>
+      <c r="R214" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="S214" s="41"/>
+      <c r="T214" s="41"/>
+      <c r="U214" s="41"/>
+      <c r="V214" s="41"/>
+      <c r="W214" s="41"/>
+      <c r="X214" s="41"/>
+      <c r="Y214" s="41"/>
+      <c r="Z214" s="41"/>
+      <c r="AA214" s="41"/>
+      <c r="AB214" s="41"/>
+      <c r="AC214" s="41"/>
+      <c r="AD214" s="41"/>
+      <c r="AE214" s="41"/>
+      <c r="AF214" s="41"/>
+      <c r="AG214" s="41"/>
+      <c r="AH214" s="41"/>
+      <c r="AI214" s="42"/>
+    </row>
+    <row r="215" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E215" s="30"/>
-      <c r="F215" s="46"/>
-      <c r="G215" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="216" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H215" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I215" s="24"/>
+      <c r="J215" s="24"/>
+      <c r="K215" s="24"/>
+      <c r="L215" s="25"/>
+      <c r="M215" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N215" s="24"/>
+      <c r="O215" s="24"/>
+      <c r="P215" s="24"/>
+      <c r="Q215" s="25"/>
+      <c r="R215" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="S215" s="24"/>
+      <c r="T215" s="24"/>
+      <c r="U215" s="24"/>
+      <c r="V215" s="24"/>
+      <c r="W215" s="24"/>
+      <c r="X215" s="24"/>
+      <c r="Y215" s="24"/>
+      <c r="Z215" s="24"/>
+      <c r="AA215" s="24"/>
+      <c r="AB215" s="24"/>
+      <c r="AC215" s="24"/>
+      <c r="AD215" s="24"/>
+      <c r="AE215" s="24"/>
+      <c r="AF215" s="24"/>
+      <c r="AG215" s="24"/>
+      <c r="AH215" s="24"/>
+      <c r="AI215" s="25"/>
+    </row>
+    <row r="216" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E216" s="30"/>
-      <c r="F216" s="46"/>
-      <c r="G216" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H216" s="24"/>
-      <c r="I216" s="24"/>
-      <c r="J216" s="24"/>
-      <c r="K216" s="24"/>
-      <c r="L216" s="24"/>
-      <c r="M216" s="24"/>
-      <c r="N216" s="24"/>
-      <c r="O216" s="24"/>
-      <c r="P216" s="24"/>
-      <c r="Q216" s="24"/>
-      <c r="R216" s="24"/>
-      <c r="S216" s="24"/>
-      <c r="T216" s="24"/>
-      <c r="U216" s="24"/>
-      <c r="V216" s="24"/>
-      <c r="W216" s="24"/>
-      <c r="X216" s="24"/>
-      <c r="Y216" s="24"/>
-      <c r="Z216" s="24"/>
-      <c r="AA216" s="24"/>
-      <c r="AB216" s="24"/>
-      <c r="AC216" s="24"/>
-      <c r="AD216" s="24"/>
-      <c r="AE216" s="24"/>
-      <c r="AF216" s="24"/>
-      <c r="AG216" s="24"/>
-      <c r="AH216" s="24"/>
-      <c r="AI216" s="25"/>
-    </row>
-    <row r="217" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H216" s="40"/>
+      <c r="I216" s="41"/>
+      <c r="J216" s="41"/>
+      <c r="K216" s="41"/>
+      <c r="L216" s="42"/>
+      <c r="M216" s="40"/>
+      <c r="N216" s="41"/>
+      <c r="O216" s="41"/>
+      <c r="P216" s="41"/>
+      <c r="Q216" s="42"/>
+      <c r="R216" s="40" t="str">
+        <f>"ログの種類ごとのフォーマットは"&amp;$D$112&amp;$E$112&amp;"を参照。"</f>
+        <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
+      </c>
+      <c r="S216" s="41"/>
+      <c r="T216" s="41"/>
+      <c r="U216" s="41"/>
+      <c r="V216" s="41"/>
+      <c r="W216" s="41"/>
+      <c r="X216" s="41"/>
+      <c r="Y216" s="41"/>
+      <c r="Z216" s="41"/>
+      <c r="AA216" s="41"/>
+      <c r="AB216" s="41"/>
+      <c r="AC216" s="41"/>
+      <c r="AD216" s="41"/>
+      <c r="AE216" s="41"/>
+      <c r="AF216" s="41"/>
+      <c r="AG216" s="41"/>
+      <c r="AH216" s="41"/>
+      <c r="AI216" s="42"/>
+    </row>
+    <row r="217" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E217" s="30"/>
-      <c r="F217" s="46"/>
-      <c r="G217" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H217" s="41"/>
-      <c r="I217" s="41"/>
-      <c r="J217" s="41"/>
-      <c r="K217" s="41"/>
-      <c r="L217" s="41"/>
-      <c r="M217" s="41"/>
-      <c r="N217" s="41"/>
-      <c r="O217" s="41"/>
-      <c r="P217" s="41"/>
-      <c r="Q217" s="41"/>
-      <c r="R217" s="41"/>
-      <c r="S217" s="41"/>
-      <c r="T217" s="41"/>
-      <c r="U217" s="41"/>
-      <c r="V217" s="41"/>
-      <c r="W217" s="41"/>
-      <c r="X217" s="41"/>
-      <c r="Y217" s="41"/>
-      <c r="Z217" s="41"/>
-      <c r="AA217" s="41"/>
-      <c r="AB217" s="41"/>
-      <c r="AC217" s="41"/>
-      <c r="AD217" s="41"/>
-      <c r="AE217" s="41"/>
-      <c r="AF217" s="41"/>
-      <c r="AG217" s="41"/>
-      <c r="AH217" s="41"/>
-      <c r="AI217" s="42"/>
-    </row>
-    <row r="218" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H217" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I217" s="24"/>
+      <c r="J217" s="24"/>
+      <c r="K217" s="24"/>
+      <c r="L217" s="25"/>
+      <c r="M217" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N217" s="24"/>
+      <c r="O217" s="24"/>
+      <c r="P217" s="24"/>
+      <c r="Q217" s="25"/>
+      <c r="R217" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="S217" s="24"/>
+      <c r="T217" s="24"/>
+      <c r="U217" s="24"/>
+      <c r="V217" s="24"/>
+      <c r="W217" s="24"/>
+      <c r="X217" s="24"/>
+      <c r="Y217" s="24"/>
+      <c r="Z217" s="24"/>
+      <c r="AA217" s="24"/>
+      <c r="AB217" s="24"/>
+      <c r="AC217" s="24"/>
+      <c r="AD217" s="24"/>
+      <c r="AE217" s="24"/>
+      <c r="AF217" s="24"/>
+      <c r="AG217" s="24"/>
+      <c r="AH217" s="24"/>
+      <c r="AI217" s="25"/>
+    </row>
+    <row r="218" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E218" s="30"/>
-      <c r="F218" s="46"/>
-      <c r="G218" s="50"/>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="19"/>
-      <c r="K218" s="19"/>
-      <c r="L218" s="19"/>
-      <c r="M218" s="19"/>
-      <c r="N218" s="19"/>
-      <c r="O218" s="19"/>
-      <c r="P218" s="19"/>
-      <c r="Q218" s="19"/>
-      <c r="R218" s="19"/>
-      <c r="S218" s="19"/>
-      <c r="T218" s="19"/>
-      <c r="U218" s="19"/>
-      <c r="V218" s="19"/>
-      <c r="W218" s="19"/>
-      <c r="X218" s="19"/>
-      <c r="Y218" s="19"/>
-      <c r="Z218" s="19"/>
-      <c r="AA218" s="19"/>
-      <c r="AB218" s="19"/>
-      <c r="AC218" s="19"/>
-      <c r="AD218" s="19"/>
-      <c r="AE218" s="19"/>
-      <c r="AF218" s="19"/>
-      <c r="AG218" s="19"/>
-      <c r="AH218" s="19"/>
-      <c r="AI218" s="19"/>
-    </row>
-    <row r="219" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H218" s="40"/>
+      <c r="I218" s="41"/>
+      <c r="J218" s="41"/>
+      <c r="K218" s="41"/>
+      <c r="L218" s="42"/>
+      <c r="M218" s="40"/>
+      <c r="N218" s="41"/>
+      <c r="O218" s="41"/>
+      <c r="P218" s="41"/>
+      <c r="Q218" s="42"/>
+      <c r="R218" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="S218" s="41"/>
+      <c r="T218" s="41"/>
+      <c r="U218" s="41"/>
+      <c r="V218" s="41"/>
+      <c r="W218" s="41"/>
+      <c r="X218" s="41"/>
+      <c r="Y218" s="41"/>
+      <c r="Z218" s="41"/>
+      <c r="AA218" s="41"/>
+      <c r="AB218" s="41"/>
+      <c r="AC218" s="41"/>
+      <c r="AD218" s="41"/>
+      <c r="AE218" s="41"/>
+      <c r="AF218" s="41"/>
+      <c r="AG218" s="41"/>
+      <c r="AH218" s="41"/>
+      <c r="AI218" s="42"/>
+    </row>
+    <row r="219" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E219" s="30"/>
-      <c r="F219" s="46"/>
-      <c r="G219" s="50"/>
-      <c r="H219" s="50"/>
+      <c r="H219" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="I219" s="19"/>
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>
       <c r="L219" s="19"/>
-      <c r="M219" s="19"/>
+      <c r="M219" s="18" t="s">
+        <v>129</v>
+      </c>
       <c r="N219" s="19"/>
       <c r="O219" s="19"/>
       <c r="P219" s="19"/>
-      <c r="Q219" s="19"/>
-      <c r="R219" s="19"/>
+      <c r="Q219" s="20"/>
+      <c r="R219" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="S219" s="19"/>
       <c r="T219" s="19"/>
       <c r="U219" s="19"/>
@@ -7711,49 +7763,265 @@
       <c r="AF219" s="19"/>
       <c r="AG219" s="19"/>
       <c r="AH219" s="19"/>
-      <c r="AI219" s="19"/>
-    </row>
-    <row r="220" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="45"/>
-      <c r="B220" s="45"/>
-      <c r="D220" s="46" t="str">
+      <c r="AI219" s="20"/>
+    </row>
+    <row r="220" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E220" s="30"/>
+      <c r="H220" s="40"/>
+      <c r="I220" s="41"/>
+      <c r="J220" s="41"/>
+      <c r="K220" s="41"/>
+      <c r="L220" s="41"/>
+      <c r="M220" s="40"/>
+      <c r="N220" s="41"/>
+      <c r="O220" s="41"/>
+      <c r="P220" s="41"/>
+      <c r="Q220" s="42"/>
+      <c r="R220" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="S220" s="41"/>
+      <c r="T220" s="41"/>
+      <c r="U220" s="41"/>
+      <c r="V220" s="41"/>
+      <c r="W220" s="41"/>
+      <c r="X220" s="41"/>
+      <c r="Y220" s="41"/>
+      <c r="Z220" s="41"/>
+      <c r="AA220" s="41"/>
+      <c r="AB220" s="41"/>
+      <c r="AC220" s="41"/>
+      <c r="AD220" s="41"/>
+      <c r="AE220" s="41"/>
+      <c r="AF220" s="41"/>
+      <c r="AG220" s="41"/>
+      <c r="AH220" s="41"/>
+      <c r="AI220" s="42"/>
+    </row>
+    <row r="221" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E221" s="30"/>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="19"/>
+      <c r="K221" s="19"/>
+      <c r="L221" s="19"/>
+      <c r="M221" s="19"/>
+      <c r="N221" s="19"/>
+      <c r="O221" s="19"/>
+      <c r="P221" s="19"/>
+      <c r="Q221" s="19"/>
+      <c r="R221" s="19"/>
+      <c r="S221" s="19"/>
+      <c r="T221" s="19"/>
+      <c r="U221" s="19"/>
+      <c r="V221" s="19"/>
+      <c r="W221" s="19"/>
+      <c r="X221" s="19"/>
+      <c r="Y221" s="19"/>
+      <c r="Z221" s="19"/>
+      <c r="AA221" s="19"/>
+      <c r="AB221" s="19"/>
+      <c r="AC221" s="19"/>
+      <c r="AD221" s="19"/>
+      <c r="AE221" s="19"/>
+      <c r="AF221" s="19"/>
+      <c r="AG221" s="19"/>
+      <c r="AH221" s="19"/>
+      <c r="AI221" s="19"/>
+    </row>
+    <row r="222" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E222" s="30"/>
+      <c r="F222" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E223" s="30"/>
+      <c r="F223" s="46"/>
+      <c r="G223" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="224" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E224" s="30"/>
+      <c r="F224" s="46"/>
+      <c r="G224" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H224" s="24"/>
+      <c r="I224" s="24"/>
+      <c r="J224" s="24"/>
+      <c r="K224" s="24"/>
+      <c r="L224" s="24"/>
+      <c r="M224" s="24"/>
+      <c r="N224" s="24"/>
+      <c r="O224" s="24"/>
+      <c r="P224" s="24"/>
+      <c r="Q224" s="24"/>
+      <c r="R224" s="24"/>
+      <c r="S224" s="24"/>
+      <c r="T224" s="24"/>
+      <c r="U224" s="24"/>
+      <c r="V224" s="24"/>
+      <c r="W224" s="24"/>
+      <c r="X224" s="24"/>
+      <c r="Y224" s="24"/>
+      <c r="Z224" s="24"/>
+      <c r="AA224" s="24"/>
+      <c r="AB224" s="24"/>
+      <c r="AC224" s="24"/>
+      <c r="AD224" s="24"/>
+      <c r="AE224" s="24"/>
+      <c r="AF224" s="24"/>
+      <c r="AG224" s="24"/>
+      <c r="AH224" s="24"/>
+      <c r="AI224" s="25"/>
+    </row>
+    <row r="225" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E225" s="30"/>
+      <c r="F225" s="46"/>
+      <c r="G225" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H225" s="41"/>
+      <c r="I225" s="41"/>
+      <c r="J225" s="41"/>
+      <c r="K225" s="41"/>
+      <c r="L225" s="41"/>
+      <c r="M225" s="41"/>
+      <c r="N225" s="41"/>
+      <c r="O225" s="41"/>
+      <c r="P225" s="41"/>
+      <c r="Q225" s="41"/>
+      <c r="R225" s="41"/>
+      <c r="S225" s="41"/>
+      <c r="T225" s="41"/>
+      <c r="U225" s="41"/>
+      <c r="V225" s="41"/>
+      <c r="W225" s="41"/>
+      <c r="X225" s="41"/>
+      <c r="Y225" s="41"/>
+      <c r="Z225" s="41"/>
+      <c r="AA225" s="41"/>
+      <c r="AB225" s="41"/>
+      <c r="AC225" s="41"/>
+      <c r="AD225" s="41"/>
+      <c r="AE225" s="41"/>
+      <c r="AF225" s="41"/>
+      <c r="AG225" s="41"/>
+      <c r="AH225" s="41"/>
+      <c r="AI225" s="42"/>
+    </row>
+    <row r="226" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E226" s="30"/>
+      <c r="F226" s="46"/>
+      <c r="G226" s="50"/>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="19"/>
+      <c r="K226" s="19"/>
+      <c r="L226" s="19"/>
+      <c r="M226" s="19"/>
+      <c r="N226" s="19"/>
+      <c r="O226" s="19"/>
+      <c r="P226" s="19"/>
+      <c r="Q226" s="19"/>
+      <c r="R226" s="19"/>
+      <c r="S226" s="19"/>
+      <c r="T226" s="19"/>
+      <c r="U226" s="19"/>
+      <c r="V226" s="19"/>
+      <c r="W226" s="19"/>
+      <c r="X226" s="19"/>
+      <c r="Y226" s="19"/>
+      <c r="Z226" s="19"/>
+      <c r="AA226" s="19"/>
+      <c r="AB226" s="19"/>
+      <c r="AC226" s="19"/>
+      <c r="AD226" s="19"/>
+      <c r="AE226" s="19"/>
+      <c r="AF226" s="19"/>
+      <c r="AG226" s="19"/>
+      <c r="AH226" s="19"/>
+      <c r="AI226" s="19"/>
+    </row>
+    <row r="227" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E227" s="30"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="50"/>
+      <c r="H227" s="50"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="19"/>
+      <c r="K227" s="19"/>
+      <c r="L227" s="19"/>
+      <c r="M227" s="19"/>
+      <c r="N227" s="19"/>
+      <c r="O227" s="19"/>
+      <c r="P227" s="19"/>
+      <c r="Q227" s="19"/>
+      <c r="R227" s="19"/>
+      <c r="S227" s="19"/>
+      <c r="T227" s="19"/>
+      <c r="U227" s="19"/>
+      <c r="V227" s="19"/>
+      <c r="W227" s="19"/>
+      <c r="X227" s="19"/>
+      <c r="Y227" s="19"/>
+      <c r="Z227" s="19"/>
+      <c r="AA227" s="19"/>
+      <c r="AB227" s="19"/>
+      <c r="AC227" s="19"/>
+      <c r="AD227" s="19"/>
+      <c r="AE227" s="19"/>
+      <c r="AF227" s="19"/>
+      <c r="AG227" s="19"/>
+      <c r="AH227" s="19"/>
+      <c r="AI227" s="19"/>
+    </row>
+    <row r="228" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="45"/>
+      <c r="B228" s="45"/>
+      <c r="D228" s="46" t="str">
         <f>$C$7&amp;"5."</f>
         <v>7.13.5.</v>
       </c>
-      <c r="E220" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F220" s="31"/>
-      <c r="AF220" s="45"/>
-      <c r="AG220" s="45"/>
-    </row>
-    <row r="221" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="45"/>
-      <c r="B221" s="45"/>
-      <c r="E221" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F221" s="31"/>
-      <c r="AF221" s="45"/>
-      <c r="AG221" s="45"/>
-    </row>
-    <row r="222" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="45"/>
-      <c r="B222" s="45"/>
-      <c r="E222" s="30"/>
-      <c r="AF222" s="45"/>
-      <c r="AG222" s="45"/>
-    </row>
-    <row r="223" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF223" s="45"/>
-      <c r="AG223" s="45"/>
+      <c r="E228" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F228" s="31"/>
+      <c r="AF228" s="45"/>
+      <c r="AG228" s="45"/>
+    </row>
+    <row r="229" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="45"/>
+      <c r="B229" s="45"/>
+      <c r="E229" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F229" s="31"/>
+      <c r="AF229" s="45"/>
+      <c r="AG229" s="45"/>
+    </row>
+    <row r="230" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="45"/>
+      <c r="B230" s="45"/>
+      <c r="E230" s="30"/>
+      <c r="AF230" s="45"/>
+      <c r="AG230" s="45"/>
+    </row>
+    <row r="231" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF231" s="45"/>
+      <c r="AG231" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J109:AF109"/>
-    <mergeCell ref="J110:AF110"/>
-    <mergeCell ref="J111:AF111"/>
-    <mergeCell ref="J112:AF112"/>
+    <mergeCell ref="J117:AF117"/>
+    <mergeCell ref="J118:AF118"/>
+    <mergeCell ref="J119:AF119"/>
+    <mergeCell ref="J120:AF120"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -7768,20 +8036,20 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="J111" r:id="rId1" location="sql-log-setting" xr:uid="{52996156-CF03-4A13-9B78-35894E8A177D}"/>
-    <hyperlink ref="J109" r:id="rId2" location="failure-log-setting" xr:uid="{4B5540C5-BAC2-46C8-9EA6-27E7EECDE333}"/>
-    <hyperlink ref="J110" r:id="rId3" location="http-access-log-setting" xr:uid="{AFF0734E-51A8-40B8-8554-6558C3D47A2C}"/>
-    <hyperlink ref="J112" r:id="rId4" location="performance-log-setting" xr:uid="{1EE586A6-5FD6-48C4-ACEB-F877AB33F8B3}"/>
+    <hyperlink ref="J119" r:id="rId1" location="sql-log-setting" xr:uid="{52996156-CF03-4A13-9B78-35894E8A177D}"/>
+    <hyperlink ref="J117" r:id="rId2" location="failure-log-setting" xr:uid="{4B5540C5-BAC2-46C8-9EA6-27E7EECDE333}"/>
+    <hyperlink ref="J118" r:id="rId3" location="http-access-log-setting" xr:uid="{AFF0734E-51A8-40B8-8554-6558C3D47A2C}"/>
+    <hyperlink ref="J120" r:id="rId4" location="performance-log-setting" xr:uid="{1EE586A6-5FD6-48C4-ACEB-F877AB33F8B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId5"/>
   <rowBreaks count="6" manualBreakCount="6">
     <brk id="39" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
-    <brk id="103" max="34" man="1"/>
-    <brk id="139" max="34" man="1"/>
-    <brk id="179" max="34" man="1"/>
-    <brk id="179" max="34" man="1"/>
+    <brk id="111" max="34" man="1"/>
+    <brk id="147" max="34" man="1"/>
+    <brk id="187" max="34" man="1"/>
+    <brk id="187" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9985F01-060A-424F-BD69-A45556E03757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC320B1-6EA8-40E3-846B-1B3474A9C796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$231</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$241</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$105</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$105</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="269">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1416,6 +1416,93 @@
     </rPh>
     <rPh sb="53" eb="54">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シェルスクリプトのログ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチの起動に使用するシェルスクリプトは、Nablarchが提供するバッチ開発補助ツールが生成したものを使用する。</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>カイハツホジョ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シェルスクリプトによるログ出力は、このツールが提供する共通機能によって制御される。</t>
+    <rPh sb="13" eb="15">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${JOB_SHELL_DIR}/auto_sh/JOBLOG/&lt;ジョブID&gt;_&lt;実行日時(yyyyMMddHHmmSS)&gt;.log</t>
+    <rPh sb="41" eb="45">
+      <t>ジッコウニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シェルスクリプトのログは、プロセス単位に以下のパスに出力される。</t>
+    <rPh sb="17" eb="19">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※JOB_SHELL_DIRには、バッチ開発補助ツールの中の「シェル共通設定.xlsx」で設定したパスが使用される。</t>
+    <rPh sb="20" eb="24">
+      <t>カイハツホジョ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2248,7 +2335,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS231"/>
+  <dimension ref="A1:AS240"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -8016,6 +8103,41 @@
       <c r="AF231" s="45"/>
       <c r="AG231" s="45"/>
     </row>
+    <row r="232" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D232" s="46" t="str">
+        <f>$C$7&amp;"6."</f>
+        <v>7.13.6.</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E233" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="234" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E234" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="236" spans="1:35" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E236" s="45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="237" spans="1:35" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E238" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="240" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E240" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="J117:AF117"/>
@@ -8049,7 +8171,7 @@
     <brk id="111" max="34" man="1"/>
     <brk id="147" max="34" man="1"/>
     <brk id="187" max="34" man="1"/>
-    <brk id="187" max="34" man="1"/>
+    <brk id="230" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC320B1-6EA8-40E3-846B-1B3474A9C796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096970CC-4863-4704-8C17-179502A4EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$241</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$245</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$105</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$105</definedName>
   </definedNames>
@@ -1754,7 +1754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1926,18 +1926,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2003,6 +1991,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2335,7 +2347,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS240"/>
+  <dimension ref="A1:AS244"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2352,43 +2364,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="62"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="72"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="68"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2397,43 +2409,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="8" t="s">
         <v>141</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="78"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="74"/>
       <c r="Y2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="72"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="68"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2442,39 +2454,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="81"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="77"/>
       <c r="Y3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="72"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="68"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5381,984 +5393,960 @@
       <c r="AE116" s="28"/>
       <c r="AF116" s="29"/>
     </row>
-    <row r="117" spans="4:32" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D117" s="46"/>
-      <c r="E117" s="57" t="s">
+      <c r="E117" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="F117" s="43"/>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="58" t="s">
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="K117" s="59"/>
-      <c r="L117" s="59"/>
-      <c r="M117" s="59"/>
-      <c r="N117" s="59"/>
-      <c r="O117" s="59"/>
-      <c r="P117" s="59"/>
-      <c r="Q117" s="59"/>
-      <c r="R117" s="59"/>
-      <c r="S117" s="59"/>
-      <c r="T117" s="59"/>
-      <c r="U117" s="59"/>
-      <c r="V117" s="59"/>
-      <c r="W117" s="59"/>
-      <c r="X117" s="59"/>
-      <c r="Y117" s="59"/>
-      <c r="Z117" s="59"/>
-      <c r="AA117" s="59"/>
-      <c r="AB117" s="59"/>
-      <c r="AC117" s="59"/>
-      <c r="AD117" s="59"/>
-      <c r="AE117" s="59"/>
-      <c r="AF117" s="60"/>
-    </row>
-    <row r="118" spans="4:32" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K117" s="80"/>
+      <c r="L117" s="80"/>
+      <c r="M117" s="80"/>
+      <c r="N117" s="80"/>
+      <c r="O117" s="80"/>
+      <c r="P117" s="80"/>
+      <c r="Q117" s="80"/>
+      <c r="R117" s="80"/>
+      <c r="S117" s="80"/>
+      <c r="T117" s="80"/>
+      <c r="U117" s="80"/>
+      <c r="V117" s="80"/>
+      <c r="W117" s="80"/>
+      <c r="X117" s="80"/>
+      <c r="Y117" s="80"/>
+      <c r="Z117" s="80"/>
+      <c r="AA117" s="80"/>
+      <c r="AB117" s="80"/>
+      <c r="AC117" s="80"/>
+      <c r="AD117" s="80"/>
+      <c r="AE117" s="80"/>
+      <c r="AF117" s="81"/>
+    </row>
+    <row r="118" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D118" s="46"/>
-      <c r="E118" s="57" t="s">
+      <c r="E118" s="85"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="83"/>
+      <c r="K118" s="83"/>
+      <c r="L118" s="83"/>
+      <c r="M118" s="83"/>
+      <c r="N118" s="83"/>
+      <c r="O118" s="83"/>
+      <c r="P118" s="83"/>
+      <c r="Q118" s="83"/>
+      <c r="R118" s="83"/>
+      <c r="S118" s="83"/>
+      <c r="T118" s="83"/>
+      <c r="U118" s="83"/>
+      <c r="V118" s="83"/>
+      <c r="W118" s="83"/>
+      <c r="X118" s="83"/>
+      <c r="Y118" s="83"/>
+      <c r="Z118" s="83"/>
+      <c r="AA118" s="83"/>
+      <c r="AB118" s="83"/>
+      <c r="AC118" s="83"/>
+      <c r="AD118" s="83"/>
+      <c r="AE118" s="83"/>
+      <c r="AF118" s="84"/>
+    </row>
+    <row r="119" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D119" s="46"/>
+      <c r="E119" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="44"/>
-      <c r="J118" s="58" t="s">
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="K118" s="59"/>
-      <c r="L118" s="59"/>
-      <c r="M118" s="59"/>
-      <c r="N118" s="59"/>
-      <c r="O118" s="59"/>
-      <c r="P118" s="59"/>
-      <c r="Q118" s="59"/>
-      <c r="R118" s="59"/>
-      <c r="S118" s="59"/>
-      <c r="T118" s="59"/>
-      <c r="U118" s="59"/>
-      <c r="V118" s="59"/>
-      <c r="W118" s="59"/>
-      <c r="X118" s="59"/>
-      <c r="Y118" s="59"/>
-      <c r="Z118" s="59"/>
-      <c r="AA118" s="59"/>
-      <c r="AB118" s="59"/>
-      <c r="AC118" s="59"/>
-      <c r="AD118" s="59"/>
-      <c r="AE118" s="59"/>
-      <c r="AF118" s="60"/>
-    </row>
-    <row r="119" spans="4:32" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D119" s="46"/>
-      <c r="E119" s="57" t="s">
+      <c r="K119" s="80"/>
+      <c r="L119" s="80"/>
+      <c r="M119" s="80"/>
+      <c r="N119" s="80"/>
+      <c r="O119" s="80"/>
+      <c r="P119" s="80"/>
+      <c r="Q119" s="80"/>
+      <c r="R119" s="80"/>
+      <c r="S119" s="80"/>
+      <c r="T119" s="80"/>
+      <c r="U119" s="80"/>
+      <c r="V119" s="80"/>
+      <c r="W119" s="80"/>
+      <c r="X119" s="80"/>
+      <c r="Y119" s="80"/>
+      <c r="Z119" s="80"/>
+      <c r="AA119" s="80"/>
+      <c r="AB119" s="80"/>
+      <c r="AC119" s="80"/>
+      <c r="AD119" s="80"/>
+      <c r="AE119" s="80"/>
+      <c r="AF119" s="81"/>
+    </row>
+    <row r="120" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D120" s="46"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="83"/>
+      <c r="K120" s="83"/>
+      <c r="L120" s="83"/>
+      <c r="M120" s="83"/>
+      <c r="N120" s="83"/>
+      <c r="O120" s="83"/>
+      <c r="P120" s="83"/>
+      <c r="Q120" s="83"/>
+      <c r="R120" s="83"/>
+      <c r="S120" s="83"/>
+      <c r="T120" s="83"/>
+      <c r="U120" s="83"/>
+      <c r="V120" s="83"/>
+      <c r="W120" s="83"/>
+      <c r="X120" s="83"/>
+      <c r="Y120" s="83"/>
+      <c r="Z120" s="83"/>
+      <c r="AA120" s="83"/>
+      <c r="AB120" s="83"/>
+      <c r="AC120" s="83"/>
+      <c r="AD120" s="83"/>
+      <c r="AE120" s="83"/>
+      <c r="AF120" s="84"/>
+    </row>
+    <row r="121" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D121" s="46"/>
+      <c r="E121" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="58" t="s">
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="K119" s="59"/>
-      <c r="L119" s="59"/>
-      <c r="M119" s="59"/>
-      <c r="N119" s="59"/>
-      <c r="O119" s="59"/>
-      <c r="P119" s="59"/>
-      <c r="Q119" s="59"/>
-      <c r="R119" s="59"/>
-      <c r="S119" s="59"/>
-      <c r="T119" s="59"/>
-      <c r="U119" s="59"/>
-      <c r="V119" s="59"/>
-      <c r="W119" s="59"/>
-      <c r="X119" s="59"/>
-      <c r="Y119" s="59"/>
-      <c r="Z119" s="59"/>
-      <c r="AA119" s="59"/>
-      <c r="AB119" s="59"/>
-      <c r="AC119" s="59"/>
-      <c r="AD119" s="59"/>
-      <c r="AE119" s="59"/>
-      <c r="AF119" s="60"/>
-    </row>
-    <row r="120" spans="4:32" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D120" s="46"/>
-      <c r="E120" s="57" t="s">
+      <c r="K121" s="80"/>
+      <c r="L121" s="80"/>
+      <c r="M121" s="80"/>
+      <c r="N121" s="80"/>
+      <c r="O121" s="80"/>
+      <c r="P121" s="80"/>
+      <c r="Q121" s="80"/>
+      <c r="R121" s="80"/>
+      <c r="S121" s="80"/>
+      <c r="T121" s="80"/>
+      <c r="U121" s="80"/>
+      <c r="V121" s="80"/>
+      <c r="W121" s="80"/>
+      <c r="X121" s="80"/>
+      <c r="Y121" s="80"/>
+      <c r="Z121" s="80"/>
+      <c r="AA121" s="80"/>
+      <c r="AB121" s="80"/>
+      <c r="AC121" s="80"/>
+      <c r="AD121" s="80"/>
+      <c r="AE121" s="80"/>
+      <c r="AF121" s="81"/>
+    </row>
+    <row r="122" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D122" s="46"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="83"/>
+      <c r="K122" s="83"/>
+      <c r="L122" s="83"/>
+      <c r="M122" s="83"/>
+      <c r="N122" s="83"/>
+      <c r="O122" s="83"/>
+      <c r="P122" s="83"/>
+      <c r="Q122" s="83"/>
+      <c r="R122" s="83"/>
+      <c r="S122" s="83"/>
+      <c r="T122" s="83"/>
+      <c r="U122" s="83"/>
+      <c r="V122" s="83"/>
+      <c r="W122" s="83"/>
+      <c r="X122" s="83"/>
+      <c r="Y122" s="83"/>
+      <c r="Z122" s="83"/>
+      <c r="AA122" s="83"/>
+      <c r="AB122" s="83"/>
+      <c r="AC122" s="83"/>
+      <c r="AD122" s="83"/>
+      <c r="AE122" s="83"/>
+      <c r="AF122" s="84"/>
+    </row>
+    <row r="123" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D123" s="46"/>
+      <c r="E123" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="F120" s="43"/>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="58" t="s">
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="K120" s="59"/>
-      <c r="L120" s="59"/>
-      <c r="M120" s="59"/>
-      <c r="N120" s="59"/>
-      <c r="O120" s="59"/>
-      <c r="P120" s="59"/>
-      <c r="Q120" s="59"/>
-      <c r="R120" s="59"/>
-      <c r="S120" s="59"/>
-      <c r="T120" s="59"/>
-      <c r="U120" s="59"/>
-      <c r="V120" s="59"/>
-      <c r="W120" s="59"/>
-      <c r="X120" s="59"/>
-      <c r="Y120" s="59"/>
-      <c r="Z120" s="59"/>
-      <c r="AA120" s="59"/>
-      <c r="AB120" s="59"/>
-      <c r="AC120" s="59"/>
-      <c r="AD120" s="59"/>
-      <c r="AE120" s="59"/>
-      <c r="AF120" s="60"/>
-    </row>
-    <row r="121" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E122" s="45" t="s">
+      <c r="K123" s="80"/>
+      <c r="L123" s="80"/>
+      <c r="M123" s="80"/>
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="80"/>
+      <c r="Q123" s="80"/>
+      <c r="R123" s="80"/>
+      <c r="S123" s="80"/>
+      <c r="T123" s="80"/>
+      <c r="U123" s="80"/>
+      <c r="V123" s="80"/>
+      <c r="W123" s="80"/>
+      <c r="X123" s="80"/>
+      <c r="Y123" s="80"/>
+      <c r="Z123" s="80"/>
+      <c r="AA123" s="80"/>
+      <c r="AB123" s="80"/>
+      <c r="AC123" s="80"/>
+      <c r="AD123" s="80"/>
+      <c r="AE123" s="80"/>
+      <c r="AF123" s="81"/>
+    </row>
+    <row r="124" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D124" s="46"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="82"/>
+      <c r="K124" s="83"/>
+      <c r="L124" s="83"/>
+      <c r="M124" s="83"/>
+      <c r="N124" s="83"/>
+      <c r="O124" s="83"/>
+      <c r="P124" s="83"/>
+      <c r="Q124" s="83"/>
+      <c r="R124" s="83"/>
+      <c r="S124" s="83"/>
+      <c r="T124" s="83"/>
+      <c r="U124" s="83"/>
+      <c r="V124" s="83"/>
+      <c r="W124" s="83"/>
+      <c r="X124" s="83"/>
+      <c r="Y124" s="83"/>
+      <c r="Z124" s="83"/>
+      <c r="AA124" s="83"/>
+      <c r="AB124" s="83"/>
+      <c r="AC124" s="83"/>
+      <c r="AD124" s="83"/>
+      <c r="AE124" s="83"/>
+      <c r="AF124" s="84"/>
+    </row>
+    <row r="125" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E126" s="45" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="123" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="31" t="s">
+    <row r="127" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E128" s="31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E125" s="31" t="s">
+    <row r="129" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E129" s="31" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E127" s="46" t="str">
+    <row r="130" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E131" s="46" t="str">
         <f>$D$112&amp;"1."</f>
         <v>7.13.3.1.</v>
       </c>
-      <c r="F127" s="45" t="s">
+      <c r="F131" s="45" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E128" s="46"/>
-      <c r="F128" s="30" t="str">
-        <f>$E$127&amp;"1."</f>
+    <row r="132" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="46"/>
+      <c r="F132" s="30" t="str">
+        <f>$E$131&amp;"1."</f>
         <v>7.13.3.1.1.</v>
       </c>
-      <c r="G128" s="45" t="s">
+      <c r="G132" s="45" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="129" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G129" s="23" t="s">
+    <row r="133" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G133" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="24"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="24"/>
-      <c r="Q129" s="24"/>
-      <c r="R129" s="24"/>
-      <c r="S129" s="24"/>
-      <c r="T129" s="24"/>
-      <c r="U129" s="24"/>
-      <c r="V129" s="24"/>
-      <c r="W129" s="24"/>
-      <c r="X129" s="24"/>
-      <c r="Y129" s="24"/>
-      <c r="Z129" s="24"/>
-      <c r="AA129" s="24"/>
-      <c r="AB129" s="24"/>
-      <c r="AC129" s="24"/>
-      <c r="AD129" s="24"/>
-      <c r="AE129" s="24"/>
-      <c r="AF129" s="24"/>
-      <c r="AG129" s="24"/>
-      <c r="AH129" s="25"/>
-    </row>
-    <row r="130" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G130" s="18" t="s">
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="24"/>
+      <c r="O133" s="24"/>
+      <c r="P133" s="24"/>
+      <c r="Q133" s="24"/>
+      <c r="R133" s="24"/>
+      <c r="S133" s="24"/>
+      <c r="T133" s="24"/>
+      <c r="U133" s="24"/>
+      <c r="V133" s="24"/>
+      <c r="W133" s="24"/>
+      <c r="X133" s="24"/>
+      <c r="Y133" s="24"/>
+      <c r="Z133" s="24"/>
+      <c r="AA133" s="24"/>
+      <c r="AB133" s="24"/>
+      <c r="AC133" s="24"/>
+      <c r="AD133" s="24"/>
+      <c r="AE133" s="24"/>
+      <c r="AF133" s="24"/>
+      <c r="AG133" s="24"/>
+      <c r="AH133" s="25"/>
+    </row>
+    <row r="134" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G134" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="AH130" s="20"/>
-    </row>
-    <row r="131" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G131" s="40" t="s">
+      <c r="AH134" s="20"/>
+    </row>
+    <row r="135" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G135" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-      <c r="K131" s="41"/>
-      <c r="L131" s="41"/>
-      <c r="M131" s="41"/>
-      <c r="N131" s="41"/>
-      <c r="O131" s="41"/>
-      <c r="P131" s="41"/>
-      <c r="Q131" s="41"/>
-      <c r="R131" s="41"/>
-      <c r="S131" s="41"/>
-      <c r="T131" s="41"/>
-      <c r="U131" s="41"/>
-      <c r="V131" s="41"/>
-      <c r="W131" s="41"/>
-      <c r="X131" s="41"/>
-      <c r="Y131" s="41"/>
-      <c r="Z131" s="41"/>
-      <c r="AA131" s="41"/>
-      <c r="AB131" s="41"/>
-      <c r="AC131" s="41"/>
-      <c r="AD131" s="41"/>
-      <c r="AE131" s="41"/>
-      <c r="AF131" s="41"/>
-      <c r="AG131" s="41"/>
-      <c r="AH131" s="42"/>
-    </row>
-    <row r="132" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G132" s="36" t="s">
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
+      <c r="L135" s="41"/>
+      <c r="M135" s="41"/>
+      <c r="N135" s="41"/>
+      <c r="O135" s="41"/>
+      <c r="P135" s="41"/>
+      <c r="Q135" s="41"/>
+      <c r="R135" s="41"/>
+      <c r="S135" s="41"/>
+      <c r="T135" s="41"/>
+      <c r="U135" s="41"/>
+      <c r="V135" s="41"/>
+      <c r="W135" s="41"/>
+      <c r="X135" s="41"/>
+      <c r="Y135" s="41"/>
+      <c r="Z135" s="41"/>
+      <c r="AA135" s="41"/>
+      <c r="AB135" s="41"/>
+      <c r="AC135" s="41"/>
+      <c r="AD135" s="41"/>
+      <c r="AE135" s="41"/>
+      <c r="AF135" s="41"/>
+      <c r="AG135" s="41"/>
+      <c r="AH135" s="42"/>
+    </row>
+    <row r="136" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G136" s="36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G133" s="45" t="s">
+    <row r="137" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G137" s="45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G134" s="36" t="s">
+    <row r="138" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G138" s="36" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D135" s="46"/>
-      <c r="E135" s="31"/>
-    </row>
-    <row r="136" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E136" s="46" t="str">
+    <row r="139" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="46"/>
+      <c r="E139" s="31"/>
+    </row>
+    <row r="140" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E140" s="46" t="str">
         <f>$D$112&amp;"2."</f>
         <v>7.13.3.2.</v>
       </c>
-      <c r="F136" s="45" t="s">
+      <c r="F140" s="45" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="46"/>
-      <c r="F137" s="30" t="str">
-        <f>$E$136&amp;"1."</f>
+    <row r="141" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E141" s="46"/>
+      <c r="F141" s="30" t="str">
+        <f>$E$140&amp;"1."</f>
         <v>7.13.3.2.1.</v>
       </c>
-      <c r="G137" s="45" t="s">
+      <c r="G141" s="45" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="138" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="30"/>
-      <c r="G138" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="24"/>
-      <c r="L138" s="24"/>
-      <c r="M138" s="24"/>
-      <c r="N138" s="24"/>
-      <c r="O138" s="24"/>
-      <c r="P138" s="24"/>
-      <c r="Q138" s="24"/>
-      <c r="R138" s="24"/>
-      <c r="S138" s="24"/>
-      <c r="T138" s="24"/>
-      <c r="U138" s="24"/>
-      <c r="V138" s="24"/>
-      <c r="W138" s="24"/>
-      <c r="X138" s="24"/>
-      <c r="Y138" s="24"/>
-      <c r="Z138" s="24"/>
-      <c r="AA138" s="24"/>
-      <c r="AB138" s="24"/>
-      <c r="AC138" s="24"/>
-      <c r="AD138" s="24"/>
-      <c r="AE138" s="24"/>
-      <c r="AF138" s="24"/>
-      <c r="AG138" s="24"/>
-      <c r="AH138" s="25"/>
-    </row>
-    <row r="139" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="30"/>
-      <c r="G139" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH139" s="20"/>
-    </row>
-    <row r="140" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="30"/>
-      <c r="G140" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH140" s="20"/>
-    </row>
-    <row r="141" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="30"/>
-      <c r="G141" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH141" s="20"/>
     </row>
     <row r="142" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="30"/>
-      <c r="G142" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="AH142" s="20"/>
+      <c r="G142" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="24"/>
+      <c r="O142" s="24"/>
+      <c r="P142" s="24"/>
+      <c r="Q142" s="24"/>
+      <c r="R142" s="24"/>
+      <c r="S142" s="24"/>
+      <c r="T142" s="24"/>
+      <c r="U142" s="24"/>
+      <c r="V142" s="24"/>
+      <c r="W142" s="24"/>
+      <c r="X142" s="24"/>
+      <c r="Y142" s="24"/>
+      <c r="Z142" s="24"/>
+      <c r="AA142" s="24"/>
+      <c r="AB142" s="24"/>
+      <c r="AC142" s="24"/>
+      <c r="AD142" s="24"/>
+      <c r="AE142" s="24"/>
+      <c r="AF142" s="24"/>
+      <c r="AG142" s="24"/>
+      <c r="AH142" s="25"/>
     </row>
     <row r="143" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="30"/>
       <c r="G143" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AH143" s="20"/>
     </row>
     <row r="144" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="30"/>
-      <c r="G144" s="40" t="s">
+      <c r="G144" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH144" s="20"/>
+    </row>
+    <row r="145" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="30"/>
+      <c r="G145" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH145" s="20"/>
+    </row>
+    <row r="146" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="30"/>
+      <c r="G146" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH146" s="20"/>
+    </row>
+    <row r="147" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E147" s="30"/>
+      <c r="G147" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH147" s="20"/>
+    </row>
+    <row r="148" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E148" s="30"/>
+      <c r="G148" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="H144" s="41"/>
-      <c r="I144" s="41"/>
-      <c r="J144" s="41"/>
-      <c r="K144" s="41"/>
-      <c r="L144" s="41"/>
-      <c r="M144" s="41"/>
-      <c r="N144" s="41"/>
-      <c r="O144" s="41"/>
-      <c r="P144" s="41"/>
-      <c r="Q144" s="41"/>
-      <c r="R144" s="41"/>
-      <c r="S144" s="41"/>
-      <c r="T144" s="41"/>
-      <c r="U144" s="41"/>
-      <c r="V144" s="41"/>
-      <c r="W144" s="41"/>
-      <c r="X144" s="41"/>
-      <c r="Y144" s="41"/>
-      <c r="Z144" s="41"/>
-      <c r="AA144" s="41"/>
-      <c r="AB144" s="41"/>
-      <c r="AC144" s="41"/>
-      <c r="AD144" s="41"/>
-      <c r="AE144" s="41"/>
-      <c r="AF144" s="41"/>
-      <c r="AG144" s="41"/>
-      <c r="AH144" s="42"/>
-    </row>
-    <row r="145" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G145" s="36" t="s">
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+      <c r="J148" s="41"/>
+      <c r="K148" s="41"/>
+      <c r="L148" s="41"/>
+      <c r="M148" s="41"/>
+      <c r="N148" s="41"/>
+      <c r="O148" s="41"/>
+      <c r="P148" s="41"/>
+      <c r="Q148" s="41"/>
+      <c r="R148" s="41"/>
+      <c r="S148" s="41"/>
+      <c r="T148" s="41"/>
+      <c r="U148" s="41"/>
+      <c r="V148" s="41"/>
+      <c r="W148" s="41"/>
+      <c r="X148" s="41"/>
+      <c r="Y148" s="41"/>
+      <c r="Z148" s="41"/>
+      <c r="AA148" s="41"/>
+      <c r="AB148" s="41"/>
+      <c r="AC148" s="41"/>
+      <c r="AD148" s="41"/>
+      <c r="AE148" s="41"/>
+      <c r="AF148" s="41"/>
+      <c r="AG148" s="41"/>
+      <c r="AH148" s="42"/>
+    </row>
+    <row r="149" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G149" s="36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="146" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G146" s="45" t="s">
+    <row r="150" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G150" s="45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D148" s="46" t="str">
+    <row r="151" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="46" t="str">
         <f>$C$7&amp;"4."</f>
         <v>7.13.4.</v>
       </c>
-      <c r="E148" s="31" t="s">
+      <c r="E152" s="31" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="30" t="str">
-        <f>$D$148&amp;"1."</f>
+    <row r="153" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E153" s="30" t="str">
+        <f>$D$152&amp;"1."</f>
         <v>7.13.4.1.</v>
       </c>
-      <c r="F149" s="31" t="s">
+      <c r="F153" s="31" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="150" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150" s="30"/>
-      <c r="F150" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="151" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E151" s="30"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H151" s="28"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="K151" s="28"/>
-      <c r="L151" s="29"/>
-      <c r="M151" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N151" s="28"/>
-      <c r="O151" s="28"/>
-      <c r="P151" s="28"/>
-      <c r="Q151" s="29"/>
-      <c r="R151" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="S151" s="28"/>
-      <c r="T151" s="28"/>
-      <c r="U151" s="28"/>
-      <c r="V151" s="28"/>
-      <c r="W151" s="28"/>
-      <c r="X151" s="28"/>
-      <c r="Y151" s="28"/>
-      <c r="Z151" s="28"/>
-      <c r="AA151" s="28"/>
-      <c r="AB151" s="28"/>
-      <c r="AC151" s="28"/>
-      <c r="AD151" s="28"/>
-      <c r="AE151" s="28"/>
-      <c r="AF151" s="28"/>
-      <c r="AG151" s="28"/>
-      <c r="AH151" s="28"/>
-      <c r="AI151" s="29"/>
-    </row>
-    <row r="152" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E152" s="30"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H152" s="24"/>
-      <c r="I152" s="25"/>
-      <c r="J152" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K152" s="24"/>
-      <c r="L152" s="25"/>
-      <c r="M152" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="N152" s="24"/>
-      <c r="O152" s="24"/>
-      <c r="P152" s="24"/>
-      <c r="Q152" s="25"/>
-      <c r="R152" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="S152" s="24"/>
-      <c r="T152" s="24"/>
-      <c r="U152" s="24"/>
-      <c r="V152" s="24"/>
-      <c r="W152" s="24"/>
-      <c r="X152" s="24"/>
-      <c r="Y152" s="24"/>
-      <c r="Z152" s="24"/>
-      <c r="AA152" s="24"/>
-      <c r="AB152" s="24"/>
-      <c r="AC152" s="24"/>
-      <c r="AD152" s="24"/>
-      <c r="AE152" s="24"/>
-      <c r="AF152" s="24"/>
-      <c r="AG152" s="24"/>
-      <c r="AH152" s="24"/>
-      <c r="AI152" s="25"/>
-    </row>
-    <row r="153" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E153" s="30"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="40"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="41"/>
-      <c r="K153" s="41"/>
-      <c r="L153" s="42"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="41"/>
-      <c r="O153" s="41"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="42"/>
-      <c r="R153" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="S153" s="41"/>
-      <c r="T153" s="41"/>
-      <c r="U153" s="41"/>
-      <c r="V153" s="41"/>
-      <c r="W153" s="41"/>
-      <c r="X153" s="41"/>
-      <c r="Y153" s="41"/>
-      <c r="Z153" s="41"/>
-      <c r="AA153" s="41"/>
-      <c r="AB153" s="41"/>
-      <c r="AC153" s="41"/>
-      <c r="AD153" s="41"/>
-      <c r="AE153" s="41"/>
-      <c r="AF153" s="41"/>
-      <c r="AG153" s="41"/>
-      <c r="AH153" s="41"/>
-      <c r="AI153" s="42"/>
     </row>
     <row r="154" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E154" s="30"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="19"/>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="19"/>
-      <c r="S154" s="19"/>
-      <c r="T154" s="19"/>
-      <c r="U154" s="19"/>
-      <c r="V154" s="19"/>
-      <c r="W154" s="19"/>
-      <c r="X154" s="19"/>
-      <c r="Y154" s="19"/>
-      <c r="Z154" s="19"/>
-      <c r="AA154" s="19"/>
-      <c r="AB154" s="19"/>
-      <c r="AC154" s="19"/>
-      <c r="AD154" s="19"/>
-      <c r="AE154" s="19"/>
-      <c r="AF154" s="19"/>
-      <c r="AG154" s="19"/>
-      <c r="AH154" s="19"/>
-      <c r="AI154" s="19"/>
+      <c r="F154" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="45" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="155" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E155" s="30"/>
-      <c r="F155" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G155" s="45" t="s">
-        <v>101</v>
-      </c>
+      <c r="F155" s="31"/>
+      <c r="G155" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H155" s="28"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="K155" s="28"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N155" s="28"/>
+      <c r="O155" s="28"/>
+      <c r="P155" s="28"/>
+      <c r="Q155" s="29"/>
+      <c r="R155" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="S155" s="28"/>
+      <c r="T155" s="28"/>
+      <c r="U155" s="28"/>
+      <c r="V155" s="28"/>
+      <c r="W155" s="28"/>
+      <c r="X155" s="28"/>
+      <c r="Y155" s="28"/>
+      <c r="Z155" s="28"/>
+      <c r="AA155" s="28"/>
+      <c r="AB155" s="28"/>
+      <c r="AC155" s="28"/>
+      <c r="AD155" s="28"/>
+      <c r="AE155" s="28"/>
+      <c r="AF155" s="28"/>
+      <c r="AG155" s="28"/>
+      <c r="AH155" s="28"/>
+      <c r="AI155" s="29"/>
     </row>
     <row r="156" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="30"/>
-      <c r="F156" s="46"/>
-      <c r="G156" s="30" t="str">
-        <f>F155&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H156" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="F156" s="31"/>
+      <c r="G156" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H156" s="24"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K156" s="24"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="N156" s="24"/>
+      <c r="O156" s="24"/>
+      <c r="P156" s="24"/>
+      <c r="Q156" s="25"/>
+      <c r="R156" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="S156" s="24"/>
+      <c r="T156" s="24"/>
+      <c r="U156" s="24"/>
+      <c r="V156" s="24"/>
+      <c r="W156" s="24"/>
+      <c r="X156" s="24"/>
+      <c r="Y156" s="24"/>
+      <c r="Z156" s="24"/>
+      <c r="AA156" s="24"/>
+      <c r="AB156" s="24"/>
+      <c r="AC156" s="24"/>
+      <c r="AD156" s="24"/>
+      <c r="AE156" s="24"/>
+      <c r="AF156" s="24"/>
+      <c r="AG156" s="24"/>
+      <c r="AH156" s="24"/>
+      <c r="AI156" s="25"/>
     </row>
     <row r="157" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="46"/>
-      <c r="H157" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="I157" s="24"/>
-      <c r="J157" s="24"/>
-      <c r="K157" s="24"/>
-      <c r="L157" s="24"/>
-      <c r="M157" s="24"/>
-      <c r="N157" s="24"/>
-      <c r="O157" s="24"/>
-      <c r="P157" s="24"/>
-      <c r="Q157" s="24"/>
-      <c r="R157" s="24"/>
-      <c r="S157" s="24"/>
-      <c r="T157" s="24"/>
-      <c r="U157" s="24"/>
-      <c r="V157" s="24"/>
-      <c r="W157" s="24"/>
-      <c r="X157" s="24"/>
-      <c r="Y157" s="24"/>
-      <c r="Z157" s="24"/>
-      <c r="AA157" s="24"/>
-      <c r="AB157" s="24"/>
-      <c r="AC157" s="24"/>
-      <c r="AD157" s="24"/>
-      <c r="AE157" s="24"/>
-      <c r="AF157" s="24"/>
-      <c r="AG157" s="24"/>
-      <c r="AH157" s="24"/>
-      <c r="AI157" s="25"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="41"/>
+      <c r="K157" s="41"/>
+      <c r="L157" s="42"/>
+      <c r="M157" s="41"/>
+      <c r="N157" s="41"/>
+      <c r="O157" s="41"/>
+      <c r="P157" s="41"/>
+      <c r="Q157" s="42"/>
+      <c r="R157" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="S157" s="41"/>
+      <c r="T157" s="41"/>
+      <c r="U157" s="41"/>
+      <c r="V157" s="41"/>
+      <c r="W157" s="41"/>
+      <c r="X157" s="41"/>
+      <c r="Y157" s="41"/>
+      <c r="Z157" s="41"/>
+      <c r="AA157" s="41"/>
+      <c r="AB157" s="41"/>
+      <c r="AC157" s="41"/>
+      <c r="AD157" s="41"/>
+      <c r="AE157" s="41"/>
+      <c r="AF157" s="41"/>
+      <c r="AG157" s="41"/>
+      <c r="AH157" s="41"/>
+      <c r="AI157" s="42"/>
     </row>
     <row r="158" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="46"/>
-      <c r="H158" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="I158" s="41"/>
-      <c r="J158" s="41"/>
-      <c r="K158" s="41"/>
-      <c r="L158" s="41"/>
-      <c r="M158" s="41"/>
-      <c r="N158" s="41"/>
-      <c r="O158" s="41"/>
-      <c r="P158" s="41"/>
-      <c r="Q158" s="41"/>
-      <c r="R158" s="41"/>
-      <c r="S158" s="41"/>
-      <c r="T158" s="41"/>
-      <c r="U158" s="41"/>
-      <c r="V158" s="41"/>
-      <c r="W158" s="41"/>
-      <c r="X158" s="41"/>
-      <c r="Y158" s="41"/>
-      <c r="Z158" s="41"/>
-      <c r="AA158" s="41"/>
-      <c r="AB158" s="41"/>
-      <c r="AC158" s="41"/>
-      <c r="AD158" s="41"/>
-      <c r="AE158" s="41"/>
-      <c r="AF158" s="41"/>
-      <c r="AG158" s="41"/>
-      <c r="AH158" s="41"/>
-      <c r="AI158" s="42"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
+      <c r="S158" s="19"/>
+      <c r="T158" s="19"/>
+      <c r="U158" s="19"/>
+      <c r="V158" s="19"/>
+      <c r="W158" s="19"/>
+      <c r="X158" s="19"/>
+      <c r="Y158" s="19"/>
+      <c r="Z158" s="19"/>
+      <c r="AA158" s="19"/>
+      <c r="AB158" s="19"/>
+      <c r="AC158" s="19"/>
+      <c r="AD158" s="19"/>
+      <c r="AE158" s="19"/>
+      <c r="AF158" s="19"/>
+      <c r="AG158" s="19"/>
+      <c r="AH158" s="19"/>
+      <c r="AI158" s="19"/>
     </row>
     <row r="159" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="46"/>
-      <c r="H159" s="45" t="s">
-        <v>152</v>
+      <c r="F159" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G159" s="45" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="30" t="str">
+        <f>F159&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
       <c r="H160" s="45" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E161" s="30"/>
-      <c r="F161" s="46"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="24"/>
+      <c r="O161" s="24"/>
+      <c r="P161" s="24"/>
+      <c r="Q161" s="24"/>
+      <c r="R161" s="24"/>
+      <c r="S161" s="24"/>
+      <c r="T161" s="24"/>
+      <c r="U161" s="24"/>
+      <c r="V161" s="24"/>
+      <c r="W161" s="24"/>
+      <c r="X161" s="24"/>
+      <c r="Y161" s="24"/>
+      <c r="Z161" s="24"/>
+      <c r="AA161" s="24"/>
+      <c r="AB161" s="24"/>
+      <c r="AC161" s="24"/>
+      <c r="AD161" s="24"/>
+      <c r="AE161" s="24"/>
+      <c r="AF161" s="24"/>
+      <c r="AG161" s="24"/>
+      <c r="AH161" s="24"/>
+      <c r="AI161" s="25"/>
     </row>
     <row r="162" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="30"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="30" t="str">
-        <f>F155&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H162" s="45" t="s">
-        <v>74</v>
-      </c>
+      <c r="F162" s="30"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="I162" s="41"/>
+      <c r="J162" s="41"/>
+      <c r="K162" s="41"/>
+      <c r="L162" s="41"/>
+      <c r="M162" s="41"/>
+      <c r="N162" s="41"/>
+      <c r="O162" s="41"/>
+      <c r="P162" s="41"/>
+      <c r="Q162" s="41"/>
+      <c r="R162" s="41"/>
+      <c r="S162" s="41"/>
+      <c r="T162" s="41"/>
+      <c r="U162" s="41"/>
+      <c r="V162" s="41"/>
+      <c r="W162" s="41"/>
+      <c r="X162" s="41"/>
+      <c r="Y162" s="41"/>
+      <c r="Z162" s="41"/>
+      <c r="AA162" s="41"/>
+      <c r="AB162" s="41"/>
+      <c r="AC162" s="41"/>
+      <c r="AD162" s="41"/>
+      <c r="AE162" s="41"/>
+      <c r="AF162" s="41"/>
+      <c r="AG162" s="41"/>
+      <c r="AH162" s="41"/>
+      <c r="AI162" s="42"/>
     </row>
     <row r="163" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E163" s="30"/>
-      <c r="F163" s="46"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
-      <c r="L163" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="M163" s="28"/>
-      <c r="N163" s="28"/>
-      <c r="O163" s="29"/>
-      <c r="P163" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q163" s="28"/>
-      <c r="R163" s="28"/>
-      <c r="S163" s="28"/>
-      <c r="T163" s="28"/>
-      <c r="U163" s="28"/>
-      <c r="V163" s="28"/>
-      <c r="W163" s="28"/>
-      <c r="X163" s="28"/>
-      <c r="Y163" s="28"/>
-      <c r="Z163" s="28"/>
-      <c r="AA163" s="28"/>
-      <c r="AB163" s="28"/>
-      <c r="AC163" s="28"/>
-      <c r="AD163" s="28"/>
-      <c r="AE163" s="28"/>
-      <c r="AF163" s="28"/>
-      <c r="AG163" s="28"/>
-      <c r="AH163" s="28"/>
-      <c r="AI163" s="29"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="46"/>
+      <c r="H163" s="45" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="164" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E164" s="30"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
-      <c r="O164" s="20"/>
-      <c r="P164" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q164" s="19"/>
-      <c r="R164" s="19"/>
-      <c r="S164" s="19"/>
-      <c r="T164" s="19"/>
-      <c r="U164" s="19"/>
-      <c r="V164" s="19"/>
-      <c r="W164" s="19"/>
-      <c r="X164" s="19"/>
-      <c r="Y164" s="19"/>
-      <c r="Z164" s="19"/>
-      <c r="AA164" s="19"/>
-      <c r="AB164" s="19"/>
-      <c r="AC164" s="19"/>
-      <c r="AD164" s="19"/>
-      <c r="AE164" s="19"/>
-      <c r="AF164" s="19"/>
-      <c r="AG164" s="19"/>
-      <c r="AH164" s="19"/>
-      <c r="AI164" s="20"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="46"/>
+      <c r="H164" s="45" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="165" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E165" s="30"/>
       <c r="F165" s="46"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I165" s="43"/>
-      <c r="J165" s="43"/>
-      <c r="K165" s="43"/>
-      <c r="L165" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="M165" s="43"/>
-      <c r="N165" s="43"/>
-      <c r="O165" s="44"/>
-      <c r="P165" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q165" s="43"/>
-      <c r="R165" s="43"/>
-      <c r="S165" s="43"/>
-      <c r="T165" s="43"/>
-      <c r="U165" s="43"/>
-      <c r="V165" s="43"/>
-      <c r="W165" s="43"/>
-      <c r="X165" s="43"/>
-      <c r="Y165" s="43"/>
-      <c r="Z165" s="43"/>
-      <c r="AA165" s="43"/>
-      <c r="AB165" s="43"/>
-      <c r="AC165" s="43"/>
-      <c r="AD165" s="43"/>
-      <c r="AE165" s="43"/>
-      <c r="AF165" s="43"/>
-      <c r="AG165" s="43"/>
-      <c r="AH165" s="43"/>
-      <c r="AI165" s="44"/>
     </row>
     <row r="166" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E166" s="30"/>
       <c r="F166" s="46"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="20"/>
-      <c r="P166" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="19"/>
-      <c r="T166" s="19"/>
-      <c r="U166" s="19"/>
-      <c r="V166" s="19"/>
-      <c r="W166" s="19"/>
-      <c r="X166" s="19"/>
-      <c r="Y166" s="19"/>
-      <c r="Z166" s="19"/>
-      <c r="AA166" s="19"/>
-      <c r="AB166" s="19"/>
-      <c r="AC166" s="19"/>
-      <c r="AD166" s="19"/>
-      <c r="AE166" s="19"/>
-      <c r="AF166" s="19"/>
-      <c r="AG166" s="19"/>
-      <c r="AH166" s="19"/>
-      <c r="AI166" s="20"/>
+      <c r="G166" s="30" t="str">
+        <f>F159&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H166" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="167" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E167" s="30"/>
       <c r="F167" s="46"/>
       <c r="G167" s="30"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="20"/>
-      <c r="P167" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q167" s="19"/>
-      <c r="R167" s="19"/>
-      <c r="S167" s="19"/>
-      <c r="T167" s="19"/>
-      <c r="U167" s="19"/>
-      <c r="V167" s="19"/>
-      <c r="W167" s="19"/>
-      <c r="X167" s="19"/>
-      <c r="Y167" s="19"/>
-      <c r="Z167" s="19"/>
-      <c r="AA167" s="19"/>
-      <c r="AB167" s="19"/>
-      <c r="AC167" s="19"/>
-      <c r="AD167" s="19"/>
-      <c r="AE167" s="19"/>
-      <c r="AF167" s="19"/>
-      <c r="AG167" s="19"/>
-      <c r="AH167" s="19"/>
-      <c r="AI167" s="20"/>
+      <c r="H167" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167" s="28"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M167" s="28"/>
+      <c r="N167" s="28"/>
+      <c r="O167" s="29"/>
+      <c r="P167" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q167" s="28"/>
+      <c r="R167" s="28"/>
+      <c r="S167" s="28"/>
+      <c r="T167" s="28"/>
+      <c r="U167" s="28"/>
+      <c r="V167" s="28"/>
+      <c r="W167" s="28"/>
+      <c r="X167" s="28"/>
+      <c r="Y167" s="28"/>
+      <c r="Z167" s="28"/>
+      <c r="AA167" s="28"/>
+      <c r="AB167" s="28"/>
+      <c r="AC167" s="28"/>
+      <c r="AD167" s="28"/>
+      <c r="AE167" s="28"/>
+      <c r="AF167" s="28"/>
+      <c r="AG167" s="28"/>
+      <c r="AH167" s="28"/>
+      <c r="AI167" s="29"/>
     </row>
     <row r="168" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="30"/>
       <c r="F168" s="46"/>
       <c r="G168" s="30"/>
-      <c r="H168" s="40"/>
-      <c r="I168" s="41"/>
-      <c r="J168" s="41"/>
-      <c r="K168" s="41"/>
-      <c r="L168" s="40"/>
-      <c r="M168" s="41"/>
-      <c r="N168" s="41"/>
-      <c r="O168" s="42"/>
-      <c r="P168" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q168" s="41"/>
-      <c r="R168" s="41"/>
-      <c r="S168" s="41"/>
-      <c r="T168" s="41"/>
-      <c r="U168" s="41"/>
-      <c r="V168" s="41"/>
-      <c r="W168" s="41"/>
-      <c r="X168" s="41"/>
-      <c r="Y168" s="41"/>
-      <c r="Z168" s="41"/>
-      <c r="AA168" s="41"/>
-      <c r="AB168" s="41"/>
-      <c r="AC168" s="41"/>
-      <c r="AD168" s="41"/>
-      <c r="AE168" s="41"/>
-      <c r="AF168" s="41"/>
-      <c r="AG168" s="41"/>
-      <c r="AH168" s="41"/>
-      <c r="AI168" s="42"/>
+      <c r="H168" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="19"/>
+      <c r="S168" s="19"/>
+      <c r="T168" s="19"/>
+      <c r="U168" s="19"/>
+      <c r="V168" s="19"/>
+      <c r="W168" s="19"/>
+      <c r="X168" s="19"/>
+      <c r="Y168" s="19"/>
+      <c r="Z168" s="19"/>
+      <c r="AA168" s="19"/>
+      <c r="AB168" s="19"/>
+      <c r="AC168" s="19"/>
+      <c r="AD168" s="19"/>
+      <c r="AE168" s="19"/>
+      <c r="AF168" s="19"/>
+      <c r="AG168" s="19"/>
+      <c r="AH168" s="19"/>
+      <c r="AI168" s="20"/>
     </row>
     <row r="169" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E169" s="30"/>
       <c r="F169" s="46"/>
       <c r="G169" s="30"/>
-      <c r="H169" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="I169" s="41"/>
-      <c r="J169" s="41"/>
-      <c r="K169" s="41"/>
-      <c r="L169" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="M169" s="41"/>
-      <c r="N169" s="41"/>
-      <c r="O169" s="42"/>
-      <c r="P169" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q169" s="41"/>
-      <c r="R169" s="41"/>
-      <c r="S169" s="41"/>
-      <c r="T169" s="41"/>
-      <c r="U169" s="41"/>
-      <c r="V169" s="41"/>
-      <c r="W169" s="41"/>
-      <c r="X169" s="41"/>
-      <c r="Y169" s="41"/>
-      <c r="Z169" s="41"/>
-      <c r="AA169" s="41"/>
-      <c r="AB169" s="41"/>
-      <c r="AC169" s="41"/>
-      <c r="AD169" s="41"/>
-      <c r="AE169" s="41"/>
-      <c r="AF169" s="41"/>
-      <c r="AG169" s="41"/>
-      <c r="AH169" s="41"/>
-      <c r="AI169" s="42"/>
+      <c r="H169" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" s="43"/>
+      <c r="J169" s="43"/>
+      <c r="K169" s="43"/>
+      <c r="L169" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M169" s="43"/>
+      <c r="N169" s="43"/>
+      <c r="O169" s="44"/>
+      <c r="P169" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q169" s="43"/>
+      <c r="R169" s="43"/>
+      <c r="S169" s="43"/>
+      <c r="T169" s="43"/>
+      <c r="U169" s="43"/>
+      <c r="V169" s="43"/>
+      <c r="W169" s="43"/>
+      <c r="X169" s="43"/>
+      <c r="Y169" s="43"/>
+      <c r="Z169" s="43"/>
+      <c r="AA169" s="43"/>
+      <c r="AB169" s="43"/>
+      <c r="AC169" s="43"/>
+      <c r="AD169" s="43"/>
+      <c r="AE169" s="43"/>
+      <c r="AF169" s="43"/>
+      <c r="AG169" s="43"/>
+      <c r="AH169" s="43"/>
+      <c r="AI169" s="44"/>
     </row>
     <row r="170" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E170" s="30"/>
       <c r="F170" s="46"/>
       <c r="G170" s="30"/>
       <c r="H170" s="18" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I170" s="19"/>
       <c r="J170" s="19"/>
       <c r="K170" s="19"/>
       <c r="L170" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M170" s="19"/>
       <c r="N170" s="19"/>
       <c r="O170" s="20"/>
       <c r="P170" s="19" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="Q170" s="19"/>
       <c r="R170" s="19"/>
@@ -6393,7 +6381,7 @@
       <c r="N171" s="19"/>
       <c r="O171" s="20"/>
       <c r="P171" s="19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Q171" s="19"/>
       <c r="R171" s="19"/>
@@ -6419,100 +6407,103 @@
       <c r="E172" s="30"/>
       <c r="F172" s="46"/>
       <c r="G172" s="30"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="19"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="19"/>
-      <c r="N172" s="19"/>
-      <c r="O172" s="20"/>
-      <c r="P172" s="19"/>
-      <c r="Q172" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="R172" s="28"/>
-      <c r="S172" s="28"/>
-      <c r="T172" s="28"/>
-      <c r="U172" s="29"/>
-      <c r="V172" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="W172" s="28"/>
-      <c r="X172" s="29"/>
-      <c r="Y172" s="19"/>
-      <c r="Z172" s="19"/>
-      <c r="AA172" s="19"/>
-      <c r="AB172" s="19"/>
-      <c r="AC172" s="19"/>
-      <c r="AD172" s="19"/>
-      <c r="AE172" s="19"/>
-      <c r="AF172" s="19"/>
-      <c r="AG172" s="19"/>
-      <c r="AH172" s="19"/>
-      <c r="AI172" s="20"/>
+      <c r="H172" s="40"/>
+      <c r="I172" s="41"/>
+      <c r="J172" s="41"/>
+      <c r="K172" s="41"/>
+      <c r="L172" s="40"/>
+      <c r="M172" s="41"/>
+      <c r="N172" s="41"/>
+      <c r="O172" s="42"/>
+      <c r="P172" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q172" s="41"/>
+      <c r="R172" s="41"/>
+      <c r="S172" s="41"/>
+      <c r="T172" s="41"/>
+      <c r="U172" s="41"/>
+      <c r="V172" s="41"/>
+      <c r="W172" s="41"/>
+      <c r="X172" s="41"/>
+      <c r="Y172" s="41"/>
+      <c r="Z172" s="41"/>
+      <c r="AA172" s="41"/>
+      <c r="AB172" s="41"/>
+      <c r="AC172" s="41"/>
+      <c r="AD172" s="41"/>
+      <c r="AE172" s="41"/>
+      <c r="AF172" s="41"/>
+      <c r="AG172" s="41"/>
+      <c r="AH172" s="41"/>
+      <c r="AI172" s="42"/>
     </row>
     <row r="173" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E173" s="30"/>
       <c r="F173" s="46"/>
       <c r="G173" s="30"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="19"/>
-      <c r="N173" s="19"/>
-      <c r="O173" s="20"/>
-      <c r="P173" s="19"/>
-      <c r="Q173" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="R173" s="43"/>
-      <c r="S173" s="43"/>
-      <c r="T173" s="43"/>
-      <c r="U173" s="44"/>
-      <c r="V173" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="W173" s="43"/>
-      <c r="X173" s="44"/>
-      <c r="Y173" s="19"/>
-      <c r="Z173" s="19"/>
-      <c r="AA173" s="19"/>
-      <c r="AB173" s="19"/>
-      <c r="AC173" s="19"/>
-      <c r="AD173" s="19"/>
-      <c r="AE173" s="19"/>
-      <c r="AF173" s="19"/>
-      <c r="AG173" s="19"/>
-      <c r="AH173" s="19"/>
-      <c r="AI173" s="20"/>
+      <c r="H173" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I173" s="41"/>
+      <c r="J173" s="41"/>
+      <c r="K173" s="41"/>
+      <c r="L173" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M173" s="41"/>
+      <c r="N173" s="41"/>
+      <c r="O173" s="42"/>
+      <c r="P173" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q173" s="41"/>
+      <c r="R173" s="41"/>
+      <c r="S173" s="41"/>
+      <c r="T173" s="41"/>
+      <c r="U173" s="41"/>
+      <c r="V173" s="41"/>
+      <c r="W173" s="41"/>
+      <c r="X173" s="41"/>
+      <c r="Y173" s="41"/>
+      <c r="Z173" s="41"/>
+      <c r="AA173" s="41"/>
+      <c r="AB173" s="41"/>
+      <c r="AC173" s="41"/>
+      <c r="AD173" s="41"/>
+      <c r="AE173" s="41"/>
+      <c r="AF173" s="41"/>
+      <c r="AG173" s="41"/>
+      <c r="AH173" s="41"/>
+      <c r="AI173" s="42"/>
     </row>
     <row r="174" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E174" s="30"/>
       <c r="F174" s="46"/>
-      <c r="H174" s="18"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="I174" s="19"/>
       <c r="J174" s="19"/>
       <c r="K174" s="19"/>
-      <c r="L174" s="18"/>
+      <c r="L174" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="M174" s="19"/>
       <c r="N174" s="19"/>
       <c r="O174" s="20"/>
-      <c r="P174" s="19"/>
-      <c r="Q174" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="R174" s="41"/>
-      <c r="S174" s="41"/>
-      <c r="T174" s="41"/>
-      <c r="U174" s="42"/>
-      <c r="V174" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="W174" s="41"/>
-      <c r="X174" s="42"/>
+      <c r="P174" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="19"/>
+      <c r="S174" s="19"/>
+      <c r="T174" s="19"/>
+      <c r="U174" s="19"/>
+      <c r="V174" s="19"/>
+      <c r="W174" s="19"/>
+      <c r="X174" s="19"/>
       <c r="Y174" s="19"/>
       <c r="Z174" s="19"/>
       <c r="AA174" s="19"/>
@@ -6528,150 +6519,151 @@
     <row r="175" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E175" s="30"/>
       <c r="F175" s="46"/>
-      <c r="H175" s="40"/>
-      <c r="I175" s="41"/>
-      <c r="J175" s="41"/>
-      <c r="K175" s="41"/>
-      <c r="L175" s="40"/>
-      <c r="M175" s="41"/>
-      <c r="N175" s="41"/>
-      <c r="O175" s="42"/>
-      <c r="P175" s="41"/>
-      <c r="Q175" s="41"/>
-      <c r="R175" s="41"/>
-      <c r="S175" s="41"/>
-      <c r="T175" s="41"/>
-      <c r="U175" s="41"/>
-      <c r="V175" s="41"/>
-      <c r="W175" s="41"/>
-      <c r="X175" s="41"/>
-      <c r="Y175" s="41"/>
-      <c r="Z175" s="41"/>
-      <c r="AA175" s="41"/>
-      <c r="AB175" s="41"/>
-      <c r="AC175" s="41"/>
-      <c r="AD175" s="41"/>
-      <c r="AE175" s="41"/>
-      <c r="AF175" s="41"/>
-      <c r="AG175" s="41"/>
-      <c r="AH175" s="41"/>
-      <c r="AI175" s="42"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="19"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="19"/>
+      <c r="N175" s="19"/>
+      <c r="O175" s="20"/>
+      <c r="P175" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q175" s="19"/>
+      <c r="R175" s="19"/>
+      <c r="S175" s="19"/>
+      <c r="T175" s="19"/>
+      <c r="U175" s="19"/>
+      <c r="V175" s="19"/>
+      <c r="W175" s="19"/>
+      <c r="X175" s="19"/>
+      <c r="Y175" s="19"/>
+      <c r="Z175" s="19"/>
+      <c r="AA175" s="19"/>
+      <c r="AB175" s="19"/>
+      <c r="AC175" s="19"/>
+      <c r="AD175" s="19"/>
+      <c r="AE175" s="19"/>
+      <c r="AF175" s="19"/>
+      <c r="AG175" s="19"/>
+      <c r="AH175" s="19"/>
+      <c r="AI175" s="20"/>
     </row>
     <row r="176" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E176" s="30"/>
       <c r="F176" s="46"/>
-      <c r="H176" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I176" s="41"/>
-      <c r="J176" s="41"/>
-      <c r="K176" s="41"/>
-      <c r="L176" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="M176" s="41"/>
-      <c r="N176" s="41"/>
-      <c r="O176" s="42"/>
-      <c r="P176" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q176" s="41"/>
-      <c r="R176" s="41"/>
-      <c r="S176" s="41"/>
-      <c r="T176" s="41"/>
-      <c r="U176" s="41"/>
-      <c r="V176" s="41"/>
-      <c r="W176" s="41"/>
-      <c r="X176" s="41"/>
-      <c r="Y176" s="41"/>
-      <c r="Z176" s="41"/>
-      <c r="AA176" s="41"/>
-      <c r="AB176" s="41"/>
-      <c r="AC176" s="41"/>
-      <c r="AD176" s="41"/>
-      <c r="AE176" s="41"/>
-      <c r="AF176" s="41"/>
-      <c r="AG176" s="41"/>
-      <c r="AH176" s="41"/>
-      <c r="AI176" s="42"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="19"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="19"/>
+      <c r="N176" s="19"/>
+      <c r="O176" s="20"/>
+      <c r="P176" s="19"/>
+      <c r="Q176" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R176" s="28"/>
+      <c r="S176" s="28"/>
+      <c r="T176" s="28"/>
+      <c r="U176" s="29"/>
+      <c r="V176" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W176" s="28"/>
+      <c r="X176" s="29"/>
+      <c r="Y176" s="19"/>
+      <c r="Z176" s="19"/>
+      <c r="AA176" s="19"/>
+      <c r="AB176" s="19"/>
+      <c r="AC176" s="19"/>
+      <c r="AD176" s="19"/>
+      <c r="AE176" s="19"/>
+      <c r="AF176" s="19"/>
+      <c r="AG176" s="19"/>
+      <c r="AH176" s="19"/>
+      <c r="AI176" s="20"/>
     </row>
     <row r="177" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E177" s="30"/>
-      <c r="F177" s="31"/>
-      <c r="H177" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="I177" s="41"/>
-      <c r="J177" s="41"/>
-      <c r="K177" s="41"/>
-      <c r="L177" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M177" s="41"/>
-      <c r="N177" s="41"/>
-      <c r="O177" s="42"/>
-      <c r="P177" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q177" s="41"/>
-      <c r="R177" s="41"/>
-      <c r="S177" s="41"/>
-      <c r="T177" s="41"/>
-      <c r="U177" s="41"/>
-      <c r="V177" s="41"/>
-      <c r="W177" s="41"/>
-      <c r="X177" s="41"/>
-      <c r="Y177" s="41"/>
-      <c r="Z177" s="41"/>
-      <c r="AA177" s="41"/>
-      <c r="AB177" s="41"/>
-      <c r="AC177" s="41"/>
-      <c r="AD177" s="41"/>
-      <c r="AE177" s="41"/>
-      <c r="AF177" s="41"/>
-      <c r="AG177" s="41"/>
-      <c r="AH177" s="41"/>
-      <c r="AI177" s="42"/>
+      <c r="F177" s="46"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+      <c r="O177" s="20"/>
+      <c r="P177" s="19"/>
+      <c r="Q177" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="R177" s="43"/>
+      <c r="S177" s="43"/>
+      <c r="T177" s="43"/>
+      <c r="U177" s="44"/>
+      <c r="V177" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="W177" s="43"/>
+      <c r="X177" s="44"/>
+      <c r="Y177" s="19"/>
+      <c r="Z177" s="19"/>
+      <c r="AA177" s="19"/>
+      <c r="AB177" s="19"/>
+      <c r="AC177" s="19"/>
+      <c r="AD177" s="19"/>
+      <c r="AE177" s="19"/>
+      <c r="AF177" s="19"/>
+      <c r="AG177" s="19"/>
+      <c r="AH177" s="19"/>
+      <c r="AI177" s="20"/>
     </row>
     <row r="178" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E178" s="30"/>
-      <c r="H178" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I178" s="24"/>
-      <c r="J178" s="24"/>
-      <c r="K178" s="24"/>
-      <c r="L178" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="M178" s="24"/>
-      <c r="N178" s="24"/>
-      <c r="O178" s="24"/>
-      <c r="P178" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q178" s="24"/>
-      <c r="R178" s="24"/>
-      <c r="S178" s="24"/>
-      <c r="T178" s="24"/>
-      <c r="U178" s="24"/>
-      <c r="V178" s="24"/>
-      <c r="W178" s="24"/>
-      <c r="X178" s="24"/>
-      <c r="Y178" s="24"/>
-      <c r="Z178" s="24"/>
-      <c r="AA178" s="24"/>
-      <c r="AB178" s="24"/>
-      <c r="AC178" s="24"/>
-      <c r="AD178" s="24"/>
-      <c r="AE178" s="24"/>
-      <c r="AF178" s="24"/>
-      <c r="AG178" s="24"/>
-      <c r="AH178" s="24"/>
-      <c r="AI178" s="25"/>
+      <c r="F178" s="46"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+      <c r="O178" s="20"/>
+      <c r="P178" s="19"/>
+      <c r="Q178" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="R178" s="41"/>
+      <c r="S178" s="41"/>
+      <c r="T178" s="41"/>
+      <c r="U178" s="42"/>
+      <c r="V178" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="W178" s="41"/>
+      <c r="X178" s="42"/>
+      <c r="Y178" s="19"/>
+      <c r="Z178" s="19"/>
+      <c r="AA178" s="19"/>
+      <c r="AB178" s="19"/>
+      <c r="AC178" s="19"/>
+      <c r="AD178" s="19"/>
+      <c r="AE178" s="19"/>
+      <c r="AF178" s="19"/>
+      <c r="AG178" s="19"/>
+      <c r="AH178" s="19"/>
+      <c r="AI178" s="20"/>
     </row>
     <row r="179" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E179" s="30"/>
+      <c r="F179" s="46"/>
       <c r="H179" s="40"/>
       <c r="I179" s="41"/>
       <c r="J179" s="41"/>
@@ -6679,11 +6671,8 @@
       <c r="L179" s="40"/>
       <c r="M179" s="41"/>
       <c r="N179" s="41"/>
-      <c r="O179" s="41"/>
-      <c r="P179" s="40" t="str">
-        <f>"フォーマットは"&amp;$D$112&amp;$E$112&amp;"参照。"</f>
-        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
-      </c>
+      <c r="O179" s="42"/>
+      <c r="P179" s="41"/>
       <c r="Q179" s="41"/>
       <c r="R179" s="41"/>
       <c r="S179" s="41"/>
@@ -6704,31 +6693,99 @@
       <c r="AH179" s="41"/>
       <c r="AI179" s="42"/>
     </row>
-    <row r="180" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E180" s="30"/>
+      <c r="F180" s="46"/>
+      <c r="H180" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I180" s="41"/>
+      <c r="J180" s="41"/>
+      <c r="K180" s="41"/>
+      <c r="L180" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M180" s="41"/>
+      <c r="N180" s="41"/>
+      <c r="O180" s="42"/>
+      <c r="P180" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q180" s="41"/>
+      <c r="R180" s="41"/>
+      <c r="S180" s="41"/>
+      <c r="T180" s="41"/>
+      <c r="U180" s="41"/>
+      <c r="V180" s="41"/>
+      <c r="W180" s="41"/>
+      <c r="X180" s="41"/>
+      <c r="Y180" s="41"/>
+      <c r="Z180" s="41"/>
+      <c r="AA180" s="41"/>
+      <c r="AB180" s="41"/>
+      <c r="AC180" s="41"/>
+      <c r="AD180" s="41"/>
+      <c r="AE180" s="41"/>
+      <c r="AF180" s="41"/>
+      <c r="AG180" s="41"/>
+      <c r="AH180" s="41"/>
+      <c r="AI180" s="42"/>
+    </row>
     <row r="181" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E181" s="30"/>
-      <c r="F181" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" s="45" t="s">
-        <v>16</v>
-      </c>
+      <c r="F181" s="31"/>
+      <c r="H181" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I181" s="41"/>
+      <c r="J181" s="41"/>
+      <c r="K181" s="41"/>
+      <c r="L181" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M181" s="41"/>
+      <c r="N181" s="41"/>
+      <c r="O181" s="42"/>
+      <c r="P181" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q181" s="41"/>
+      <c r="R181" s="41"/>
+      <c r="S181" s="41"/>
+      <c r="T181" s="41"/>
+      <c r="U181" s="41"/>
+      <c r="V181" s="41"/>
+      <c r="W181" s="41"/>
+      <c r="X181" s="41"/>
+      <c r="Y181" s="41"/>
+      <c r="Z181" s="41"/>
+      <c r="AA181" s="41"/>
+      <c r="AB181" s="41"/>
+      <c r="AC181" s="41"/>
+      <c r="AD181" s="41"/>
+      <c r="AE181" s="41"/>
+      <c r="AF181" s="41"/>
+      <c r="AG181" s="41"/>
+      <c r="AH181" s="41"/>
+      <c r="AI181" s="42"/>
     </row>
     <row r="182" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E182" s="30"/>
-      <c r="F182" s="46"/>
-      <c r="G182" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H182" s="24"/>
+      <c r="H182" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="I182" s="24"/>
       <c r="J182" s="24"/>
       <c r="K182" s="24"/>
-      <c r="L182" s="24"/>
+      <c r="L182" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="M182" s="24"/>
       <c r="N182" s="24"/>
       <c r="O182" s="24"/>
-      <c r="P182" s="24"/>
+      <c r="P182" s="23" t="s">
+        <v>222</v>
+      </c>
       <c r="Q182" s="24"/>
       <c r="R182" s="24"/>
       <c r="S182" s="24"/>
@@ -6751,148 +6808,89 @@
     </row>
     <row r="183" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E183" s="30"/>
-      <c r="F183" s="46"/>
-      <c r="G183" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="19"/>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19"/>
-      <c r="N183" s="19"/>
-      <c r="O183" s="19"/>
-      <c r="P183" s="19"/>
-      <c r="Q183" s="19"/>
-      <c r="R183" s="19"/>
-      <c r="S183" s="19"/>
-      <c r="T183" s="19"/>
-      <c r="U183" s="19"/>
-      <c r="V183" s="19"/>
-      <c r="W183" s="19"/>
-      <c r="X183" s="19"/>
-      <c r="Y183" s="19"/>
-      <c r="Z183" s="19"/>
-      <c r="AA183" s="19"/>
-      <c r="AB183" s="19"/>
-      <c r="AC183" s="19"/>
-      <c r="AD183" s="19"/>
-      <c r="AE183" s="19"/>
-      <c r="AF183" s="19"/>
-      <c r="AG183" s="19"/>
-      <c r="AH183" s="19"/>
-      <c r="AI183" s="20"/>
-    </row>
-    <row r="184" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E184" s="30"/>
-      <c r="F184" s="46"/>
-      <c r="G184" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="19"/>
-      <c r="L184" s="19"/>
-      <c r="M184" s="19"/>
-      <c r="N184" s="19"/>
-      <c r="O184" s="19"/>
-      <c r="P184" s="19"/>
-      <c r="Q184" s="19"/>
-      <c r="R184" s="19"/>
-      <c r="S184" s="19"/>
-      <c r="T184" s="19"/>
-      <c r="U184" s="19"/>
-      <c r="V184" s="19"/>
-      <c r="W184" s="19"/>
-      <c r="X184" s="19"/>
-      <c r="Y184" s="19"/>
-      <c r="Z184" s="19"/>
-      <c r="AA184" s="19"/>
-      <c r="AB184" s="19"/>
-      <c r="AC184" s="19"/>
-      <c r="AD184" s="19"/>
-      <c r="AE184" s="19"/>
-      <c r="AF184" s="19"/>
-      <c r="AG184" s="19"/>
-      <c r="AH184" s="19"/>
-      <c r="AI184" s="20"/>
-    </row>
+      <c r="H183" s="40"/>
+      <c r="I183" s="41"/>
+      <c r="J183" s="41"/>
+      <c r="K183" s="41"/>
+      <c r="L183" s="40"/>
+      <c r="M183" s="41"/>
+      <c r="N183" s="41"/>
+      <c r="O183" s="41"/>
+      <c r="P183" s="40" t="str">
+        <f>"フォーマットは"&amp;$D$112&amp;$E$112&amp;"参照。"</f>
+        <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
+      </c>
+      <c r="Q183" s="41"/>
+      <c r="R183" s="41"/>
+      <c r="S183" s="41"/>
+      <c r="T183" s="41"/>
+      <c r="U183" s="41"/>
+      <c r="V183" s="41"/>
+      <c r="W183" s="41"/>
+      <c r="X183" s="41"/>
+      <c r="Y183" s="41"/>
+      <c r="Z183" s="41"/>
+      <c r="AA183" s="41"/>
+      <c r="AB183" s="41"/>
+      <c r="AC183" s="41"/>
+      <c r="AD183" s="41"/>
+      <c r="AE183" s="41"/>
+      <c r="AF183" s="41"/>
+      <c r="AG183" s="41"/>
+      <c r="AH183" s="41"/>
+      <c r="AI183" s="42"/>
+    </row>
+    <row r="184" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="185" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E185" s="30"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="19"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
-      <c r="N185" s="19"/>
-      <c r="O185" s="19"/>
-      <c r="P185" s="19"/>
-      <c r="Q185" s="19"/>
-      <c r="R185" s="19"/>
-      <c r="S185" s="19"/>
-      <c r="T185" s="19"/>
-      <c r="U185" s="19"/>
-      <c r="V185" s="19"/>
-      <c r="W185" s="19"/>
-      <c r="X185" s="19"/>
-      <c r="Y185" s="19"/>
-      <c r="Z185" s="19"/>
-      <c r="AA185" s="19"/>
-      <c r="AB185" s="19"/>
-      <c r="AC185" s="19"/>
-      <c r="AD185" s="19"/>
-      <c r="AE185" s="19"/>
-      <c r="AF185" s="19"/>
-      <c r="AG185" s="19"/>
-      <c r="AH185" s="19"/>
-      <c r="AI185" s="20"/>
+      <c r="F185" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="45" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="186" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E186" s="30"/>
       <c r="F186" s="46"/>
-      <c r="G186" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="H186" s="41"/>
-      <c r="I186" s="41"/>
-      <c r="J186" s="41"/>
-      <c r="K186" s="41"/>
-      <c r="L186" s="41"/>
-      <c r="M186" s="41"/>
-      <c r="N186" s="41"/>
-      <c r="O186" s="41"/>
-      <c r="P186" s="41"/>
-      <c r="Q186" s="41"/>
-      <c r="R186" s="41"/>
-      <c r="S186" s="41"/>
-      <c r="T186" s="41"/>
-      <c r="U186" s="41"/>
-      <c r="V186" s="41"/>
-      <c r="W186" s="41"/>
-      <c r="X186" s="41"/>
-      <c r="Y186" s="41"/>
-      <c r="Z186" s="41"/>
-      <c r="AA186" s="41"/>
-      <c r="AB186" s="41"/>
-      <c r="AC186" s="41"/>
-      <c r="AD186" s="41"/>
-      <c r="AE186" s="41"/>
-      <c r="AF186" s="41"/>
-      <c r="AG186" s="41"/>
-      <c r="AH186" s="41"/>
-      <c r="AI186" s="42"/>
+      <c r="G186" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H186" s="24"/>
+      <c r="I186" s="24"/>
+      <c r="J186" s="24"/>
+      <c r="K186" s="24"/>
+      <c r="L186" s="24"/>
+      <c r="M186" s="24"/>
+      <c r="N186" s="24"/>
+      <c r="O186" s="24"/>
+      <c r="P186" s="24"/>
+      <c r="Q186" s="24"/>
+      <c r="R186" s="24"/>
+      <c r="S186" s="24"/>
+      <c r="T186" s="24"/>
+      <c r="U186" s="24"/>
+      <c r="V186" s="24"/>
+      <c r="W186" s="24"/>
+      <c r="X186" s="24"/>
+      <c r="Y186" s="24"/>
+      <c r="Z186" s="24"/>
+      <c r="AA186" s="24"/>
+      <c r="AB186" s="24"/>
+      <c r="AC186" s="24"/>
+      <c r="AD186" s="24"/>
+      <c r="AE186" s="24"/>
+      <c r="AF186" s="24"/>
+      <c r="AG186" s="24"/>
+      <c r="AH186" s="24"/>
+      <c r="AI186" s="25"/>
     </row>
     <row r="187" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E187" s="30"/>
       <c r="F187" s="46"/>
-      <c r="G187" s="50"/>
+      <c r="G187" s="48" t="s">
+        <v>137</v>
+      </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
       <c r="J187" s="19"/>
@@ -6920,248 +6918,228 @@
       <c r="AF187" s="19"/>
       <c r="AG187" s="19"/>
       <c r="AH187" s="19"/>
-      <c r="AI187" s="19"/>
+      <c r="AI187" s="20"/>
     </row>
     <row r="188" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E188" s="30" t="str">
-        <f>$D$148&amp;"2."</f>
-        <v>7.13.4.2.</v>
-      </c>
-      <c r="F188" s="31" t="s">
-        <v>216</v>
-      </c>
+      <c r="E188" s="30"/>
+      <c r="F188" s="46"/>
+      <c r="G188" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="19"/>
+      <c r="L188" s="19"/>
+      <c r="M188" s="19"/>
+      <c r="N188" s="19"/>
+      <c r="O188" s="19"/>
+      <c r="P188" s="19"/>
+      <c r="Q188" s="19"/>
+      <c r="R188" s="19"/>
+      <c r="S188" s="19"/>
+      <c r="T188" s="19"/>
+      <c r="U188" s="19"/>
+      <c r="V188" s="19"/>
+      <c r="W188" s="19"/>
+      <c r="X188" s="19"/>
+      <c r="Y188" s="19"/>
+      <c r="Z188" s="19"/>
+      <c r="AA188" s="19"/>
+      <c r="AB188" s="19"/>
+      <c r="AC188" s="19"/>
+      <c r="AD188" s="19"/>
+      <c r="AE188" s="19"/>
+      <c r="AF188" s="19"/>
+      <c r="AG188" s="19"/>
+      <c r="AH188" s="19"/>
+      <c r="AI188" s="20"/>
     </row>
     <row r="189" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E189" s="30"/>
-      <c r="F189" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" s="45" t="s">
-        <v>103</v>
-      </c>
+      <c r="F189" s="46"/>
+      <c r="G189" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="19"/>
+      <c r="N189" s="19"/>
+      <c r="O189" s="19"/>
+      <c r="P189" s="19"/>
+      <c r="Q189" s="19"/>
+      <c r="R189" s="19"/>
+      <c r="S189" s="19"/>
+      <c r="T189" s="19"/>
+      <c r="U189" s="19"/>
+      <c r="V189" s="19"/>
+      <c r="W189" s="19"/>
+      <c r="X189" s="19"/>
+      <c r="Y189" s="19"/>
+      <c r="Z189" s="19"/>
+      <c r="AA189" s="19"/>
+      <c r="AB189" s="19"/>
+      <c r="AC189" s="19"/>
+      <c r="AD189" s="19"/>
+      <c r="AE189" s="19"/>
+      <c r="AF189" s="19"/>
+      <c r="AG189" s="19"/>
+      <c r="AH189" s="19"/>
+      <c r="AI189" s="20"/>
     </row>
     <row r="190" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E190" s="30"/>
-      <c r="F190" s="31"/>
-      <c r="G190" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="29"/>
-      <c r="L190" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="M190" s="28"/>
-      <c r="N190" s="29"/>
-      <c r="O190" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="P190" s="28"/>
-      <c r="Q190" s="28"/>
-      <c r="R190" s="29"/>
-      <c r="S190" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="T190" s="28"/>
-      <c r="U190" s="28"/>
-      <c r="V190" s="28"/>
-      <c r="W190" s="28"/>
-      <c r="X190" s="28"/>
-      <c r="Y190" s="28"/>
-      <c r="Z190" s="28"/>
-      <c r="AA190" s="28"/>
-      <c r="AB190" s="28"/>
-      <c r="AC190" s="28"/>
-      <c r="AD190" s="28"/>
-      <c r="AE190" s="28"/>
-      <c r="AF190" s="28"/>
-      <c r="AG190" s="28"/>
-      <c r="AH190" s="28"/>
-      <c r="AI190" s="29"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H190" s="41"/>
+      <c r="I190" s="41"/>
+      <c r="J190" s="41"/>
+      <c r="K190" s="41"/>
+      <c r="L190" s="41"/>
+      <c r="M190" s="41"/>
+      <c r="N190" s="41"/>
+      <c r="O190" s="41"/>
+      <c r="P190" s="41"/>
+      <c r="Q190" s="41"/>
+      <c r="R190" s="41"/>
+      <c r="S190" s="41"/>
+      <c r="T190" s="41"/>
+      <c r="U190" s="41"/>
+      <c r="V190" s="41"/>
+      <c r="W190" s="41"/>
+      <c r="X190" s="41"/>
+      <c r="Y190" s="41"/>
+      <c r="Z190" s="41"/>
+      <c r="AA190" s="41"/>
+      <c r="AB190" s="41"/>
+      <c r="AC190" s="41"/>
+      <c r="AD190" s="41"/>
+      <c r="AE190" s="41"/>
+      <c r="AF190" s="41"/>
+      <c r="AG190" s="41"/>
+      <c r="AH190" s="41"/>
+      <c r="AI190" s="42"/>
     </row>
     <row r="191" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E191" s="30"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H191" s="43"/>
-      <c r="I191" s="43"/>
-      <c r="J191" s="43"/>
-      <c r="K191" s="44"/>
-      <c r="L191" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="M191" s="43"/>
-      <c r="N191" s="44"/>
-      <c r="O191" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="P191" s="43"/>
-      <c r="Q191" s="43"/>
-      <c r="R191" s="44"/>
-      <c r="S191" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="T191" s="43"/>
-      <c r="U191" s="43"/>
-      <c r="V191" s="43"/>
-      <c r="W191" s="43"/>
-      <c r="X191" s="43"/>
-      <c r="Y191" s="43"/>
-      <c r="Z191" s="43"/>
-      <c r="AA191" s="43"/>
-      <c r="AB191" s="43"/>
-      <c r="AC191" s="43"/>
-      <c r="AD191" s="43"/>
-      <c r="AE191" s="43"/>
-      <c r="AF191" s="43"/>
-      <c r="AG191" s="43"/>
-      <c r="AH191" s="43"/>
-      <c r="AI191" s="44"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="50"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="19"/>
+      <c r="N191" s="19"/>
+      <c r="O191" s="19"/>
+      <c r="P191" s="19"/>
+      <c r="Q191" s="19"/>
+      <c r="R191" s="19"/>
+      <c r="S191" s="19"/>
+      <c r="T191" s="19"/>
+      <c r="U191" s="19"/>
+      <c r="V191" s="19"/>
+      <c r="W191" s="19"/>
+      <c r="X191" s="19"/>
+      <c r="Y191" s="19"/>
+      <c r="Z191" s="19"/>
+      <c r="AA191" s="19"/>
+      <c r="AB191" s="19"/>
+      <c r="AC191" s="19"/>
+      <c r="AD191" s="19"/>
+      <c r="AE191" s="19"/>
+      <c r="AF191" s="19"/>
+      <c r="AG191" s="19"/>
+      <c r="AH191" s="19"/>
+      <c r="AI191" s="19"/>
     </row>
     <row r="192" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E192" s="30"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="20"/>
-      <c r="L192" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="M192" s="19"/>
-      <c r="N192" s="20"/>
-      <c r="O192" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P192" s="19"/>
-      <c r="Q192" s="19"/>
-      <c r="R192" s="20"/>
-      <c r="S192" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="T192" s="19"/>
-      <c r="U192" s="19"/>
-      <c r="V192" s="19"/>
-      <c r="W192" s="19"/>
-      <c r="X192" s="19"/>
-      <c r="Y192" s="19"/>
-      <c r="Z192" s="19"/>
-      <c r="AA192" s="19"/>
-      <c r="AB192" s="19"/>
-      <c r="AC192" s="19"/>
-      <c r="AD192" s="19"/>
-      <c r="AE192" s="19"/>
-      <c r="AF192" s="19"/>
-      <c r="AG192" s="19"/>
-      <c r="AH192" s="19"/>
-      <c r="AI192" s="20"/>
+      <c r="E192" s="30" t="str">
+        <f>$D$152&amp;"2."</f>
+        <v>7.13.4.2.</v>
+      </c>
+      <c r="F192" s="31" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="193" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E193" s="30"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="40"/>
-      <c r="H193" s="41"/>
-      <c r="I193" s="41"/>
-      <c r="J193" s="41"/>
-      <c r="K193" s="42"/>
-      <c r="L193" s="41"/>
-      <c r="M193" s="41"/>
-      <c r="N193" s="42"/>
-      <c r="O193" s="41"/>
-      <c r="P193" s="41"/>
-      <c r="Q193" s="41"/>
-      <c r="R193" s="42"/>
-      <c r="S193" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="T193" s="41"/>
-      <c r="U193" s="41"/>
-      <c r="V193" s="41"/>
-      <c r="W193" s="41"/>
-      <c r="X193" s="41"/>
-      <c r="Y193" s="41"/>
-      <c r="Z193" s="41"/>
-      <c r="AA193" s="41"/>
-      <c r="AB193" s="41"/>
-      <c r="AC193" s="41"/>
-      <c r="AD193" s="41"/>
-      <c r="AE193" s="41"/>
-      <c r="AF193" s="41"/>
-      <c r="AG193" s="41"/>
-      <c r="AH193" s="41"/>
-      <c r="AI193" s="42"/>
+      <c r="F193" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="45" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="194" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E194" s="30"/>
       <c r="F194" s="31"/>
-      <c r="G194" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="H194" s="43"/>
-      <c r="I194" s="43"/>
-      <c r="J194" s="43"/>
-      <c r="K194" s="44"/>
-      <c r="L194" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="M194" s="43"/>
-      <c r="N194" s="44"/>
-      <c r="O194" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="P194" s="43"/>
-      <c r="Q194" s="43"/>
-      <c r="R194" s="44"/>
-      <c r="S194" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="T194" s="43"/>
-      <c r="U194" s="43"/>
-      <c r="V194" s="43"/>
-      <c r="W194" s="43"/>
-      <c r="X194" s="43"/>
-      <c r="Y194" s="43"/>
-      <c r="Z194" s="43"/>
-      <c r="AA194" s="43"/>
-      <c r="AB194" s="43"/>
-      <c r="AC194" s="43"/>
-      <c r="AD194" s="43"/>
-      <c r="AE194" s="43"/>
-      <c r="AF194" s="43"/>
-      <c r="AG194" s="43"/>
-      <c r="AH194" s="43"/>
-      <c r="AI194" s="44"/>
+      <c r="G194" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="29"/>
+      <c r="L194" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="M194" s="28"/>
+      <c r="N194" s="29"/>
+      <c r="O194" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="P194" s="28"/>
+      <c r="Q194" s="28"/>
+      <c r="R194" s="29"/>
+      <c r="S194" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T194" s="28"/>
+      <c r="U194" s="28"/>
+      <c r="V194" s="28"/>
+      <c r="W194" s="28"/>
+      <c r="X194" s="28"/>
+      <c r="Y194" s="28"/>
+      <c r="Z194" s="28"/>
+      <c r="AA194" s="28"/>
+      <c r="AB194" s="28"/>
+      <c r="AC194" s="28"/>
+      <c r="AD194" s="28"/>
+      <c r="AE194" s="28"/>
+      <c r="AF194" s="28"/>
+      <c r="AG194" s="28"/>
+      <c r="AH194" s="28"/>
+      <c r="AI194" s="29"/>
     </row>
     <row r="195" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E195" s="30"/>
       <c r="F195" s="31"/>
       <c r="G195" s="32" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H195" s="43"/>
       <c r="I195" s="43"/>
       <c r="J195" s="43"/>
       <c r="K195" s="44"/>
       <c r="L195" s="43" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M195" s="43"/>
       <c r="N195" s="44"/>
       <c r="O195" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P195" s="43"/>
       <c r="Q195" s="43"/>
       <c r="R195" s="44"/>
       <c r="S195" s="43" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="T195" s="43"/>
       <c r="U195" s="43"/>
@@ -7183,404 +7161,414 @@
     <row r="196" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E196" s="30"/>
       <c r="F196" s="31"/>
+      <c r="G196" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H196" s="19"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="19"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="M196" s="19"/>
+      <c r="N196" s="20"/>
+      <c r="O196" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P196" s="19"/>
+      <c r="Q196" s="19"/>
+      <c r="R196" s="20"/>
+      <c r="S196" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="T196" s="19"/>
+      <c r="U196" s="19"/>
+      <c r="V196" s="19"/>
+      <c r="W196" s="19"/>
+      <c r="X196" s="19"/>
+      <c r="Y196" s="19"/>
+      <c r="Z196" s="19"/>
+      <c r="AA196" s="19"/>
+      <c r="AB196" s="19"/>
+      <c r="AC196" s="19"/>
+      <c r="AD196" s="19"/>
+      <c r="AE196" s="19"/>
+      <c r="AF196" s="19"/>
+      <c r="AG196" s="19"/>
+      <c r="AH196" s="19"/>
+      <c r="AI196" s="20"/>
     </row>
     <row r="197" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E197" s="30"/>
-      <c r="F197" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G197" s="45" t="s">
-        <v>101</v>
-      </c>
+      <c r="F197" s="31"/>
+      <c r="G197" s="40"/>
+      <c r="H197" s="41"/>
+      <c r="I197" s="41"/>
+      <c r="J197" s="41"/>
+      <c r="K197" s="42"/>
+      <c r="L197" s="41"/>
+      <c r="M197" s="41"/>
+      <c r="N197" s="42"/>
+      <c r="O197" s="41"/>
+      <c r="P197" s="41"/>
+      <c r="Q197" s="41"/>
+      <c r="R197" s="42"/>
+      <c r="S197" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="T197" s="41"/>
+      <c r="U197" s="41"/>
+      <c r="V197" s="41"/>
+      <c r="W197" s="41"/>
+      <c r="X197" s="41"/>
+      <c r="Y197" s="41"/>
+      <c r="Z197" s="41"/>
+      <c r="AA197" s="41"/>
+      <c r="AB197" s="41"/>
+      <c r="AC197" s="41"/>
+      <c r="AD197" s="41"/>
+      <c r="AE197" s="41"/>
+      <c r="AF197" s="41"/>
+      <c r="AG197" s="41"/>
+      <c r="AH197" s="41"/>
+      <c r="AI197" s="42"/>
     </row>
     <row r="198" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="30"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="30" t="str">
-        <f>F197&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H198" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="F198" s="31"/>
+      <c r="G198" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H198" s="43"/>
+      <c r="I198" s="43"/>
+      <c r="J198" s="43"/>
+      <c r="K198" s="44"/>
+      <c r="L198" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M198" s="43"/>
+      <c r="N198" s="44"/>
+      <c r="O198" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="P198" s="43"/>
+      <c r="Q198" s="43"/>
+      <c r="R198" s="44"/>
+      <c r="S198" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="T198" s="43"/>
+      <c r="U198" s="43"/>
+      <c r="V198" s="43"/>
+      <c r="W198" s="43"/>
+      <c r="X198" s="43"/>
+      <c r="Y198" s="43"/>
+      <c r="Z198" s="43"/>
+      <c r="AA198" s="43"/>
+      <c r="AB198" s="43"/>
+      <c r="AC198" s="43"/>
+      <c r="AD198" s="43"/>
+      <c r="AE198" s="43"/>
+      <c r="AF198" s="43"/>
+      <c r="AG198" s="43"/>
+      <c r="AH198" s="43"/>
+      <c r="AI198" s="44"/>
     </row>
     <row r="199" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D199" s="19"/>
-      <c r="E199" s="37"/>
-      <c r="F199" s="37"/>
-      <c r="G199" s="38"/>
-      <c r="H199" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I199" s="24"/>
-      <c r="J199" s="24"/>
-      <c r="K199" s="24"/>
-      <c r="L199" s="24"/>
-      <c r="M199" s="24"/>
-      <c r="N199" s="24"/>
-      <c r="O199" s="24"/>
-      <c r="P199" s="24"/>
-      <c r="Q199" s="24"/>
-      <c r="R199" s="24"/>
-      <c r="S199" s="24"/>
-      <c r="T199" s="24"/>
-      <c r="U199" s="24"/>
-      <c r="V199" s="24"/>
-      <c r="W199" s="24"/>
-      <c r="X199" s="24"/>
-      <c r="Y199" s="24"/>
-      <c r="Z199" s="24"/>
-      <c r="AA199" s="24"/>
-      <c r="AB199" s="24"/>
-      <c r="AC199" s="24"/>
-      <c r="AD199" s="24"/>
-      <c r="AE199" s="24"/>
-      <c r="AF199" s="24"/>
-      <c r="AG199" s="24"/>
-      <c r="AH199" s="24"/>
-      <c r="AI199" s="25"/>
+      <c r="E199" s="30"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H199" s="43"/>
+      <c r="I199" s="43"/>
+      <c r="J199" s="43"/>
+      <c r="K199" s="44"/>
+      <c r="L199" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M199" s="43"/>
+      <c r="N199" s="44"/>
+      <c r="O199" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="P199" s="43"/>
+      <c r="Q199" s="43"/>
+      <c r="R199" s="44"/>
+      <c r="S199" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="T199" s="43"/>
+      <c r="U199" s="43"/>
+      <c r="V199" s="43"/>
+      <c r="W199" s="43"/>
+      <c r="X199" s="43"/>
+      <c r="Y199" s="43"/>
+      <c r="Z199" s="43"/>
+      <c r="AA199" s="43"/>
+      <c r="AB199" s="43"/>
+      <c r="AC199" s="43"/>
+      <c r="AD199" s="43"/>
+      <c r="AE199" s="43"/>
+      <c r="AF199" s="43"/>
+      <c r="AG199" s="43"/>
+      <c r="AH199" s="43"/>
+      <c r="AI199" s="44"/>
     </row>
     <row r="200" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E200" s="30"/>
-      <c r="F200" s="30"/>
-      <c r="G200" s="46"/>
-      <c r="H200" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I200" s="41"/>
-      <c r="J200" s="41"/>
-      <c r="K200" s="41"/>
-      <c r="L200" s="41"/>
-      <c r="M200" s="41"/>
-      <c r="N200" s="41"/>
-      <c r="O200" s="41"/>
-      <c r="P200" s="41"/>
-      <c r="Q200" s="41"/>
-      <c r="R200" s="41"/>
-      <c r="S200" s="41"/>
-      <c r="T200" s="41"/>
-      <c r="U200" s="41"/>
-      <c r="V200" s="41"/>
-      <c r="W200" s="41"/>
-      <c r="X200" s="41"/>
-      <c r="Y200" s="41"/>
-      <c r="Z200" s="41"/>
-      <c r="AA200" s="41"/>
-      <c r="AB200" s="41"/>
-      <c r="AC200" s="41"/>
-      <c r="AD200" s="41"/>
-      <c r="AE200" s="41"/>
-      <c r="AF200" s="41"/>
-      <c r="AG200" s="41"/>
-      <c r="AH200" s="41"/>
-      <c r="AI200" s="42"/>
+      <c r="F200" s="31"/>
     </row>
     <row r="201" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E201" s="30"/>
-      <c r="F201" s="30"/>
-      <c r="G201" s="46"/>
-      <c r="H201" s="45" t="s">
-        <v>152</v>
+      <c r="F201" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G201" s="45" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="202" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E202" s="30"/>
-      <c r="F202" s="30"/>
-      <c r="G202" s="46"/>
+      <c r="F202" s="46"/>
+      <c r="G202" s="30" t="str">
+        <f>F201&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
       <c r="H202" s="45" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E203" s="30"/>
-      <c r="F203" s="46"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="37"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="38"/>
+      <c r="H203" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I203" s="24"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="24"/>
+      <c r="N203" s="24"/>
+      <c r="O203" s="24"/>
+      <c r="P203" s="24"/>
+      <c r="Q203" s="24"/>
+      <c r="R203" s="24"/>
+      <c r="S203" s="24"/>
+      <c r="T203" s="24"/>
+      <c r="U203" s="24"/>
+      <c r="V203" s="24"/>
+      <c r="W203" s="24"/>
+      <c r="X203" s="24"/>
+      <c r="Y203" s="24"/>
+      <c r="Z203" s="24"/>
+      <c r="AA203" s="24"/>
+      <c r="AB203" s="24"/>
+      <c r="AC203" s="24"/>
+      <c r="AD203" s="24"/>
+      <c r="AE203" s="24"/>
+      <c r="AF203" s="24"/>
+      <c r="AG203" s="24"/>
+      <c r="AH203" s="24"/>
+      <c r="AI203" s="25"/>
     </row>
     <row r="204" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E204" s="30"/>
-      <c r="F204" s="46"/>
-      <c r="G204" s="30" t="str">
-        <f>F197&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H204" s="45" t="s">
-        <v>74</v>
-      </c>
+      <c r="F204" s="30"/>
+      <c r="G204" s="46"/>
+      <c r="H204" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I204" s="41"/>
+      <c r="J204" s="41"/>
+      <c r="K204" s="41"/>
+      <c r="L204" s="41"/>
+      <c r="M204" s="41"/>
+      <c r="N204" s="41"/>
+      <c r="O204" s="41"/>
+      <c r="P204" s="41"/>
+      <c r="Q204" s="41"/>
+      <c r="R204" s="41"/>
+      <c r="S204" s="41"/>
+      <c r="T204" s="41"/>
+      <c r="U204" s="41"/>
+      <c r="V204" s="41"/>
+      <c r="W204" s="41"/>
+      <c r="X204" s="41"/>
+      <c r="Y204" s="41"/>
+      <c r="Z204" s="41"/>
+      <c r="AA204" s="41"/>
+      <c r="AB204" s="41"/>
+      <c r="AC204" s="41"/>
+      <c r="AD204" s="41"/>
+      <c r="AE204" s="41"/>
+      <c r="AF204" s="41"/>
+      <c r="AG204" s="41"/>
+      <c r="AH204" s="41"/>
+      <c r="AI204" s="42"/>
     </row>
     <row r="205" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E205" s="30"/>
-      <c r="F205" s="46"/>
-      <c r="G205" s="30"/>
-      <c r="H205" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I205" s="28"/>
-      <c r="J205" s="28"/>
-      <c r="K205" s="28"/>
-      <c r="L205" s="28"/>
-      <c r="M205" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="N205" s="28"/>
-      <c r="O205" s="28"/>
-      <c r="P205" s="28"/>
-      <c r="Q205" s="29"/>
-      <c r="R205" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="S205" s="28"/>
-      <c r="T205" s="28"/>
-      <c r="U205" s="28"/>
-      <c r="V205" s="28"/>
-      <c r="W205" s="28"/>
-      <c r="X205" s="28"/>
-      <c r="Y205" s="28"/>
-      <c r="Z205" s="28"/>
-      <c r="AA205" s="28"/>
-      <c r="AB205" s="28"/>
-      <c r="AC205" s="28"/>
-      <c r="AD205" s="28"/>
-      <c r="AE205" s="28"/>
-      <c r="AF205" s="28"/>
-      <c r="AG205" s="28"/>
-      <c r="AH205" s="28"/>
-      <c r="AI205" s="29"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="46"/>
+      <c r="H205" s="45" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="206" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E206" s="30"/>
-      <c r="H206" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I206" s="43"/>
-      <c r="J206" s="43"/>
-      <c r="K206" s="43"/>
-      <c r="L206" s="43"/>
-      <c r="M206" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="N206" s="43"/>
-      <c r="O206" s="43"/>
-      <c r="P206" s="43"/>
-      <c r="Q206" s="44"/>
-      <c r="R206" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="S206" s="43"/>
-      <c r="T206" s="43"/>
-      <c r="U206" s="43"/>
-      <c r="V206" s="43"/>
-      <c r="W206" s="43"/>
-      <c r="X206" s="43"/>
-      <c r="Y206" s="43"/>
-      <c r="Z206" s="43"/>
-      <c r="AA206" s="43"/>
-      <c r="AB206" s="43"/>
-      <c r="AC206" s="43"/>
-      <c r="AD206" s="43"/>
-      <c r="AE206" s="43"/>
-      <c r="AF206" s="43"/>
-      <c r="AG206" s="43"/>
-      <c r="AH206" s="43"/>
-      <c r="AI206" s="44"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="46"/>
+      <c r="H206" s="45" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="207" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E207" s="30"/>
-      <c r="H207" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I207" s="19"/>
-      <c r="J207" s="19"/>
-      <c r="K207" s="19"/>
-      <c r="L207" s="19"/>
-      <c r="M207" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N207" s="19"/>
-      <c r="O207" s="19"/>
-      <c r="P207" s="19"/>
-      <c r="Q207" s="20"/>
-      <c r="R207" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="S207" s="19"/>
-      <c r="T207" s="19"/>
-      <c r="U207" s="19"/>
-      <c r="V207" s="19"/>
-      <c r="W207" s="19"/>
-      <c r="X207" s="19"/>
-      <c r="Y207" s="19"/>
-      <c r="Z207" s="19"/>
-      <c r="AA207" s="19"/>
-      <c r="AB207" s="19"/>
-      <c r="AC207" s="19"/>
-      <c r="AD207" s="19"/>
-      <c r="AE207" s="19"/>
-      <c r="AF207" s="19"/>
-      <c r="AG207" s="19"/>
-      <c r="AH207" s="19"/>
-      <c r="AI207" s="20"/>
+      <c r="F207" s="46"/>
     </row>
     <row r="208" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E208" s="30"/>
-      <c r="H208" s="40"/>
-      <c r="I208" s="41"/>
-      <c r="J208" s="41"/>
-      <c r="K208" s="41"/>
-      <c r="L208" s="41"/>
-      <c r="M208" s="40"/>
-      <c r="N208" s="41"/>
-      <c r="O208" s="41"/>
-      <c r="P208" s="41"/>
-      <c r="Q208" s="42"/>
-      <c r="R208" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="S208" s="41"/>
-      <c r="T208" s="41"/>
-      <c r="U208" s="41"/>
-      <c r="V208" s="41"/>
-      <c r="W208" s="41"/>
-      <c r="X208" s="41"/>
-      <c r="Y208" s="41"/>
-      <c r="Z208" s="41"/>
-      <c r="AA208" s="41"/>
-      <c r="AB208" s="41"/>
-      <c r="AC208" s="41"/>
-      <c r="AD208" s="41"/>
-      <c r="AE208" s="41"/>
-      <c r="AF208" s="41"/>
-      <c r="AG208" s="41"/>
-      <c r="AH208" s="41"/>
-      <c r="AI208" s="42"/>
+      <c r="F208" s="46"/>
+      <c r="G208" s="30" t="str">
+        <f>F201&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H208" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="209" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E209" s="30"/>
-      <c r="H209" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="I209" s="41"/>
-      <c r="J209" s="41"/>
-      <c r="K209" s="41"/>
-      <c r="L209" s="41"/>
-      <c r="M209" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="N209" s="41"/>
-      <c r="O209" s="41"/>
-      <c r="P209" s="41"/>
-      <c r="Q209" s="42"/>
-      <c r="R209" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="S209" s="41"/>
-      <c r="T209" s="41"/>
-      <c r="U209" s="41"/>
-      <c r="V209" s="41"/>
-      <c r="W209" s="41"/>
-      <c r="X209" s="41"/>
-      <c r="Y209" s="41"/>
-      <c r="Z209" s="41"/>
-      <c r="AA209" s="41"/>
-      <c r="AB209" s="41"/>
-      <c r="AC209" s="41"/>
-      <c r="AD209" s="41"/>
-      <c r="AE209" s="41"/>
-      <c r="AF209" s="41"/>
-      <c r="AG209" s="41"/>
-      <c r="AH209" s="41"/>
-      <c r="AI209" s="42"/>
+      <c r="F209" s="46"/>
+      <c r="G209" s="30"/>
+      <c r="H209" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I209" s="28"/>
+      <c r="J209" s="28"/>
+      <c r="K209" s="28"/>
+      <c r="L209" s="28"/>
+      <c r="M209" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N209" s="28"/>
+      <c r="O209" s="28"/>
+      <c r="P209" s="28"/>
+      <c r="Q209" s="29"/>
+      <c r="R209" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S209" s="28"/>
+      <c r="T209" s="28"/>
+      <c r="U209" s="28"/>
+      <c r="V209" s="28"/>
+      <c r="W209" s="28"/>
+      <c r="X209" s="28"/>
+      <c r="Y209" s="28"/>
+      <c r="Z209" s="28"/>
+      <c r="AA209" s="28"/>
+      <c r="AB209" s="28"/>
+      <c r="AC209" s="28"/>
+      <c r="AD209" s="28"/>
+      <c r="AE209" s="28"/>
+      <c r="AF209" s="28"/>
+      <c r="AG209" s="28"/>
+      <c r="AH209" s="28"/>
+      <c r="AI209" s="29"/>
     </row>
     <row r="210" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E210" s="30"/>
-      <c r="H210" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="I210" s="41"/>
-      <c r="J210" s="41"/>
-      <c r="K210" s="41"/>
-      <c r="L210" s="41"/>
-      <c r="M210" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="N210" s="41"/>
-      <c r="O210" s="41"/>
-      <c r="P210" s="41"/>
-      <c r="Q210" s="42"/>
-      <c r="R210" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="S210" s="41"/>
-      <c r="T210" s="41"/>
-      <c r="U210" s="41"/>
-      <c r="V210" s="41"/>
-      <c r="W210" s="41"/>
-      <c r="X210" s="41"/>
-      <c r="Y210" s="41"/>
-      <c r="Z210" s="41"/>
-      <c r="AA210" s="41"/>
-      <c r="AB210" s="41"/>
-      <c r="AC210" s="41"/>
-      <c r="AD210" s="41"/>
-      <c r="AE210" s="41"/>
-      <c r="AF210" s="41"/>
-      <c r="AG210" s="41"/>
-      <c r="AH210" s="41"/>
-      <c r="AI210" s="42"/>
+      <c r="H210" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I210" s="43"/>
+      <c r="J210" s="43"/>
+      <c r="K210" s="43"/>
+      <c r="L210" s="43"/>
+      <c r="M210" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N210" s="43"/>
+      <c r="O210" s="43"/>
+      <c r="P210" s="43"/>
+      <c r="Q210" s="44"/>
+      <c r="R210" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="S210" s="43"/>
+      <c r="T210" s="43"/>
+      <c r="U210" s="43"/>
+      <c r="V210" s="43"/>
+      <c r="W210" s="43"/>
+      <c r="X210" s="43"/>
+      <c r="Y210" s="43"/>
+      <c r="Z210" s="43"/>
+      <c r="AA210" s="43"/>
+      <c r="AB210" s="43"/>
+      <c r="AC210" s="43"/>
+      <c r="AD210" s="43"/>
+      <c r="AE210" s="43"/>
+      <c r="AF210" s="43"/>
+      <c r="AG210" s="43"/>
+      <c r="AH210" s="43"/>
+      <c r="AI210" s="44"/>
     </row>
     <row r="211" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E211" s="30"/>
-      <c r="H211" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I211" s="43"/>
-      <c r="J211" s="43"/>
-      <c r="K211" s="43"/>
-      <c r="L211" s="43"/>
-      <c r="M211" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="N211" s="43"/>
-      <c r="O211" s="43"/>
-      <c r="P211" s="43"/>
-      <c r="Q211" s="44"/>
-      <c r="R211" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="S211" s="43"/>
-      <c r="T211" s="43"/>
-      <c r="U211" s="43"/>
-      <c r="V211" s="43"/>
-      <c r="W211" s="43"/>
-      <c r="X211" s="43"/>
-      <c r="Y211" s="43"/>
-      <c r="Z211" s="43"/>
-      <c r="AA211" s="43"/>
-      <c r="AB211" s="43"/>
-      <c r="AC211" s="43"/>
-      <c r="AD211" s="43"/>
-      <c r="AE211" s="43"/>
-      <c r="AF211" s="43"/>
-      <c r="AG211" s="43"/>
-      <c r="AH211" s="43"/>
-      <c r="AI211" s="44"/>
+      <c r="H211" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N211" s="19"/>
+      <c r="O211" s="19"/>
+      <c r="P211" s="19"/>
+      <c r="Q211" s="20"/>
+      <c r="R211" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="S211" s="19"/>
+      <c r="T211" s="19"/>
+      <c r="U211" s="19"/>
+      <c r="V211" s="19"/>
+      <c r="W211" s="19"/>
+      <c r="X211" s="19"/>
+      <c r="Y211" s="19"/>
+      <c r="Z211" s="19"/>
+      <c r="AA211" s="19"/>
+      <c r="AB211" s="19"/>
+      <c r="AC211" s="19"/>
+      <c r="AD211" s="19"/>
+      <c r="AE211" s="19"/>
+      <c r="AF211" s="19"/>
+      <c r="AG211" s="19"/>
+      <c r="AH211" s="19"/>
+      <c r="AI211" s="20"/>
     </row>
     <row r="212" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E212" s="30"/>
-      <c r="H212" s="40" t="s">
-        <v>90</v>
-      </c>
+      <c r="H212" s="40"/>
       <c r="I212" s="41"/>
       <c r="J212" s="41"/>
       <c r="K212" s="41"/>
       <c r="L212" s="41"/>
-      <c r="M212" s="40" t="s">
-        <v>89</v>
-      </c>
+      <c r="M212" s="40"/>
       <c r="N212" s="41"/>
       <c r="O212" s="41"/>
       <c r="P212" s="41"/>
       <c r="Q212" s="42"/>
       <c r="R212" s="41" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="S212" s="41"/>
       <c r="T212" s="41"/>
@@ -7603,21 +7591,21 @@
     <row r="213" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E213" s="30"/>
       <c r="H213" s="40" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I213" s="41"/>
       <c r="J213" s="41"/>
       <c r="K213" s="41"/>
       <c r="L213" s="41"/>
       <c r="M213" s="40" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="N213" s="41"/>
       <c r="O213" s="41"/>
       <c r="P213" s="41"/>
       <c r="Q213" s="42"/>
       <c r="R213" s="41" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="S213" s="41"/>
       <c r="T213" s="41"/>
@@ -7640,21 +7628,21 @@
     <row r="214" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E214" s="30"/>
       <c r="H214" s="40" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I214" s="41"/>
       <c r="J214" s="41"/>
       <c r="K214" s="41"/>
       <c r="L214" s="41"/>
       <c r="M214" s="40" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N214" s="41"/>
       <c r="O214" s="41"/>
       <c r="P214" s="41"/>
       <c r="Q214" s="42"/>
       <c r="R214" s="41" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="S214" s="41"/>
       <c r="T214" s="41"/>
@@ -7676,56 +7664,59 @@
     </row>
     <row r="215" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E215" s="30"/>
-      <c r="H215" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I215" s="24"/>
-      <c r="J215" s="24"/>
-      <c r="K215" s="24"/>
-      <c r="L215" s="25"/>
-      <c r="M215" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="N215" s="24"/>
-      <c r="O215" s="24"/>
-      <c r="P215" s="24"/>
-      <c r="Q215" s="25"/>
-      <c r="R215" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="S215" s="24"/>
-      <c r="T215" s="24"/>
-      <c r="U215" s="24"/>
-      <c r="V215" s="24"/>
-      <c r="W215" s="24"/>
-      <c r="X215" s="24"/>
-      <c r="Y215" s="24"/>
-      <c r="Z215" s="24"/>
-      <c r="AA215" s="24"/>
-      <c r="AB215" s="24"/>
-      <c r="AC215" s="24"/>
-      <c r="AD215" s="24"/>
-      <c r="AE215" s="24"/>
-      <c r="AF215" s="24"/>
-      <c r="AG215" s="24"/>
-      <c r="AH215" s="24"/>
-      <c r="AI215" s="25"/>
+      <c r="H215" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I215" s="43"/>
+      <c r="J215" s="43"/>
+      <c r="K215" s="43"/>
+      <c r="L215" s="43"/>
+      <c r="M215" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="N215" s="43"/>
+      <c r="O215" s="43"/>
+      <c r="P215" s="43"/>
+      <c r="Q215" s="44"/>
+      <c r="R215" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="S215" s="43"/>
+      <c r="T215" s="43"/>
+      <c r="U215" s="43"/>
+      <c r="V215" s="43"/>
+      <c r="W215" s="43"/>
+      <c r="X215" s="43"/>
+      <c r="Y215" s="43"/>
+      <c r="Z215" s="43"/>
+      <c r="AA215" s="43"/>
+      <c r="AB215" s="43"/>
+      <c r="AC215" s="43"/>
+      <c r="AD215" s="43"/>
+      <c r="AE215" s="43"/>
+      <c r="AF215" s="43"/>
+      <c r="AG215" s="43"/>
+      <c r="AH215" s="43"/>
+      <c r="AI215" s="44"/>
     </row>
     <row r="216" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E216" s="30"/>
-      <c r="H216" s="40"/>
+      <c r="H216" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="I216" s="41"/>
       <c r="J216" s="41"/>
       <c r="K216" s="41"/>
-      <c r="L216" s="42"/>
-      <c r="M216" s="40"/>
+      <c r="L216" s="41"/>
+      <c r="M216" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N216" s="41"/>
       <c r="O216" s="41"/>
       <c r="P216" s="41"/>
       <c r="Q216" s="42"/>
-      <c r="R216" s="40" t="str">
-        <f>"ログの種類ごとのフォーマットは"&amp;$D$112&amp;$E$112&amp;"を参照。"</f>
-        <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
+      <c r="R216" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="S216" s="41"/>
       <c r="T216" s="41"/>
@@ -7747,55 +7738,59 @@
     </row>
     <row r="217" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E217" s="30"/>
-      <c r="H217" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I217" s="24"/>
-      <c r="J217" s="24"/>
-      <c r="K217" s="24"/>
-      <c r="L217" s="25"/>
-      <c r="M217" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="N217" s="24"/>
-      <c r="O217" s="24"/>
-      <c r="P217" s="24"/>
-      <c r="Q217" s="25"/>
-      <c r="R217" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="S217" s="24"/>
-      <c r="T217" s="24"/>
-      <c r="U217" s="24"/>
-      <c r="V217" s="24"/>
-      <c r="W217" s="24"/>
-      <c r="X217" s="24"/>
-      <c r="Y217" s="24"/>
-      <c r="Z217" s="24"/>
-      <c r="AA217" s="24"/>
-      <c r="AB217" s="24"/>
-      <c r="AC217" s="24"/>
-      <c r="AD217" s="24"/>
-      <c r="AE217" s="24"/>
-      <c r="AF217" s="24"/>
-      <c r="AG217" s="24"/>
-      <c r="AH217" s="24"/>
-      <c r="AI217" s="25"/>
+      <c r="H217" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I217" s="41"/>
+      <c r="J217" s="41"/>
+      <c r="K217" s="41"/>
+      <c r="L217" s="41"/>
+      <c r="M217" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N217" s="41"/>
+      <c r="O217" s="41"/>
+      <c r="P217" s="41"/>
+      <c r="Q217" s="42"/>
+      <c r="R217" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="S217" s="41"/>
+      <c r="T217" s="41"/>
+      <c r="U217" s="41"/>
+      <c r="V217" s="41"/>
+      <c r="W217" s="41"/>
+      <c r="X217" s="41"/>
+      <c r="Y217" s="41"/>
+      <c r="Z217" s="41"/>
+      <c r="AA217" s="41"/>
+      <c r="AB217" s="41"/>
+      <c r="AC217" s="41"/>
+      <c r="AD217" s="41"/>
+      <c r="AE217" s="41"/>
+      <c r="AF217" s="41"/>
+      <c r="AG217" s="41"/>
+      <c r="AH217" s="41"/>
+      <c r="AI217" s="42"/>
     </row>
     <row r="218" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E218" s="30"/>
-      <c r="H218" s="40"/>
+      <c r="H218" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="I218" s="41"/>
       <c r="J218" s="41"/>
       <c r="K218" s="41"/>
-      <c r="L218" s="42"/>
-      <c r="M218" s="40"/>
+      <c r="L218" s="41"/>
+      <c r="M218" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N218" s="41"/>
       <c r="O218" s="41"/>
       <c r="P218" s="41"/>
       <c r="Q218" s="42"/>
-      <c r="R218" s="40" t="s">
-        <v>229</v>
+      <c r="R218" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="S218" s="41"/>
       <c r="T218" s="41"/>
@@ -7817,40 +7812,40 @@
     </row>
     <row r="219" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E219" s="30"/>
-      <c r="H219" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I219" s="19"/>
-      <c r="J219" s="19"/>
-      <c r="K219" s="19"/>
-      <c r="L219" s="19"/>
-      <c r="M219" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="N219" s="19"/>
-      <c r="O219" s="19"/>
-      <c r="P219" s="19"/>
-      <c r="Q219" s="20"/>
-      <c r="R219" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="S219" s="19"/>
-      <c r="T219" s="19"/>
-      <c r="U219" s="19"/>
-      <c r="V219" s="19"/>
-      <c r="W219" s="19"/>
-      <c r="X219" s="19"/>
-      <c r="Y219" s="19"/>
-      <c r="Z219" s="19"/>
-      <c r="AA219" s="19"/>
-      <c r="AB219" s="19"/>
-      <c r="AC219" s="19"/>
-      <c r="AD219" s="19"/>
-      <c r="AE219" s="19"/>
-      <c r="AF219" s="19"/>
-      <c r="AG219" s="19"/>
-      <c r="AH219" s="19"/>
-      <c r="AI219" s="20"/>
+      <c r="H219" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I219" s="24"/>
+      <c r="J219" s="24"/>
+      <c r="K219" s="24"/>
+      <c r="L219" s="25"/>
+      <c r="M219" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N219" s="24"/>
+      <c r="O219" s="24"/>
+      <c r="P219" s="24"/>
+      <c r="Q219" s="25"/>
+      <c r="R219" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="S219" s="24"/>
+      <c r="T219" s="24"/>
+      <c r="U219" s="24"/>
+      <c r="V219" s="24"/>
+      <c r="W219" s="24"/>
+      <c r="X219" s="24"/>
+      <c r="Y219" s="24"/>
+      <c r="Z219" s="24"/>
+      <c r="AA219" s="24"/>
+      <c r="AB219" s="24"/>
+      <c r="AC219" s="24"/>
+      <c r="AD219" s="24"/>
+      <c r="AE219" s="24"/>
+      <c r="AF219" s="24"/>
+      <c r="AG219" s="24"/>
+      <c r="AH219" s="24"/>
+      <c r="AI219" s="25"/>
     </row>
     <row r="220" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E220" s="30"/>
@@ -7858,14 +7853,15 @@
       <c r="I220" s="41"/>
       <c r="J220" s="41"/>
       <c r="K220" s="41"/>
-      <c r="L220" s="41"/>
+      <c r="L220" s="42"/>
       <c r="M220" s="40"/>
       <c r="N220" s="41"/>
       <c r="O220" s="41"/>
       <c r="P220" s="41"/>
       <c r="Q220" s="42"/>
-      <c r="R220" s="41" t="s">
-        <v>130</v>
+      <c r="R220" s="40" t="str">
+        <f>"ログの種類ごとのフォーマットは"&amp;$D$112&amp;$E$112&amp;"を参照。"</f>
+        <v>ログの種類ごとのフォーマットは7.13.3.ログの種類ごとのフォーマットを参照。</v>
       </c>
       <c r="S220" s="41"/>
       <c r="T220" s="41"/>
@@ -7887,263 +7883,402 @@
     </row>
     <row r="221" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E221" s="30"/>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="19"/>
-      <c r="K221" s="19"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="19"/>
-      <c r="N221" s="19"/>
-      <c r="O221" s="19"/>
-      <c r="P221" s="19"/>
-      <c r="Q221" s="19"/>
-      <c r="R221" s="19"/>
-      <c r="S221" s="19"/>
-      <c r="T221" s="19"/>
-      <c r="U221" s="19"/>
-      <c r="V221" s="19"/>
-      <c r="W221" s="19"/>
-      <c r="X221" s="19"/>
-      <c r="Y221" s="19"/>
-      <c r="Z221" s="19"/>
-      <c r="AA221" s="19"/>
-      <c r="AB221" s="19"/>
-      <c r="AC221" s="19"/>
-      <c r="AD221" s="19"/>
-      <c r="AE221" s="19"/>
-      <c r="AF221" s="19"/>
-      <c r="AG221" s="19"/>
-      <c r="AH221" s="19"/>
-      <c r="AI221" s="19"/>
+      <c r="H221" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I221" s="24"/>
+      <c r="J221" s="24"/>
+      <c r="K221" s="24"/>
+      <c r="L221" s="25"/>
+      <c r="M221" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N221" s="24"/>
+      <c r="O221" s="24"/>
+      <c r="P221" s="24"/>
+      <c r="Q221" s="25"/>
+      <c r="R221" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="S221" s="24"/>
+      <c r="T221" s="24"/>
+      <c r="U221" s="24"/>
+      <c r="V221" s="24"/>
+      <c r="W221" s="24"/>
+      <c r="X221" s="24"/>
+      <c r="Y221" s="24"/>
+      <c r="Z221" s="24"/>
+      <c r="AA221" s="24"/>
+      <c r="AB221" s="24"/>
+      <c r="AC221" s="24"/>
+      <c r="AD221" s="24"/>
+      <c r="AE221" s="24"/>
+      <c r="AF221" s="24"/>
+      <c r="AG221" s="24"/>
+      <c r="AH221" s="24"/>
+      <c r="AI221" s="25"/>
     </row>
     <row r="222" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E222" s="30"/>
-      <c r="F222" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G222" s="45" t="s">
-        <v>16</v>
-      </c>
+      <c r="H222" s="40"/>
+      <c r="I222" s="41"/>
+      <c r="J222" s="41"/>
+      <c r="K222" s="41"/>
+      <c r="L222" s="42"/>
+      <c r="M222" s="40"/>
+      <c r="N222" s="41"/>
+      <c r="O222" s="41"/>
+      <c r="P222" s="41"/>
+      <c r="Q222" s="42"/>
+      <c r="R222" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="S222" s="41"/>
+      <c r="T222" s="41"/>
+      <c r="U222" s="41"/>
+      <c r="V222" s="41"/>
+      <c r="W222" s="41"/>
+      <c r="X222" s="41"/>
+      <c r="Y222" s="41"/>
+      <c r="Z222" s="41"/>
+      <c r="AA222" s="41"/>
+      <c r="AB222" s="41"/>
+      <c r="AC222" s="41"/>
+      <c r="AD222" s="41"/>
+      <c r="AE222" s="41"/>
+      <c r="AF222" s="41"/>
+      <c r="AG222" s="41"/>
+      <c r="AH222" s="41"/>
+      <c r="AI222" s="42"/>
     </row>
     <row r="223" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E223" s="30"/>
-      <c r="F223" s="46"/>
-      <c r="G223" s="45" t="s">
-        <v>136</v>
-      </c>
+      <c r="H223" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I223" s="19"/>
+      <c r="J223" s="19"/>
+      <c r="K223" s="19"/>
+      <c r="L223" s="19"/>
+      <c r="M223" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="N223" s="19"/>
+      <c r="O223" s="19"/>
+      <c r="P223" s="19"/>
+      <c r="Q223" s="20"/>
+      <c r="R223" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="S223" s="19"/>
+      <c r="T223" s="19"/>
+      <c r="U223" s="19"/>
+      <c r="V223" s="19"/>
+      <c r="W223" s="19"/>
+      <c r="X223" s="19"/>
+      <c r="Y223" s="19"/>
+      <c r="Z223" s="19"/>
+      <c r="AA223" s="19"/>
+      <c r="AB223" s="19"/>
+      <c r="AC223" s="19"/>
+      <c r="AD223" s="19"/>
+      <c r="AE223" s="19"/>
+      <c r="AF223" s="19"/>
+      <c r="AG223" s="19"/>
+      <c r="AH223" s="19"/>
+      <c r="AI223" s="20"/>
     </row>
     <row r="224" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E224" s="30"/>
-      <c r="F224" s="46"/>
-      <c r="G224" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="H224" s="24"/>
-      <c r="I224" s="24"/>
-      <c r="J224" s="24"/>
-      <c r="K224" s="24"/>
-      <c r="L224" s="24"/>
-      <c r="M224" s="24"/>
-      <c r="N224" s="24"/>
-      <c r="O224" s="24"/>
-      <c r="P224" s="24"/>
-      <c r="Q224" s="24"/>
-      <c r="R224" s="24"/>
-      <c r="S224" s="24"/>
-      <c r="T224" s="24"/>
-      <c r="U224" s="24"/>
-      <c r="V224" s="24"/>
-      <c r="W224" s="24"/>
-      <c r="X224" s="24"/>
-      <c r="Y224" s="24"/>
-      <c r="Z224" s="24"/>
-      <c r="AA224" s="24"/>
-      <c r="AB224" s="24"/>
-      <c r="AC224" s="24"/>
-      <c r="AD224" s="24"/>
-      <c r="AE224" s="24"/>
-      <c r="AF224" s="24"/>
-      <c r="AG224" s="24"/>
-      <c r="AH224" s="24"/>
-      <c r="AI224" s="25"/>
+      <c r="H224" s="40"/>
+      <c r="I224" s="41"/>
+      <c r="J224" s="41"/>
+      <c r="K224" s="41"/>
+      <c r="L224" s="41"/>
+      <c r="M224" s="40"/>
+      <c r="N224" s="41"/>
+      <c r="O224" s="41"/>
+      <c r="P224" s="41"/>
+      <c r="Q224" s="42"/>
+      <c r="R224" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="S224" s="41"/>
+      <c r="T224" s="41"/>
+      <c r="U224" s="41"/>
+      <c r="V224" s="41"/>
+      <c r="W224" s="41"/>
+      <c r="X224" s="41"/>
+      <c r="Y224" s="41"/>
+      <c r="Z224" s="41"/>
+      <c r="AA224" s="41"/>
+      <c r="AB224" s="41"/>
+      <c r="AC224" s="41"/>
+      <c r="AD224" s="41"/>
+      <c r="AE224" s="41"/>
+      <c r="AF224" s="41"/>
+      <c r="AG224" s="41"/>
+      <c r="AH224" s="41"/>
+      <c r="AI224" s="42"/>
     </row>
     <row r="225" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E225" s="30"/>
-      <c r="F225" s="46"/>
-      <c r="G225" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H225" s="41"/>
-      <c r="I225" s="41"/>
-      <c r="J225" s="41"/>
-      <c r="K225" s="41"/>
-      <c r="L225" s="41"/>
-      <c r="M225" s="41"/>
-      <c r="N225" s="41"/>
-      <c r="O225" s="41"/>
-      <c r="P225" s="41"/>
-      <c r="Q225" s="41"/>
-      <c r="R225" s="41"/>
-      <c r="S225" s="41"/>
-      <c r="T225" s="41"/>
-      <c r="U225" s="41"/>
-      <c r="V225" s="41"/>
-      <c r="W225" s="41"/>
-      <c r="X225" s="41"/>
-      <c r="Y225" s="41"/>
-      <c r="Z225" s="41"/>
-      <c r="AA225" s="41"/>
-      <c r="AB225" s="41"/>
-      <c r="AC225" s="41"/>
-      <c r="AD225" s="41"/>
-      <c r="AE225" s="41"/>
-      <c r="AF225" s="41"/>
-      <c r="AG225" s="41"/>
-      <c r="AH225" s="41"/>
-      <c r="AI225" s="42"/>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="19"/>
+      <c r="K225" s="19"/>
+      <c r="L225" s="19"/>
+      <c r="M225" s="19"/>
+      <c r="N225" s="19"/>
+      <c r="O225" s="19"/>
+      <c r="P225" s="19"/>
+      <c r="Q225" s="19"/>
+      <c r="R225" s="19"/>
+      <c r="S225" s="19"/>
+      <c r="T225" s="19"/>
+      <c r="U225" s="19"/>
+      <c r="V225" s="19"/>
+      <c r="W225" s="19"/>
+      <c r="X225" s="19"/>
+      <c r="Y225" s="19"/>
+      <c r="Z225" s="19"/>
+      <c r="AA225" s="19"/>
+      <c r="AB225" s="19"/>
+      <c r="AC225" s="19"/>
+      <c r="AD225" s="19"/>
+      <c r="AE225" s="19"/>
+      <c r="AF225" s="19"/>
+      <c r="AG225" s="19"/>
+      <c r="AH225" s="19"/>
+      <c r="AI225" s="19"/>
     </row>
     <row r="226" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E226" s="30"/>
-      <c r="F226" s="46"/>
-      <c r="G226" s="50"/>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
-      <c r="N226" s="19"/>
-      <c r="O226" s="19"/>
-      <c r="P226" s="19"/>
-      <c r="Q226" s="19"/>
-      <c r="R226" s="19"/>
-      <c r="S226" s="19"/>
-      <c r="T226" s="19"/>
-      <c r="U226" s="19"/>
-      <c r="V226" s="19"/>
-      <c r="W226" s="19"/>
-      <c r="X226" s="19"/>
-      <c r="Y226" s="19"/>
-      <c r="Z226" s="19"/>
-      <c r="AA226" s="19"/>
-      <c r="AB226" s="19"/>
-      <c r="AC226" s="19"/>
-      <c r="AD226" s="19"/>
-      <c r="AE226" s="19"/>
-      <c r="AF226" s="19"/>
-      <c r="AG226" s="19"/>
-      <c r="AH226" s="19"/>
-      <c r="AI226" s="19"/>
+      <c r="F226" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" s="45" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="227" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E227" s="30"/>
       <c r="F227" s="46"/>
-      <c r="G227" s="50"/>
-      <c r="H227" s="50"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="19"/>
-      <c r="K227" s="19"/>
-      <c r="L227" s="19"/>
-      <c r="M227" s="19"/>
-      <c r="N227" s="19"/>
-      <c r="O227" s="19"/>
-      <c r="P227" s="19"/>
-      <c r="Q227" s="19"/>
-      <c r="R227" s="19"/>
-      <c r="S227" s="19"/>
-      <c r="T227" s="19"/>
-      <c r="U227" s="19"/>
-      <c r="V227" s="19"/>
-      <c r="W227" s="19"/>
-      <c r="X227" s="19"/>
-      <c r="Y227" s="19"/>
-      <c r="Z227" s="19"/>
-      <c r="AA227" s="19"/>
-      <c r="AB227" s="19"/>
-      <c r="AC227" s="19"/>
-      <c r="AD227" s="19"/>
-      <c r="AE227" s="19"/>
-      <c r="AF227" s="19"/>
-      <c r="AG227" s="19"/>
-      <c r="AH227" s="19"/>
-      <c r="AI227" s="19"/>
-    </row>
-    <row r="228" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="45"/>
-      <c r="B228" s="45"/>
-      <c r="D228" s="46" t="str">
+      <c r="G227" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="228" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E228" s="30"/>
+      <c r="F228" s="46"/>
+      <c r="G228" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H228" s="24"/>
+      <c r="I228" s="24"/>
+      <c r="J228" s="24"/>
+      <c r="K228" s="24"/>
+      <c r="L228" s="24"/>
+      <c r="M228" s="24"/>
+      <c r="N228" s="24"/>
+      <c r="O228" s="24"/>
+      <c r="P228" s="24"/>
+      <c r="Q228" s="24"/>
+      <c r="R228" s="24"/>
+      <c r="S228" s="24"/>
+      <c r="T228" s="24"/>
+      <c r="U228" s="24"/>
+      <c r="V228" s="24"/>
+      <c r="W228" s="24"/>
+      <c r="X228" s="24"/>
+      <c r="Y228" s="24"/>
+      <c r="Z228" s="24"/>
+      <c r="AA228" s="24"/>
+      <c r="AB228" s="24"/>
+      <c r="AC228" s="24"/>
+      <c r="AD228" s="24"/>
+      <c r="AE228" s="24"/>
+      <c r="AF228" s="24"/>
+      <c r="AG228" s="24"/>
+      <c r="AH228" s="24"/>
+      <c r="AI228" s="25"/>
+    </row>
+    <row r="229" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E229" s="30"/>
+      <c r="F229" s="46"/>
+      <c r="G229" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H229" s="41"/>
+      <c r="I229" s="41"/>
+      <c r="J229" s="41"/>
+      <c r="K229" s="41"/>
+      <c r="L229" s="41"/>
+      <c r="M229" s="41"/>
+      <c r="N229" s="41"/>
+      <c r="O229" s="41"/>
+      <c r="P229" s="41"/>
+      <c r="Q229" s="41"/>
+      <c r="R229" s="41"/>
+      <c r="S229" s="41"/>
+      <c r="T229" s="41"/>
+      <c r="U229" s="41"/>
+      <c r="V229" s="41"/>
+      <c r="W229" s="41"/>
+      <c r="X229" s="41"/>
+      <c r="Y229" s="41"/>
+      <c r="Z229" s="41"/>
+      <c r="AA229" s="41"/>
+      <c r="AB229" s="41"/>
+      <c r="AC229" s="41"/>
+      <c r="AD229" s="41"/>
+      <c r="AE229" s="41"/>
+      <c r="AF229" s="41"/>
+      <c r="AG229" s="41"/>
+      <c r="AH229" s="41"/>
+      <c r="AI229" s="42"/>
+    </row>
+    <row r="230" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E230" s="30"/>
+      <c r="F230" s="46"/>
+      <c r="G230" s="50"/>
+      <c r="H230" s="19"/>
+      <c r="I230" s="19"/>
+      <c r="J230" s="19"/>
+      <c r="K230" s="19"/>
+      <c r="L230" s="19"/>
+      <c r="M230" s="19"/>
+      <c r="N230" s="19"/>
+      <c r="O230" s="19"/>
+      <c r="P230" s="19"/>
+      <c r="Q230" s="19"/>
+      <c r="R230" s="19"/>
+      <c r="S230" s="19"/>
+      <c r="T230" s="19"/>
+      <c r="U230" s="19"/>
+      <c r="V230" s="19"/>
+      <c r="W230" s="19"/>
+      <c r="X230" s="19"/>
+      <c r="Y230" s="19"/>
+      <c r="Z230" s="19"/>
+      <c r="AA230" s="19"/>
+      <c r="AB230" s="19"/>
+      <c r="AC230" s="19"/>
+      <c r="AD230" s="19"/>
+      <c r="AE230" s="19"/>
+      <c r="AF230" s="19"/>
+      <c r="AG230" s="19"/>
+      <c r="AH230" s="19"/>
+      <c r="AI230" s="19"/>
+    </row>
+    <row r="231" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E231" s="30"/>
+      <c r="F231" s="46"/>
+      <c r="G231" s="50"/>
+      <c r="H231" s="50"/>
+      <c r="I231" s="19"/>
+      <c r="J231" s="19"/>
+      <c r="K231" s="19"/>
+      <c r="L231" s="19"/>
+      <c r="M231" s="19"/>
+      <c r="N231" s="19"/>
+      <c r="O231" s="19"/>
+      <c r="P231" s="19"/>
+      <c r="Q231" s="19"/>
+      <c r="R231" s="19"/>
+      <c r="S231" s="19"/>
+      <c r="T231" s="19"/>
+      <c r="U231" s="19"/>
+      <c r="V231" s="19"/>
+      <c r="W231" s="19"/>
+      <c r="X231" s="19"/>
+      <c r="Y231" s="19"/>
+      <c r="Z231" s="19"/>
+      <c r="AA231" s="19"/>
+      <c r="AB231" s="19"/>
+      <c r="AC231" s="19"/>
+      <c r="AD231" s="19"/>
+      <c r="AE231" s="19"/>
+      <c r="AF231" s="19"/>
+      <c r="AG231" s="19"/>
+      <c r="AH231" s="19"/>
+      <c r="AI231" s="19"/>
+    </row>
+    <row r="232" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="45"/>
+      <c r="B232" s="45"/>
+      <c r="D232" s="46" t="str">
         <f>$C$7&amp;"5."</f>
         <v>7.13.5.</v>
       </c>
-      <c r="E228" s="31" t="s">
+      <c r="E232" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F228" s="31"/>
-      <c r="AF228" s="45"/>
-      <c r="AG228" s="45"/>
-    </row>
-    <row r="229" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="45"/>
-      <c r="B229" s="45"/>
-      <c r="E229" s="31" t="s">
+      <c r="F232" s="31"/>
+      <c r="AF232" s="45"/>
+      <c r="AG232" s="45"/>
+    </row>
+    <row r="233" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="45"/>
+      <c r="B233" s="45"/>
+      <c r="E233" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="F229" s="31"/>
-      <c r="AF229" s="45"/>
-      <c r="AG229" s="45"/>
-    </row>
-    <row r="230" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="45"/>
-      <c r="B230" s="45"/>
-      <c r="E230" s="30"/>
-      <c r="AF230" s="45"/>
-      <c r="AG230" s="45"/>
-    </row>
-    <row r="231" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF231" s="45"/>
-      <c r="AG231" s="45"/>
-    </row>
-    <row r="232" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D232" s="46" t="str">
+      <c r="F233" s="31"/>
+      <c r="AF233" s="45"/>
+      <c r="AG233" s="45"/>
+    </row>
+    <row r="234" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="45"/>
+      <c r="B234" s="45"/>
+      <c r="E234" s="30"/>
+      <c r="AF234" s="45"/>
+      <c r="AG234" s="45"/>
+    </row>
+    <row r="235" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF235" s="45"/>
+      <c r="AG235" s="45"/>
+    </row>
+    <row r="236" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D236" s="46" t="str">
         <f>$C$7&amp;"6."</f>
         <v>7.13.6.</v>
       </c>
-      <c r="E232" s="4" t="s">
+      <c r="E236" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E233" s="4" t="s">
+    <row r="237" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E237" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E234" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="236" spans="1:35" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E236" s="45" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="237" spans="1:35" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="238" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E238" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="240" spans="1:35" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E240" s="45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E242" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="240" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E240" s="4" t="s">
+    <row r="244" spans="5:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E244" s="4" t="s">
         <v>268</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J117:AF117"/>
-    <mergeCell ref="J118:AF118"/>
-    <mergeCell ref="J119:AF119"/>
-    <mergeCell ref="J120:AF120"/>
+    <mergeCell ref="J119:AF120"/>
+    <mergeCell ref="J121:AF122"/>
+    <mergeCell ref="J123:AF124"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -8155,13 +8290,14 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="J117:AF118"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="J119" r:id="rId1" location="sql-log-setting" xr:uid="{52996156-CF03-4A13-9B78-35894E8A177D}"/>
+    <hyperlink ref="J121" r:id="rId1" location="sql-log-setting" xr:uid="{52996156-CF03-4A13-9B78-35894E8A177D}"/>
     <hyperlink ref="J117" r:id="rId2" location="failure-log-setting" xr:uid="{4B5540C5-BAC2-46C8-9EA6-27E7EECDE333}"/>
-    <hyperlink ref="J118" r:id="rId3" location="http-access-log-setting" xr:uid="{AFF0734E-51A8-40B8-8554-6558C3D47A2C}"/>
-    <hyperlink ref="J120" r:id="rId4" location="performance-log-setting" xr:uid="{1EE586A6-5FD6-48C4-ACEB-F877AB33F8B3}"/>
+    <hyperlink ref="J119" r:id="rId3" location="http-access-log-setting" xr:uid="{AFF0734E-51A8-40B8-8554-6558C3D47A2C}"/>
+    <hyperlink ref="J123" r:id="rId4" location="performance-log-setting" xr:uid="{1EE586A6-5FD6-48C4-ACEB-F877AB33F8B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId5"/>
@@ -8169,9 +8305,9 @@
     <brk id="39" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
     <brk id="111" max="34" man="1"/>
-    <brk id="147" max="34" man="1"/>
-    <brk id="187" max="34" man="1"/>
-    <brk id="230" max="34" man="1"/>
+    <brk id="151" max="34" man="1"/>
+    <brk id="191" max="34" man="1"/>
+    <brk id="234" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.13ログ.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096970CC-4863-4704-8C17-179502A4EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\gitbucket\Fintan\application-architecture-sample\nablarch_sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903236F-595E-49E3-94E9-A5D42D43940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.13.ログ'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$245</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$105</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.13.ログ'!$A$1:$AI$244</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$104</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.13.ログ'!$C$1:$AK$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="269">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1926,6 +1931,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1991,30 +2020,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2344,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS244"/>
+  <dimension ref="A1:AS243"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2364,43 +2369,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="59"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="62"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="70"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="68"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="76"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2409,43 +2414,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="8" t="s">
         <v>141</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="74"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="82"/>
       <c r="Y2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="68"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="76"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2454,39 +2459,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="77"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="85"/>
       <c r="Y3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="68"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="76"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5091,9 +5096,9 @@
       <c r="R95" s="24"/>
       <c r="S95" s="24"/>
       <c r="T95" s="24"/>
-      <c r="U95" s="20"/>
+      <c r="U95" s="25"/>
       <c r="V95" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="W95" s="24"/>
       <c r="X95" s="24"/>
@@ -5132,7 +5137,7 @@
       <c r="T96" s="19"/>
       <c r="U96" s="20"/>
       <c r="V96" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W96" s="19"/>
       <c r="X96" s="19"/>
@@ -5151,1202 +5156,1202 @@
     <row r="97" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
-      <c r="T97" s="19"/>
-      <c r="U97" s="20"/>
-      <c r="V97" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="W97" s="19"/>
-      <c r="X97" s="19"/>
-      <c r="Y97" s="19"/>
-      <c r="Z97" s="20"/>
-      <c r="AA97" s="18"/>
-      <c r="AB97" s="19"/>
-      <c r="AC97" s="19"/>
-      <c r="AD97" s="19"/>
-      <c r="AE97" s="20"/>
-      <c r="AF97" s="18"/>
-      <c r="AG97" s="19"/>
-      <c r="AH97" s="19"/>
-      <c r="AI97" s="20"/>
-    </row>
-    <row r="98" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G97" s="40"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="41"/>
+      <c r="S97" s="41"/>
+      <c r="T97" s="41"/>
+      <c r="U97" s="42"/>
+      <c r="V97" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="W97" s="41"/>
+      <c r="X97" s="41"/>
+      <c r="Y97" s="41"/>
+      <c r="Z97" s="42"/>
+      <c r="AA97" s="40"/>
+      <c r="AB97" s="41"/>
+      <c r="AC97" s="41"/>
+      <c r="AD97" s="41"/>
+      <c r="AE97" s="42"/>
+      <c r="AF97" s="40"/>
+      <c r="AG97" s="41"/>
+      <c r="AH97" s="41"/>
+      <c r="AI97" s="42"/>
+    </row>
+    <row r="98" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
       <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="42"/>
-      <c r="V98" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="W98" s="41"/>
-      <c r="X98" s="41"/>
-      <c r="Y98" s="41"/>
-      <c r="Z98" s="42"/>
-      <c r="AA98" s="40"/>
-      <c r="AB98" s="41"/>
-      <c r="AC98" s="41"/>
-      <c r="AD98" s="41"/>
-      <c r="AE98" s="42"/>
-      <c r="AF98" s="40"/>
-      <c r="AG98" s="41"/>
-      <c r="AH98" s="41"/>
-      <c r="AI98" s="42"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+      <c r="AA98" s="19"/>
+      <c r="AB98" s="19"/>
+      <c r="AC98" s="19"/>
+      <c r="AD98" s="19"/>
+      <c r="AE98" s="19"/>
+      <c r="AF98" s="19"/>
+      <c r="AG98" s="19"/>
+      <c r="AH98" s="19"/>
+      <c r="AI98" s="19"/>
     </row>
     <row r="99" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="45"/>
       <c r="B99" s="45"/>
-      <c r="D99" s="15"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="19"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="19"/>
-      <c r="W99" s="19"/>
-      <c r="X99" s="19"/>
-      <c r="Y99" s="19"/>
-      <c r="Z99" s="19"/>
-      <c r="AA99" s="19"/>
-      <c r="AB99" s="19"/>
-      <c r="AC99" s="19"/>
-      <c r="AD99" s="19"/>
-      <c r="AE99" s="19"/>
-      <c r="AF99" s="19"/>
-      <c r="AG99" s="19"/>
-      <c r="AH99" s="19"/>
-      <c r="AI99" s="19"/>
-    </row>
-    <row r="100" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="F100" s="17" t="s">
+      <c r="F99" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="G99" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF99" s="45"/>
+      <c r="AG99" s="45"/>
+    </row>
+    <row r="100" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="46"/>
       <c r="G100" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF100" s="45"/>
-      <c r="AG100" s="45"/>
+        <v>260</v>
+      </c>
     </row>
     <row r="101" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="46"/>
-      <c r="G101" s="36" t="s">
-        <v>260</v>
-      </c>
+      <c r="G101" s="36"/>
     </row>
     <row r="102" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="46"/>
-      <c r="G102" s="36"/>
+      <c r="G102" s="36" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="103" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F103" s="46"/>
       <c r="G103" s="36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F104" s="46"/>
-      <c r="G104" s="36" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="AF105" s="45"/>
-      <c r="AG105" s="45"/>
+    <row r="104" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="AF104" s="45"/>
+      <c r="AG104" s="45"/>
+    </row>
+    <row r="105" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="106" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F106" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="G106" s="45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G107" s="45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
       <c r="G108" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="G109" s="45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
-      <c r="G110" s="45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-    </row>
-    <row r="112" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="D112" s="46" t="str">
+    </row>
+    <row r="111" spans="1:35" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="D111" s="46" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.13.3.</v>
       </c>
+      <c r="E111" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF111" s="45"/>
+      <c r="AG111" s="45"/>
+    </row>
+    <row r="112" spans="1:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D112" s="46"/>
       <c r="E112" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF112" s="45"/>
-      <c r="AG112" s="45"/>
+        <v>242</v>
+      </c>
     </row>
     <row r="113" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D113" s="46"/>
       <c r="E113" s="31" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" s="46"/>
-      <c r="E114" s="31" t="s">
-        <v>219</v>
-      </c>
+      <c r="E114" s="31"/>
     </row>
     <row r="115" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="46"/>
-      <c r="E115" s="31"/>
-    </row>
-    <row r="116" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E115" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="28"/>
+      <c r="O115" s="28"/>
+      <c r="P115" s="28"/>
+      <c r="Q115" s="28"/>
+      <c r="R115" s="28"/>
+      <c r="S115" s="28"/>
+      <c r="T115" s="28"/>
+      <c r="U115" s="28"/>
+      <c r="V115" s="28"/>
+      <c r="W115" s="28"/>
+      <c r="X115" s="28"/>
+      <c r="Y115" s="28"/>
+      <c r="Z115" s="28"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="28"/>
+      <c r="AC115" s="28"/>
+      <c r="AD115" s="28"/>
+      <c r="AE115" s="28"/>
+      <c r="AF115" s="29"/>
+    </row>
+    <row r="116" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D116" s="46"/>
-      <c r="E116" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="K116" s="28"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="28"/>
-      <c r="N116" s="28"/>
-      <c r="O116" s="28"/>
-      <c r="P116" s="28"/>
-      <c r="Q116" s="28"/>
-      <c r="R116" s="28"/>
-      <c r="S116" s="28"/>
-      <c r="T116" s="28"/>
-      <c r="U116" s="28"/>
-      <c r="V116" s="28"/>
-      <c r="W116" s="28"/>
-      <c r="X116" s="28"/>
-      <c r="Y116" s="28"/>
-      <c r="Z116" s="28"/>
-      <c r="AA116" s="28"/>
-      <c r="AB116" s="28"/>
-      <c r="AC116" s="28"/>
-      <c r="AD116" s="28"/>
-      <c r="AE116" s="28"/>
-      <c r="AF116" s="29"/>
+      <c r="E116" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="K116" s="59"/>
+      <c r="L116" s="59"/>
+      <c r="M116" s="59"/>
+      <c r="N116" s="59"/>
+      <c r="O116" s="59"/>
+      <c r="P116" s="59"/>
+      <c r="Q116" s="59"/>
+      <c r="R116" s="59"/>
+      <c r="S116" s="59"/>
+      <c r="T116" s="59"/>
+      <c r="U116" s="59"/>
+      <c r="V116" s="59"/>
+      <c r="W116" s="59"/>
+      <c r="X116" s="59"/>
+      <c r="Y116" s="59"/>
+      <c r="Z116" s="59"/>
+      <c r="AA116" s="59"/>
+      <c r="AB116" s="59"/>
+      <c r="AC116" s="59"/>
+      <c r="AD116" s="59"/>
+      <c r="AE116" s="59"/>
+      <c r="AF116" s="60"/>
     </row>
     <row r="117" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D117" s="46"/>
-      <c r="E117" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="K117" s="80"/>
-      <c r="L117" s="80"/>
-      <c r="M117" s="80"/>
-      <c r="N117" s="80"/>
-      <c r="O117" s="80"/>
-      <c r="P117" s="80"/>
-      <c r="Q117" s="80"/>
-      <c r="R117" s="80"/>
-      <c r="S117" s="80"/>
-      <c r="T117" s="80"/>
-      <c r="U117" s="80"/>
-      <c r="V117" s="80"/>
-      <c r="W117" s="80"/>
-      <c r="X117" s="80"/>
-      <c r="Y117" s="80"/>
-      <c r="Z117" s="80"/>
-      <c r="AA117" s="80"/>
-      <c r="AB117" s="80"/>
-      <c r="AC117" s="80"/>
-      <c r="AD117" s="80"/>
-      <c r="AE117" s="80"/>
-      <c r="AF117" s="81"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="61"/>
+      <c r="K117" s="61"/>
+      <c r="L117" s="61"/>
+      <c r="M117" s="61"/>
+      <c r="N117" s="61"/>
+      <c r="O117" s="61"/>
+      <c r="P117" s="61"/>
+      <c r="Q117" s="61"/>
+      <c r="R117" s="61"/>
+      <c r="S117" s="61"/>
+      <c r="T117" s="61"/>
+      <c r="U117" s="61"/>
+      <c r="V117" s="61"/>
+      <c r="W117" s="61"/>
+      <c r="X117" s="61"/>
+      <c r="Y117" s="61"/>
+      <c r="Z117" s="61"/>
+      <c r="AA117" s="61"/>
+      <c r="AB117" s="61"/>
+      <c r="AC117" s="61"/>
+      <c r="AD117" s="61"/>
+      <c r="AE117" s="61"/>
+      <c r="AF117" s="62"/>
     </row>
     <row r="118" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D118" s="46"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="83"/>
-      <c r="K118" s="83"/>
-      <c r="L118" s="83"/>
-      <c r="M118" s="83"/>
-      <c r="N118" s="83"/>
-      <c r="O118" s="83"/>
-      <c r="P118" s="83"/>
-      <c r="Q118" s="83"/>
-      <c r="R118" s="83"/>
-      <c r="S118" s="83"/>
-      <c r="T118" s="83"/>
-      <c r="U118" s="83"/>
-      <c r="V118" s="83"/>
-      <c r="W118" s="83"/>
-      <c r="X118" s="83"/>
-      <c r="Y118" s="83"/>
-      <c r="Z118" s="83"/>
-      <c r="AA118" s="83"/>
-      <c r="AB118" s="83"/>
-      <c r="AC118" s="83"/>
-      <c r="AD118" s="83"/>
-      <c r="AE118" s="83"/>
-      <c r="AF118" s="84"/>
+      <c r="E118" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="K118" s="59"/>
+      <c r="L118" s="59"/>
+      <c r="M118" s="59"/>
+      <c r="N118" s="59"/>
+      <c r="O118" s="59"/>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="59"/>
+      <c r="R118" s="59"/>
+      <c r="S118" s="59"/>
+      <c r="T118" s="59"/>
+      <c r="U118" s="59"/>
+      <c r="V118" s="59"/>
+      <c r="W118" s="59"/>
+      <c r="X118" s="59"/>
+      <c r="Y118" s="59"/>
+      <c r="Z118" s="59"/>
+      <c r="AA118" s="59"/>
+      <c r="AB118" s="59"/>
+      <c r="AC118" s="59"/>
+      <c r="AD118" s="59"/>
+      <c r="AE118" s="59"/>
+      <c r="AF118" s="60"/>
     </row>
     <row r="119" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D119" s="46"/>
-      <c r="E119" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="K119" s="80"/>
-      <c r="L119" s="80"/>
-      <c r="M119" s="80"/>
-      <c r="N119" s="80"/>
-      <c r="O119" s="80"/>
-      <c r="P119" s="80"/>
-      <c r="Q119" s="80"/>
-      <c r="R119" s="80"/>
-      <c r="S119" s="80"/>
-      <c r="T119" s="80"/>
-      <c r="U119" s="80"/>
-      <c r="V119" s="80"/>
-      <c r="W119" s="80"/>
-      <c r="X119" s="80"/>
-      <c r="Y119" s="80"/>
-      <c r="Z119" s="80"/>
-      <c r="AA119" s="80"/>
-      <c r="AB119" s="80"/>
-      <c r="AC119" s="80"/>
-      <c r="AD119" s="80"/>
-      <c r="AE119" s="80"/>
-      <c r="AF119" s="81"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="61"/>
+      <c r="K119" s="61"/>
+      <c r="L119" s="61"/>
+      <c r="M119" s="61"/>
+      <c r="N119" s="61"/>
+      <c r="O119" s="61"/>
+      <c r="P119" s="61"/>
+      <c r="Q119" s="61"/>
+      <c r="R119" s="61"/>
+      <c r="S119" s="61"/>
+      <c r="T119" s="61"/>
+      <c r="U119" s="61"/>
+      <c r="V119" s="61"/>
+      <c r="W119" s="61"/>
+      <c r="X119" s="61"/>
+      <c r="Y119" s="61"/>
+      <c r="Z119" s="61"/>
+      <c r="AA119" s="61"/>
+      <c r="AB119" s="61"/>
+      <c r="AC119" s="61"/>
+      <c r="AD119" s="61"/>
+      <c r="AE119" s="61"/>
+      <c r="AF119" s="62"/>
     </row>
     <row r="120" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D120" s="46"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="83"/>
-      <c r="K120" s="83"/>
-      <c r="L120" s="83"/>
-      <c r="M120" s="83"/>
-      <c r="N120" s="83"/>
-      <c r="O120" s="83"/>
-      <c r="P120" s="83"/>
-      <c r="Q120" s="83"/>
-      <c r="R120" s="83"/>
-      <c r="S120" s="83"/>
-      <c r="T120" s="83"/>
-      <c r="U120" s="83"/>
-      <c r="V120" s="83"/>
-      <c r="W120" s="83"/>
-      <c r="X120" s="83"/>
-      <c r="Y120" s="83"/>
-      <c r="Z120" s="83"/>
-      <c r="AA120" s="83"/>
-      <c r="AB120" s="83"/>
-      <c r="AC120" s="83"/>
-      <c r="AD120" s="83"/>
-      <c r="AE120" s="83"/>
-      <c r="AF120" s="84"/>
+      <c r="E120" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="K120" s="59"/>
+      <c r="L120" s="59"/>
+      <c r="M120" s="59"/>
+      <c r="N120" s="59"/>
+      <c r="O120" s="59"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="59"/>
+      <c r="R120" s="59"/>
+      <c r="S120" s="59"/>
+      <c r="T120" s="59"/>
+      <c r="U120" s="59"/>
+      <c r="V120" s="59"/>
+      <c r="W120" s="59"/>
+      <c r="X120" s="59"/>
+      <c r="Y120" s="59"/>
+      <c r="Z120" s="59"/>
+      <c r="AA120" s="59"/>
+      <c r="AB120" s="59"/>
+      <c r="AC120" s="59"/>
+      <c r="AD120" s="59"/>
+      <c r="AE120" s="59"/>
+      <c r="AF120" s="60"/>
     </row>
     <row r="121" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D121" s="46"/>
-      <c r="E121" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="K121" s="80"/>
-      <c r="L121" s="80"/>
-      <c r="M121" s="80"/>
-      <c r="N121" s="80"/>
-      <c r="O121" s="80"/>
-      <c r="P121" s="80"/>
-      <c r="Q121" s="80"/>
-      <c r="R121" s="80"/>
-      <c r="S121" s="80"/>
-      <c r="T121" s="80"/>
-      <c r="U121" s="80"/>
-      <c r="V121" s="80"/>
-      <c r="W121" s="80"/>
-      <c r="X121" s="80"/>
-      <c r="Y121" s="80"/>
-      <c r="Z121" s="80"/>
-      <c r="AA121" s="80"/>
-      <c r="AB121" s="80"/>
-      <c r="AC121" s="80"/>
-      <c r="AD121" s="80"/>
-      <c r="AE121" s="80"/>
-      <c r="AF121" s="81"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61"/>
+      <c r="L121" s="61"/>
+      <c r="M121" s="61"/>
+      <c r="N121" s="61"/>
+      <c r="O121" s="61"/>
+      <c r="P121" s="61"/>
+      <c r="Q121" s="61"/>
+      <c r="R121" s="61"/>
+      <c r="S121" s="61"/>
+      <c r="T121" s="61"/>
+      <c r="U121" s="61"/>
+      <c r="V121" s="61"/>
+      <c r="W121" s="61"/>
+      <c r="X121" s="61"/>
+      <c r="Y121" s="61"/>
+      <c r="Z121" s="61"/>
+      <c r="AA121" s="61"/>
+      <c r="AB121" s="61"/>
+      <c r="AC121" s="61"/>
+      <c r="AD121" s="61"/>
+      <c r="AE121" s="61"/>
+      <c r="AF121" s="62"/>
     </row>
     <row r="122" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D122" s="46"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="83"/>
-      <c r="K122" s="83"/>
-      <c r="L122" s="83"/>
-      <c r="M122" s="83"/>
-      <c r="N122" s="83"/>
-      <c r="O122" s="83"/>
-      <c r="P122" s="83"/>
-      <c r="Q122" s="83"/>
-      <c r="R122" s="83"/>
-      <c r="S122" s="83"/>
-      <c r="T122" s="83"/>
-      <c r="U122" s="83"/>
-      <c r="V122" s="83"/>
-      <c r="W122" s="83"/>
-      <c r="X122" s="83"/>
-      <c r="Y122" s="83"/>
-      <c r="Z122" s="83"/>
-      <c r="AA122" s="83"/>
-      <c r="AB122" s="83"/>
-      <c r="AC122" s="83"/>
-      <c r="AD122" s="83"/>
-      <c r="AE122" s="83"/>
-      <c r="AF122" s="84"/>
+      <c r="E122" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="K122" s="59"/>
+      <c r="L122" s="59"/>
+      <c r="M122" s="59"/>
+      <c r="N122" s="59"/>
+      <c r="O122" s="59"/>
+      <c r="P122" s="59"/>
+      <c r="Q122" s="59"/>
+      <c r="R122" s="59"/>
+      <c r="S122" s="59"/>
+      <c r="T122" s="59"/>
+      <c r="U122" s="59"/>
+      <c r="V122" s="59"/>
+      <c r="W122" s="59"/>
+      <c r="X122" s="59"/>
+      <c r="Y122" s="59"/>
+      <c r="Z122" s="59"/>
+      <c r="AA122" s="59"/>
+      <c r="AB122" s="59"/>
+      <c r="AC122" s="59"/>
+      <c r="AD122" s="59"/>
+      <c r="AE122" s="59"/>
+      <c r="AF122" s="60"/>
     </row>
     <row r="123" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D123" s="46"/>
-      <c r="E123" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="K123" s="80"/>
-      <c r="L123" s="80"/>
-      <c r="M123" s="80"/>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="80"/>
-      <c r="Q123" s="80"/>
-      <c r="R123" s="80"/>
-      <c r="S123" s="80"/>
-      <c r="T123" s="80"/>
-      <c r="U123" s="80"/>
-      <c r="V123" s="80"/>
-      <c r="W123" s="80"/>
-      <c r="X123" s="80"/>
-      <c r="Y123" s="80"/>
-      <c r="Z123" s="80"/>
-      <c r="AA123" s="80"/>
-      <c r="AB123" s="80"/>
-      <c r="AC123" s="80"/>
-      <c r="AD123" s="80"/>
-      <c r="AE123" s="80"/>
-      <c r="AF123" s="81"/>
-    </row>
-    <row r="124" spans="4:32" s="45" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D124" s="46"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="82"/>
-      <c r="K124" s="83"/>
-      <c r="L124" s="83"/>
-      <c r="M124" s="83"/>
-      <c r="N124" s="83"/>
-      <c r="O124" s="83"/>
-      <c r="P124" s="83"/>
-      <c r="Q124" s="83"/>
-      <c r="R124" s="83"/>
-      <c r="S124" s="83"/>
-      <c r="T124" s="83"/>
-      <c r="U124" s="83"/>
-      <c r="V124" s="83"/>
-      <c r="W124" s="83"/>
-      <c r="X124" s="83"/>
-      <c r="Y124" s="83"/>
-      <c r="Z124" s="83"/>
-      <c r="AA124" s="83"/>
-      <c r="AB124" s="83"/>
-      <c r="AC124" s="83"/>
-      <c r="AD124" s="83"/>
-      <c r="AE124" s="83"/>
-      <c r="AF124" s="84"/>
-    </row>
-    <row r="125" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E126" s="45" t="s">
+      <c r="E123" s="57"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="64"/>
+      <c r="K123" s="61"/>
+      <c r="L123" s="61"/>
+      <c r="M123" s="61"/>
+      <c r="N123" s="61"/>
+      <c r="O123" s="61"/>
+      <c r="P123" s="61"/>
+      <c r="Q123" s="61"/>
+      <c r="R123" s="61"/>
+      <c r="S123" s="61"/>
+      <c r="T123" s="61"/>
+      <c r="U123" s="61"/>
+      <c r="V123" s="61"/>
+      <c r="W123" s="61"/>
+      <c r="X123" s="61"/>
+      <c r="Y123" s="61"/>
+      <c r="Z123" s="61"/>
+      <c r="AA123" s="61"/>
+      <c r="AB123" s="61"/>
+      <c r="AC123" s="61"/>
+      <c r="AD123" s="61"/>
+      <c r="AE123" s="61"/>
+      <c r="AF123" s="62"/>
+    </row>
+    <row r="124" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E125" s="45" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="127" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E127" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="128" spans="4:32" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="129" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E129" s="31" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E130" s="46" t="str">
+        <f>$D$111&amp;"1."</f>
+        <v>7.13.3.1.</v>
+      </c>
+      <c r="F130" s="45" t="s">
+        <v>244</v>
+      </c>
+    </row>
     <row r="131" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E131" s="46" t="str">
-        <f>$D$112&amp;"1."</f>
-        <v>7.13.3.1.</v>
-      </c>
-      <c r="F131" s="45" t="s">
-        <v>244</v>
+      <c r="E131" s="46"/>
+      <c r="F131" s="30" t="str">
+        <f>$E$130&amp;"1."</f>
+        <v>7.13.3.1.1.</v>
+      </c>
+      <c r="G131" s="45" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E132" s="46"/>
-      <c r="F132" s="30" t="str">
-        <f>$E$131&amp;"1."</f>
-        <v>7.13.3.1.1.</v>
-      </c>
-      <c r="G132" s="45" t="s">
-        <v>236</v>
-      </c>
+      <c r="G132" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="24"/>
+      <c r="O132" s="24"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="24"/>
+      <c r="R132" s="24"/>
+      <c r="S132" s="24"/>
+      <c r="T132" s="24"/>
+      <c r="U132" s="24"/>
+      <c r="V132" s="24"/>
+      <c r="W132" s="24"/>
+      <c r="X132" s="24"/>
+      <c r="Y132" s="24"/>
+      <c r="Z132" s="24"/>
+      <c r="AA132" s="24"/>
+      <c r="AB132" s="24"/>
+      <c r="AC132" s="24"/>
+      <c r="AD132" s="24"/>
+      <c r="AE132" s="24"/>
+      <c r="AF132" s="24"/>
+      <c r="AG132" s="24"/>
+      <c r="AH132" s="25"/>
     </row>
     <row r="133" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G133" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="24"/>
-      <c r="N133" s="24"/>
-      <c r="O133" s="24"/>
-      <c r="P133" s="24"/>
-      <c r="Q133" s="24"/>
-      <c r="R133" s="24"/>
-      <c r="S133" s="24"/>
-      <c r="T133" s="24"/>
-      <c r="U133" s="24"/>
-      <c r="V133" s="24"/>
-      <c r="W133" s="24"/>
-      <c r="X133" s="24"/>
-      <c r="Y133" s="24"/>
-      <c r="Z133" s="24"/>
-      <c r="AA133" s="24"/>
-      <c r="AB133" s="24"/>
-      <c r="AC133" s="24"/>
-      <c r="AD133" s="24"/>
-      <c r="AE133" s="24"/>
-      <c r="AF133" s="24"/>
-      <c r="AG133" s="24"/>
-      <c r="AH133" s="25"/>
+      <c r="G133" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH133" s="20"/>
     </row>
     <row r="134" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G134" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH134" s="20"/>
+      <c r="G134" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
+      <c r="L134" s="41"/>
+      <c r="M134" s="41"/>
+      <c r="N134" s="41"/>
+      <c r="O134" s="41"/>
+      <c r="P134" s="41"/>
+      <c r="Q134" s="41"/>
+      <c r="R134" s="41"/>
+      <c r="S134" s="41"/>
+      <c r="T134" s="41"/>
+      <c r="U134" s="41"/>
+      <c r="V134" s="41"/>
+      <c r="W134" s="41"/>
+      <c r="X134" s="41"/>
+      <c r="Y134" s="41"/>
+      <c r="Z134" s="41"/>
+      <c r="AA134" s="41"/>
+      <c r="AB134" s="41"/>
+      <c r="AC134" s="41"/>
+      <c r="AD134" s="41"/>
+      <c r="AE134" s="41"/>
+      <c r="AF134" s="41"/>
+      <c r="AG134" s="41"/>
+      <c r="AH134" s="42"/>
     </row>
     <row r="135" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G135" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
-      <c r="K135" s="41"/>
-      <c r="L135" s="41"/>
-      <c r="M135" s="41"/>
-      <c r="N135" s="41"/>
-      <c r="O135" s="41"/>
-      <c r="P135" s="41"/>
-      <c r="Q135" s="41"/>
-      <c r="R135" s="41"/>
-      <c r="S135" s="41"/>
-      <c r="T135" s="41"/>
-      <c r="U135" s="41"/>
-      <c r="V135" s="41"/>
-      <c r="W135" s="41"/>
-      <c r="X135" s="41"/>
-      <c r="Y135" s="41"/>
-      <c r="Z135" s="41"/>
-      <c r="AA135" s="41"/>
-      <c r="AB135" s="41"/>
-      <c r="AC135" s="41"/>
-      <c r="AD135" s="41"/>
-      <c r="AE135" s="41"/>
-      <c r="AF135" s="41"/>
-      <c r="AG135" s="41"/>
-      <c r="AH135" s="42"/>
+      <c r="G135" s="36" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="136" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G136" s="36" t="s">
-        <v>234</v>
+      <c r="G136" s="45" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G137" s="45" t="s">
-        <v>249</v>
+      <c r="G137" s="36" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G138" s="36" t="s">
-        <v>250</v>
-      </c>
+      <c r="D138" s="46"/>
+      <c r="E138" s="31"/>
     </row>
     <row r="139" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D139" s="46"/>
-      <c r="E139" s="31"/>
+      <c r="E139" s="46" t="str">
+        <f>$D$111&amp;"2."</f>
+        <v>7.13.3.2.</v>
+      </c>
+      <c r="F139" s="45" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="140" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="46" t="str">
-        <f>$D$112&amp;"2."</f>
-        <v>7.13.3.2.</v>
-      </c>
-      <c r="F140" s="45" t="s">
-        <v>245</v>
+      <c r="E140" s="46"/>
+      <c r="F140" s="30" t="str">
+        <f>$E$139&amp;"1."</f>
+        <v>7.13.3.2.1.</v>
+      </c>
+      <c r="G140" s="45" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="46"/>
-      <c r="F141" s="30" t="str">
-        <f>$E$140&amp;"1."</f>
-        <v>7.13.3.2.1.</v>
-      </c>
-      <c r="G141" s="45" t="s">
-        <v>235</v>
-      </c>
+      <c r="E141" s="30"/>
+      <c r="G141" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
+      <c r="M141" s="24"/>
+      <c r="N141" s="24"/>
+      <c r="O141" s="24"/>
+      <c r="P141" s="24"/>
+      <c r="Q141" s="24"/>
+      <c r="R141" s="24"/>
+      <c r="S141" s="24"/>
+      <c r="T141" s="24"/>
+      <c r="U141" s="24"/>
+      <c r="V141" s="24"/>
+      <c r="W141" s="24"/>
+      <c r="X141" s="24"/>
+      <c r="Y141" s="24"/>
+      <c r="Z141" s="24"/>
+      <c r="AA141" s="24"/>
+      <c r="AB141" s="24"/>
+      <c r="AC141" s="24"/>
+      <c r="AD141" s="24"/>
+      <c r="AE141" s="24"/>
+      <c r="AF141" s="24"/>
+      <c r="AG141" s="24"/>
+      <c r="AH141" s="25"/>
     </row>
     <row r="142" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="30"/>
-      <c r="G142" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="H142" s="24"/>
-      <c r="I142" s="24"/>
-      <c r="J142" s="24"/>
-      <c r="K142" s="24"/>
-      <c r="L142" s="24"/>
-      <c r="M142" s="24"/>
-      <c r="N142" s="24"/>
-      <c r="O142" s="24"/>
-      <c r="P142" s="24"/>
-      <c r="Q142" s="24"/>
-      <c r="R142" s="24"/>
-      <c r="S142" s="24"/>
-      <c r="T142" s="24"/>
-      <c r="U142" s="24"/>
-      <c r="V142" s="24"/>
-      <c r="W142" s="24"/>
-      <c r="X142" s="24"/>
-      <c r="Y142" s="24"/>
-      <c r="Z142" s="24"/>
-      <c r="AA142" s="24"/>
-      <c r="AB142" s="24"/>
-      <c r="AC142" s="24"/>
-      <c r="AD142" s="24"/>
-      <c r="AE142" s="24"/>
-      <c r="AF142" s="24"/>
-      <c r="AG142" s="24"/>
-      <c r="AH142" s="25"/>
+      <c r="G142" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH142" s="20"/>
     </row>
     <row r="143" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="30"/>
       <c r="G143" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AH143" s="20"/>
     </row>
     <row r="144" spans="4:34" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="30"/>
       <c r="G144" s="18" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AH144" s="20"/>
     </row>
     <row r="145" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="30"/>
       <c r="G145" s="18" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AH145" s="20"/>
     </row>
     <row r="146" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="30"/>
       <c r="G146" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AH146" s="20"/>
     </row>
     <row r="147" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="30"/>
-      <c r="G147" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH147" s="20"/>
+      <c r="G147" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
+      <c r="K147" s="41"/>
+      <c r="L147" s="41"/>
+      <c r="M147" s="41"/>
+      <c r="N147" s="41"/>
+      <c r="O147" s="41"/>
+      <c r="P147" s="41"/>
+      <c r="Q147" s="41"/>
+      <c r="R147" s="41"/>
+      <c r="S147" s="41"/>
+      <c r="T147" s="41"/>
+      <c r="U147" s="41"/>
+      <c r="V147" s="41"/>
+      <c r="W147" s="41"/>
+      <c r="X147" s="41"/>
+      <c r="Y147" s="41"/>
+      <c r="Z147" s="41"/>
+      <c r="AA147" s="41"/>
+      <c r="AB147" s="41"/>
+      <c r="AC147" s="41"/>
+      <c r="AD147" s="41"/>
+      <c r="AE147" s="41"/>
+      <c r="AF147" s="41"/>
+      <c r="AG147" s="41"/>
+      <c r="AH147" s="42"/>
     </row>
     <row r="148" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="30"/>
-      <c r="G148" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41"/>
-      <c r="J148" s="41"/>
-      <c r="K148" s="41"/>
-      <c r="L148" s="41"/>
-      <c r="M148" s="41"/>
-      <c r="N148" s="41"/>
-      <c r="O148" s="41"/>
-      <c r="P148" s="41"/>
-      <c r="Q148" s="41"/>
-      <c r="R148" s="41"/>
-      <c r="S148" s="41"/>
-      <c r="T148" s="41"/>
-      <c r="U148" s="41"/>
-      <c r="V148" s="41"/>
-      <c r="W148" s="41"/>
-      <c r="X148" s="41"/>
-      <c r="Y148" s="41"/>
-      <c r="Z148" s="41"/>
-      <c r="AA148" s="41"/>
-      <c r="AB148" s="41"/>
-      <c r="AC148" s="41"/>
-      <c r="AD148" s="41"/>
-      <c r="AE148" s="41"/>
-      <c r="AF148" s="41"/>
-      <c r="AG148" s="41"/>
-      <c r="AH148" s="42"/>
+      <c r="G148" s="36" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="149" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G149" s="36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="150" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G150" s="45" t="s">
+      <c r="G149" s="45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="151" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="46" t="str">
+    <row r="150" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="46" t="str">
         <f>$C$7&amp;"4."</f>
         <v>7.13.4.</v>
       </c>
-      <c r="E152" s="31" t="s">
+      <c r="E151" s="31" t="s">
         <v>218</v>
       </c>
     </row>
+    <row r="152" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E152" s="30" t="str">
+        <f>$D$151&amp;"1."</f>
+        <v>7.13.4.1.</v>
+      </c>
+      <c r="F152" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
     <row r="153" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E153" s="30" t="str">
-        <f>$D$152&amp;"1."</f>
-        <v>7.13.4.1.</v>
-      </c>
-      <c r="F153" s="31" t="s">
-        <v>221</v>
+      <c r="E153" s="30"/>
+      <c r="F153" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E154" s="30"/>
-      <c r="F154" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="45" t="s">
-        <v>103</v>
-      </c>
+      <c r="F154" s="31"/>
+      <c r="G154" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H154" s="28"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="K154" s="28"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="N154" s="28"/>
+      <c r="O154" s="28"/>
+      <c r="P154" s="28"/>
+      <c r="Q154" s="29"/>
+      <c r="R154" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="S154" s="28"/>
+      <c r="T154" s="28"/>
+      <c r="U154" s="28"/>
+      <c r="V154" s="28"/>
+      <c r="W154" s="28"/>
+      <c r="X154" s="28"/>
+      <c r="Y154" s="28"/>
+      <c r="Z154" s="28"/>
+      <c r="AA154" s="28"/>
+      <c r="AB154" s="28"/>
+      <c r="AC154" s="28"/>
+      <c r="AD154" s="28"/>
+      <c r="AE154" s="28"/>
+      <c r="AF154" s="28"/>
+      <c r="AG154" s="28"/>
+      <c r="AH154" s="28"/>
+      <c r="AI154" s="29"/>
     </row>
     <row r="155" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E155" s="30"/>
       <c r="F155" s="31"/>
-      <c r="G155" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H155" s="28"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="K155" s="28"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N155" s="28"/>
-      <c r="O155" s="28"/>
-      <c r="P155" s="28"/>
-      <c r="Q155" s="29"/>
-      <c r="R155" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="S155" s="28"/>
-      <c r="T155" s="28"/>
-      <c r="U155" s="28"/>
-      <c r="V155" s="28"/>
-      <c r="W155" s="28"/>
-      <c r="X155" s="28"/>
-      <c r="Y155" s="28"/>
-      <c r="Z155" s="28"/>
-      <c r="AA155" s="28"/>
-      <c r="AB155" s="28"/>
-      <c r="AC155" s="28"/>
-      <c r="AD155" s="28"/>
-      <c r="AE155" s="28"/>
-      <c r="AF155" s="28"/>
-      <c r="AG155" s="28"/>
-      <c r="AH155" s="28"/>
-      <c r="AI155" s="29"/>
+      <c r="G155" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H155" s="24"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K155" s="24"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="N155" s="24"/>
+      <c r="O155" s="24"/>
+      <c r="P155" s="24"/>
+      <c r="Q155" s="25"/>
+      <c r="R155" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="S155" s="24"/>
+      <c r="T155" s="24"/>
+      <c r="U155" s="24"/>
+      <c r="V155" s="24"/>
+      <c r="W155" s="24"/>
+      <c r="X155" s="24"/>
+      <c r="Y155" s="24"/>
+      <c r="Z155" s="24"/>
+      <c r="AA155" s="24"/>
+      <c r="AB155" s="24"/>
+      <c r="AC155" s="24"/>
+      <c r="AD155" s="24"/>
+      <c r="AE155" s="24"/>
+      <c r="AF155" s="24"/>
+      <c r="AG155" s="24"/>
+      <c r="AH155" s="24"/>
+      <c r="AI155" s="25"/>
     </row>
     <row r="156" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="30"/>
       <c r="F156" s="31"/>
-      <c r="G156" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H156" s="24"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="K156" s="24"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="N156" s="24"/>
-      <c r="O156" s="24"/>
-      <c r="P156" s="24"/>
-      <c r="Q156" s="25"/>
-      <c r="R156" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="S156" s="24"/>
-      <c r="T156" s="24"/>
-      <c r="U156" s="24"/>
-      <c r="V156" s="24"/>
-      <c r="W156" s="24"/>
-      <c r="X156" s="24"/>
-      <c r="Y156" s="24"/>
-      <c r="Z156" s="24"/>
-      <c r="AA156" s="24"/>
-      <c r="AB156" s="24"/>
-      <c r="AC156" s="24"/>
-      <c r="AD156" s="24"/>
-      <c r="AE156" s="24"/>
-      <c r="AF156" s="24"/>
-      <c r="AG156" s="24"/>
-      <c r="AH156" s="24"/>
-      <c r="AI156" s="25"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="41"/>
+      <c r="K156" s="41"/>
+      <c r="L156" s="42"/>
+      <c r="M156" s="41"/>
+      <c r="N156" s="41"/>
+      <c r="O156" s="41"/>
+      <c r="P156" s="41"/>
+      <c r="Q156" s="42"/>
+      <c r="R156" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="S156" s="41"/>
+      <c r="T156" s="41"/>
+      <c r="U156" s="41"/>
+      <c r="V156" s="41"/>
+      <c r="W156" s="41"/>
+      <c r="X156" s="41"/>
+      <c r="Y156" s="41"/>
+      <c r="Z156" s="41"/>
+      <c r="AA156" s="41"/>
+      <c r="AB156" s="41"/>
+      <c r="AC156" s="41"/>
+      <c r="AD156" s="41"/>
+      <c r="AE156" s="41"/>
+      <c r="AF156" s="41"/>
+      <c r="AG156" s="41"/>
+      <c r="AH156" s="41"/>
+      <c r="AI156" s="42"/>
     </row>
     <row r="157" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E157" s="30"/>
       <c r="F157" s="31"/>
-      <c r="G157" s="40"/>
-      <c r="H157" s="41"/>
-      <c r="I157" s="42"/>
-      <c r="J157" s="41"/>
-      <c r="K157" s="41"/>
-      <c r="L157" s="42"/>
-      <c r="M157" s="41"/>
-      <c r="N157" s="41"/>
-      <c r="O157" s="41"/>
-      <c r="P157" s="41"/>
-      <c r="Q157" s="42"/>
-      <c r="R157" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="S157" s="41"/>
-      <c r="T157" s="41"/>
-      <c r="U157" s="41"/>
-      <c r="V157" s="41"/>
-      <c r="W157" s="41"/>
-      <c r="X157" s="41"/>
-      <c r="Y157" s="41"/>
-      <c r="Z157" s="41"/>
-      <c r="AA157" s="41"/>
-      <c r="AB157" s="41"/>
-      <c r="AC157" s="41"/>
-      <c r="AD157" s="41"/>
-      <c r="AE157" s="41"/>
-      <c r="AF157" s="41"/>
-      <c r="AG157" s="41"/>
-      <c r="AH157" s="41"/>
-      <c r="AI157" s="42"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="19"/>
+      <c r="S157" s="19"/>
+      <c r="T157" s="19"/>
+      <c r="U157" s="19"/>
+      <c r="V157" s="19"/>
+      <c r="W157" s="19"/>
+      <c r="X157" s="19"/>
+      <c r="Y157" s="19"/>
+      <c r="Z157" s="19"/>
+      <c r="AA157" s="19"/>
+      <c r="AB157" s="19"/>
+      <c r="AC157" s="19"/>
+      <c r="AD157" s="19"/>
+      <c r="AE157" s="19"/>
+      <c r="AF157" s="19"/>
+      <c r="AG157" s="19"/>
+      <c r="AH157" s="19"/>
+      <c r="AI157" s="19"/>
     </row>
     <row r="158" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E158" s="30"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
-      <c r="O158" s="19"/>
-      <c r="P158" s="19"/>
-      <c r="Q158" s="19"/>
-      <c r="R158" s="19"/>
-      <c r="S158" s="19"/>
-      <c r="T158" s="19"/>
-      <c r="U158" s="19"/>
-      <c r="V158" s="19"/>
-      <c r="W158" s="19"/>
-      <c r="X158" s="19"/>
-      <c r="Y158" s="19"/>
-      <c r="Z158" s="19"/>
-      <c r="AA158" s="19"/>
-      <c r="AB158" s="19"/>
-      <c r="AC158" s="19"/>
-      <c r="AD158" s="19"/>
-      <c r="AE158" s="19"/>
-      <c r="AF158" s="19"/>
-      <c r="AG158" s="19"/>
-      <c r="AH158" s="19"/>
-      <c r="AI158" s="19"/>
+      <c r="F158" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G158" s="45" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="159" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E159" s="30"/>
-      <c r="F159" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G159" s="45" t="s">
-        <v>101</v>
+      <c r="F159" s="46"/>
+      <c r="G159" s="30" t="str">
+        <f>F158&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H159" s="45" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="30"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="30" t="str">
-        <f>F159&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H160" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="F160" s="30"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
+      <c r="N160" s="24"/>
+      <c r="O160" s="24"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="24"/>
+      <c r="R160" s="24"/>
+      <c r="S160" s="24"/>
+      <c r="T160" s="24"/>
+      <c r="U160" s="24"/>
+      <c r="V160" s="24"/>
+      <c r="W160" s="24"/>
+      <c r="X160" s="24"/>
+      <c r="Y160" s="24"/>
+      <c r="Z160" s="24"/>
+      <c r="AA160" s="24"/>
+      <c r="AB160" s="24"/>
+      <c r="AC160" s="24"/>
+      <c r="AD160" s="24"/>
+      <c r="AE160" s="24"/>
+      <c r="AF160" s="24"/>
+      <c r="AG160" s="24"/>
+      <c r="AH160" s="24"/>
+      <c r="AI160" s="25"/>
     </row>
     <row r="161" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E161" s="30"/>
       <c r="F161" s="30"/>
       <c r="G161" s="46"/>
-      <c r="H161" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="24"/>
-      <c r="M161" s="24"/>
-      <c r="N161" s="24"/>
-      <c r="O161" s="24"/>
-      <c r="P161" s="24"/>
-      <c r="Q161" s="24"/>
-      <c r="R161" s="24"/>
-      <c r="S161" s="24"/>
-      <c r="T161" s="24"/>
-      <c r="U161" s="24"/>
-      <c r="V161" s="24"/>
-      <c r="W161" s="24"/>
-      <c r="X161" s="24"/>
-      <c r="Y161" s="24"/>
-      <c r="Z161" s="24"/>
-      <c r="AA161" s="24"/>
-      <c r="AB161" s="24"/>
-      <c r="AC161" s="24"/>
-      <c r="AD161" s="24"/>
-      <c r="AE161" s="24"/>
-      <c r="AF161" s="24"/>
-      <c r="AG161" s="24"/>
-      <c r="AH161" s="24"/>
-      <c r="AI161" s="25"/>
+      <c r="H161" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41"/>
+      <c r="K161" s="41"/>
+      <c r="L161" s="41"/>
+      <c r="M161" s="41"/>
+      <c r="N161" s="41"/>
+      <c r="O161" s="41"/>
+      <c r="P161" s="41"/>
+      <c r="Q161" s="41"/>
+      <c r="R161" s="41"/>
+      <c r="S161" s="41"/>
+      <c r="T161" s="41"/>
+      <c r="U161" s="41"/>
+      <c r="V161" s="41"/>
+      <c r="W161" s="41"/>
+      <c r="X161" s="41"/>
+      <c r="Y161" s="41"/>
+      <c r="Z161" s="41"/>
+      <c r="AA161" s="41"/>
+      <c r="AB161" s="41"/>
+      <c r="AC161" s="41"/>
+      <c r="AD161" s="41"/>
+      <c r="AE161" s="41"/>
+      <c r="AF161" s="41"/>
+      <c r="AG161" s="41"/>
+      <c r="AH161" s="41"/>
+      <c r="AI161" s="42"/>
     </row>
     <row r="162" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="30"/>
       <c r="F162" s="30"/>
       <c r="G162" s="46"/>
-      <c r="H162" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="I162" s="41"/>
-      <c r="J162" s="41"/>
-      <c r="K162" s="41"/>
-      <c r="L162" s="41"/>
-      <c r="M162" s="41"/>
-      <c r="N162" s="41"/>
-      <c r="O162" s="41"/>
-      <c r="P162" s="41"/>
-      <c r="Q162" s="41"/>
-      <c r="R162" s="41"/>
-      <c r="S162" s="41"/>
-      <c r="T162" s="41"/>
-      <c r="U162" s="41"/>
-      <c r="V162" s="41"/>
-      <c r="W162" s="41"/>
-      <c r="X162" s="41"/>
-      <c r="Y162" s="41"/>
-      <c r="Z162" s="41"/>
-      <c r="AA162" s="41"/>
-      <c r="AB162" s="41"/>
-      <c r="AC162" s="41"/>
-      <c r="AD162" s="41"/>
-      <c r="AE162" s="41"/>
-      <c r="AF162" s="41"/>
-      <c r="AG162" s="41"/>
-      <c r="AH162" s="41"/>
-      <c r="AI162" s="42"/>
+      <c r="H162" s="45" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="163" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E163" s="30"/>
       <c r="F163" s="30"/>
       <c r="G163" s="46"/>
       <c r="H163" s="45" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
-      <c r="G164" s="46"/>
-      <c r="H164" s="45" t="s">
-        <v>73</v>
-      </c>
+      <c r="F164" s="46"/>
     </row>
     <row r="165" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E165" s="30"/>
       <c r="F165" s="46"/>
+      <c r="G165" s="30" t="str">
+        <f>F158&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H165" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="166" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E166" s="30"/>
       <c r="F166" s="46"/>
-      <c r="G166" s="30" t="str">
-        <f>F159&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H166" s="45" t="s">
-        <v>74</v>
-      </c>
+      <c r="G166" s="30"/>
+      <c r="H166" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I166" s="28"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M166" s="28"/>
+      <c r="N166" s="28"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q166" s="28"/>
+      <c r="R166" s="28"/>
+      <c r="S166" s="28"/>
+      <c r="T166" s="28"/>
+      <c r="U166" s="28"/>
+      <c r="V166" s="28"/>
+      <c r="W166" s="28"/>
+      <c r="X166" s="28"/>
+      <c r="Y166" s="28"/>
+      <c r="Z166" s="28"/>
+      <c r="AA166" s="28"/>
+      <c r="AB166" s="28"/>
+      <c r="AC166" s="28"/>
+      <c r="AD166" s="28"/>
+      <c r="AE166" s="28"/>
+      <c r="AF166" s="28"/>
+      <c r="AG166" s="28"/>
+      <c r="AH166" s="28"/>
+      <c r="AI166" s="29"/>
     </row>
     <row r="167" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E167" s="30"/>
       <c r="F167" s="46"/>
       <c r="G167" s="30"/>
-      <c r="H167" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="M167" s="28"/>
-      <c r="N167" s="28"/>
-      <c r="O167" s="29"/>
-      <c r="P167" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q167" s="28"/>
-      <c r="R167" s="28"/>
-      <c r="S167" s="28"/>
-      <c r="T167" s="28"/>
-      <c r="U167" s="28"/>
-      <c r="V167" s="28"/>
-      <c r="W167" s="28"/>
-      <c r="X167" s="28"/>
-      <c r="Y167" s="28"/>
-      <c r="Z167" s="28"/>
-      <c r="AA167" s="28"/>
-      <c r="AB167" s="28"/>
-      <c r="AC167" s="28"/>
-      <c r="AD167" s="28"/>
-      <c r="AE167" s="28"/>
-      <c r="AF167" s="28"/>
-      <c r="AG167" s="28"/>
-      <c r="AH167" s="28"/>
-      <c r="AI167" s="29"/>
+      <c r="H167" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="19"/>
+      <c r="S167" s="19"/>
+      <c r="T167" s="19"/>
+      <c r="U167" s="19"/>
+      <c r="V167" s="19"/>
+      <c r="W167" s="19"/>
+      <c r="X167" s="19"/>
+      <c r="Y167" s="19"/>
+      <c r="Z167" s="19"/>
+      <c r="AA167" s="19"/>
+      <c r="AB167" s="19"/>
+      <c r="AC167" s="19"/>
+      <c r="AD167" s="19"/>
+      <c r="AE167" s="19"/>
+      <c r="AF167" s="19"/>
+      <c r="AG167" s="19"/>
+      <c r="AH167" s="19"/>
+      <c r="AI167" s="20"/>
     </row>
     <row r="168" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="30"/>
       <c r="F168" s="46"/>
       <c r="G168" s="30"/>
-      <c r="H168" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="20"/>
-      <c r="P168" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q168" s="19"/>
-      <c r="R168" s="19"/>
-      <c r="S168" s="19"/>
-      <c r="T168" s="19"/>
-      <c r="U168" s="19"/>
-      <c r="V168" s="19"/>
-      <c r="W168" s="19"/>
-      <c r="X168" s="19"/>
-      <c r="Y168" s="19"/>
-      <c r="Z168" s="19"/>
-      <c r="AA168" s="19"/>
-      <c r="AB168" s="19"/>
-      <c r="AC168" s="19"/>
-      <c r="AD168" s="19"/>
-      <c r="AE168" s="19"/>
-      <c r="AF168" s="19"/>
-      <c r="AG168" s="19"/>
-      <c r="AH168" s="19"/>
-      <c r="AI168" s="20"/>
+      <c r="H168" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" s="43"/>
+      <c r="J168" s="43"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M168" s="43"/>
+      <c r="N168" s="43"/>
+      <c r="O168" s="44"/>
+      <c r="P168" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q168" s="43"/>
+      <c r="R168" s="43"/>
+      <c r="S168" s="43"/>
+      <c r="T168" s="43"/>
+      <c r="U168" s="43"/>
+      <c r="V168" s="43"/>
+      <c r="W168" s="43"/>
+      <c r="X168" s="43"/>
+      <c r="Y168" s="43"/>
+      <c r="Z168" s="43"/>
+      <c r="AA168" s="43"/>
+      <c r="AB168" s="43"/>
+      <c r="AC168" s="43"/>
+      <c r="AD168" s="43"/>
+      <c r="AE168" s="43"/>
+      <c r="AF168" s="43"/>
+      <c r="AG168" s="43"/>
+      <c r="AH168" s="43"/>
+      <c r="AI168" s="44"/>
     </row>
     <row r="169" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E169" s="30"/>
       <c r="F169" s="46"/>
       <c r="G169" s="30"/>
-      <c r="H169" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I169" s="43"/>
-      <c r="J169" s="43"/>
-      <c r="K169" s="43"/>
-      <c r="L169" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="M169" s="43"/>
-      <c r="N169" s="43"/>
-      <c r="O169" s="44"/>
-      <c r="P169" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q169" s="43"/>
-      <c r="R169" s="43"/>
-      <c r="S169" s="43"/>
-      <c r="T169" s="43"/>
-      <c r="U169" s="43"/>
-      <c r="V169" s="43"/>
-      <c r="W169" s="43"/>
-      <c r="X169" s="43"/>
-      <c r="Y169" s="43"/>
-      <c r="Z169" s="43"/>
-      <c r="AA169" s="43"/>
-      <c r="AB169" s="43"/>
-      <c r="AC169" s="43"/>
-      <c r="AD169" s="43"/>
-      <c r="AE169" s="43"/>
-      <c r="AF169" s="43"/>
-      <c r="AG169" s="43"/>
-      <c r="AH169" s="43"/>
-      <c r="AI169" s="44"/>
+      <c r="H169" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="20"/>
+      <c r="P169" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="19"/>
+      <c r="S169" s="19"/>
+      <c r="T169" s="19"/>
+      <c r="U169" s="19"/>
+      <c r="V169" s="19"/>
+      <c r="W169" s="19"/>
+      <c r="X169" s="19"/>
+      <c r="Y169" s="19"/>
+      <c r="Z169" s="19"/>
+      <c r="AA169" s="19"/>
+      <c r="AB169" s="19"/>
+      <c r="AC169" s="19"/>
+      <c r="AD169" s="19"/>
+      <c r="AE169" s="19"/>
+      <c r="AF169" s="19"/>
+      <c r="AG169" s="19"/>
+      <c r="AH169" s="19"/>
+      <c r="AI169" s="20"/>
     </row>
     <row r="170" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E170" s="30"/>
       <c r="F170" s="46"/>
       <c r="G170" s="30"/>
-      <c r="H170" s="18" t="s">
-        <v>82</v>
-      </c>
+      <c r="H170" s="18"/>
       <c r="I170" s="19"/>
       <c r="J170" s="19"/>
       <c r="K170" s="19"/>
-      <c r="L170" s="18" t="s">
-        <v>83</v>
-      </c>
+      <c r="L170" s="18"/>
       <c r="M170" s="19"/>
       <c r="N170" s="19"/>
       <c r="O170" s="20"/>
       <c r="P170" s="19" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="Q170" s="19"/>
       <c r="R170" s="19"/>
@@ -6372,51 +6377,55 @@
       <c r="E171" s="30"/>
       <c r="F171" s="46"/>
       <c r="G171" s="30"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="19"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="19"/>
-      <c r="N171" s="19"/>
-      <c r="O171" s="20"/>
-      <c r="P171" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q171" s="19"/>
-      <c r="R171" s="19"/>
-      <c r="S171" s="19"/>
-      <c r="T171" s="19"/>
-      <c r="U171" s="19"/>
-      <c r="V171" s="19"/>
-      <c r="W171" s="19"/>
-      <c r="X171" s="19"/>
-      <c r="Y171" s="19"/>
-      <c r="Z171" s="19"/>
-      <c r="AA171" s="19"/>
-      <c r="AB171" s="19"/>
-      <c r="AC171" s="19"/>
-      <c r="AD171" s="19"/>
-      <c r="AE171" s="19"/>
-      <c r="AF171" s="19"/>
-      <c r="AG171" s="19"/>
-      <c r="AH171" s="19"/>
-      <c r="AI171" s="20"/>
+      <c r="H171" s="40"/>
+      <c r="I171" s="41"/>
+      <c r="J171" s="41"/>
+      <c r="K171" s="41"/>
+      <c r="L171" s="40"/>
+      <c r="M171" s="41"/>
+      <c r="N171" s="41"/>
+      <c r="O171" s="42"/>
+      <c r="P171" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q171" s="41"/>
+      <c r="R171" s="41"/>
+      <c r="S171" s="41"/>
+      <c r="T171" s="41"/>
+      <c r="U171" s="41"/>
+      <c r="V171" s="41"/>
+      <c r="W171" s="41"/>
+      <c r="X171" s="41"/>
+      <c r="Y171" s="41"/>
+      <c r="Z171" s="41"/>
+      <c r="AA171" s="41"/>
+      <c r="AB171" s="41"/>
+      <c r="AC171" s="41"/>
+      <c r="AD171" s="41"/>
+      <c r="AE171" s="41"/>
+      <c r="AF171" s="41"/>
+      <c r="AG171" s="41"/>
+      <c r="AH171" s="41"/>
+      <c r="AI171" s="42"/>
     </row>
     <row r="172" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E172" s="30"/>
       <c r="F172" s="46"/>
       <c r="G172" s="30"/>
-      <c r="H172" s="40"/>
+      <c r="H172" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="I172" s="41"/>
       <c r="J172" s="41"/>
       <c r="K172" s="41"/>
-      <c r="L172" s="40"/>
+      <c r="L172" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="M172" s="41"/>
       <c r="N172" s="41"/>
       <c r="O172" s="42"/>
       <c r="P172" s="41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q172" s="41"/>
       <c r="R172" s="41"/>
@@ -6442,59 +6451,55 @@
       <c r="E173" s="30"/>
       <c r="F173" s="46"/>
       <c r="G173" s="30"/>
-      <c r="H173" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="I173" s="41"/>
-      <c r="J173" s="41"/>
-      <c r="K173" s="41"/>
-      <c r="L173" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="M173" s="41"/>
-      <c r="N173" s="41"/>
-      <c r="O173" s="42"/>
-      <c r="P173" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q173" s="41"/>
-      <c r="R173" s="41"/>
-      <c r="S173" s="41"/>
-      <c r="T173" s="41"/>
-      <c r="U173" s="41"/>
-      <c r="V173" s="41"/>
-      <c r="W173" s="41"/>
-      <c r="X173" s="41"/>
-      <c r="Y173" s="41"/>
-      <c r="Z173" s="41"/>
-      <c r="AA173" s="41"/>
-      <c r="AB173" s="41"/>
-      <c r="AC173" s="41"/>
-      <c r="AD173" s="41"/>
-      <c r="AE173" s="41"/>
-      <c r="AF173" s="41"/>
-      <c r="AG173" s="41"/>
-      <c r="AH173" s="41"/>
-      <c r="AI173" s="42"/>
+      <c r="H173" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="20"/>
+      <c r="P173" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="19"/>
+      <c r="S173" s="19"/>
+      <c r="T173" s="19"/>
+      <c r="U173" s="19"/>
+      <c r="V173" s="19"/>
+      <c r="W173" s="19"/>
+      <c r="X173" s="19"/>
+      <c r="Y173" s="19"/>
+      <c r="Z173" s="19"/>
+      <c r="AA173" s="19"/>
+      <c r="AB173" s="19"/>
+      <c r="AC173" s="19"/>
+      <c r="AD173" s="19"/>
+      <c r="AE173" s="19"/>
+      <c r="AF173" s="19"/>
+      <c r="AG173" s="19"/>
+      <c r="AH173" s="19"/>
+      <c r="AI173" s="20"/>
     </row>
     <row r="174" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E174" s="30"/>
       <c r="F174" s="46"/>
       <c r="G174" s="30"/>
-      <c r="H174" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="H174" s="18"/>
       <c r="I174" s="19"/>
       <c r="J174" s="19"/>
       <c r="K174" s="19"/>
-      <c r="L174" s="18" t="s">
-        <v>89</v>
-      </c>
+      <c r="L174" s="18"/>
       <c r="M174" s="19"/>
       <c r="N174" s="19"/>
       <c r="O174" s="20"/>
       <c r="P174" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q174" s="19"/>
       <c r="R174" s="19"/>
@@ -6528,17 +6533,19 @@
       <c r="M175" s="19"/>
       <c r="N175" s="19"/>
       <c r="O175" s="20"/>
-      <c r="P175" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q175" s="19"/>
-      <c r="R175" s="19"/>
-      <c r="S175" s="19"/>
-      <c r="T175" s="19"/>
-      <c r="U175" s="19"/>
-      <c r="V175" s="19"/>
-      <c r="W175" s="19"/>
-      <c r="X175" s="19"/>
+      <c r="P175" s="19"/>
+      <c r="Q175" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R175" s="28"/>
+      <c r="S175" s="28"/>
+      <c r="T175" s="28"/>
+      <c r="U175" s="29"/>
+      <c r="V175" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W175" s="28"/>
+      <c r="X175" s="29"/>
       <c r="Y175" s="19"/>
       <c r="Z175" s="19"/>
       <c r="AA175" s="19"/>
@@ -6564,18 +6571,18 @@
       <c r="N176" s="19"/>
       <c r="O176" s="20"/>
       <c r="P176" s="19"/>
-      <c r="Q176" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="R176" s="28"/>
-      <c r="S176" s="28"/>
-      <c r="T176" s="28"/>
-      <c r="U176" s="29"/>
-      <c r="V176" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="W176" s="28"/>
-      <c r="X176" s="29"/>
+      <c r="Q176" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="R176" s="43"/>
+      <c r="S176" s="43"/>
+      <c r="T176" s="43"/>
+      <c r="U176" s="44"/>
+      <c r="V176" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="W176" s="43"/>
+      <c r="X176" s="44"/>
       <c r="Y176" s="19"/>
       <c r="Z176" s="19"/>
       <c r="AA176" s="19"/>
@@ -6591,7 +6598,6 @@
     <row r="177" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E177" s="30"/>
       <c r="F177" s="46"/>
-      <c r="G177" s="30"/>
       <c r="H177" s="18"/>
       <c r="I177" s="19"/>
       <c r="J177" s="19"/>
@@ -6601,18 +6607,18 @@
       <c r="N177" s="19"/>
       <c r="O177" s="20"/>
       <c r="P177" s="19"/>
-      <c r="Q177" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="R177" s="43"/>
-      <c r="S177" s="43"/>
-      <c r="T177" s="43"/>
-      <c r="U177" s="44"/>
-      <c r="V177" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="W177" s="43"/>
-      <c r="X177" s="44"/>
+      <c r="Q177" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="R177" s="41"/>
+      <c r="S177" s="41"/>
+      <c r="T177" s="41"/>
+      <c r="U177" s="42"/>
+      <c r="V177" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="W177" s="41"/>
+      <c r="X177" s="42"/>
       <c r="Y177" s="19"/>
       <c r="Z177" s="19"/>
       <c r="AA177" s="19"/>
@@ -6628,51 +6634,53 @@
     <row r="178" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E178" s="30"/>
       <c r="F178" s="46"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="20"/>
-      <c r="P178" s="19"/>
-      <c r="Q178" s="40" t="s">
-        <v>206</v>
-      </c>
+      <c r="H178" s="40"/>
+      <c r="I178" s="41"/>
+      <c r="J178" s="41"/>
+      <c r="K178" s="41"/>
+      <c r="L178" s="40"/>
+      <c r="M178" s="41"/>
+      <c r="N178" s="41"/>
+      <c r="O178" s="42"/>
+      <c r="P178" s="41"/>
+      <c r="Q178" s="41"/>
       <c r="R178" s="41"/>
       <c r="S178" s="41"/>
       <c r="T178" s="41"/>
-      <c r="U178" s="42"/>
-      <c r="V178" s="41" t="s">
-        <v>131</v>
-      </c>
+      <c r="U178" s="41"/>
+      <c r="V178" s="41"/>
       <c r="W178" s="41"/>
-      <c r="X178" s="42"/>
-      <c r="Y178" s="19"/>
-      <c r="Z178" s="19"/>
-      <c r="AA178" s="19"/>
-      <c r="AB178" s="19"/>
-      <c r="AC178" s="19"/>
-      <c r="AD178" s="19"/>
-      <c r="AE178" s="19"/>
-      <c r="AF178" s="19"/>
-      <c r="AG178" s="19"/>
-      <c r="AH178" s="19"/>
-      <c r="AI178" s="20"/>
+      <c r="X178" s="41"/>
+      <c r="Y178" s="41"/>
+      <c r="Z178" s="41"/>
+      <c r="AA178" s="41"/>
+      <c r="AB178" s="41"/>
+      <c r="AC178" s="41"/>
+      <c r="AD178" s="41"/>
+      <c r="AE178" s="41"/>
+      <c r="AF178" s="41"/>
+      <c r="AG178" s="41"/>
+      <c r="AH178" s="41"/>
+      <c r="AI178" s="42"/>
     </row>
     <row r="179" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E179" s="30"/>
       <c r="F179" s="46"/>
-      <c r="H179" s="40"/>
+      <c r="H179" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="I179" s="41"/>
       <c r="J179" s="41"/>
       <c r="K179" s="41"/>
-      <c r="L179" s="40"/>
+      <c r="L179" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="M179" s="41"/>
       <c r="N179" s="41"/>
       <c r="O179" s="42"/>
-      <c r="P179" s="41"/>
+      <c r="P179" s="41" t="s">
+        <v>100</v>
+      </c>
       <c r="Q179" s="41"/>
       <c r="R179" s="41"/>
       <c r="S179" s="41"/>
@@ -6695,21 +6703,21 @@
     </row>
     <row r="180" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E180" s="30"/>
-      <c r="F180" s="46"/>
+      <c r="F180" s="31"/>
       <c r="H180" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I180" s="41"/>
       <c r="J180" s="41"/>
       <c r="K180" s="41"/>
       <c r="L180" s="40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M180" s="41"/>
       <c r="N180" s="41"/>
       <c r="O180" s="42"/>
       <c r="P180" s="41" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="Q180" s="41"/>
       <c r="R180" s="41"/>
@@ -6733,163 +6741,160 @@
     </row>
     <row r="181" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E181" s="30"/>
-      <c r="F181" s="31"/>
-      <c r="H181" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="I181" s="41"/>
-      <c r="J181" s="41"/>
-      <c r="K181" s="41"/>
-      <c r="L181" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M181" s="41"/>
-      <c r="N181" s="41"/>
-      <c r="O181" s="42"/>
-      <c r="P181" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q181" s="41"/>
-      <c r="R181" s="41"/>
-      <c r="S181" s="41"/>
-      <c r="T181" s="41"/>
-      <c r="U181" s="41"/>
-      <c r="V181" s="41"/>
-      <c r="W181" s="41"/>
-      <c r="X181" s="41"/>
-      <c r="Y181" s="41"/>
-      <c r="Z181" s="41"/>
-      <c r="AA181" s="41"/>
-      <c r="AB181" s="41"/>
-      <c r="AC181" s="41"/>
-      <c r="AD181" s="41"/>
-      <c r="AE181" s="41"/>
-      <c r="AF181" s="41"/>
-      <c r="AG181" s="41"/>
-      <c r="AH181" s="41"/>
-      <c r="AI181" s="42"/>
+      <c r="H181" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I181" s="24"/>
+      <c r="J181" s="24"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M181" s="24"/>
+      <c r="N181" s="24"/>
+      <c r="O181" s="24"/>
+      <c r="P181" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q181" s="24"/>
+      <c r="R181" s="24"/>
+      <c r="S181" s="24"/>
+      <c r="T181" s="24"/>
+      <c r="U181" s="24"/>
+      <c r="V181" s="24"/>
+      <c r="W181" s="24"/>
+      <c r="X181" s="24"/>
+      <c r="Y181" s="24"/>
+      <c r="Z181" s="24"/>
+      <c r="AA181" s="24"/>
+      <c r="AB181" s="24"/>
+      <c r="AC181" s="24"/>
+      <c r="AD181" s="24"/>
+      <c r="AE181" s="24"/>
+      <c r="AF181" s="24"/>
+      <c r="AG181" s="24"/>
+      <c r="AH181" s="24"/>
+      <c r="AI181" s="25"/>
     </row>
     <row r="182" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E182" s="30"/>
-      <c r="H182" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I182" s="24"/>
-      <c r="J182" s="24"/>
-      <c r="K182" s="24"/>
-      <c r="L182" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="M182" s="24"/>
-      <c r="N182" s="24"/>
-      <c r="O182" s="24"/>
-      <c r="P182" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q182" s="24"/>
-      <c r="R182" s="24"/>
-      <c r="S182" s="24"/>
-      <c r="T182" s="24"/>
-      <c r="U182" s="24"/>
-      <c r="V182" s="24"/>
-      <c r="W182" s="24"/>
-      <c r="X182" s="24"/>
-      <c r="Y182" s="24"/>
-      <c r="Z182" s="24"/>
-      <c r="AA182" s="24"/>
-      <c r="AB182" s="24"/>
-      <c r="AC182" s="24"/>
-      <c r="AD182" s="24"/>
-      <c r="AE182" s="24"/>
-      <c r="AF182" s="24"/>
-      <c r="AG182" s="24"/>
-      <c r="AH182" s="24"/>
-      <c r="AI182" s="25"/>
-    </row>
-    <row r="183" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E183" s="30"/>
-      <c r="H183" s="40"/>
-      <c r="I183" s="41"/>
-      <c r="J183" s="41"/>
-      <c r="K183" s="41"/>
-      <c r="L183" s="40"/>
-      <c r="M183" s="41"/>
-      <c r="N183" s="41"/>
-      <c r="O183" s="41"/>
-      <c r="P183" s="40" t="str">
-        <f>"フォーマットは"&amp;$D$112&amp;$E$112&amp;"参照。"</f>
+      <c r="H182" s="40"/>
+      <c r="I182" s="41"/>
+      <c r="J182" s="41"/>
+      <c r="K182" s="41"/>
+      <c r="L182" s="40"/>
+      <c r="M182" s="41"/>
+      <c r="N182" s="41"/>
+      <c r="O182" s="41"/>
+      <c r="P182" s="40" t="str">
+        <f>"フォーマットは"&amp;$D$111&amp;$E$111&amp;"参照。"</f>
         <v>フォーマットは7.13.3.ログの種類ごとのフォーマット参照。</v>
       </c>
-      <c r="Q183" s="41"/>
-      <c r="R183" s="41"/>
-      <c r="S183" s="41"/>
-      <c r="T183" s="41"/>
-      <c r="U183" s="41"/>
-      <c r="V183" s="41"/>
-      <c r="W183" s="41"/>
-      <c r="X183" s="41"/>
-      <c r="Y183" s="41"/>
-      <c r="Z183" s="41"/>
-      <c r="AA183" s="41"/>
-      <c r="AB183" s="41"/>
-      <c r="AC183" s="41"/>
-      <c r="AD183" s="41"/>
-      <c r="AE183" s="41"/>
-      <c r="AF183" s="41"/>
-      <c r="AG183" s="41"/>
-      <c r="AH183" s="41"/>
-      <c r="AI183" s="42"/>
-    </row>
-    <row r="184" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="Q182" s="41"/>
+      <c r="R182" s="41"/>
+      <c r="S182" s="41"/>
+      <c r="T182" s="41"/>
+      <c r="U182" s="41"/>
+      <c r="V182" s="41"/>
+      <c r="W182" s="41"/>
+      <c r="X182" s="41"/>
+      <c r="Y182" s="41"/>
+      <c r="Z182" s="41"/>
+      <c r="AA182" s="41"/>
+      <c r="AB182" s="41"/>
+      <c r="AC182" s="41"/>
+      <c r="AD182" s="41"/>
+      <c r="AE182" s="41"/>
+      <c r="AF182" s="41"/>
+      <c r="AG182" s="41"/>
+      <c r="AH182" s="41"/>
+      <c r="AI182" s="42"/>
+    </row>
+    <row r="183" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E184" s="30"/>
+      <c r="F184" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="45" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="185" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E185" s="30"/>
-      <c r="F185" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" s="45" t="s">
-        <v>16</v>
-      </c>
+      <c r="F185" s="46"/>
+      <c r="G185" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H185" s="24"/>
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="24"/>
+      <c r="N185" s="24"/>
+      <c r="O185" s="24"/>
+      <c r="P185" s="24"/>
+      <c r="Q185" s="24"/>
+      <c r="R185" s="24"/>
+      <c r="S185" s="24"/>
+      <c r="T185" s="24"/>
+      <c r="U185" s="24"/>
+      <c r="V185" s="24"/>
+      <c r="W185" s="24"/>
+      <c r="X185" s="24"/>
+      <c r="Y185" s="24"/>
+      <c r="Z185" s="24"/>
+      <c r="AA185" s="24"/>
+      <c r="AB185" s="24"/>
+      <c r="AC185" s="24"/>
+      <c r="AD185" s="24"/>
+      <c r="AE185" s="24"/>
+      <c r="AF185" s="24"/>
+      <c r="AG185" s="24"/>
+      <c r="AH185" s="24"/>
+      <c r="AI185" s="25"/>
     </row>
     <row r="186" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E186" s="30"/>
       <c r="F186" s="46"/>
-      <c r="G186" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H186" s="24"/>
-      <c r="I186" s="24"/>
-      <c r="J186" s="24"/>
-      <c r="K186" s="24"/>
-      <c r="L186" s="24"/>
-      <c r="M186" s="24"/>
-      <c r="N186" s="24"/>
-      <c r="O186" s="24"/>
-      <c r="P186" s="24"/>
-      <c r="Q186" s="24"/>
-      <c r="R186" s="24"/>
-      <c r="S186" s="24"/>
-      <c r="T186" s="24"/>
-      <c r="U186" s="24"/>
-      <c r="V186" s="24"/>
-      <c r="W186" s="24"/>
-      <c r="X186" s="24"/>
-      <c r="Y186" s="24"/>
-      <c r="Z186" s="24"/>
-      <c r="AA186" s="24"/>
-      <c r="AB186" s="24"/>
-      <c r="AC186" s="24"/>
-      <c r="AD186" s="24"/>
-      <c r="AE186" s="24"/>
-      <c r="AF186" s="24"/>
-      <c r="AG186" s="24"/>
-      <c r="AH186" s="24"/>
-      <c r="AI186" s="25"/>
+      <c r="G186" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="19"/>
+      <c r="N186" s="19"/>
+      <c r="O186" s="19"/>
+      <c r="P186" s="19"/>
+      <c r="Q186" s="19"/>
+      <c r="R186" s="19"/>
+      <c r="S186" s="19"/>
+      <c r="T186" s="19"/>
+      <c r="U186" s="19"/>
+      <c r="V186" s="19"/>
+      <c r="W186" s="19"/>
+      <c r="X186" s="19"/>
+      <c r="Y186" s="19"/>
+      <c r="Z186" s="19"/>
+      <c r="AA186" s="19"/>
+      <c r="AB186" s="19"/>
+      <c r="AC186" s="19"/>
+      <c r="AD186" s="19"/>
+      <c r="AE186" s="19"/>
+      <c r="AF186" s="19"/>
+      <c r="AG186" s="19"/>
+      <c r="AH186" s="19"/>
+      <c r="AI186" s="20"/>
     </row>
     <row r="187" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E187" s="30"/>
       <c r="F187" s="46"/>
       <c r="G187" s="48" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -6924,7 +6929,7 @@
       <c r="E188" s="30"/>
       <c r="F188" s="46"/>
       <c r="G188" s="48" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -6958,305 +6963,311 @@
     <row r="189" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E189" s="30"/>
       <c r="F189" s="46"/>
-      <c r="G189" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="19"/>
-      <c r="N189" s="19"/>
-      <c r="O189" s="19"/>
-      <c r="P189" s="19"/>
-      <c r="Q189" s="19"/>
-      <c r="R189" s="19"/>
-      <c r="S189" s="19"/>
-      <c r="T189" s="19"/>
-      <c r="U189" s="19"/>
-      <c r="V189" s="19"/>
-      <c r="W189" s="19"/>
-      <c r="X189" s="19"/>
-      <c r="Y189" s="19"/>
-      <c r="Z189" s="19"/>
-      <c r="AA189" s="19"/>
-      <c r="AB189" s="19"/>
-      <c r="AC189" s="19"/>
-      <c r="AD189" s="19"/>
-      <c r="AE189" s="19"/>
-      <c r="AF189" s="19"/>
-      <c r="AG189" s="19"/>
-      <c r="AH189" s="19"/>
-      <c r="AI189" s="20"/>
+      <c r="G189" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H189" s="41"/>
+      <c r="I189" s="41"/>
+      <c r="J189" s="41"/>
+      <c r="K189" s="41"/>
+      <c r="L189" s="41"/>
+      <c r="M189" s="41"/>
+      <c r="N189" s="41"/>
+      <c r="O189" s="41"/>
+      <c r="P189" s="41"/>
+      <c r="Q189" s="41"/>
+      <c r="R189" s="41"/>
+      <c r="S189" s="41"/>
+      <c r="T189" s="41"/>
+      <c r="U189" s="41"/>
+      <c r="V189" s="41"/>
+      <c r="W189" s="41"/>
+      <c r="X189" s="41"/>
+      <c r="Y189" s="41"/>
+      <c r="Z189" s="41"/>
+      <c r="AA189" s="41"/>
+      <c r="AB189" s="41"/>
+      <c r="AC189" s="41"/>
+      <c r="AD189" s="41"/>
+      <c r="AE189" s="41"/>
+      <c r="AF189" s="41"/>
+      <c r="AG189" s="41"/>
+      <c r="AH189" s="41"/>
+      <c r="AI189" s="42"/>
     </row>
     <row r="190" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E190" s="30"/>
       <c r="F190" s="46"/>
-      <c r="G190" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="H190" s="41"/>
-      <c r="I190" s="41"/>
-      <c r="J190" s="41"/>
-      <c r="K190" s="41"/>
-      <c r="L190" s="41"/>
-      <c r="M190" s="41"/>
-      <c r="N190" s="41"/>
-      <c r="O190" s="41"/>
-      <c r="P190" s="41"/>
-      <c r="Q190" s="41"/>
-      <c r="R190" s="41"/>
-      <c r="S190" s="41"/>
-      <c r="T190" s="41"/>
-      <c r="U190" s="41"/>
-      <c r="V190" s="41"/>
-      <c r="W190" s="41"/>
-      <c r="X190" s="41"/>
-      <c r="Y190" s="41"/>
-      <c r="Z190" s="41"/>
-      <c r="AA190" s="41"/>
-      <c r="AB190" s="41"/>
-      <c r="AC190" s="41"/>
-      <c r="AD190" s="41"/>
-      <c r="AE190" s="41"/>
-      <c r="AF190" s="41"/>
-      <c r="AG190" s="41"/>
-      <c r="AH190" s="41"/>
-      <c r="AI190" s="42"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="19"/>
+      <c r="M190" s="19"/>
+      <c r="N190" s="19"/>
+      <c r="O190" s="19"/>
+      <c r="P190" s="19"/>
+      <c r="Q190" s="19"/>
+      <c r="R190" s="19"/>
+      <c r="S190" s="19"/>
+      <c r="T190" s="19"/>
+      <c r="U190" s="19"/>
+      <c r="V190" s="19"/>
+      <c r="W190" s="19"/>
+      <c r="X190" s="19"/>
+      <c r="Y190" s="19"/>
+      <c r="Z190" s="19"/>
+      <c r="AA190" s="19"/>
+      <c r="AB190" s="19"/>
+      <c r="AC190" s="19"/>
+      <c r="AD190" s="19"/>
+      <c r="AE190" s="19"/>
+      <c r="AF190" s="19"/>
+      <c r="AG190" s="19"/>
+      <c r="AH190" s="19"/>
+      <c r="AI190" s="19"/>
     </row>
     <row r="191" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E191" s="30"/>
-      <c r="F191" s="46"/>
-      <c r="G191" s="50"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
-      <c r="R191" s="19"/>
-      <c r="S191" s="19"/>
-      <c r="T191" s="19"/>
-      <c r="U191" s="19"/>
-      <c r="V191" s="19"/>
-      <c r="W191" s="19"/>
-      <c r="X191" s="19"/>
-      <c r="Y191" s="19"/>
-      <c r="Z191" s="19"/>
-      <c r="AA191" s="19"/>
-      <c r="AB191" s="19"/>
-      <c r="AC191" s="19"/>
-      <c r="AD191" s="19"/>
-      <c r="AE191" s="19"/>
-      <c r="AF191" s="19"/>
-      <c r="AG191" s="19"/>
-      <c r="AH191" s="19"/>
-      <c r="AI191" s="19"/>
+      <c r="E191" s="30" t="str">
+        <f>$D$151&amp;"2."</f>
+        <v>7.13.4.2.</v>
+      </c>
+      <c r="F191" s="31" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="192" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E192" s="30" t="str">
-        <f>$D$152&amp;"2."</f>
-        <v>7.13.4.2.</v>
-      </c>
-      <c r="F192" s="31" t="s">
-        <v>216</v>
+      <c r="E192" s="30"/>
+      <c r="F192" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E193" s="30"/>
-      <c r="F193" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="45" t="s">
-        <v>103</v>
-      </c>
+      <c r="F193" s="31"/>
+      <c r="G193" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="29"/>
+      <c r="L193" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="M193" s="28"/>
+      <c r="N193" s="29"/>
+      <c r="O193" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="P193" s="28"/>
+      <c r="Q193" s="28"/>
+      <c r="R193" s="29"/>
+      <c r="S193" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T193" s="28"/>
+      <c r="U193" s="28"/>
+      <c r="V193" s="28"/>
+      <c r="W193" s="28"/>
+      <c r="X193" s="28"/>
+      <c r="Y193" s="28"/>
+      <c r="Z193" s="28"/>
+      <c r="AA193" s="28"/>
+      <c r="AB193" s="28"/>
+      <c r="AC193" s="28"/>
+      <c r="AD193" s="28"/>
+      <c r="AE193" s="28"/>
+      <c r="AF193" s="28"/>
+      <c r="AG193" s="28"/>
+      <c r="AH193" s="28"/>
+      <c r="AI193" s="29"/>
     </row>
     <row r="194" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E194" s="30"/>
       <c r="F194" s="31"/>
-      <c r="G194" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H194" s="28"/>
-      <c r="I194" s="28"/>
-      <c r="J194" s="28"/>
-      <c r="K194" s="29"/>
-      <c r="L194" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="M194" s="28"/>
-      <c r="N194" s="29"/>
-      <c r="O194" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="P194" s="28"/>
-      <c r="Q194" s="28"/>
-      <c r="R194" s="29"/>
-      <c r="S194" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="T194" s="28"/>
-      <c r="U194" s="28"/>
-      <c r="V194" s="28"/>
-      <c r="W194" s="28"/>
-      <c r="X194" s="28"/>
-      <c r="Y194" s="28"/>
-      <c r="Z194" s="28"/>
-      <c r="AA194" s="28"/>
-      <c r="AB194" s="28"/>
-      <c r="AC194" s="28"/>
-      <c r="AD194" s="28"/>
-      <c r="AE194" s="28"/>
-      <c r="AF194" s="28"/>
-      <c r="AG194" s="28"/>
-      <c r="AH194" s="28"/>
-      <c r="AI194" s="29"/>
+      <c r="G194" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H194" s="43"/>
+      <c r="I194" s="43"/>
+      <c r="J194" s="43"/>
+      <c r="K194" s="44"/>
+      <c r="L194" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="M194" s="43"/>
+      <c r="N194" s="44"/>
+      <c r="O194" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="P194" s="43"/>
+      <c r="Q194" s="43"/>
+      <c r="R194" s="44"/>
+      <c r="S194" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="T194" s="43"/>
+      <c r="U194" s="43"/>
+      <c r="V194" s="43"/>
+      <c r="W194" s="43"/>
+      <c r="X194" s="43"/>
+      <c r="Y194" s="43"/>
+      <c r="Z194" s="43"/>
+      <c r="AA194" s="43"/>
+      <c r="AB194" s="43"/>
+      <c r="AC194" s="43"/>
+      <c r="AD194" s="43"/>
+      <c r="AE194" s="43"/>
+      <c r="AF194" s="43"/>
+      <c r="AG194" s="43"/>
+      <c r="AH194" s="43"/>
+      <c r="AI194" s="44"/>
     </row>
     <row r="195" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E195" s="30"/>
       <c r="F195" s="31"/>
-      <c r="G195" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H195" s="43"/>
-      <c r="I195" s="43"/>
-      <c r="J195" s="43"/>
-      <c r="K195" s="44"/>
-      <c r="L195" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="M195" s="43"/>
-      <c r="N195" s="44"/>
-      <c r="O195" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="P195" s="43"/>
-      <c r="Q195" s="43"/>
-      <c r="R195" s="44"/>
-      <c r="S195" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="T195" s="43"/>
-      <c r="U195" s="43"/>
-      <c r="V195" s="43"/>
-      <c r="W195" s="43"/>
-      <c r="X195" s="43"/>
-      <c r="Y195" s="43"/>
-      <c r="Z195" s="43"/>
-      <c r="AA195" s="43"/>
-      <c r="AB195" s="43"/>
-      <c r="AC195" s="43"/>
-      <c r="AD195" s="43"/>
-      <c r="AE195" s="43"/>
-      <c r="AF195" s="43"/>
-      <c r="AG195" s="43"/>
-      <c r="AH195" s="43"/>
-      <c r="AI195" s="44"/>
+      <c r="G195" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="20"/>
+      <c r="L195" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="M195" s="19"/>
+      <c r="N195" s="20"/>
+      <c r="O195" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P195" s="19"/>
+      <c r="Q195" s="19"/>
+      <c r="R195" s="20"/>
+      <c r="S195" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="T195" s="19"/>
+      <c r="U195" s="19"/>
+      <c r="V195" s="19"/>
+      <c r="W195" s="19"/>
+      <c r="X195" s="19"/>
+      <c r="Y195" s="19"/>
+      <c r="Z195" s="19"/>
+      <c r="AA195" s="19"/>
+      <c r="AB195" s="19"/>
+      <c r="AC195" s="19"/>
+      <c r="AD195" s="19"/>
+      <c r="AE195" s="19"/>
+      <c r="AF195" s="19"/>
+      <c r="AG195" s="19"/>
+      <c r="AH195" s="19"/>
+      <c r="AI195" s="20"/>
     </row>
     <row r="196" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E196" s="30"/>
       <c r="F196" s="31"/>
-      <c r="G196" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="20"/>
-      <c r="L196" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="M196" s="19"/>
-      <c r="N196" s="20"/>
-      <c r="O196" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P196" s="19"/>
-      <c r="Q196" s="19"/>
-      <c r="R196" s="20"/>
-      <c r="S196" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="T196" s="19"/>
-      <c r="U196" s="19"/>
-      <c r="V196" s="19"/>
-      <c r="W196" s="19"/>
-      <c r="X196" s="19"/>
-      <c r="Y196" s="19"/>
-      <c r="Z196" s="19"/>
-      <c r="AA196" s="19"/>
-      <c r="AB196" s="19"/>
-      <c r="AC196" s="19"/>
-      <c r="AD196" s="19"/>
-      <c r="AE196" s="19"/>
-      <c r="AF196" s="19"/>
-      <c r="AG196" s="19"/>
-      <c r="AH196" s="19"/>
-      <c r="AI196" s="20"/>
+      <c r="G196" s="40"/>
+      <c r="H196" s="41"/>
+      <c r="I196" s="41"/>
+      <c r="J196" s="41"/>
+      <c r="K196" s="42"/>
+      <c r="L196" s="41"/>
+      <c r="M196" s="41"/>
+      <c r="N196" s="42"/>
+      <c r="O196" s="41"/>
+      <c r="P196" s="41"/>
+      <c r="Q196" s="41"/>
+      <c r="R196" s="42"/>
+      <c r="S196" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="T196" s="41"/>
+      <c r="U196" s="41"/>
+      <c r="V196" s="41"/>
+      <c r="W196" s="41"/>
+      <c r="X196" s="41"/>
+      <c r="Y196" s="41"/>
+      <c r="Z196" s="41"/>
+      <c r="AA196" s="41"/>
+      <c r="AB196" s="41"/>
+      <c r="AC196" s="41"/>
+      <c r="AD196" s="41"/>
+      <c r="AE196" s="41"/>
+      <c r="AF196" s="41"/>
+      <c r="AG196" s="41"/>
+      <c r="AH196" s="41"/>
+      <c r="AI196" s="42"/>
     </row>
     <row r="197" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E197" s="30"/>
       <c r="F197" s="31"/>
-      <c r="G197" s="40"/>
-      <c r="H197" s="41"/>
-      <c r="I197" s="41"/>
-      <c r="J197" s="41"/>
-      <c r="K197" s="42"/>
-      <c r="L197" s="41"/>
-      <c r="M197" s="41"/>
-      <c r="N197" s="42"/>
-      <c r="O197" s="41"/>
-      <c r="P197" s="41"/>
-      <c r="Q197" s="41"/>
-      <c r="R197" s="42"/>
-      <c r="S197" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="T197" s="41"/>
-      <c r="U197" s="41"/>
-      <c r="V197" s="41"/>
-      <c r="W197" s="41"/>
-      <c r="X197" s="41"/>
-      <c r="Y197" s="41"/>
-      <c r="Z197" s="41"/>
-      <c r="AA197" s="41"/>
-      <c r="AB197" s="41"/>
-      <c r="AC197" s="41"/>
-      <c r="AD197" s="41"/>
-      <c r="AE197" s="41"/>
-      <c r="AF197" s="41"/>
-      <c r="AG197" s="41"/>
-      <c r="AH197" s="41"/>
-      <c r="AI197" s="42"/>
+      <c r="G197" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H197" s="43"/>
+      <c r="I197" s="43"/>
+      <c r="J197" s="43"/>
+      <c r="K197" s="44"/>
+      <c r="L197" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M197" s="43"/>
+      <c r="N197" s="44"/>
+      <c r="O197" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="P197" s="43"/>
+      <c r="Q197" s="43"/>
+      <c r="R197" s="44"/>
+      <c r="S197" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="T197" s="43"/>
+      <c r="U197" s="43"/>
+      <c r="V197" s="43"/>
+      <c r="W197" s="43"/>
+      <c r="X197" s="43"/>
+      <c r="Y197" s="43"/>
+      <c r="Z197" s="43"/>
+      <c r="AA197" s="43"/>
+      <c r="AB197" s="43"/>
+      <c r="AC197" s="43"/>
+      <c r="AD197" s="43"/>
+      <c r="AE197" s="43"/>
+      <c r="AF197" s="43"/>
+      <c r="AG197" s="43"/>
+      <c r="AH197" s="43"/>
+      <c r="AI197" s="44"/>
     </row>
     <row r="198" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E198" s="30"/>
       <c r="F198" s="31"/>
       <c r="G198" s="32" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="H198" s="43"/>
       <c r="I198" s="43"/>
       <c r="J198" s="43"/>
       <c r="K198" s="44"/>
       <c r="L198" s="43" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="M198" s="43"/>
       <c r="N198" s="44"/>
       <c r="O198" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P198" s="43"/>
       <c r="Q198" s="43"/>
       <c r="R198" s="44"/>
       <c r="S198" s="43" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="T198" s="43"/>
       <c r="U198" s="43"/>
@@ -7278,297 +7289,293 @@
     <row r="199" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E199" s="30"/>
       <c r="F199" s="31"/>
-      <c r="G199" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H199" s="43"/>
-      <c r="I199" s="43"/>
-      <c r="J199" s="43"/>
-      <c r="K199" s="44"/>
-      <c r="L199" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M199" s="43"/>
-      <c r="N199" s="44"/>
-      <c r="O199" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="P199" s="43"/>
-      <c r="Q199" s="43"/>
-      <c r="R199" s="44"/>
-      <c r="S199" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="T199" s="43"/>
-      <c r="U199" s="43"/>
-      <c r="V199" s="43"/>
-      <c r="W199" s="43"/>
-      <c r="X199" s="43"/>
-      <c r="Y199" s="43"/>
-      <c r="Z199" s="43"/>
-      <c r="AA199" s="43"/>
-      <c r="AB199" s="43"/>
-      <c r="AC199" s="43"/>
-      <c r="AD199" s="43"/>
-      <c r="AE199" s="43"/>
-      <c r="AF199" s="43"/>
-      <c r="AG199" s="43"/>
-      <c r="AH199" s="43"/>
-      <c r="AI199" s="44"/>
     </row>
     <row r="200" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E200" s="30"/>
-      <c r="F200" s="31"/>
+      <c r="F200" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G200" s="45" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="201" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E201" s="30"/>
-      <c r="F201" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G201" s="45" t="s">
-        <v>101</v>
+      <c r="F201" s="46"/>
+      <c r="G201" s="30" t="str">
+        <f>F200&amp;"-1"</f>
+        <v>(2)-1</v>
+      </c>
+      <c r="H201" s="45" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E202" s="30"/>
-      <c r="F202" s="46"/>
-      <c r="G202" s="30" t="str">
-        <f>F201&amp;"-1"</f>
-        <v>(2)-1</v>
-      </c>
-      <c r="H202" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="D202" s="19"/>
+      <c r="E202" s="37"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="38"/>
+      <c r="H202" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
+      <c r="N202" s="24"/>
+      <c r="O202" s="24"/>
+      <c r="P202" s="24"/>
+      <c r="Q202" s="24"/>
+      <c r="R202" s="24"/>
+      <c r="S202" s="24"/>
+      <c r="T202" s="24"/>
+      <c r="U202" s="24"/>
+      <c r="V202" s="24"/>
+      <c r="W202" s="24"/>
+      <c r="X202" s="24"/>
+      <c r="Y202" s="24"/>
+      <c r="Z202" s="24"/>
+      <c r="AA202" s="24"/>
+      <c r="AB202" s="24"/>
+      <c r="AC202" s="24"/>
+      <c r="AD202" s="24"/>
+      <c r="AE202" s="24"/>
+      <c r="AF202" s="24"/>
+      <c r="AG202" s="24"/>
+      <c r="AH202" s="24"/>
+      <c r="AI202" s="25"/>
     </row>
     <row r="203" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D203" s="19"/>
-      <c r="E203" s="37"/>
-      <c r="F203" s="37"/>
-      <c r="G203" s="38"/>
-      <c r="H203" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I203" s="24"/>
-      <c r="J203" s="24"/>
-      <c r="K203" s="24"/>
-      <c r="L203" s="24"/>
-      <c r="M203" s="24"/>
-      <c r="N203" s="24"/>
-      <c r="O203" s="24"/>
-      <c r="P203" s="24"/>
-      <c r="Q203" s="24"/>
-      <c r="R203" s="24"/>
-      <c r="S203" s="24"/>
-      <c r="T203" s="24"/>
-      <c r="U203" s="24"/>
-      <c r="V203" s="24"/>
-      <c r="W203" s="24"/>
-      <c r="X203" s="24"/>
-      <c r="Y203" s="24"/>
-      <c r="Z203" s="24"/>
-      <c r="AA203" s="24"/>
-      <c r="AB203" s="24"/>
-      <c r="AC203" s="24"/>
-      <c r="AD203" s="24"/>
-      <c r="AE203" s="24"/>
-      <c r="AF203" s="24"/>
-      <c r="AG203" s="24"/>
-      <c r="AH203" s="24"/>
-      <c r="AI203" s="25"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="46"/>
+      <c r="H203" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I203" s="41"/>
+      <c r="J203" s="41"/>
+      <c r="K203" s="41"/>
+      <c r="L203" s="41"/>
+      <c r="M203" s="41"/>
+      <c r="N203" s="41"/>
+      <c r="O203" s="41"/>
+      <c r="P203" s="41"/>
+      <c r="Q203" s="41"/>
+      <c r="R203" s="41"/>
+      <c r="S203" s="41"/>
+      <c r="T203" s="41"/>
+      <c r="U203" s="41"/>
+      <c r="V203" s="41"/>
+      <c r="W203" s="41"/>
+      <c r="X203" s="41"/>
+      <c r="Y203" s="41"/>
+      <c r="Z203" s="41"/>
+      <c r="AA203" s="41"/>
+      <c r="AB203" s="41"/>
+      <c r="AC203" s="41"/>
+      <c r="AD203" s="41"/>
+      <c r="AE203" s="41"/>
+      <c r="AF203" s="41"/>
+      <c r="AG203" s="41"/>
+      <c r="AH203" s="41"/>
+      <c r="AI203" s="42"/>
     </row>
     <row r="204" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E204" s="30"/>
       <c r="F204" s="30"/>
       <c r="G204" s="46"/>
-      <c r="H204" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I204" s="41"/>
-      <c r="J204" s="41"/>
-      <c r="K204" s="41"/>
-      <c r="L204" s="41"/>
-      <c r="M204" s="41"/>
-      <c r="N204" s="41"/>
-      <c r="O204" s="41"/>
-      <c r="P204" s="41"/>
-      <c r="Q204" s="41"/>
-      <c r="R204" s="41"/>
-      <c r="S204" s="41"/>
-      <c r="T204" s="41"/>
-      <c r="U204" s="41"/>
-      <c r="V204" s="41"/>
-      <c r="W204" s="41"/>
-      <c r="X204" s="41"/>
-      <c r="Y204" s="41"/>
-      <c r="Z204" s="41"/>
-      <c r="AA204" s="41"/>
-      <c r="AB204" s="41"/>
-      <c r="AC204" s="41"/>
-      <c r="AD204" s="41"/>
-      <c r="AE204" s="41"/>
-      <c r="AF204" s="41"/>
-      <c r="AG204" s="41"/>
-      <c r="AH204" s="41"/>
-      <c r="AI204" s="42"/>
+      <c r="H204" s="45" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="205" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E205" s="30"/>
       <c r="F205" s="30"/>
       <c r="G205" s="46"/>
       <c r="H205" s="45" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="206" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E206" s="30"/>
-      <c r="F206" s="30"/>
-      <c r="G206" s="46"/>
-      <c r="H206" s="45" t="s">
-        <v>122</v>
-      </c>
+      <c r="F206" s="46"/>
     </row>
     <row r="207" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E207" s="30"/>
       <c r="F207" s="46"/>
+      <c r="G207" s="30" t="str">
+        <f>F200&amp;"-2"</f>
+        <v>(2)-2</v>
+      </c>
+      <c r="H207" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="208" spans="4:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E208" s="30"/>
       <c r="F208" s="46"/>
-      <c r="G208" s="30" t="str">
-        <f>F201&amp;"-2"</f>
-        <v>(2)-2</v>
-      </c>
-      <c r="H208" s="45" t="s">
-        <v>74</v>
-      </c>
+      <c r="G208" s="30"/>
+      <c r="H208" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I208" s="28"/>
+      <c r="J208" s="28"/>
+      <c r="K208" s="28"/>
+      <c r="L208" s="28"/>
+      <c r="M208" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N208" s="28"/>
+      <c r="O208" s="28"/>
+      <c r="P208" s="28"/>
+      <c r="Q208" s="29"/>
+      <c r="R208" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S208" s="28"/>
+      <c r="T208" s="28"/>
+      <c r="U208" s="28"/>
+      <c r="V208" s="28"/>
+      <c r="W208" s="28"/>
+      <c r="X208" s="28"/>
+      <c r="Y208" s="28"/>
+      <c r="Z208" s="28"/>
+      <c r="AA208" s="28"/>
+      <c r="AB208" s="28"/>
+      <c r="AC208" s="28"/>
+      <c r="AD208" s="28"/>
+      <c r="AE208" s="28"/>
+      <c r="AF208" s="28"/>
+      <c r="AG208" s="28"/>
+      <c r="AH208" s="28"/>
+      <c r="AI208" s="29"/>
     </row>
     <row r="209" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E209" s="30"/>
-      <c r="F209" s="46"/>
-      <c r="G209" s="30"/>
-      <c r="H209" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I209" s="28"/>
-      <c r="J209" s="28"/>
-      <c r="K209" s="28"/>
-      <c r="L209" s="28"/>
-      <c r="M209" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="N209" s="28"/>
-      <c r="O209" s="28"/>
-      <c r="P209" s="28"/>
-      <c r="Q209" s="29"/>
-      <c r="R209" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="S209" s="28"/>
-      <c r="T209" s="28"/>
-      <c r="U209" s="28"/>
-      <c r="V209" s="28"/>
-      <c r="W209" s="28"/>
-      <c r="X209" s="28"/>
-      <c r="Y209" s="28"/>
-      <c r="Z209" s="28"/>
-      <c r="AA209" s="28"/>
-      <c r="AB209" s="28"/>
-      <c r="AC209" s="28"/>
-      <c r="AD209" s="28"/>
-      <c r="AE209" s="28"/>
-      <c r="AF209" s="28"/>
-      <c r="AG209" s="28"/>
-      <c r="AH209" s="28"/>
-      <c r="AI209" s="29"/>
+      <c r="H209" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I209" s="43"/>
+      <c r="J209" s="43"/>
+      <c r="K209" s="43"/>
+      <c r="L209" s="43"/>
+      <c r="M209" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N209" s="43"/>
+      <c r="O209" s="43"/>
+      <c r="P209" s="43"/>
+      <c r="Q209" s="44"/>
+      <c r="R209" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="S209" s="43"/>
+      <c r="T209" s="43"/>
+      <c r="U209" s="43"/>
+      <c r="V209" s="43"/>
+      <c r="W209" s="43"/>
+      <c r="X209" s="43"/>
+      <c r="Y209" s="43"/>
+      <c r="Z209" s="43"/>
+      <c r="AA209" s="43"/>
+      <c r="AB209" s="43"/>
+      <c r="AC209" s="43"/>
+      <c r="AD209" s="43"/>
+      <c r="AE209" s="43"/>
+      <c r="AF209" s="43"/>
+      <c r="AG209" s="43"/>
+      <c r="AH209" s="43"/>
+      <c r="AI209" s="44"/>
     </row>
     <row r="210" spans="5:35" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E210" s="30"/>
-      <c r="H210" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I210" s="43"/>
-      <c r="J210" s="43"/>
-      <c r="K210" s="43"/>
-      <c r="L210" s="43"/>
-      <c r="M210" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="N210" s="43"/>
-      <c r="O210" s="43"/>
-      <c r="P210" s="43"/>
-      <c r="Q210" s="44"/>
-      <c r="R210" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="S210" s="43"/>
-      <c r="T210" s="43"/>
-      <c r="U210" s="43"/>
-      <c r="V210" s="43"/>
-      <c r="W210" s="43"/>
-      <c r="X210" s="43"/>
-      <c r="Y210" s="43"/>
-      <c r="Z210" s="43"/>
-      <c r="AA210" s="43"/>
-      <c r="AB210" s="43"/>
-      <c r="AC210" s="43"/>
-      <c r="AD210" s="43"/>
-      <c r